--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\CODE\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8C91D9-49FD-41B1-9756-D8D4014F451A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B151330-0691-48EB-99F4-A8D76FF4A82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="2430" windowWidth="20310" windowHeight="9705" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75705" yWindow="570" windowWidth="18075" windowHeight="18840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>Price</t>
   </si>
@@ -288,19 +288,40 @@
   </si>
   <si>
     <t>FSD Beta</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -362,37 +383,44 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -417,16 +445,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>22643</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>24980</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -443,8 +471,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9858375" y="28575"/>
-          <a:ext cx="13118" cy="11753850"/>
+          <a:off x="10467975" y="9525"/>
+          <a:ext cx="15455" cy="14801850"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -783,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="11">
-        <v>650</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -791,7 +819,8 @@
         <v>1</v>
       </c>
       <c r="K3" s="10">
-        <v>1155</v>
+        <f>1044.490015*3</f>
+        <v>3133.470045</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>29</v>
@@ -803,7 +832,7 @@
       </c>
       <c r="K4" s="10">
         <f>K2*K3</f>
-        <v>750750</v>
+        <v>877371.61259999999</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -835,7 +864,7 @@
       </c>
       <c r="K7" s="10">
         <f>K4-K5+K6</f>
-        <v>731901</v>
+        <v>858522.61259999999</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
@@ -853,13 +882,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E310252-7C49-48D8-9A64-7380C8DB275B}">
-  <dimension ref="A1:R78"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="J13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O48" sqref="O48"/>
+      <selection pane="bottomRight" activeCell="P19" sqref="P19:V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -868,16 +897,16 @@
     <col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
     <col min="3" max="14" width="9.140625" style="2"/>
     <col min="15" max="15" width="8.7109375" style="2" customWidth="1"/>
-    <col min="16" max="18" width="9.140625" style="2"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="22" width="9.140625" style="2"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>84</v>
       </c>
@@ -899,8 +928,12 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
-    </row>
-    <row r="3" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+    </row>
+    <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -926,8 +959,12 @@
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
-    </row>
-    <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+    </row>
+    <row r="4" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
@@ -953,8 +990,12 @@
       </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
-    </row>
-    <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+    </row>
+    <row r="5" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1016,8 +1057,12 @@
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
-    </row>
-    <row r="6" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+    </row>
+    <row r="6" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1043,8 +1088,12 @@
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+    </row>
+    <row r="7" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1061,8 +1110,12 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
-    </row>
-    <row r="8" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
@@ -1096,8 +1149,12 @@
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
-    </row>
-    <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1131,8 +1188,12 @@
       </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
@@ -1194,8 +1255,12 @@
       </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-    </row>
-    <row r="11" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1212,8 +1277,12 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1262,8 +1331,20 @@
       <c r="R12" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="U12" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="V12" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
@@ -1301,8 +1382,12 @@
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
-    </row>
-    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+    </row>
+    <row r="14" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
@@ -1336,8 +1421,12 @@
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+    </row>
+    <row r="15" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
@@ -1371,8 +1460,12 @@
       </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+    </row>
+    <row r="16" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>35</v>
       </c>
@@ -1412,8 +1505,12 @@
       </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-    </row>
-    <row r="17" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+    </row>
+    <row r="17" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>36</v>
       </c>
@@ -1447,8 +1544,12 @@
       </c>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+    </row>
+    <row r="18" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>37</v>
       </c>
@@ -1482,8 +1583,12 @@
       </c>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+    </row>
+    <row r="19" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
         <v>38</v>
       </c>
@@ -1522,10 +1627,32 @@
         <f>SUM(P16:P18)</f>
         <v>16934</v>
       </c>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-    </row>
-    <row r="20" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q19" s="7">
+        <f t="shared" ref="Q19:V19" si="4">SUM(Q16:Q18)</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>39</v>
       </c>
@@ -1559,8 +1686,12 @@
       </c>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-    </row>
-    <row r="21" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+    </row>
+    <row r="21" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
@@ -1572,23 +1703,23 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5">
-        <f t="shared" ref="J21:N21" si="4">J13-J20</f>
+        <f t="shared" ref="J21:N21" si="5">J13-J20</f>
         <v>1711</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1730</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2401</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3243</v>
       </c>
       <c r="N21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4336</v>
       </c>
       <c r="O21" s="5">
@@ -1601,8 +1732,12 @@
       </c>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-    </row>
-    <row r="22" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+    </row>
+    <row r="22" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>41</v>
       </c>
@@ -1636,8 +1771,12 @@
       </c>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
-    </row>
-    <row r="23" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+    </row>
+    <row r="23" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>42</v>
       </c>
@@ -1649,7 +1788,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5">
-        <f t="shared" ref="J23" si="5">J16-J22-J20</f>
+        <f t="shared" ref="J23" si="6">J16-J22-J20</f>
         <v>2244</v>
       </c>
       <c r="K23" s="5">
@@ -1657,19 +1796,19 @@
         <v>2385</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" ref="L23:P23" si="6">L16-L22-L20</f>
+        <f t="shared" ref="L23:O23" si="7">L16-L22-L20</f>
         <v>2899</v>
       </c>
       <c r="M23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3673</v>
       </c>
       <c r="N23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4882</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5539</v>
       </c>
       <c r="P23" s="5">
@@ -1678,8 +1817,12 @@
       </c>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
-    </row>
-    <row r="24" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+    </row>
+    <row r="24" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
@@ -1713,8 +1856,12 @@
       </c>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
-    </row>
-    <row r="25" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+    </row>
+    <row r="25" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>44</v>
       </c>
@@ -1748,8 +1895,12 @@
       </c>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
-    </row>
-    <row r="26" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+    </row>
+    <row r="26" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>45</v>
       </c>
@@ -1761,37 +1912,41 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5">
-        <f t="shared" ref="J26:P26" si="7">J23+J17+J18-J24-J25</f>
+        <f t="shared" ref="J26:P26" si="8">J23+J17+J18-J24-J25</f>
         <v>2066</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2215</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2884</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3660</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4847</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5460</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4233</v>
       </c>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
-    </row>
-    <row r="27" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+    </row>
+    <row r="27" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>46</v>
       </c>
@@ -1825,8 +1980,12 @@
       </c>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
-    </row>
-    <row r="28" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+    </row>
+    <row r="28" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>47</v>
       </c>
@@ -1860,8 +2019,12 @@
       </c>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
-    </row>
-    <row r="29" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+    </row>
+    <row r="29" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>48</v>
       </c>
@@ -1873,23 +2036,23 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5">
-        <f t="shared" ref="J29" si="8">J27+J28</f>
+        <f t="shared" ref="J29" si="9">J27+J28</f>
         <v>1491</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" ref="K29:N29" si="9">K27+K28</f>
+        <f t="shared" ref="K29:N29" si="10">K27+K28</f>
         <v>1722</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1549</v>
       </c>
       <c r="M29" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1605</v>
       </c>
       <c r="N29" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2234</v>
       </c>
       <c r="O29" s="5">
@@ -1902,8 +2065,12 @@
       </c>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
-    </row>
-    <row r="30" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+    </row>
+    <row r="30" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>49</v>
       </c>
@@ -1915,23 +2082,23 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5">
-        <f t="shared" ref="J30" si="10">J26-J29</f>
+        <f t="shared" ref="J30" si="11">J26-J29</f>
         <v>575</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" ref="K30:N30" si="11">K26-K29</f>
+        <f t="shared" ref="K30:N30" si="12">K26-K29</f>
         <v>493</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1335</v>
       </c>
       <c r="M30" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2055</v>
       </c>
       <c r="N30" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2613</v>
       </c>
       <c r="O30" s="5">
@@ -1944,8 +2111,12 @@
       </c>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
-    </row>
-    <row r="31" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+    </row>
+    <row r="31" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>50</v>
       </c>
@@ -1986,8 +2157,12 @@
       </c>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
-    </row>
-    <row r="32" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+    </row>
+    <row r="32" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>51</v>
       </c>
@@ -2003,19 +2178,19 @@
         <v>379</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" ref="K32:N32" si="12">K30+K31</f>
+        <f t="shared" ref="K32:N32" si="13">K30+K31</f>
         <v>432</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1316</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1933</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2635</v>
       </c>
       <c r="O32" s="5">
@@ -2028,8 +2203,12 @@
       </c>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
-    </row>
-    <row r="33" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+    </row>
+    <row r="33" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>52</v>
       </c>
@@ -2070,8 +2249,12 @@
       </c>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
-    </row>
-    <row r="34" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+    </row>
+    <row r="34" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>53</v>
       </c>
@@ -2087,19 +2270,19 @@
         <v>270</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" ref="K34:N34" si="13">K32-K33</f>
+        <f t="shared" ref="K34:N34" si="14">K32-K33</f>
         <v>337</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1165</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1669</v>
       </c>
       <c r="N34" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2321</v>
       </c>
       <c r="O34" s="5">
@@ -2112,41 +2295,45 @@
       </c>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" ref="J35:K35" si="14">J34/J36</f>
+        <f t="shared" ref="J35:K35" si="15">J34/J36</f>
         <v>0.2402135231316726</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.29744042365401591</v>
       </c>
       <c r="L35" s="3">
-        <f t="shared" ref="L35" si="15">L34/L36</f>
+        <f t="shared" ref="L35" si="16">L34/L36</f>
         <v>1.0411081322609472</v>
       </c>
       <c r="M35" s="3">
-        <f t="shared" ref="M35" si="16">M34/M36</f>
+        <f t="shared" ref="M35" si="17">M34/M36</f>
         <v>1.4861976847729297</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" ref="N35" si="17">N34/N36</f>
+        <f t="shared" ref="N35" si="18">N34/N36</f>
         <v>2.044933920704846</v>
       </c>
       <c r="O35" s="3">
-        <f t="shared" ref="O35:P35" si="18">O34/O36</f>
+        <f t="shared" ref="O35:P35" si="19">O34/O36</f>
         <v>2.867761452031115</v>
       </c>
       <c r="P35" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.032900432900433</v>
       </c>
     </row>
-    <row r="36" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>1</v>
       </c>
@@ -2180,87 +2367,31 @@
       </c>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
-    </row>
-    <row r="38" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="4" t="s">
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B38" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="N38" s="18">
+        <f t="shared" ref="N38:O38" si="20">N19/J19-1</f>
+        <v>0.64919955323901712</v>
+      </c>
+      <c r="O38" s="18">
+        <f t="shared" si="20"/>
+        <v>0.80537106555010096</v>
+      </c>
+      <c r="P38" s="18">
+        <f>P19/L19-1</f>
+        <v>0.41612309750794441</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5">
-        <f t="shared" ref="J38:N38" si="19">J34</f>
-        <v>270</v>
-      </c>
-      <c r="K38" s="5">
-        <f t="shared" si="19"/>
-        <v>337</v>
-      </c>
-      <c r="L38" s="5">
-        <f t="shared" si="19"/>
-        <v>1165</v>
-      </c>
-      <c r="M38" s="5">
-        <f t="shared" si="19"/>
-        <v>1669</v>
-      </c>
-      <c r="N38" s="5">
-        <f t="shared" si="19"/>
-        <v>2321</v>
-      </c>
-      <c r="O38" s="5">
-        <f>O34</f>
-        <v>3318</v>
-      </c>
-      <c r="P38" s="5">
-        <f>P34</f>
-        <v>2348</v>
-      </c>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-    </row>
-    <row r="39" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5">
-        <v>296</v>
-      </c>
-      <c r="K39" s="5">
-        <v>464</v>
-      </c>
-      <c r="L39" s="5">
-        <v>1178</v>
-      </c>
-      <c r="M39" s="5">
-        <v>1659</v>
-      </c>
-      <c r="N39" s="5">
-        <v>2343</v>
-      </c>
-      <c r="O39" s="5">
-        <v>3280</v>
-      </c>
-      <c r="P39" s="5">
-        <v>2269</v>
-      </c>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-    </row>
-    <row r="40" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -2270,32 +2401,43 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5">
-        <v>618</v>
+        <f t="shared" ref="J40:N40" si="21">J34</f>
+        <v>270</v>
       </c>
       <c r="K40" s="5">
-        <v>621</v>
+        <f t="shared" si="21"/>
+        <v>337</v>
       </c>
       <c r="L40" s="5">
-        <v>681</v>
+        <f t="shared" si="21"/>
+        <v>1165</v>
       </c>
       <c r="M40" s="5">
-        <v>761</v>
+        <f t="shared" si="21"/>
+        <v>1669</v>
       </c>
       <c r="N40" s="5">
-        <v>848</v>
+        <f t="shared" si="21"/>
+        <v>2321</v>
       </c>
       <c r="O40" s="5">
-        <v>880</v>
+        <f>O34</f>
+        <v>3318</v>
       </c>
       <c r="P40" s="5">
-        <v>922</v>
+        <f>P34</f>
+        <v>2348</v>
       </c>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
-    </row>
-    <row r="41" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+    </row>
+    <row r="41" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -2305,32 +2447,36 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5">
-        <v>633</v>
+        <v>296</v>
       </c>
       <c r="K41" s="5">
-        <v>614</v>
+        <v>464</v>
       </c>
       <c r="L41" s="5">
-        <v>474</v>
+        <v>1178</v>
       </c>
       <c r="M41" s="5">
-        <v>475</v>
+        <v>1659</v>
       </c>
       <c r="N41" s="5">
-        <v>558</v>
+        <v>2343</v>
       </c>
       <c r="O41" s="5">
-        <v>418</v>
+        <v>3280</v>
       </c>
       <c r="P41" s="5">
-        <v>361</v>
+        <v>2269</v>
       </c>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
-    </row>
-    <row r="42" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+    </row>
+    <row r="42" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -2339,21 +2485,37 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
+      <c r="J42" s="5">
+        <v>618</v>
+      </c>
+      <c r="K42" s="5">
+        <v>621</v>
+      </c>
+      <c r="L42" s="5">
+        <v>681</v>
+      </c>
+      <c r="M42" s="5">
+        <v>761</v>
+      </c>
+      <c r="N42" s="5">
+        <v>848</v>
+      </c>
       <c r="O42" s="5">
-        <v>33</v>
-      </c>
-      <c r="P42" s="5"/>
+        <v>880</v>
+      </c>
+      <c r="P42" s="5">
+        <v>922</v>
+      </c>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
-    </row>
-    <row r="43" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="10" t="s">
-        <v>80</v>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+    </row>
+    <row r="43" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -2363,32 +2525,36 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5">
-        <v>230</v>
+        <v>633</v>
       </c>
       <c r="K43" s="5">
-        <v>-46</v>
+        <v>614</v>
       </c>
       <c r="L43" s="5">
-        <v>115</v>
+        <v>474</v>
       </c>
       <c r="M43" s="5">
-        <v>253</v>
+        <v>475</v>
       </c>
       <c r="N43" s="5">
-        <v>-19</v>
+        <v>558</v>
       </c>
       <c r="O43" s="5">
-        <v>-30</v>
+        <v>418</v>
       </c>
       <c r="P43" s="5">
-        <v>145</v>
+        <v>361</v>
       </c>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
-    </row>
-    <row r="44" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+    </row>
+    <row r="44" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -2403,15 +2569,19 @@
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
-    </row>
-    <row r="45" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="4" t="s">
-        <v>61</v>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+    </row>
+    <row r="45" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -2421,33 +2591,36 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5">
-        <v>1242</v>
+        <v>230</v>
       </c>
       <c r="K45" s="5">
-        <v>-12</v>
+        <v>-46</v>
       </c>
       <c r="L45" s="5">
-        <v>-324</v>
+        <v>115</v>
       </c>
       <c r="M45" s="5">
-        <v>-1</v>
+        <v>253</v>
       </c>
       <c r="N45" s="5">
-        <v>855</v>
+        <v>-19</v>
       </c>
       <c r="O45" s="5">
-        <f>-409-633-462-289-611+997+287+204+314</f>
-        <v>-602</v>
+        <v>-30</v>
       </c>
       <c r="P45" s="5">
-        <v>-1346</v>
+        <v>145</v>
       </c>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
-    </row>
-    <row r="46" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+    </row>
+    <row r="46" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -2456,38 +2629,26 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="5">
-        <f t="shared" ref="J46:N46" si="20">SUM(J39:J45)</f>
-        <v>3019</v>
-      </c>
-      <c r="K46" s="5">
-        <f t="shared" si="20"/>
-        <v>1641</v>
-      </c>
-      <c r="L46" s="5">
-        <f t="shared" si="20"/>
-        <v>2124</v>
-      </c>
-      <c r="M46" s="5">
-        <f t="shared" si="20"/>
-        <v>3147</v>
-      </c>
-      <c r="N46" s="5">
-        <f t="shared" si="20"/>
-        <v>4585</v>
-      </c>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
       <c r="O46" s="5">
-        <f>SUM(O39:O45)</f>
-        <v>3995</v>
-      </c>
-      <c r="P46" s="5">
-        <f>SUM(P39:P45)</f>
-        <v>2351</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
-    </row>
-    <row r="47" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+    </row>
+    <row r="47" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -2495,19 +2656,38 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
+      <c r="J47" s="5">
+        <v>1242</v>
+      </c>
+      <c r="K47" s="5">
+        <v>-12</v>
+      </c>
+      <c r="L47" s="5">
+        <v>-324</v>
+      </c>
+      <c r="M47" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N47" s="5">
+        <v>855</v>
+      </c>
+      <c r="O47" s="5">
+        <f>-409-633-462-289-611+997+287+204+314</f>
+        <v>-602</v>
+      </c>
+      <c r="P47" s="5">
+        <v>-1346</v>
+      </c>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
-    </row>
-    <row r="48" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="10" t="s">
-        <v>81</v>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+    </row>
+    <row r="48" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -2517,31 +2697,41 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5">
-        <v>1151</v>
+        <f t="shared" ref="J48:N48" si="22">SUM(J41:J47)</f>
+        <v>3019</v>
       </c>
       <c r="K48" s="5">
-        <v>1348</v>
+        <f t="shared" si="22"/>
+        <v>1641</v>
       </c>
       <c r="L48" s="5">
-        <v>1505</v>
+        <f t="shared" si="22"/>
+        <v>2124</v>
       </c>
       <c r="M48" s="5">
-        <v>1819</v>
+        <f t="shared" si="22"/>
+        <v>3147</v>
       </c>
       <c r="N48" s="5">
-        <v>1810</v>
+        <f t="shared" si="22"/>
+        <v>4585</v>
       </c>
       <c r="O48" s="5">
-        <v>1767</v>
-      </c>
-      <c r="P48" s="5"/>
+        <f>SUM(O41:O47)</f>
+        <v>3995</v>
+      </c>
+      <c r="P48" s="5">
+        <f>SUM(P41:P47)</f>
+        <v>2351</v>
+      </c>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
-    </row>
-    <row r="49" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+    </row>
+    <row r="49" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -2549,37 +2739,23 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="5">
-        <f>J46-J48</f>
-        <v>1868</v>
-      </c>
-      <c r="K49" s="5">
-        <f t="shared" ref="K49:N49" si="21">K46-K48</f>
-        <v>293</v>
-      </c>
-      <c r="L49" s="5">
-        <f t="shared" si="21"/>
-        <v>619</v>
-      </c>
-      <c r="M49" s="5">
-        <f t="shared" si="21"/>
-        <v>1328</v>
-      </c>
-      <c r="N49" s="5">
-        <f t="shared" si="21"/>
-        <v>2775</v>
-      </c>
-      <c r="O49" s="5">
-        <f t="shared" ref="O49" si="22">O46-O48</f>
-        <v>2228</v>
-      </c>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
-    </row>
-    <row r="50" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+    </row>
+    <row r="50" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -2588,26 +2764,39 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
+      <c r="J50" s="5">
+        <v>1151</v>
+      </c>
+      <c r="K50" s="5">
+        <v>1348</v>
+      </c>
+      <c r="L50" s="5">
+        <v>1505</v>
+      </c>
       <c r="M50" s="5">
-        <f>SUM(J49:M49)</f>
-        <v>4108</v>
+        <v>1819</v>
       </c>
       <c r="N50" s="5">
-        <f>SUM(K49:N49)</f>
-        <v>5015</v>
+        <v>1810</v>
       </c>
       <c r="O50" s="5">
-        <f>SUM(L49:O49)</f>
-        <v>6950</v>
-      </c>
-      <c r="P50" s="5"/>
+        <v>1767</v>
+      </c>
+      <c r="P50" s="5">
+        <f>3497-O50</f>
+        <v>1730</v>
+      </c>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
-    </row>
-    <row r="51" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+    </row>
+    <row r="51" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="10" t="s">
+        <v>82</v>
+      </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -2615,17 +2804,45 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
+      <c r="J51" s="5">
+        <f>J48-J50</f>
+        <v>1868</v>
+      </c>
+      <c r="K51" s="5">
+        <f t="shared" ref="K51:N51" si="23">K48-K50</f>
+        <v>293</v>
+      </c>
+      <c r="L51" s="5">
+        <f t="shared" si="23"/>
+        <v>619</v>
+      </c>
+      <c r="M51" s="5">
+        <f t="shared" si="23"/>
+        <v>1328</v>
+      </c>
+      <c r="N51" s="5">
+        <f t="shared" si="23"/>
+        <v>2775</v>
+      </c>
+      <c r="O51" s="5">
+        <f t="shared" ref="O51" si="24">O48-O50</f>
+        <v>2228</v>
+      </c>
+      <c r="P51" s="5">
+        <f>P48-P50</f>
+        <v>621</v>
+      </c>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
-    </row>
-    <row r="52" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+    </row>
+    <row r="52" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -2636,17 +2853,30 @@
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
+      <c r="M52" s="5">
+        <f>SUM(J51:M51)</f>
+        <v>4108</v>
+      </c>
+      <c r="N52" s="5">
+        <f>SUM(K51:N51)</f>
+        <v>5015</v>
+      </c>
+      <c r="O52" s="5">
+        <f>SUM(L51:O51)</f>
+        <v>6950</v>
+      </c>
+      <c r="P52" s="5">
+        <f>SUM(M51:P51)</f>
+        <v>6952</v>
+      </c>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
-    </row>
-    <row r="53" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+    </row>
+    <row r="53" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -2658,18 +2888,19 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8">
-        <f>17576+131</f>
-        <v>17707</v>
-      </c>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
-    </row>
-    <row r="54" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+    </row>
+    <row r="54" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="10" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -2682,17 +2913,25 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5">
-        <v>1913</v>
-      </c>
-      <c r="P54" s="5"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8">
+        <f>17576+131</f>
+        <v>17707</v>
+      </c>
+      <c r="P54" s="8">
+        <f>18324+591</f>
+        <v>18915</v>
+      </c>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
-    </row>
-    <row r="55" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+    </row>
+    <row r="55" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -2707,15 +2946,21 @@
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5">
-        <v>5757</v>
-      </c>
-      <c r="P55" s="5"/>
+        <v>1913</v>
+      </c>
+      <c r="P55" s="5">
+        <v>2081</v>
+      </c>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
-    </row>
-    <row r="56" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+    </row>
+    <row r="56" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -2730,15 +2975,21 @@
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5">
-        <v>1723</v>
-      </c>
-      <c r="P56" s="5"/>
+        <v>5757</v>
+      </c>
+      <c r="P56" s="5">
+        <v>8108</v>
+      </c>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
-    </row>
-    <row r="57" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+    </row>
+    <row r="57" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -2753,15 +3004,21 @@
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5">
-        <v>4511</v>
-      </c>
-      <c r="P57" s="5"/>
+        <v>1723</v>
+      </c>
+      <c r="P57" s="5">
+        <v>2118</v>
+      </c>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
-    </row>
-    <row r="58" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+    </row>
+    <row r="58" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -2776,15 +3033,21 @@
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5">
-        <v>5765</v>
-      </c>
-      <c r="P58" s="5"/>
+        <v>4511</v>
+      </c>
+      <c r="P58" s="5">
+        <v>4782</v>
+      </c>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
-    </row>
-    <row r="59" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+    </row>
+    <row r="59" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -2799,15 +3062,21 @@
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5">
-        <v>18884</v>
-      </c>
-      <c r="P59" s="5"/>
+        <v>5765</v>
+      </c>
+      <c r="P59" s="5">
+        <v>5624</v>
+      </c>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
-    </row>
-    <row r="60" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+    </row>
+    <row r="60" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -2822,15 +3091,21 @@
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5">
-        <v>2016</v>
-      </c>
-      <c r="P60" s="5"/>
+        <v>18884</v>
+      </c>
+      <c r="P60" s="5">
+        <v>21093</v>
+      </c>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
-    </row>
-    <row r="61" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+    </row>
+    <row r="61" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -2845,15 +3120,21 @@
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5">
-        <v>1260</v>
-      </c>
-      <c r="P61" s="5"/>
+        <v>2016</v>
+      </c>
+      <c r="P61" s="5">
+        <v>2185</v>
+      </c>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
-    </row>
-    <row r="62" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+    </row>
+    <row r="62" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -2868,15 +3149,21 @@
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5">
-        <v>457</v>
-      </c>
-      <c r="P62" s="5"/>
+        <v>1260</v>
+      </c>
+      <c r="P62" s="5">
+        <v>218</v>
+      </c>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
-    </row>
-    <row r="63" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+    </row>
+    <row r="63" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -2891,15 +3178,22 @@
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5">
-        <v>2138</v>
-      </c>
-      <c r="P63" s="5"/>
+        <v>457</v>
+      </c>
+      <c r="P63" s="5">
+        <f>241+196</f>
+        <v>437</v>
+      </c>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
-    </row>
-    <row r="64" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+    </row>
+    <row r="64" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -2914,99 +3208,165 @@
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5">
-        <f>SUM(O53:O63)</f>
-        <v>62131</v>
-      </c>
-      <c r="P64" s="5"/>
+        <v>2138</v>
+      </c>
+      <c r="P64" s="5">
+        <v>2952</v>
+      </c>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B66" s="9" t="s">
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+    </row>
+    <row r="65" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5">
+        <f>SUM(O54:O64)</f>
+        <v>62131</v>
+      </c>
+      <c r="P65" s="5">
+        <f t="shared" ref="P65" si="25">SUM(P54:P64)</f>
+        <v>68513</v>
+      </c>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B67" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="O66" s="5">
+      <c r="O67" s="5">
         <v>10025</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B67" s="9" t="s">
+      <c r="P67" s="5">
+        <v>11212</v>
+      </c>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B68" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="O67" s="5">
+      <c r="O68" s="5">
         <v>5719</v>
       </c>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B68" s="9" t="s">
+      <c r="P68" s="5">
+        <v>6037</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B69" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="O68" s="5">
+      <c r="O69" s="5">
         <v>1447</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B69" s="9" t="s">
+      <c r="P69" s="5">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B70" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="O69" s="5">
+      <c r="O70" s="5">
         <v>925</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B70" s="9" t="s">
+      <c r="P70" s="5">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B71" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O70" s="5">
+      <c r="O71" s="5">
         <f>1589+5245</f>
         <v>6834</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B71" s="9" t="s">
+      <c r="P71" s="5">
+        <f>2898+1532</f>
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B72" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="O71" s="5">
+      <c r="O72" s="5">
         <v>2052</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B72" s="9" t="s">
+      <c r="P72" s="5">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B73" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="O72" s="5">
+      <c r="O73" s="5">
         <v>3546</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B73" s="9" t="s">
+      <c r="P73" s="5">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B74" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="O73" s="5">
+      <c r="O74" s="5">
         <f>30189+826+568</f>
         <v>31583</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B74" s="9" t="s">
+      <c r="P74" s="5">
+        <f>36376+421+861</f>
+        <v>37658</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B75" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="O74" s="5">
-        <f>SUM(O66:O73)</f>
+      <c r="O75" s="5">
+        <f>SUM(O67:O74)</f>
         <v>62131</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="O75" s="5"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="5">
+        <f t="shared" ref="P75" si="26">SUM(P67:P74)</f>
+        <v>68513</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="O76" s="5"/>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="O77" s="5"/>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.2">
       <c r="O78" s="5"/>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="O79" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B151330-0691-48EB-99F4-A8D76FF4A82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10C9613-23A0-48B5-8F3A-AFB0690F38CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75705" yWindow="570" windowWidth="18075" windowHeight="18840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14205" yWindow="390" windowWidth="33330" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>Price</t>
   </si>
@@ -303,19 +303,31 @@
   </si>
   <si>
     <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>Auto GM</t>
+  </si>
+  <si>
+    <t>Auto Product y/y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -383,46 +395,49 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -445,16 +460,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>18368</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>79762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>24980</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>33823</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>146437</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -471,8 +486,58 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10467975" y="9525"/>
-          <a:ext cx="15455" cy="14801850"/>
+          <a:off x="11100213" y="79762"/>
+          <a:ext cx="15455" cy="15339520"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>39414</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>78828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>39414</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>124811</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97A9A93D-510F-23C5-BB9A-3A7D0D7364B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19063138" y="78828"/>
+          <a:ext cx="0" cy="7600293"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -797,9 +862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -811,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="11">
-        <v>280</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -819,11 +882,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="10">
-        <f>1044.490015*3</f>
-        <v>3133.470045</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>29</v>
+        <v>3157.7524490000001</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -832,7 +894,7 @@
       </c>
       <c r="K4" s="10">
         <f>K2*K3</f>
-        <v>877371.61259999999</v>
+        <v>344195.01694100001</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -840,22 +902,23 @@
         <v>3</v>
       </c>
       <c r="K5" s="10">
-        <f>18324+591</f>
-        <v>18915</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>29</v>
+        <f>19532+1575</f>
+        <v>21107</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="10">
-        <v>66</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>29</v>
+      <c r="K6" s="19">
+        <f>2096+1457</f>
+        <v>3553</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -864,7 +927,7 @@
       </c>
       <c r="K7" s="10">
         <f>K4-K5+K6</f>
-        <v>858522.61259999999</v>
+        <v>326641.01694100001</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
@@ -882,13 +945,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E310252-7C49-48D8-9A64-7380C8DB275B}">
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:AK84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="J13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P19" sqref="P19:V19"/>
+      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -901,12 +964,12 @@
     <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>84</v>
       </c>
@@ -933,7 +996,7 @@
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
     </row>
-    <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -957,14 +1020,16 @@
       <c r="P3" s="5">
         <v>16162</v>
       </c>
-      <c r="Q3" s="5"/>
+      <c r="Q3" s="5">
+        <v>18672</v>
+      </c>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
     </row>
-    <row r="4" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
@@ -988,14 +1053,16 @@
       <c r="P4" s="5">
         <v>238533</v>
       </c>
-      <c r="Q4" s="5"/>
+      <c r="Q4" s="5">
+        <v>325158</v>
+      </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
     </row>
-    <row r="5" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1055,14 +1122,17 @@
         <f>P4+P3</f>
         <v>254695</v>
       </c>
-      <c r="Q5" s="5"/>
+      <c r="Q5" s="5">
+        <f>Q4+Q3</f>
+        <v>343830</v>
+      </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1086,14 +1156,17 @@
         <f>P5/P13*1000</f>
         <v>18631.675201170445</v>
       </c>
-      <c r="Q6" s="5"/>
+      <c r="Q6" s="5">
+        <f>Q5/Q13*1000</f>
+        <v>19332.583637897107</v>
+      </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1115,7 +1188,7 @@
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
@@ -1147,14 +1220,16 @@
       <c r="P8" s="5">
         <v>16411</v>
       </c>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="5">
+        <v>19935</v>
+      </c>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
     </row>
-    <row r="9" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1186,14 +1261,16 @@
       <c r="P9" s="5">
         <v>242169</v>
       </c>
-      <c r="Q9" s="5"/>
+      <c r="Q9" s="5">
+        <v>345988</v>
+      </c>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
@@ -1253,14 +1330,17 @@
         <f>P9+P8</f>
         <v>258580</v>
       </c>
-      <c r="Q10" s="7"/>
+      <c r="Q10" s="7">
+        <f>+Q8+Q9</f>
+        <v>365923</v>
+      </c>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
     </row>
-    <row r="11" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1282,7 +1362,7 @@
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1331,30 +1411,82 @@
       <c r="R12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S12" s="17" t="s">
+      <c r="S12" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="T12" s="17" t="s">
+      <c r="T12" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="U12" s="17" t="s">
+      <c r="U12" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="V12" s="17" t="s">
+      <c r="V12" s="16" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z12" s="1">
+        <v>2017</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>2018</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>2019</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>2020</v>
+      </c>
+      <c r="AD12" s="1">
+        <f>+AC12+1</f>
+        <v>2021</v>
+      </c>
+      <c r="AE12" s="1">
+        <f t="shared" ref="AE12:AK12" si="2">+AD12+1</f>
+        <v>2022</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="AG12" s="1">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="2"/>
+        <v>2025</v>
+      </c>
+      <c r="AI12" s="1">
+        <f t="shared" si="2"/>
+        <v>2026</v>
+      </c>
+      <c r="AJ12" s="1">
+        <f t="shared" si="2"/>
+        <v>2027</v>
+      </c>
+      <c r="AK12" s="1">
+        <f t="shared" si="2"/>
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="5">
+        <v>5168</v>
+      </c>
+      <c r="E13" s="5">
+        <v>5132</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="H13" s="5">
+        <v>4911</v>
+      </c>
+      <c r="I13" s="5">
+        <v>7346</v>
+      </c>
       <c r="J13" s="5">
         <f>9034-J14</f>
         <v>8633</v>
@@ -1380,24 +1512,61 @@
       <c r="P13" s="12">
         <v>13670</v>
       </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-    </row>
-    <row r="14" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q13" s="5">
+        <v>17785</v>
+      </c>
+      <c r="R13" s="5">
+        <f>+N13*1.4</f>
+        <v>21035</v>
+      </c>
+      <c r="S13" s="5">
+        <f t="shared" ref="S13:S15" si="3">+O13*1.4</f>
+        <v>21719.599999999999</v>
+      </c>
+      <c r="T13" s="5">
+        <f t="shared" ref="T13:T15" si="4">+P13*1.4</f>
+        <v>19138</v>
+      </c>
+      <c r="U13" s="5">
+        <f t="shared" ref="U13:U15" si="5">+Q13*1.4</f>
+        <v>24899</v>
+      </c>
+      <c r="V13" s="5">
+        <f t="shared" ref="V13:V15" si="6">+R13*1.4</f>
+        <v>29448.999999999996</v>
+      </c>
+      <c r="AD13" s="4">
+        <f>SUM(K13:N13)</f>
+        <v>44125</v>
+      </c>
+      <c r="AE13" s="4">
+        <f>SUM(O13:R13)</f>
+        <v>68004</v>
+      </c>
+      <c r="AF13" s="4">
+        <f>SUM(S13:V13)</f>
+        <v>95205.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
       <c r="J14" s="5">
         <v>401</v>
       </c>
@@ -1419,24 +1588,61 @@
       <c r="P14" s="5">
         <v>344</v>
       </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-    </row>
-    <row r="15" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q14" s="5">
+        <v>286</v>
+      </c>
+      <c r="R14" s="5">
+        <f t="shared" ref="R14:R15" si="7">+N14*1.4</f>
+        <v>439.59999999999997</v>
+      </c>
+      <c r="S14" s="5">
+        <f t="shared" si="3"/>
+        <v>950.59999999999991</v>
+      </c>
+      <c r="T14" s="5">
+        <f t="shared" si="4"/>
+        <v>481.59999999999997</v>
+      </c>
+      <c r="U14" s="5">
+        <f t="shared" si="5"/>
+        <v>400.4</v>
+      </c>
+      <c r="V14" s="5">
+        <f t="shared" si="6"/>
+        <v>615.43999999999994</v>
+      </c>
+      <c r="AD14" s="4">
+        <f t="shared" ref="AD14:AD18" si="8">SUM(K14:N14)</f>
+        <v>1465</v>
+      </c>
+      <c r="AE14" s="4">
+        <f t="shared" ref="AD14:AE25" si="9">SUM(O14:R14)</f>
+        <v>1748.6</v>
+      </c>
+      <c r="AF14" s="4">
+        <f t="shared" ref="AF14:AF33" si="10">SUM(S14:V14)</f>
+        <v>2448.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="5">
+        <v>208</v>
+      </c>
+      <c r="E15" s="5">
+        <v>221</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="H15" s="5">
+        <v>268</v>
+      </c>
+      <c r="I15" s="5">
+        <v>265</v>
+      </c>
       <c r="J15" s="5">
         <v>280</v>
       </c>
@@ -1458,41 +1664,83 @@
       <c r="P15" s="5">
         <v>588</v>
       </c>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-    </row>
-    <row r="16" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q15" s="5">
+        <v>621</v>
+      </c>
+      <c r="R15" s="5">
+        <f t="shared" si="7"/>
+        <v>879.19999999999993</v>
+      </c>
+      <c r="S15" s="5">
+        <f t="shared" si="3"/>
+        <v>935.19999999999993</v>
+      </c>
+      <c r="T15" s="5">
+        <f t="shared" si="4"/>
+        <v>823.19999999999993</v>
+      </c>
+      <c r="U15" s="5">
+        <f t="shared" si="5"/>
+        <v>869.4</v>
+      </c>
+      <c r="V15" s="5">
+        <f t="shared" si="6"/>
+        <v>1230.8799999999999</v>
+      </c>
+      <c r="AD15" s="4">
+        <f t="shared" si="8"/>
+        <v>1642</v>
+      </c>
+      <c r="AE15" s="4">
+        <f t="shared" si="9"/>
+        <v>2756.2</v>
+      </c>
+      <c r="AF15" s="4">
+        <f t="shared" si="10"/>
+        <v>3858.6799999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="D16" s="7">
+        <f t="shared" ref="D16:E16" si="11">SUM(D13:D15)</f>
+        <v>5376</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="11"/>
+        <v>5353</v>
+      </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="H16" s="7">
+        <f t="shared" ref="H16" si="12">SUM(H13:H15)</f>
+        <v>5179</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" ref="I16:N16" si="13">SUM(I13:I15)</f>
+        <v>7611</v>
+      </c>
       <c r="J16" s="7">
+        <f t="shared" si="13"/>
         <v>9314</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" ref="K16:N16" si="2">SUM(K13:K15)</f>
+        <f t="shared" si="13"/>
         <v>9002</v>
       </c>
       <c r="L16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>10206</v>
       </c>
       <c r="M16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>12057</v>
       </c>
       <c r="N16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>15967</v>
       </c>
       <c r="O16" s="7">
@@ -1503,24 +1751,62 @@
         <f>SUM(P13:P15)</f>
         <v>14602</v>
       </c>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-    </row>
-    <row r="17" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q16" s="7">
+        <f>SUM(Q13:Q15)</f>
+        <v>18692</v>
+      </c>
+      <c r="R16" s="7">
+        <f t="shared" ref="R16:V16" si="14">SUM(R13:R15)</f>
+        <v>22353.8</v>
+      </c>
+      <c r="S16" s="7">
+        <f t="shared" si="14"/>
+        <v>23605.399999999998</v>
+      </c>
+      <c r="T16" s="7">
+        <f t="shared" si="14"/>
+        <v>20442.8</v>
+      </c>
+      <c r="U16" s="7">
+        <f t="shared" si="14"/>
+        <v>26168.800000000003</v>
+      </c>
+      <c r="V16" s="7">
+        <f t="shared" si="14"/>
+        <v>31295.319999999996</v>
+      </c>
+      <c r="AD16" s="6">
+        <f t="shared" si="9"/>
+        <v>66122</v>
+      </c>
+      <c r="AE16" s="6">
+        <f t="shared" si="9"/>
+        <v>72508.800000000003</v>
+      </c>
+      <c r="AF16" s="6">
+        <f t="shared" si="10"/>
+        <v>101512.31999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="5">
+        <v>369</v>
+      </c>
+      <c r="E17" s="5">
+        <v>402</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="H17" s="5">
+        <v>370</v>
+      </c>
+      <c r="I17" s="5">
+        <v>579</v>
+      </c>
       <c r="J17" s="5">
         <v>752</v>
       </c>
@@ -1542,24 +1828,61 @@
       <c r="P17" s="5">
         <v>866</v>
       </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-    </row>
-    <row r="18" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q17" s="5">
+        <v>1117</v>
+      </c>
+      <c r="R17" s="5">
+        <f t="shared" ref="R17:R18" si="15">+N17*1.4</f>
+        <v>963.19999999999993</v>
+      </c>
+      <c r="S17" s="5">
+        <f t="shared" ref="S17:S18" si="16">+O17*1.4</f>
+        <v>862.4</v>
+      </c>
+      <c r="T17" s="5">
+        <f t="shared" ref="T17:T18" si="17">+P17*1.4</f>
+        <v>1212.3999999999999</v>
+      </c>
+      <c r="U17" s="5">
+        <f t="shared" ref="U17:U18" si="18">+Q17*1.4</f>
+        <v>1563.8</v>
+      </c>
+      <c r="V17" s="5">
+        <f t="shared" ref="V17:V18" si="19">+R17*1.4</f>
+        <v>1348.4799999999998</v>
+      </c>
+      <c r="AD17" s="4">
+        <f t="shared" si="8"/>
+        <v>2789</v>
+      </c>
+      <c r="AE17" s="4">
+        <f t="shared" si="9"/>
+        <v>3562.2</v>
+      </c>
+      <c r="AF17" s="4">
+        <f t="shared" si="10"/>
+        <v>4987.079999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="D18" s="5">
+        <v>605</v>
+      </c>
+      <c r="E18" s="5">
+        <v>548</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="H18" s="5">
+        <v>487</v>
+      </c>
+      <c r="I18" s="5">
+        <v>581</v>
+      </c>
       <c r="J18" s="5">
         <v>678</v>
       </c>
@@ -1581,42 +1904,83 @@
       <c r="P18" s="5">
         <v>1466</v>
       </c>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-    </row>
-    <row r="19" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q18" s="5">
+        <v>1645</v>
+      </c>
+      <c r="R18" s="5">
+        <f t="shared" si="15"/>
+        <v>1489.6</v>
+      </c>
+      <c r="S18" s="5">
+        <f t="shared" si="16"/>
+        <v>1790.6</v>
+      </c>
+      <c r="T18" s="5">
+        <f t="shared" si="17"/>
+        <v>2052.4</v>
+      </c>
+      <c r="U18" s="5">
+        <f t="shared" si="18"/>
+        <v>2303</v>
+      </c>
+      <c r="V18" s="5">
+        <f t="shared" si="19"/>
+        <v>2085.4399999999996</v>
+      </c>
+      <c r="AD18" s="4">
+        <f t="shared" si="8"/>
+        <v>3802</v>
+      </c>
+      <c r="AE18" s="4">
+        <f t="shared" si="9"/>
+        <v>5879.6</v>
+      </c>
+      <c r="AF18" s="4">
+        <f t="shared" si="10"/>
+        <v>8231.4399999999987</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="D19" s="7">
+        <f t="shared" ref="D19:E19" si="20">SUM(D16:D18)</f>
+        <v>6350</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="20"/>
+        <v>6303</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="H19" s="7">
+        <f t="shared" ref="H19" si="21">SUM(H16:H18)</f>
+        <v>6036</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" ref="I19:N19" si="22">SUM(I16:I18)</f>
+        <v>8771</v>
+      </c>
       <c r="J19" s="7">
-        <f t="shared" ref="J19:N19" si="3">SUM(J16:J18)</f>
+        <f t="shared" si="22"/>
         <v>10744</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>10389</v>
       </c>
       <c r="L19" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>11958</v>
       </c>
       <c r="M19" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>13757</v>
       </c>
       <c r="N19" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>17719</v>
       </c>
       <c r="O19" s="7">
@@ -1628,41 +1992,61 @@
         <v>16934</v>
       </c>
       <c r="Q19" s="7">
-        <f t="shared" ref="Q19:V19" si="4">SUM(Q16:Q18)</f>
-        <v>0</v>
+        <f>SUM(Q16:Q18)</f>
+        <v>21454</v>
       </c>
       <c r="R19" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="R19:V19" si="23">SUM(R16:R18)</f>
+        <v>24806.6</v>
       </c>
       <c r="S19" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>26258.399999999998</v>
       </c>
       <c r="T19" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>23707.600000000002</v>
       </c>
       <c r="U19" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>30035.600000000002</v>
       </c>
       <c r="V19" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="23"/>
+        <v>34729.24</v>
+      </c>
+      <c r="AD19" s="6">
+        <f>SUM(AD16:AD18)</f>
+        <v>72713</v>
+      </c>
+      <c r="AE19" s="6">
+        <f>SUM(AE16:AE18)</f>
+        <v>81950.600000000006</v>
+      </c>
+      <c r="AF19" s="6">
+        <f>SUM(AF16:AF18)</f>
+        <v>114730.84</v>
+      </c>
+    </row>
+    <row r="20" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="D20" s="5">
+        <v>4254</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4014</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="H20" s="5">
+        <v>3714</v>
+      </c>
+      <c r="I20" s="5">
+        <v>5361</v>
+      </c>
       <c r="J20" s="5">
         <v>6922</v>
       </c>
@@ -1684,42 +2068,79 @@
       <c r="P20" s="5">
         <v>10153</v>
       </c>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-    </row>
-    <row r="21" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q20" s="5">
+        <v>13099</v>
+      </c>
+      <c r="R20" s="5">
+        <f>+R13*0.75</f>
+        <v>15776.25</v>
+      </c>
+      <c r="S20" s="5">
+        <f t="shared" ref="S20:V20" si="24">+S13*0.75</f>
+        <v>16289.699999999999</v>
+      </c>
+      <c r="T20" s="5">
+        <f t="shared" si="24"/>
+        <v>14353.5</v>
+      </c>
+      <c r="U20" s="5">
+        <f t="shared" si="24"/>
+        <v>18674.25</v>
+      </c>
+      <c r="V20" s="5">
+        <f t="shared" si="24"/>
+        <v>22086.749999999996</v>
+      </c>
+      <c r="AE20" s="4">
+        <f t="shared" si="9"/>
+        <v>49942.25</v>
+      </c>
+      <c r="AF20" s="4">
+        <f t="shared" si="10"/>
+        <v>71404.2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="D21" s="5">
+        <f>D13-D20</f>
+        <v>914</v>
+      </c>
+      <c r="E21" s="5">
+        <f>E13-E20</f>
+        <v>1118</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="H21" s="5">
+        <f>H13-H20</f>
+        <v>1197</v>
+      </c>
+      <c r="I21" s="5">
+        <f>I13-I20</f>
+        <v>1985</v>
+      </c>
       <c r="J21" s="5">
-        <f t="shared" ref="J21:N21" si="5">J13-J20</f>
+        <f>J13-J20</f>
         <v>1711</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="K21:N21" si="25">K13-K20</f>
         <v>1730</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>2401</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>3243</v>
       </c>
       <c r="N21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>4336</v>
       </c>
       <c r="O21" s="5">
@@ -1730,24 +2151,58 @@
         <f>P13-P20</f>
         <v>3517</v>
       </c>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-    </row>
-    <row r="22" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q21" s="5">
+        <f>Q13-Q20</f>
+        <v>4686</v>
+      </c>
+      <c r="R21" s="5">
+        <f t="shared" ref="R21:V21" si="26">R13-R20</f>
+        <v>5258.75</v>
+      </c>
+      <c r="S21" s="5">
+        <f t="shared" si="26"/>
+        <v>5429.9</v>
+      </c>
+      <c r="T21" s="5">
+        <f t="shared" si="26"/>
+        <v>4784.5</v>
+      </c>
+      <c r="U21" s="5">
+        <f t="shared" si="26"/>
+        <v>6224.75</v>
+      </c>
+      <c r="V21" s="5">
+        <f t="shared" si="26"/>
+        <v>7362.25</v>
+      </c>
+      <c r="AE21" s="4">
+        <f t="shared" si="9"/>
+        <v>18061.75</v>
+      </c>
+      <c r="AF21" s="4">
+        <f t="shared" si="10"/>
+        <v>23801.4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="D22" s="5">
+        <v>106</v>
+      </c>
+      <c r="E22" s="5">
+        <v>117</v>
+      </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="H22" s="5">
+        <v>148</v>
+      </c>
+      <c r="I22" s="5">
+        <v>145</v>
+      </c>
       <c r="J22" s="5">
         <v>148</v>
       </c>
@@ -1769,26 +2224,63 @@
       <c r="P22" s="5">
         <v>369</v>
       </c>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-    </row>
-    <row r="23" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q22" s="5">
+        <v>381</v>
+      </c>
+      <c r="R22" s="5">
+        <f>+N22*1.4</f>
+        <v>554.4</v>
+      </c>
+      <c r="S22" s="5">
+        <f t="shared" ref="S22:V22" si="27">+O22*1.4</f>
+        <v>571.19999999999993</v>
+      </c>
+      <c r="T22" s="5">
+        <f t="shared" si="27"/>
+        <v>516.6</v>
+      </c>
+      <c r="U22" s="5">
+        <f t="shared" si="27"/>
+        <v>533.4</v>
+      </c>
+      <c r="V22" s="5">
+        <f t="shared" si="27"/>
+        <v>776.16</v>
+      </c>
+      <c r="AE22" s="4">
+        <f t="shared" si="9"/>
+        <v>1712.4</v>
+      </c>
+      <c r="AF22" s="4">
+        <f t="shared" si="10"/>
+        <v>2397.3599999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="D23" s="5">
+        <f t="shared" ref="D23:E23" si="28">D16-D22-D20</f>
+        <v>1016</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="28"/>
+        <v>1222</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="H23" s="5">
+        <f t="shared" ref="H23" si="29">H16-H22-H20</f>
+        <v>1317</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" ref="I23:J23" si="30">I16-I22-I20</f>
+        <v>2105</v>
+      </c>
       <c r="J23" s="5">
-        <f t="shared" ref="J23" si="6">J16-J22-J20</f>
+        <f t="shared" si="30"/>
         <v>2244</v>
       </c>
       <c r="K23" s="5">
@@ -1796,43 +2288,77 @@
         <v>2385</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" ref="L23:O23" si="7">L16-L22-L20</f>
+        <f t="shared" ref="L23:O23" si="31">L16-L22-L20</f>
         <v>2899</v>
       </c>
       <c r="M23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v>3673</v>
       </c>
       <c r="N23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v>4882</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v>5539</v>
       </c>
       <c r="P23" s="5">
         <f>P16-P22-P20</f>
         <v>4080</v>
       </c>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-    </row>
-    <row r="24" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q23" s="5">
+        <f>Q16-Q22-Q20</f>
+        <v>5212</v>
+      </c>
+      <c r="R23" s="5">
+        <f t="shared" ref="R23:V23" si="32">R16-R22-R20</f>
+        <v>6023.1499999999978</v>
+      </c>
+      <c r="S23" s="5">
+        <f t="shared" si="32"/>
+        <v>6744.4999999999982</v>
+      </c>
+      <c r="T23" s="5">
+        <f t="shared" si="32"/>
+        <v>5572.7000000000007</v>
+      </c>
+      <c r="U23" s="5">
+        <f t="shared" si="32"/>
+        <v>6961.1500000000015</v>
+      </c>
+      <c r="V23" s="5">
+        <f t="shared" si="32"/>
+        <v>8432.41</v>
+      </c>
+      <c r="AE23" s="4">
+        <f t="shared" si="9"/>
+        <v>20854.149999999998</v>
+      </c>
+      <c r="AF23" s="4">
+        <f t="shared" si="10"/>
+        <v>27710.76</v>
+      </c>
+    </row>
+    <row r="24" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="D24" s="5">
+        <v>326</v>
+      </c>
+      <c r="E24" s="5">
+        <v>314</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="H24" s="5">
+        <v>349</v>
+      </c>
+      <c r="I24" s="5">
+        <v>558</v>
+      </c>
       <c r="J24" s="5">
         <v>787</v>
       </c>
@@ -1854,24 +2380,57 @@
       <c r="P24" s="5">
         <v>769</v>
       </c>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-    </row>
-    <row r="25" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q24" s="5">
+        <v>1013</v>
+      </c>
+      <c r="R24" s="5">
+        <f>+N24*1.4</f>
+        <v>1034.5999999999999</v>
+      </c>
+      <c r="S24" s="5">
+        <f t="shared" ref="S24:S25" si="33">+O24*1.4</f>
+        <v>963.19999999999993</v>
+      </c>
+      <c r="T24" s="5">
+        <f t="shared" ref="T24:T25" si="34">+P24*1.4</f>
+        <v>1076.5999999999999</v>
+      </c>
+      <c r="U24" s="5">
+        <f t="shared" ref="U24:U25" si="35">+Q24*1.4</f>
+        <v>1418.1999999999998</v>
+      </c>
+      <c r="V24" s="5">
+        <f t="shared" ref="V24:V25" si="36">+R24*1.4</f>
+        <v>1448.4399999999998</v>
+      </c>
+      <c r="AE24" s="4">
+        <f t="shared" si="9"/>
+        <v>3504.6</v>
+      </c>
+      <c r="AF24" s="4">
+        <f t="shared" si="10"/>
+        <v>4906.4399999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="D25" s="5">
+        <v>743</v>
+      </c>
+      <c r="E25" s="5">
+        <v>667</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="H25" s="5">
+        <v>558</v>
+      </c>
+      <c r="I25" s="5">
+        <v>644</v>
+      </c>
       <c r="J25" s="5">
         <v>821</v>
       </c>
@@ -1893,70 +2452,141 @@
       <c r="P25" s="5">
         <v>1410</v>
       </c>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-    </row>
-    <row r="26" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q25" s="5">
+        <v>1579</v>
+      </c>
+      <c r="R25" s="5">
+        <f t="shared" ref="R25" si="37">+N25*1.4</f>
+        <v>1467.1999999999998</v>
+      </c>
+      <c r="S25" s="5">
+        <f t="shared" si="33"/>
+        <v>1800.3999999999999</v>
+      </c>
+      <c r="T25" s="5">
+        <f t="shared" si="34"/>
+        <v>1973.9999999999998</v>
+      </c>
+      <c r="U25" s="5">
+        <f t="shared" si="35"/>
+        <v>2210.6</v>
+      </c>
+      <c r="V25" s="5">
+        <f t="shared" si="36"/>
+        <v>2054.0799999999995</v>
+      </c>
+      <c r="AE25" s="4">
+        <f t="shared" si="9"/>
+        <v>5742.2</v>
+      </c>
+      <c r="AF25" s="4">
+        <f t="shared" si="10"/>
+        <v>8039.08</v>
+      </c>
+    </row>
+    <row r="26" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="D26" s="5">
+        <f t="shared" ref="D26:E26" si="38">D23+D17+D18-D24-D25</f>
+        <v>921</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="38"/>
+        <v>1191</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="H26" s="5">
+        <f t="shared" ref="H26" si="39">H23+H17+H18-H24-H25</f>
+        <v>1267</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" ref="I26:P26" si="40">I23+I17+I18-I24-I25</f>
+        <v>2063</v>
+      </c>
       <c r="J26" s="5">
-        <f t="shared" ref="J26:P26" si="8">J23+J17+J18-J24-J25</f>
+        <f t="shared" si="40"/>
         <v>2066</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="40"/>
         <v>2215</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="40"/>
         <v>2884</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="40"/>
         <v>3660</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="40"/>
         <v>4847</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="40"/>
         <v>5460</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="40"/>
         <v>4233</v>
       </c>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-    </row>
-    <row r="27" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q26" s="5">
+        <f>Q23+Q17+Q18-Q24-Q25</f>
+        <v>5382</v>
+      </c>
+      <c r="R26" s="5">
+        <f>+R19*0.25</f>
+        <v>6201.65</v>
+      </c>
+      <c r="S26" s="5">
+        <f t="shared" ref="S26:V26" si="41">+S19*0.25</f>
+        <v>6564.5999999999995</v>
+      </c>
+      <c r="T26" s="5">
+        <f t="shared" si="41"/>
+        <v>5926.9000000000005</v>
+      </c>
+      <c r="U26" s="5">
+        <f t="shared" si="41"/>
+        <v>7508.9000000000005</v>
+      </c>
+      <c r="V26" s="5">
+        <f t="shared" si="41"/>
+        <v>8682.31</v>
+      </c>
+      <c r="AE26" s="5">
+        <f t="shared" ref="AE26" si="42">+AE19*0.25</f>
+        <v>20487.650000000001</v>
+      </c>
+      <c r="AF26" s="4">
+        <f t="shared" si="10"/>
+        <v>28682.71</v>
+      </c>
+    </row>
+    <row r="27" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="D27" s="5">
+        <v>324</v>
+      </c>
+      <c r="E27" s="5">
+        <v>334</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="H27" s="5">
+        <v>279</v>
+      </c>
+      <c r="I27" s="5">
+        <v>366</v>
+      </c>
       <c r="J27" s="5">
         <v>522</v>
       </c>
@@ -1978,24 +2608,53 @@
       <c r="P27" s="5">
         <v>667</v>
       </c>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-    </row>
-    <row r="28" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q27" s="5">
+        <v>733</v>
+      </c>
+      <c r="R27" s="5">
+        <f>+N27*1.3</f>
+        <v>962</v>
+      </c>
+      <c r="S27" s="5">
+        <f t="shared" ref="S27:S28" si="43">+O27*1.3</f>
+        <v>1124.5</v>
+      </c>
+      <c r="T27" s="5">
+        <f t="shared" ref="T27:T28" si="44">+P27*1.3</f>
+        <v>867.1</v>
+      </c>
+      <c r="U27" s="5">
+        <f t="shared" ref="U27:U28" si="45">+Q27*1.3</f>
+        <v>952.9</v>
+      </c>
+      <c r="V27" s="5">
+        <f t="shared" ref="V27:V28" si="46">+R27*1.3</f>
+        <v>1250.6000000000001</v>
+      </c>
+      <c r="AF27" s="4">
+        <f t="shared" si="10"/>
+        <v>4195.1000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="D28" s="5">
+        <v>647</v>
+      </c>
+      <c r="E28" s="5">
+        <v>596</v>
+      </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="H28" s="5">
+        <v>661</v>
+      </c>
+      <c r="I28" s="5">
+        <v>888</v>
+      </c>
       <c r="J28" s="5">
         <v>969</v>
       </c>
@@ -2017,42 +2676,75 @@
       <c r="P28" s="5">
         <v>961</v>
       </c>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-    </row>
-    <row r="29" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q28" s="5">
+        <v>961</v>
+      </c>
+      <c r="R28" s="5">
+        <f>+N28*1.2</f>
+        <v>1792.8</v>
+      </c>
+      <c r="S28" s="5">
+        <f t="shared" ref="S28:V28" si="47">+O28*1.2</f>
+        <v>1190.3999999999999</v>
+      </c>
+      <c r="T28" s="5">
+        <f t="shared" si="47"/>
+        <v>1153.2</v>
+      </c>
+      <c r="U28" s="5">
+        <f t="shared" si="47"/>
+        <v>1153.2</v>
+      </c>
+      <c r="V28" s="5">
+        <f t="shared" si="47"/>
+        <v>2151.3599999999997</v>
+      </c>
+      <c r="AF28" s="4">
+        <f t="shared" si="10"/>
+        <v>5648.16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="D29" s="5">
+        <f t="shared" ref="D29:E29" si="48">D27+D28</f>
+        <v>971</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="48"/>
+        <v>930</v>
+      </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="H29" s="5">
+        <f t="shared" ref="H29" si="49">H27+H28</f>
+        <v>940</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" ref="I29:J29" si="50">I27+I28</f>
+        <v>1254</v>
+      </c>
       <c r="J29" s="5">
-        <f t="shared" ref="J29" si="9">J27+J28</f>
+        <f t="shared" si="50"/>
         <v>1491</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" ref="K29:N29" si="10">K27+K28</f>
+        <f t="shared" ref="K29:N29" si="51">K27+K28</f>
         <v>1722</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="51"/>
         <v>1549</v>
       </c>
       <c r="M29" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="51"/>
         <v>1605</v>
       </c>
       <c r="N29" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="51"/>
         <v>2234</v>
       </c>
       <c r="O29" s="5">
@@ -2063,42 +2755,76 @@
         <f>P27+P28</f>
         <v>1628</v>
       </c>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-    </row>
-    <row r="30" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q29" s="5">
+        <f>Q27+Q28</f>
+        <v>1694</v>
+      </c>
+      <c r="R29" s="5">
+        <f t="shared" ref="R29:V29" si="52">R27+R28</f>
+        <v>2754.8</v>
+      </c>
+      <c r="S29" s="5">
+        <f t="shared" si="52"/>
+        <v>2314.8999999999996</v>
+      </c>
+      <c r="T29" s="5">
+        <f t="shared" si="52"/>
+        <v>2020.3000000000002</v>
+      </c>
+      <c r="U29" s="5">
+        <f t="shared" si="52"/>
+        <v>2106.1</v>
+      </c>
+      <c r="V29" s="5">
+        <f t="shared" si="52"/>
+        <v>3401.96</v>
+      </c>
+      <c r="AF29" s="4">
+        <f>+AF27+AF28</f>
+        <v>9843.26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="D30" s="5">
+        <f t="shared" ref="D30:E30" si="53">D26-D29</f>
+        <v>-50</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="53"/>
+        <v>261</v>
+      </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="H30" s="5">
+        <f t="shared" ref="H30" si="54">H26-H29</f>
+        <v>327</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" ref="I30:J30" si="55">I26-I29</f>
+        <v>809</v>
+      </c>
       <c r="J30" s="5">
-        <f t="shared" ref="J30" si="11">J26-J29</f>
+        <f t="shared" si="55"/>
         <v>575</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" ref="K30:N30" si="12">K26-K29</f>
+        <f t="shared" ref="K30:N30" si="56">K26-K29</f>
         <v>493</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="56"/>
         <v>1335</v>
       </c>
       <c r="M30" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="56"/>
         <v>2055</v>
       </c>
       <c r="N30" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="56"/>
         <v>2613</v>
       </c>
       <c r="O30" s="5">
@@ -2109,24 +2835,58 @@
         <f>P26-P29</f>
         <v>2605</v>
       </c>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-    </row>
-    <row r="31" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q30" s="5">
+        <f>Q26-Q29</f>
+        <v>3688</v>
+      </c>
+      <c r="R30" s="5">
+        <f t="shared" ref="R30:V30" si="57">R26-R29</f>
+        <v>3446.8499999999995</v>
+      </c>
+      <c r="S30" s="5">
+        <f t="shared" si="57"/>
+        <v>4249.7</v>
+      </c>
+      <c r="T30" s="5">
+        <f t="shared" si="57"/>
+        <v>3906.6000000000004</v>
+      </c>
+      <c r="U30" s="5">
+        <f t="shared" si="57"/>
+        <v>5402.8000000000011</v>
+      </c>
+      <c r="V30" s="5">
+        <f t="shared" si="57"/>
+        <v>5280.3499999999995</v>
+      </c>
+      <c r="AF30" s="5">
+        <f t="shared" ref="AF30" si="58">AF26-AF29</f>
+        <v>18839.449999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="D31" s="5">
+        <f>10-172-41</f>
+        <v>-203</v>
+      </c>
+      <c r="E31" s="5">
+        <f>15-185+85</f>
+        <v>-85</v>
+      </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="H31" s="5">
+        <f>8-170-15</f>
+        <v>-177</v>
+      </c>
+      <c r="I31" s="5">
+        <f>6-163-97</f>
+        <v>-254</v>
+      </c>
       <c r="J31" s="5">
         <f>6-246+44</f>
         <v>-196</v>
@@ -2155,42 +2915,61 @@
         <f>-26-44+28</f>
         <v>-42</v>
       </c>
-      <c r="Q31" s="5"/>
+      <c r="Q31" s="5">
+        <f>86-53-85</f>
+        <v>-52</v>
+      </c>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
-    </row>
-    <row r="32" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF31" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="D32" s="5">
+        <f>D30+D31</f>
+        <v>-253</v>
+      </c>
+      <c r="E32" s="5">
+        <f>E30+E31</f>
+        <v>176</v>
+      </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="H32" s="5">
+        <f>H30+H31</f>
+        <v>150</v>
+      </c>
+      <c r="I32" s="5">
+        <f>I30+I31</f>
+        <v>555</v>
+      </c>
       <c r="J32" s="5">
         <f>J30+J31</f>
         <v>379</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" ref="K32:N32" si="13">K30+K31</f>
+        <f t="shared" ref="K32:N32" si="59">K30+K31</f>
         <v>432</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="59"/>
         <v>1316</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="59"/>
         <v>1933</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="59"/>
         <v>2635</v>
       </c>
       <c r="O32" s="5">
@@ -2201,24 +2980,58 @@
         <f>P30+P31</f>
         <v>2563</v>
       </c>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-    </row>
-    <row r="33" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q32" s="5">
+        <f>Q30+Q31</f>
+        <v>3636</v>
+      </c>
+      <c r="R32" s="5">
+        <f t="shared" ref="R32:V32" si="60">R30+R31</f>
+        <v>3446.8499999999995</v>
+      </c>
+      <c r="S32" s="5">
+        <f t="shared" si="60"/>
+        <v>4249.7</v>
+      </c>
+      <c r="T32" s="5">
+        <f t="shared" si="60"/>
+        <v>3906.6000000000004</v>
+      </c>
+      <c r="U32" s="5">
+        <f t="shared" si="60"/>
+        <v>5402.8000000000011</v>
+      </c>
+      <c r="V32" s="5">
+        <f t="shared" si="60"/>
+        <v>5280.3499999999995</v>
+      </c>
+      <c r="AF32" s="4">
+        <f>+AF30+AF31</f>
+        <v>18839.449999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="D33" s="5">
+        <f>19+19</f>
+        <v>38</v>
+      </c>
+      <c r="E33" s="5">
+        <f>26+7</f>
+        <v>33</v>
+      </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="H33" s="5">
+        <f>21+25</f>
+        <v>46</v>
+      </c>
+      <c r="I33" s="5">
+        <f>186+38+31</f>
+        <v>255</v>
+      </c>
       <c r="J33" s="8">
         <f>83+26</f>
         <v>109</v>
@@ -2247,42 +3060,75 @@
         <f>205+10</f>
         <v>215</v>
       </c>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-    </row>
-    <row r="34" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q33" s="5">
+        <v>305</v>
+      </c>
+      <c r="R33" s="5">
+        <f>+R32*0.1</f>
+        <v>344.68499999999995</v>
+      </c>
+      <c r="S33" s="5">
+        <f t="shared" ref="S33:V33" si="61">+S32*0.1</f>
+        <v>424.97</v>
+      </c>
+      <c r="T33" s="5">
+        <f t="shared" si="61"/>
+        <v>390.66000000000008</v>
+      </c>
+      <c r="U33" s="5">
+        <f t="shared" si="61"/>
+        <v>540.28000000000009</v>
+      </c>
+      <c r="V33" s="5">
+        <f t="shared" si="61"/>
+        <v>528.03499999999997</v>
+      </c>
+      <c r="AF33" s="4">
+        <f t="shared" si="10"/>
+        <v>1883.9450000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="D34" s="5">
+        <f>D32-D33</f>
+        <v>-291</v>
+      </c>
+      <c r="E34" s="5">
+        <f>E32-E33</f>
+        <v>143</v>
+      </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="H34" s="5">
+        <f>H32-H33</f>
+        <v>104</v>
+      </c>
+      <c r="I34" s="5">
+        <f>I32-I33</f>
+        <v>300</v>
+      </c>
       <c r="J34" s="5">
         <f>J32-J33</f>
         <v>270</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" ref="K34:N34" si="14">K32-K33</f>
+        <f t="shared" ref="K34:N34" si="62">K32-K33</f>
         <v>337</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="62"/>
         <v>1165</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="62"/>
         <v>1669</v>
       </c>
       <c r="N34" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="62"/>
         <v>2321</v>
       </c>
       <c r="O34" s="5">
@@ -2293,57 +3139,131 @@
         <f>P32-P33</f>
         <v>2348</v>
       </c>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="Q34" s="5">
+        <f>Q32-Q33</f>
+        <v>3331</v>
+      </c>
+      <c r="R34" s="5">
+        <f t="shared" ref="R34:V34" si="63">R32-R33</f>
+        <v>3102.1649999999995</v>
+      </c>
+      <c r="S34" s="5">
+        <f t="shared" si="63"/>
+        <v>3824.7299999999996</v>
+      </c>
+      <c r="T34" s="5">
+        <f t="shared" si="63"/>
+        <v>3515.9400000000005</v>
+      </c>
+      <c r="U34" s="5">
+        <f t="shared" si="63"/>
+        <v>4862.5200000000013</v>
+      </c>
+      <c r="V34" s="5">
+        <f t="shared" si="63"/>
+        <v>4752.3149999999996</v>
+      </c>
+      <c r="AF34" s="4">
+        <f>+AF32-AF33</f>
+        <v>16955.504999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D35" s="3">
+        <f t="shared" ref="D35:E35" si="64">D34/D36</f>
+        <v>-1.6440677966101696</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="64"/>
+        <v>0.15509761388286333</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" ref="H35" si="65">H34/H36</f>
+        <v>0.50241545893719808</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" ref="I35:K35" si="66">I34/I36</f>
+        <v>0.27149321266968324</v>
+      </c>
       <c r="J35" s="3">
-        <f t="shared" ref="J35:K35" si="15">J34/J36</f>
+        <f t="shared" si="66"/>
         <v>0.2402135231316726</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="66"/>
         <v>0.29744042365401591</v>
       </c>
       <c r="L35" s="3">
-        <f t="shared" ref="L35" si="16">L34/L36</f>
+        <f t="shared" ref="L35" si="67">L34/L36</f>
         <v>1.0411081322609472</v>
       </c>
       <c r="M35" s="3">
-        <f t="shared" ref="M35" si="17">M34/M36</f>
+        <f t="shared" ref="M35" si="68">M34/M36</f>
         <v>1.4861976847729297</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" ref="N35" si="18">N34/N36</f>
+        <f t="shared" ref="N35" si="69">N34/N36</f>
         <v>2.044933920704846</v>
       </c>
       <c r="O35" s="3">
-        <f t="shared" ref="O35:P35" si="19">O34/O36</f>
+        <f t="shared" ref="O35:Q35" si="70">O34/O36</f>
         <v>2.867761452031115</v>
       </c>
       <c r="P35" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="70"/>
         <v>2.032900432900433</v>
       </c>
-    </row>
-    <row r="36" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <f t="shared" si="70"/>
+        <v>0.96049596309111884</v>
+      </c>
+      <c r="R35" s="3">
+        <f t="shared" ref="R35:V35" si="71">R34/R36</f>
+        <v>0.89451124567474039</v>
+      </c>
+      <c r="S35" s="3">
+        <f t="shared" si="71"/>
+        <v>1.1028633217993078</v>
+      </c>
+      <c r="T35" s="3">
+        <f t="shared" si="71"/>
+        <v>1.0138235294117648</v>
+      </c>
+      <c r="U35" s="3">
+        <f t="shared" si="71"/>
+        <v>1.402110726643599</v>
+      </c>
+      <c r="V35" s="3">
+        <f t="shared" si="71"/>
+        <v>1.3703330449826989</v>
+      </c>
+      <c r="AF35" s="21">
+        <f>+AF34/AF36</f>
+        <v>4.8891306228373699</v>
+      </c>
+    </row>
+    <row r="36" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="D36" s="5">
+        <v>177</v>
+      </c>
+      <c r="E36" s="5">
+        <v>922</v>
+      </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
+      <c r="H36" s="5">
+        <v>207</v>
+      </c>
+      <c r="I36" s="5">
+        <v>1105</v>
+      </c>
       <c r="J36" s="5">
         <v>1124</v>
       </c>
@@ -2365,196 +3285,293 @@
       <c r="P36" s="5">
         <v>1155</v>
       </c>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B38" s="16" t="s">
+      <c r="Q36" s="5">
+        <v>3468</v>
+      </c>
+      <c r="R36" s="5">
+        <f>+Q36</f>
+        <v>3468</v>
+      </c>
+      <c r="S36" s="5">
+        <f t="shared" ref="S36:V36" si="72">+R36</f>
+        <v>3468</v>
+      </c>
+      <c r="T36" s="5">
+        <f t="shared" si="72"/>
+        <v>3468</v>
+      </c>
+      <c r="U36" s="5">
+        <f t="shared" si="72"/>
+        <v>3468</v>
+      </c>
+      <c r="V36" s="5">
+        <f t="shared" si="72"/>
+        <v>3468</v>
+      </c>
+      <c r="AF36" s="4">
+        <f>AVERAGE(S36:V36)</f>
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B38" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="N38" s="18">
-        <f t="shared" ref="N38:O38" si="20">N19/J19-1</f>
+      <c r="L38" s="17">
+        <f t="shared" ref="K38:M38" si="73">L19/H19-1</f>
+        <v>0.98111332007952279</v>
+      </c>
+      <c r="M38" s="17">
+        <f t="shared" si="73"/>
+        <v>0.56846425721126437</v>
+      </c>
+      <c r="N38" s="17">
+        <f t="shared" ref="N38:O38" si="74">N19/J19-1</f>
         <v>0.64919955323901712</v>
       </c>
-      <c r="O38" s="18">
-        <f t="shared" si="20"/>
+      <c r="O38" s="17">
+        <f t="shared" si="74"/>
         <v>0.80537106555010096</v>
       </c>
-      <c r="P38" s="18">
+      <c r="P38" s="17">
         <f>P19/L19-1</f>
         <v>0.41612309750794441</v>
       </c>
-    </row>
-    <row r="40" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="4" t="s">
+      <c r="Q38" s="17">
+        <f>Q19/M19-1</f>
+        <v>0.55949698335392894</v>
+      </c>
+      <c r="R38" s="17">
+        <f t="shared" ref="R38:V38" si="75">R19/N19-1</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="S38" s="17">
+        <f t="shared" si="75"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="T38" s="17">
+        <f t="shared" si="75"/>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="U38" s="17">
+        <f t="shared" si="75"/>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="V38" s="17">
+        <f t="shared" si="75"/>
+        <v>0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B39" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="L39" s="17">
+        <f t="shared" ref="K39:M39" si="76">L13/H13-1</f>
+        <v>0.9385053960496843</v>
+      </c>
+      <c r="M39" s="17">
+        <f t="shared" si="76"/>
+        <v>0.55091206098557044</v>
+      </c>
+      <c r="N39" s="17">
+        <f>N13/J13-1</f>
+        <v>0.74041468782578468</v>
+      </c>
+      <c r="O39" s="17">
+        <f t="shared" ref="O39:Q39" si="77">O13/K13-1</f>
+        <v>0.89495541712470983</v>
+      </c>
+      <c r="P39" s="17">
+        <f t="shared" si="77"/>
+        <v>0.43592436974789917</v>
+      </c>
+      <c r="Q39" s="17">
+        <f t="shared" si="77"/>
+        <v>0.561046256473273</v>
+      </c>
+      <c r="R39" s="17">
+        <f t="shared" ref="R39" si="78">R13/N13-1</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="S39" s="17">
+        <f t="shared" ref="S39" si="79">S13/O13-1</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="T39" s="17">
+        <f t="shared" ref="T39" si="80">T13/P13-1</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="U39" s="17">
+        <f t="shared" ref="U39" si="81">U13/Q13-1</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="V39" s="17">
+        <f t="shared" ref="V39" si="82">V13/R13-1</f>
+        <v>0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B40" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="17">
+        <f t="shared" ref="D40:E40" si="83">D21/D13</f>
+        <v>0.17685758513931887</v>
+      </c>
+      <c r="E40" s="17">
+        <f t="shared" si="83"/>
+        <v>0.21784879189399844</v>
+      </c>
+      <c r="H40" s="17">
+        <f t="shared" ref="H40" si="84">H21/H13</f>
+        <v>0.24373854612095297</v>
+      </c>
+      <c r="I40" s="17">
+        <f t="shared" ref="I40:J40" si="85">I21/I13</f>
+        <v>0.27021508303838826</v>
+      </c>
+      <c r="J40" s="17">
+        <f>J21/J13</f>
+        <v>0.19819298042395458</v>
+      </c>
+      <c r="K40" s="17">
+        <f>K21/K13</f>
+        <v>0.21131061438866497</v>
+      </c>
+      <c r="L40" s="17">
+        <f>L21/L13</f>
+        <v>0.25220588235294117</v>
+      </c>
+      <c r="M40" s="17">
+        <f>M21/M13</f>
+        <v>0.28464846835776353</v>
+      </c>
+      <c r="N40" s="17">
+        <f>N21/N13</f>
+        <v>0.28858569051580701</v>
+      </c>
+      <c r="O40" s="17">
+        <f>O21/O13</f>
+        <v>0.29650638133298957</v>
+      </c>
+      <c r="P40" s="17">
+        <f>P21/P13</f>
+        <v>0.25727871250914414</v>
+      </c>
+      <c r="Q40" s="17">
+        <f>Q21/Q13</f>
+        <v>0.26348046106269329</v>
+      </c>
+      <c r="R40" s="17">
+        <f t="shared" ref="R40:V40" si="86">R21/R13</f>
+        <v>0.25</v>
+      </c>
+      <c r="S40" s="17">
+        <f t="shared" si="86"/>
+        <v>0.25</v>
+      </c>
+      <c r="T40" s="17">
+        <f t="shared" si="86"/>
+        <v>0.25</v>
+      </c>
+      <c r="U40" s="17">
+        <f t="shared" si="86"/>
+        <v>0.25</v>
+      </c>
+      <c r="V40" s="17">
+        <f t="shared" si="86"/>
+        <v>0.25000000000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B41" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="17">
+        <f t="shared" ref="D41:E41" si="87">+D26/D19</f>
+        <v>0.14503937007874015</v>
+      </c>
+      <c r="E41" s="17">
+        <f t="shared" si="87"/>
+        <v>0.18895763921941933</v>
+      </c>
+      <c r="H41" s="17">
+        <f t="shared" ref="H41" si="88">+H26/H19</f>
+        <v>0.20990722332670642</v>
+      </c>
+      <c r="I41" s="17">
+        <f t="shared" ref="I41:J41" si="89">+I26/I19</f>
+        <v>0.23520693193478509</v>
+      </c>
+      <c r="J41" s="17">
+        <f>+J26/J19</f>
+        <v>0.19229337304542071</v>
+      </c>
+      <c r="K41" s="17">
+        <f t="shared" ref="K41:V41" si="90">+K26/K19</f>
+        <v>0.21320627586870727</v>
+      </c>
+      <c r="L41" s="17">
+        <f t="shared" si="90"/>
+        <v>0.24117745442381669</v>
+      </c>
+      <c r="M41" s="17">
+        <f t="shared" si="90"/>
+        <v>0.26604637639020134</v>
+      </c>
+      <c r="N41" s="17">
+        <f t="shared" si="90"/>
+        <v>0.27354816863254133</v>
+      </c>
+      <c r="O41" s="17">
+        <f t="shared" si="90"/>
+        <v>0.29110684580934099</v>
+      </c>
+      <c r="P41" s="17">
+        <f t="shared" si="90"/>
+        <v>0.24997047360340144</v>
+      </c>
+      <c r="Q41" s="17">
+        <f t="shared" si="90"/>
+        <v>0.25086231005873033</v>
+      </c>
+      <c r="R41" s="17">
+        <f t="shared" si="90"/>
+        <v>0.25</v>
+      </c>
+      <c r="S41" s="17">
+        <f t="shared" si="90"/>
+        <v>0.25</v>
+      </c>
+      <c r="T41" s="17">
+        <f t="shared" si="90"/>
+        <v>0.25</v>
+      </c>
+      <c r="U41" s="17">
+        <f t="shared" si="90"/>
+        <v>0.25</v>
+      </c>
+      <c r="V41" s="17">
+        <f t="shared" si="90"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B42" s="15"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+    </row>
+    <row r="44" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5">
-        <f t="shared" ref="J40:N40" si="21">J34</f>
-        <v>270</v>
-      </c>
-      <c r="K40" s="5">
-        <f t="shared" si="21"/>
-        <v>337</v>
-      </c>
-      <c r="L40" s="5">
-        <f t="shared" si="21"/>
-        <v>1165</v>
-      </c>
-      <c r="M40" s="5">
-        <f t="shared" si="21"/>
-        <v>1669</v>
-      </c>
-      <c r="N40" s="5">
-        <f t="shared" si="21"/>
-        <v>2321</v>
-      </c>
-      <c r="O40" s="5">
-        <f>O34</f>
-        <v>3318</v>
-      </c>
-      <c r="P40" s="5">
-        <f>P34</f>
-        <v>2348</v>
-      </c>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-    </row>
-    <row r="41" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5">
-        <v>296</v>
-      </c>
-      <c r="K41" s="5">
-        <v>464</v>
-      </c>
-      <c r="L41" s="5">
-        <v>1178</v>
-      </c>
-      <c r="M41" s="5">
-        <v>1659</v>
-      </c>
-      <c r="N41" s="5">
-        <v>2343</v>
-      </c>
-      <c r="O41" s="5">
-        <v>3280</v>
-      </c>
-      <c r="P41" s="5">
-        <v>2269</v>
-      </c>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-    </row>
-    <row r="42" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5">
-        <v>618</v>
-      </c>
-      <c r="K42" s="5">
-        <v>621</v>
-      </c>
-      <c r="L42" s="5">
-        <v>681</v>
-      </c>
-      <c r="M42" s="5">
-        <v>761</v>
-      </c>
-      <c r="N42" s="5">
-        <v>848</v>
-      </c>
-      <c r="O42" s="5">
-        <v>880</v>
-      </c>
-      <c r="P42" s="5">
-        <v>922</v>
-      </c>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-    </row>
-    <row r="43" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5">
-        <v>633</v>
-      </c>
-      <c r="K43" s="5">
-        <v>614</v>
-      </c>
-      <c r="L43" s="5">
-        <v>474</v>
-      </c>
-      <c r="M43" s="5">
-        <v>475</v>
-      </c>
-      <c r="N43" s="5">
-        <v>558</v>
-      </c>
-      <c r="O43" s="5">
-        <v>418</v>
-      </c>
-      <c r="P43" s="5">
-        <v>361</v>
-      </c>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-    </row>
-    <row r="44" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -2562,26 +3579,66 @@
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
+      <c r="I44" s="5">
+        <f t="shared" ref="I44:N44" si="91">I34</f>
+        <v>300</v>
+      </c>
+      <c r="J44" s="5">
+        <f t="shared" si="91"/>
+        <v>270</v>
+      </c>
+      <c r="K44" s="5">
+        <f t="shared" si="91"/>
+        <v>337</v>
+      </c>
+      <c r="L44" s="5">
+        <f t="shared" si="91"/>
+        <v>1165</v>
+      </c>
+      <c r="M44" s="5">
+        <f t="shared" si="91"/>
+        <v>1669</v>
+      </c>
+      <c r="N44" s="5">
+        <f t="shared" si="91"/>
+        <v>2321</v>
+      </c>
       <c r="O44" s="5">
-        <v>33</v>
-      </c>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-    </row>
-    <row r="45" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="10" t="s">
-        <v>80</v>
+        <f>O34</f>
+        <v>3318</v>
+      </c>
+      <c r="P44" s="5">
+        <f>P34</f>
+        <v>2348</v>
+      </c>
+      <c r="Q44" s="5">
+        <f>Q34</f>
+        <v>3331</v>
+      </c>
+      <c r="R44" s="5">
+        <f t="shared" ref="R44:V44" si="92">R34</f>
+        <v>3102.1649999999995</v>
+      </c>
+      <c r="S44" s="5">
+        <f t="shared" si="92"/>
+        <v>3824.7299999999996</v>
+      </c>
+      <c r="T44" s="5">
+        <f t="shared" si="92"/>
+        <v>3515.9400000000005</v>
+      </c>
+      <c r="U44" s="5">
+        <f t="shared" si="92"/>
+        <v>4862.5200000000013</v>
+      </c>
+      <c r="V44" s="5">
+        <f t="shared" si="92"/>
+        <v>4752.3149999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -2591,36 +3648,39 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5">
-        <v>230</v>
+        <v>296</v>
       </c>
       <c r="K45" s="5">
-        <v>-46</v>
+        <v>464</v>
       </c>
       <c r="L45" s="5">
-        <v>115</v>
+        <v>1178</v>
       </c>
       <c r="M45" s="5">
-        <v>253</v>
+        <v>1659</v>
       </c>
       <c r="N45" s="5">
-        <v>-19</v>
+        <v>2343</v>
       </c>
       <c r="O45" s="5">
-        <v>-30</v>
+        <v>3280</v>
       </c>
       <c r="P45" s="5">
-        <v>145</v>
-      </c>
-      <c r="Q45" s="5"/>
+        <v>2269</v>
+      </c>
+      <c r="Q45" s="5">
+        <f>8880-P45-O45</f>
+        <v>3331</v>
+      </c>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
       <c r="V45" s="5"/>
     </row>
-    <row r="46" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -2629,25 +3689,40 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
+      <c r="J46" s="5">
+        <v>618</v>
+      </c>
+      <c r="K46" s="5">
+        <v>621</v>
+      </c>
+      <c r="L46" s="5">
+        <v>681</v>
+      </c>
+      <c r="M46" s="5">
+        <v>761</v>
+      </c>
+      <c r="N46" s="5">
+        <v>848</v>
+      </c>
       <c r="O46" s="5">
-        <v>16</v>
-      </c>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
+        <v>880</v>
+      </c>
+      <c r="P46" s="5">
+        <v>922</v>
+      </c>
+      <c r="Q46" s="5">
+        <f>2758-P46-O46</f>
+        <v>956</v>
+      </c>
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
       <c r="V46" s="5"/>
     </row>
-    <row r="47" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -2657,37 +3732,39 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5">
-        <v>1242</v>
+        <v>633</v>
       </c>
       <c r="K47" s="5">
-        <v>-12</v>
+        <v>614</v>
       </c>
       <c r="L47" s="5">
-        <v>-324</v>
+        <v>474</v>
       </c>
       <c r="M47" s="5">
-        <v>-1</v>
+        <v>475</v>
       </c>
       <c r="N47" s="5">
-        <v>855</v>
+        <v>558</v>
       </c>
       <c r="O47" s="5">
-        <f>-409-633-462-289-611+997+287+204+314</f>
-        <v>-602</v>
+        <v>418</v>
       </c>
       <c r="P47" s="5">
-        <v>-1346</v>
-      </c>
-      <c r="Q47" s="5"/>
+        <v>361</v>
+      </c>
+      <c r="Q47" s="5">
+        <f>1141-P47-O47</f>
+        <v>362</v>
+      </c>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
       <c r="V47" s="5"/>
     </row>
-    <row r="48" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -2696,35 +3773,19 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="5">
-        <f t="shared" ref="J48:N48" si="22">SUM(J41:J47)</f>
-        <v>3019</v>
-      </c>
-      <c r="K48" s="5">
-        <f t="shared" si="22"/>
-        <v>1641</v>
-      </c>
-      <c r="L48" s="5">
-        <f t="shared" si="22"/>
-        <v>2124</v>
-      </c>
-      <c r="M48" s="5">
-        <f t="shared" si="22"/>
-        <v>3147</v>
-      </c>
-      <c r="N48" s="5">
-        <f t="shared" si="22"/>
-        <v>4585</v>
-      </c>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
       <c r="O48" s="5">
-        <f>SUM(O41:O47)</f>
-        <v>3995</v>
-      </c>
-      <c r="P48" s="5">
-        <f>SUM(P41:P47)</f>
-        <v>2351</v>
-      </c>
-      <c r="Q48" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5">
+        <f>118-P48-O48</f>
+        <v>85</v>
+      </c>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
@@ -2732,6 +3793,9 @@
       <c r="V48" s="5"/>
     </row>
     <row r="49" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -2739,14 +3803,31 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
+      <c r="J49" s="5">
+        <v>230</v>
+      </c>
+      <c r="K49" s="5">
+        <v>-46</v>
+      </c>
+      <c r="L49" s="5">
+        <v>115</v>
+      </c>
+      <c r="M49" s="5">
+        <v>253</v>
+      </c>
+      <c r="N49" s="5">
+        <v>-19</v>
+      </c>
+      <c r="O49" s="5">
+        <v>-30</v>
+      </c>
+      <c r="P49" s="5">
+        <v>145</v>
+      </c>
+      <c r="Q49" s="5">
+        <f>1-P49-O49</f>
+        <v>-114</v>
+      </c>
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
@@ -2754,8 +3835,8 @@
       <c r="V49" s="5"/>
     </row>
     <row r="50" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="10" t="s">
-        <v>81</v>
+      <c r="B50" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -2764,29 +3845,19 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="5">
-        <v>1151</v>
-      </c>
-      <c r="K50" s="5">
-        <v>1348</v>
-      </c>
-      <c r="L50" s="5">
-        <v>1505</v>
-      </c>
-      <c r="M50" s="5">
-        <v>1819</v>
-      </c>
-      <c r="N50" s="5">
-        <v>1810</v>
-      </c>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
       <c r="O50" s="5">
-        <v>1767</v>
-      </c>
-      <c r="P50" s="5">
-        <f>3497-O50</f>
-        <v>1730</v>
-      </c>
-      <c r="Q50" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5">
+        <f>159-P50-O50</f>
+        <v>143</v>
+      </c>
       <c r="R50" s="5"/>
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
@@ -2794,8 +3865,8 @@
       <c r="V50" s="5"/>
     </row>
     <row r="51" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="10" t="s">
-        <v>82</v>
+      <c r="B51" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -2804,35 +3875,17 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="5">
-        <f>J48-J50</f>
-        <v>1868</v>
-      </c>
-      <c r="K51" s="5">
-        <f t="shared" ref="K51:N51" si="23">K48-K50</f>
-        <v>293</v>
-      </c>
-      <c r="L51" s="5">
-        <f t="shared" si="23"/>
-        <v>619</v>
-      </c>
-      <c r="M51" s="5">
-        <f t="shared" si="23"/>
-        <v>1328</v>
-      </c>
-      <c r="N51" s="5">
-        <f t="shared" si="23"/>
-        <v>2775</v>
-      </c>
-      <c r="O51" s="5">
-        <f t="shared" ref="O51" si="24">O48-O50</f>
-        <v>2228</v>
-      </c>
-      <c r="P51" s="5">
-        <f>P48-P50</f>
-        <v>621</v>
-      </c>
-      <c r="Q51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5">
+        <f>106-P51-O51</f>
+        <v>106</v>
+      </c>
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
@@ -2840,8 +3893,8 @@
       <c r="V51" s="5"/>
     </row>
     <row r="52" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="10" t="s">
-        <v>83</v>
+      <c r="B52" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -2850,26 +3903,32 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
+      <c r="J52" s="5">
+        <v>1242</v>
+      </c>
+      <c r="K52" s="5">
+        <v>-12</v>
+      </c>
+      <c r="L52" s="5">
+        <v>-324</v>
+      </c>
       <c r="M52" s="5">
-        <f>SUM(J51:M51)</f>
-        <v>4108</v>
+        <v>-1</v>
       </c>
       <c r="N52" s="5">
-        <f>SUM(K51:N51)</f>
-        <v>5015</v>
+        <v>855</v>
       </c>
       <c r="O52" s="5">
-        <f>SUM(L51:O51)</f>
-        <v>6950</v>
+        <f>-409-633-462-289-611+997+287+204+314</f>
+        <v>-602</v>
       </c>
       <c r="P52" s="5">
-        <f>SUM(M51:P51)</f>
-        <v>6952</v>
-      </c>
-      <c r="Q52" s="5"/>
+        <v>-1346</v>
+      </c>
+      <c r="Q52" s="5">
+        <f>-426-4492-1136-865-1580+4659+856+251+1016-P52-O52</f>
+        <v>231</v>
+      </c>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
@@ -2877,6 +3936,9 @@
       <c r="V52" s="5"/>
     </row>
     <row r="53" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -2884,14 +3946,38 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
+      <c r="J53" s="5">
+        <f t="shared" ref="J53:N53" si="93">SUM(J45:J52)</f>
+        <v>3019</v>
+      </c>
+      <c r="K53" s="5">
+        <f t="shared" si="93"/>
+        <v>1641</v>
+      </c>
+      <c r="L53" s="5">
+        <f t="shared" si="93"/>
+        <v>2124</v>
+      </c>
+      <c r="M53" s="5">
+        <f t="shared" si="93"/>
+        <v>3147</v>
+      </c>
+      <c r="N53" s="5">
+        <f t="shared" si="93"/>
+        <v>4585</v>
+      </c>
+      <c r="O53" s="5">
+        <f>SUM(O45:O52)</f>
+        <v>3995</v>
+      </c>
+      <c r="P53" s="5">
+        <f>SUM(P45:P52)</f>
+        <v>2351</v>
+      </c>
+      <c r="Q53" s="5">
+        <f>SUM(Q45:Q52)</f>
+        <v>5100</v>
+      </c>
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
@@ -2899,9 +3985,6 @@
       <c r="V53" s="5"/>
     </row>
     <row r="54" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="10" t="s">
-        <v>3</v>
-      </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -2913,15 +3996,9 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8">
-        <f>17576+131</f>
-        <v>17707</v>
-      </c>
-      <c r="P54" s="8">
-        <f>18324+591</f>
-        <v>18915</v>
-      </c>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
@@ -2931,7 +4008,7 @@
     </row>
     <row r="55" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="10" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -2940,18 +4017,32 @@
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
+      <c r="J55" s="5">
+        <v>1151</v>
+      </c>
+      <c r="K55" s="5">
+        <v>1348</v>
+      </c>
+      <c r="L55" s="5">
+        <v>1505</v>
+      </c>
+      <c r="M55" s="5">
+        <v>1819</v>
+      </c>
+      <c r="N55" s="5">
+        <v>1810</v>
+      </c>
       <c r="O55" s="5">
-        <v>1913</v>
+        <v>1767</v>
       </c>
       <c r="P55" s="5">
-        <v>2081</v>
-      </c>
-      <c r="Q55" s="5"/>
+        <f>3497-O55</f>
+        <v>1730</v>
+      </c>
+      <c r="Q55" s="5">
+        <f>5300-P55-O55</f>
+        <v>1803</v>
+      </c>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
@@ -2960,7 +4051,7 @@
     </row>
     <row r="56" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="10" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -2969,18 +4060,38 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
+      <c r="J56" s="5">
+        <f>J53-J55</f>
+        <v>1868</v>
+      </c>
+      <c r="K56" s="5">
+        <f t="shared" ref="K56:N56" si="94">K53-K55</f>
+        <v>293</v>
+      </c>
+      <c r="L56" s="5">
+        <f t="shared" si="94"/>
+        <v>619</v>
+      </c>
+      <c r="M56" s="5">
+        <f t="shared" si="94"/>
+        <v>1328</v>
+      </c>
+      <c r="N56" s="5">
+        <f t="shared" si="94"/>
+        <v>2775</v>
+      </c>
       <c r="O56" s="5">
-        <v>5757</v>
+        <f t="shared" ref="O56" si="95">O53-O55</f>
+        <v>2228</v>
       </c>
       <c r="P56" s="5">
-        <v>8108</v>
-      </c>
-      <c r="Q56" s="5"/>
+        <f>P53-P55</f>
+        <v>621</v>
+      </c>
+      <c r="Q56" s="5">
+        <f>Q53-Q55</f>
+        <v>3297</v>
+      </c>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
@@ -2989,7 +4100,7 @@
     </row>
     <row r="57" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="10" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -3001,15 +4112,26 @@
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
+      <c r="M57" s="5">
+        <f>SUM(J56:M56)</f>
+        <v>4108</v>
+      </c>
+      <c r="N57" s="5">
+        <f>SUM(K56:N56)</f>
+        <v>5015</v>
+      </c>
       <c r="O57" s="5">
-        <v>1723</v>
+        <f>SUM(L56:O56)</f>
+        <v>6950</v>
       </c>
       <c r="P57" s="5">
-        <v>2118</v>
-      </c>
-      <c r="Q57" s="5"/>
+        <f>SUM(M56:P56)</f>
+        <v>6952</v>
+      </c>
+      <c r="Q57" s="5">
+        <f>SUM(N56:Q56)</f>
+        <v>8921</v>
+      </c>
       <c r="R57" s="5"/>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
@@ -3017,9 +4139,6 @@
       <c r="V57" s="5"/>
     </row>
     <row r="58" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="10" t="s">
-        <v>65</v>
-      </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -3032,12 +4151,8 @@
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
-      <c r="O58" s="5">
-        <v>4511</v>
-      </c>
-      <c r="P58" s="5">
-        <v>4782</v>
-      </c>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
       <c r="S58" s="5"/>
@@ -3047,7 +4162,7 @@
     </row>
     <row r="59" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -3060,14 +4175,19 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5">
-        <v>5765</v>
-      </c>
-      <c r="P59" s="5">
-        <v>5624</v>
-      </c>
-      <c r="Q59" s="5"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8">
+        <f>17576+131</f>
+        <v>17707</v>
+      </c>
+      <c r="P59" s="8">
+        <f>18324+591</f>
+        <v>18915</v>
+      </c>
+      <c r="Q59" s="5">
+        <f>19532+1575</f>
+        <v>21107</v>
+      </c>
       <c r="R59" s="5"/>
       <c r="S59" s="5"/>
       <c r="T59" s="5"/>
@@ -3076,7 +4196,7 @@
     </row>
     <row r="60" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -3091,12 +4211,14 @@
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5">
-        <v>18884</v>
+        <v>1913</v>
       </c>
       <c r="P60" s="5">
-        <v>21093</v>
-      </c>
-      <c r="Q60" s="5"/>
+        <v>2081</v>
+      </c>
+      <c r="Q60" s="5">
+        <v>2192</v>
+      </c>
       <c r="R60" s="5"/>
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
@@ -3105,7 +4227,7 @@
     </row>
     <row r="61" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="10" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -3120,12 +4242,14 @@
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5">
-        <v>2016</v>
+        <v>5757</v>
       </c>
       <c r="P61" s="5">
-        <v>2185</v>
-      </c>
-      <c r="Q61" s="5"/>
+        <v>8108</v>
+      </c>
+      <c r="Q61" s="5">
+        <v>10327</v>
+      </c>
       <c r="R61" s="5"/>
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
@@ -3134,7 +4258,7 @@
     </row>
     <row r="62" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -3149,12 +4273,14 @@
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5">
-        <v>1260</v>
+        <v>1723</v>
       </c>
       <c r="P62" s="5">
-        <v>218</v>
-      </c>
-      <c r="Q62" s="5"/>
+        <v>2118</v>
+      </c>
+      <c r="Q62" s="5">
+        <v>2364</v>
+      </c>
       <c r="R62" s="5"/>
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
@@ -3163,7 +4289,7 @@
     </row>
     <row r="63" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -3178,13 +4304,14 @@
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5">
-        <v>457</v>
+        <v>4511</v>
       </c>
       <c r="P63" s="5">
-        <f>241+196</f>
-        <v>437</v>
-      </c>
-      <c r="Q63" s="5"/>
+        <v>4782</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>4824</v>
+      </c>
       <c r="R63" s="5"/>
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
@@ -3193,7 +4320,7 @@
     </row>
     <row r="64" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -3208,12 +4335,14 @@
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5">
-        <v>2138</v>
+        <v>5765</v>
       </c>
       <c r="P64" s="5">
-        <v>2952</v>
-      </c>
-      <c r="Q64" s="5"/>
+        <v>5624</v>
+      </c>
+      <c r="Q64" s="5">
+        <v>5562</v>
+      </c>
       <c r="R64" s="5"/>
       <c r="S64" s="5"/>
       <c r="T64" s="5"/>
@@ -3222,7 +4351,7 @@
     </row>
     <row r="65" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -3237,136 +4366,331 @@
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5">
-        <f>SUM(O54:O64)</f>
-        <v>62131</v>
+        <v>18884</v>
       </c>
       <c r="P65" s="5">
-        <f t="shared" ref="P65" si="25">SUM(P54:P64)</f>
-        <v>68513</v>
-      </c>
-      <c r="Q65" s="5"/>
+        <v>21093</v>
+      </c>
+      <c r="Q65" s="5">
+        <v>21926</v>
+      </c>
       <c r="R65" s="5"/>
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
       <c r="V65" s="5"/>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B67" s="9" t="s">
+    <row r="66" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5">
+        <v>2016</v>
+      </c>
+      <c r="P66" s="5">
+        <v>2185</v>
+      </c>
+      <c r="Q66" s="5">
+        <v>2251</v>
+      </c>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+    </row>
+    <row r="67" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5">
+        <v>1260</v>
+      </c>
+      <c r="P67" s="5">
+        <v>218</v>
+      </c>
+      <c r="Q67" s="5">
+        <v>218</v>
+      </c>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+    </row>
+    <row r="68" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5">
+        <v>457</v>
+      </c>
+      <c r="P68" s="5">
+        <f>241+196</f>
+        <v>437</v>
+      </c>
+      <c r="Q68" s="5">
+        <f>228+191</f>
+        <v>419</v>
+      </c>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+    </row>
+    <row r="69" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5">
+        <v>2138</v>
+      </c>
+      <c r="P69" s="5">
+        <v>2952</v>
+      </c>
+      <c r="Q69" s="5">
+        <v>3236</v>
+      </c>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+    </row>
+    <row r="70" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5">
+        <f>SUM(O59:O69)</f>
+        <v>62131</v>
+      </c>
+      <c r="P70" s="5">
+        <f t="shared" ref="P70:Q70" si="96">SUM(P59:P69)</f>
+        <v>68513</v>
+      </c>
+      <c r="Q70" s="5">
+        <f t="shared" si="96"/>
+        <v>74426</v>
+      </c>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B72" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="O67" s="5">
+      <c r="O72" s="5">
         <v>10025</v>
       </c>
-      <c r="P67" s="5">
+      <c r="P72" s="5">
         <v>11212</v>
       </c>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B68" s="9" t="s">
+      <c r="Q72" s="5">
+        <v>13897</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B73" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="O68" s="5">
+      <c r="O73" s="5">
         <v>5719</v>
       </c>
-      <c r="P68" s="5">
+      <c r="P73" s="5">
         <v>6037</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B69" s="9" t="s">
+      <c r="Q73" s="5">
+        <v>6246</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B74" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="O69" s="5">
+      <c r="O74" s="5">
         <v>1447</v>
       </c>
-      <c r="P69" s="5">
+      <c r="P74" s="5">
         <v>1858</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B70" s="9" t="s">
+      <c r="Q74" s="5">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B75" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="O70" s="5">
+      <c r="O75" s="5">
         <v>925</v>
       </c>
-      <c r="P70" s="5">
+      <c r="P75" s="5">
         <v>1182</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B71" s="9" t="s">
+      <c r="Q75" s="5">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B76" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O71" s="5">
+      <c r="O76" s="5">
         <f>1589+5245</f>
         <v>6834</v>
       </c>
-      <c r="P71" s="5">
+      <c r="P76" s="5">
         <f>2898+1532</f>
         <v>4430</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B72" s="9" t="s">
+      <c r="Q76" s="5">
+        <f>2096+1457</f>
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B77" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="O72" s="5">
+      <c r="O77" s="5">
         <v>2052</v>
       </c>
-      <c r="P72" s="5">
+      <c r="P77" s="5">
         <v>2210</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B73" s="9" t="s">
+      <c r="Q77" s="5">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="78" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B78" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="O73" s="5">
+      <c r="O78" s="5">
         <v>3546</v>
       </c>
-      <c r="P73" s="5">
+      <c r="P78" s="5">
         <v>3926</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B74" s="9" t="s">
+      <c r="Q78" s="5">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B79" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="O74" s="5">
+      <c r="O79" s="5">
         <f>30189+826+568</f>
         <v>31583</v>
       </c>
-      <c r="P74" s="5">
+      <c r="P79" s="5">
         <f>36376+421+861</f>
         <v>37658</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B75" s="9" t="s">
+      <c r="Q79" s="5">
+        <f>39851+852+421</f>
+        <v>41124</v>
+      </c>
+    </row>
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B80" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="O75" s="5">
-        <f>SUM(O67:O74)</f>
+      <c r="O80" s="5">
+        <f>SUM(O72:O79)</f>
         <v>62131</v>
       </c>
-      <c r="P75" s="5">
-        <f t="shared" ref="P75" si="26">SUM(P67:P74)</f>
+      <c r="P80" s="5">
+        <f t="shared" ref="P80:Q80" si="97">SUM(P72:P79)</f>
         <v>68513</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="O76" s="5"/>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="O77" s="5"/>
-    </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="O78" s="5"/>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="O79" s="5"/>
+      <c r="Q80" s="5">
+        <f t="shared" si="97"/>
+        <v>74426</v>
+      </c>
+    </row>
+    <row r="81" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="5"/>
+    </row>
+    <row r="82" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O82" s="5"/>
+    </row>
+    <row r="83" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="5"/>
+    </row>
+    <row r="84" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10C9613-23A0-48B5-8F3A-AFB0690F38CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705C1BFE-8759-42E4-A20D-FDE37C59CCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14205" yWindow="390" windowWidth="33330" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5925" yWindow="360" windowWidth="33330" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
   <si>
     <t>Price</t>
   </si>
@@ -309,19 +309,31 @@
   </si>
   <si>
     <t>Auto Product y/y</t>
+  </si>
+  <si>
+    <t>Deliveries y/y</t>
+  </si>
+  <si>
+    <t>Production y/y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -395,49 +407,62 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -460,16 +485,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>18368</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>11799</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>79762</xdr:rowOff>
+      <xdr:rowOff>53486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>33823</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>146437</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>27254</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>120161</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -486,8 +511,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11100213" y="79762"/>
-          <a:ext cx="15455" cy="15339520"/>
+          <a:off x="11704558" y="53486"/>
+          <a:ext cx="15455" cy="15996416"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -520,7 +545,7 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>39414</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>124811</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -862,7 +887,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -945,13 +972,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E310252-7C49-48D8-9A64-7380C8DB275B}">
-  <dimension ref="A1:AK84"/>
+  <dimension ref="A1:AK86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomRight" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -961,13 +988,16 @@
     <col min="3" max="14" width="9.140625" style="2"/>
     <col min="15" max="15" width="8.7109375" style="2" customWidth="1"/>
     <col min="16" max="22" width="9.140625" style="2"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="23" max="29" width="9.140625" style="1"/>
+    <col min="30" max="32" width="9.7109375" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
+      <c r="S1" s="24"/>
     </row>
     <row r="2" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
@@ -1000,17 +1030,39 @@
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="C3" s="5">
+        <v>12091</v>
+      </c>
+      <c r="D3" s="5">
+        <v>17722</v>
+      </c>
+      <c r="E3" s="5">
+        <v>17483</v>
+      </c>
+      <c r="F3" s="5">
+        <v>19475</v>
+      </c>
+      <c r="G3" s="5">
+        <v>12230</v>
+      </c>
+      <c r="H3" s="5">
+        <v>10600</v>
+      </c>
+      <c r="I3" s="5">
+        <v>15200</v>
+      </c>
+      <c r="J3" s="5">
+        <v>18920</v>
+      </c>
+      <c r="K3" s="5">
+        <v>2020</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1890</v>
+      </c>
+      <c r="M3" s="5">
+        <v>9275</v>
+      </c>
       <c r="N3" s="5">
         <v>11750</v>
       </c>
@@ -1023,27 +1075,67 @@
       <c r="Q3" s="5">
         <v>18672</v>
       </c>
-      <c r="R3" s="5"/>
+      <c r="R3" s="5">
+        <v>17147</v>
+      </c>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
+      <c r="AB3" s="4">
+        <f>SUM(C3:F3)</f>
+        <v>66771</v>
+      </c>
+      <c r="AC3" s="4">
+        <f>SUM(G3:J3)</f>
+        <v>56950</v>
+      </c>
+      <c r="AD3" s="4">
+        <f>SUM(K3:N3)</f>
+        <v>24935</v>
+      </c>
+      <c r="AE3" s="4">
+        <f>SUM(O3:R3)</f>
+        <v>66705</v>
+      </c>
     </row>
     <row r="4" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="C4" s="5">
+        <v>50928</v>
+      </c>
+      <c r="D4" s="5">
+        <v>77634</v>
+      </c>
+      <c r="E4" s="5">
+        <v>79703</v>
+      </c>
+      <c r="F4" s="5">
+        <v>92620</v>
+      </c>
+      <c r="G4" s="5">
+        <v>76266</v>
+      </c>
+      <c r="H4" s="5">
+        <v>80050</v>
+      </c>
+      <c r="I4" s="5">
+        <v>124100</v>
+      </c>
+      <c r="J4" s="5">
+        <v>161650</v>
+      </c>
+      <c r="K4" s="5">
+        <v>182780</v>
+      </c>
+      <c r="L4" s="5">
+        <v>199360</v>
+      </c>
+      <c r="M4" s="5">
+        <v>232025</v>
+      </c>
       <c r="N4" s="5">
         <v>296850</v>
       </c>
@@ -1056,81 +1148,118 @@
       <c r="Q4" s="5">
         <v>325158</v>
       </c>
-      <c r="R4" s="5"/>
+      <c r="R4" s="5">
+        <v>388131</v>
+      </c>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
-    </row>
-    <row r="5" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+      <c r="AB4" s="4">
+        <f>SUM(C4:F4)</f>
+        <v>300885</v>
+      </c>
+      <c r="AC4" s="4">
+        <f>SUM(G4:J4)</f>
+        <v>442066</v>
+      </c>
+      <c r="AD4" s="4">
+        <f>SUM(K4:N4)</f>
+        <v>911015</v>
+      </c>
+      <c r="AE4" s="4">
+        <f>SUM(O4:R4)</f>
+        <v>1247146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <f t="shared" ref="C5:N5" si="0">C4+C3</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
+        <v>63019</v>
+      </c>
+      <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
+        <v>95356</v>
+      </c>
+      <c r="E5" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
+        <v>97186</v>
+      </c>
+      <c r="F5" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
+        <v>112095</v>
+      </c>
+      <c r="G5" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
+        <v>88496</v>
+      </c>
+      <c r="H5" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
+        <v>90650</v>
+      </c>
+      <c r="I5" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
+        <v>139300</v>
+      </c>
+      <c r="J5" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
+        <v>180570</v>
+      </c>
+      <c r="K5" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
+        <v>184800</v>
+      </c>
+      <c r="L5" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
+        <v>201250</v>
+      </c>
+      <c r="M5" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
+        <v>241300</v>
+      </c>
+      <c r="N5" s="7">
         <f t="shared" si="0"/>
         <v>308600</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="7">
         <f>O4+O3</f>
         <v>310048</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="7">
         <f>P4+P3</f>
         <v>254695</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="7">
         <f>Q4+Q3</f>
         <v>343830</v>
       </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
+      <c r="R5" s="7">
+        <f>R4+R3</f>
+        <v>405278</v>
+      </c>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="AB5" s="6">
+        <f>+AB3+AB4</f>
+        <v>367656</v>
+      </c>
+      <c r="AC5" s="6">
+        <f>+AC3+AC4</f>
+        <v>499016</v>
+      </c>
+      <c r="AD5" s="6">
+        <f>+AD3+AD4</f>
+        <v>935950</v>
+      </c>
+      <c r="AE5" s="6">
+        <f>+AE3+AE4</f>
+        <v>1313851</v>
+      </c>
     </row>
     <row r="6" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -1160,7 +1289,10 @@
         <f>Q5/Q13*1000</f>
         <v>19332.583637897107</v>
       </c>
-      <c r="R6" s="5"/>
+      <c r="R6" s="5">
+        <f>R5/R13*1000</f>
+        <v>19266.840979320179</v>
+      </c>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -1192,13 +1324,27 @@
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="C8" s="5">
+        <v>14163</v>
+      </c>
+      <c r="D8" s="5">
+        <v>14517</v>
+      </c>
+      <c r="E8" s="5">
+        <v>16318</v>
+      </c>
+      <c r="F8" s="5">
+        <v>17933</v>
+      </c>
+      <c r="G8" s="5">
+        <v>15390</v>
+      </c>
+      <c r="H8" s="5">
+        <v>6326</v>
+      </c>
+      <c r="I8" s="5">
+        <v>16992</v>
+      </c>
       <c r="J8" s="5">
         <v>16097</v>
       </c>
@@ -1223,23 +1369,55 @@
       <c r="Q8" s="5">
         <v>19935</v>
       </c>
-      <c r="R8" s="5"/>
+      <c r="R8" s="5">
+        <v>20613</v>
+      </c>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
+      <c r="AB8" s="4">
+        <f>SUM(C8:F8)</f>
+        <v>62931</v>
+      </c>
+      <c r="AC8" s="4">
+        <f>SUM(G8:J8)</f>
+        <v>54805</v>
+      </c>
+      <c r="AD8" s="4">
+        <f>SUM(K8:N8)</f>
+        <v>24390</v>
+      </c>
+      <c r="AE8" s="4">
+        <f>SUM(O8:R8)</f>
+        <v>71177</v>
+      </c>
     </row>
     <row r="9" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="C9" s="5">
+        <v>62975</v>
+      </c>
+      <c r="D9" s="5">
+        <v>72531</v>
+      </c>
+      <c r="E9" s="5">
+        <v>79837</v>
+      </c>
+      <c r="F9" s="5">
+        <v>86958</v>
+      </c>
+      <c r="G9" s="5">
+        <v>87282</v>
+      </c>
+      <c r="H9" s="5">
+        <v>75946</v>
+      </c>
+      <c r="I9" s="5">
+        <v>128044</v>
+      </c>
       <c r="J9" s="5">
         <v>163660</v>
       </c>
@@ -1264,11 +1442,29 @@
       <c r="Q9" s="5">
         <v>345988</v>
       </c>
-      <c r="R9" s="5"/>
+      <c r="R9" s="5">
+        <v>419088</v>
+      </c>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
+      <c r="AB9" s="4">
+        <f>SUM(C9:F9)</f>
+        <v>302301</v>
+      </c>
+      <c r="AC9" s="4">
+        <f>SUM(G9:J9)</f>
+        <v>454932</v>
+      </c>
+      <c r="AD9" s="4">
+        <f>SUM(K9:N9)</f>
+        <v>906032</v>
+      </c>
+      <c r="AE9" s="4">
+        <f>SUM(O9:R9)</f>
+        <v>1298434</v>
+      </c>
     </row>
     <row r="10" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
@@ -1276,31 +1472,31 @@
       </c>
       <c r="C10" s="7">
         <f t="shared" ref="C10:N10" si="1">C9+C8</f>
-        <v>0</v>
+        <v>77138</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>87048</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>96155</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>104891</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>102672</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82272</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>145036</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" si="1"/>
@@ -1334,11 +1530,30 @@
         <f>+Q8+Q9</f>
         <v>365923</v>
       </c>
-      <c r="R10" s="7"/>
+      <c r="R10" s="7">
+        <f>+R8+R9</f>
+        <v>439701</v>
+      </c>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
+      <c r="AB10" s="6">
+        <f>+AB8+AB9</f>
+        <v>365232</v>
+      </c>
+      <c r="AC10" s="6">
+        <f>+AC8+AC9</f>
+        <v>509737</v>
+      </c>
+      <c r="AD10" s="6">
+        <f>+AD8+AD9</f>
+        <v>930422</v>
+      </c>
+      <c r="AE10" s="6">
+        <f>+AE8+AE9</f>
+        <v>1369611</v>
+      </c>
     </row>
     <row r="11" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
@@ -1472,15 +1687,21 @@
       <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5">
+        <v>3509</v>
+      </c>
       <c r="D13" s="5">
         <v>5168</v>
       </c>
       <c r="E13" s="5">
         <v>5132</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="F13" s="5">
+        <v>6143</v>
+      </c>
+      <c r="G13" s="5">
+        <v>4893</v>
+      </c>
       <c r="H13" s="5">
         <v>4911</v>
       </c>
@@ -1535,6 +1756,14 @@
         <f t="shared" ref="V13:V15" si="6">+R13*1.4</f>
         <v>29448.999999999996</v>
       </c>
+      <c r="AB13" s="4">
+        <f t="shared" ref="AB13:AB18" si="7">SUM(C13:F13)</f>
+        <v>19952</v>
+      </c>
+      <c r="AC13" s="4">
+        <f>SUM(G13:J13)</f>
+        <v>25783</v>
+      </c>
       <c r="AD13" s="4">
         <f>SUM(K13:N13)</f>
         <v>44125</v>
@@ -1552,15 +1781,21 @@
       <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
       <c r="D14" s="5">
         <v>0</v>
       </c>
       <c r="E14" s="5">
         <v>0</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
       <c r="H14" s="5">
         <v>0</v>
       </c>
@@ -1592,7 +1827,7 @@
         <v>286</v>
       </c>
       <c r="R14" s="5">
-        <f t="shared" ref="R14:R15" si="7">+N14*1.4</f>
+        <f t="shared" ref="R14:R15" si="8">+N14*1.4</f>
         <v>439.59999999999997</v>
       </c>
       <c r="S14" s="5">
@@ -1611,16 +1846,24 @@
         <f t="shared" si="6"/>
         <v>615.43999999999994</v>
       </c>
+      <c r="AB14" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4">
+        <f>SUM(G14:J14)</f>
+        <v>401</v>
+      </c>
       <c r="AD14" s="4">
-        <f t="shared" ref="AD14:AD18" si="8">SUM(K14:N14)</f>
+        <f t="shared" ref="AD14:AD18" si="9">SUM(K14:N14)</f>
         <v>1465</v>
       </c>
       <c r="AE14" s="4">
-        <f t="shared" ref="AD14:AE25" si="9">SUM(O14:R14)</f>
+        <f t="shared" ref="AD14:AE25" si="10">SUM(O14:R14)</f>
         <v>1748.6</v>
       </c>
       <c r="AF14" s="4">
-        <f t="shared" ref="AF14:AF33" si="10">SUM(S14:V14)</f>
+        <f t="shared" ref="AF14:AF33" si="11">SUM(S14:V14)</f>
         <v>2448.04</v>
       </c>
     </row>
@@ -1628,15 +1871,21 @@
       <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5">
+        <v>215</v>
+      </c>
       <c r="D15" s="5">
         <v>208</v>
       </c>
       <c r="E15" s="5">
         <v>221</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="F15" s="5">
+        <v>225</v>
+      </c>
+      <c r="G15" s="5">
+        <v>239</v>
+      </c>
       <c r="H15" s="5">
         <v>268</v>
       </c>
@@ -1668,7 +1917,7 @@
         <v>621</v>
       </c>
       <c r="R15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>879.19999999999993</v>
       </c>
       <c r="S15" s="5">
@@ -1687,16 +1936,24 @@
         <f t="shared" si="6"/>
         <v>1230.8799999999999</v>
       </c>
+      <c r="AB15" s="4">
+        <f t="shared" si="7"/>
+        <v>869</v>
+      </c>
+      <c r="AC15" s="4">
+        <f>SUM(G15:J15)</f>
+        <v>1052</v>
+      </c>
       <c r="AD15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1642</v>
       </c>
       <c r="AE15" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2756.2</v>
       </c>
       <c r="AF15" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3858.6799999999994</v>
       </c>
     </row>
@@ -1704,43 +1961,52 @@
       <c r="B16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="7">
+        <f t="shared" ref="C16:G16" si="12">SUM(C13:C15)</f>
+        <v>3724</v>
+      </c>
       <c r="D16" s="7">
-        <f t="shared" ref="D16:E16" si="11">SUM(D13:D15)</f>
+        <f t="shared" si="12"/>
         <v>5376</v>
       </c>
       <c r="E16" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5353</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="F16" s="7">
+        <f t="shared" si="12"/>
+        <v>6368</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="12"/>
+        <v>5132</v>
+      </c>
       <c r="H16" s="7">
-        <f t="shared" ref="H16" si="12">SUM(H13:H15)</f>
+        <f t="shared" ref="H16" si="13">SUM(H13:H15)</f>
         <v>5179</v>
       </c>
       <c r="I16" s="7">
-        <f t="shared" ref="I16:N16" si="13">SUM(I13:I15)</f>
+        <f t="shared" ref="I16:N16" si="14">SUM(I13:I15)</f>
         <v>7611</v>
       </c>
       <c r="J16" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9314</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9002</v>
       </c>
       <c r="L16" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10206</v>
       </c>
       <c r="M16" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>12057</v>
       </c>
       <c r="N16" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>15967</v>
       </c>
       <c r="O16" s="7">
@@ -1756,35 +2022,43 @@
         <v>18692</v>
       </c>
       <c r="R16" s="7">
-        <f t="shared" ref="R16:V16" si="14">SUM(R13:R15)</f>
+        <f t="shared" ref="R16:V16" si="15">SUM(R13:R15)</f>
         <v>22353.8</v>
       </c>
       <c r="S16" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>23605.399999999998</v>
       </c>
       <c r="T16" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>20442.8</v>
       </c>
       <c r="U16" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>26168.800000000003</v>
       </c>
       <c r="V16" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31295.319999999996</v>
       </c>
+      <c r="AB16" s="6">
+        <f>SUM(AB13:AB15)</f>
+        <v>20821</v>
+      </c>
+      <c r="AC16" s="6">
+        <f>SUM(AC13:AC15)</f>
+        <v>27236</v>
+      </c>
       <c r="AD16" s="6">
-        <f t="shared" si="9"/>
-        <v>66122</v>
+        <f>SUM(AD13:AD15)</f>
+        <v>47232</v>
       </c>
       <c r="AE16" s="6">
-        <f t="shared" si="9"/>
+        <f>SUM(AE13:AE15)</f>
         <v>72508.800000000003</v>
       </c>
       <c r="AF16" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>101512.31999999999</v>
       </c>
     </row>
@@ -1792,15 +2066,21 @@
       <c r="B17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5">
+        <v>324</v>
+      </c>
       <c r="D17" s="5">
         <v>369</v>
       </c>
       <c r="E17" s="5">
         <v>402</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="F17" s="5">
+        <v>436</v>
+      </c>
+      <c r="G17" s="5">
+        <v>293</v>
+      </c>
       <c r="H17" s="5">
         <v>370</v>
       </c>
@@ -1832,35 +2112,43 @@
         <v>1117</v>
       </c>
       <c r="R17" s="5">
-        <f t="shared" ref="R17:R18" si="15">+N17*1.4</f>
+        <f t="shared" ref="R17:R18" si="16">+N17*1.4</f>
         <v>963.19999999999993</v>
       </c>
       <c r="S17" s="5">
-        <f t="shared" ref="S17:S18" si="16">+O17*1.4</f>
+        <f t="shared" ref="S17:S18" si="17">+O17*1.4</f>
         <v>862.4</v>
       </c>
       <c r="T17" s="5">
-        <f t="shared" ref="T17:T18" si="17">+P17*1.4</f>
+        <f t="shared" ref="T17:T18" si="18">+P17*1.4</f>
         <v>1212.3999999999999</v>
       </c>
       <c r="U17" s="5">
-        <f t="shared" ref="U17:U18" si="18">+Q17*1.4</f>
+        <f t="shared" ref="U17:U18" si="19">+Q17*1.4</f>
         <v>1563.8</v>
       </c>
       <c r="V17" s="5">
-        <f t="shared" ref="V17:V18" si="19">+R17*1.4</f>
+        <f t="shared" ref="V17:V18" si="20">+R17*1.4</f>
         <v>1348.4799999999998</v>
       </c>
+      <c r="AB17" s="4">
+        <f t="shared" si="7"/>
+        <v>1531</v>
+      </c>
+      <c r="AC17" s="4">
+        <f>SUM(G17:J17)</f>
+        <v>1994</v>
+      </c>
       <c r="AD17" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(K17:N17)</f>
         <v>2789</v>
       </c>
       <c r="AE17" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3562.2</v>
       </c>
       <c r="AF17" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4987.079999999999</v>
       </c>
     </row>
@@ -1868,15 +2156,21 @@
       <c r="B18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5">
+        <v>493</v>
+      </c>
       <c r="D18" s="5">
         <v>605</v>
       </c>
       <c r="E18" s="5">
         <v>548</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="F18" s="5">
+        <v>580</v>
+      </c>
+      <c r="G18" s="5">
+        <v>560</v>
+      </c>
       <c r="H18" s="5">
         <v>487</v>
       </c>
@@ -1908,35 +2202,43 @@
         <v>1645</v>
       </c>
       <c r="R18" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1489.6</v>
       </c>
       <c r="S18" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1790.6</v>
       </c>
       <c r="T18" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2052.4</v>
       </c>
       <c r="U18" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2303</v>
       </c>
       <c r="V18" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2085.4399999999996</v>
       </c>
+      <c r="AB18" s="4">
+        <f t="shared" si="7"/>
+        <v>2226</v>
+      </c>
+      <c r="AC18" s="4">
+        <f>SUM(G18:J18)</f>
+        <v>2306</v>
+      </c>
       <c r="AD18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3802</v>
       </c>
       <c r="AE18" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5879.6</v>
       </c>
       <c r="AF18" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8231.4399999999987</v>
       </c>
     </row>
@@ -1944,43 +2246,52 @@
       <c r="B19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="7">
+        <f t="shared" ref="C19:G19" si="21">SUM(C16:C18)</f>
+        <v>4541</v>
+      </c>
       <c r="D19" s="7">
-        <f t="shared" ref="D19:E19" si="20">SUM(D16:D18)</f>
+        <f t="shared" si="21"/>
         <v>6350</v>
       </c>
       <c r="E19" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6303</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="F19" s="7">
+        <f t="shared" si="21"/>
+        <v>7384</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="21"/>
+        <v>5985</v>
+      </c>
       <c r="H19" s="7">
-        <f t="shared" ref="H19" si="21">SUM(H16:H18)</f>
+        <f t="shared" ref="H19" si="22">SUM(H16:H18)</f>
         <v>6036</v>
       </c>
       <c r="I19" s="7">
-        <f t="shared" ref="I19:N19" si="22">SUM(I16:I18)</f>
+        <f t="shared" ref="I19:N19" si="23">SUM(I16:I18)</f>
         <v>8771</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>10744</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>10389</v>
       </c>
       <c r="L19" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>11958</v>
       </c>
       <c r="M19" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>13757</v>
       </c>
       <c r="N19" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>17719</v>
       </c>
       <c r="O19" s="7">
@@ -1996,28 +2307,36 @@
         <v>21454</v>
       </c>
       <c r="R19" s="7">
-        <f t="shared" ref="R19:V19" si="23">SUM(R16:R18)</f>
+        <f t="shared" ref="R19:V19" si="24">SUM(R16:R18)</f>
         <v>24806.6</v>
       </c>
       <c r="S19" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>26258.399999999998</v>
       </c>
       <c r="T19" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>23707.600000000002</v>
       </c>
       <c r="U19" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>30035.600000000002</v>
       </c>
       <c r="V19" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>34729.24</v>
+      </c>
+      <c r="AB19" s="6">
+        <f>SUM(AB16:AB18)</f>
+        <v>24578</v>
+      </c>
+      <c r="AC19" s="6">
+        <f>SUM(AC16:AC18)</f>
+        <v>31536</v>
       </c>
       <c r="AD19" s="6">
         <f>SUM(AD16:AD18)</f>
-        <v>72713</v>
+        <v>53823</v>
       </c>
       <c r="AE19" s="6">
         <f>SUM(AE16:AE18)</f>
@@ -2032,15 +2351,21 @@
       <c r="B20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5">
+        <v>2856</v>
+      </c>
       <c r="D20" s="5">
         <v>4254</v>
       </c>
       <c r="E20" s="5">
         <v>4014</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="F20" s="5">
+        <v>4815</v>
+      </c>
+      <c r="G20" s="5">
+        <v>3699</v>
+      </c>
       <c r="H20" s="5">
         <v>3714</v>
       </c>
@@ -2076,27 +2401,27 @@
         <v>15776.25</v>
       </c>
       <c r="S20" s="5">
-        <f t="shared" ref="S20:V20" si="24">+S13*0.75</f>
+        <f t="shared" ref="S20:V20" si="25">+S13*0.75</f>
         <v>16289.699999999999</v>
       </c>
       <c r="T20" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>14353.5</v>
       </c>
       <c r="U20" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>18674.25</v>
       </c>
       <c r="V20" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>22086.749999999996</v>
       </c>
       <c r="AE20" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>49942.25</v>
       </c>
       <c r="AF20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>71404.2</v>
       </c>
     </row>
@@ -2104,7 +2429,10 @@
       <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5">
+        <f>C13-C20</f>
+        <v>653</v>
+      </c>
       <c r="D21" s="5">
         <f>D13-D20</f>
         <v>914</v>
@@ -2113,8 +2441,14 @@
         <f>E13-E20</f>
         <v>1118</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="F21" s="5">
+        <f>F13-F20</f>
+        <v>1328</v>
+      </c>
+      <c r="G21" s="5">
+        <f>G13-G20</f>
+        <v>1194</v>
+      </c>
       <c r="H21" s="5">
         <f>H13-H20</f>
         <v>1197</v>
@@ -2128,19 +2462,19 @@
         <v>1711</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" ref="K21:N21" si="25">K13-K20</f>
+        <f t="shared" ref="K21:N21" si="26">K13-K20</f>
         <v>1730</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2401</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3243</v>
       </c>
       <c r="N21" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4336</v>
       </c>
       <c r="O21" s="5">
@@ -2156,31 +2490,31 @@
         <v>4686</v>
       </c>
       <c r="R21" s="5">
-        <f t="shared" ref="R21:V21" si="26">R13-R20</f>
+        <f t="shared" ref="R21:V21" si="27">R13-R20</f>
         <v>5258.75</v>
       </c>
       <c r="S21" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5429.9</v>
       </c>
       <c r="T21" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4784.5</v>
       </c>
       <c r="U21" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6224.75</v>
       </c>
       <c r="V21" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7362.25</v>
       </c>
       <c r="AE21" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18061.75</v>
       </c>
       <c r="AF21" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>23801.4</v>
       </c>
     </row>
@@ -2188,15 +2522,21 @@
       <c r="B22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5">
+        <v>117</v>
+      </c>
       <c r="D22" s="5">
         <v>106</v>
       </c>
       <c r="E22" s="5">
         <v>117</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="F22" s="5">
+        <v>119</v>
+      </c>
+      <c r="G22" s="5">
+        <v>122</v>
+      </c>
       <c r="H22" s="5">
         <v>148</v>
       </c>
@@ -2232,27 +2572,27 @@
         <v>554.4</v>
       </c>
       <c r="S22" s="5">
-        <f t="shared" ref="S22:V22" si="27">+O22*1.4</f>
+        <f t="shared" ref="S22:V22" si="28">+O22*1.4</f>
         <v>571.19999999999993</v>
       </c>
       <c r="T22" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>516.6</v>
       </c>
       <c r="U22" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>533.4</v>
       </c>
       <c r="V22" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>776.16</v>
       </c>
       <c r="AE22" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1712.4</v>
       </c>
       <c r="AF22" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2397.3599999999997</v>
       </c>
     </row>
@@ -2260,27 +2600,36 @@
       <c r="B23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5">
+        <f t="shared" ref="C23:G23" si="29">C16-C22-C20</f>
+        <v>751</v>
+      </c>
       <c r="D23" s="5">
-        <f t="shared" ref="D23:E23" si="28">D16-D22-D20</f>
+        <f t="shared" si="29"/>
         <v>1016</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1222</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="F23" s="5">
+        <f t="shared" si="29"/>
+        <v>1434</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="29"/>
+        <v>1311</v>
+      </c>
       <c r="H23" s="5">
-        <f t="shared" ref="H23" si="29">H16-H22-H20</f>
+        <f t="shared" ref="H23" si="30">H16-H22-H20</f>
         <v>1317</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" ref="I23:J23" si="30">I16-I22-I20</f>
+        <f t="shared" ref="I23:J23" si="31">I16-I22-I20</f>
         <v>2105</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2244</v>
       </c>
       <c r="K23" s="5">
@@ -2288,19 +2637,19 @@
         <v>2385</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" ref="L23:O23" si="31">L16-L22-L20</f>
+        <f t="shared" ref="L23:O23" si="32">L16-L22-L20</f>
         <v>2899</v>
       </c>
       <c r="M23" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>3673</v>
       </c>
       <c r="N23" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4882</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>5539</v>
       </c>
       <c r="P23" s="5">
@@ -2312,31 +2661,31 @@
         <v>5212</v>
       </c>
       <c r="R23" s="5">
-        <f t="shared" ref="R23:V23" si="32">R16-R22-R20</f>
+        <f t="shared" ref="R23:V23" si="33">R16-R22-R20</f>
         <v>6023.1499999999978</v>
       </c>
       <c r="S23" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>6744.4999999999982</v>
       </c>
       <c r="T23" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>5572.7000000000007</v>
       </c>
       <c r="U23" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>6961.1500000000015</v>
       </c>
       <c r="V23" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>8432.41</v>
       </c>
       <c r="AE23" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20854.149999999998</v>
       </c>
       <c r="AF23" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>27710.76</v>
       </c>
     </row>
@@ -2344,15 +2693,21 @@
       <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5">
+        <v>316</v>
+      </c>
       <c r="D24" s="5">
         <v>326</v>
       </c>
       <c r="E24" s="5">
         <v>314</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="F24" s="5">
+        <v>385</v>
+      </c>
+      <c r="G24" s="5">
+        <v>282</v>
+      </c>
       <c r="H24" s="5">
         <v>349</v>
       </c>
@@ -2388,27 +2743,27 @@
         <v>1034.5999999999999</v>
       </c>
       <c r="S24" s="5">
-        <f t="shared" ref="S24:S25" si="33">+O24*1.4</f>
+        <f t="shared" ref="S24:S25" si="34">+O24*1.4</f>
         <v>963.19999999999993</v>
       </c>
       <c r="T24" s="5">
-        <f t="shared" ref="T24:T25" si="34">+P24*1.4</f>
+        <f t="shared" ref="T24:T25" si="35">+P24*1.4</f>
         <v>1076.5999999999999</v>
       </c>
       <c r="U24" s="5">
-        <f t="shared" ref="U24:U25" si="35">+Q24*1.4</f>
+        <f t="shared" ref="U24:U25" si="36">+Q24*1.4</f>
         <v>1418.1999999999998</v>
       </c>
       <c r="V24" s="5">
-        <f t="shared" ref="V24:V25" si="36">+R24*1.4</f>
+        <f t="shared" ref="V24:V25" si="37">+R24*1.4</f>
         <v>1448.4399999999998</v>
       </c>
       <c r="AE24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3504.6</v>
       </c>
       <c r="AF24" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4906.4399999999996</v>
       </c>
     </row>
@@ -2416,15 +2771,21 @@
       <c r="B25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5">
+        <v>686</v>
+      </c>
       <c r="D25" s="5">
         <v>743</v>
       </c>
       <c r="E25" s="5">
         <v>667</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="F25" s="5">
+        <v>674</v>
+      </c>
+      <c r="G25" s="5">
+        <v>648</v>
+      </c>
       <c r="H25" s="5">
         <v>558</v>
       </c>
@@ -2456,31 +2817,31 @@
         <v>1579</v>
       </c>
       <c r="R25" s="5">
-        <f t="shared" ref="R25" si="37">+N25*1.4</f>
+        <f t="shared" ref="R25" si="38">+N25*1.4</f>
         <v>1467.1999999999998</v>
       </c>
       <c r="S25" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1800.3999999999999</v>
       </c>
       <c r="T25" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1973.9999999999998</v>
       </c>
       <c r="U25" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>2210.6</v>
       </c>
       <c r="V25" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2054.0799999999995</v>
       </c>
       <c r="AE25" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5742.2</v>
       </c>
       <c r="AF25" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8039.08</v>
       </c>
     </row>
@@ -2488,51 +2849,60 @@
       <c r="B26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5">
+        <f t="shared" ref="C26:G26" si="39">C23+C17+C18-C24-C25</f>
+        <v>566</v>
+      </c>
       <c r="D26" s="5">
-        <f t="shared" ref="D26:E26" si="38">D23+D17+D18-D24-D25</f>
+        <f t="shared" si="39"/>
         <v>921</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1191</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="F26" s="5">
+        <f t="shared" si="39"/>
+        <v>1391</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="39"/>
+        <v>1234</v>
+      </c>
       <c r="H26" s="5">
-        <f t="shared" ref="H26" si="39">H23+H17+H18-H24-H25</f>
+        <f t="shared" ref="H26" si="40">H23+H17+H18-H24-H25</f>
         <v>1267</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" ref="I26:P26" si="40">I23+I17+I18-I24-I25</f>
+        <f t="shared" ref="I26:P26" si="41">I23+I17+I18-I24-I25</f>
         <v>2063</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2066</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2215</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2884</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3660</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4847</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>5460</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4233</v>
       </c>
       <c r="Q26" s="5">
@@ -2544,27 +2914,27 @@
         <v>6201.65</v>
       </c>
       <c r="S26" s="5">
-        <f t="shared" ref="S26:V26" si="41">+S19*0.25</f>
+        <f t="shared" ref="S26:V26" si="42">+S19*0.25</f>
         <v>6564.5999999999995</v>
       </c>
       <c r="T26" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>5926.9000000000005</v>
       </c>
       <c r="U26" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>7508.9000000000005</v>
       </c>
       <c r="V26" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>8682.31</v>
       </c>
       <c r="AE26" s="5">
-        <f t="shared" ref="AE26" si="42">+AE19*0.25</f>
+        <f t="shared" ref="AE26" si="43">+AE19*0.25</f>
         <v>20487.650000000001</v>
       </c>
       <c r="AF26" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28682.71</v>
       </c>
     </row>
@@ -2572,15 +2942,21 @@
       <c r="B27" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="5">
+        <v>340</v>
+      </c>
       <c r="D27" s="5">
         <v>324</v>
       </c>
       <c r="E27" s="5">
         <v>334</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="F27" s="5">
+        <v>345</v>
+      </c>
+      <c r="G27" s="5">
+        <v>324</v>
+      </c>
       <c r="H27" s="5">
         <v>279</v>
       </c>
@@ -2616,23 +2992,23 @@
         <v>962</v>
       </c>
       <c r="S27" s="5">
-        <f t="shared" ref="S27:S28" si="43">+O27*1.3</f>
+        <f t="shared" ref="S27" si="44">+O27*1.3</f>
         <v>1124.5</v>
       </c>
       <c r="T27" s="5">
-        <f t="shared" ref="T27:T28" si="44">+P27*1.3</f>
+        <f t="shared" ref="T27" si="45">+P27*1.3</f>
         <v>867.1</v>
       </c>
       <c r="U27" s="5">
-        <f t="shared" ref="U27:U28" si="45">+Q27*1.3</f>
+        <f t="shared" ref="U27" si="46">+Q27*1.3</f>
         <v>952.9</v>
       </c>
       <c r="V27" s="5">
-        <f t="shared" ref="V27:V28" si="46">+R27*1.3</f>
+        <f t="shared" ref="V27" si="47">+R27*1.3</f>
         <v>1250.6000000000001</v>
       </c>
       <c r="AF27" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4195.1000000000004</v>
       </c>
     </row>
@@ -2640,15 +3016,21 @@
       <c r="B28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5">
+        <v>704</v>
+      </c>
       <c r="D28" s="5">
         <v>647</v>
       </c>
       <c r="E28" s="5">
         <v>596</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="F28" s="5">
+        <v>699</v>
+      </c>
+      <c r="G28" s="5">
+        <v>627</v>
+      </c>
       <c r="H28" s="5">
         <v>661</v>
       </c>
@@ -2684,23 +3066,23 @@
         <v>1792.8</v>
       </c>
       <c r="S28" s="5">
-        <f t="shared" ref="S28:V28" si="47">+O28*1.2</f>
+        <f t="shared" ref="S28:V28" si="48">+O28*1.2</f>
         <v>1190.3999999999999</v>
       </c>
       <c r="T28" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1153.2</v>
       </c>
       <c r="U28" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1153.2</v>
       </c>
       <c r="V28" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2151.3599999999997</v>
       </c>
       <c r="AF28" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5648.16</v>
       </c>
     </row>
@@ -2708,43 +3090,52 @@
       <c r="B29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="5">
+        <f t="shared" ref="C29:D29" si="49">C27+C28</f>
+        <v>1044</v>
+      </c>
       <c r="D29" s="5">
-        <f t="shared" ref="D29:E29" si="48">D27+D28</f>
+        <f t="shared" ref="D29:E29" si="50">D27+D28</f>
         <v>971</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>930</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="F29" s="5">
+        <f t="shared" ref="F29:H29" si="51">F27+F28</f>
+        <v>1044</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="51"/>
+        <v>951</v>
+      </c>
       <c r="H29" s="5">
-        <f t="shared" ref="H29" si="49">H27+H28</f>
+        <f t="shared" si="51"/>
         <v>940</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" ref="I29:J29" si="50">I27+I28</f>
+        <f t="shared" ref="I29:J29" si="52">I27+I28</f>
         <v>1254</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1491</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" ref="K29:N29" si="51">K27+K28</f>
+        <f t="shared" ref="K29:N29" si="53">K27+K28</f>
         <v>1722</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1549</v>
       </c>
       <c r="M29" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1605</v>
       </c>
       <c r="N29" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>2234</v>
       </c>
       <c r="O29" s="5">
@@ -2760,23 +3151,23 @@
         <v>1694</v>
       </c>
       <c r="R29" s="5">
-        <f t="shared" ref="R29:V29" si="52">R27+R28</f>
+        <f t="shared" ref="R29:V29" si="54">R27+R28</f>
         <v>2754.8</v>
       </c>
       <c r="S29" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>2314.8999999999996</v>
       </c>
       <c r="T29" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>2020.3000000000002</v>
       </c>
       <c r="U29" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>2106.1</v>
       </c>
       <c r="V29" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>3401.96</v>
       </c>
       <c r="AF29" s="4">
@@ -2788,43 +3179,52 @@
       <c r="B30" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="5">
+        <f t="shared" ref="C30:D30" si="55">C26-C29</f>
+        <v>-478</v>
+      </c>
       <c r="D30" s="5">
-        <f t="shared" ref="D30:E30" si="53">D26-D29</f>
+        <f t="shared" ref="D30:E30" si="56">D26-D29</f>
         <v>-50</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>261</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="F30" s="5">
+        <f t="shared" ref="F30:H30" si="57">F26-F29</f>
+        <v>347</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="57"/>
+        <v>283</v>
+      </c>
       <c r="H30" s="5">
-        <f t="shared" ref="H30" si="54">H26-H29</f>
+        <f t="shared" si="57"/>
         <v>327</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" ref="I30:J30" si="55">I26-I29</f>
+        <f t="shared" ref="I30:J30" si="58">I26-I29</f>
         <v>809</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>575</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" ref="K30:N30" si="56">K26-K29</f>
+        <f t="shared" ref="K30:N30" si="59">K26-K29</f>
         <v>493</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1335</v>
       </c>
       <c r="M30" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>2055</v>
       </c>
       <c r="N30" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>2613</v>
       </c>
       <c r="O30" s="5">
@@ -2840,27 +3240,27 @@
         <v>3688</v>
       </c>
       <c r="R30" s="5">
-        <f t="shared" ref="R30:V30" si="57">R26-R29</f>
+        <f t="shared" ref="R30:V30" si="60">R26-R29</f>
         <v>3446.8499999999995</v>
       </c>
       <c r="S30" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>4249.7</v>
       </c>
       <c r="T30" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>3906.6000000000004</v>
       </c>
       <c r="U30" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>5402.8000000000011</v>
       </c>
       <c r="V30" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>5280.3499999999995</v>
       </c>
       <c r="AF30" s="5">
-        <f t="shared" ref="AF30" si="58">AF26-AF29</f>
+        <f t="shared" ref="AF30" si="61">AF26-AF29</f>
         <v>18839.449999999997</v>
       </c>
     </row>
@@ -2868,7 +3268,10 @@
       <c r="B31" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="5">
+        <f>9-158+26</f>
+        <v>-123</v>
+      </c>
       <c r="D31" s="5">
         <f>10-172-41</f>
         <v>-203</v>
@@ -2877,8 +3280,14 @@
         <f>15-185+85</f>
         <v>-85</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="F31" s="5">
+        <f>10-172-25</f>
+        <v>-187</v>
+      </c>
+      <c r="G31" s="5">
+        <f>10-169-54</f>
+        <v>-213</v>
+      </c>
       <c r="H31" s="5">
         <f>8-170-15</f>
         <v>-177</v>
@@ -2925,7 +3334,7 @@
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
       <c r="AF31" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2933,7 +3342,10 @@
       <c r="B32" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="5">
+        <f>C30+C31</f>
+        <v>-601</v>
+      </c>
       <c r="D32" s="5">
         <f>D30+D31</f>
         <v>-253</v>
@@ -2942,8 +3354,14 @@
         <f>E30+E31</f>
         <v>176</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="F32" s="5">
+        <f>F30+F31</f>
+        <v>160</v>
+      </c>
+      <c r="G32" s="5">
+        <f>G30+G31</f>
+        <v>70</v>
+      </c>
       <c r="H32" s="5">
         <f>H30+H31</f>
         <v>150</v>
@@ -2957,19 +3375,19 @@
         <v>379</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" ref="K32:N32" si="59">K30+K31</f>
+        <f t="shared" ref="K32:N32" si="62">K30+K31</f>
         <v>432</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>1316</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>1933</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>2635</v>
       </c>
       <c r="O32" s="5">
@@ -2985,23 +3403,23 @@
         <v>3636</v>
       </c>
       <c r="R32" s="5">
-        <f t="shared" ref="R32:V32" si="60">R30+R31</f>
+        <f t="shared" ref="R32:V32" si="63">R30+R31</f>
         <v>3446.8499999999995</v>
       </c>
       <c r="S32" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>4249.7</v>
       </c>
       <c r="T32" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>3906.6000000000004</v>
       </c>
       <c r="U32" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>5402.8000000000011</v>
       </c>
       <c r="V32" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>5280.3499999999995</v>
       </c>
       <c r="AF32" s="4">
@@ -3013,7 +3431,10 @@
       <c r="B33" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="5">
+        <f>23+34</f>
+        <v>57</v>
+      </c>
       <c r="D33" s="5">
         <f>19+19</f>
         <v>38</v>
@@ -3022,8 +3443,14 @@
         <f>26+7</f>
         <v>33</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="F33" s="5">
+        <f>42+27</f>
+        <v>69</v>
+      </c>
+      <c r="G33" s="5">
+        <f>2+52</f>
+        <v>54</v>
+      </c>
       <c r="H33" s="5">
         <f>21+25</f>
         <v>46</v>
@@ -3068,23 +3495,23 @@
         <v>344.68499999999995</v>
       </c>
       <c r="S33" s="5">
-        <f t="shared" ref="S33:V33" si="61">+S32*0.1</f>
+        <f t="shared" ref="S33:V33" si="64">+S32*0.1</f>
         <v>424.97</v>
       </c>
       <c r="T33" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>390.66000000000008</v>
       </c>
       <c r="U33" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>540.28000000000009</v>
       </c>
       <c r="V33" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>528.03499999999997</v>
       </c>
       <c r="AF33" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1883.9450000000002</v>
       </c>
     </row>
@@ -3092,7 +3519,10 @@
       <c r="B34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="5">
+        <f>C32-C33</f>
+        <v>-658</v>
+      </c>
       <c r="D34" s="5">
         <f>D32-D33</f>
         <v>-291</v>
@@ -3101,8 +3531,14 @@
         <f>E32-E33</f>
         <v>143</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="F34" s="5">
+        <f>F32-F33</f>
+        <v>91</v>
+      </c>
+      <c r="G34" s="5">
+        <f>G32-G33</f>
+        <v>16</v>
+      </c>
       <c r="H34" s="5">
         <f>H32-H33</f>
         <v>104</v>
@@ -3116,19 +3552,19 @@
         <v>270</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" ref="K34:N34" si="62">K32-K33</f>
+        <f t="shared" ref="K34:N34" si="65">K32-K33</f>
         <v>337</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>1165</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>1669</v>
       </c>
       <c r="N34" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>2321</v>
       </c>
       <c r="O34" s="5">
@@ -3144,23 +3580,23 @@
         <v>3331</v>
       </c>
       <c r="R34" s="5">
-        <f t="shared" ref="R34:V34" si="63">R32-R33</f>
+        <f t="shared" ref="R34:V34" si="66">R32-R33</f>
         <v>3102.1649999999995</v>
       </c>
       <c r="S34" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>3824.7299999999996</v>
       </c>
       <c r="T34" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>3515.9400000000005</v>
       </c>
       <c r="U34" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>4862.5200000000013</v>
       </c>
       <c r="V34" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>4752.3149999999996</v>
       </c>
       <c r="AF34" s="4">
@@ -3172,72 +3608,84 @@
       <c r="B35" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C35" s="3">
+        <f t="shared" ref="C35:G35" si="67">C34/C36</f>
+        <v>-0.76069364161849706</v>
+      </c>
       <c r="D35" s="3">
-        <f t="shared" ref="D35:E35" si="64">D34/D36</f>
-        <v>-1.6440677966101696</v>
+        <f t="shared" si="67"/>
+        <v>-0.32881355932203388</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0.15509761388286333</v>
       </c>
+      <c r="F35" s="3">
+        <f t="shared" si="67"/>
+        <v>9.8913043478260868E-2</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="67"/>
+        <v>1.7112299465240642E-2</v>
+      </c>
       <c r="H35" s="3">
-        <f t="shared" ref="H35" si="65">H34/H36</f>
-        <v>0.50241545893719808</v>
+        <f t="shared" ref="H35" si="68">H34/H36</f>
+        <v>0.10048309178743961</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" ref="I35:K35" si="66">I34/I36</f>
+        <f t="shared" ref="I35:K35" si="69">I34/I36</f>
         <v>0.27149321266968324</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>0.2402135231316726</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>0.29744042365401591</v>
       </c>
       <c r="L35" s="3">
-        <f t="shared" ref="L35" si="67">L34/L36</f>
+        <f t="shared" ref="L35" si="70">L34/L36</f>
         <v>1.0411081322609472</v>
       </c>
       <c r="M35" s="3">
-        <f t="shared" ref="M35" si="68">M34/M36</f>
+        <f t="shared" ref="M35" si="71">M34/M36</f>
         <v>1.4861976847729297</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" ref="N35" si="69">N34/N36</f>
+        <f t="shared" ref="N35" si="72">N34/N36</f>
         <v>2.044933920704846</v>
       </c>
       <c r="O35" s="3">
-        <f t="shared" ref="O35:Q35" si="70">O34/O36</f>
+        <f t="shared" ref="O35:Q35" si="73">O34/O36</f>
         <v>2.867761452031115</v>
       </c>
       <c r="P35" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>2.032900432900433</v>
       </c>
       <c r="Q35" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>0.96049596309111884</v>
       </c>
       <c r="R35" s="3">
-        <f t="shared" ref="R35:V35" si="71">R34/R36</f>
+        <f t="shared" ref="R35:V35" si="74">R34/R36</f>
         <v>0.89451124567474039</v>
       </c>
       <c r="S35" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>1.1028633217993078</v>
       </c>
       <c r="T35" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>1.0138235294117648</v>
       </c>
       <c r="U35" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>1.402110726643599</v>
       </c>
       <c r="V35" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>1.3703330449826989</v>
       </c>
       <c r="AF35" s="21">
@@ -3249,17 +3697,28 @@
       <c r="B36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="5"/>
+      <c r="C36" s="5">
+        <f>173*5</f>
+        <v>865</v>
+      </c>
       <c r="D36" s="5">
-        <v>177</v>
+        <f>177*5</f>
+        <v>885</v>
       </c>
       <c r="E36" s="5">
         <v>922</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="F36" s="5">
+        <f>184*5</f>
+        <v>920</v>
+      </c>
+      <c r="G36" s="5">
+        <f>187*5</f>
+        <v>935</v>
+      </c>
       <c r="H36" s="5">
-        <v>207</v>
+        <f>207*5</f>
+        <v>1035</v>
       </c>
       <c r="I36" s="5">
         <v>1105</v>
@@ -3293,19 +3752,19 @@
         <v>3468</v>
       </c>
       <c r="S36" s="5">
-        <f t="shared" ref="S36:V36" si="72">+R36</f>
+        <f t="shared" ref="S36:V36" si="75">+R36</f>
         <v>3468</v>
       </c>
       <c r="T36" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>3468</v>
       </c>
       <c r="U36" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>3468</v>
       </c>
       <c r="V36" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>3468</v>
       </c>
       <c r="AF36" s="4">
@@ -3313,374 +3772,487 @@
         <v>3468</v>
       </c>
     </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B38" s="15" t="s">
+    <row r="38" spans="2:32" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="L38" s="17">
-        <f t="shared" ref="K38:M38" si="73">L19/H19-1</f>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="23">
+        <f>G19/C19-1</f>
+        <v>0.31799163179916312</v>
+      </c>
+      <c r="H38" s="23">
+        <f t="shared" ref="H38" si="76">H19/D19-1</f>
+        <v>-4.9448818897637747E-2</v>
+      </c>
+      <c r="I38" s="23">
+        <f t="shared" ref="I38" si="77">I19/E19-1</f>
+        <v>0.39155957480564818</v>
+      </c>
+      <c r="J38" s="23">
+        <f t="shared" ref="J38" si="78">J19/F19-1</f>
+        <v>0.45503791982665232</v>
+      </c>
+      <c r="K38" s="23">
+        <f t="shared" ref="K38" si="79">K19/G19-1</f>
+        <v>0.73583959899749374</v>
+      </c>
+      <c r="L38" s="23">
+        <f t="shared" ref="L38:M38" si="80">L19/H19-1</f>
         <v>0.98111332007952279</v>
       </c>
-      <c r="M38" s="17">
-        <f t="shared" si="73"/>
+      <c r="M38" s="23">
+        <f t="shared" si="80"/>
         <v>0.56846425721126437</v>
       </c>
-      <c r="N38" s="17">
-        <f t="shared" ref="N38:O38" si="74">N19/J19-1</f>
+      <c r="N38" s="23">
+        <f t="shared" ref="N38:O38" si="81">N19/J19-1</f>
         <v>0.64919955323901712</v>
       </c>
-      <c r="O38" s="17">
-        <f t="shared" si="74"/>
+      <c r="O38" s="23">
+        <f t="shared" si="81"/>
         <v>0.80537106555010096</v>
       </c>
-      <c r="P38" s="17">
+      <c r="P38" s="23">
         <f>P19/L19-1</f>
         <v>0.41612309750794441</v>
       </c>
-      <c r="Q38" s="17">
+      <c r="Q38" s="23">
         <f>Q19/M19-1</f>
         <v>0.55949698335392894</v>
       </c>
-      <c r="R38" s="17">
-        <f t="shared" ref="R38:V38" si="75">R19/N19-1</f>
+      <c r="R38" s="23">
+        <f>R19/N19-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="S38" s="17">
-        <f t="shared" si="75"/>
+      <c r="S38" s="23">
+        <f t="shared" ref="S38:V38" si="82">S19/O19-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="T38" s="17">
-        <f t="shared" si="75"/>
+      <c r="T38" s="23">
+        <f t="shared" si="82"/>
         <v>0.40000000000000013</v>
       </c>
-      <c r="U38" s="17">
-        <f t="shared" si="75"/>
+      <c r="U38" s="23">
+        <f t="shared" si="82"/>
         <v>0.40000000000000013</v>
       </c>
-      <c r="V38" s="17">
-        <f t="shared" si="75"/>
+      <c r="V38" s="23">
+        <f t="shared" si="82"/>
         <v>0.39999999999999991</v>
       </c>
+      <c r="AC38" s="27">
+        <f>+AC19/AB19-1</f>
+        <v>0.28309870615998056</v>
+      </c>
+      <c r="AD38" s="27">
+        <f>+AD19/AC19-1</f>
+        <v>0.70671613394216126</v>
+      </c>
+      <c r="AE38" s="27">
+        <f>+AE19/AD19-1</f>
+        <v>0.52259442989056737</v>
+      </c>
+      <c r="AF38" s="27">
+        <f>+AF19/AE19-1</f>
+        <v>0.39999999999999991</v>
+      </c>
     </row>
     <row r="39" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="17">
+        <f t="shared" ref="G39" si="83">+G5/C5-1</f>
+        <v>0.40427490122026688</v>
+      </c>
+      <c r="H39" s="17">
+        <f t="shared" ref="H39" si="84">+H5/D5-1</f>
+        <v>-4.9351902344897058E-2</v>
+      </c>
+      <c r="I39" s="17">
+        <f t="shared" ref="I39" si="85">+I5/E5-1</f>
+        <v>0.43333401930319182</v>
+      </c>
+      <c r="J39" s="17">
+        <f t="shared" ref="J39" si="86">+J5/F5-1</f>
+        <v>0.61086578348722065</v>
+      </c>
+      <c r="K39" s="17">
+        <f t="shared" ref="K39" si="87">+K5/G5-1</f>
+        <v>1.088229976496113</v>
+      </c>
+      <c r="L39" s="17">
+        <f t="shared" ref="L39" si="88">+L5/H5-1</f>
+        <v>1.2200772200772199</v>
+      </c>
+      <c r="M39" s="17">
+        <f t="shared" ref="M39" si="89">+M5/I5-1</f>
+        <v>0.73223259152907394</v>
+      </c>
+      <c r="N39" s="17">
+        <f t="shared" ref="N39:Q39" si="90">+N5/J5-1</f>
+        <v>0.70903250816857732</v>
+      </c>
+      <c r="O39" s="17">
+        <f t="shared" si="90"/>
+        <v>0.67774891774891777</v>
+      </c>
+      <c r="P39" s="17">
+        <f t="shared" si="90"/>
+        <v>0.26556521739130434</v>
+      </c>
+      <c r="Q39" s="17">
+        <f t="shared" si="90"/>
+        <v>0.42490675507666809</v>
+      </c>
+      <c r="R39" s="17">
+        <f>+R5/N5-1</f>
+        <v>0.31327932598833441</v>
+      </c>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="AC39" s="28">
+        <f>+AC5/AB5-1</f>
+        <v>0.35729051069477991</v>
+      </c>
+      <c r="AD39" s="28">
+        <f>+AD5/AC5-1</f>
+        <v>0.87559116340959009</v>
+      </c>
+      <c r="AE39" s="28">
+        <f>+AE5/AD5-1</f>
+        <v>0.403761953095785</v>
+      </c>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B40" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" s="17">
+        <f t="shared" ref="G40" si="91">+G10/C10-1</f>
+        <v>0.33101713811610356</v>
+      </c>
+      <c r="H40" s="17">
+        <f t="shared" ref="H40" si="92">+H10/D10-1</f>
+        <v>-5.4866280672732248E-2</v>
+      </c>
+      <c r="I40" s="17">
+        <f t="shared" ref="I40" si="93">+I10/E10-1</f>
+        <v>0.50835629972440333</v>
+      </c>
+      <c r="J40" s="17">
+        <f t="shared" ref="J40" si="94">+J10/F10-1</f>
+        <v>0.71375046476818782</v>
+      </c>
+      <c r="K40" s="17">
+        <f t="shared" ref="K40" si="95">+K10/G10-1</f>
+        <v>0.75644771700171409</v>
+      </c>
+      <c r="L40" s="17">
+        <f t="shared" ref="L40" si="96">+L10/H10-1</f>
+        <v>1.5090067094515751</v>
+      </c>
+      <c r="M40" s="17">
+        <f t="shared" ref="L40:M40" si="97">+M10/I10-1</f>
+        <v>0.63975150996993846</v>
+      </c>
+      <c r="N40" s="17">
+        <f>+N10/J10-1</f>
+        <v>0.7014080119272128</v>
+      </c>
+      <c r="O40" s="17">
+        <f>+O10/K10-1</f>
+        <v>0.69352549102241356</v>
+      </c>
+      <c r="P40" s="17">
+        <f>+P10/L10-1</f>
+        <v>0.25268262434539124</v>
+      </c>
+      <c r="Q40" s="17">
+        <f>+Q10/M10-1</f>
+        <v>0.53863587626091669</v>
+      </c>
+      <c r="R40" s="17">
+        <f>+R10/N10-1</f>
+        <v>0.43768310227569973</v>
+      </c>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="AC40" s="28">
+        <f t="shared" ref="AC40:AE40" si="98">+AC10/AB10-1</f>
+        <v>0.39565262627590125</v>
+      </c>
+      <c r="AD40" s="28">
+        <f t="shared" si="98"/>
+        <v>0.8252981439448186</v>
+      </c>
+      <c r="AE40" s="28">
+        <f>+AE10/AD10-1</f>
+        <v>0.47203204567389845</v>
+      </c>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B41" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="L39" s="17">
-        <f t="shared" ref="K39:M39" si="76">L13/H13-1</f>
+      <c r="G41" s="17">
+        <f t="shared" ref="G41:K41" si="99">G13/C13-1</f>
+        <v>0.39441436306640076</v>
+      </c>
+      <c r="H41" s="17">
+        <f t="shared" si="99"/>
+        <v>-4.9729102167182626E-2</v>
+      </c>
+      <c r="I41" s="17">
+        <f t="shared" si="99"/>
+        <v>0.43141075604053003</v>
+      </c>
+      <c r="J41" s="17">
+        <f t="shared" si="99"/>
+        <v>0.4053394107113788</v>
+      </c>
+      <c r="K41" s="17">
+        <f t="shared" si="99"/>
+        <v>0.67320662170447587</v>
+      </c>
+      <c r="L41" s="17">
+        <f>L13/H13-1</f>
         <v>0.9385053960496843</v>
       </c>
-      <c r="M39" s="17">
-        <f t="shared" si="76"/>
+      <c r="M41" s="17">
+        <f t="shared" ref="L41:M41" si="100">M13/I13-1</f>
         <v>0.55091206098557044</v>
       </c>
-      <c r="N39" s="17">
+      <c r="N41" s="17">
         <f>N13/J13-1</f>
         <v>0.74041468782578468</v>
       </c>
-      <c r="O39" s="17">
-        <f t="shared" ref="O39:Q39" si="77">O13/K13-1</f>
+      <c r="O41" s="17">
+        <f t="shared" ref="O41:Q41" si="101">O13/K13-1</f>
         <v>0.89495541712470983</v>
       </c>
-      <c r="P39" s="17">
-        <f t="shared" si="77"/>
+      <c r="P41" s="17">
+        <f t="shared" si="101"/>
         <v>0.43592436974789917</v>
       </c>
-      <c r="Q39" s="17">
-        <f t="shared" si="77"/>
+      <c r="Q41" s="17">
+        <f t="shared" si="101"/>
         <v>0.561046256473273</v>
       </c>
-      <c r="R39" s="17">
-        <f t="shared" ref="R39" si="78">R13/N13-1</f>
+      <c r="R41" s="17">
+        <f t="shared" ref="R41" si="102">R13/N13-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="S39" s="17">
-        <f t="shared" ref="S39" si="79">S13/O13-1</f>
+      <c r="S41" s="17">
+        <f t="shared" ref="S41" si="103">S13/O13-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="T39" s="17">
-        <f t="shared" ref="T39" si="80">T13/P13-1</f>
+      <c r="T41" s="17">
+        <f t="shared" ref="T41" si="104">T13/P13-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="U39" s="17">
-        <f t="shared" ref="U39" si="81">U13/Q13-1</f>
+      <c r="U41" s="17">
+        <f t="shared" ref="U41" si="105">U13/Q13-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="V39" s="17">
-        <f t="shared" ref="V39" si="82">V13/R13-1</f>
+      <c r="V41" s="17">
+        <f t="shared" ref="V41" si="106">V13/R13-1</f>
         <v>0.39999999999999991</v>
       </c>
     </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B40" s="20" t="s">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B42" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="17">
-        <f t="shared" ref="D40:E40" si="83">D21/D13</f>
+      <c r="C42" s="17">
+        <f t="shared" ref="C42:H42" si="107">C21/C13</f>
+        <v>0.18609290396124251</v>
+      </c>
+      <c r="D42" s="17">
+        <f t="shared" si="107"/>
         <v>0.17685758513931887</v>
       </c>
-      <c r="E40" s="17">
-        <f t="shared" si="83"/>
+      <c r="E42" s="17">
+        <f t="shared" si="107"/>
         <v>0.21784879189399844</v>
       </c>
-      <c r="H40" s="17">
-        <f t="shared" ref="H40" si="84">H21/H13</f>
+      <c r="F42" s="17">
+        <f t="shared" si="107"/>
+        <v>0.21618101904606871</v>
+      </c>
+      <c r="G42" s="17">
+        <f t="shared" si="107"/>
+        <v>0.2440220723482526</v>
+      </c>
+      <c r="H42" s="17">
+        <f t="shared" ref="H42" si="108">H21/H13</f>
         <v>0.24373854612095297</v>
       </c>
-      <c r="I40" s="17">
-        <f t="shared" ref="I40:J40" si="85">I21/I13</f>
+      <c r="I42" s="17">
+        <f t="shared" ref="I42" si="109">I21/I13</f>
         <v>0.27021508303838826</v>
       </c>
-      <c r="J40" s="17">
-        <f>J21/J13</f>
+      <c r="J42" s="17">
+        <f t="shared" ref="J42:Q42" si="110">J21/J13</f>
         <v>0.19819298042395458</v>
       </c>
-      <c r="K40" s="17">
-        <f>K21/K13</f>
+      <c r="K42" s="17">
+        <f t="shared" si="110"/>
         <v>0.21131061438866497</v>
       </c>
-      <c r="L40" s="17">
-        <f>L21/L13</f>
+      <c r="L42" s="17">
+        <f t="shared" si="110"/>
         <v>0.25220588235294117</v>
       </c>
-      <c r="M40" s="17">
-        <f>M21/M13</f>
+      <c r="M42" s="17">
+        <f t="shared" si="110"/>
         <v>0.28464846835776353</v>
       </c>
-      <c r="N40" s="17">
-        <f>N21/N13</f>
+      <c r="N42" s="17">
+        <f t="shared" si="110"/>
         <v>0.28858569051580701</v>
       </c>
-      <c r="O40" s="17">
-        <f>O21/O13</f>
+      <c r="O42" s="17">
+        <f t="shared" si="110"/>
         <v>0.29650638133298957</v>
       </c>
-      <c r="P40" s="17">
-        <f>P21/P13</f>
+      <c r="P42" s="17">
+        <f t="shared" si="110"/>
         <v>0.25727871250914414</v>
       </c>
-      <c r="Q40" s="17">
-        <f>Q21/Q13</f>
+      <c r="Q42" s="17">
+        <f t="shared" si="110"/>
         <v>0.26348046106269329</v>
       </c>
-      <c r="R40" s="17">
-        <f t="shared" ref="R40:V40" si="86">R21/R13</f>
+      <c r="R42" s="17">
+        <f t="shared" ref="R42:V42" si="111">R21/R13</f>
         <v>0.25</v>
       </c>
-      <c r="S40" s="17">
-        <f t="shared" si="86"/>
+      <c r="S42" s="17">
+        <f t="shared" si="111"/>
         <v>0.25</v>
       </c>
-      <c r="T40" s="17">
-        <f t="shared" si="86"/>
+      <c r="T42" s="17">
+        <f t="shared" si="111"/>
         <v>0.25</v>
       </c>
-      <c r="U40" s="17">
-        <f t="shared" si="86"/>
+      <c r="U42" s="17">
+        <f t="shared" si="111"/>
         <v>0.25</v>
       </c>
-      <c r="V40" s="17">
-        <f t="shared" si="86"/>
+      <c r="V42" s="17">
+        <f t="shared" si="111"/>
         <v>0.25000000000000006</v>
       </c>
     </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B41" s="20" t="s">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B43" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="17">
-        <f t="shared" ref="D41:E41" si="87">+D26/D19</f>
+      <c r="C43" s="17">
+        <f t="shared" ref="C43:H43" si="112">+C26/C19</f>
+        <v>0.1246421493063202</v>
+      </c>
+      <c r="D43" s="17">
+        <f t="shared" si="112"/>
         <v>0.14503937007874015</v>
       </c>
-      <c r="E41" s="17">
-        <f t="shared" si="87"/>
+      <c r="E43" s="17">
+        <f t="shared" si="112"/>
         <v>0.18895763921941933</v>
       </c>
-      <c r="H41" s="17">
-        <f t="shared" ref="H41" si="88">+H26/H19</f>
+      <c r="F43" s="17">
+        <f t="shared" si="112"/>
+        <v>0.18838028169014084</v>
+      </c>
+      <c r="G43" s="17">
+        <f t="shared" si="112"/>
+        <v>0.20618212197159566</v>
+      </c>
+      <c r="H43" s="17">
+        <f t="shared" ref="H43" si="113">+H26/H19</f>
         <v>0.20990722332670642</v>
       </c>
-      <c r="I41" s="17">
-        <f t="shared" ref="I41:J41" si="89">+I26/I19</f>
+      <c r="I43" s="17">
+        <f t="shared" ref="I43" si="114">+I26/I19</f>
         <v>0.23520693193478509</v>
       </c>
-      <c r="J41" s="17">
+      <c r="J43" s="17">
         <f>+J26/J19</f>
         <v>0.19229337304542071</v>
       </c>
-      <c r="K41" s="17">
-        <f t="shared" ref="K41:V41" si="90">+K26/K19</f>
+      <c r="K43" s="17">
+        <f t="shared" ref="K43:V43" si="115">+K26/K19</f>
         <v>0.21320627586870727</v>
       </c>
-      <c r="L41" s="17">
-        <f t="shared" si="90"/>
+      <c r="L43" s="17">
+        <f t="shared" si="115"/>
         <v>0.24117745442381669</v>
       </c>
-      <c r="M41" s="17">
-        <f t="shared" si="90"/>
+      <c r="M43" s="17">
+        <f t="shared" si="115"/>
         <v>0.26604637639020134</v>
       </c>
-      <c r="N41" s="17">
-        <f t="shared" si="90"/>
+      <c r="N43" s="17">
+        <f t="shared" si="115"/>
         <v>0.27354816863254133</v>
       </c>
-      <c r="O41" s="17">
-        <f t="shared" si="90"/>
+      <c r="O43" s="17">
+        <f t="shared" si="115"/>
         <v>0.29110684580934099</v>
       </c>
-      <c r="P41" s="17">
-        <f t="shared" si="90"/>
+      <c r="P43" s="17">
+        <f t="shared" si="115"/>
         <v>0.24997047360340144</v>
       </c>
-      <c r="Q41" s="17">
-        <f t="shared" si="90"/>
+      <c r="Q43" s="17">
+        <f t="shared" si="115"/>
         <v>0.25086231005873033</v>
       </c>
-      <c r="R41" s="17">
-        <f t="shared" si="90"/>
+      <c r="R43" s="17">
+        <f t="shared" si="115"/>
         <v>0.25</v>
       </c>
-      <c r="S41" s="17">
-        <f t="shared" si="90"/>
+      <c r="S43" s="17">
+        <f t="shared" si="115"/>
         <v>0.25</v>
       </c>
-      <c r="T41" s="17">
-        <f t="shared" si="90"/>
+      <c r="T43" s="17">
+        <f t="shared" si="115"/>
         <v>0.25</v>
       </c>
-      <c r="U41" s="17">
-        <f t="shared" si="90"/>
+      <c r="U43" s="17">
+        <f t="shared" si="115"/>
         <v>0.25</v>
       </c>
-      <c r="V41" s="17">
-        <f t="shared" si="90"/>
+      <c r="V43" s="17">
+        <f t="shared" si="115"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B42" s="15"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="17"/>
-    </row>
-    <row r="44" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5">
-        <f t="shared" ref="I44:N44" si="91">I34</f>
-        <v>300</v>
-      </c>
-      <c r="J44" s="5">
-        <f t="shared" si="91"/>
-        <v>270</v>
-      </c>
-      <c r="K44" s="5">
-        <f t="shared" si="91"/>
-        <v>337</v>
-      </c>
-      <c r="L44" s="5">
-        <f t="shared" si="91"/>
-        <v>1165</v>
-      </c>
-      <c r="M44" s="5">
-        <f t="shared" si="91"/>
-        <v>1669</v>
-      </c>
-      <c r="N44" s="5">
-        <f t="shared" si="91"/>
-        <v>2321</v>
-      </c>
-      <c r="O44" s="5">
-        <f>O34</f>
-        <v>3318</v>
-      </c>
-      <c r="P44" s="5">
-        <f>P34</f>
-        <v>2348</v>
-      </c>
-      <c r="Q44" s="5">
-        <f>Q34</f>
-        <v>3331</v>
-      </c>
-      <c r="R44" s="5">
-        <f t="shared" ref="R44:V44" si="92">R34</f>
-        <v>3102.1649999999995</v>
-      </c>
-      <c r="S44" s="5">
-        <f t="shared" si="92"/>
-        <v>3824.7299999999996</v>
-      </c>
-      <c r="T44" s="5">
-        <f t="shared" si="92"/>
-        <v>3515.9400000000005</v>
-      </c>
-      <c r="U44" s="5">
-        <f t="shared" si="92"/>
-        <v>4862.5200000000013</v>
-      </c>
-      <c r="V44" s="5">
-        <f t="shared" si="92"/>
-        <v>4752.3149999999996</v>
-      </c>
-    </row>
-    <row r="45" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5">
-        <v>296</v>
-      </c>
-      <c r="K45" s="5">
-        <v>464</v>
-      </c>
-      <c r="L45" s="5">
-        <v>1178</v>
-      </c>
-      <c r="M45" s="5">
-        <v>1659</v>
-      </c>
-      <c r="N45" s="5">
-        <v>2343</v>
-      </c>
-      <c r="O45" s="5">
-        <v>3280</v>
-      </c>
-      <c r="P45" s="5">
-        <v>2269</v>
-      </c>
-      <c r="Q45" s="5">
-        <f>8880-P45-O45</f>
-        <v>3331</v>
-      </c>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B44" s="15"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
     </row>
     <row r="46" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -3688,41 +4260,66 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
+      <c r="I46" s="5">
+        <f t="shared" ref="I46:N46" si="116">I34</f>
+        <v>300</v>
+      </c>
       <c r="J46" s="5">
-        <v>618</v>
+        <f t="shared" si="116"/>
+        <v>270</v>
       </c>
       <c r="K46" s="5">
-        <v>621</v>
+        <f t="shared" si="116"/>
+        <v>337</v>
       </c>
       <c r="L46" s="5">
-        <v>681</v>
+        <f t="shared" si="116"/>
+        <v>1165</v>
       </c>
       <c r="M46" s="5">
-        <v>761</v>
+        <f t="shared" si="116"/>
+        <v>1669</v>
       </c>
       <c r="N46" s="5">
-        <v>848</v>
+        <f t="shared" si="116"/>
+        <v>2321</v>
       </c>
       <c r="O46" s="5">
-        <v>880</v>
+        <f>O34</f>
+        <v>3318</v>
       </c>
       <c r="P46" s="5">
-        <v>922</v>
+        <f>P34</f>
+        <v>2348</v>
       </c>
       <c r="Q46" s="5">
-        <f>2758-P46-O46</f>
-        <v>956</v>
-      </c>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
+        <f>Q34</f>
+        <v>3331</v>
+      </c>
+      <c r="R46" s="5">
+        <f t="shared" ref="R46:V46" si="117">R34</f>
+        <v>3102.1649999999995</v>
+      </c>
+      <c r="S46" s="5">
+        <f t="shared" si="117"/>
+        <v>3824.7299999999996</v>
+      </c>
+      <c r="T46" s="5">
+        <f t="shared" si="117"/>
+        <v>3515.9400000000005</v>
+      </c>
+      <c r="U46" s="5">
+        <f t="shared" si="117"/>
+        <v>4862.5200000000013</v>
+      </c>
+      <c r="V46" s="5">
+        <f t="shared" si="117"/>
+        <v>4752.3149999999996</v>
+      </c>
     </row>
     <row r="47" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -3732,29 +4329,29 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5">
-        <v>633</v>
+        <v>296</v>
       </c>
       <c r="K47" s="5">
-        <v>614</v>
+        <v>464</v>
       </c>
       <c r="L47" s="5">
-        <v>474</v>
+        <v>1178</v>
       </c>
       <c r="M47" s="5">
-        <v>475</v>
+        <v>1659</v>
       </c>
       <c r="N47" s="5">
-        <v>558</v>
+        <v>2343</v>
       </c>
       <c r="O47" s="5">
-        <v>418</v>
+        <v>3280</v>
       </c>
       <c r="P47" s="5">
-        <v>361</v>
+        <v>2269</v>
       </c>
       <c r="Q47" s="5">
-        <f>1141-P47-O47</f>
-        <v>362</v>
+        <f>8880-P47-O47</f>
+        <v>3331</v>
       </c>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
@@ -3764,7 +4361,7 @@
     </row>
     <row r="48" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -3773,18 +4370,30 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
+      <c r="J48" s="5">
+        <v>618</v>
+      </c>
+      <c r="K48" s="5">
+        <v>621</v>
+      </c>
+      <c r="L48" s="5">
+        <v>681</v>
+      </c>
+      <c r="M48" s="5">
+        <v>761</v>
+      </c>
+      <c r="N48" s="5">
+        <v>848</v>
+      </c>
       <c r="O48" s="5">
-        <v>33</v>
-      </c>
-      <c r="P48" s="5"/>
+        <v>880</v>
+      </c>
+      <c r="P48" s="5">
+        <v>922</v>
+      </c>
       <c r="Q48" s="5">
-        <f>118-P48-O48</f>
-        <v>85</v>
+        <f>2758-P48-O48</f>
+        <v>956</v>
       </c>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
@@ -3793,8 +4402,8 @@
       <c r="V48" s="5"/>
     </row>
     <row r="49" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="10" t="s">
-        <v>80</v>
+      <c r="B49" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -3804,29 +4413,29 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5">
-        <v>230</v>
+        <v>633</v>
       </c>
       <c r="K49" s="5">
-        <v>-46</v>
+        <v>614</v>
       </c>
       <c r="L49" s="5">
-        <v>115</v>
+        <v>474</v>
       </c>
       <c r="M49" s="5">
-        <v>253</v>
+        <v>475</v>
       </c>
       <c r="N49" s="5">
-        <v>-19</v>
+        <v>558</v>
       </c>
       <c r="O49" s="5">
-        <v>-30</v>
+        <v>418</v>
       </c>
       <c r="P49" s="5">
-        <v>145</v>
+        <v>361</v>
       </c>
       <c r="Q49" s="5">
-        <f>1-P49-O49</f>
-        <v>-114</v>
+        <f>1141-P49-O49</f>
+        <v>362</v>
       </c>
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
@@ -3836,7 +4445,7 @@
     </row>
     <row r="50" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -3851,12 +4460,12 @@
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="P50" s="5"/>
       <c r="Q50" s="5">
-        <f>159-P50-O50</f>
-        <v>143</v>
+        <f>118-P50-O50</f>
+        <v>85</v>
       </c>
       <c r="R50" s="5"/>
       <c r="S50" s="5"/>
@@ -3865,8 +4474,8 @@
       <c r="V50" s="5"/>
     </row>
     <row r="51" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="19" t="s">
-        <v>69</v>
+      <c r="B51" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -3875,16 +4484,30 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
+      <c r="J51" s="5">
+        <v>230</v>
+      </c>
+      <c r="K51" s="5">
+        <v>-46</v>
+      </c>
+      <c r="L51" s="5">
+        <v>115</v>
+      </c>
+      <c r="M51" s="5">
+        <v>253</v>
+      </c>
+      <c r="N51" s="5">
+        <v>-19</v>
+      </c>
+      <c r="O51" s="5">
+        <v>-30</v>
+      </c>
+      <c r="P51" s="5">
+        <v>145</v>
+      </c>
       <c r="Q51" s="5">
-        <f>106-P51-O51</f>
-        <v>106</v>
+        <f>1-P51-O51</f>
+        <v>-114</v>
       </c>
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
@@ -3894,7 +4517,7 @@
     </row>
     <row r="52" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -3903,31 +4526,18 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
-      <c r="J52" s="5">
-        <v>1242</v>
-      </c>
-      <c r="K52" s="5">
-        <v>-12</v>
-      </c>
-      <c r="L52" s="5">
-        <v>-324</v>
-      </c>
-      <c r="M52" s="5">
-        <v>-1</v>
-      </c>
-      <c r="N52" s="5">
-        <v>855</v>
-      </c>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
       <c r="O52" s="5">
-        <f>-409-633-462-289-611+997+287+204+314</f>
-        <v>-602</v>
-      </c>
-      <c r="P52" s="5">
-        <v>-1346</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="P52" s="5"/>
       <c r="Q52" s="5">
-        <f>-426-4492-1136-865-1580+4659+856+251+1016-P52-O52</f>
-        <v>231</v>
+        <f>159-P52-O52</f>
+        <v>143</v>
       </c>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
@@ -3936,8 +4546,8 @@
       <c r="V52" s="5"/>
     </row>
     <row r="53" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="4" t="s">
-        <v>62</v>
+      <c r="B53" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -3946,37 +4556,16 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
-      <c r="J53" s="5">
-        <f t="shared" ref="J53:N53" si="93">SUM(J45:J52)</f>
-        <v>3019</v>
-      </c>
-      <c r="K53" s="5">
-        <f t="shared" si="93"/>
-        <v>1641</v>
-      </c>
-      <c r="L53" s="5">
-        <f t="shared" si="93"/>
-        <v>2124</v>
-      </c>
-      <c r="M53" s="5">
-        <f t="shared" si="93"/>
-        <v>3147</v>
-      </c>
-      <c r="N53" s="5">
-        <f t="shared" si="93"/>
-        <v>4585</v>
-      </c>
-      <c r="O53" s="5">
-        <f>SUM(O45:O52)</f>
-        <v>3995</v>
-      </c>
-      <c r="P53" s="5">
-        <f>SUM(P45:P52)</f>
-        <v>2351</v>
-      </c>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
       <c r="Q53" s="5">
-        <f>SUM(Q45:Q52)</f>
-        <v>5100</v>
+        <f>106-P53-O53</f>
+        <v>106</v>
       </c>
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
@@ -3985,6 +4574,9 @@
       <c r="V53" s="5"/>
     </row>
     <row r="54" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -3992,14 +4584,32 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
+      <c r="J54" s="5">
+        <v>1242</v>
+      </c>
+      <c r="K54" s="5">
+        <v>-12</v>
+      </c>
+      <c r="L54" s="5">
+        <v>-324</v>
+      </c>
+      <c r="M54" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N54" s="5">
+        <v>855</v>
+      </c>
+      <c r="O54" s="5">
+        <f>-409-633-462-289-611+997+287+204+314</f>
+        <v>-602</v>
+      </c>
+      <c r="P54" s="5">
+        <v>-1346</v>
+      </c>
+      <c r="Q54" s="5">
+        <f>-426-4492-1136-865-1580+4659+856+251+1016-P54-O54</f>
+        <v>231</v>
+      </c>
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
@@ -4007,8 +4617,8 @@
       <c r="V54" s="5"/>
     </row>
     <row r="55" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="10" t="s">
-        <v>81</v>
+      <c r="B55" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -4018,30 +4628,36 @@
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5">
-        <v>1151</v>
+        <f t="shared" ref="J55:N55" si="118">SUM(J47:J54)</f>
+        <v>3019</v>
       </c>
       <c r="K55" s="5">
-        <v>1348</v>
+        <f t="shared" si="118"/>
+        <v>1641</v>
       </c>
       <c r="L55" s="5">
-        <v>1505</v>
+        <f t="shared" si="118"/>
+        <v>2124</v>
       </c>
       <c r="M55" s="5">
-        <v>1819</v>
+        <f t="shared" si="118"/>
+        <v>3147</v>
       </c>
       <c r="N55" s="5">
-        <v>1810</v>
+        <f t="shared" si="118"/>
+        <v>4585</v>
       </c>
       <c r="O55" s="5">
-        <v>1767</v>
+        <f>SUM(O47:O54)</f>
+        <v>3995</v>
       </c>
       <c r="P55" s="5">
-        <f>3497-O55</f>
-        <v>1730</v>
+        <f>SUM(P47:P54)</f>
+        <v>2351</v>
       </c>
       <c r="Q55" s="5">
-        <f>5300-P55-O55</f>
-        <v>1803</v>
+        <f>SUM(Q47:Q54)</f>
+        <v>5100</v>
       </c>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
@@ -4050,9 +4666,6 @@
       <c r="V55" s="5"/>
     </row>
     <row r="56" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="10" t="s">
-        <v>82</v>
-      </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -4060,38 +4673,14 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="5">
-        <f>J53-J55</f>
-        <v>1868</v>
-      </c>
-      <c r="K56" s="5">
-        <f t="shared" ref="K56:N56" si="94">K53-K55</f>
-        <v>293</v>
-      </c>
-      <c r="L56" s="5">
-        <f t="shared" si="94"/>
-        <v>619</v>
-      </c>
-      <c r="M56" s="5">
-        <f t="shared" si="94"/>
-        <v>1328</v>
-      </c>
-      <c r="N56" s="5">
-        <f t="shared" si="94"/>
-        <v>2775</v>
-      </c>
-      <c r="O56" s="5">
-        <f t="shared" ref="O56" si="95">O53-O55</f>
-        <v>2228</v>
-      </c>
-      <c r="P56" s="5">
-        <f>P53-P55</f>
-        <v>621</v>
-      </c>
-      <c r="Q56" s="5">
-        <f>Q53-Q55</f>
-        <v>3297</v>
-      </c>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
@@ -4100,7 +4689,7 @@
     </row>
     <row r="57" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -4109,28 +4698,31 @@
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
+      <c r="J57" s="5">
+        <v>1151</v>
+      </c>
+      <c r="K57" s="5">
+        <v>1348</v>
+      </c>
+      <c r="L57" s="5">
+        <v>1505</v>
+      </c>
       <c r="M57" s="5">
-        <f>SUM(J56:M56)</f>
-        <v>4108</v>
+        <v>1819</v>
       </c>
       <c r="N57" s="5">
-        <f>SUM(K56:N56)</f>
-        <v>5015</v>
+        <v>1810</v>
       </c>
       <c r="O57" s="5">
-        <f>SUM(L56:O56)</f>
-        <v>6950</v>
+        <v>1767</v>
       </c>
       <c r="P57" s="5">
-        <f>SUM(M56:P56)</f>
-        <v>6952</v>
+        <f>3497-O57</f>
+        <v>1730</v>
       </c>
       <c r="Q57" s="5">
-        <f>SUM(N56:Q56)</f>
-        <v>8921</v>
+        <f>5300-P57-O57</f>
+        <v>1803</v>
       </c>
       <c r="R57" s="5"/>
       <c r="S57" s="5"/>
@@ -4139,6 +4731,9 @@
       <c r="V57" s="5"/>
     </row>
     <row r="58" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="10" t="s">
+        <v>82</v>
+      </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -4146,14 +4741,38 @@
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
+      <c r="J58" s="5">
+        <f>J55-J57</f>
+        <v>1868</v>
+      </c>
+      <c r="K58" s="5">
+        <f t="shared" ref="K58:N58" si="119">K55-K57</f>
+        <v>293</v>
+      </c>
+      <c r="L58" s="5">
+        <f t="shared" si="119"/>
+        <v>619</v>
+      </c>
+      <c r="M58" s="5">
+        <f t="shared" si="119"/>
+        <v>1328</v>
+      </c>
+      <c r="N58" s="5">
+        <f t="shared" si="119"/>
+        <v>2775</v>
+      </c>
+      <c r="O58" s="5">
+        <f t="shared" ref="O58" si="120">O55-O57</f>
+        <v>2228</v>
+      </c>
+      <c r="P58" s="5">
+        <f>P55-P57</f>
+        <v>621</v>
+      </c>
+      <c r="Q58" s="5">
+        <f>Q55-Q57</f>
+        <v>3297</v>
+      </c>
       <c r="R58" s="5"/>
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
@@ -4162,7 +4781,7 @@
     </row>
     <row r="59" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -4174,19 +4793,25 @@
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8">
-        <f>17576+131</f>
-        <v>17707</v>
-      </c>
-      <c r="P59" s="8">
-        <f>18324+591</f>
-        <v>18915</v>
+      <c r="M59" s="5">
+        <f>SUM(J58:M58)</f>
+        <v>4108</v>
+      </c>
+      <c r="N59" s="5">
+        <f>SUM(K58:N58)</f>
+        <v>5015</v>
+      </c>
+      <c r="O59" s="5">
+        <f>SUM(L58:O58)</f>
+        <v>6950</v>
+      </c>
+      <c r="P59" s="5">
+        <f>SUM(M58:P58)</f>
+        <v>6952</v>
       </c>
       <c r="Q59" s="5">
-        <f>19532+1575</f>
-        <v>21107</v>
+        <f>SUM(N58:Q58)</f>
+        <v>8921</v>
       </c>
       <c r="R59" s="5"/>
       <c r="S59" s="5"/>
@@ -4195,9 +4820,6 @@
       <c r="V59" s="5"/>
     </row>
     <row r="60" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="10" t="s">
-        <v>63</v>
-      </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -4210,15 +4832,9 @@
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
-      <c r="O60" s="5">
-        <v>1913</v>
-      </c>
-      <c r="P60" s="5">
-        <v>2081</v>
-      </c>
-      <c r="Q60" s="5">
-        <v>2192</v>
-      </c>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
@@ -4227,7 +4843,7 @@
     </row>
     <row r="61" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="10" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -4240,15 +4856,18 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5">
-        <v>5757</v>
-      </c>
-      <c r="P61" s="5">
-        <v>8108</v>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8">
+        <f>17576+131</f>
+        <v>17707</v>
+      </c>
+      <c r="P61" s="8">
+        <f>18324+591</f>
+        <v>18915</v>
       </c>
       <c r="Q61" s="5">
-        <v>10327</v>
+        <f>19532+1575</f>
+        <v>21107</v>
       </c>
       <c r="R61" s="5"/>
       <c r="S61" s="5"/>
@@ -4258,7 +4877,7 @@
     </row>
     <row r="62" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -4273,13 +4892,13 @@
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5">
-        <v>1723</v>
+        <v>1913</v>
       </c>
       <c r="P62" s="5">
-        <v>2118</v>
+        <v>2081</v>
       </c>
       <c r="Q62" s="5">
-        <v>2364</v>
+        <v>2192</v>
       </c>
       <c r="R62" s="5"/>
       <c r="S62" s="5"/>
@@ -4289,7 +4908,7 @@
     </row>
     <row r="63" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -4304,13 +4923,13 @@
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5">
-        <v>4511</v>
+        <v>5757</v>
       </c>
       <c r="P63" s="5">
-        <v>4782</v>
+        <v>8108</v>
       </c>
       <c r="Q63" s="5">
-        <v>4824</v>
+        <v>10327</v>
       </c>
       <c r="R63" s="5"/>
       <c r="S63" s="5"/>
@@ -4320,7 +4939,7 @@
     </row>
     <row r="64" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -4335,13 +4954,13 @@
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5">
-        <v>5765</v>
+        <v>1723</v>
       </c>
       <c r="P64" s="5">
-        <v>5624</v>
+        <v>2118</v>
       </c>
       <c r="Q64" s="5">
-        <v>5562</v>
+        <v>2364</v>
       </c>
       <c r="R64" s="5"/>
       <c r="S64" s="5"/>
@@ -4351,7 +4970,7 @@
     </row>
     <row r="65" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -4366,13 +4985,13 @@
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5">
-        <v>18884</v>
+        <v>4511</v>
       </c>
       <c r="P65" s="5">
-        <v>21093</v>
+        <v>4782</v>
       </c>
       <c r="Q65" s="5">
-        <v>21926</v>
+        <v>4824</v>
       </c>
       <c r="R65" s="5"/>
       <c r="S65" s="5"/>
@@ -4382,7 +5001,7 @@
     </row>
     <row r="66" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -4397,13 +5016,13 @@
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5">
-        <v>2016</v>
+        <v>5765</v>
       </c>
       <c r="P66" s="5">
-        <v>2185</v>
+        <v>5624</v>
       </c>
       <c r="Q66" s="5">
-        <v>2251</v>
+        <v>5562</v>
       </c>
       <c r="R66" s="5"/>
       <c r="S66" s="5"/>
@@ -4413,7 +5032,7 @@
     </row>
     <row r="67" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -4428,13 +5047,13 @@
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5">
-        <v>1260</v>
+        <v>18884</v>
       </c>
       <c r="P67" s="5">
-        <v>218</v>
+        <v>21093</v>
       </c>
       <c r="Q67" s="5">
-        <v>218</v>
+        <v>21926</v>
       </c>
       <c r="R67" s="5"/>
       <c r="S67" s="5"/>
@@ -4444,7 +5063,7 @@
     </row>
     <row r="68" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -4459,15 +5078,13 @@
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5">
-        <v>457</v>
+        <v>2016</v>
       </c>
       <c r="P68" s="5">
-        <f>241+196</f>
-        <v>437</v>
+        <v>2185</v>
       </c>
       <c r="Q68" s="5">
-        <f>228+191</f>
-        <v>419</v>
+        <v>2251</v>
       </c>
       <c r="R68" s="5"/>
       <c r="S68" s="5"/>
@@ -4477,7 +5094,7 @@
     </row>
     <row r="69" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -4492,13 +5109,13 @@
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5">
-        <v>2138</v>
+        <v>1260</v>
       </c>
       <c r="P69" s="5">
-        <v>2952</v>
+        <v>218</v>
       </c>
       <c r="Q69" s="5">
-        <v>3236</v>
+        <v>218</v>
       </c>
       <c r="R69" s="5"/>
       <c r="S69" s="5"/>
@@ -4508,7 +5125,7 @@
     </row>
     <row r="70" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -4523,16 +5140,15 @@
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5">
-        <f>SUM(O59:O69)</f>
-        <v>62131</v>
+        <v>457</v>
       </c>
       <c r="P70" s="5">
-        <f t="shared" ref="P70:Q70" si="96">SUM(P59:P69)</f>
-        <v>68513</v>
+        <f>241+196</f>
+        <v>437</v>
       </c>
       <c r="Q70" s="5">
-        <f t="shared" si="96"/>
-        <v>74426</v>
+        <f>228+191</f>
+        <v>419</v>
       </c>
       <c r="R70" s="5"/>
       <c r="S70" s="5"/>
@@ -4540,157 +5156,222 @@
       <c r="U70" s="5"/>
       <c r="V70" s="5"/>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B72" s="9" t="s">
-        <v>73</v>
-      </c>
+    <row r="71" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5">
+        <v>2138</v>
+      </c>
+      <c r="P71" s="5">
+        <v>2952</v>
+      </c>
+      <c r="Q71" s="5">
+        <v>3236</v>
+      </c>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+    </row>
+    <row r="72" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
       <c r="O72" s="5">
-        <v>10025</v>
+        <f>SUM(O61:O71)</f>
+        <v>62131</v>
       </c>
       <c r="P72" s="5">
-        <v>11212</v>
+        <f t="shared" ref="P72:Q72" si="121">SUM(P61:P71)</f>
+        <v>68513</v>
       </c>
       <c r="Q72" s="5">
-        <v>13897</v>
-      </c>
+        <f t="shared" si="121"/>
+        <v>74426</v>
+      </c>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
     </row>
     <row r="73" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B73" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="O73" s="5">
-        <v>5719</v>
-      </c>
-      <c r="P73" s="5">
-        <v>6037</v>
-      </c>
-      <c r="Q73" s="5">
-        <v>6246</v>
-      </c>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
     </row>
     <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B74" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O74" s="5">
-        <v>1447</v>
+        <v>10025</v>
       </c>
       <c r="P74" s="5">
-        <v>1858</v>
+        <v>11212</v>
       </c>
       <c r="Q74" s="5">
-        <v>1928</v>
+        <v>13897</v>
       </c>
     </row>
     <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B75" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O75" s="5">
-        <v>925</v>
+        <v>5719</v>
       </c>
       <c r="P75" s="5">
-        <v>1182</v>
+        <v>6037</v>
       </c>
       <c r="Q75" s="5">
-        <v>1083</v>
+        <v>6246</v>
       </c>
     </row>
     <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B76" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O76" s="5">
+        <v>1447</v>
+      </c>
+      <c r="P76" s="5">
+        <v>1858</v>
+      </c>
+      <c r="Q76" s="5">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B77" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="O77" s="5">
+        <v>925</v>
+      </c>
+      <c r="P77" s="5">
+        <v>1182</v>
+      </c>
+      <c r="Q77" s="5">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="78" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B78" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O76" s="5">
+      <c r="O78" s="5">
         <f>1589+5245</f>
         <v>6834</v>
       </c>
-      <c r="P76" s="5">
+      <c r="P78" s="5">
         <f>2898+1532</f>
         <v>4430</v>
       </c>
-      <c r="Q76" s="5">
+      <c r="Q78" s="5">
         <f>2096+1457</f>
         <v>3553</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B77" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="O77" s="5">
-        <v>2052</v>
-      </c>
-      <c r="P77" s="5">
-        <v>2210</v>
-      </c>
-      <c r="Q77" s="5">
-        <v>2265</v>
-      </c>
-    </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B78" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="O78" s="5">
-        <v>3546</v>
-      </c>
-      <c r="P78" s="5">
-        <v>3926</v>
-      </c>
-      <c r="Q78" s="5">
-        <v>4330</v>
-      </c>
-    </row>
     <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O79" s="5">
+        <v>2052</v>
+      </c>
+      <c r="P79" s="5">
+        <v>2210</v>
+      </c>
+      <c r="Q79" s="5">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B80" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="O80" s="5">
+        <v>3546</v>
+      </c>
+      <c r="P80" s="5">
+        <v>3926</v>
+      </c>
+      <c r="Q80" s="5">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B81" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="O79" s="5">
+      <c r="O81" s="5">
         <f>30189+826+568</f>
         <v>31583</v>
       </c>
-      <c r="P79" s="5">
+      <c r="P81" s="5">
         <f>36376+421+861</f>
         <v>37658</v>
       </c>
-      <c r="Q79" s="5">
+      <c r="Q81" s="5">
         <f>39851+852+421</f>
         <v>41124</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B80" s="9" t="s">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B82" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="O80" s="5">
-        <f>SUM(O72:O79)</f>
+      <c r="O82" s="5">
+        <f>SUM(O74:O81)</f>
         <v>62131</v>
       </c>
-      <c r="P80" s="5">
-        <f t="shared" ref="P80:Q80" si="97">SUM(P72:P79)</f>
+      <c r="P82" s="5">
+        <f t="shared" ref="P82:Q82" si="122">SUM(P74:P81)</f>
         <v>68513</v>
       </c>
-      <c r="Q80" s="5">
-        <f t="shared" si="97"/>
+      <c r="Q82" s="5">
+        <f t="shared" si="122"/>
         <v>74426</v>
       </c>
     </row>
-    <row r="81" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O81" s="5"/>
-    </row>
-    <row r="82" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O82" s="5"/>
-    </row>
-    <row r="83" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.2">
       <c r="O83" s="5"/>
     </row>
-    <row r="84" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.2">
       <c r="O84" s="5"/>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="O85" s="5"/>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="O86" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705C1BFE-8759-42E4-A20D-FDE37C59CCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C43035C-BF3D-4A01-B033-BF7C7AE6D05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="360" windowWidth="33330" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -469,7 +469,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{9A85FFF9-FF3A-40EE-9B1C-0C6B1C4AC55A}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -877,7 +879,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -974,11 +976,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E310252-7C49-48D8-9A64-7380C8DB275B}">
   <dimension ref="A1:AK86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="S30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomRight" activeCell="AF34" sqref="AF34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1259,6 +1261,10 @@
       <c r="AE5" s="6">
         <f>+AE3+AE4</f>
         <v>1313851</v>
+      </c>
+      <c r="AF5" s="6">
+        <f>+AE5*1.35</f>
+        <v>1773698.85</v>
       </c>
     </row>
     <row r="6" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1554,6 +1560,10 @@
         <f>+AE8+AE9</f>
         <v>1369611</v>
       </c>
+      <c r="AF10" s="6">
+        <f>+AE10*1.35</f>
+        <v>1848974.85</v>
+      </c>
     </row>
     <row r="11" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
@@ -1576,6 +1586,7 @@
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
+      <c r="AF11" s="28"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
@@ -1741,23 +1752,23 @@
         <v>21035</v>
       </c>
       <c r="S13" s="5">
-        <f t="shared" ref="S13:S15" si="3">+O13*1.4</f>
+        <f>+O13*1.4</f>
         <v>21719.599999999999</v>
       </c>
       <c r="T13" s="5">
-        <f t="shared" ref="T13:T15" si="4">+P13*1.4</f>
+        <f>+P13*1.4</f>
         <v>19138</v>
       </c>
       <c r="U13" s="5">
-        <f t="shared" ref="U13:U15" si="5">+Q13*1.4</f>
+        <f>+Q13*1.4</f>
         <v>24899</v>
       </c>
       <c r="V13" s="5">
-        <f t="shared" ref="V13:V15" si="6">+R13*1.4</f>
+        <f>+R13*1.4</f>
         <v>29448.999999999996</v>
       </c>
       <c r="AB13" s="4">
-        <f t="shared" ref="AB13:AB18" si="7">SUM(C13:F13)</f>
+        <f t="shared" ref="AB13:AB18" si="3">SUM(C13:F13)</f>
         <v>19952</v>
       </c>
       <c r="AC13" s="4">
@@ -1827,27 +1838,27 @@
         <v>286</v>
       </c>
       <c r="R14" s="5">
-        <f t="shared" ref="R14:R15" si="8">+N14*1.4</f>
+        <f t="shared" ref="R14:R15" si="4">+N14*1.4</f>
         <v>439.59999999999997</v>
       </c>
       <c r="S14" s="5">
+        <f>+O14*1.4</f>
+        <v>950.59999999999991</v>
+      </c>
+      <c r="T14" s="5">
+        <f>+P14*1.4</f>
+        <v>481.59999999999997</v>
+      </c>
+      <c r="U14" s="5">
+        <f>+Q14*1.4</f>
+        <v>400.4</v>
+      </c>
+      <c r="V14" s="5">
+        <f>+R14*1.4</f>
+        <v>615.43999999999994</v>
+      </c>
+      <c r="AB14" s="4">
         <f t="shared" si="3"/>
-        <v>950.59999999999991</v>
-      </c>
-      <c r="T14" s="5">
-        <f t="shared" si="4"/>
-        <v>481.59999999999997</v>
-      </c>
-      <c r="U14" s="5">
-        <f t="shared" si="5"/>
-        <v>400.4</v>
-      </c>
-      <c r="V14" s="5">
-        <f t="shared" si="6"/>
-        <v>615.43999999999994</v>
-      </c>
-      <c r="AB14" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC14" s="4">
@@ -1855,15 +1866,15 @@
         <v>401</v>
       </c>
       <c r="AD14" s="4">
-        <f t="shared" ref="AD14:AD18" si="9">SUM(K14:N14)</f>
+        <f t="shared" ref="AD14:AD18" si="5">SUM(K14:N14)</f>
         <v>1465</v>
       </c>
       <c r="AE14" s="4">
-        <f t="shared" ref="AD14:AE25" si="10">SUM(O14:R14)</f>
+        <f t="shared" ref="AE14:AE25" si="6">SUM(O14:R14)</f>
         <v>1748.6</v>
       </c>
       <c r="AF14" s="4">
-        <f t="shared" ref="AF14:AF33" si="11">SUM(S14:V14)</f>
+        <f t="shared" ref="AF14:AF33" si="7">SUM(S14:V14)</f>
         <v>2448.04</v>
       </c>
     </row>
@@ -1917,27 +1928,27 @@
         <v>621</v>
       </c>
       <c r="R15" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>879.19999999999993</v>
       </c>
       <c r="S15" s="5">
+        <f t="shared" ref="S13:S15" si="8">+O15*1.4</f>
+        <v>935.19999999999993</v>
+      </c>
+      <c r="T15" s="5">
+        <f t="shared" ref="T13:T15" si="9">+P15*1.4</f>
+        <v>823.19999999999993</v>
+      </c>
+      <c r="U15" s="5">
+        <f t="shared" ref="U13:U15" si="10">+Q15*1.4</f>
+        <v>869.4</v>
+      </c>
+      <c r="V15" s="5">
+        <f t="shared" ref="V13:V15" si="11">+R15*1.4</f>
+        <v>1230.8799999999999</v>
+      </c>
+      <c r="AB15" s="4">
         <f t="shared" si="3"/>
-        <v>935.19999999999993</v>
-      </c>
-      <c r="T15" s="5">
-        <f t="shared" si="4"/>
-        <v>823.19999999999993</v>
-      </c>
-      <c r="U15" s="5">
-        <f t="shared" si="5"/>
-        <v>869.4</v>
-      </c>
-      <c r="V15" s="5">
-        <f t="shared" si="6"/>
-        <v>1230.8799999999999</v>
-      </c>
-      <c r="AB15" s="4">
-        <f t="shared" si="7"/>
         <v>869</v>
       </c>
       <c r="AC15" s="4">
@@ -1945,15 +1956,15 @@
         <v>1052</v>
       </c>
       <c r="AD15" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1642</v>
       </c>
       <c r="AE15" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>2756.2</v>
       </c>
       <c r="AF15" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>3858.6799999999994</v>
       </c>
     </row>
@@ -2026,7 +2037,7 @@
         <v>22353.8</v>
       </c>
       <c r="S16" s="7">
-        <f t="shared" si="15"/>
+        <f>SUM(S13:S15)</f>
         <v>23605.399999999998</v>
       </c>
       <c r="T16" s="7">
@@ -2058,7 +2069,7 @@
         <v>72508.800000000003</v>
       </c>
       <c r="AF16" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>101512.31999999999</v>
       </c>
     </row>
@@ -2132,7 +2143,7 @@
         <v>1348.4799999999998</v>
       </c>
       <c r="AB17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1531</v>
       </c>
       <c r="AC17" s="4">
@@ -2144,11 +2155,11 @@
         <v>2789</v>
       </c>
       <c r="AE17" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>3562.2</v>
       </c>
       <c r="AF17" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>4987.079999999999</v>
       </c>
     </row>
@@ -2222,7 +2233,7 @@
         <v>2085.4399999999996</v>
       </c>
       <c r="AB18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2226</v>
       </c>
       <c r="AC18" s="4">
@@ -2230,15 +2241,15 @@
         <v>2306</v>
       </c>
       <c r="AD18" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>3802</v>
       </c>
       <c r="AE18" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>5879.6</v>
       </c>
       <c r="AF18" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>8231.4399999999987</v>
       </c>
     </row>
@@ -2417,11 +2428,11 @@
         <v>22086.749999999996</v>
       </c>
       <c r="AE20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>49942.25</v>
       </c>
       <c r="AF20" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>71404.2</v>
       </c>
     </row>
@@ -2430,51 +2441,51 @@
         <v>40</v>
       </c>
       <c r="C21" s="5">
-        <f>C13-C20</f>
+        <f t="shared" ref="C21:J21" si="26">C13-C20</f>
         <v>653</v>
       </c>
       <c r="D21" s="5">
-        <f>D13-D20</f>
+        <f t="shared" si="26"/>
         <v>914</v>
       </c>
       <c r="E21" s="5">
-        <f>E13-E20</f>
+        <f t="shared" si="26"/>
         <v>1118</v>
       </c>
       <c r="F21" s="5">
-        <f>F13-F20</f>
+        <f t="shared" si="26"/>
         <v>1328</v>
       </c>
       <c r="G21" s="5">
-        <f>G13-G20</f>
+        <f t="shared" si="26"/>
         <v>1194</v>
       </c>
       <c r="H21" s="5">
-        <f>H13-H20</f>
+        <f t="shared" si="26"/>
         <v>1197</v>
       </c>
       <c r="I21" s="5">
-        <f>I13-I20</f>
+        <f t="shared" si="26"/>
         <v>1985</v>
       </c>
       <c r="J21" s="5">
-        <f>J13-J20</f>
+        <f t="shared" si="26"/>
         <v>1711</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" ref="K21:N21" si="26">K13-K20</f>
+        <f t="shared" ref="K21:N21" si="27">K13-K20</f>
         <v>1730</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2401</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>3243</v>
       </c>
       <c r="N21" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4336</v>
       </c>
       <c r="O21" s="5">
@@ -2490,31 +2501,31 @@
         <v>4686</v>
       </c>
       <c r="R21" s="5">
-        <f t="shared" ref="R21:V21" si="27">R13-R20</f>
+        <f t="shared" ref="R21:V21" si="28">R13-R20</f>
         <v>5258.75</v>
       </c>
       <c r="S21" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5429.9</v>
       </c>
       <c r="T21" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4784.5</v>
       </c>
       <c r="U21" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6224.75</v>
       </c>
       <c r="V21" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7362.25</v>
       </c>
       <c r="AE21" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>18061.75</v>
       </c>
       <c r="AF21" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>23801.4</v>
       </c>
     </row>
@@ -2572,27 +2583,27 @@
         <v>554.4</v>
       </c>
       <c r="S22" s="5">
-        <f t="shared" ref="S22:V22" si="28">+O22*1.4</f>
+        <f t="shared" ref="S22:V22" si="29">+O22*1.4</f>
         <v>571.19999999999993</v>
       </c>
       <c r="T22" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>516.6</v>
       </c>
       <c r="U22" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>533.4</v>
       </c>
       <c r="V22" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>776.16</v>
       </c>
       <c r="AE22" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>1712.4</v>
       </c>
       <c r="AF22" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>2397.3599999999997</v>
       </c>
     </row>
@@ -2601,35 +2612,35 @@
         <v>42</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" ref="C23:G23" si="29">C16-C22-C20</f>
+        <f t="shared" ref="C23:G23" si="30">C16-C22-C20</f>
         <v>751</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1016</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1222</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1434</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1311</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" ref="H23" si="30">H16-H22-H20</f>
+        <f t="shared" ref="H23" si="31">H16-H22-H20</f>
         <v>1317</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" ref="I23:J23" si="31">I16-I22-I20</f>
+        <f t="shared" ref="I23:J23" si="32">I16-I22-I20</f>
         <v>2105</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2244</v>
       </c>
       <c r="K23" s="5">
@@ -2637,19 +2648,19 @@
         <v>2385</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" ref="L23:O23" si="32">L16-L22-L20</f>
+        <f t="shared" ref="L23:O23" si="33">L16-L22-L20</f>
         <v>2899</v>
       </c>
       <c r="M23" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3673</v>
       </c>
       <c r="N23" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4882</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>5539</v>
       </c>
       <c r="P23" s="5">
@@ -2661,31 +2672,31 @@
         <v>5212</v>
       </c>
       <c r="R23" s="5">
-        <f t="shared" ref="R23:V23" si="33">R16-R22-R20</f>
+        <f t="shared" ref="R23:V23" si="34">R16-R22-R20</f>
         <v>6023.1499999999978</v>
       </c>
       <c r="S23" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>6744.4999999999982</v>
       </c>
       <c r="T23" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5572.7000000000007</v>
       </c>
       <c r="U23" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>6961.1500000000015</v>
       </c>
       <c r="V23" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8432.41</v>
       </c>
       <c r="AE23" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>20854.149999999998</v>
       </c>
       <c r="AF23" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>27710.76</v>
       </c>
     </row>
@@ -2743,27 +2754,27 @@
         <v>1034.5999999999999</v>
       </c>
       <c r="S24" s="5">
-        <f t="shared" ref="S24:S25" si="34">+O24*1.4</f>
+        <f t="shared" ref="S24:S25" si="35">+O24*1.4</f>
         <v>963.19999999999993</v>
       </c>
       <c r="T24" s="5">
-        <f t="shared" ref="T24:T25" si="35">+P24*1.4</f>
+        <f t="shared" ref="T24:T25" si="36">+P24*1.4</f>
         <v>1076.5999999999999</v>
       </c>
       <c r="U24" s="5">
-        <f t="shared" ref="U24:U25" si="36">+Q24*1.4</f>
+        <f t="shared" ref="U24:U25" si="37">+Q24*1.4</f>
         <v>1418.1999999999998</v>
       </c>
       <c r="V24" s="5">
-        <f t="shared" ref="V24:V25" si="37">+R24*1.4</f>
+        <f t="shared" ref="V24:V25" si="38">+R24*1.4</f>
         <v>1448.4399999999998</v>
       </c>
       <c r="AE24" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>3504.6</v>
       </c>
       <c r="AF24" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>4906.4399999999996</v>
       </c>
     </row>
@@ -2817,31 +2828,31 @@
         <v>1579</v>
       </c>
       <c r="R25" s="5">
-        <f t="shared" ref="R25" si="38">+N25*1.4</f>
+        <f t="shared" ref="R25" si="39">+N25*1.4</f>
         <v>1467.1999999999998</v>
       </c>
       <c r="S25" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1800.3999999999999</v>
       </c>
       <c r="T25" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1973.9999999999998</v>
       </c>
       <c r="U25" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2210.6</v>
       </c>
       <c r="V25" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>2054.0799999999995</v>
       </c>
       <c r="AE25" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>5742.2</v>
       </c>
       <c r="AF25" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>8039.08</v>
       </c>
     </row>
@@ -2850,59 +2861,59 @@
         <v>45</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" ref="C26:G26" si="39">C23+C17+C18-C24-C25</f>
+        <f t="shared" ref="C26:G26" si="40">C23+C17+C18-C24-C25</f>
         <v>566</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>921</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1191</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1391</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1234</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" ref="H26" si="40">H23+H17+H18-H24-H25</f>
+        <f t="shared" ref="H26" si="41">H23+H17+H18-H24-H25</f>
         <v>1267</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" ref="I26:P26" si="41">I23+I17+I18-I24-I25</f>
+        <f t="shared" ref="I26:P26" si="42">I23+I17+I18-I24-I25</f>
         <v>2063</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2066</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2215</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2884</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>3660</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4847</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>5460</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4233</v>
       </c>
       <c r="Q26" s="5">
@@ -2914,27 +2925,27 @@
         <v>6201.65</v>
       </c>
       <c r="S26" s="5">
-        <f t="shared" ref="S26:V26" si="42">+S19*0.25</f>
+        <f t="shared" ref="S26:V26" si="43">+S19*0.25</f>
         <v>6564.5999999999995</v>
       </c>
       <c r="T26" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>5926.9000000000005</v>
       </c>
       <c r="U26" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>7508.9000000000005</v>
       </c>
       <c r="V26" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>8682.31</v>
       </c>
       <c r="AE26" s="5">
-        <f t="shared" ref="AE26" si="43">+AE19*0.25</f>
+        <f t="shared" ref="AE26" si="44">+AE19*0.25</f>
         <v>20487.650000000001</v>
       </c>
       <c r="AF26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>28682.71</v>
       </c>
     </row>
@@ -2992,23 +3003,23 @@
         <v>962</v>
       </c>
       <c r="S27" s="5">
-        <f t="shared" ref="S27" si="44">+O27*1.3</f>
+        <f t="shared" ref="S27" si="45">+O27*1.3</f>
         <v>1124.5</v>
       </c>
       <c r="T27" s="5">
-        <f t="shared" ref="T27" si="45">+P27*1.3</f>
+        <f t="shared" ref="T27" si="46">+P27*1.3</f>
         <v>867.1</v>
       </c>
       <c r="U27" s="5">
-        <f t="shared" ref="U27" si="46">+Q27*1.3</f>
+        <f t="shared" ref="U27" si="47">+Q27*1.3</f>
         <v>952.9</v>
       </c>
       <c r="V27" s="5">
-        <f t="shared" ref="V27" si="47">+R27*1.3</f>
+        <f t="shared" ref="V27" si="48">+R27*1.3</f>
         <v>1250.6000000000001</v>
       </c>
       <c r="AF27" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>4195.1000000000004</v>
       </c>
     </row>
@@ -3066,23 +3077,23 @@
         <v>1792.8</v>
       </c>
       <c r="S28" s="5">
-        <f t="shared" ref="S28:V28" si="48">+O28*1.2</f>
+        <f t="shared" ref="S28:V28" si="49">+O28*1.2</f>
         <v>1190.3999999999999</v>
       </c>
       <c r="T28" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1153.2</v>
       </c>
       <c r="U28" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1153.2</v>
       </c>
       <c r="V28" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>2151.3599999999997</v>
       </c>
       <c r="AF28" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>5648.16</v>
       </c>
     </row>
@@ -3091,51 +3102,51 @@
         <v>48</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" ref="C29:D29" si="49">C27+C28</f>
+        <f t="shared" ref="C29" si="50">C27+C28</f>
         <v>1044</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" ref="D29:E29" si="50">D27+D28</f>
+        <f t="shared" ref="D29:E29" si="51">D27+D28</f>
         <v>971</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>930</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" ref="F29:H29" si="51">F27+F28</f>
+        <f t="shared" ref="F29:H29" si="52">F27+F28</f>
         <v>1044</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>951</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>940</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" ref="I29:J29" si="52">I27+I28</f>
+        <f t="shared" ref="I29:J29" si="53">I27+I28</f>
         <v>1254</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1491</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" ref="K29:N29" si="53">K27+K28</f>
+        <f t="shared" ref="K29:N29" si="54">K27+K28</f>
         <v>1722</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>1549</v>
       </c>
       <c r="M29" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>1605</v>
       </c>
       <c r="N29" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>2234</v>
       </c>
       <c r="O29" s="5">
@@ -3151,23 +3162,23 @@
         <v>1694</v>
       </c>
       <c r="R29" s="5">
-        <f t="shared" ref="R29:V29" si="54">R27+R28</f>
+        <f t="shared" ref="R29:V29" si="55">R27+R28</f>
         <v>2754.8</v>
       </c>
       <c r="S29" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2314.8999999999996</v>
       </c>
       <c r="T29" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2020.3000000000002</v>
       </c>
       <c r="U29" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2106.1</v>
       </c>
       <c r="V29" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3401.96</v>
       </c>
       <c r="AF29" s="4">
@@ -3180,51 +3191,51 @@
         <v>49</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" ref="C30:D30" si="55">C26-C29</f>
+        <f t="shared" ref="C30" si="56">C26-C29</f>
         <v>-478</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" ref="D30:E30" si="56">D26-D29</f>
+        <f t="shared" ref="D30:E30" si="57">D26-D29</f>
         <v>-50</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>261</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" ref="F30:H30" si="57">F26-F29</f>
+        <f t="shared" ref="F30:H30" si="58">F26-F29</f>
         <v>347</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>283</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>327</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" ref="I30:J30" si="58">I26-I29</f>
+        <f t="shared" ref="I30:J30" si="59">I26-I29</f>
         <v>809</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>575</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" ref="K30:N30" si="59">K26-K29</f>
+        <f t="shared" ref="K30:N30" si="60">K26-K29</f>
         <v>493</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1335</v>
       </c>
       <c r="M30" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>2055</v>
       </c>
       <c r="N30" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>2613</v>
       </c>
       <c r="O30" s="5">
@@ -3240,27 +3251,27 @@
         <v>3688</v>
       </c>
       <c r="R30" s="5">
-        <f t="shared" ref="R30:V30" si="60">R26-R29</f>
+        <f t="shared" ref="R30:V30" si="61">R26-R29</f>
         <v>3446.8499999999995</v>
       </c>
       <c r="S30" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>4249.7</v>
       </c>
       <c r="T30" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>3906.6000000000004</v>
       </c>
       <c r="U30" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>5402.8000000000011</v>
       </c>
       <c r="V30" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>5280.3499999999995</v>
       </c>
       <c r="AF30" s="5">
-        <f t="shared" ref="AF30" si="61">AF26-AF29</f>
+        <f t="shared" ref="AF30" si="62">AF26-AF29</f>
         <v>18839.449999999997</v>
       </c>
     </row>
@@ -3334,7 +3345,7 @@
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
       <c r="AF31" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3343,51 +3354,51 @@
         <v>51</v>
       </c>
       <c r="C32" s="5">
-        <f>C30+C31</f>
+        <f t="shared" ref="C32:J32" si="63">C30+C31</f>
         <v>-601</v>
       </c>
       <c r="D32" s="5">
-        <f>D30+D31</f>
+        <f t="shared" si="63"/>
         <v>-253</v>
       </c>
       <c r="E32" s="5">
-        <f>E30+E31</f>
+        <f t="shared" si="63"/>
         <v>176</v>
       </c>
       <c r="F32" s="5">
-        <f>F30+F31</f>
+        <f t="shared" si="63"/>
         <v>160</v>
       </c>
       <c r="G32" s="5">
-        <f>G30+G31</f>
+        <f t="shared" si="63"/>
         <v>70</v>
       </c>
       <c r="H32" s="5">
-        <f>H30+H31</f>
+        <f t="shared" si="63"/>
         <v>150</v>
       </c>
       <c r="I32" s="5">
-        <f>I30+I31</f>
+        <f t="shared" si="63"/>
         <v>555</v>
       </c>
       <c r="J32" s="5">
-        <f>J30+J31</f>
+        <f t="shared" si="63"/>
         <v>379</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" ref="K32:N32" si="62">K30+K31</f>
+        <f t="shared" ref="K32:N32" si="64">K30+K31</f>
         <v>432</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1316</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1933</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>2635</v>
       </c>
       <c r="O32" s="5">
@@ -3403,23 +3414,23 @@
         <v>3636</v>
       </c>
       <c r="R32" s="5">
-        <f t="shared" ref="R32:V32" si="63">R30+R31</f>
+        <f t="shared" ref="R32:V32" si="65">R30+R31</f>
         <v>3446.8499999999995</v>
       </c>
       <c r="S32" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>4249.7</v>
       </c>
       <c r="T32" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>3906.6000000000004</v>
       </c>
       <c r="U32" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>5402.8000000000011</v>
       </c>
       <c r="V32" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>5280.3499999999995</v>
       </c>
       <c r="AF32" s="4">
@@ -3495,23 +3506,23 @@
         <v>344.68499999999995</v>
       </c>
       <c r="S33" s="5">
-        <f t="shared" ref="S33:V33" si="64">+S32*0.1</f>
+        <f t="shared" ref="S33:V33" si="66">+S32*0.1</f>
         <v>424.97</v>
       </c>
       <c r="T33" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>390.66000000000008</v>
       </c>
       <c r="U33" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>540.28000000000009</v>
       </c>
       <c r="V33" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>528.03499999999997</v>
       </c>
       <c r="AF33" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>1883.9450000000002</v>
       </c>
     </row>
@@ -3520,51 +3531,51 @@
         <v>53</v>
       </c>
       <c r="C34" s="5">
-        <f>C32-C33</f>
+        <f t="shared" ref="C34:J34" si="67">C32-C33</f>
         <v>-658</v>
       </c>
       <c r="D34" s="5">
-        <f>D32-D33</f>
+        <f t="shared" si="67"/>
         <v>-291</v>
       </c>
       <c r="E34" s="5">
-        <f>E32-E33</f>
+        <f t="shared" si="67"/>
         <v>143</v>
       </c>
       <c r="F34" s="5">
-        <f>F32-F33</f>
+        <f t="shared" si="67"/>
         <v>91</v>
       </c>
       <c r="G34" s="5">
-        <f>G32-G33</f>
+        <f t="shared" si="67"/>
         <v>16</v>
       </c>
       <c r="H34" s="5">
-        <f>H32-H33</f>
+        <f t="shared" si="67"/>
         <v>104</v>
       </c>
       <c r="I34" s="5">
-        <f>I32-I33</f>
+        <f t="shared" si="67"/>
         <v>300</v>
       </c>
       <c r="J34" s="5">
-        <f>J32-J33</f>
+        <f t="shared" si="67"/>
         <v>270</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" ref="K34:N34" si="65">K32-K33</f>
+        <f t="shared" ref="K34:N34" si="68">K32-K33</f>
         <v>337</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>1165</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>1669</v>
       </c>
       <c r="N34" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>2321</v>
       </c>
       <c r="O34" s="5">
@@ -3580,23 +3591,23 @@
         <v>3331</v>
       </c>
       <c r="R34" s="5">
-        <f t="shared" ref="R34:V34" si="66">R32-R33</f>
+        <f t="shared" ref="R34:V34" si="69">R32-R33</f>
         <v>3102.1649999999995</v>
       </c>
       <c r="S34" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>3824.7299999999996</v>
       </c>
       <c r="T34" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>3515.9400000000005</v>
       </c>
       <c r="U34" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>4862.5200000000013</v>
       </c>
       <c r="V34" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>4752.3149999999996</v>
       </c>
       <c r="AF34" s="4">
@@ -3609,83 +3620,83 @@
         <v>54</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" ref="C35:G35" si="67">C34/C36</f>
+        <f t="shared" ref="C35:G35" si="70">C34/C36</f>
         <v>-0.76069364161849706</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>-0.32881355932203388</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>0.15509761388286333</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>9.8913043478260868E-2</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>1.7112299465240642E-2</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" ref="H35" si="68">H34/H36</f>
+        <f t="shared" ref="H35" si="71">H34/H36</f>
         <v>0.10048309178743961</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" ref="I35:K35" si="69">I34/I36</f>
+        <f t="shared" ref="I35:K35" si="72">I34/I36</f>
         <v>0.27149321266968324</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>0.2402135231316726</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>0.29744042365401591</v>
       </c>
       <c r="L35" s="3">
-        <f t="shared" ref="L35" si="70">L34/L36</f>
+        <f t="shared" ref="L35" si="73">L34/L36</f>
         <v>1.0411081322609472</v>
       </c>
       <c r="M35" s="3">
-        <f t="shared" ref="M35" si="71">M34/M36</f>
+        <f t="shared" ref="M35" si="74">M34/M36</f>
         <v>1.4861976847729297</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" ref="N35" si="72">N34/N36</f>
+        <f t="shared" ref="N35" si="75">N34/N36</f>
         <v>2.044933920704846</v>
       </c>
       <c r="O35" s="3">
-        <f t="shared" ref="O35:Q35" si="73">O34/O36</f>
+        <f t="shared" ref="O35:Q35" si="76">O34/O36</f>
         <v>2.867761452031115</v>
       </c>
       <c r="P35" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>2.032900432900433</v>
       </c>
       <c r="Q35" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.96049596309111884</v>
       </c>
       <c r="R35" s="3">
-        <f t="shared" ref="R35:V35" si="74">R34/R36</f>
+        <f t="shared" ref="R35:V35" si="77">R34/R36</f>
         <v>0.89451124567474039</v>
       </c>
       <c r="S35" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>1.1028633217993078</v>
       </c>
       <c r="T35" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>1.0138235294117648</v>
       </c>
       <c r="U35" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>1.402110726643599</v>
       </c>
       <c r="V35" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>1.3703330449826989</v>
       </c>
       <c r="AF35" s="21">
@@ -3752,19 +3763,19 @@
         <v>3468</v>
       </c>
       <c r="S36" s="5">
-        <f t="shared" ref="S36:V36" si="75">+R36</f>
+        <f t="shared" ref="S36:V36" si="78">+R36</f>
         <v>3468</v>
       </c>
       <c r="T36" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>3468</v>
       </c>
       <c r="U36" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>3468</v>
       </c>
       <c r="V36" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>3468</v>
       </c>
       <c r="AF36" s="4">
@@ -3785,35 +3796,35 @@
         <v>0.31799163179916312</v>
       </c>
       <c r="H38" s="23">
-        <f t="shared" ref="H38" si="76">H19/D19-1</f>
+        <f t="shared" ref="H38" si="79">H19/D19-1</f>
         <v>-4.9448818897637747E-2</v>
       </c>
       <c r="I38" s="23">
-        <f t="shared" ref="I38" si="77">I19/E19-1</f>
+        <f t="shared" ref="I38" si="80">I19/E19-1</f>
         <v>0.39155957480564818</v>
       </c>
       <c r="J38" s="23">
-        <f t="shared" ref="J38" si="78">J19/F19-1</f>
+        <f t="shared" ref="J38" si="81">J19/F19-1</f>
         <v>0.45503791982665232</v>
       </c>
       <c r="K38" s="23">
-        <f t="shared" ref="K38" si="79">K19/G19-1</f>
+        <f t="shared" ref="K38" si="82">K19/G19-1</f>
         <v>0.73583959899749374</v>
       </c>
       <c r="L38" s="23">
-        <f t="shared" ref="L38:M38" si="80">L19/H19-1</f>
+        <f t="shared" ref="L38:M38" si="83">L19/H19-1</f>
         <v>0.98111332007952279</v>
       </c>
       <c r="M38" s="23">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0.56846425721126437</v>
       </c>
       <c r="N38" s="23">
-        <f t="shared" ref="N38:O38" si="81">N19/J19-1</f>
+        <f t="shared" ref="N38:O38" si="84">N19/J19-1</f>
         <v>0.64919955323901712</v>
       </c>
       <c r="O38" s="23">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>0.80537106555010096</v>
       </c>
       <c r="P38" s="23">
@@ -3829,19 +3840,19 @@
         <v>0.39999999999999991</v>
       </c>
       <c r="S38" s="23">
-        <f t="shared" ref="S38:V38" si="82">S19/O19-1</f>
+        <f t="shared" ref="S38:V38" si="85">S19/O19-1</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="T38" s="23">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.40000000000000013</v>
       </c>
       <c r="U38" s="23">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.40000000000000013</v>
       </c>
       <c r="V38" s="23">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="AC38" s="27">
@@ -3866,47 +3877,47 @@
         <v>92</v>
       </c>
       <c r="G39" s="17">
-        <f t="shared" ref="G39" si="83">+G5/C5-1</f>
+        <f t="shared" ref="G39" si="86">+G5/C5-1</f>
         <v>0.40427490122026688</v>
       </c>
       <c r="H39" s="17">
-        <f t="shared" ref="H39" si="84">+H5/D5-1</f>
+        <f t="shared" ref="H39" si="87">+H5/D5-1</f>
         <v>-4.9351902344897058E-2</v>
       </c>
       <c r="I39" s="17">
-        <f t="shared" ref="I39" si="85">+I5/E5-1</f>
+        <f t="shared" ref="I39" si="88">+I5/E5-1</f>
         <v>0.43333401930319182</v>
       </c>
       <c r="J39" s="17">
-        <f t="shared" ref="J39" si="86">+J5/F5-1</f>
+        <f t="shared" ref="J39" si="89">+J5/F5-1</f>
         <v>0.61086578348722065</v>
       </c>
       <c r="K39" s="17">
-        <f t="shared" ref="K39" si="87">+K5/G5-1</f>
+        <f t="shared" ref="K39" si="90">+K5/G5-1</f>
         <v>1.088229976496113</v>
       </c>
       <c r="L39" s="17">
-        <f t="shared" ref="L39" si="88">+L5/H5-1</f>
+        <f t="shared" ref="L39" si="91">+L5/H5-1</f>
         <v>1.2200772200772199</v>
       </c>
       <c r="M39" s="17">
-        <f t="shared" ref="M39" si="89">+M5/I5-1</f>
+        <f t="shared" ref="M39" si="92">+M5/I5-1</f>
         <v>0.73223259152907394</v>
       </c>
       <c r="N39" s="17">
-        <f t="shared" ref="N39:Q39" si="90">+N5/J5-1</f>
+        <f t="shared" ref="N39:Q39" si="93">+N5/J5-1</f>
         <v>0.70903250816857732</v>
       </c>
       <c r="O39" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.67774891774891777</v>
       </c>
       <c r="P39" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.26556521739130434</v>
       </c>
       <c r="Q39" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.42490675507666809</v>
       </c>
       <c r="R39" s="17">
@@ -3929,37 +3940,41 @@
         <f>+AE5/AD5-1</f>
         <v>0.403761953095785</v>
       </c>
+      <c r="AF39" s="28">
+        <f t="shared" ref="AF39" si="94">+AF5/AE5-1</f>
+        <v>0.35000000000000009</v>
+      </c>
     </row>
     <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B40" s="22" t="s">
         <v>93</v>
       </c>
       <c r="G40" s="17">
-        <f t="shared" ref="G40" si="91">+G10/C10-1</f>
+        <f t="shared" ref="G40" si="95">+G10/C10-1</f>
         <v>0.33101713811610356</v>
       </c>
       <c r="H40" s="17">
-        <f t="shared" ref="H40" si="92">+H10/D10-1</f>
+        <f t="shared" ref="H40" si="96">+H10/D10-1</f>
         <v>-5.4866280672732248E-2</v>
       </c>
       <c r="I40" s="17">
-        <f t="shared" ref="I40" si="93">+I10/E10-1</f>
+        <f t="shared" ref="I40" si="97">+I10/E10-1</f>
         <v>0.50835629972440333</v>
       </c>
       <c r="J40" s="17">
-        <f t="shared" ref="J40" si="94">+J10/F10-1</f>
+        <f t="shared" ref="J40" si="98">+J10/F10-1</f>
         <v>0.71375046476818782</v>
       </c>
       <c r="K40" s="17">
-        <f t="shared" ref="K40" si="95">+K10/G10-1</f>
+        <f t="shared" ref="K40" si="99">+K10/G10-1</f>
         <v>0.75644771700171409</v>
       </c>
       <c r="L40" s="17">
-        <f t="shared" ref="L40" si="96">+L10/H10-1</f>
+        <f t="shared" ref="L40" si="100">+L10/H10-1</f>
         <v>1.5090067094515751</v>
       </c>
       <c r="M40" s="17">
-        <f t="shared" ref="L40:M40" si="97">+M10/I10-1</f>
+        <f t="shared" ref="M40" si="101">+M10/I10-1</f>
         <v>0.63975150996993846</v>
       </c>
       <c r="N40" s="17">
@@ -3987,40 +4002,44 @@
       <c r="U40" s="17"/>
       <c r="V40" s="17"/>
       <c r="AC40" s="28">
-        <f t="shared" ref="AC40:AE40" si="98">+AC10/AB10-1</f>
+        <f t="shared" ref="AC40:AD40" si="102">+AC10/AB10-1</f>
         <v>0.39565262627590125</v>
       </c>
       <c r="AD40" s="28">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>0.8252981439448186</v>
       </c>
       <c r="AE40" s="28">
         <f>+AE10/AD10-1</f>
         <v>0.47203204567389845</v>
       </c>
+      <c r="AF40" s="28">
+        <f t="shared" ref="AF40" si="103">+AF10/AE10-1</f>
+        <v>0.35000000000000009</v>
+      </c>
     </row>
     <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B41" s="20" t="s">
         <v>91</v>
       </c>
       <c r="G41" s="17">
-        <f t="shared" ref="G41:K41" si="99">G13/C13-1</f>
+        <f t="shared" ref="G41:K41" si="104">G13/C13-1</f>
         <v>0.39441436306640076</v>
       </c>
       <c r="H41" s="17">
-        <f t="shared" si="99"/>
+        <f t="shared" si="104"/>
         <v>-4.9729102167182626E-2</v>
       </c>
       <c r="I41" s="17">
-        <f t="shared" si="99"/>
+        <f t="shared" si="104"/>
         <v>0.43141075604053003</v>
       </c>
       <c r="J41" s="17">
-        <f t="shared" si="99"/>
+        <f t="shared" si="104"/>
         <v>0.4053394107113788</v>
       </c>
       <c r="K41" s="17">
-        <f t="shared" si="99"/>
+        <f t="shared" si="104"/>
         <v>0.67320662170447587</v>
       </c>
       <c r="L41" s="17">
@@ -4028,7 +4047,7 @@
         <v>0.9385053960496843</v>
       </c>
       <c r="M41" s="17">
-        <f t="shared" ref="L41:M41" si="100">M13/I13-1</f>
+        <f t="shared" ref="M41" si="105">M13/I13-1</f>
         <v>0.55091206098557044</v>
       </c>
       <c r="N41" s="17">
@@ -4036,35 +4055,35 @@
         <v>0.74041468782578468</v>
       </c>
       <c r="O41" s="17">
-        <f t="shared" ref="O41:Q41" si="101">O13/K13-1</f>
+        <f t="shared" ref="O41:Q41" si="106">O13/K13-1</f>
         <v>0.89495541712470983</v>
       </c>
       <c r="P41" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="106"/>
         <v>0.43592436974789917</v>
       </c>
       <c r="Q41" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="106"/>
         <v>0.561046256473273</v>
       </c>
       <c r="R41" s="17">
-        <f t="shared" ref="R41" si="102">R13/N13-1</f>
+        <f t="shared" ref="R41" si="107">R13/N13-1</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="S41" s="17">
-        <f t="shared" ref="S41" si="103">S13/O13-1</f>
+        <f t="shared" ref="S41" si="108">S13/O13-1</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="T41" s="17">
-        <f t="shared" ref="T41" si="104">T13/P13-1</f>
+        <f t="shared" ref="T41" si="109">T13/P13-1</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="U41" s="17">
-        <f t="shared" ref="U41" si="105">U13/Q13-1</f>
+        <f t="shared" ref="U41" si="110">U13/Q13-1</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="V41" s="17">
-        <f t="shared" ref="V41" si="106">V13/R13-1</f>
+        <f t="shared" ref="V41" si="111">V13/R13-1</f>
         <v>0.39999999999999991</v>
       </c>
     </row>
@@ -4073,83 +4092,83 @@
         <v>90</v>
       </c>
       <c r="C42" s="17">
-        <f t="shared" ref="C42:H42" si="107">C21/C13</f>
+        <f t="shared" ref="C42:G42" si="112">C21/C13</f>
         <v>0.18609290396124251</v>
       </c>
       <c r="D42" s="17">
-        <f t="shared" si="107"/>
+        <f t="shared" si="112"/>
         <v>0.17685758513931887</v>
       </c>
       <c r="E42" s="17">
-        <f t="shared" si="107"/>
+        <f t="shared" si="112"/>
         <v>0.21784879189399844</v>
       </c>
       <c r="F42" s="17">
-        <f t="shared" si="107"/>
+        <f t="shared" si="112"/>
         <v>0.21618101904606871</v>
       </c>
       <c r="G42" s="17">
-        <f t="shared" si="107"/>
+        <f t="shared" si="112"/>
         <v>0.2440220723482526</v>
       </c>
       <c r="H42" s="17">
-        <f t="shared" ref="H42" si="108">H21/H13</f>
+        <f t="shared" ref="H42" si="113">H21/H13</f>
         <v>0.24373854612095297</v>
       </c>
       <c r="I42" s="17">
-        <f t="shared" ref="I42" si="109">I21/I13</f>
+        <f t="shared" ref="I42" si="114">I21/I13</f>
         <v>0.27021508303838826</v>
       </c>
       <c r="J42" s="17">
-        <f t="shared" ref="J42:Q42" si="110">J21/J13</f>
+        <f t="shared" ref="J42:Q42" si="115">J21/J13</f>
         <v>0.19819298042395458</v>
       </c>
       <c r="K42" s="17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0.21131061438866497</v>
       </c>
       <c r="L42" s="17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0.25220588235294117</v>
       </c>
       <c r="M42" s="17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0.28464846835776353</v>
       </c>
       <c r="N42" s="17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0.28858569051580701</v>
       </c>
       <c r="O42" s="17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0.29650638133298957</v>
       </c>
       <c r="P42" s="17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0.25727871250914414</v>
       </c>
       <c r="Q42" s="17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0.26348046106269329</v>
       </c>
       <c r="R42" s="17">
-        <f t="shared" ref="R42:V42" si="111">R21/R13</f>
+        <f t="shared" ref="R42:V42" si="116">R21/R13</f>
         <v>0.25</v>
       </c>
       <c r="S42" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>0.25</v>
       </c>
       <c r="T42" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>0.25</v>
       </c>
       <c r="U42" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>0.25</v>
       </c>
       <c r="V42" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>0.25000000000000006</v>
       </c>
     </row>
@@ -4158,31 +4177,31 @@
         <v>45</v>
       </c>
       <c r="C43" s="17">
-        <f t="shared" ref="C43:H43" si="112">+C26/C19</f>
+        <f t="shared" ref="C43:G43" si="117">+C26/C19</f>
         <v>0.1246421493063202</v>
       </c>
       <c r="D43" s="17">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>0.14503937007874015</v>
       </c>
       <c r="E43" s="17">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>0.18895763921941933</v>
       </c>
       <c r="F43" s="17">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>0.18838028169014084</v>
       </c>
       <c r="G43" s="17">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>0.20618212197159566</v>
       </c>
       <c r="H43" s="17">
-        <f t="shared" ref="H43" si="113">+H26/H19</f>
+        <f t="shared" ref="H43" si="118">+H26/H19</f>
         <v>0.20990722332670642</v>
       </c>
       <c r="I43" s="17">
-        <f t="shared" ref="I43" si="114">+I26/I19</f>
+        <f t="shared" ref="I43" si="119">+I26/I19</f>
         <v>0.23520693193478509</v>
       </c>
       <c r="J43" s="17">
@@ -4190,51 +4209,51 @@
         <v>0.19229337304542071</v>
       </c>
       <c r="K43" s="17">
-        <f t="shared" ref="K43:V43" si="115">+K26/K19</f>
+        <f t="shared" ref="K43:V43" si="120">+K26/K19</f>
         <v>0.21320627586870727</v>
       </c>
       <c r="L43" s="17">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0.24117745442381669</v>
       </c>
       <c r="M43" s="17">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0.26604637639020134</v>
       </c>
       <c r="N43" s="17">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0.27354816863254133</v>
       </c>
       <c r="O43" s="17">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0.29110684580934099</v>
       </c>
       <c r="P43" s="17">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0.24997047360340144</v>
       </c>
       <c r="Q43" s="17">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0.25086231005873033</v>
       </c>
       <c r="R43" s="17">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0.25</v>
       </c>
       <c r="S43" s="17">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0.25</v>
       </c>
       <c r="T43" s="17">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0.25</v>
       </c>
       <c r="U43" s="17">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0.25</v>
       </c>
       <c r="V43" s="17">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0.25</v>
       </c>
     </row>
@@ -4261,27 +4280,27 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5">
-        <f t="shared" ref="I46:N46" si="116">I34</f>
+        <f t="shared" ref="I46:N46" si="121">I34</f>
         <v>300</v>
       </c>
       <c r="J46" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>270</v>
       </c>
       <c r="K46" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>337</v>
       </c>
       <c r="L46" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>1165</v>
       </c>
       <c r="M46" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>1669</v>
       </c>
       <c r="N46" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>2321</v>
       </c>
       <c r="O46" s="5">
@@ -4297,23 +4316,23 @@
         <v>3331</v>
       </c>
       <c r="R46" s="5">
-        <f t="shared" ref="R46:V46" si="117">R34</f>
+        <f t="shared" ref="R46:V46" si="122">R34</f>
         <v>3102.1649999999995</v>
       </c>
       <c r="S46" s="5">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>3824.7299999999996</v>
       </c>
       <c r="T46" s="5">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>3515.9400000000005</v>
       </c>
       <c r="U46" s="5">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>4862.5200000000013</v>
       </c>
       <c r="V46" s="5">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>4752.3149999999996</v>
       </c>
     </row>
@@ -4628,23 +4647,23 @@
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5">
-        <f t="shared" ref="J55:N55" si="118">SUM(J47:J54)</f>
+        <f t="shared" ref="J55:N55" si="123">SUM(J47:J54)</f>
         <v>3019</v>
       </c>
       <c r="K55" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="123"/>
         <v>1641</v>
       </c>
       <c r="L55" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="123"/>
         <v>2124</v>
       </c>
       <c r="M55" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="123"/>
         <v>3147</v>
       </c>
       <c r="N55" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="123"/>
         <v>4585</v>
       </c>
       <c r="O55" s="5">
@@ -4746,23 +4765,23 @@
         <v>1868</v>
       </c>
       <c r="K58" s="5">
-        <f t="shared" ref="K58:N58" si="119">K55-K57</f>
+        <f t="shared" ref="K58:N58" si="124">K55-K57</f>
         <v>293</v>
       </c>
       <c r="L58" s="5">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v>619</v>
       </c>
       <c r="M58" s="5">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v>1328</v>
       </c>
       <c r="N58" s="5">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v>2775</v>
       </c>
       <c r="O58" s="5">
-        <f t="shared" ref="O58" si="120">O55-O57</f>
+        <f t="shared" ref="O58" si="125">O55-O57</f>
         <v>2228</v>
       </c>
       <c r="P58" s="5">
@@ -5208,11 +5227,11 @@
         <v>62131</v>
       </c>
       <c r="P72" s="5">
-        <f t="shared" ref="P72:Q72" si="121">SUM(P61:P71)</f>
+        <f t="shared" ref="P72:Q72" si="126">SUM(P61:P71)</f>
         <v>68513</v>
       </c>
       <c r="Q72" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="126"/>
         <v>74426</v>
       </c>
       <c r="R72" s="5"/>
@@ -5353,11 +5372,11 @@
         <v>62131</v>
       </c>
       <c r="P82" s="5">
-        <f t="shared" ref="P82:Q82" si="122">SUM(P74:P81)</f>
+        <f t="shared" ref="P82:Q82" si="127">SUM(P74:P81)</f>
         <v>68513</v>
       </c>
       <c r="Q82" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="127"/>
         <v>74426</v>
       </c>
     </row>

--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32120C83-40F3-4236-9EB1-F2D40562F606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFCE394-E9F4-452A-B19A-C4B7DD44DF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21285" yWindow="0" windowWidth="30465" windowHeight="20220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24075" yWindow="570" windowWidth="24480" windowHeight="18405" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <author>tc={7D7449AA-B6F8-4EBC-88EB-E7879CDB3FAB}</author>
   </authors>
   <commentList>
-    <comment ref="AJ10" authorId="0" shapeId="0" xr:uid="{7D7449AA-B6F8-4EBC-88EB-E7879CDB3FAB}">
+    <comment ref="AL10" authorId="0" shapeId="0" xr:uid="{7D7449AA-B6F8-4EBC-88EB-E7879CDB3FAB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -415,7 +415,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,12 +485,6 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -651,13 +645,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>39414</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>78828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>39414</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>131379</xdr:rowOff>
@@ -1005,7 +999,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AJ10" dT="2023-04-23T20:32:30.18" personId="{DB2BD1D3-B51E-4CED-BC74-064ACA9A1F13}" id="{7D7449AA-B6F8-4EBC-88EB-E7879CDB3FAB}">
+  <threadedComment ref="AL10" dT="2023-04-23T20:32:30.18" personId="{DB2BD1D3-B51E-4CED-BC74-064ACA9A1F13}" id="{7D7449AA-B6F8-4EBC-88EB-E7879CDB3FAB}">
     <text>Q123: 1.8m/year</text>
   </threadedComment>
 </ThreadedComments>
@@ -1100,13 +1094,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E310252-7C49-48D8-9A64-7380C8DB275B}">
-  <dimension ref="A1:CU89"/>
+  <dimension ref="A1:CW89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="AK22" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="Z13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AT44" sqref="AT44"/>
+      <selection pane="bottomRight" activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1116,25 +1110,25 @@
     <col min="3" max="18" width="9.140625" style="2"/>
     <col min="19" max="19" width="8.7109375" style="2" customWidth="1"/>
     <col min="20" max="26" width="9.140625" style="2"/>
-    <col min="27" max="33" width="9.140625" style="1"/>
-    <col min="34" max="36" width="9.7109375" style="1" customWidth="1"/>
-    <col min="37" max="37" width="10.85546875" style="1" customWidth="1"/>
-    <col min="38" max="38" width="10.28515625" style="1" customWidth="1"/>
+    <col min="27" max="35" width="9.140625" style="1"/>
+    <col min="36" max="38" width="9.7109375" style="1" customWidth="1"/>
     <col min="39" max="39" width="10.85546875" style="1" customWidth="1"/>
-    <col min="40" max="40" width="11.140625" style="1" customWidth="1"/>
-    <col min="41" max="44" width="10.85546875" style="1" customWidth="1"/>
-    <col min="45" max="45" width="9.140625" style="1"/>
-    <col min="46" max="46" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="9.140625" style="1"/>
+    <col min="40" max="40" width="10.28515625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="10.85546875" style="1" customWidth="1"/>
+    <col min="42" max="42" width="11.140625" style="1" customWidth="1"/>
+    <col min="43" max="46" width="10.85546875" style="1" customWidth="1"/>
+    <col min="47" max="47" width="9.140625" style="1"/>
+    <col min="48" max="48" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="W1" s="24"/>
     </row>
-    <row r="2" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>84</v>
       </c>
@@ -1165,7 +1159,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1227,24 +1221,24 @@
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
-      <c r="AF3" s="4">
+      <c r="AH3" s="4">
         <f>SUM(G3:J3)</f>
         <v>66771</v>
       </c>
-      <c r="AG3" s="4">
+      <c r="AI3" s="4">
         <f>SUM(K3:N3)</f>
         <v>56950</v>
       </c>
-      <c r="AH3" s="4">
+      <c r="AJ3" s="4">
         <f>SUM(O3:R3)</f>
         <v>24935</v>
       </c>
-      <c r="AI3" s="4">
+      <c r="AK3" s="4">
         <f>SUM(S3:V3)</f>
         <v>66705</v>
       </c>
     </row>
-    <row r="4" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1306,24 +1300,24 @@
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
-      <c r="AF4" s="4">
+      <c r="AH4" s="4">
         <f>SUM(G4:J4)</f>
         <v>300885</v>
       </c>
-      <c r="AG4" s="4">
+      <c r="AI4" s="4">
         <f>SUM(K4:N4)</f>
         <v>442066</v>
       </c>
-      <c r="AH4" s="4">
+      <c r="AJ4" s="4">
         <f>SUM(O4:R4)</f>
         <v>911015</v>
       </c>
-      <c r="AI4" s="4">
+      <c r="AK4" s="4">
         <f>SUM(S4:V4)</f>
         <v>1247146</v>
       </c>
     </row>
-    <row r="5" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1402,56 +1396,56 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
-      <c r="AF5" s="6">
-        <f>+AF3+AF4</f>
-        <v>367656</v>
-      </c>
-      <c r="AG5" s="6">
-        <f>+AG3+AG4</f>
-        <v>499016</v>
-      </c>
       <c r="AH5" s="6">
         <f>+AH3+AH4</f>
-        <v>935950</v>
+        <v>367656</v>
       </c>
       <c r="AI5" s="6">
         <f>+AI3+AI4</f>
+        <v>499016</v>
+      </c>
+      <c r="AJ5" s="6">
+        <f>+AJ3+AJ4</f>
+        <v>935950</v>
+      </c>
+      <c r="AK5" s="6">
+        <f>+AK3+AK4</f>
         <v>1313851</v>
       </c>
-      <c r="AJ5" s="6">
-        <f>+AI5*1.35</f>
+      <c r="AL5" s="6">
+        <f>+AK5*1.35</f>
         <v>1773698.85</v>
       </c>
-      <c r="AK5" s="6">
-        <f>AK10</f>
+      <c r="AM5" s="6">
+        <f>AM10</f>
         <v>2403667.3050000002</v>
       </c>
-      <c r="AL5" s="6">
-        <f t="shared" ref="AL5:AO5" si="1">AL10</f>
+      <c r="AN5" s="6">
+        <f t="shared" ref="AN5:AQ5" si="1">AN10</f>
         <v>3124767.4965000004</v>
       </c>
-      <c r="AM5" s="6">
+      <c r="AO5" s="6">
         <f t="shared" si="1"/>
         <v>3905959.3706250004</v>
       </c>
-      <c r="AN5" s="6">
+      <c r="AP5" s="6">
         <f t="shared" si="1"/>
         <v>4687151.2447500005</v>
       </c>
-      <c r="AO5" s="6">
+      <c r="AQ5" s="6">
         <f t="shared" si="1"/>
         <v>5624581.4937000005</v>
       </c>
-      <c r="AP5" s="6">
-        <f t="shared" ref="AP5:AQ5" si="2">AP10</f>
+      <c r="AR5" s="6">
+        <f t="shared" ref="AR5:AS5" si="2">AR10</f>
         <v>6468268.7177550001</v>
       </c>
-      <c r="AQ5" s="6">
+      <c r="AS5" s="6">
         <f t="shared" si="2"/>
         <v>7115095.5895305006</v>
       </c>
     </row>
-    <row r="6" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1494,56 +1488,56 @@
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
-      <c r="AF6" s="5">
-        <f>AF14/AF5*1000000</f>
-        <v>54268.120199316756</v>
-      </c>
-      <c r="AG6" s="5">
-        <f>AG14/AG5*1000000</f>
-        <v>51667.681998172404</v>
-      </c>
       <c r="AH6" s="5">
         <f>AH14/AH5*1000000</f>
-        <v>47144.612425877451</v>
+        <v>54268.120199316756</v>
       </c>
       <c r="AI6" s="5">
         <f>AI14/AI5*1000000</f>
-        <v>51759.293862089384</v>
+        <v>51667.681998172404</v>
       </c>
       <c r="AJ6" s="5">
         <f>AJ14/AJ5*1000000</f>
+        <v>47144.612425877451</v>
+      </c>
+      <c r="AK6" s="5">
+        <f>AK14/AK5*1000000</f>
+        <v>51759.293862089384</v>
+      </c>
+      <c r="AL6" s="5">
+        <f>AL14/AL5*1000000</f>
         <v>52074.228948166703</v>
       </c>
-      <c r="AK6" s="4">
-        <f>AJ6*1.1</f>
+      <c r="AM6" s="4">
+        <f>AL6*1.1</f>
         <v>57281.651842983381</v>
-      </c>
-      <c r="AL6" s="4">
-        <f>AK6*1.03</f>
-        <v>59000.101398272884</v>
-      </c>
-      <c r="AM6" s="4">
-        <f>AL6*1.03</f>
-        <v>60770.104440221068</v>
       </c>
       <c r="AN6" s="4">
         <f>AM6*1.03</f>
-        <v>62593.207573427702</v>
+        <v>59000.101398272884</v>
       </c>
       <c r="AO6" s="4">
         <f>AN6*1.03</f>
+        <v>60770.104440221068</v>
+      </c>
+      <c r="AP6" s="4">
+        <f>AO6*1.03</f>
+        <v>62593.207573427702</v>
+      </c>
+      <c r="AQ6" s="4">
+        <f>AP6*1.03</f>
         <v>64471.003800630533</v>
       </c>
-      <c r="AP6" s="4">
-        <f t="shared" ref="AP6:AQ6" si="3">AO6*1.03</f>
+      <c r="AR6" s="4">
+        <f t="shared" ref="AR6:AS6" si="3">AQ6*1.03</f>
         <v>66405.133914649457</v>
       </c>
-      <c r="AQ6" s="4">
+      <c r="AS6" s="4">
         <f t="shared" si="3"/>
         <v>68397.287932088948</v>
       </c>
     </row>
-    <row r="7" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1569,7 +1563,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
@@ -1631,24 +1625,24 @@
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
-      <c r="AF8" s="4">
+      <c r="AH8" s="4">
         <f>SUM(G8:J8)</f>
         <v>62931</v>
       </c>
-      <c r="AG8" s="4">
+      <c r="AI8" s="4">
         <f>SUM(K8:N8)</f>
         <v>54805</v>
       </c>
-      <c r="AH8" s="4">
+      <c r="AJ8" s="4">
         <f>SUM(O8:R8)</f>
         <v>24390</v>
       </c>
-      <c r="AI8" s="4">
+      <c r="AK8" s="4">
         <f>SUM(S8:V8)</f>
         <v>71177</v>
       </c>
     </row>
-    <row r="9" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1710,24 +1704,24 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
-      <c r="AF9" s="4">
+      <c r="AH9" s="4">
         <f>SUM(G9:J9)</f>
         <v>302301</v>
       </c>
-      <c r="AG9" s="4">
+      <c r="AI9" s="4">
         <f>SUM(K9:N9)</f>
         <v>454932</v>
       </c>
-      <c r="AH9" s="4">
+      <c r="AJ9" s="4">
         <f>SUM(O9:R9)</f>
         <v>906032</v>
       </c>
-      <c r="AI9" s="4">
+      <c r="AK9" s="4">
         <f>SUM(S9:V9)</f>
         <v>1298434</v>
       </c>
     </row>
-    <row r="10" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
@@ -1806,56 +1800,56 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
-      <c r="AF10" s="6">
-        <f>+AF8+AF9</f>
-        <v>365232</v>
-      </c>
-      <c r="AG10" s="6">
-        <f>+AG8+AG9</f>
-        <v>509737</v>
-      </c>
       <c r="AH10" s="6">
         <f>+AH8+AH9</f>
-        <v>930422</v>
+        <v>365232</v>
       </c>
       <c r="AI10" s="6">
         <f>+AI8+AI9</f>
+        <v>509737</v>
+      </c>
+      <c r="AJ10" s="6">
+        <f>+AJ8+AJ9</f>
+        <v>930422</v>
+      </c>
+      <c r="AK10" s="6">
+        <f>+AK8+AK9</f>
         <v>1369611</v>
       </c>
-      <c r="AJ10" s="6">
-        <f>+AI10*1.35</f>
+      <c r="AL10" s="6">
+        <f>+AK10*1.35</f>
         <v>1848974.85</v>
       </c>
-      <c r="AK10" s="6">
-        <f>AJ10*1.3</f>
+      <c r="AM10" s="6">
+        <f>AL10*1.3</f>
         <v>2403667.3050000002</v>
       </c>
-      <c r="AL10" s="6">
-        <f>AK10*1.3</f>
+      <c r="AN10" s="6">
+        <f>AM10*1.3</f>
         <v>3124767.4965000004</v>
       </c>
-      <c r="AM10" s="6">
-        <f>AL10*1.25</f>
+      <c r="AO10" s="6">
+        <f>AN10*1.25</f>
         <v>3905959.3706250004</v>
       </c>
-      <c r="AN10" s="6">
-        <f>AM10*1.2</f>
+      <c r="AP10" s="6">
+        <f>AO10*1.2</f>
         <v>4687151.2447500005</v>
       </c>
-      <c r="AO10" s="6">
-        <f>AN10*1.2</f>
+      <c r="AQ10" s="6">
+        <f>AP10*1.2</f>
         <v>5624581.4937000005</v>
       </c>
-      <c r="AP10" s="6">
-        <f>AO10*1.15</f>
+      <c r="AR10" s="6">
+        <f>AQ10*1.15</f>
         <v>6468268.7177550001</v>
       </c>
-      <c r="AQ10" s="6">
-        <f>AP10*1.1</f>
+      <c r="AS10" s="6">
+        <f>AR10*1.1</f>
         <v>7115095.5895305006</v>
       </c>
     </row>
-    <row r="11" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1880,9 +1874,9 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-      <c r="AJ11" s="28"/>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AL11" s="28"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="C12" s="29" t="s">
         <v>94</v>
       </c>
@@ -1955,60 +1949,72 @@
       <c r="Z12" s="16" t="s">
         <v>88</v>
       </c>
+      <c r="AB12" s="1">
+        <v>2013</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>2014</v>
+      </c>
       <c r="AD12" s="1">
+        <v>2015</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>2016</v>
+      </c>
+      <c r="AF12" s="1">
         <v>2017</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AG12" s="1">
         <v>2018</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AH12" s="1">
         <v>2019</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AI12" s="1">
         <v>2020</v>
       </c>
-      <c r="AH12" s="1">
-        <f>+AG12+1</f>
+      <c r="AJ12" s="1">
+        <f>+AI12+1</f>
         <v>2021</v>
       </c>
-      <c r="AI12" s="1">
-        <f t="shared" ref="AI12:AO12" si="5">+AH12+1</f>
+      <c r="AK12" s="1">
+        <f t="shared" ref="AK12:AQ12" si="5">+AJ12+1</f>
         <v>2022</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AL12" s="1">
         <f t="shared" si="5"/>
         <v>2023</v>
       </c>
-      <c r="AK12" s="1">
+      <c r="AM12" s="1">
         <f t="shared" si="5"/>
         <v>2024</v>
       </c>
-      <c r="AL12" s="1">
+      <c r="AN12" s="1">
         <f t="shared" si="5"/>
         <v>2025</v>
       </c>
-      <c r="AM12" s="1">
+      <c r="AO12" s="1">
         <f t="shared" si="5"/>
         <v>2026</v>
       </c>
-      <c r="AN12" s="1">
+      <c r="AP12" s="1">
         <f t="shared" si="5"/>
         <v>2027</v>
       </c>
-      <c r="AO12" s="1">
+      <c r="AQ12" s="1">
         <f t="shared" si="5"/>
         <v>2028</v>
       </c>
-      <c r="AP12" s="1">
-        <f t="shared" ref="AP12" si="6">+AO12+1</f>
+      <c r="AR12" s="1">
+        <f t="shared" ref="AR12" si="6">+AQ12+1</f>
         <v>2029</v>
       </c>
-      <c r="AQ12" s="1">
-        <f t="shared" ref="AQ12" si="7">+AP12+1</f>
+      <c r="AS12" s="1">
+        <f t="shared" ref="AS12" si="7">+AR12+1</f>
         <v>2030</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B13" s="30" t="s">
         <v>116</v>
       </c>
@@ -2020,36 +2026,36 @@
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
       <c r="Z13" s="16"/>
-      <c r="AK13" s="4">
-        <f>15*AK5/1000*0.1</f>
+      <c r="AM13" s="4">
+        <f>15*AM5/1000*0.1</f>
         <v>3605.5009575000004</v>
       </c>
-      <c r="AL13" s="4">
-        <f>15*AL5/1000*0.2</f>
+      <c r="AN13" s="4">
+        <f>15*AN5/1000*0.2</f>
         <v>9374.3024895000017</v>
       </c>
-      <c r="AM13" s="4">
-        <f>15*AM5/1000*0.3</f>
+      <c r="AO13" s="4">
+        <f>15*AO5/1000*0.3</f>
         <v>17576.8171678125</v>
       </c>
-      <c r="AN13" s="4">
-        <f>15*AN5/1000*0.4</f>
+      <c r="AP13" s="4">
+        <f>15*AP5/1000*0.4</f>
         <v>28122.907468500009</v>
       </c>
-      <c r="AO13" s="4">
-        <f>15*AO5/1000*0.5</f>
+      <c r="AQ13" s="4">
+        <f>15*AQ5/1000*0.5</f>
         <v>42184.361202750006</v>
       </c>
-      <c r="AP13" s="4">
-        <f>15*AP5/1000*0.6</f>
+      <c r="AR13" s="4">
+        <f>15*AR5/1000*0.6</f>
         <v>58214.418459795001</v>
       </c>
-      <c r="AQ13" s="4">
-        <f>15*AQ5/1000*0.7</f>
+      <c r="AS13" s="4">
+        <f>15*AS5/1000*0.7</f>
         <v>74708.503690070254</v>
       </c>
     </row>
-    <row r="14" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
@@ -2114,67 +2120,67 @@
         <v>18878</v>
       </c>
       <c r="X14" s="5">
-        <f>+T14*1.4</f>
+        <f t="shared" ref="X14:Z15" si="8">+T14*1.4</f>
         <v>19138</v>
       </c>
       <c r="Y14" s="5">
-        <f>+U14*1.4</f>
+        <f t="shared" si="8"/>
         <v>24899</v>
       </c>
       <c r="Z14" s="5">
-        <f>+V14*1.4</f>
+        <f t="shared" si="8"/>
         <v>29448.999999999996</v>
       </c>
-      <c r="AF14" s="4">
-        <f t="shared" ref="AF14:AF19" si="8">SUM(G14:J14)</f>
+      <c r="AH14" s="4">
+        <f t="shared" ref="AH14:AH19" si="9">SUM(G14:J14)</f>
         <v>19952</v>
       </c>
-      <c r="AG14" s="4">
+      <c r="AI14" s="4">
         <f>SUM(K14:N14)</f>
         <v>25783</v>
       </c>
-      <c r="AH14" s="4">
+      <c r="AJ14" s="4">
         <f>SUM(O14:R14)</f>
         <v>44125</v>
       </c>
-      <c r="AI14" s="4">
+      <c r="AK14" s="4">
         <f>SUM(S14:V14)</f>
         <v>68004</v>
       </c>
-      <c r="AJ14" s="4">
+      <c r="AL14" s="4">
         <f>SUM(W14:Z14)</f>
         <v>92364</v>
       </c>
-      <c r="AK14" s="4">
-        <f>AK6*AK10/1000000</f>
+      <c r="AM14" s="4">
+        <f>AM6*AM10/1000000</f>
         <v>137686.03371137218</v>
       </c>
-      <c r="AL14" s="4">
-        <f t="shared" ref="AL14:AQ14" si="9">AL6*AL10/1000000</f>
+      <c r="AN14" s="4">
+        <f t="shared" ref="AN14:AS14" si="10">AN6*AN10/1000000</f>
         <v>184361.59913952733</v>
       </c>
-      <c r="AM14" s="4">
-        <f t="shared" si="9"/>
+      <c r="AO14" s="4">
+        <f t="shared" si="10"/>
         <v>237365.55889214142</v>
       </c>
-      <c r="AN14" s="4">
-        <f t="shared" si="9"/>
+      <c r="AP14" s="4">
+        <f t="shared" si="10"/>
         <v>293383.83079068683</v>
       </c>
-      <c r="AO14" s="4">
-        <f t="shared" si="9"/>
+      <c r="AQ14" s="4">
+        <f t="shared" si="10"/>
         <v>362622.41485728888</v>
       </c>
-      <c r="AP14" s="4">
-        <f t="shared" si="9"/>
+      <c r="AR14" s="4">
+        <f t="shared" si="10"/>
         <v>429526.25039845874</v>
       </c>
-      <c r="AQ14" s="4">
-        <f t="shared" si="9"/>
+      <c r="AS14" s="4">
+        <f t="shared" si="10"/>
         <v>486653.24170145381</v>
       </c>
     </row>
-    <row r="15" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
@@ -2228,46 +2234,46 @@
         <v>286</v>
       </c>
       <c r="V15" s="5">
-        <f t="shared" ref="V15:V16" si="10">+R15*1.4</f>
+        <f t="shared" ref="V15:V16" si="11">+R15*1.4</f>
         <v>439.59999999999997</v>
       </c>
       <c r="W15" s="5">
         <v>521</v>
       </c>
       <c r="X15" s="5">
-        <f>+T15*1.4</f>
+        <f t="shared" si="8"/>
         <v>481.59999999999997</v>
       </c>
       <c r="Y15" s="5">
-        <f>+U15*1.4</f>
+        <f t="shared" si="8"/>
         <v>400.4</v>
       </c>
       <c r="Z15" s="5">
-        <f>+V15*1.4</f>
+        <f t="shared" si="8"/>
         <v>615.43999999999994</v>
       </c>
-      <c r="AF15" s="4">
-        <f t="shared" si="8"/>
+      <c r="AH15" s="4">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="4">
+      <c r="AI15" s="4">
         <f>SUM(K15:N15)</f>
         <v>401</v>
       </c>
-      <c r="AH15" s="4">
-        <f t="shared" ref="AH15:AH19" si="11">SUM(O15:R15)</f>
+      <c r="AJ15" s="4">
+        <f t="shared" ref="AJ15:AJ19" si="12">SUM(O15:R15)</f>
         <v>1465</v>
       </c>
-      <c r="AI15" s="4">
-        <f t="shared" ref="AI15:AI30" si="12">SUM(S15:V15)</f>
+      <c r="AK15" s="4">
+        <f t="shared" ref="AK15:AK30" si="13">SUM(S15:V15)</f>
         <v>1748.6</v>
       </c>
-      <c r="AJ15" s="4">
-        <f t="shared" ref="AJ15:AJ35" si="13">SUM(W15:Z15)</f>
+      <c r="AL15" s="4">
+        <f t="shared" ref="AL15:AL35" si="14">SUM(W15:Z15)</f>
         <v>2018.44</v>
       </c>
     </row>
-    <row r="16" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
@@ -2321,46 +2327,46 @@
         <v>621</v>
       </c>
       <c r="V16" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>879.19999999999993</v>
       </c>
       <c r="W16" s="5">
         <v>564</v>
       </c>
       <c r="X16" s="5">
-        <f t="shared" ref="X16" si="14">+T16*1.4</f>
+        <f t="shared" ref="X16" si="15">+T16*1.4</f>
         <v>823.19999999999993</v>
       </c>
       <c r="Y16" s="5">
-        <f t="shared" ref="Y16" si="15">+U16*1.4</f>
+        <f t="shared" ref="Y16" si="16">+U16*1.4</f>
         <v>869.4</v>
       </c>
       <c r="Z16" s="5">
-        <f t="shared" ref="Z16" si="16">+V16*1.4</f>
+        <f t="shared" ref="Z16" si="17">+V16*1.4</f>
         <v>1230.8799999999999</v>
       </c>
-      <c r="AF16" s="4">
-        <f t="shared" si="8"/>
+      <c r="AH16" s="4">
+        <f t="shared" si="9"/>
         <v>869</v>
       </c>
-      <c r="AG16" s="4">
+      <c r="AI16" s="4">
         <f>SUM(K16:N16)</f>
         <v>1052</v>
       </c>
-      <c r="AH16" s="4">
-        <f t="shared" si="11"/>
+      <c r="AJ16" s="4">
+        <f t="shared" si="12"/>
         <v>1642</v>
       </c>
-      <c r="AI16" s="4">
-        <f t="shared" si="12"/>
+      <c r="AK16" s="4">
+        <f t="shared" si="13"/>
         <v>2756.2</v>
       </c>
-      <c r="AJ16" s="4">
-        <f t="shared" si="13"/>
+      <c r="AL16" s="4">
+        <f t="shared" si="14"/>
         <v>3487.4799999999996</v>
       </c>
     </row>
-    <row r="17" spans="2:43" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:45" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>35</v>
       </c>
@@ -2369,51 +2375,51 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7">
-        <f t="shared" ref="G17:K17" si="17">SUM(G14:G16)</f>
+        <f t="shared" ref="G17:K17" si="18">SUM(G14:G16)</f>
         <v>3724</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5376</v>
       </c>
       <c r="I17" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5353</v>
       </c>
       <c r="J17" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6368</v>
       </c>
       <c r="K17" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5132</v>
       </c>
       <c r="L17" s="7">
-        <f t="shared" ref="L17" si="18">SUM(L14:L16)</f>
+        <f t="shared" ref="L17" si="19">SUM(L14:L16)</f>
         <v>5179</v>
       </c>
       <c r="M17" s="7">
-        <f t="shared" ref="M17:R17" si="19">SUM(M14:M16)</f>
+        <f t="shared" ref="M17:R17" si="20">SUM(M14:M16)</f>
         <v>7611</v>
       </c>
       <c r="N17" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9314</v>
       </c>
       <c r="O17" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9002</v>
       </c>
       <c r="P17" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10206</v>
       </c>
       <c r="Q17" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12057</v>
       </c>
       <c r="R17" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>15967</v>
       </c>
       <c r="S17" s="7">
@@ -2429,75 +2435,75 @@
         <v>18692</v>
       </c>
       <c r="V17" s="7">
-        <f t="shared" ref="V17:Z17" si="20">SUM(V14:V16)</f>
+        <f t="shared" ref="V17:Z17" si="21">SUM(V14:V16)</f>
         <v>22353.8</v>
       </c>
       <c r="W17" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>19963</v>
       </c>
       <c r="X17" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>20442.8</v>
       </c>
       <c r="Y17" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>26168.800000000003</v>
       </c>
       <c r="Z17" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>31295.319999999996</v>
-      </c>
-      <c r="AF17" s="6">
-        <f>SUM(AF14:AF16)</f>
-        <v>20821</v>
-      </c>
-      <c r="AG17" s="6">
-        <f>SUM(AG14:AG16)</f>
-        <v>27236</v>
       </c>
       <c r="AH17" s="6">
         <f>SUM(AH14:AH16)</f>
-        <v>47232</v>
+        <v>20821</v>
       </c>
       <c r="AI17" s="6">
         <f>SUM(AI14:AI16)</f>
-        <v>72508.800000000003</v>
+        <v>27236</v>
       </c>
       <c r="AJ17" s="6">
         <f>SUM(AJ14:AJ16)</f>
+        <v>47232</v>
+      </c>
+      <c r="AK17" s="6">
+        <f>SUM(AK14:AK16)</f>
+        <v>72508.800000000003</v>
+      </c>
+      <c r="AL17" s="6">
+        <f>SUM(AL14:AL16)</f>
         <v>97869.92</v>
-      </c>
-      <c r="AK17" s="6">
-        <f>AK14+AK15+AK16</f>
-        <v>137686.03371137218</v>
-      </c>
-      <c r="AL17" s="6">
-        <f>AL14+AL15+AL16</f>
-        <v>184361.59913952733</v>
       </c>
       <c r="AM17" s="6">
         <f>AM14+AM15+AM16</f>
-        <v>237365.55889214142</v>
+        <v>137686.03371137218</v>
       </c>
       <c r="AN17" s="6">
         <f>AN14+AN15+AN16</f>
-        <v>293383.83079068683</v>
+        <v>184361.59913952733</v>
       </c>
       <c r="AO17" s="6">
         <f>AO14+AO15+AO16</f>
+        <v>237365.55889214142</v>
+      </c>
+      <c r="AP17" s="6">
+        <f>AP14+AP15+AP16</f>
+        <v>293383.83079068683</v>
+      </c>
+      <c r="AQ17" s="6">
+        <f>AQ14+AQ15+AQ16</f>
         <v>362622.41485728888</v>
       </c>
-      <c r="AP17" s="6">
-        <f t="shared" ref="AP17:AQ17" si="21">AP14+AP15+AP16</f>
+      <c r="AR17" s="6">
+        <f t="shared" ref="AR17:AS17" si="22">AR14+AR15+AR16</f>
         <v>429526.25039845874</v>
       </c>
-      <c r="AQ17" s="6">
-        <f t="shared" si="21"/>
+      <c r="AS17" s="6">
+        <f t="shared" si="22"/>
         <v>486653.24170145381</v>
       </c>
     </row>
-    <row r="18" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>36</v>
       </c>
@@ -2551,46 +2557,55 @@
         <v>1117</v>
       </c>
       <c r="V18" s="5">
-        <f t="shared" ref="V18:V19" si="22">+R18*1.4</f>
+        <f t="shared" ref="V18:V19" si="23">+R18*1.4</f>
         <v>963.19999999999993</v>
       </c>
       <c r="W18" s="5">
         <v>1529</v>
       </c>
       <c r="X18" s="5">
-        <f t="shared" ref="X18:X19" si="23">+T18*1.4</f>
+        <f t="shared" ref="X18:X19" si="24">+T18*1.4</f>
         <v>1212.3999999999999</v>
       </c>
       <c r="Y18" s="5">
-        <f t="shared" ref="Y18:Y19" si="24">+U18*1.4</f>
+        <f t="shared" ref="Y18:Y19" si="25">+U18*1.4</f>
         <v>1563.8</v>
       </c>
       <c r="Z18" s="5">
-        <f t="shared" ref="Z18:Z19" si="25">+V18*1.4</f>
+        <f t="shared" ref="Z18:Z19" si="26">+V18*1.4</f>
         <v>1348.4799999999998</v>
       </c>
-      <c r="AF18" s="4">
-        <f t="shared" si="8"/>
+      <c r="AB18" s="4">
+        <v>1921.877</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>3007.0120000000002</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>3740.973</v>
+      </c>
+      <c r="AH18" s="4">
+        <f t="shared" si="9"/>
         <v>1531</v>
       </c>
-      <c r="AG18" s="4">
+      <c r="AI18" s="4">
         <f>SUM(K18:N18)</f>
         <v>1994</v>
       </c>
-      <c r="AH18" s="4">
+      <c r="AJ18" s="4">
         <f>SUM(O18:R18)</f>
         <v>2789</v>
       </c>
-      <c r="AI18" s="4">
-        <f t="shared" si="12"/>
+      <c r="AK18" s="4">
+        <f t="shared" si="13"/>
         <v>3562.2</v>
       </c>
-      <c r="AJ18" s="4">
-        <f t="shared" si="13"/>
+      <c r="AL18" s="4">
+        <f t="shared" si="14"/>
         <v>5653.6799999999994</v>
       </c>
     </row>
-    <row r="19" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>37</v>
       </c>
@@ -2644,46 +2659,55 @@
         <v>1645</v>
       </c>
       <c r="V19" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1489.6</v>
       </c>
       <c r="W19" s="5">
         <v>1837</v>
       </c>
       <c r="X19" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2052.4</v>
       </c>
       <c r="Y19" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2303</v>
       </c>
       <c r="Z19" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2085.4399999999996</v>
       </c>
-      <c r="AF19" s="4">
-        <f t="shared" si="8"/>
+      <c r="AB19" s="4">
+        <v>91.619</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>191.34399999999999</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>305.05200000000002</v>
+      </c>
+      <c r="AH19" s="4">
+        <f t="shared" si="9"/>
         <v>2226</v>
       </c>
-      <c r="AG19" s="4">
+      <c r="AI19" s="4">
         <f>SUM(K19:N19)</f>
         <v>2306</v>
       </c>
-      <c r="AH19" s="4">
-        <f t="shared" si="11"/>
+      <c r="AJ19" s="4">
+        <f t="shared" si="12"/>
         <v>3802</v>
       </c>
-      <c r="AI19" s="4">
-        <f t="shared" si="12"/>
+      <c r="AK19" s="4">
+        <f t="shared" si="13"/>
         <v>5879.6</v>
       </c>
-      <c r="AJ19" s="4">
-        <f t="shared" si="13"/>
+      <c r="AL19" s="4">
+        <f t="shared" si="14"/>
         <v>8277.84</v>
       </c>
     </row>
-    <row r="20" spans="2:43" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:45" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
         <v>38</v>
       </c>
@@ -2692,51 +2716,51 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7">
-        <f t="shared" ref="G20:K20" si="26">SUM(G17:G19)</f>
+        <f t="shared" ref="G20:K20" si="27">SUM(G17:G19)</f>
         <v>4541</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6350</v>
       </c>
       <c r="I20" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6303</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7384</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5985</v>
       </c>
       <c r="L20" s="7">
-        <f t="shared" ref="L20" si="27">SUM(L17:L19)</f>
+        <f t="shared" ref="L20" si="28">SUM(L17:L19)</f>
         <v>6036</v>
       </c>
       <c r="M20" s="7">
-        <f t="shared" ref="M20:R20" si="28">SUM(M17:M19)</f>
+        <f t="shared" ref="M20:R20" si="29">SUM(M17:M19)</f>
         <v>8771</v>
       </c>
       <c r="N20" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>10744</v>
       </c>
       <c r="O20" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>10389</v>
       </c>
       <c r="P20" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>11958</v>
       </c>
       <c r="Q20" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>13757</v>
       </c>
       <c r="R20" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>17719</v>
       </c>
       <c r="S20" s="7">
@@ -2752,75 +2776,96 @@
         <v>21454</v>
       </c>
       <c r="V20" s="7">
-        <f t="shared" ref="V20:Z20" si="29">SUM(V17:V19)</f>
+        <f t="shared" ref="V20:Z20" si="30">SUM(V17:V19)</f>
         <v>24806.6</v>
       </c>
       <c r="W20" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>23329</v>
       </c>
       <c r="X20" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>23707.600000000002</v>
       </c>
       <c r="Y20" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>30035.600000000002</v>
       </c>
       <c r="Z20" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>34729.24</v>
       </c>
+      <c r="AB20" s="6">
+        <f>AB18+AB19</f>
+        <v>2013.4959999999999</v>
+      </c>
+      <c r="AC20" s="6">
+        <f>AC18+AC19</f>
+        <v>3198.3560000000002</v>
+      </c>
+      <c r="AD20" s="6">
+        <f>AD18+AD19</f>
+        <v>4046.0250000000001</v>
+      </c>
+      <c r="AE20" s="6">
+        <v>7000.1319999999996</v>
+      </c>
       <c r="AF20" s="6">
-        <f>SUM(AF17:AF19)</f>
+        <v>11758.751</v>
+      </c>
+      <c r="AG20" s="6">
+        <v>21461.268</v>
+      </c>
+      <c r="AH20" s="6">
+        <f t="shared" ref="AH20:AQ20" si="31">SUM(AH17:AH19)</f>
         <v>24578</v>
       </c>
-      <c r="AG20" s="6">
-        <f>SUM(AG17:AG19)</f>
+      <c r="AI20" s="6">
+        <f t="shared" si="31"/>
         <v>31536</v>
       </c>
-      <c r="AH20" s="6">
-        <f>SUM(AH17:AH19)</f>
+      <c r="AJ20" s="6">
+        <f t="shared" si="31"/>
         <v>53823</v>
       </c>
-      <c r="AI20" s="6">
-        <f>SUM(AI17:AI19)</f>
+      <c r="AK20" s="6">
+        <f t="shared" si="31"/>
         <v>81950.600000000006</v>
       </c>
-      <c r="AJ20" s="6">
-        <f>SUM(AJ17:AJ19)</f>
+      <c r="AL20" s="6">
+        <f t="shared" si="31"/>
         <v>111801.43999999999</v>
       </c>
-      <c r="AK20" s="6">
-        <f>SUM(AK17:AK19)</f>
+      <c r="AM20" s="6">
+        <f t="shared" si="31"/>
         <v>137686.03371137218</v>
       </c>
-      <c r="AL20" s="6">
-        <f>SUM(AL17:AL19)</f>
+      <c r="AN20" s="6">
+        <f t="shared" si="31"/>
         <v>184361.59913952733</v>
       </c>
-      <c r="AM20" s="6">
-        <f>SUM(AM17:AM19)</f>
+      <c r="AO20" s="6">
+        <f t="shared" si="31"/>
         <v>237365.55889214142</v>
       </c>
-      <c r="AN20" s="6">
-        <f>SUM(AN17:AN19)</f>
+      <c r="AP20" s="6">
+        <f t="shared" si="31"/>
         <v>293383.83079068683</v>
       </c>
-      <c r="AO20" s="6">
-        <f>SUM(AO17:AO19)</f>
+      <c r="AQ20" s="6">
+        <f t="shared" si="31"/>
         <v>362622.41485728888</v>
       </c>
-      <c r="AP20" s="6">
-        <f t="shared" ref="AP20:AQ20" si="30">SUM(AP17:AP19)</f>
+      <c r="AR20" s="6">
+        <f t="shared" ref="AR20:AS20" si="32">SUM(AR17:AR19)</f>
         <v>429526.25039845874</v>
       </c>
-      <c r="AQ20" s="6">
-        <f t="shared" si="30"/>
+      <c r="AS20" s="6">
+        <f t="shared" si="32"/>
         <v>486653.24170145381</v>
       </c>
     </row>
-    <row r="21" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>39</v>
       </c>
@@ -2880,55 +2925,58 @@
         <v>15422</v>
       </c>
       <c r="X21" s="5">
-        <f t="shared" ref="W21:Z21" si="31">+X14*0.75</f>
+        <f t="shared" ref="X21:Z21" si="33">+X14*0.75</f>
         <v>14353.5</v>
       </c>
       <c r="Y21" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>18674.25</v>
       </c>
       <c r="Z21" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>22086.749999999996</v>
       </c>
-      <c r="AI21" s="4">
-        <f t="shared" si="12"/>
+      <c r="AB21" s="4">
+        <v>1483.3209999999999</v>
+      </c>
+      <c r="AK21" s="4">
+        <f t="shared" si="13"/>
         <v>49599</v>
       </c>
-      <c r="AJ21" s="4">
-        <f t="shared" si="13"/>
+      <c r="AL21" s="4">
+        <f t="shared" si="14"/>
         <v>70536.5</v>
       </c>
-      <c r="AK21" s="4">
-        <f>AK20*0.81</f>
+      <c r="AM21" s="4">
+        <f>AM20*0.81</f>
         <v>111525.68730621148</v>
-      </c>
-      <c r="AL21" s="4">
-        <f>AL20*0.8</f>
-        <v>147489.27931162188</v>
-      </c>
-      <c r="AM21" s="4">
-        <f>AM20*0.8</f>
-        <v>189892.44711371313</v>
       </c>
       <c r="AN21" s="4">
         <f>AN20*0.8</f>
-        <v>234707.06463254947</v>
+        <v>147489.27931162188</v>
       </c>
       <c r="AO21" s="4">
         <f>AO20*0.8</f>
+        <v>189892.44711371313</v>
+      </c>
+      <c r="AP21" s="4">
+        <f>AP20*0.8</f>
+        <v>234707.06463254947</v>
+      </c>
+      <c r="AQ21" s="4">
+        <f>AQ20*0.8</f>
         <v>290097.93188583112</v>
       </c>
-      <c r="AP21" s="4">
-        <f t="shared" ref="AP21:AQ21" si="32">AP20*0.8</f>
+      <c r="AR21" s="4">
+        <f t="shared" ref="AR21:AS21" si="34">AR20*0.8</f>
         <v>343621.00031876704</v>
       </c>
-      <c r="AQ21" s="4">
-        <f t="shared" si="32"/>
+      <c r="AS21" s="4">
+        <f t="shared" si="34"/>
         <v>389322.59336116305</v>
       </c>
     </row>
-    <row r="22" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
@@ -2937,51 +2985,51 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5">
-        <f t="shared" ref="G22:N22" si="33">G14-G21</f>
+        <f t="shared" ref="G22:N22" si="35">G14-G21</f>
         <v>653</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>914</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1118</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1328</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1194</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1197</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1985</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1711</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" ref="O22:R22" si="34">O14-O21</f>
+        <f t="shared" ref="O22:R22" si="36">O14-O21</f>
         <v>1730</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2401</v>
       </c>
       <c r="Q22" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3243</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4336</v>
       </c>
       <c r="S22" s="5">
@@ -2997,7 +3045,7 @@
         <v>4686</v>
       </c>
       <c r="V22" s="5">
-        <f t="shared" ref="V22:Z22" si="35">V14-V21</f>
+        <f t="shared" ref="V22:Z22" si="37">V14-V21</f>
         <v>5602</v>
       </c>
       <c r="W22" s="5">
@@ -3005,27 +3053,27 @@
         <v>3456</v>
       </c>
       <c r="X22" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4784.5</v>
       </c>
       <c r="Y22" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6224.75</v>
       </c>
       <c r="Z22" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>7362.25</v>
       </c>
-      <c r="AI22" s="4">
-        <f t="shared" si="12"/>
+      <c r="AK22" s="4">
+        <f t="shared" si="13"/>
         <v>18405</v>
       </c>
-      <c r="AJ22" s="4">
-        <f t="shared" si="13"/>
+      <c r="AL22" s="4">
+        <f t="shared" si="14"/>
         <v>21827.5</v>
       </c>
     </row>
-    <row r="23" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="31" t="s">
         <v>117</v>
       </c>
@@ -3053,36 +3101,36 @@
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
-      <c r="AK23" s="4">
-        <f>AK13*0.2</f>
+      <c r="AM23" s="4">
+        <f>AM13*0.2</f>
         <v>721.10019150000016</v>
       </c>
-      <c r="AL23" s="4">
-        <f t="shared" ref="AL23:AQ23" si="36">AL13*0.2</f>
+      <c r="AN23" s="4">
+        <f t="shared" ref="AN23:AS23" si="38">AN13*0.2</f>
         <v>1874.8604979000004</v>
       </c>
-      <c r="AM23" s="4">
-        <f t="shared" si="36"/>
+      <c r="AO23" s="4">
+        <f t="shared" si="38"/>
         <v>3515.3634335625002</v>
       </c>
-      <c r="AN23" s="4">
-        <f t="shared" si="36"/>
+      <c r="AP23" s="4">
+        <f t="shared" si="38"/>
         <v>5624.5814937000023</v>
       </c>
-      <c r="AO23" s="4">
-        <f t="shared" si="36"/>
+      <c r="AQ23" s="4">
+        <f t="shared" si="38"/>
         <v>8436.8722405500012</v>
       </c>
-      <c r="AP23" s="4">
-        <f t="shared" si="36"/>
+      <c r="AR23" s="4">
+        <f t="shared" si="38"/>
         <v>11642.883691959001</v>
       </c>
-      <c r="AQ23" s="4">
-        <f t="shared" si="36"/>
+      <c r="AS23" s="4">
+        <f t="shared" si="38"/>
         <v>14941.700738014051</v>
       </c>
     </row>
-    <row r="24" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>41</v>
       </c>
@@ -3142,27 +3190,27 @@
         <v>333</v>
       </c>
       <c r="X24" s="5">
-        <f t="shared" ref="W24:Z24" si="37">+T24*1.4</f>
+        <f t="shared" ref="X24:Z24" si="39">+T24*1.4</f>
         <v>516.6</v>
       </c>
       <c r="Y24" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>533.4</v>
       </c>
       <c r="Z24" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>492.79999999999995</v>
       </c>
-      <c r="AI24" s="4">
-        <f t="shared" si="12"/>
+      <c r="AK24" s="4">
+        <f t="shared" si="13"/>
         <v>1510</v>
       </c>
-      <c r="AJ24" s="4">
-        <f t="shared" si="13"/>
+      <c r="AL24" s="4">
+        <f t="shared" si="14"/>
         <v>1875.8</v>
       </c>
     </row>
-    <row r="25" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>42</v>
       </c>
@@ -3171,35 +3219,35 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5">
-        <f t="shared" ref="G25:K25" si="38">G17-G24-G21</f>
+        <f t="shared" ref="G25:K25" si="40">G17-G24-G21</f>
         <v>751</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1016</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1222</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1434</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1311</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" ref="L25" si="39">L17-L24-L21</f>
+        <f t="shared" ref="L25" si="41">L17-L24-L21</f>
         <v>1317</v>
       </c>
       <c r="M25" s="5">
-        <f t="shared" ref="M25:N25" si="40">M17-M24-M21</f>
+        <f t="shared" ref="M25:N25" si="42">M17-M24-M21</f>
         <v>2105</v>
       </c>
       <c r="N25" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>2244</v>
       </c>
       <c r="O25" s="5">
@@ -3207,19 +3255,19 @@
         <v>2385</v>
       </c>
       <c r="P25" s="5">
-        <f t="shared" ref="P25:S25" si="41">P17-P24-P21</f>
+        <f t="shared" ref="P25:S25" si="43">P17-P24-P21</f>
         <v>2899</v>
       </c>
       <c r="Q25" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>3673</v>
       </c>
       <c r="R25" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>4882</v>
       </c>
       <c r="S25" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5539</v>
       </c>
       <c r="T25" s="5">
@@ -3231,7 +3279,7 @@
         <v>5212</v>
       </c>
       <c r="V25" s="5">
-        <f t="shared" ref="V25:Z25" si="42">V17-V24-V21</f>
+        <f t="shared" ref="V25:Z25" si="44">V17-V24-V21</f>
         <v>6568.7999999999993</v>
       </c>
       <c r="W25" s="5">
@@ -3239,55 +3287,55 @@
         <v>4208</v>
       </c>
       <c r="X25" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5572.7000000000007</v>
       </c>
       <c r="Y25" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>6961.1500000000015</v>
       </c>
       <c r="Z25" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>8715.77</v>
       </c>
-      <c r="AI25" s="4">
-        <f t="shared" si="12"/>
+      <c r="AK25" s="4">
+        <f t="shared" si="13"/>
         <v>21399.8</v>
       </c>
-      <c r="AJ25" s="4">
+      <c r="AL25" s="4">
         <f>SUM(W25:Z25)</f>
         <v>25457.620000000003</v>
       </c>
-      <c r="AK25" s="4">
-        <f>AK20-AK21</f>
+      <c r="AM25" s="4">
+        <f t="shared" ref="AM25:AS25" si="45">AM20-AM21</f>
         <v>26160.346405160701</v>
       </c>
-      <c r="AL25" s="4">
-        <f>AL20-AL21</f>
+      <c r="AN25" s="4">
+        <f t="shared" si="45"/>
         <v>36872.319827905449</v>
       </c>
-      <c r="AM25" s="4">
-        <f>AM20-AM21</f>
+      <c r="AO25" s="4">
+        <f t="shared" si="45"/>
         <v>47473.111778428283</v>
       </c>
-      <c r="AN25" s="4">
-        <f>AN20-AN21</f>
+      <c r="AP25" s="4">
+        <f t="shared" si="45"/>
         <v>58676.766158137354</v>
       </c>
-      <c r="AO25" s="4">
-        <f>AO20-AO21</f>
+      <c r="AQ25" s="4">
+        <f t="shared" si="45"/>
         <v>72524.482971457765</v>
       </c>
-      <c r="AP25" s="4">
-        <f>AP20-AP21</f>
+      <c r="AR25" s="4">
+        <f t="shared" si="45"/>
         <v>85905.250079691701</v>
       </c>
-      <c r="AQ25" s="4">
-        <f>AQ20-AQ21</f>
+      <c r="AS25" s="4">
+        <f t="shared" si="45"/>
         <v>97330.648340290762</v>
       </c>
     </row>
-    <row r="26" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>43</v>
       </c>
@@ -3347,27 +3395,27 @@
         <v>1361</v>
       </c>
       <c r="X26" s="5">
-        <f t="shared" ref="X26:X27" si="43">+T26*1.4</f>
+        <f t="shared" ref="X26:X27" si="46">+T26*1.4</f>
         <v>1076.5999999999999</v>
       </c>
       <c r="Y26" s="5">
-        <f t="shared" ref="Y26:Y27" si="44">+U26*1.4</f>
+        <f t="shared" ref="Y26:Y27" si="47">+U26*1.4</f>
         <v>1418.1999999999998</v>
       </c>
       <c r="Z26" s="5">
-        <f t="shared" ref="Z26:Z27" si="45">+V26*1.4</f>
+        <f t="shared" ref="Z26:Z27" si="48">+V26*1.4</f>
         <v>1611.3999999999999</v>
       </c>
-      <c r="AI26" s="4">
-        <f t="shared" si="12"/>
+      <c r="AK26" s="4">
+        <f t="shared" si="13"/>
         <v>3621</v>
       </c>
-      <c r="AJ26" s="4">
-        <f t="shared" si="13"/>
+      <c r="AL26" s="4">
+        <f t="shared" si="14"/>
         <v>5467.2</v>
       </c>
     </row>
-    <row r="27" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>44</v>
       </c>
@@ -3427,27 +3475,27 @@
         <v>1702</v>
       </c>
       <c r="X27" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>1973.9999999999998</v>
       </c>
       <c r="Y27" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>2210.6</v>
       </c>
       <c r="Z27" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>2247</v>
       </c>
-      <c r="AI27" s="4">
-        <f t="shared" si="12"/>
+      <c r="AK27" s="4">
+        <f t="shared" si="13"/>
         <v>5880</v>
       </c>
-      <c r="AJ27" s="4">
-        <f t="shared" si="13"/>
+      <c r="AL27" s="4">
+        <f t="shared" si="14"/>
         <v>8133.6</v>
       </c>
     </row>
-    <row r="28" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>45</v>
       </c>
@@ -3456,59 +3504,59 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5">
-        <f t="shared" ref="G28:K28" si="46">G25+G18+G19-G26-G27</f>
+        <f t="shared" ref="G28:K28" si="49">G25+G18+G19-G26-G27</f>
         <v>566</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>921</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>1191</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>1391</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>1234</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" ref="L28" si="47">L25+L18+L19-L26-L27</f>
+        <f t="shared" ref="L28" si="50">L25+L18+L19-L26-L27</f>
         <v>1267</v>
       </c>
       <c r="M28" s="5">
-        <f t="shared" ref="M28:T28" si="48">M25+M18+M19-M26-M27</f>
+        <f t="shared" ref="M28:T28" si="51">M25+M18+M19-M26-M27</f>
         <v>2063</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>2066</v>
       </c>
       <c r="O28" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>2215</v>
       </c>
       <c r="P28" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>2884</v>
       </c>
       <c r="Q28" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>3660</v>
       </c>
       <c r="R28" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>4847</v>
       </c>
       <c r="S28" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>5460</v>
       </c>
       <c r="T28" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>4233</v>
       </c>
       <c r="U28" s="5">
@@ -3524,55 +3572,55 @@
         <v>4511</v>
       </c>
       <c r="X28" s="5">
-        <f t="shared" ref="W28:Z28" si="49">+X20*0.25</f>
+        <f t="shared" ref="X28:Z28" si="52">+X20*0.25</f>
         <v>5926.9000000000005</v>
       </c>
       <c r="Y28" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>7508.9000000000005</v>
       </c>
       <c r="Z28" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>8682.31</v>
       </c>
-      <c r="AI28" s="5">
-        <f t="shared" ref="AI28" si="50">+AI20*0.25</f>
+      <c r="AK28" s="5">
+        <f t="shared" ref="AK28" si="53">+AK20*0.25</f>
         <v>20487.650000000001</v>
       </c>
-      <c r="AJ28" s="4">
-        <f t="shared" si="13"/>
+      <c r="AL28" s="4">
+        <f t="shared" si="14"/>
         <v>26629.11</v>
       </c>
-      <c r="AK28" s="4">
-        <f>AK25+AK13-AK23</f>
+      <c r="AM28" s="4">
+        <f>AM25+AM13-AM23</f>
         <v>29044.7471711607</v>
       </c>
-      <c r="AL28" s="4">
-        <f t="shared" ref="AL28:AQ28" si="51">AL25+AL13-AL23</f>
+      <c r="AN28" s="4">
+        <f t="shared" ref="AN28:AS28" si="54">AN25+AN13-AN23</f>
         <v>44371.761819505446</v>
       </c>
-      <c r="AM28" s="4">
-        <f t="shared" si="51"/>
+      <c r="AO28" s="4">
+        <f t="shared" si="54"/>
         <v>61534.56551267828</v>
       </c>
-      <c r="AN28" s="4">
-        <f t="shared" si="51"/>
+      <c r="AP28" s="4">
+        <f t="shared" si="54"/>
         <v>81175.092132937367</v>
       </c>
-      <c r="AO28" s="4">
-        <f t="shared" si="51"/>
+      <c r="AQ28" s="4">
+        <f t="shared" si="54"/>
         <v>106271.97193365777</v>
       </c>
-      <c r="AP28" s="4">
-        <f t="shared" si="51"/>
+      <c r="AR28" s="4">
+        <f t="shared" si="54"/>
         <v>132476.78484752771</v>
       </c>
-      <c r="AQ28" s="4">
-        <f t="shared" si="51"/>
+      <c r="AS28" s="4">
+        <f t="shared" si="54"/>
         <v>157097.45129234696</v>
       </c>
     </row>
-    <row r="29" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>46</v>
       </c>
@@ -3632,55 +3680,55 @@
         <v>771</v>
       </c>
       <c r="X29" s="5">
-        <f t="shared" ref="X29" si="52">+T29*1.3</f>
+        <f t="shared" ref="X29" si="55">+T29*1.3</f>
         <v>867.1</v>
       </c>
       <c r="Y29" s="5">
-        <f t="shared" ref="Y29" si="53">+U29*1.3</f>
+        <f t="shared" ref="Y29" si="56">+U29*1.3</f>
         <v>952.9</v>
       </c>
       <c r="Z29" s="5">
-        <f t="shared" ref="Z29" si="54">+V29*1.3</f>
+        <f t="shared" ref="Z29" si="57">+V29*1.3</f>
         <v>1053</v>
       </c>
-      <c r="AI29" s="4">
-        <f t="shared" si="12"/>
+      <c r="AK29" s="4">
+        <f t="shared" si="13"/>
         <v>3075</v>
       </c>
-      <c r="AJ29" s="4">
+      <c r="AL29" s="4">
         <f>SUM(W29:Z29)</f>
         <v>3644</v>
       </c>
-      <c r="AK29" s="4">
-        <f t="shared" ref="AK29:AO29" si="55">AJ29*1.02</f>
+      <c r="AM29" s="4">
+        <f t="shared" ref="AM29:AQ29" si="58">AL29*1.02</f>
         <v>3716.88</v>
       </c>
-      <c r="AL29" s="4">
-        <f t="shared" si="55"/>
+      <c r="AN29" s="4">
+        <f t="shared" si="58"/>
         <v>3791.2176000000004</v>
       </c>
-      <c r="AM29" s="4">
-        <f t="shared" si="55"/>
+      <c r="AO29" s="4">
+        <f t="shared" si="58"/>
         <v>3867.0419520000005</v>
       </c>
-      <c r="AN29" s="4">
-        <f t="shared" si="55"/>
+      <c r="AP29" s="4">
+        <f t="shared" si="58"/>
         <v>3944.3827910400005</v>
       </c>
-      <c r="AO29" s="4">
-        <f t="shared" si="55"/>
+      <c r="AQ29" s="4">
+        <f t="shared" si="58"/>
         <v>4023.2704468608003</v>
       </c>
-      <c r="AP29" s="4">
-        <f t="shared" ref="AP29:AQ29" si="56">AO29*1.02</f>
+      <c r="AR29" s="4">
+        <f t="shared" ref="AR29:AS29" si="59">AQ29*1.02</f>
         <v>4103.735855798016</v>
       </c>
-      <c r="AQ29" s="4">
-        <f t="shared" si="56"/>
+      <c r="AS29" s="4">
+        <f t="shared" si="59"/>
         <v>4185.8105729139761</v>
       </c>
     </row>
-    <row r="30" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
@@ -3741,55 +3789,55 @@
         <v>1076</v>
       </c>
       <c r="X30" s="5">
-        <f t="shared" ref="W30:Z30" si="57">+T30*1.2</f>
+        <f t="shared" ref="X30:Z30" si="60">+T30*1.2</f>
         <v>1153.2</v>
       </c>
       <c r="Y30" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>1153.2</v>
       </c>
       <c r="Z30" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>2151.3599999999997</v>
       </c>
-      <c r="AI30" s="4">
-        <f t="shared" si="12"/>
+      <c r="AK30" s="4">
+        <f t="shared" si="13"/>
         <v>4706.8</v>
       </c>
-      <c r="AJ30" s="4">
-        <f t="shared" si="13"/>
+      <c r="AL30" s="4">
+        <f t="shared" si="14"/>
         <v>5533.7599999999993</v>
       </c>
-      <c r="AK30" s="4">
-        <f>AJ30*1.02</f>
+      <c r="AM30" s="4">
+        <f>AL30*1.02</f>
         <v>5644.435199999999</v>
       </c>
-      <c r="AL30" s="4">
-        <f t="shared" ref="AL30:AO30" si="58">AK30*1.02</f>
+      <c r="AN30" s="4">
+        <f t="shared" ref="AN30:AQ30" si="61">AM30*1.02</f>
         <v>5757.3239039999989</v>
       </c>
-      <c r="AM30" s="4">
-        <f t="shared" si="58"/>
+      <c r="AO30" s="4">
+        <f t="shared" si="61"/>
         <v>5872.4703820799987</v>
       </c>
-      <c r="AN30" s="4">
-        <f t="shared" si="58"/>
+      <c r="AP30" s="4">
+        <f t="shared" si="61"/>
         <v>5989.919789721599</v>
       </c>
-      <c r="AO30" s="4">
-        <f t="shared" si="58"/>
+      <c r="AQ30" s="4">
+        <f t="shared" si="61"/>
         <v>6109.7181855160316</v>
       </c>
-      <c r="AP30" s="4">
-        <f t="shared" ref="AP30:AQ30" si="59">AO30*1.02</f>
+      <c r="AR30" s="4">
+        <f t="shared" ref="AR30:AS30" si="62">AQ30*1.02</f>
         <v>6231.912549226352</v>
       </c>
-      <c r="AQ30" s="4">
-        <f t="shared" si="59"/>
+      <c r="AS30" s="4">
+        <f t="shared" si="62"/>
         <v>6356.5508002108791</v>
       </c>
     </row>
-    <row r="31" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>48</v>
       </c>
@@ -3798,51 +3846,51 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5">
-        <f t="shared" ref="G31" si="60">G29+G30</f>
+        <f t="shared" ref="G31" si="63">G29+G30</f>
         <v>1044</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" ref="H31:I31" si="61">H29+H30</f>
+        <f t="shared" ref="H31:I31" si="64">H29+H30</f>
         <v>971</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>930</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" ref="J31:L31" si="62">J29+J30</f>
+        <f t="shared" ref="J31:L31" si="65">J29+J30</f>
         <v>1044</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>951</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>940</v>
       </c>
       <c r="M31" s="5">
-        <f t="shared" ref="M31:N31" si="63">M29+M30</f>
+        <f t="shared" ref="M31:N31" si="66">M29+M30</f>
         <v>1254</v>
       </c>
       <c r="N31" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>1491</v>
       </c>
       <c r="O31" s="5">
-        <f t="shared" ref="O31:R31" si="64">O29+O30</f>
+        <f t="shared" ref="O31:R31" si="67">O29+O30</f>
         <v>1722</v>
       </c>
       <c r="P31" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>1549</v>
       </c>
       <c r="Q31" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>1605</v>
       </c>
       <c r="R31" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>2234</v>
       </c>
       <c r="S31" s="5">
@@ -3858,7 +3906,7 @@
         <v>1694</v>
       </c>
       <c r="V31" s="5">
-        <f t="shared" ref="V31:Z31" si="65">V29+V30</f>
+        <f t="shared" ref="V31:Z31" si="68">V29+V30</f>
         <v>2602.8000000000002</v>
       </c>
       <c r="W31" s="5">
@@ -3866,55 +3914,55 @@
         <v>1847</v>
       </c>
       <c r="X31" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>2020.3000000000002</v>
       </c>
       <c r="Y31" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>2106.1</v>
       </c>
       <c r="Z31" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>3204.3599999999997</v>
       </c>
-      <c r="AI31" s="4">
-        <f t="shared" ref="AI31" si="66">+AI29+AI30</f>
+      <c r="AK31" s="4">
+        <f t="shared" ref="AK31" si="69">+AK29+AK30</f>
         <v>7781.8</v>
       </c>
-      <c r="AJ31" s="4">
-        <f>+AJ29+AJ30</f>
+      <c r="AL31" s="4">
+        <f>+AL29+AL30</f>
         <v>9177.7599999999984</v>
       </c>
-      <c r="AK31" s="4">
-        <f t="shared" ref="AK31:AO31" si="67">+AK29+AK30</f>
+      <c r="AM31" s="4">
+        <f t="shared" ref="AM31:AQ31" si="70">+AM29+AM30</f>
         <v>9361.3151999999991</v>
       </c>
-      <c r="AL31" s="4">
-        <f t="shared" si="67"/>
+      <c r="AN31" s="4">
+        <f t="shared" si="70"/>
         <v>9548.5415039999989</v>
       </c>
-      <c r="AM31" s="4">
-        <f t="shared" si="67"/>
+      <c r="AO31" s="4">
+        <f t="shared" si="70"/>
         <v>9739.5123340799983</v>
       </c>
-      <c r="AN31" s="4">
-        <f t="shared" si="67"/>
+      <c r="AP31" s="4">
+        <f t="shared" si="70"/>
         <v>9934.3025807615995</v>
       </c>
-      <c r="AO31" s="4">
-        <f t="shared" si="67"/>
+      <c r="AQ31" s="4">
+        <f t="shared" si="70"/>
         <v>10132.988632376831</v>
       </c>
-      <c r="AP31" s="4">
-        <f t="shared" ref="AP31" si="68">+AP29+AP30</f>
+      <c r="AR31" s="4">
+        <f t="shared" ref="AR31" si="71">+AR29+AR30</f>
         <v>10335.648405024367</v>
       </c>
-      <c r="AQ31" s="4">
-        <f t="shared" ref="AQ31" si="69">+AQ29+AQ30</f>
+      <c r="AS31" s="4">
+        <f t="shared" ref="AS31" si="72">+AS29+AS30</f>
         <v>10542.361373124855</v>
       </c>
     </row>
-    <row r="32" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>49</v>
       </c>
@@ -3923,51 +3971,51 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5">
-        <f t="shared" ref="G32" si="70">G28-G31</f>
+        <f t="shared" ref="G32" si="73">G28-G31</f>
         <v>-478</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" ref="H32:I32" si="71">H28-H31</f>
+        <f t="shared" ref="H32:I32" si="74">H28-H31</f>
         <v>-50</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>261</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" ref="J32:L32" si="72">J28-J31</f>
+        <f t="shared" ref="J32:L32" si="75">J28-J31</f>
         <v>347</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>283</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>327</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" ref="M32:N32" si="73">M28-M31</f>
+        <f t="shared" ref="M32:N32" si="76">M28-M31</f>
         <v>809</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>575</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" ref="O32:R32" si="74">O28-O31</f>
+        <f t="shared" ref="O32:R32" si="77">O28-O31</f>
         <v>493</v>
       </c>
       <c r="P32" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>1335</v>
       </c>
       <c r="Q32" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>2055</v>
       </c>
       <c r="R32" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>2613</v>
       </c>
       <c r="S32" s="5">
@@ -3983,7 +4031,7 @@
         <v>3688</v>
       </c>
       <c r="V32" s="5">
-        <f t="shared" ref="V32:Z32" si="75">V28-V31</f>
+        <f t="shared" ref="V32:Z32" si="78">V28-V31</f>
         <v>3662.7999999999984</v>
       </c>
       <c r="W32" s="5">
@@ -3991,55 +4039,55 @@
         <v>2664</v>
       </c>
       <c r="X32" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>3906.6000000000004</v>
       </c>
       <c r="Y32" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>5402.8000000000011</v>
       </c>
       <c r="Z32" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>5477.95</v>
       </c>
-      <c r="AI32" s="5">
-        <f t="shared" ref="AI32:AJ32" si="76">AI28-AI31</f>
+      <c r="AK32" s="5">
+        <f t="shared" ref="AK32:AL32" si="79">AK28-AK31</f>
         <v>12705.850000000002</v>
       </c>
-      <c r="AJ32" s="5">
-        <f t="shared" si="76"/>
+      <c r="AL32" s="5">
+        <f t="shared" si="79"/>
         <v>17451.350000000002</v>
       </c>
-      <c r="AK32" s="5">
-        <f t="shared" ref="AK32:AO32" si="77">AK28-AK31</f>
+      <c r="AM32" s="5">
+        <f t="shared" ref="AM32:AQ32" si="80">AM28-AM31</f>
         <v>19683.431971160702</v>
       </c>
-      <c r="AL32" s="5">
-        <f t="shared" si="77"/>
+      <c r="AN32" s="5">
+        <f t="shared" si="80"/>
         <v>34823.220315505445</v>
       </c>
-      <c r="AM32" s="5">
-        <f t="shared" si="77"/>
+      <c r="AO32" s="5">
+        <f t="shared" si="80"/>
         <v>51795.053178598282</v>
       </c>
-      <c r="AN32" s="5">
-        <f t="shared" si="77"/>
+      <c r="AP32" s="5">
+        <f t="shared" si="80"/>
         <v>71240.78955217576</v>
       </c>
-      <c r="AO32" s="5">
-        <f t="shared" si="77"/>
+      <c r="AQ32" s="5">
+        <f t="shared" si="80"/>
         <v>96138.983301280939</v>
       </c>
-      <c r="AP32" s="5">
-        <f t="shared" ref="AP32:AQ32" si="78">AP28-AP31</f>
+      <c r="AR32" s="5">
+        <f t="shared" ref="AR32:AS32" si="81">AR28-AR31</f>
         <v>122141.13644250334</v>
       </c>
-      <c r="AQ32" s="5">
-        <f t="shared" si="78"/>
+      <c r="AS32" s="5">
+        <f t="shared" si="81"/>
         <v>146555.08991922211</v>
       </c>
     </row>
-    <row r="33" spans="2:99" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:101" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>50</v>
       </c>
@@ -4118,40 +4166,40 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
-      <c r="AJ33" s="4">
-        <f t="shared" si="13"/>
+      <c r="AL33" s="4">
+        <f t="shared" si="14"/>
         <v>136</v>
       </c>
-      <c r="AK33" s="4">
-        <f>AJ63*$AT$46</f>
+      <c r="AM33" s="4">
+        <f>AL63*$AV$46</f>
         <v>991.03845000000013</v>
       </c>
-      <c r="AL33" s="4">
-        <f t="shared" ref="AL33:AQ33" si="79">AK63*$AT$46</f>
+      <c r="AN33" s="4">
+        <f t="shared" ref="AN33:AS33" si="82">AM63*$AV$46</f>
         <v>1518.2374457395979</v>
       </c>
-      <c r="AM33" s="4">
-        <f t="shared" si="79"/>
+      <c r="AO33" s="4">
+        <f t="shared" si="82"/>
         <v>2444.9446186513469</v>
       </c>
-      <c r="AN33" s="4">
-        <f t="shared" si="79"/>
+      <c r="AP33" s="4">
+        <f t="shared" si="82"/>
         <v>3828.0645624812123</v>
       </c>
-      <c r="AO33" s="4">
-        <f t="shared" si="79"/>
+      <c r="AQ33" s="4">
+        <f t="shared" si="82"/>
         <v>5742.3203424049652</v>
       </c>
-      <c r="AP33" s="4">
-        <f t="shared" si="79"/>
+      <c r="AR33" s="4">
+        <f t="shared" si="82"/>
         <v>8340.2935853189556</v>
       </c>
-      <c r="AQ33" s="4">
-        <f t="shared" si="79"/>
+      <c r="AS33" s="4">
+        <f t="shared" si="82"/>
         <v>11667.570051028424</v>
       </c>
     </row>
-    <row r="34" spans="2:99" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:101" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>51</v>
       </c>
@@ -4160,51 +4208,51 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5">
-        <f t="shared" ref="G34:N34" si="80">G32+G33</f>
+        <f t="shared" ref="G34:N34" si="83">G32+G33</f>
         <v>-601</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>-253</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>176</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>160</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>70</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>150</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>555</v>
       </c>
       <c r="N34" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>379</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" ref="O34:R34" si="81">O32+O33</f>
+        <f t="shared" ref="O34:R34" si="84">O32+O33</f>
         <v>432</v>
       </c>
       <c r="P34" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>1316</v>
       </c>
       <c r="Q34" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>1933</v>
       </c>
       <c r="R34" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>2635</v>
       </c>
       <c r="S34" s="5">
@@ -4220,59 +4268,59 @@
         <v>3636</v>
       </c>
       <c r="V34" s="5">
-        <f t="shared" ref="V34:Z34" si="82">V32+V33</f>
+        <f t="shared" ref="V34:Z34" si="85">V32+V33</f>
         <v>3744.7999999999984</v>
       </c>
       <c r="W34" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>2800</v>
       </c>
       <c r="X34" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>3906.6000000000004</v>
       </c>
       <c r="Y34" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>5402.8000000000011</v>
       </c>
       <c r="Z34" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>5477.95</v>
       </c>
-      <c r="AJ34" s="4">
-        <f>+AJ32+AJ33</f>
+      <c r="AL34" s="4">
+        <f>+AL32+AL33</f>
         <v>17587.350000000002</v>
       </c>
-      <c r="AK34" s="4">
-        <f t="shared" ref="AK34:AO34" si="83">+AK32+AK33</f>
+      <c r="AM34" s="4">
+        <f t="shared" ref="AM34:AQ34" si="86">+AM32+AM33</f>
         <v>20674.470421160702</v>
       </c>
-      <c r="AL34" s="4">
-        <f t="shared" si="83"/>
+      <c r="AN34" s="4">
+        <f t="shared" si="86"/>
         <v>36341.457761245045</v>
       </c>
-      <c r="AM34" s="4">
-        <f t="shared" si="83"/>
+      <c r="AO34" s="4">
+        <f t="shared" si="86"/>
         <v>54239.997797249627</v>
       </c>
-      <c r="AN34" s="4">
-        <f t="shared" si="83"/>
+      <c r="AP34" s="4">
+        <f t="shared" si="86"/>
         <v>75068.854114656977</v>
       </c>
-      <c r="AO34" s="4">
-        <f t="shared" si="83"/>
+      <c r="AQ34" s="4">
+        <f t="shared" si="86"/>
         <v>101881.30364368591</v>
       </c>
-      <c r="AP34" s="4">
-        <f t="shared" ref="AP34" si="84">+AP32+AP33</f>
+      <c r="AR34" s="4">
+        <f t="shared" ref="AR34" si="87">+AR32+AR33</f>
         <v>130481.43002782229</v>
       </c>
-      <c r="AQ34" s="4">
-        <f t="shared" ref="AQ34" si="85">+AQ32+AQ33</f>
+      <c r="AS34" s="4">
+        <f t="shared" ref="AS34" si="88">+AS32+AS33</f>
         <v>158222.65997025053</v>
       </c>
     </row>
-    <row r="35" spans="2:99" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:101" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
         <v>52</v>
       </c>
@@ -4346,51 +4394,51 @@
         <v>261</v>
       </c>
       <c r="X35" s="5">
-        <f t="shared" ref="W35:Z35" si="86">+X34*0.1</f>
+        <f t="shared" ref="X35:Z35" si="89">+X34*0.1</f>
         <v>390.66000000000008</v>
       </c>
       <c r="Y35" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>540.28000000000009</v>
       </c>
       <c r="Z35" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>547.79499999999996</v>
       </c>
-      <c r="AJ35" s="4">
-        <f t="shared" si="13"/>
+      <c r="AL35" s="4">
+        <f t="shared" si="14"/>
         <v>1739.7350000000001</v>
       </c>
-      <c r="AK35" s="4">
-        <f>AK34*0.15</f>
+      <c r="AM35" s="4">
+        <f>AM34*0.15</f>
         <v>3101.1705631741052</v>
       </c>
-      <c r="AL35" s="4">
-        <f t="shared" ref="AL35:AO35" si="87">AL34*0.15</f>
+      <c r="AN35" s="4">
+        <f t="shared" ref="AN35:AQ35" si="90">AN34*0.15</f>
         <v>5451.2186641867565</v>
       </c>
-      <c r="AM35" s="4">
-        <f t="shared" si="87"/>
+      <c r="AO35" s="4">
+        <f t="shared" si="90"/>
         <v>8135.9996695874433</v>
       </c>
-      <c r="AN35" s="4">
-        <f t="shared" si="87"/>
+      <c r="AP35" s="4">
+        <f t="shared" si="90"/>
         <v>11260.328117198545</v>
       </c>
-      <c r="AO35" s="4">
-        <f t="shared" si="87"/>
+      <c r="AQ35" s="4">
+        <f t="shared" si="90"/>
         <v>15282.195546552886</v>
       </c>
-      <c r="AP35" s="4">
-        <f t="shared" ref="AP35" si="88">AP34*0.15</f>
+      <c r="AR35" s="4">
+        <f t="shared" ref="AR35" si="91">AR34*0.15</f>
         <v>19572.214504173342</v>
       </c>
-      <c r="AQ35" s="4">
-        <f t="shared" ref="AQ35" si="89">AQ34*0.15</f>
+      <c r="AS35" s="4">
+        <f t="shared" ref="AS35" si="92">AS34*0.15</f>
         <v>23733.39899553758</v>
       </c>
     </row>
-    <row r="36" spans="2:99" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:101" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>53</v>
       </c>
@@ -4399,51 +4447,51 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5">
-        <f t="shared" ref="G36:N36" si="90">G34-G35</f>
+        <f t="shared" ref="G36:N36" si="93">G34-G35</f>
         <v>-658</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>-291</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>143</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>91</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>16</v>
       </c>
       <c r="L36" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>104</v>
       </c>
       <c r="M36" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>300</v>
       </c>
       <c r="N36" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>270</v>
       </c>
       <c r="O36" s="5">
-        <f t="shared" ref="O36:R36" si="91">O34-O35</f>
+        <f t="shared" ref="O36:R36" si="94">O34-O35</f>
         <v>337</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>1165</v>
       </c>
       <c r="Q36" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>1669</v>
       </c>
       <c r="R36" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>2321</v>
       </c>
       <c r="S36" s="5">
@@ -4459,283 +4507,283 @@
         <v>3331</v>
       </c>
       <c r="V36" s="5">
-        <f t="shared" ref="V36:Z36" si="92">V34-V35</f>
+        <f t="shared" ref="V36:Z36" si="95">V34-V35</f>
         <v>3468.7999999999984</v>
       </c>
       <c r="W36" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>2539</v>
       </c>
       <c r="X36" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>3515.9400000000005</v>
       </c>
       <c r="Y36" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>4862.5200000000013</v>
       </c>
       <c r="Z36" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>4930.1549999999997</v>
       </c>
-      <c r="AJ36" s="4">
-        <f>+AJ34-AJ35</f>
+      <c r="AL36" s="4">
+        <f>+AL34-AL35</f>
         <v>15847.615000000002</v>
       </c>
-      <c r="AK36" s="4">
-        <f t="shared" ref="AK36:AO36" si="93">+AK34-AK35</f>
+      <c r="AM36" s="4">
+        <f t="shared" ref="AM36:AQ36" si="96">+AM34-AM35</f>
         <v>17573.299857986596</v>
       </c>
-      <c r="AL36" s="4">
-        <f t="shared" si="93"/>
+      <c r="AN36" s="4">
+        <f t="shared" si="96"/>
         <v>30890.239097058289</v>
       </c>
-      <c r="AM36" s="4">
-        <f t="shared" si="93"/>
+      <c r="AO36" s="4">
+        <f t="shared" si="96"/>
         <v>46103.998127662184</v>
       </c>
-      <c r="AN36" s="4">
-        <f t="shared" si="93"/>
+      <c r="AP36" s="4">
+        <f t="shared" si="96"/>
         <v>63808.525997458433</v>
       </c>
-      <c r="AO36" s="4">
-        <f t="shared" si="93"/>
+      <c r="AQ36" s="4">
+        <f t="shared" si="96"/>
         <v>86599.108097133023</v>
       </c>
-      <c r="AP36" s="4">
-        <f t="shared" ref="AP36" si="94">+AP34-AP35</f>
+      <c r="AR36" s="4">
+        <f t="shared" ref="AR36" si="97">+AR34-AR35</f>
         <v>110909.21552364895</v>
       </c>
-      <c r="AQ36" s="4">
-        <f t="shared" ref="AQ36" si="95">+AQ34-AQ35</f>
+      <c r="AS36" s="4">
+        <f t="shared" ref="AS36" si="98">+AS34-AS35</f>
         <v>134489.26097471296</v>
       </c>
-      <c r="AR36" s="4">
-        <f>AQ36*(1+$AT$43)</f>
+      <c r="AT36" s="4">
+        <f>AS36*(1+$AV$43)</f>
         <v>133144.36836496583</v>
       </c>
-      <c r="AS36" s="4">
-        <f t="shared" ref="AS36:CU36" si="96">AR36*(1+$AT$43)</f>
+      <c r="AU36" s="4">
+        <f t="shared" ref="AU36:CW36" si="99">AT36*(1+$AV$43)</f>
         <v>131812.92468131619</v>
       </c>
-      <c r="AT36" s="4">
-        <f t="shared" si="96"/>
+      <c r="AV36" s="4">
+        <f t="shared" si="99"/>
         <v>130494.79543450303</v>
       </c>
-      <c r="AU36" s="4">
-        <f t="shared" si="96"/>
+      <c r="AW36" s="4">
+        <f t="shared" si="99"/>
         <v>129189.847480158</v>
       </c>
-      <c r="AV36" s="4">
-        <f t="shared" si="96"/>
+      <c r="AX36" s="4">
+        <f t="shared" si="99"/>
         <v>127897.94900535642</v>
       </c>
-      <c r="AW36" s="4">
-        <f t="shared" si="96"/>
+      <c r="AY36" s="4">
+        <f t="shared" si="99"/>
         <v>126618.96951530286</v>
       </c>
-      <c r="AX36" s="4">
-        <f t="shared" si="96"/>
+      <c r="AZ36" s="4">
+        <f t="shared" si="99"/>
         <v>125352.77982014982</v>
       </c>
-      <c r="AY36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BA36" s="4">
+        <f t="shared" si="99"/>
         <v>124099.25202194833</v>
       </c>
-      <c r="AZ36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BB36" s="4">
+        <f t="shared" si="99"/>
         <v>122858.25950172884</v>
       </c>
-      <c r="BA36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BC36" s="4">
+        <f t="shared" si="99"/>
         <v>121629.67690671155</v>
       </c>
-      <c r="BB36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BD36" s="4">
+        <f t="shared" si="99"/>
         <v>120413.38013764443</v>
       </c>
-      <c r="BC36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BE36" s="4">
+        <f t="shared" si="99"/>
         <v>119209.24633626798</v>
       </c>
-      <c r="BD36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BF36" s="4">
+        <f t="shared" si="99"/>
         <v>118017.1538729053</v>
       </c>
-      <c r="BE36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BG36" s="4">
+        <f t="shared" si="99"/>
         <v>116836.98233417624</v>
       </c>
-      <c r="BF36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BH36" s="4">
+        <f t="shared" si="99"/>
         <v>115668.61251083447</v>
       </c>
-      <c r="BG36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BI36" s="4">
+        <f t="shared" si="99"/>
         <v>114511.92638572612</v>
       </c>
-      <c r="BH36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BJ36" s="4">
+        <f t="shared" si="99"/>
         <v>113366.80712186886</v>
       </c>
-      <c r="BI36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BK36" s="4">
+        <f t="shared" si="99"/>
         <v>112233.13905065016</v>
       </c>
-      <c r="BJ36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BL36" s="4">
+        <f t="shared" si="99"/>
         <v>111110.80766014366</v>
       </c>
-      <c r="BK36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BM36" s="4">
+        <f t="shared" si="99"/>
         <v>109999.69958354223</v>
       </c>
-      <c r="BL36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BN36" s="4">
+        <f t="shared" si="99"/>
         <v>108899.70258770681</v>
       </c>
-      <c r="BM36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BO36" s="4">
+        <f t="shared" si="99"/>
         <v>107810.70556182975</v>
       </c>
-      <c r="BN36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BP36" s="4">
+        <f t="shared" si="99"/>
         <v>106732.59850621145</v>
       </c>
-      <c r="BO36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BQ36" s="4">
+        <f t="shared" si="99"/>
         <v>105665.27252114934</v>
       </c>
-      <c r="BP36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BR36" s="4">
+        <f t="shared" si="99"/>
         <v>104608.61979593785</v>
       </c>
-      <c r="BQ36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BS36" s="4">
+        <f t="shared" si="99"/>
         <v>103562.53359797847</v>
       </c>
-      <c r="BR36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BT36" s="4">
+        <f t="shared" si="99"/>
         <v>102526.90826199869</v>
       </c>
-      <c r="BS36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BU36" s="4">
+        <f t="shared" si="99"/>
         <v>101501.6391793787</v>
       </c>
-      <c r="BT36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BV36" s="4">
+        <f t="shared" si="99"/>
         <v>100486.62278758491</v>
       </c>
-      <c r="BU36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BW36" s="4">
+        <f t="shared" si="99"/>
         <v>99481.756559709058</v>
       </c>
-      <c r="BV36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BX36" s="4">
+        <f t="shared" si="99"/>
         <v>98486.938994111973</v>
       </c>
-      <c r="BW36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BY36" s="4">
+        <f t="shared" si="99"/>
         <v>97502.069604170858</v>
       </c>
-      <c r="BX36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BZ36" s="4">
+        <f t="shared" si="99"/>
         <v>96527.048908129145</v>
       </c>
-      <c r="BY36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CA36" s="4">
+        <f t="shared" si="99"/>
         <v>95561.778419047856</v>
       </c>
-      <c r="BZ36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CB36" s="4">
+        <f t="shared" si="99"/>
         <v>94606.16063485737</v>
       </c>
-      <c r="CA36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CC36" s="4">
+        <f t="shared" si="99"/>
         <v>93660.09902850879</v>
       </c>
-      <c r="CB36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CD36" s="4">
+        <f t="shared" si="99"/>
         <v>92723.498038223697</v>
       </c>
-      <c r="CC36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CE36" s="4">
+        <f t="shared" si="99"/>
         <v>91796.263057841454</v>
       </c>
-      <c r="CD36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CF36" s="4">
+        <f t="shared" si="99"/>
         <v>90878.300427263035</v>
       </c>
-      <c r="CE36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CG36" s="4">
+        <f t="shared" si="99"/>
         <v>89969.517422990408</v>
       </c>
-      <c r="CF36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CH36" s="4">
+        <f t="shared" si="99"/>
         <v>89069.822248760509</v>
       </c>
-      <c r="CG36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CI36" s="4">
+        <f t="shared" si="99"/>
         <v>88179.124026272897</v>
       </c>
-      <c r="CH36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CJ36" s="4">
+        <f t="shared" si="99"/>
         <v>87297.332786010171</v>
       </c>
-      <c r="CI36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CK36" s="4">
+        <f t="shared" si="99"/>
         <v>86424.359458150066</v>
       </c>
-      <c r="CJ36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CL36" s="4">
+        <f t="shared" si="99"/>
         <v>85560.115863568557</v>
       </c>
-      <c r="CK36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CM36" s="4">
+        <f t="shared" si="99"/>
         <v>84704.514704932866</v>
       </c>
-      <c r="CL36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CN36" s="4">
+        <f t="shared" si="99"/>
         <v>83857.469557883538</v>
       </c>
-      <c r="CM36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CO36" s="4">
+        <f t="shared" si="99"/>
         <v>83018.894862304704</v>
       </c>
-      <c r="CN36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CP36" s="4">
+        <f t="shared" si="99"/>
         <v>82188.705913681653</v>
       </c>
-      <c r="CO36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CQ36" s="4">
+        <f t="shared" si="99"/>
         <v>81366.818854544836</v>
       </c>
-      <c r="CP36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CR36" s="4">
+        <f t="shared" si="99"/>
         <v>80553.15066599939</v>
       </c>
-      <c r="CQ36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CS36" s="4">
+        <f t="shared" si="99"/>
         <v>79747.619159339389</v>
       </c>
-      <c r="CR36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CT36" s="4">
+        <f t="shared" si="99"/>
         <v>78950.142967745996</v>
       </c>
-      <c r="CS36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CU36" s="4">
+        <f t="shared" si="99"/>
         <v>78160.641538068536</v>
       </c>
-      <c r="CT36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CV36" s="4">
+        <f t="shared" si="99"/>
         <v>77379.035122687856</v>
       </c>
-      <c r="CU36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CW36" s="4">
+        <f t="shared" si="99"/>
         <v>76605.244771460973</v>
       </c>
     </row>
-    <row r="37" spans="2:99" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:101" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>54</v>
       </c>
@@ -4744,119 +4792,119 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3">
-        <f t="shared" ref="G37:K37" si="97">G36/G38</f>
+        <f t="shared" ref="G37:K37" si="100">G36/G38</f>
         <v>-0.76069364161849706</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>-0.32881355932203388</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>0.15509761388286333</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>9.8913043478260868E-2</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>1.7112299465240642E-2</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" ref="L37" si="98">L36/L38</f>
+        <f t="shared" ref="L37" si="101">L36/L38</f>
         <v>0.10048309178743961</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" ref="M37:O37" si="99">M36/M38</f>
+        <f t="shared" ref="M37:O37" si="102">M36/M38</f>
         <v>0.27149321266968324</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="99"/>
+        <f t="shared" si="102"/>
         <v>0.2402135231316726</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="99"/>
+        <f t="shared" si="102"/>
         <v>0.29744042365401591</v>
       </c>
       <c r="P37" s="3">
-        <f t="shared" ref="P37" si="100">P36/P38</f>
+        <f t="shared" ref="P37" si="103">P36/P38</f>
         <v>1.0411081322609472</v>
       </c>
       <c r="Q37" s="3">
-        <f t="shared" ref="Q37" si="101">Q36/Q38</f>
+        <f t="shared" ref="Q37" si="104">Q36/Q38</f>
         <v>1.4861976847729297</v>
       </c>
       <c r="R37" s="3">
-        <f t="shared" ref="R37" si="102">R36/R38</f>
+        <f t="shared" ref="R37" si="105">R36/R38</f>
         <v>2.044933920704846</v>
       </c>
       <c r="S37" s="3">
-        <f t="shared" ref="S37:U37" si="103">S36/S38</f>
+        <f t="shared" ref="S37:U37" si="106">S36/S38</f>
         <v>2.867761452031115</v>
       </c>
       <c r="T37" s="3">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>2.032900432900433</v>
       </c>
       <c r="U37" s="3">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>0.96049596309111884</v>
       </c>
       <c r="V37" s="3">
-        <f t="shared" ref="V37:Z37" si="104">V36/V38</f>
+        <f t="shared" ref="V37:Z37" si="107">V36/V38</f>
         <v>0.99936617689426632</v>
       </c>
       <c r="W37" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>0.73212226066897346</v>
       </c>
       <c r="X37" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>1.0138235294117648</v>
       </c>
       <c r="Y37" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>1.402110726643599</v>
       </c>
       <c r="Z37" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>1.4216133217993079</v>
       </c>
-      <c r="AJ37" s="21">
-        <f>+AJ36/AJ38</f>
+      <c r="AL37" s="21">
+        <f>+AL36/AL38</f>
         <v>4.5696698385236454</v>
       </c>
-      <c r="AK37" s="21">
-        <f t="shared" ref="AK37:AO37" si="105">+AK36/AK38</f>
+      <c r="AM37" s="21">
+        <f t="shared" ref="AM37:AQ37" si="108">+AM36/AM38</f>
         <v>5.0672721620491918</v>
       </c>
-      <c r="AL37" s="21">
-        <f t="shared" si="105"/>
+      <c r="AN37" s="21">
+        <f t="shared" si="108"/>
         <v>8.9072200395208441</v>
       </c>
-      <c r="AM37" s="21">
-        <f t="shared" si="105"/>
+      <c r="AO37" s="21">
+        <f t="shared" si="108"/>
         <v>13.294117107169026</v>
       </c>
-      <c r="AN37" s="21">
-        <f t="shared" si="105"/>
+      <c r="AP37" s="21">
+        <f t="shared" si="108"/>
         <v>18.399228949670828</v>
       </c>
-      <c r="AO37" s="21">
-        <f t="shared" si="105"/>
+      <c r="AQ37" s="21">
+        <f t="shared" si="108"/>
         <v>24.970907755805371</v>
       </c>
-      <c r="AP37" s="21">
-        <f t="shared" ref="AP37" si="106">+AP36/AP38</f>
+      <c r="AR37" s="21">
+        <f t="shared" ref="AR37" si="109">+AR36/AR38</f>
         <v>31.980742653878014</v>
       </c>
-      <c r="AQ37" s="21">
-        <f t="shared" ref="AQ37" si="107">+AQ36/AQ38</f>
+      <c r="AS37" s="21">
+        <f t="shared" ref="AS37" si="110">+AS36/AS38</f>
         <v>38.780063718198662</v>
       </c>
     </row>
-    <row r="38" spans="2:99" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:101" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
         <v>1</v>
       </c>
@@ -4921,51 +4969,51 @@
         <v>3468</v>
       </c>
       <c r="X38" s="5">
-        <f t="shared" ref="W38:Z38" si="108">+W38</f>
+        <f t="shared" ref="X38:Z38" si="111">+W38</f>
         <v>3468</v>
       </c>
       <c r="Y38" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>3468</v>
       </c>
       <c r="Z38" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>3468</v>
       </c>
-      <c r="AJ38" s="4">
+      <c r="AL38" s="4">
         <f>AVERAGE(W38:Z38)</f>
         <v>3468</v>
       </c>
-      <c r="AK38" s="4">
-        <f>AJ38</f>
+      <c r="AM38" s="4">
+        <f>AL38</f>
         <v>3468</v>
       </c>
-      <c r="AL38" s="4">
-        <f t="shared" ref="AL38:AO38" si="109">AK38</f>
+      <c r="AN38" s="4">
+        <f t="shared" ref="AN38:AQ38" si="112">AM38</f>
         <v>3468</v>
       </c>
-      <c r="AM38" s="4">
-        <f t="shared" si="109"/>
+      <c r="AO38" s="4">
+        <f t="shared" si="112"/>
         <v>3468</v>
       </c>
-      <c r="AN38" s="4">
-        <f t="shared" si="109"/>
+      <c r="AP38" s="4">
+        <f t="shared" si="112"/>
         <v>3468</v>
       </c>
-      <c r="AO38" s="4">
-        <f t="shared" si="109"/>
+      <c r="AQ38" s="4">
+        <f t="shared" si="112"/>
         <v>3468</v>
       </c>
-      <c r="AP38" s="4">
-        <f t="shared" ref="AP38:AQ38" si="110">AO38</f>
+      <c r="AR38" s="4">
+        <f t="shared" ref="AR38:AS38" si="113">AQ38</f>
         <v>3468</v>
       </c>
-      <c r="AQ38" s="4">
-        <f t="shared" si="110"/>
+      <c r="AS38" s="4">
+        <f t="shared" si="113"/>
         <v>3468</v>
       </c>
     </row>
-    <row r="40" spans="2:99" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:101" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>89</v>
       </c>
@@ -4982,35 +5030,35 @@
         <v>0.31799163179916312</v>
       </c>
       <c r="L40" s="23">
-        <f t="shared" ref="L40" si="111">L20/H20-1</f>
+        <f t="shared" ref="L40" si="114">L20/H20-1</f>
         <v>-4.9448818897637747E-2</v>
       </c>
       <c r="M40" s="23">
-        <f t="shared" ref="M40" si="112">M20/I20-1</f>
+        <f t="shared" ref="M40" si="115">M20/I20-1</f>
         <v>0.39155957480564818</v>
       </c>
       <c r="N40" s="23">
-        <f t="shared" ref="N40" si="113">N20/J20-1</f>
+        <f t="shared" ref="N40" si="116">N20/J20-1</f>
         <v>0.45503791982665232</v>
       </c>
       <c r="O40" s="23">
-        <f t="shared" ref="O40" si="114">O20/K20-1</f>
+        <f t="shared" ref="O40" si="117">O20/K20-1</f>
         <v>0.73583959899749374</v>
       </c>
       <c r="P40" s="23">
-        <f t="shared" ref="P40:Q40" si="115">P20/L20-1</f>
+        <f t="shared" ref="P40:Q40" si="118">P20/L20-1</f>
         <v>0.98111332007952279</v>
       </c>
       <c r="Q40" s="23">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>0.56846425721126437</v>
       </c>
       <c r="R40" s="23">
-        <f t="shared" ref="R40:S40" si="116">R20/N20-1</f>
+        <f t="shared" ref="R40:S40" si="119">R20/N20-1</f>
         <v>0.64919955323901712</v>
       </c>
       <c r="S40" s="23">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>0.80537106555010096</v>
       </c>
       <c r="T40" s="23">
@@ -5026,112 +5074,136 @@
         <v>0.39999999999999991</v>
       </c>
       <c r="W40" s="23">
-        <f t="shared" ref="W40:Z40" si="117">W20/S20-1</f>
+        <f t="shared" ref="W40:Z40" si="120">W20/S20-1</f>
         <v>0.24381531243335464</v>
       </c>
       <c r="X40" s="23">
-        <f t="shared" si="117"/>
+        <f t="shared" si="120"/>
         <v>0.40000000000000013</v>
       </c>
       <c r="Y40" s="23">
-        <f t="shared" si="117"/>
+        <f t="shared" si="120"/>
         <v>0.40000000000000013</v>
       </c>
       <c r="Z40" s="23">
-        <f t="shared" si="117"/>
+        <f t="shared" si="120"/>
         <v>0.39999999999999991</v>
       </c>
+      <c r="AC40" s="27">
+        <f t="shared" ref="AC40:AF40" si="121">AC20/AB20-1</f>
+        <v>0.58845907814070664</v>
+      </c>
+      <c r="AD40" s="27">
+        <f t="shared" si="121"/>
+        <v>0.26503272306147285</v>
+      </c>
+      <c r="AE40" s="27">
+        <f t="shared" si="121"/>
+        <v>0.73012574069611524</v>
+      </c>
+      <c r="AF40" s="27">
+        <f>AF20/AE20-1</f>
+        <v>0.67978989539054413</v>
+      </c>
       <c r="AG40" s="27">
-        <f>+AG20/AF20-1</f>
-        <v>0.28309870615998056</v>
+        <f>AG20/AF20-1</f>
+        <v>0.82513159773516764</v>
       </c>
       <c r="AH40" s="27">
-        <f>+AH20/AG20-1</f>
-        <v>0.70671613394216126</v>
+        <f>AH20/AG20-1</f>
+        <v>0.14522590184326489</v>
       </c>
       <c r="AI40" s="27">
         <f>+AI20/AH20-1</f>
-        <v>0.52259442989056737</v>
+        <v>0.28309870615998056</v>
       </c>
       <c r="AJ40" s="27">
         <f>+AJ20/AI20-1</f>
+        <v>0.70671613394216126</v>
+      </c>
+      <c r="AK40" s="27">
+        <f>+AK20/AJ20-1</f>
+        <v>0.52259442989056737</v>
+      </c>
+      <c r="AL40" s="27">
+        <f>+AL20/AK20-1</f>
         <v>0.36425407501592399</v>
       </c>
-      <c r="AK40" s="27">
-        <f t="shared" ref="AK40:AO40" si="118">+AK20/AJ20-1</f>
+      <c r="AM40" s="27">
+        <f t="shared" ref="AM40:AQ40" si="122">+AM20/AL20-1</f>
         <v>0.23152290088009764</v>
       </c>
-      <c r="AL40" s="27">
-        <f t="shared" si="118"/>
+      <c r="AN40" s="27">
+        <f t="shared" si="122"/>
         <v>0.33899999999999997</v>
       </c>
-      <c r="AM40" s="27">
-        <f t="shared" si="118"/>
+      <c r="AO40" s="27">
+        <f t="shared" si="122"/>
         <v>0.28749999999999987</v>
       </c>
-      <c r="AN40" s="27">
-        <f t="shared" si="118"/>
+      <c r="AP40" s="27">
+        <f t="shared" si="122"/>
         <v>0.23600000000000021</v>
       </c>
-      <c r="AO40" s="27">
-        <f t="shared" si="118"/>
+      <c r="AQ40" s="27">
+        <f t="shared" si="122"/>
         <v>0.23599999999999977</v>
       </c>
-      <c r="AP40" s="27">
-        <f t="shared" ref="AP40:AQ40" si="119">+AP20/AO20-1</f>
+      <c r="AR40" s="27">
+        <f t="shared" ref="AR40:AS40" si="123">+AR20/AQ20-1</f>
         <v>0.18450000000000011</v>
       </c>
-      <c r="AQ40" s="27">
-        <f t="shared" si="119"/>
+      <c r="AS40" s="27">
+        <f t="shared" si="123"/>
         <v>0.13300000000000023</v>
       </c>
     </row>
-    <row r="41" spans="2:99" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:101" x14ac:dyDescent="0.2">
       <c r="B41" s="22" t="s">
         <v>92</v>
       </c>
       <c r="K41" s="17">
-        <f t="shared" ref="K41" si="120">+K5/G5-1</f>
+        <f t="shared" ref="K41" si="124">+K5/G5-1</f>
         <v>0.40427490122026688</v>
       </c>
       <c r="L41" s="17">
-        <f t="shared" ref="L41" si="121">+L5/H5-1</f>
+        <f t="shared" ref="L41" si="125">+L5/H5-1</f>
         <v>-4.9351902344897058E-2</v>
       </c>
       <c r="M41" s="17">
-        <f t="shared" ref="M41" si="122">+M5/I5-1</f>
+        <f t="shared" ref="M41" si="126">+M5/I5-1</f>
         <v>0.43333401930319182</v>
       </c>
       <c r="N41" s="17">
-        <f t="shared" ref="N41" si="123">+N5/J5-1</f>
+        <f t="shared" ref="N41" si="127">+N5/J5-1</f>
         <v>0.61086578348722065</v>
       </c>
       <c r="O41" s="17">
-        <f t="shared" ref="O41" si="124">+O5/K5-1</f>
+        <f t="shared" ref="O41" si="128">+O5/K5-1</f>
         <v>1.088229976496113</v>
       </c>
       <c r="P41" s="17">
-        <f t="shared" ref="P41" si="125">+P5/L5-1</f>
+        <f t="shared" ref="P41" si="129">+P5/L5-1</f>
         <v>1.2200772200772199</v>
       </c>
       <c r="Q41" s="17">
-        <f t="shared" ref="Q41" si="126">+Q5/M5-1</f>
+        <f t="shared" ref="Q41" si="130">+Q5/M5-1</f>
         <v>0.73223259152907394</v>
       </c>
       <c r="R41" s="17">
-        <f t="shared" ref="R41:U41" si="127">+R5/N5-1</f>
+        <f t="shared" ref="R41:U41" si="131">+R5/N5-1</f>
         <v>0.70903250816857732</v>
       </c>
       <c r="S41" s="17">
-        <f t="shared" si="127"/>
+        <f t="shared" si="131"/>
         <v>0.67774891774891777</v>
       </c>
       <c r="T41" s="17">
-        <f t="shared" si="127"/>
+        <f t="shared" si="131"/>
         <v>0.26556521739130434</v>
       </c>
       <c r="U41" s="17">
-        <f t="shared" si="127"/>
+        <f t="shared" si="131"/>
         <v>0.42490675507666809</v>
       </c>
       <c r="V41" s="17">
@@ -5145,177 +5217,177 @@
       <c r="X41" s="17"/>
       <c r="Y41" s="17"/>
       <c r="Z41" s="17"/>
-      <c r="AG41" s="28">
-        <f>+AG5/AF5-1</f>
-        <v>0.35729051069477991</v>
-      </c>
-      <c r="AH41" s="28">
-        <f>+AH5/AG5-1</f>
-        <v>0.87559116340959009</v>
-      </c>
       <c r="AI41" s="28">
         <f>+AI5/AH5-1</f>
+        <v>0.35729051069477991</v>
+      </c>
+      <c r="AJ41" s="28">
+        <f>+AJ5/AI5-1</f>
+        <v>0.87559116340959009</v>
+      </c>
+      <c r="AK41" s="28">
+        <f>+AK5/AJ5-1</f>
         <v>0.403761953095785</v>
       </c>
-      <c r="AJ41" s="28">
-        <f t="shared" ref="AJ41" si="128">+AJ5/AI5-1</f>
+      <c r="AL41" s="28">
+        <f t="shared" ref="AL41" si="132">+AL5/AK5-1</f>
         <v>0.35000000000000009</v>
       </c>
-      <c r="AK41" s="28">
-        <f t="shared" ref="AK41" si="129">+AK5/AJ5-1</f>
+      <c r="AM41" s="28">
+        <f t="shared" ref="AM41" si="133">+AM5/AL5-1</f>
         <v>0.35517216183570288</v>
       </c>
-      <c r="AL41" s="28">
-        <f t="shared" ref="AL41" si="130">+AL5/AK5-1</f>
+      <c r="AN41" s="28">
+        <f t="shared" ref="AN41" si="134">+AN5/AM5-1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AM41" s="28">
-        <f t="shared" ref="AM41" si="131">+AM5/AL5-1</f>
+      <c r="AO41" s="28">
+        <f t="shared" ref="AO41" si="135">+AO5/AN5-1</f>
         <v>0.25</v>
       </c>
-      <c r="AN41" s="28">
-        <f t="shared" ref="AN41" si="132">+AN5/AM5-1</f>
+      <c r="AP41" s="28">
+        <f t="shared" ref="AP41" si="136">+AP5/AO5-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AO41" s="28">
-        <f t="shared" ref="AO41" si="133">+AO5/AN5-1</f>
+      <c r="AQ41" s="28">
+        <f t="shared" ref="AQ41" si="137">+AQ5/AP5-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AP41" s="28">
-        <f t="shared" ref="AP41" si="134">+AP5/AO5-1</f>
+      <c r="AR41" s="28">
+        <f t="shared" ref="AR41" si="138">+AR5/AQ5-1</f>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AQ41" s="28">
-        <f t="shared" ref="AQ41" si="135">+AQ5/AP5-1</f>
+      <c r="AS41" s="28">
+        <f t="shared" ref="AS41" si="139">+AS5/AR5-1</f>
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="42" spans="2:99" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:101" x14ac:dyDescent="0.2">
       <c r="B42" s="22" t="s">
         <v>93</v>
       </c>
       <c r="K42" s="17">
-        <f t="shared" ref="K42" si="136">+K10/G10-1</f>
+        <f t="shared" ref="K42" si="140">+K10/G10-1</f>
         <v>0.33101713811610356</v>
       </c>
       <c r="L42" s="17">
-        <f t="shared" ref="L42" si="137">+L10/H10-1</f>
+        <f t="shared" ref="L42" si="141">+L10/H10-1</f>
         <v>-5.4866280672732248E-2</v>
       </c>
       <c r="M42" s="17">
-        <f t="shared" ref="M42" si="138">+M10/I10-1</f>
+        <f t="shared" ref="M42" si="142">+M10/I10-1</f>
         <v>0.50835629972440333</v>
       </c>
       <c r="N42" s="17">
-        <f t="shared" ref="N42" si="139">+N10/J10-1</f>
+        <f t="shared" ref="N42" si="143">+N10/J10-1</f>
         <v>0.71375046476818782</v>
       </c>
       <c r="O42" s="17">
-        <f t="shared" ref="O42" si="140">+O10/K10-1</f>
+        <f t="shared" ref="O42" si="144">+O10/K10-1</f>
         <v>0.75644771700171409</v>
       </c>
       <c r="P42" s="17">
-        <f t="shared" ref="P42" si="141">+P10/L10-1</f>
+        <f t="shared" ref="P42" si="145">+P10/L10-1</f>
         <v>1.5090067094515751</v>
       </c>
       <c r="Q42" s="17">
-        <f t="shared" ref="Q42" si="142">+Q10/M10-1</f>
+        <f t="shared" ref="Q42" si="146">+Q10/M10-1</f>
         <v>0.63975150996993846</v>
       </c>
       <c r="R42" s="17">
-        <f>+R10/N10-1</f>
+        <f t="shared" ref="R42:W42" si="147">+R10/N10-1</f>
         <v>0.7014080119272128</v>
       </c>
       <c r="S42" s="17">
-        <f>+S10/O10-1</f>
+        <f t="shared" si="147"/>
         <v>0.69352549102241356</v>
       </c>
       <c r="T42" s="17">
-        <f>+T10/P10-1</f>
+        <f t="shared" si="147"/>
         <v>0.25268262434539124</v>
       </c>
       <c r="U42" s="17">
-        <f>+U10/Q10-1</f>
+        <f t="shared" si="147"/>
         <v>0.53863587626091669</v>
       </c>
       <c r="V42" s="17">
-        <f>+V10/R10-1</f>
+        <f t="shared" si="147"/>
         <v>0.43768310227569973</v>
       </c>
       <c r="W42" s="17">
-        <f>+W10/S10-1</f>
+        <f t="shared" si="147"/>
         <v>0.44334609226376598</v>
       </c>
       <c r="X42" s="17"/>
       <c r="Y42" s="17"/>
       <c r="Z42" s="17"/>
-      <c r="AG42" s="28">
-        <f t="shared" ref="AG42:AH42" si="143">+AG10/AF10-1</f>
+      <c r="AI42" s="28">
+        <f t="shared" ref="AI42:AJ42" si="148">+AI10/AH10-1</f>
         <v>0.39565262627590125</v>
       </c>
-      <c r="AH42" s="28">
-        <f t="shared" si="143"/>
+      <c r="AJ42" s="28">
+        <f t="shared" si="148"/>
         <v>0.8252981439448186</v>
       </c>
-      <c r="AI42" s="28">
-        <f>+AI10/AH10-1</f>
+      <c r="AK42" s="28">
+        <f>+AK10/AJ10-1</f>
         <v>0.47203204567389845</v>
       </c>
-      <c r="AJ42" s="28">
-        <f>+AJ10/AI10-1</f>
+      <c r="AL42" s="28">
+        <f>+AL10/AK10-1</f>
         <v>0.35000000000000009</v>
       </c>
-      <c r="AK42" s="28">
-        <f t="shared" ref="AK42" si="144">+AK10/AJ10-1</f>
+      <c r="AM42" s="28">
+        <f t="shared" ref="AM42" si="149">+AM10/AL10-1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AL42" s="28">
-        <f t="shared" ref="AL42" si="145">+AL10/AK10-1</f>
+      <c r="AN42" s="28">
+        <f t="shared" ref="AN42" si="150">+AN10/AM10-1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AM42" s="28">
-        <f t="shared" ref="AM42" si="146">+AM10/AL10-1</f>
+      <c r="AO42" s="28">
+        <f t="shared" ref="AO42" si="151">+AO10/AN10-1</f>
         <v>0.25</v>
       </c>
-      <c r="AN42" s="28">
-        <f t="shared" ref="AN42" si="147">+AN10/AM10-1</f>
+      <c r="AP42" s="28">
+        <f t="shared" ref="AP42" si="152">+AP10/AO10-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AO42" s="28">
-        <f t="shared" ref="AO42" si="148">+AO10/AN10-1</f>
+      <c r="AQ42" s="28">
+        <f t="shared" ref="AQ42" si="153">+AQ10/AP10-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AP42" s="28">
-        <f t="shared" ref="AP42" si="149">+AP10/AO10-1</f>
+      <c r="AR42" s="28">
+        <f t="shared" ref="AR42" si="154">+AR10/AQ10-1</f>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AQ42" s="28">
-        <f t="shared" ref="AQ42" si="150">+AQ10/AP10-1</f>
+      <c r="AS42" s="28">
+        <f t="shared" ref="AS42" si="155">+AS10/AR10-1</f>
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="43" spans="2:99" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:101" x14ac:dyDescent="0.2">
       <c r="B43" s="20" t="s">
         <v>91</v>
       </c>
       <c r="K43" s="17">
-        <f t="shared" ref="K43:O43" si="151">K14/G14-1</f>
+        <f t="shared" ref="K43:O43" si="156">K14/G14-1</f>
         <v>0.39441436306640076</v>
       </c>
       <c r="L43" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="156"/>
         <v>-4.9729102167182626E-2</v>
       </c>
       <c r="M43" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="156"/>
         <v>0.43141075604053003</v>
       </c>
       <c r="N43" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="156"/>
         <v>0.4053394107113788</v>
       </c>
       <c r="O43" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="156"/>
         <v>0.67320662170447587</v>
       </c>
       <c r="P43" s="17">
@@ -5323,7 +5395,7 @@
         <v>0.9385053960496843</v>
       </c>
       <c r="Q43" s="17">
-        <f t="shared" ref="Q43" si="152">Q14/M14-1</f>
+        <f t="shared" ref="Q43" si="157">Q14/M14-1</f>
         <v>0.55091206098557044</v>
       </c>
       <c r="R43" s="17">
@@ -5331,19 +5403,19 @@
         <v>0.74041468782578468</v>
       </c>
       <c r="S43" s="17">
-        <f t="shared" ref="S43:U43" si="153">S14/O14-1</f>
+        <f t="shared" ref="S43:U43" si="158">S14/O14-1</f>
         <v>0.89495541712470983</v>
       </c>
       <c r="T43" s="17">
-        <f t="shared" si="153"/>
+        <f t="shared" si="158"/>
         <v>0.43592436974789917</v>
       </c>
       <c r="U43" s="17">
-        <f t="shared" si="153"/>
+        <f t="shared" si="158"/>
         <v>0.561046256473273</v>
       </c>
       <c r="V43" s="17">
-        <f t="shared" ref="V43" si="154">V14/R14-1</f>
+        <f t="shared" ref="V43" si="159">V14/R14-1</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="W43" s="17">
@@ -5351,25 +5423,25 @@
         <v>0.21683640582699493</v>
       </c>
       <c r="X43" s="17">
-        <f t="shared" ref="X43" si="155">X14/T14-1</f>
+        <f t="shared" ref="X43" si="160">X14/T14-1</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="Y43" s="17">
-        <f t="shared" ref="Y43" si="156">Y14/U14-1</f>
+        <f t="shared" ref="Y43" si="161">Y14/U14-1</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="Z43" s="17">
-        <f t="shared" ref="Z43" si="157">Z14/V14-1</f>
+        <f t="shared" ref="Z43" si="162">Z14/V14-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="AS43" s="30" t="s">
+      <c r="AU43" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="AT43" s="28">
+      <c r="AV43" s="28">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="44" spans="2:99" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:101" x14ac:dyDescent="0.2">
       <c r="B44" s="20" t="s">
         <v>90</v>
       </c>
@@ -5378,67 +5450,67 @@
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
       <c r="G44" s="17">
-        <f t="shared" ref="G44:K44" si="158">G22/G14</f>
+        <f t="shared" ref="G44:K44" si="163">G22/G14</f>
         <v>0.18609290396124251</v>
       </c>
       <c r="H44" s="17">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>0.17685758513931887</v>
       </c>
       <c r="I44" s="17">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>0.21784879189399844</v>
       </c>
       <c r="J44" s="17">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>0.21618101904606871</v>
       </c>
       <c r="K44" s="17">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>0.2440220723482526</v>
       </c>
       <c r="L44" s="17">
-        <f t="shared" ref="L44" si="159">L22/L14</f>
+        <f t="shared" ref="L44" si="164">L22/L14</f>
         <v>0.24373854612095297</v>
       </c>
       <c r="M44" s="17">
-        <f t="shared" ref="M44" si="160">M22/M14</f>
+        <f t="shared" ref="M44" si="165">M22/M14</f>
         <v>0.27021508303838826</v>
       </c>
       <c r="N44" s="17">
-        <f t="shared" ref="N44:U44" si="161">N22/N14</f>
+        <f t="shared" ref="N44:U44" si="166">N22/N14</f>
         <v>0.19819298042395458</v>
       </c>
       <c r="O44" s="17">
-        <f t="shared" si="161"/>
+        <f t="shared" si="166"/>
         <v>0.21131061438866497</v>
       </c>
       <c r="P44" s="17">
-        <f t="shared" si="161"/>
+        <f t="shared" si="166"/>
         <v>0.25220588235294117</v>
       </c>
       <c r="Q44" s="17">
-        <f t="shared" si="161"/>
+        <f t="shared" si="166"/>
         <v>0.28464846835776353</v>
       </c>
       <c r="R44" s="17">
-        <f t="shared" si="161"/>
+        <f t="shared" si="166"/>
         <v>0.28858569051580701</v>
       </c>
       <c r="S44" s="17">
-        <f t="shared" si="161"/>
+        <f t="shared" si="166"/>
         <v>0.29650638133298957</v>
       </c>
       <c r="T44" s="17">
-        <f t="shared" si="161"/>
+        <f t="shared" si="166"/>
         <v>0.25727871250914414</v>
       </c>
       <c r="U44" s="17">
-        <f t="shared" si="161"/>
+        <f t="shared" si="166"/>
         <v>0.26348046106269329</v>
       </c>
       <c r="V44" s="17">
-        <f t="shared" ref="V44:Z44" si="162">V22/V14</f>
+        <f t="shared" ref="V44:Z44" si="167">V22/V14</f>
         <v>0.26631804135963871</v>
       </c>
       <c r="W44" s="17">
@@ -5446,45 +5518,45 @@
         <v>0.1830702404915775</v>
       </c>
       <c r="X44" s="17">
-        <f t="shared" si="162"/>
+        <f t="shared" si="167"/>
         <v>0.25</v>
       </c>
       <c r="Y44" s="17">
-        <f t="shared" si="162"/>
+        <f t="shared" si="167"/>
         <v>0.25</v>
       </c>
       <c r="Z44" s="17">
-        <f t="shared" si="162"/>
+        <f t="shared" si="167"/>
         <v>0.25000000000000006</v>
       </c>
-      <c r="AG44" s="17">
-        <f t="shared" ref="AG44:AK44" si="163">AG22/AG14</f>
+      <c r="AI44" s="17">
+        <f t="shared" ref="AI44:AM44" si="168">AI22/AI14</f>
         <v>0</v>
       </c>
-      <c r="AH44" s="17">
-        <f t="shared" si="163"/>
+      <c r="AJ44" s="17">
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
-      <c r="AI44" s="17">
-        <f t="shared" si="163"/>
+      <c r="AK44" s="17">
+        <f t="shared" si="168"/>
         <v>0.27064584436209632</v>
       </c>
-      <c r="AJ44" s="17">
-        <f t="shared" si="163"/>
+      <c r="AL44" s="17">
+        <f t="shared" si="168"/>
         <v>0.23632042787233121</v>
       </c>
-      <c r="AK44" s="17">
-        <f t="shared" si="163"/>
+      <c r="AM44" s="17">
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
-      <c r="AS44" s="30" t="s">
+      <c r="AU44" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="AT44" s="32">
+      <c r="AV44" s="32">
         <v>0.08</v>
       </c>
     </row>
-    <row r="45" spans="2:99" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:101" x14ac:dyDescent="0.2">
       <c r="B45" s="20" t="s">
         <v>45</v>
       </c>
@@ -5493,31 +5565,31 @@
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17">
-        <f t="shared" ref="G45:K45" si="164">+G28/G20</f>
+        <f t="shared" ref="G45:K45" si="169">+G28/G20</f>
         <v>0.1246421493063202</v>
       </c>
       <c r="H45" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="169"/>
         <v>0.14503937007874015</v>
       </c>
       <c r="I45" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="169"/>
         <v>0.18895763921941933</v>
       </c>
       <c r="J45" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="169"/>
         <v>0.18838028169014084</v>
       </c>
       <c r="K45" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="169"/>
         <v>0.20618212197159566</v>
       </c>
       <c r="L45" s="17">
-        <f t="shared" ref="L45" si="165">+L28/L20</f>
+        <f t="shared" ref="L45" si="170">+L28/L20</f>
         <v>0.20990722332670642</v>
       </c>
       <c r="M45" s="17">
-        <f t="shared" ref="M45" si="166">+M28/M20</f>
+        <f t="shared" ref="M45" si="171">+M28/M20</f>
         <v>0.23520693193478509</v>
       </c>
       <c r="N45" s="17">
@@ -5525,82 +5597,82 @@
         <v>0.19229337304542071</v>
       </c>
       <c r="O45" s="17">
-        <f t="shared" ref="O45:Z45" si="167">+O28/O20</f>
+        <f t="shared" ref="O45:Z45" si="172">+O28/O20</f>
         <v>0.21320627586870727</v>
       </c>
       <c r="P45" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="172"/>
         <v>0.24117745442381669</v>
       </c>
       <c r="Q45" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="172"/>
         <v>0.26604637639020134</v>
       </c>
       <c r="R45" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="172"/>
         <v>0.27354816863254133</v>
       </c>
       <c r="S45" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="172"/>
         <v>0.29110684580934099</v>
       </c>
       <c r="T45" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="172"/>
         <v>0.24997047360340144</v>
       </c>
       <c r="U45" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="172"/>
         <v>0.25086231005873033</v>
       </c>
       <c r="V45" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="172"/>
         <v>0.25257794296679104</v>
       </c>
       <c r="W45" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="172"/>
         <v>0.19336448197522396</v>
       </c>
       <c r="X45" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="172"/>
         <v>0.25</v>
       </c>
       <c r="Y45" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="172"/>
         <v>0.25</v>
       </c>
       <c r="Z45" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="172"/>
         <v>0.25</v>
       </c>
-      <c r="AG45" s="17">
-        <f t="shared" ref="AG45:AK45" si="168">+AG28/AG20</f>
+      <c r="AI45" s="17">
+        <f t="shared" ref="AI45:AM45" si="173">+AI28/AI20</f>
         <v>0</v>
       </c>
-      <c r="AH45" s="17">
-        <f t="shared" si="168"/>
+      <c r="AJ45" s="17">
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
-      <c r="AI45" s="17">
-        <f t="shared" si="168"/>
+      <c r="AK45" s="17">
+        <f t="shared" si="173"/>
         <v>0.25</v>
       </c>
-      <c r="AJ45" s="17">
-        <f t="shared" si="168"/>
+      <c r="AL45" s="17">
+        <f t="shared" si="173"/>
         <v>0.23818217368219946</v>
       </c>
-      <c r="AK45" s="17">
-        <f t="shared" si="168"/>
+      <c r="AM45" s="17">
+        <f t="shared" si="173"/>
         <v>0.21094911653891116</v>
       </c>
-      <c r="AS45" s="30" t="s">
+      <c r="AU45" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="AT45" s="4">
-        <f>NPV(AT44,AK36:CU36)+Main!K5-Main!K6</f>
+      <c r="AV45" s="4">
+        <f>NPV(AV44,AM36:CW36)+Main!K5-Main!K6</f>
         <v>1207710.564308471</v>
       </c>
     </row>
-    <row r="46" spans="2:99" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:101" x14ac:dyDescent="0.2">
       <c r="B46" s="15"/>
       <c r="R46" s="17"/>
       <c r="S46" s="17"/>
@@ -5611,23 +5683,23 @@
       <c r="X46" s="17"/>
       <c r="Y46" s="17"/>
       <c r="Z46" s="17"/>
-      <c r="AS46" s="30" t="s">
+      <c r="AU46" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AT46" s="28">
+      <c r="AV46" s="28">
         <v>0.03</v>
       </c>
     </row>
-    <row r="47" spans="2:99" x14ac:dyDescent="0.2">
-      <c r="AS47" s="30" t="s">
+    <row r="47" spans="2:101" x14ac:dyDescent="0.2">
+      <c r="AU47" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="AT47" s="21">
-        <f>AT45/Main!K3</f>
+      <c r="AV47" s="21">
+        <f>AV45/Main!K3</f>
         <v>382.45891146119766</v>
       </c>
     </row>
-    <row r="48" spans="2:99" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:101" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
         <v>55</v>
       </c>
@@ -5642,27 +5714,27 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5">
-        <f t="shared" ref="M48:R48" si="169">M36</f>
+        <f t="shared" ref="M48:R48" si="174">M36</f>
         <v>300</v>
       </c>
       <c r="N48" s="5">
-        <f t="shared" si="169"/>
+        <f t="shared" si="174"/>
         <v>270</v>
       </c>
       <c r="O48" s="5">
-        <f t="shared" si="169"/>
+        <f t="shared" si="174"/>
         <v>337</v>
       </c>
       <c r="P48" s="5">
-        <f t="shared" si="169"/>
+        <f t="shared" si="174"/>
         <v>1165</v>
       </c>
       <c r="Q48" s="5">
-        <f t="shared" si="169"/>
+        <f t="shared" si="174"/>
         <v>1669</v>
       </c>
       <c r="R48" s="5">
-        <f t="shared" si="169"/>
+        <f t="shared" si="174"/>
         <v>2321</v>
       </c>
       <c r="S48" s="5">
@@ -5678,31 +5750,31 @@
         <v>3331</v>
       </c>
       <c r="V48" s="5">
-        <f t="shared" ref="V48:Z48" si="170">V36</f>
+        <f t="shared" ref="V48:Z48" si="175">V36</f>
         <v>3468.7999999999984</v>
       </c>
       <c r="W48" s="5">
-        <f t="shared" si="170"/>
+        <f t="shared" si="175"/>
         <v>2539</v>
       </c>
       <c r="X48" s="5">
-        <f t="shared" si="170"/>
+        <f t="shared" si="175"/>
         <v>3515.9400000000005</v>
       </c>
       <c r="Y48" s="5">
-        <f t="shared" si="170"/>
+        <f t="shared" si="175"/>
         <v>4862.5200000000013</v>
       </c>
       <c r="Z48" s="5">
-        <f t="shared" si="170"/>
+        <f t="shared" si="175"/>
         <v>4930.1549999999997</v>
       </c>
-      <c r="AT48" s="28">
-        <f>AT47/Main!K2-1</f>
+      <c r="AV48" s="28">
+        <f>AV47/Main!K2-1</f>
         <v>1.3179327967345311</v>
       </c>
     </row>
-    <row r="49" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
         <v>56</v>
       </c>
@@ -5752,7 +5824,7 @@
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
     </row>
-    <row r="50" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>57</v>
       </c>
@@ -5802,7 +5874,7 @@
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
     </row>
-    <row r="51" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>58</v>
       </c>
@@ -5852,7 +5924,7 @@
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
     </row>
-    <row r="52" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>59</v>
       </c>
@@ -5886,7 +5958,7 @@
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
     </row>
-    <row r="53" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="10" t="s">
         <v>80</v>
       </c>
@@ -5938,7 +6010,7 @@
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
     </row>
-    <row r="54" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
         <v>60</v>
       </c>
@@ -5972,7 +6044,7 @@
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
     </row>
-    <row r="55" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="19" t="s">
         <v>69</v>
       </c>
@@ -6004,7 +6076,7 @@
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
     </row>
-    <row r="56" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
         <v>61</v>
       </c>
@@ -6055,7 +6127,7 @@
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
     </row>
-    <row r="57" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
         <v>62</v>
       </c>
@@ -6071,23 +6143,23 @@
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5">
-        <f t="shared" ref="N57:R57" si="171">SUM(N49:N56)</f>
+        <f t="shared" ref="N57:R57" si="176">SUM(N49:N56)</f>
         <v>3019</v>
       </c>
       <c r="O57" s="5">
-        <f t="shared" si="171"/>
+        <f t="shared" si="176"/>
         <v>1641</v>
       </c>
       <c r="P57" s="5">
-        <f t="shared" si="171"/>
+        <f t="shared" si="176"/>
         <v>2124</v>
       </c>
       <c r="Q57" s="5">
-        <f t="shared" si="171"/>
+        <f t="shared" si="176"/>
         <v>3147</v>
       </c>
       <c r="R57" s="5">
-        <f t="shared" si="171"/>
+        <f t="shared" si="176"/>
         <v>4585</v>
       </c>
       <c r="S57" s="5">
@@ -6114,7 +6186,7 @@
       <c r="Y57" s="5"/>
       <c r="Z57" s="5"/>
     </row>
-    <row r="58" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -6140,7 +6212,7 @@
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
     </row>
-    <row r="59" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
         <v>81</v>
       </c>
@@ -6191,7 +6263,7 @@
       <c r="Y59" s="5"/>
       <c r="Z59" s="5"/>
     </row>
-    <row r="60" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="10" t="s">
         <v>82</v>
       </c>
@@ -6211,23 +6283,23 @@
         <v>1868</v>
       </c>
       <c r="O60" s="5">
-        <f t="shared" ref="O60:R60" si="172">O57-O59</f>
+        <f t="shared" ref="O60:R60" si="177">O57-O59</f>
         <v>293</v>
       </c>
       <c r="P60" s="5">
-        <f t="shared" si="172"/>
+        <f t="shared" si="177"/>
         <v>619</v>
       </c>
       <c r="Q60" s="5">
-        <f t="shared" si="172"/>
+        <f t="shared" si="177"/>
         <v>1328</v>
       </c>
       <c r="R60" s="5">
-        <f t="shared" si="172"/>
+        <f t="shared" si="177"/>
         <v>2775</v>
       </c>
       <c r="S60" s="5">
-        <f t="shared" ref="S60" si="173">S57-S59</f>
+        <f t="shared" ref="S60" si="178">S57-S59</f>
         <v>2228</v>
       </c>
       <c r="T60" s="5">
@@ -6250,7 +6322,7 @@
       <c r="Y60" s="5"/>
       <c r="Z60" s="5"/>
     </row>
-    <row r="61" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="10" t="s">
         <v>83</v>
       </c>
@@ -6269,38 +6341,38 @@
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5">
-        <f>SUM(N60:Q60)</f>
+        <f t="shared" ref="Q61:W61" si="179">SUM(N60:Q60)</f>
         <v>4108</v>
       </c>
       <c r="R61" s="5">
-        <f>SUM(O60:R60)</f>
+        <f t="shared" si="179"/>
         <v>5015</v>
       </c>
       <c r="S61" s="5">
-        <f>SUM(P60:S60)</f>
+        <f t="shared" si="179"/>
         <v>6950</v>
       </c>
       <c r="T61" s="5">
-        <f>SUM(Q60:T60)</f>
+        <f t="shared" si="179"/>
         <v>6952</v>
       </c>
       <c r="U61" s="5">
-        <f>SUM(R60:U60)</f>
+        <f t="shared" si="179"/>
         <v>8921</v>
       </c>
       <c r="V61" s="5">
-        <f>SUM(S60:V60)</f>
+        <f t="shared" si="179"/>
         <v>7566</v>
       </c>
       <c r="W61" s="5">
-        <f>SUM(T60:W60)</f>
+        <f t="shared" si="179"/>
         <v>5779</v>
       </c>
       <c r="X61" s="5"/>
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
     </row>
-    <row r="62" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -6326,7 +6398,7 @@
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
     </row>
-    <row r="63" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="31" t="s">
         <v>115</v>
       </c>
@@ -6355,51 +6427,51 @@
         <v>19726</v>
       </c>
       <c r="X63" s="5">
-        <f t="shared" ref="X63:Z63" si="174">X64-X81</f>
+        <f t="shared" ref="X63:Z63" si="180">X64-X81</f>
         <v>23241.940000000002</v>
       </c>
       <c r="Y63" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>28104.460000000003</v>
       </c>
       <c r="Z63" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>33034.615000000005</v>
       </c>
-      <c r="AJ63" s="4">
+      <c r="AL63" s="4">
         <f>Z63</f>
         <v>33034.615000000005</v>
       </c>
-      <c r="AK63" s="4">
-        <f>AJ63+AK36</f>
+      <c r="AM63" s="4">
+        <f>AL63+AM36</f>
         <v>50607.914857986601</v>
       </c>
-      <c r="AL63" s="4">
-        <f t="shared" ref="AL63:AQ63" si="175">AK63+AL36</f>
+      <c r="AN63" s="4">
+        <f t="shared" ref="AN63:AS63" si="181">AM63+AN36</f>
         <v>81498.153955044894</v>
       </c>
-      <c r="AM63" s="4">
-        <f t="shared" si="175"/>
+      <c r="AO63" s="4">
+        <f t="shared" si="181"/>
         <v>127602.15208270708</v>
       </c>
-      <c r="AN63" s="4">
-        <f t="shared" si="175"/>
+      <c r="AP63" s="4">
+        <f t="shared" si="181"/>
         <v>191410.67808016553</v>
       </c>
-      <c r="AO63" s="4">
-        <f t="shared" si="175"/>
+      <c r="AQ63" s="4">
+        <f t="shared" si="181"/>
         <v>278009.78617729852</v>
       </c>
-      <c r="AP63" s="4">
-        <f t="shared" si="175"/>
+      <c r="AR63" s="4">
+        <f t="shared" si="181"/>
         <v>388919.00170094747</v>
       </c>
-      <c r="AQ63" s="4">
-        <f t="shared" si="175"/>
+      <c r="AS63" s="4">
+        <f t="shared" si="181"/>
         <v>523408.26267566043</v>
       </c>
     </row>
-    <row r="64" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="10" t="s">
         <v>3</v>
       </c>
@@ -6441,11 +6513,11 @@
         <v>25917.940000000002</v>
       </c>
       <c r="Y64" s="5">
-        <f t="shared" ref="Y64:Z64" si="176">X64+Y36</f>
+        <f t="shared" ref="Y64:Z64" si="182">X64+Y36</f>
         <v>30780.460000000003</v>
       </c>
       <c r="Z64" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="182"/>
         <v>35710.615000000005</v>
       </c>
     </row>
@@ -6846,19 +6918,19 @@
         <v>62131</v>
       </c>
       <c r="T75" s="5">
-        <f t="shared" ref="T75:W75" si="177">SUM(T64:T74)</f>
+        <f t="shared" ref="T75:W75" si="183">SUM(T64:T74)</f>
         <v>68513</v>
       </c>
       <c r="U75" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="183"/>
         <v>74426</v>
       </c>
       <c r="V75" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="183"/>
         <v>0</v>
       </c>
       <c r="W75" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="183"/>
         <v>86833</v>
       </c>
       <c r="X75" s="5"/>
@@ -7035,19 +7107,19 @@
         <v>62131</v>
       </c>
       <c r="T85" s="5">
-        <f t="shared" ref="T85:W85" si="178">SUM(T77:T84)</f>
+        <f t="shared" ref="T85:W85" si="184">SUM(T77:T84)</f>
         <v>68513</v>
       </c>
       <c r="U85" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="184"/>
         <v>74426</v>
       </c>
       <c r="V85" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="184"/>
         <v>0</v>
       </c>
       <c r="W85" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="184"/>
         <v>86833</v>
       </c>
     </row>

--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFCE394-E9F4-452A-B19A-C4B7DD44DF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C9540D-AE4D-3942-B342-F73163E1811C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24075" yWindow="570" windowWidth="24480" windowHeight="18405" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16500" yWindow="620" windowWidth="16480" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <author>tc={7D7449AA-B6F8-4EBC-88EB-E7879CDB3FAB}</author>
   </authors>
   <commentList>
-    <comment ref="AL10" authorId="0" shapeId="0" xr:uid="{7D7449AA-B6F8-4EBC-88EB-E7879CDB3FAB}">
+    <comment ref="AP10" authorId="0" shapeId="0" xr:uid="{7D7449AA-B6F8-4EBC-88EB-E7879CDB3FAB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="122">
   <si>
     <t>Price</t>
   </si>
@@ -406,6 +406,18 @@
   </si>
   <si>
     <t>Software COGS</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
@@ -593,16 +605,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>35031</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>57117</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>155705</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>50486</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>59758</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>72572</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>69705</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -619,8 +631,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14740702" y="155705"/>
-          <a:ext cx="15455" cy="16166248"/>
+          <a:off x="19659291" y="0"/>
+          <a:ext cx="15455" cy="16966227"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -645,16 +657,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>39414</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>6283</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>78828</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>39414</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>6283</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>131379</xdr:rowOff>
+      <xdr:rowOff>52551</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -669,8 +681,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21546207" y="78828"/>
-          <a:ext cx="0" cy="11876689"/>
+          <a:off x="30177066" y="0"/>
+          <a:ext cx="0" cy="12310812"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -703,9 +715,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -743,7 +755,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -849,7 +861,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -991,7 +1003,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -999,7 +1011,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AL10" dT="2023-04-23T20:32:30.18" personId="{DB2BD1D3-B51E-4CED-BC74-064ACA9A1F13}" id="{7D7449AA-B6F8-4EBC-88EB-E7879CDB3FAB}">
+  <threadedComment ref="AP10" dT="2023-04-23T20:32:30.18" personId="{DB2BD1D3-B51E-4CED-BC74-064ACA9A1F13}" id="{7D7449AA-B6F8-4EBC-88EB-E7879CDB3FAB}">
     <text>Q123: 1.8m/year</text>
   </threadedComment>
 </ThreadedComments>
@@ -1009,24 +1021,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="16384" width="9.1640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
       <c r="J2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="11">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="J3" s="9" t="s">
         <v>1</v>
       </c>
@@ -1037,16 +1049,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
       <c r="J4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="10">
         <f>K2*K3</f>
-        <v>521029.15408499999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+        <v>555764.43102400005</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="J5" s="9" t="s">
         <v>3</v>
       </c>
@@ -1058,7 +1070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
       <c r="J6" s="9" t="s">
         <v>4</v>
       </c>
@@ -1070,16 +1082,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="J7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="10">
         <f>K4-K5+K6</f>
-        <v>503475.15408499999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+        <v>538210.43102400005</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
@@ -1094,41 +1106,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E310252-7C49-48D8-9A64-7380C8DB275B}">
-  <dimension ref="A1:CW89"/>
+  <dimension ref="A1:DA89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="Z13" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="S45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB22" sqref="AB22"/>
+      <selection pane="bottomRight" activeCell="AA61" sqref="AA61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
-    <col min="3" max="18" width="9.140625" style="2"/>
-    <col min="19" max="19" width="8.7109375" style="2" customWidth="1"/>
-    <col min="20" max="26" width="9.140625" style="2"/>
-    <col min="27" max="35" width="9.140625" style="1"/>
-    <col min="36" max="38" width="9.7109375" style="1" customWidth="1"/>
-    <col min="39" max="39" width="10.85546875" style="1" customWidth="1"/>
-    <col min="40" max="40" width="10.28515625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="10.85546875" style="1" customWidth="1"/>
-    <col min="42" max="42" width="11.140625" style="1" customWidth="1"/>
-    <col min="43" max="46" width="10.85546875" style="1" customWidth="1"/>
-    <col min="47" max="47" width="9.140625" style="1"/>
-    <col min="48" max="48" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="1" customWidth="1"/>
+    <col min="3" max="18" width="9.1640625" style="2"/>
+    <col min="19" max="19" width="8.6640625" style="2" customWidth="1"/>
+    <col min="20" max="27" width="9.1640625" style="2"/>
+    <col min="28" max="30" width="8.5" style="2" customWidth="1"/>
+    <col min="31" max="39" width="9.1640625" style="1"/>
+    <col min="40" max="42" width="9.6640625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="10.83203125" style="1" customWidth="1"/>
+    <col min="44" max="44" width="10.33203125" style="1" customWidth="1"/>
+    <col min="45" max="45" width="10.83203125" style="1" customWidth="1"/>
+    <col min="46" max="46" width="11.1640625" style="1" customWidth="1"/>
+    <col min="47" max="50" width="10.83203125" style="1" customWidth="1"/>
+    <col min="51" max="51" width="9.1640625" style="1"/>
+    <col min="52" max="52" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="W1" s="24"/>
     </row>
-    <row r="2" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="13" t="s">
         <v>84</v>
       </c>
@@ -1158,8 +1171,12 @@
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
-    </row>
-    <row r="3" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+    </row>
+    <row r="3" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1218,27 +1235,56 @@
       <c r="W3" s="5">
         <v>10695</v>
       </c>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AH3" s="4">
+      <c r="X3" s="5">
+        <v>19225</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>15985</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>22969</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>17027</v>
+      </c>
+      <c r="AB3" s="5">
+        <f>+X3*1.3</f>
+        <v>24992.5</v>
+      </c>
+      <c r="AC3" s="5">
+        <f>+Y3*1.3</f>
+        <v>20780.5</v>
+      </c>
+      <c r="AD3" s="5">
+        <f>+Z3*1.3</f>
+        <v>29859.7</v>
+      </c>
+      <c r="AL3" s="4">
         <f>SUM(G3:J3)</f>
         <v>66771</v>
       </c>
-      <c r="AI3" s="4">
+      <c r="AM3" s="4">
         <f>SUM(K3:N3)</f>
         <v>56950</v>
       </c>
-      <c r="AJ3" s="4">
+      <c r="AN3" s="4">
         <f>SUM(O3:R3)</f>
         <v>24935</v>
       </c>
-      <c r="AK3" s="4">
+      <c r="AO3" s="4">
         <f>SUM(S3:V3)</f>
         <v>66705</v>
       </c>
-    </row>
-    <row r="4" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP3" s="4">
+        <f>SUM(W3:Z3)</f>
+        <v>68874</v>
+      </c>
+      <c r="AQ3" s="4">
+        <f>SUM(AA3:AD3)</f>
+        <v>92659.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1297,27 +1343,56 @@
       <c r="W4" s="5">
         <v>412180</v>
       </c>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AH4" s="4">
+      <c r="X4" s="5">
+        <v>446915</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>419074</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>461538</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>369783</v>
+      </c>
+      <c r="AB4" s="5">
+        <f>+X4*1.1</f>
+        <v>491606.50000000006</v>
+      </c>
+      <c r="AC4" s="5">
+        <f>+Y4*1.1</f>
+        <v>460981.4</v>
+      </c>
+      <c r="AD4" s="5">
+        <f>+Z4*1.1</f>
+        <v>507691.80000000005</v>
+      </c>
+      <c r="AL4" s="4">
         <f>SUM(G4:J4)</f>
         <v>300885</v>
       </c>
-      <c r="AI4" s="4">
+      <c r="AM4" s="4">
         <f>SUM(K4:N4)</f>
         <v>442066</v>
       </c>
-      <c r="AJ4" s="4">
+      <c r="AN4" s="4">
         <f>SUM(O4:R4)</f>
         <v>911015</v>
       </c>
-      <c r="AK4" s="4">
+      <c r="AO4" s="4">
         <f>SUM(S4:V4)</f>
         <v>1247146</v>
       </c>
-    </row>
-    <row r="5" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP4" s="4">
+        <f>SUM(W4:Z4)</f>
+        <v>1739707</v>
+      </c>
+      <c r="AQ4" s="4">
+        <f>SUM(AA4:AD4)</f>
+        <v>1830062.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1393,59 +1468,84 @@
         <f>W4+W3</f>
         <v>422875</v>
       </c>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AH5" s="6">
-        <f>+AH3+AH4</f>
+      <c r="X5" s="7">
+        <f>X4+X3</f>
+        <v>466140</v>
+      </c>
+      <c r="Y5" s="7">
+        <f>Y4+Y3</f>
+        <v>435059</v>
+      </c>
+      <c r="Z5" s="7">
+        <f>Z4+Z3</f>
+        <v>484507</v>
+      </c>
+      <c r="AA5" s="7">
+        <f>AA4+AA3</f>
+        <v>386810</v>
+      </c>
+      <c r="AB5" s="7">
+        <f>AB4+AB3</f>
+        <v>516599.00000000006</v>
+      </c>
+      <c r="AC5" s="7">
+        <f>AC4+AC3</f>
+        <v>481761.9</v>
+      </c>
+      <c r="AD5" s="7">
+        <f>AD4+AD3</f>
+        <v>537551.5</v>
+      </c>
+      <c r="AL5" s="6">
+        <f>+AL3+AL4</f>
         <v>367656</v>
       </c>
-      <c r="AI5" s="6">
-        <f>+AI3+AI4</f>
+      <c r="AM5" s="6">
+        <f>+AM3+AM4</f>
         <v>499016</v>
       </c>
-      <c r="AJ5" s="6">
-        <f>+AJ3+AJ4</f>
+      <c r="AN5" s="6">
+        <f>+AN3+AN4</f>
         <v>935950</v>
       </c>
-      <c r="AK5" s="6">
-        <f>+AK3+AK4</f>
+      <c r="AO5" s="6">
+        <f>+AO3+AO4</f>
         <v>1313851</v>
       </c>
-      <c r="AL5" s="6">
-        <f>+AK5*1.35</f>
-        <v>1773698.85</v>
-      </c>
-      <c r="AM5" s="6">
-        <f>AM10</f>
-        <v>2403667.3050000002</v>
-      </c>
-      <c r="AN5" s="6">
-        <f t="shared" ref="AN5:AQ5" si="1">AN10</f>
+      <c r="AP5" s="6">
+        <f>+AP3+AP4</f>
+        <v>1808581</v>
+      </c>
+      <c r="AQ5" s="6">
+        <f>+AQ3+AQ4</f>
+        <v>1922722.4</v>
+      </c>
+      <c r="AR5" s="6">
+        <f t="shared" ref="AR5:AU5" si="1">AR10</f>
         <v>3124767.4965000004</v>
       </c>
-      <c r="AO5" s="6">
+      <c r="AS5" s="6">
         <f t="shared" si="1"/>
         <v>3905959.3706250004</v>
       </c>
-      <c r="AP5" s="6">
+      <c r="AT5" s="6">
         <f t="shared" si="1"/>
         <v>4687151.2447500005</v>
       </c>
-      <c r="AQ5" s="6">
+      <c r="AU5" s="6">
         <f t="shared" si="1"/>
         <v>5624581.4937000005</v>
       </c>
-      <c r="AR5" s="6">
-        <f t="shared" ref="AR5:AS5" si="2">AR10</f>
+      <c r="AV5" s="6">
+        <f t="shared" ref="AV5:AW5" si="2">AV10</f>
         <v>6468268.7177550001</v>
       </c>
-      <c r="AS5" s="6">
+      <c r="AW5" s="6">
         <f t="shared" si="2"/>
         <v>7115095.5895305006</v>
       </c>
     </row>
-    <row r="6" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1453,91 +1553,152 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
+      <c r="G6" s="5">
+        <f t="shared" ref="G6" si="3">G14*1000000/G5</f>
+        <v>55681.619828940478</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" ref="H6" si="4">H14*1000000/H5</f>
+        <v>54196.904232560089</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" ref="I6" si="5">I14*1000000/I5</f>
+        <v>52805.95970613051</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" ref="J6" si="6">J14*1000000/J5</f>
+        <v>54801.730674873994</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" ref="K6" si="7">K14*1000000/K5</f>
+        <v>55290.634604953899</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" ref="L6" si="8">L14*1000000/L5</f>
+        <v>54175.399889685606</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" ref="M6" si="9">M14*1000000/M5</f>
+        <v>52735.10409188801</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" ref="N6" si="10">N14*1000000/N5</f>
+        <v>47809.713684443705</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" ref="O6" si="11">O14*1000000/O5</f>
+        <v>44301.948051948049</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" ref="P6" si="12">P14*1000000/P5</f>
+        <v>47304.34782608696</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" ref="Q6" si="13">Q14*1000000/Q5</f>
+        <v>47215.084956485705</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" ref="R6" si="14">R14*1000000/R5</f>
+        <v>48687.621516526247</v>
+      </c>
       <c r="S6" s="5">
-        <f>S5/S14*1000</f>
-        <v>19985.045765115381</v>
+        <f t="shared" ref="S6" si="15">S14*1000000/S5</f>
+        <v>50037.413561771078</v>
       </c>
       <c r="T6" s="5">
-        <f>T5/T14*1000</f>
-        <v>18631.675201170445</v>
+        <f t="shared" ref="T6:Y6" si="16">T14*1000000/T5</f>
+        <v>53672.039105596894</v>
       </c>
       <c r="U6" s="5">
-        <f>U5/U14*1000</f>
-        <v>19332.583637897107</v>
+        <f t="shared" si="16"/>
+        <v>51726.143733821948</v>
       </c>
       <c r="V6" s="5">
-        <f>V5/V14*1000</f>
-        <v>19266.840979320179</v>
+        <f t="shared" si="16"/>
+        <v>51902.644604444358</v>
       </c>
       <c r="W6" s="5">
-        <f>W5/W14*1000</f>
-        <v>22400.413179362222</v>
-      </c>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AH6" s="5">
-        <f>AH14/AH5*1000000</f>
-        <v>54268.120199316756</v>
-      </c>
-      <c r="AI6" s="5">
-        <f>AI14/AI5*1000000</f>
-        <v>51667.681998172404</v>
-      </c>
-      <c r="AJ6" s="5">
-        <f>AJ14/AJ5*1000000</f>
-        <v>47144.612425877451</v>
-      </c>
-      <c r="AK6" s="5">
-        <f>AK14/AK5*1000000</f>
-        <v>51759.293862089384</v>
+        <f t="shared" si="16"/>
+        <v>44642.033697901272</v>
+      </c>
+      <c r="X6" s="5">
+        <f t="shared" si="16"/>
+        <v>43804.436435405674</v>
+      </c>
+      <c r="Y6" s="5">
+        <f t="shared" si="16"/>
+        <v>42711.448332295156</v>
+      </c>
+      <c r="Z6" s="5">
+        <f>Z14*1000000/Z5</f>
+        <v>42579.364178432923</v>
+      </c>
+      <c r="AA6" s="5">
+        <f t="shared" ref="AA6:AD6" si="17">AA14*1000000/AA5</f>
+        <v>42553.191489361699</v>
+      </c>
+      <c r="AB6" s="5">
+        <f>+X6*1.05</f>
+        <v>45994.658257175957</v>
+      </c>
+      <c r="AC6" s="5">
+        <f>+Y6*1.05</f>
+        <v>44847.020748909919</v>
+      </c>
+      <c r="AD6" s="5">
+        <f>+Z6*1.05</f>
+        <v>44708.332387354574</v>
       </c>
       <c r="AL6" s="5">
         <f>AL14/AL5*1000000</f>
-        <v>52074.228948166703</v>
-      </c>
-      <c r="AM6" s="4">
-        <f>AL6*1.1</f>
-        <v>57281.651842983381</v>
-      </c>
-      <c r="AN6" s="4">
-        <f>AM6*1.03</f>
-        <v>59000.101398272884</v>
-      </c>
-      <c r="AO6" s="4">
-        <f>AN6*1.03</f>
-        <v>60770.104440221068</v>
-      </c>
-      <c r="AP6" s="4">
-        <f>AO6*1.03</f>
-        <v>62593.207573427702</v>
+        <v>54268.120199316756</v>
+      </c>
+      <c r="AM6" s="5">
+        <f>AM14/AM5*1000000</f>
+        <v>51667.681998172404</v>
+      </c>
+      <c r="AN6" s="5">
+        <f>AN14/AN5*1000000</f>
+        <v>47144.612425877451</v>
+      </c>
+      <c r="AO6" s="5">
+        <f>AO14/AO5*1000000</f>
+        <v>51759.293862089384</v>
+      </c>
+      <c r="AP6" s="5">
+        <f>AP14/AP5*1000000</f>
+        <v>43409.169951470241</v>
       </c>
       <c r="AQ6" s="4">
-        <f>AP6*1.03</f>
-        <v>64471.003800630533</v>
+        <f>AP6*1.1</f>
+        <v>47750.086946617266</v>
       </c>
       <c r="AR6" s="4">
-        <f t="shared" ref="AR6:AS6" si="3">AQ6*1.03</f>
-        <v>66405.133914649457</v>
+        <f>AQ6*1.03</f>
+        <v>49182.589555015787</v>
       </c>
       <c r="AS6" s="4">
-        <f t="shared" si="3"/>
-        <v>68397.287932088948</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f>AR6*1.03</f>
+        <v>50658.067241666264</v>
+      </c>
+      <c r="AT6" s="4">
+        <f>AS6*1.03</f>
+        <v>52177.809258916255</v>
+      </c>
+      <c r="AU6" s="4">
+        <f>AT6*1.03</f>
+        <v>53743.143536683747</v>
+      </c>
+      <c r="AV6" s="4">
+        <f t="shared" ref="AV6:AW6" si="18">AU6*1.03</f>
+        <v>55355.43784278426</v>
+      </c>
+      <c r="AW6" s="4">
+        <f t="shared" si="18"/>
+        <v>57016.100978067792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1562,8 +1723,12 @@
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
-    </row>
-    <row r="8" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+    </row>
+    <row r="8" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
@@ -1622,27 +1787,39 @@
       <c r="W8" s="5">
         <v>19437</v>
       </c>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AH8" s="4">
+      <c r="X8" s="5">
+        <v>19489</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>13688</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>18212</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>20995</v>
+      </c>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AL8" s="4">
         <f>SUM(G8:J8)</f>
         <v>62931</v>
       </c>
-      <c r="AI8" s="4">
+      <c r="AM8" s="4">
         <f>SUM(K8:N8)</f>
         <v>54805</v>
       </c>
-      <c r="AJ8" s="4">
+      <c r="AN8" s="4">
         <f>SUM(O8:R8)</f>
         <v>24390</v>
       </c>
-      <c r="AK8" s="4">
+      <c r="AO8" s="4">
         <f>SUM(S8:V8)</f>
         <v>71177</v>
       </c>
     </row>
-    <row r="9" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1701,27 +1878,39 @@
       <c r="W9" s="5">
         <v>421371</v>
       </c>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AH9" s="4">
+      <c r="X9" s="5">
+        <v>460211</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>416800</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>476777</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>412376</v>
+      </c>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AL9" s="4">
         <f>SUM(G9:J9)</f>
         <v>302301</v>
       </c>
-      <c r="AI9" s="4">
+      <c r="AM9" s="4">
         <f>SUM(K9:N9)</f>
         <v>454932</v>
       </c>
-      <c r="AJ9" s="4">
+      <c r="AN9" s="4">
         <f>SUM(O9:R9)</f>
         <v>906032</v>
       </c>
-      <c r="AK9" s="4">
+      <c r="AO9" s="4">
         <f>SUM(S9:V9)</f>
         <v>1298434</v>
       </c>
     </row>
-    <row r="10" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
@@ -1730,51 +1919,51 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7">
-        <f t="shared" ref="G10:R10" si="4">G9+G8</f>
+        <f t="shared" ref="G10:R10" si="19">G9+G8</f>
         <v>77138</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>87048</v>
       </c>
       <c r="I10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>96155</v>
       </c>
       <c r="J10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>104891</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>102672</v>
       </c>
       <c r="L10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>82272</v>
       </c>
       <c r="M10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>145036</v>
       </c>
       <c r="N10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>179757</v>
       </c>
       <c r="O10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>180338</v>
       </c>
       <c r="P10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>206421</v>
       </c>
       <c r="Q10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>237823</v>
       </c>
       <c r="R10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>305840</v>
       </c>
       <c r="S10" s="7">
@@ -1797,59 +1986,84 @@
         <f>+W8+W9</f>
         <v>440808</v>
       </c>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AH10" s="6">
-        <f>+AH8+AH9</f>
+      <c r="X10" s="7">
+        <f>+X8+X9</f>
+        <v>479700</v>
+      </c>
+      <c r="Y10" s="7">
+        <f>+Y8+Y9</f>
+        <v>430488</v>
+      </c>
+      <c r="Z10" s="7">
+        <f>+Z8+Z9</f>
+        <v>494989</v>
+      </c>
+      <c r="AA10" s="7">
+        <f>+AA8+AA9</f>
+        <v>433371</v>
+      </c>
+      <c r="AB10" s="7">
+        <f>+AB8+AB9</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="7">
+        <f>+AC8+AC9</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="7">
+        <f>+AD8+AD9</f>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="6">
+        <f>+AL8+AL9</f>
         <v>365232</v>
       </c>
-      <c r="AI10" s="6">
-        <f>+AI8+AI9</f>
+      <c r="AM10" s="6">
+        <f>+AM8+AM9</f>
         <v>509737</v>
       </c>
-      <c r="AJ10" s="6">
-        <f>+AJ8+AJ9</f>
+      <c r="AN10" s="6">
+        <f>+AN8+AN9</f>
         <v>930422</v>
       </c>
-      <c r="AK10" s="6">
-        <f>+AK8+AK9</f>
+      <c r="AO10" s="6">
+        <f>+AO8+AO9</f>
         <v>1369611</v>
       </c>
-      <c r="AL10" s="6">
-        <f>+AK10*1.35</f>
+      <c r="AP10" s="6">
+        <f>+AO10*1.35</f>
         <v>1848974.85</v>
       </c>
-      <c r="AM10" s="6">
-        <f>AL10*1.3</f>
+      <c r="AQ10" s="6">
+        <f>AP10*1.3</f>
         <v>2403667.3050000002</v>
       </c>
-      <c r="AN10" s="6">
-        <f>AM10*1.3</f>
+      <c r="AR10" s="6">
+        <f>AQ10*1.3</f>
         <v>3124767.4965000004</v>
       </c>
-      <c r="AO10" s="6">
-        <f>AN10*1.25</f>
+      <c r="AS10" s="6">
+        <f>AR10*1.25</f>
         <v>3905959.3706250004</v>
       </c>
-      <c r="AP10" s="6">
-        <f>AO10*1.2</f>
+      <c r="AT10" s="6">
+        <f>AS10*1.2</f>
         <v>4687151.2447500005</v>
       </c>
-      <c r="AQ10" s="6">
-        <f>AP10*1.2</f>
+      <c r="AU10" s="6">
+        <f>AT10*1.2</f>
         <v>5624581.4937000005</v>
       </c>
-      <c r="AR10" s="6">
-        <f>AQ10*1.15</f>
+      <c r="AV10" s="6">
+        <f>AU10*1.15</f>
         <v>6468268.7177550001</v>
       </c>
-      <c r="AS10" s="6">
-        <f>AR10*1.1</f>
+      <c r="AW10" s="6">
+        <f>AV10*1.1</f>
         <v>7115095.5895305006</v>
       </c>
     </row>
-    <row r="11" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1874,9 +2088,13 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-      <c r="AL11" s="28"/>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AP11" s="28"/>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.15">
       <c r="C12" s="29" t="s">
         <v>94</v>
       </c>
@@ -1949,72 +2167,84 @@
       <c r="Z12" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AA12" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB12" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC12" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD12" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF12" s="1">
         <v>2013</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AG12" s="1">
         <v>2014</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AH12" s="1">
         <v>2015</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AI12" s="1">
         <v>2016</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AJ12" s="1">
         <v>2017</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AK12" s="1">
         <v>2018</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AL12" s="1">
         <v>2019</v>
       </c>
-      <c r="AI12" s="1">
+      <c r="AM12" s="1">
         <v>2020</v>
       </c>
-      <c r="AJ12" s="1">
-        <f>+AI12+1</f>
+      <c r="AN12" s="1">
+        <f>+AM12+1</f>
         <v>2021</v>
       </c>
-      <c r="AK12" s="1">
-        <f t="shared" ref="AK12:AQ12" si="5">+AJ12+1</f>
+      <c r="AO12" s="1">
+        <f t="shared" ref="AO12:AU12" si="20">+AN12+1</f>
         <v>2022</v>
       </c>
-      <c r="AL12" s="1">
-        <f t="shared" si="5"/>
+      <c r="AP12" s="1">
+        <f t="shared" si="20"/>
         <v>2023</v>
       </c>
-      <c r="AM12" s="1">
-        <f t="shared" si="5"/>
+      <c r="AQ12" s="1">
+        <f t="shared" si="20"/>
         <v>2024</v>
       </c>
-      <c r="AN12" s="1">
-        <f t="shared" si="5"/>
+      <c r="AR12" s="1">
+        <f t="shared" si="20"/>
         <v>2025</v>
       </c>
-      <c r="AO12" s="1">
-        <f t="shared" si="5"/>
+      <c r="AS12" s="1">
+        <f t="shared" si="20"/>
         <v>2026</v>
       </c>
-      <c r="AP12" s="1">
-        <f t="shared" si="5"/>
+      <c r="AT12" s="1">
+        <f t="shared" si="20"/>
         <v>2027</v>
       </c>
-      <c r="AQ12" s="1">
-        <f t="shared" si="5"/>
+      <c r="AU12" s="1">
+        <f t="shared" si="20"/>
         <v>2028</v>
       </c>
-      <c r="AR12" s="1">
-        <f t="shared" ref="AR12" si="6">+AQ12+1</f>
+      <c r="AV12" s="1">
+        <f t="shared" ref="AV12" si="21">+AU12+1</f>
         <v>2029</v>
       </c>
-      <c r="AS12" s="1">
-        <f t="shared" ref="AS12" si="7">+AR12+1</f>
+      <c r="AW12" s="1">
+        <f t="shared" ref="AW12" si="22">+AV12+1</f>
         <v>2030</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.15">
       <c r="B13" s="30" t="s">
         <v>116</v>
       </c>
@@ -2026,36 +2256,19 @@
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
       <c r="Z13" s="16"/>
-      <c r="AM13" s="4">
-        <f>15*AM5/1000*0.1</f>
-        <v>3605.5009575000004</v>
-      </c>
-      <c r="AN13" s="4">
-        <f>15*AN5/1000*0.2</f>
-        <v>9374.3024895000017</v>
-      </c>
-      <c r="AO13" s="4">
-        <f>15*AO5/1000*0.3</f>
-        <v>17576.8171678125</v>
-      </c>
-      <c r="AP13" s="4">
-        <f>15*AP5/1000*0.4</f>
-        <v>28122.907468500009</v>
-      </c>
-      <c r="AQ13" s="4">
-        <f>15*AQ5/1000*0.5</f>
-        <v>42184.361202750006</v>
-      </c>
-      <c r="AR13" s="4">
-        <f>15*AR5/1000*0.6</f>
-        <v>58214.418459795001</v>
-      </c>
-      <c r="AS13" s="4">
-        <f>15*AS5/1000*0.7</f>
-        <v>74708.503690070254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+    </row>
+    <row r="14" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
@@ -2120,67 +2333,79 @@
         <v>18878</v>
       </c>
       <c r="X14" s="5">
-        <f t="shared" ref="X14:Z15" si="8">+T14*1.4</f>
-        <v>19138</v>
+        <v>20419</v>
       </c>
       <c r="Y14" s="5">
-        <f t="shared" si="8"/>
-        <v>24899</v>
+        <v>18582</v>
       </c>
       <c r="Z14" s="5">
-        <f t="shared" si="8"/>
-        <v>29448.999999999996</v>
-      </c>
-      <c r="AH14" s="4">
-        <f t="shared" ref="AH14:AH19" si="9">SUM(G14:J14)</f>
+        <v>20630</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>16460</v>
+      </c>
+      <c r="AB14" s="5">
+        <f>+AB6*AB5/1000000</f>
+        <v>23760.794460998844</v>
+      </c>
+      <c r="AC14" s="5">
+        <f>+AC6*AC5/1000000</f>
+        <v>21605.585925334268</v>
+      </c>
+      <c r="AD14" s="5">
+        <f>+AD6*AD5/1000000</f>
+        <v>24033.031137321035</v>
+      </c>
+      <c r="AL14" s="4">
+        <f t="shared" ref="AL14:AL19" si="23">SUM(G14:J14)</f>
         <v>19952</v>
       </c>
-      <c r="AI14" s="4">
+      <c r="AM14" s="4">
         <f>SUM(K14:N14)</f>
         <v>25783</v>
       </c>
-      <c r="AJ14" s="4">
+      <c r="AN14" s="4">
         <f>SUM(O14:R14)</f>
         <v>44125</v>
       </c>
-      <c r="AK14" s="4">
+      <c r="AO14" s="4">
         <f>SUM(S14:V14)</f>
         <v>68004</v>
       </c>
-      <c r="AL14" s="4">
+      <c r="AP14" s="4">
         <f>SUM(W14:Z14)</f>
-        <v>92364</v>
-      </c>
-      <c r="AM14" s="4">
-        <f>AM6*AM10/1000000</f>
-        <v>137686.03371137218</v>
-      </c>
-      <c r="AN14" s="4">
-        <f t="shared" ref="AN14:AS14" si="10">AN6*AN10/1000000</f>
-        <v>184361.59913952733</v>
-      </c>
-      <c r="AO14" s="4">
-        <f t="shared" si="10"/>
-        <v>237365.55889214142</v>
-      </c>
-      <c r="AP14" s="4">
-        <f t="shared" si="10"/>
-        <v>293383.83079068683</v>
+        <v>78509</v>
       </c>
       <c r="AQ14" s="4">
-        <f t="shared" si="10"/>
-        <v>362622.41485728888</v>
+        <f>AQ6*AQ10/1000000</f>
+        <v>114775.32280449121</v>
       </c>
       <c r="AR14" s="4">
-        <f t="shared" si="10"/>
-        <v>429526.25039845874</v>
+        <f t="shared" ref="AR14:AW14" si="24">AR6*AR10/1000000</f>
+        <v>153684.15723521376</v>
       </c>
       <c r="AS14" s="4">
-        <f t="shared" si="10"/>
-        <v>486653.24170145381</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="24"/>
+        <v>197868.35244033771</v>
+      </c>
+      <c r="AT14" s="4">
+        <f t="shared" si="24"/>
+        <v>244565.28361625742</v>
+      </c>
+      <c r="AU14" s="4">
+        <f t="shared" si="24"/>
+        <v>302282.69054969423</v>
+      </c>
+      <c r="AV14" s="4">
+        <f t="shared" si="24"/>
+        <v>358053.84695611271</v>
+      </c>
+      <c r="AW14" s="4">
+        <f t="shared" si="24"/>
+        <v>405675.0086012758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
@@ -2234,46 +2459,58 @@
         <v>286</v>
       </c>
       <c r="V15" s="5">
-        <f t="shared" ref="V15:V16" si="11">+R15*1.4</f>
+        <f t="shared" ref="V15:V16" si="25">+R15*1.4</f>
         <v>439.59999999999997</v>
       </c>
       <c r="W15" s="5">
         <v>521</v>
       </c>
       <c r="X15" s="5">
-        <f t="shared" si="8"/>
-        <v>481.59999999999997</v>
+        <v>282</v>
       </c>
       <c r="Y15" s="5">
-        <f t="shared" si="8"/>
-        <v>400.4</v>
+        <v>554</v>
       </c>
       <c r="Z15" s="5">
-        <f t="shared" si="8"/>
-        <v>615.43999999999994</v>
-      </c>
-      <c r="AH15" s="4">
-        <f t="shared" si="9"/>
+        <v>433</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>442</v>
+      </c>
+      <c r="AB15" s="5">
+        <f>+X15</f>
+        <v>282</v>
+      </c>
+      <c r="AC15" s="5">
+        <f>+Y15</f>
+        <v>554</v>
+      </c>
+      <c r="AD15" s="5">
+        <f>+Z15</f>
+        <v>433</v>
+      </c>
+      <c r="AL15" s="4">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AI15" s="4">
+      <c r="AM15" s="4">
         <f>SUM(K15:N15)</f>
         <v>401</v>
       </c>
-      <c r="AJ15" s="4">
-        <f t="shared" ref="AJ15:AJ19" si="12">SUM(O15:R15)</f>
+      <c r="AN15" s="4">
+        <f t="shared" ref="AN15:AN19" si="26">SUM(O15:R15)</f>
         <v>1465</v>
       </c>
-      <c r="AK15" s="4">
-        <f t="shared" ref="AK15:AK30" si="13">SUM(S15:V15)</f>
+      <c r="AO15" s="4">
+        <f t="shared" ref="AO15:AO30" si="27">SUM(S15:V15)</f>
         <v>1748.6</v>
       </c>
-      <c r="AL15" s="4">
-        <f t="shared" ref="AL15:AL35" si="14">SUM(W15:Z15)</f>
-        <v>2018.44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP15" s="4">
+        <f>SUM(W15:Z15)</f>
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
@@ -2327,46 +2564,58 @@
         <v>621</v>
       </c>
       <c r="V16" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>879.19999999999993</v>
       </c>
       <c r="W16" s="5">
         <v>564</v>
       </c>
       <c r="X16" s="5">
-        <f t="shared" ref="X16" si="15">+T16*1.4</f>
-        <v>823.19999999999993</v>
+        <v>567</v>
       </c>
       <c r="Y16" s="5">
-        <f t="shared" ref="Y16" si="16">+U16*1.4</f>
-        <v>869.4</v>
+        <v>489</v>
       </c>
       <c r="Z16" s="5">
-        <f t="shared" ref="Z16" si="17">+V16*1.4</f>
-        <v>1230.8799999999999</v>
-      </c>
-      <c r="AH16" s="4">
-        <f t="shared" si="9"/>
+        <v>500</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>476</v>
+      </c>
+      <c r="AB16" s="5">
+        <f>+X16</f>
+        <v>567</v>
+      </c>
+      <c r="AC16" s="5">
+        <f>+Y16</f>
+        <v>489</v>
+      </c>
+      <c r="AD16" s="5">
+        <f>+Z16</f>
+        <v>500</v>
+      </c>
+      <c r="AL16" s="4">
+        <f t="shared" si="23"/>
         <v>869</v>
       </c>
-      <c r="AI16" s="4">
+      <c r="AM16" s="4">
         <f>SUM(K16:N16)</f>
         <v>1052</v>
       </c>
-      <c r="AJ16" s="4">
-        <f t="shared" si="12"/>
+      <c r="AN16" s="4">
+        <f t="shared" si="26"/>
         <v>1642</v>
       </c>
-      <c r="AK16" s="4">
-        <f t="shared" si="13"/>
+      <c r="AO16" s="4">
+        <f t="shared" si="27"/>
         <v>2756.2</v>
       </c>
-      <c r="AL16" s="4">
-        <f t="shared" si="14"/>
-        <v>3487.4799999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="2:45" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP16" s="4">
+        <f>SUM(W16:Z16)</f>
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="17" spans="2:49" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6" t="s">
         <v>35</v>
       </c>
@@ -2375,51 +2624,51 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7">
-        <f t="shared" ref="G17:K17" si="18">SUM(G14:G16)</f>
+        <f t="shared" ref="G17:K17" si="28">SUM(G14:G16)</f>
         <v>3724</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>5376</v>
       </c>
       <c r="I17" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>5353</v>
       </c>
       <c r="J17" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>6368</v>
       </c>
       <c r="K17" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>5132</v>
       </c>
       <c r="L17" s="7">
-        <f t="shared" ref="L17" si="19">SUM(L14:L16)</f>
+        <f t="shared" ref="L17" si="29">SUM(L14:L16)</f>
         <v>5179</v>
       </c>
       <c r="M17" s="7">
-        <f t="shared" ref="M17:R17" si="20">SUM(M14:M16)</f>
+        <f t="shared" ref="M17:R17" si="30">SUM(M14:M16)</f>
         <v>7611</v>
       </c>
       <c r="N17" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>9314</v>
       </c>
       <c r="O17" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>9002</v>
       </c>
       <c r="P17" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>10206</v>
       </c>
       <c r="Q17" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>12057</v>
       </c>
       <c r="R17" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>15967</v>
       </c>
       <c r="S17" s="7">
@@ -2435,75 +2684,91 @@
         <v>18692</v>
       </c>
       <c r="V17" s="7">
-        <f t="shared" ref="V17:Z17" si="21">SUM(V14:V16)</f>
+        <f t="shared" ref="V17:AD17" si="31">SUM(V14:V16)</f>
         <v>22353.8</v>
       </c>
       <c r="W17" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>19963</v>
       </c>
       <c r="X17" s="7">
-        <f t="shared" si="21"/>
-        <v>20442.8</v>
+        <f t="shared" si="31"/>
+        <v>21268</v>
       </c>
       <c r="Y17" s="7">
-        <f t="shared" si="21"/>
-        <v>26168.800000000003</v>
+        <f t="shared" si="31"/>
+        <v>19625</v>
       </c>
       <c r="Z17" s="7">
-        <f t="shared" si="21"/>
-        <v>31295.319999999996</v>
-      </c>
-      <c r="AH17" s="6">
-        <f>SUM(AH14:AH16)</f>
-        <v>20821</v>
-      </c>
-      <c r="AI17" s="6">
-        <f>SUM(AI14:AI16)</f>
-        <v>27236</v>
-      </c>
-      <c r="AJ17" s="6">
-        <f>SUM(AJ14:AJ16)</f>
-        <v>47232</v>
-      </c>
-      <c r="AK17" s="6">
-        <f>SUM(AK14:AK16)</f>
-        <v>72508.800000000003</v>
+        <f t="shared" si="31"/>
+        <v>21563</v>
+      </c>
+      <c r="AA17" s="7">
+        <f t="shared" si="31"/>
+        <v>17378</v>
+      </c>
+      <c r="AB17" s="7">
+        <f t="shared" si="31"/>
+        <v>24609.794460998844</v>
+      </c>
+      <c r="AC17" s="7">
+        <f t="shared" si="31"/>
+        <v>22648.585925334268</v>
+      </c>
+      <c r="AD17" s="7">
+        <f t="shared" si="31"/>
+        <v>24966.031137321035</v>
       </c>
       <c r="AL17" s="6">
         <f>SUM(AL14:AL16)</f>
-        <v>97869.92</v>
+        <v>20821</v>
       </c>
       <c r="AM17" s="6">
-        <f>AM14+AM15+AM16</f>
-        <v>137686.03371137218</v>
+        <f>SUM(AM14:AM16)</f>
+        <v>27236</v>
       </c>
       <c r="AN17" s="6">
-        <f>AN14+AN15+AN16</f>
-        <v>184361.59913952733</v>
+        <f>SUM(AN14:AN16)</f>
+        <v>47232</v>
       </c>
       <c r="AO17" s="6">
-        <f>AO14+AO15+AO16</f>
-        <v>237365.55889214142</v>
+        <f>SUM(AO14:AO16)</f>
+        <v>72508.800000000003</v>
       </c>
       <c r="AP17" s="6">
-        <f>AP14+AP15+AP16</f>
-        <v>293383.83079068683</v>
+        <f>SUM(AP14:AP16)</f>
+        <v>82419</v>
       </c>
       <c r="AQ17" s="6">
         <f>AQ14+AQ15+AQ16</f>
-        <v>362622.41485728888</v>
+        <v>114775.32280449121</v>
       </c>
       <c r="AR17" s="6">
-        <f t="shared" ref="AR17:AS17" si="22">AR14+AR15+AR16</f>
-        <v>429526.25039845874</v>
+        <f>AR14+AR15+AR16</f>
+        <v>153684.15723521376</v>
       </c>
       <c r="AS17" s="6">
-        <f t="shared" si="22"/>
-        <v>486653.24170145381</v>
-      </c>
-    </row>
-    <row r="18" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f>AS14+AS15+AS16</f>
+        <v>197868.35244033771</v>
+      </c>
+      <c r="AT17" s="6">
+        <f>AT14+AT15+AT16</f>
+        <v>244565.28361625742</v>
+      </c>
+      <c r="AU17" s="6">
+        <f>AU14+AU15+AU16</f>
+        <v>302282.69054969423</v>
+      </c>
+      <c r="AV17" s="6">
+        <f t="shared" ref="AV17:AW17" si="32">AV14+AV15+AV16</f>
+        <v>358053.84695611271</v>
+      </c>
+      <c r="AW17" s="6">
+        <f t="shared" si="32"/>
+        <v>405675.0086012758</v>
+      </c>
+    </row>
+    <row r="18" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
         <v>36</v>
       </c>
@@ -2557,55 +2822,67 @@
         <v>1117</v>
       </c>
       <c r="V18" s="5">
-        <f t="shared" ref="V18:V19" si="23">+R18*1.4</f>
+        <f t="shared" ref="V18:V19" si="33">+R18*1.4</f>
         <v>963.19999999999993</v>
       </c>
       <c r="W18" s="5">
         <v>1529</v>
       </c>
       <c r="X18" s="5">
-        <f t="shared" ref="X18:X19" si="24">+T18*1.4</f>
-        <v>1212.3999999999999</v>
+        <v>1509</v>
       </c>
       <c r="Y18" s="5">
-        <f t="shared" ref="Y18:Y19" si="25">+U18*1.4</f>
-        <v>1563.8</v>
+        <v>1559</v>
       </c>
       <c r="Z18" s="5">
-        <f t="shared" ref="Z18:Z19" si="26">+V18*1.4</f>
-        <v>1348.4799999999998</v>
-      </c>
-      <c r="AB18" s="4">
+        <v>1438</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>1635</v>
+      </c>
+      <c r="AB18" s="5">
+        <f>+X18</f>
+        <v>1509</v>
+      </c>
+      <c r="AC18" s="5">
+        <f>+Y18</f>
+        <v>1559</v>
+      </c>
+      <c r="AD18" s="5">
+        <f>+Z18</f>
+        <v>1438</v>
+      </c>
+      <c r="AF18" s="4">
         <v>1921.877</v>
       </c>
-      <c r="AC18" s="4">
+      <c r="AG18" s="4">
         <v>3007.0120000000002</v>
       </c>
-      <c r="AD18" s="4">
+      <c r="AH18" s="4">
         <v>3740.973</v>
       </c>
-      <c r="AH18" s="4">
-        <f t="shared" si="9"/>
+      <c r="AL18" s="4">
+        <f t="shared" si="23"/>
         <v>1531</v>
       </c>
-      <c r="AI18" s="4">
+      <c r="AM18" s="4">
         <f>SUM(K18:N18)</f>
         <v>1994</v>
       </c>
-      <c r="AJ18" s="4">
+      <c r="AN18" s="4">
         <f>SUM(O18:R18)</f>
         <v>2789</v>
       </c>
-      <c r="AK18" s="4">
-        <f t="shared" si="13"/>
+      <c r="AO18" s="4">
+        <f t="shared" si="27"/>
         <v>3562.2</v>
       </c>
-      <c r="AL18" s="4">
-        <f t="shared" si="14"/>
-        <v>5653.6799999999994</v>
-      </c>
-    </row>
-    <row r="19" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP18" s="4">
+        <f>SUM(W18:Z18)</f>
+        <v>6035</v>
+      </c>
+    </row>
+    <row r="19" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
         <v>37</v>
       </c>
@@ -2659,55 +2936,67 @@
         <v>1645</v>
       </c>
       <c r="V19" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>1489.6</v>
       </c>
       <c r="W19" s="5">
         <v>1837</v>
       </c>
       <c r="X19" s="5">
-        <f t="shared" si="24"/>
-        <v>2052.4</v>
+        <v>2150</v>
       </c>
       <c r="Y19" s="5">
-        <f t="shared" si="25"/>
-        <v>2303</v>
+        <v>2166</v>
       </c>
       <c r="Z19" s="5">
-        <f t="shared" si="26"/>
-        <v>2085.4399999999996</v>
-      </c>
-      <c r="AB19" s="4">
+        <v>2166</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>2288</v>
+      </c>
+      <c r="AB19" s="5">
+        <f>+X19</f>
+        <v>2150</v>
+      </c>
+      <c r="AC19" s="5">
+        <f>+Y19</f>
+        <v>2166</v>
+      </c>
+      <c r="AD19" s="5">
+        <f>+Z19</f>
+        <v>2166</v>
+      </c>
+      <c r="AF19" s="4">
         <v>91.619</v>
       </c>
-      <c r="AC19" s="4">
+      <c r="AG19" s="4">
         <v>191.34399999999999</v>
       </c>
-      <c r="AD19" s="4">
+      <c r="AH19" s="4">
         <v>305.05200000000002</v>
       </c>
-      <c r="AH19" s="4">
-        <f t="shared" si="9"/>
+      <c r="AL19" s="4">
+        <f t="shared" si="23"/>
         <v>2226</v>
       </c>
-      <c r="AI19" s="4">
+      <c r="AM19" s="4">
         <f>SUM(K19:N19)</f>
         <v>2306</v>
       </c>
-      <c r="AJ19" s="4">
-        <f t="shared" si="12"/>
+      <c r="AN19" s="4">
+        <f t="shared" si="26"/>
         <v>3802</v>
       </c>
-      <c r="AK19" s="4">
-        <f t="shared" si="13"/>
+      <c r="AO19" s="4">
+        <f t="shared" si="27"/>
         <v>5879.6</v>
       </c>
-      <c r="AL19" s="4">
-        <f t="shared" si="14"/>
-        <v>8277.84</v>
-      </c>
-    </row>
-    <row r="20" spans="2:45" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP19" s="4">
+        <f>SUM(W19:Z19)</f>
+        <v>8319</v>
+      </c>
+    </row>
+    <row r="20" spans="2:49" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>38</v>
       </c>
@@ -2716,51 +3005,51 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7">
-        <f t="shared" ref="G20:K20" si="27">SUM(G17:G19)</f>
+        <f t="shared" ref="G20:K20" si="34">SUM(G17:G19)</f>
         <v>4541</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>6350</v>
       </c>
       <c r="I20" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>6303</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>7384</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>5985</v>
       </c>
       <c r="L20" s="7">
-        <f t="shared" ref="L20" si="28">SUM(L17:L19)</f>
+        <f t="shared" ref="L20" si="35">SUM(L17:L19)</f>
         <v>6036</v>
       </c>
       <c r="M20" s="7">
-        <f t="shared" ref="M20:R20" si="29">SUM(M17:M19)</f>
+        <f t="shared" ref="M20:R20" si="36">SUM(M17:M19)</f>
         <v>8771</v>
       </c>
       <c r="N20" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>10744</v>
       </c>
       <c r="O20" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>10389</v>
       </c>
       <c r="P20" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>11958</v>
       </c>
       <c r="Q20" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>13757</v>
       </c>
       <c r="R20" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>17719</v>
       </c>
       <c r="S20" s="7">
@@ -2776,96 +3065,112 @@
         <v>21454</v>
       </c>
       <c r="V20" s="7">
-        <f t="shared" ref="V20:Z20" si="30">SUM(V17:V19)</f>
+        <f t="shared" ref="V20:AE20" si="37">SUM(V17:V19)</f>
         <v>24806.6</v>
       </c>
       <c r="W20" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>23329</v>
       </c>
       <c r="X20" s="7">
-        <f t="shared" si="30"/>
-        <v>23707.600000000002</v>
+        <f t="shared" si="37"/>
+        <v>24927</v>
       </c>
       <c r="Y20" s="7">
-        <f t="shared" si="30"/>
-        <v>30035.600000000002</v>
+        <f t="shared" si="37"/>
+        <v>23350</v>
       </c>
       <c r="Z20" s="7">
-        <f t="shared" si="30"/>
-        <v>34729.24</v>
-      </c>
-      <c r="AB20" s="6">
-        <f>AB18+AB19</f>
+        <f t="shared" si="37"/>
+        <v>25167</v>
+      </c>
+      <c r="AA20" s="7">
+        <f t="shared" si="37"/>
+        <v>21301</v>
+      </c>
+      <c r="AB20" s="7">
+        <f t="shared" si="37"/>
+        <v>28268.794460998844</v>
+      </c>
+      <c r="AC20" s="7">
+        <f t="shared" si="37"/>
+        <v>26373.585925334268</v>
+      </c>
+      <c r="AD20" s="7">
+        <f t="shared" si="37"/>
+        <v>28570.031137321035</v>
+      </c>
+      <c r="AF20" s="6">
+        <f>AF18+AF19</f>
         <v>2013.4959999999999</v>
       </c>
-      <c r="AC20" s="6">
-        <f>AC18+AC19</f>
+      <c r="AG20" s="6">
+        <f>AG18+AG19</f>
         <v>3198.3560000000002</v>
       </c>
-      <c r="AD20" s="6">
-        <f>AD18+AD19</f>
+      <c r="AH20" s="6">
+        <f>AH18+AH19</f>
         <v>4046.0250000000001</v>
       </c>
-      <c r="AE20" s="6">
+      <c r="AI20" s="6">
         <v>7000.1319999999996</v>
       </c>
-      <c r="AF20" s="6">
+      <c r="AJ20" s="6">
         <v>11758.751</v>
       </c>
-      <c r="AG20" s="6">
+      <c r="AK20" s="6">
         <v>21461.268</v>
       </c>
-      <c r="AH20" s="6">
-        <f t="shared" ref="AH20:AQ20" si="31">SUM(AH17:AH19)</f>
+      <c r="AL20" s="6">
+        <f t="shared" ref="AL20:AU20" si="38">SUM(AL17:AL19)</f>
         <v>24578</v>
       </c>
-      <c r="AI20" s="6">
-        <f t="shared" si="31"/>
+      <c r="AM20" s="6">
+        <f t="shared" si="38"/>
         <v>31536</v>
       </c>
-      <c r="AJ20" s="6">
-        <f t="shared" si="31"/>
+      <c r="AN20" s="6">
+        <f t="shared" si="38"/>
         <v>53823</v>
       </c>
-      <c r="AK20" s="6">
-        <f t="shared" si="31"/>
+      <c r="AO20" s="6">
+        <f t="shared" si="38"/>
         <v>81950.600000000006</v>
       </c>
-      <c r="AL20" s="6">
-        <f t="shared" si="31"/>
-        <v>111801.43999999999</v>
-      </c>
-      <c r="AM20" s="6">
-        <f t="shared" si="31"/>
-        <v>137686.03371137218</v>
-      </c>
-      <c r="AN20" s="6">
-        <f t="shared" si="31"/>
-        <v>184361.59913952733</v>
-      </c>
-      <c r="AO20" s="6">
-        <f t="shared" si="31"/>
-        <v>237365.55889214142</v>
-      </c>
       <c r="AP20" s="6">
-        <f t="shared" si="31"/>
-        <v>293383.83079068683</v>
+        <f>SUM(AP17:AP19)</f>
+        <v>96773</v>
       </c>
       <c r="AQ20" s="6">
-        <f t="shared" si="31"/>
-        <v>362622.41485728888</v>
+        <f t="shared" si="38"/>
+        <v>114775.32280449121</v>
       </c>
       <c r="AR20" s="6">
-        <f t="shared" ref="AR20:AS20" si="32">SUM(AR17:AR19)</f>
-        <v>429526.25039845874</v>
+        <f t="shared" si="38"/>
+        <v>153684.15723521376</v>
       </c>
       <c r="AS20" s="6">
-        <f t="shared" si="32"/>
-        <v>486653.24170145381</v>
-      </c>
-    </row>
-    <row r="21" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="38"/>
+        <v>197868.35244033771</v>
+      </c>
+      <c r="AT20" s="6">
+        <f t="shared" si="38"/>
+        <v>244565.28361625742</v>
+      </c>
+      <c r="AU20" s="6">
+        <f t="shared" si="38"/>
+        <v>302282.69054969423</v>
+      </c>
+      <c r="AV20" s="6">
+        <f t="shared" ref="AV20:AW20" si="39">SUM(AV17:AV19)</f>
+        <v>358053.84695611271</v>
+      </c>
+      <c r="AW20" s="6">
+        <f t="shared" si="39"/>
+        <v>405675.0086012758</v>
+      </c>
+    </row>
+    <row r="21" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
         <v>39</v>
       </c>
@@ -2925,58 +3230,70 @@
         <v>15422</v>
       </c>
       <c r="X21" s="5">
-        <f t="shared" ref="X21:Z21" si="33">+X14*0.75</f>
-        <v>14353.5</v>
+        <v>16841</v>
       </c>
       <c r="Y21" s="5">
-        <f t="shared" si="33"/>
-        <v>18674.25</v>
+        <v>15656</v>
       </c>
       <c r="Z21" s="5">
-        <f t="shared" si="33"/>
-        <v>22086.749999999996</v>
-      </c>
-      <c r="AB21" s="4">
+        <v>17202</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>13897</v>
+      </c>
+      <c r="AB21" s="5">
+        <f>+AB14*0.85</f>
+        <v>20196.675291849017</v>
+      </c>
+      <c r="AC21" s="5">
+        <f>+AC14*0.85</f>
+        <v>18364.748036534129</v>
+      </c>
+      <c r="AD21" s="5">
+        <f>+AD14*0.85</f>
+        <v>20428.07646672288</v>
+      </c>
+      <c r="AF21" s="4">
         <v>1483.3209999999999</v>
       </c>
-      <c r="AK21" s="4">
-        <f t="shared" si="13"/>
+      <c r="AO21" s="4">
+        <f t="shared" si="27"/>
         <v>49599</v>
       </c>
-      <c r="AL21" s="4">
-        <f t="shared" si="14"/>
-        <v>70536.5</v>
-      </c>
-      <c r="AM21" s="4">
-        <f>AM20*0.81</f>
-        <v>111525.68730621148</v>
-      </c>
-      <c r="AN21" s="4">
-        <f>AN20*0.8</f>
-        <v>147489.27931162188</v>
-      </c>
-      <c r="AO21" s="4">
-        <f>AO20*0.8</f>
-        <v>189892.44711371313</v>
-      </c>
       <c r="AP21" s="4">
-        <f>AP20*0.8</f>
-        <v>234707.06463254947</v>
+        <f t="shared" ref="AP15:AP35" si="40">SUM(W21:Z21)</f>
+        <v>65121</v>
       </c>
       <c r="AQ21" s="4">
-        <f>AQ20*0.8</f>
-        <v>290097.93188583112</v>
+        <f>AQ20*0.81</f>
+        <v>92968.011471637888</v>
       </c>
       <c r="AR21" s="4">
-        <f t="shared" ref="AR21:AS21" si="34">AR20*0.8</f>
-        <v>343621.00031876704</v>
+        <f>AR20*0.8</f>
+        <v>122947.32578817102</v>
       </c>
       <c r="AS21" s="4">
-        <f t="shared" si="34"/>
-        <v>389322.59336116305</v>
-      </c>
-    </row>
-    <row r="22" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f>AS20*0.8</f>
+        <v>158294.68195227018</v>
+      </c>
+      <c r="AT21" s="4">
+        <f>AT20*0.8</f>
+        <v>195652.22689300595</v>
+      </c>
+      <c r="AU21" s="4">
+        <f>AU20*0.8</f>
+        <v>241826.15243975539</v>
+      </c>
+      <c r="AV21" s="4">
+        <f t="shared" ref="AV21:AW21" si="41">AV20*0.8</f>
+        <v>286443.07756489021</v>
+      </c>
+      <c r="AW21" s="4">
+        <f t="shared" si="41"/>
+        <v>324540.00688102067</v>
+      </c>
+    </row>
+    <row r="22" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
@@ -2985,51 +3302,51 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5">
-        <f t="shared" ref="G22:N22" si="35">G14-G21</f>
+        <f t="shared" ref="G22:N22" si="42">G14-G21</f>
         <v>653</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>914</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>1118</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>1328</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>1194</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>1197</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>1985</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>1711</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" ref="O22:R22" si="36">O14-O21</f>
+        <f t="shared" ref="O22:R22" si="43">O14-O21</f>
         <v>1730</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2401</v>
       </c>
       <c r="Q22" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3243</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>4336</v>
       </c>
       <c r="S22" s="5">
@@ -3045,7 +3362,7 @@
         <v>4686</v>
       </c>
       <c r="V22" s="5">
-        <f t="shared" ref="V22:Z22" si="37">V14-V21</f>
+        <f t="shared" ref="V22:AD22" si="44">V14-V21</f>
         <v>5602</v>
       </c>
       <c r="W22" s="5">
@@ -3053,27 +3370,43 @@
         <v>3456</v>
       </c>
       <c r="X22" s="5">
-        <f t="shared" si="37"/>
-        <v>4784.5</v>
+        <f t="shared" si="44"/>
+        <v>3578</v>
       </c>
       <c r="Y22" s="5">
-        <f t="shared" si="37"/>
-        <v>6224.75</v>
+        <f t="shared" si="44"/>
+        <v>2926</v>
       </c>
       <c r="Z22" s="5">
-        <f t="shared" si="37"/>
-        <v>7362.25</v>
-      </c>
-      <c r="AK22" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="44"/>
+        <v>3428</v>
+      </c>
+      <c r="AA22" s="5">
+        <f>AA14-AA21</f>
+        <v>2563</v>
+      </c>
+      <c r="AB22" s="5">
+        <f>AB14-AB21</f>
+        <v>3564.1191691498279</v>
+      </c>
+      <c r="AC22" s="5">
+        <f>AC14-AC21</f>
+        <v>3240.8378888001389</v>
+      </c>
+      <c r="AD22" s="5">
+        <f>AD14-AD21</f>
+        <v>3604.9546705981556</v>
+      </c>
+      <c r="AO22" s="4">
+        <f t="shared" si="27"/>
         <v>18405</v>
       </c>
-      <c r="AL22" s="4">
-        <f t="shared" si="14"/>
-        <v>21827.5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP22" s="4">
+        <f t="shared" si="40"/>
+        <v>13388</v>
+      </c>
+    </row>
+    <row r="23" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="31" t="s">
         <v>117</v>
       </c>
@@ -3101,36 +3434,40 @@
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
-      <c r="AM23" s="4">
-        <f>AM13*0.2</f>
-        <v>721.10019150000016</v>
-      </c>
-      <c r="AN23" s="4">
-        <f t="shared" ref="AN23:AS23" si="38">AN13*0.2</f>
-        <v>1874.8604979000004</v>
-      </c>
-      <c r="AO23" s="4">
-        <f t="shared" si="38"/>
-        <v>3515.3634335625002</v>
-      </c>
-      <c r="AP23" s="4">
-        <f t="shared" si="38"/>
-        <v>5624.5814937000023</v>
-      </c>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
       <c r="AQ23" s="4">
-        <f t="shared" si="38"/>
-        <v>8436.8722405500012</v>
+        <f>AQ13*0.2</f>
+        <v>0</v>
       </c>
       <c r="AR23" s="4">
-        <f t="shared" si="38"/>
-        <v>11642.883691959001</v>
+        <f t="shared" ref="AR23:AW23" si="45">AR13*0.2</f>
+        <v>0</v>
       </c>
       <c r="AS23" s="4">
-        <f t="shared" si="38"/>
-        <v>14941.700738014051</v>
-      </c>
-    </row>
-    <row r="24" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AT23" s="4">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AU23" s="4">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AV23" s="4">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AW23" s="4">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
         <v>41</v>
       </c>
@@ -3190,27 +3527,39 @@
         <v>333</v>
       </c>
       <c r="X24" s="5">
-        <f t="shared" ref="X24:Z24" si="39">+T24*1.4</f>
-        <v>516.6</v>
+        <v>338</v>
       </c>
       <c r="Y24" s="5">
-        <f t="shared" si="39"/>
-        <v>533.4</v>
+        <v>301</v>
       </c>
       <c r="Z24" s="5">
-        <f t="shared" si="39"/>
-        <v>492.79999999999995</v>
-      </c>
-      <c r="AK24" s="4">
-        <f t="shared" si="13"/>
+        <v>296</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>269</v>
+      </c>
+      <c r="AB24" s="5">
+        <f>+AB16*0.5</f>
+        <v>283.5</v>
+      </c>
+      <c r="AC24" s="5">
+        <f>+AC16*0.5</f>
+        <v>244.5</v>
+      </c>
+      <c r="AD24" s="5">
+        <f>+AD16*0.5</f>
+        <v>250</v>
+      </c>
+      <c r="AO24" s="4">
+        <f t="shared" si="27"/>
         <v>1510</v>
       </c>
-      <c r="AL24" s="4">
-        <f t="shared" si="14"/>
-        <v>1875.8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP24" s="4">
+        <f t="shared" si="40"/>
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="25" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
         <v>42</v>
       </c>
@@ -3219,35 +3568,35 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5">
-        <f t="shared" ref="G25:K25" si="40">G17-G24-G21</f>
+        <f t="shared" ref="G25:K25" si="46">G17-G24-G21</f>
         <v>751</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>1016</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>1222</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>1434</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>1311</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" ref="L25" si="41">L17-L24-L21</f>
+        <f t="shared" ref="L25" si="47">L17-L24-L21</f>
         <v>1317</v>
       </c>
       <c r="M25" s="5">
-        <f t="shared" ref="M25:N25" si="42">M17-M24-M21</f>
+        <f t="shared" ref="M25:N25" si="48">M17-M24-M21</f>
         <v>2105</v>
       </c>
       <c r="N25" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>2244</v>
       </c>
       <c r="O25" s="5">
@@ -3255,19 +3604,19 @@
         <v>2385</v>
       </c>
       <c r="P25" s="5">
-        <f t="shared" ref="P25:S25" si="43">P17-P24-P21</f>
+        <f t="shared" ref="P25:S25" si="49">P17-P24-P21</f>
         <v>2899</v>
       </c>
       <c r="Q25" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>3673</v>
       </c>
       <c r="R25" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>4882</v>
       </c>
       <c r="S25" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>5539</v>
       </c>
       <c r="T25" s="5">
@@ -3279,7 +3628,7 @@
         <v>5212</v>
       </c>
       <c r="V25" s="5">
-        <f t="shared" ref="V25:Z25" si="44">V17-V24-V21</f>
+        <f t="shared" ref="V25:AD25" si="50">V17-V24-V21</f>
         <v>6568.7999999999993</v>
       </c>
       <c r="W25" s="5">
@@ -3287,55 +3636,71 @@
         <v>4208</v>
       </c>
       <c r="X25" s="5">
-        <f t="shared" si="44"/>
-        <v>5572.7000000000007</v>
+        <f t="shared" si="50"/>
+        <v>4089</v>
       </c>
       <c r="Y25" s="5">
-        <f t="shared" si="44"/>
-        <v>6961.1500000000015</v>
+        <f t="shared" si="50"/>
+        <v>3668</v>
       </c>
       <c r="Z25" s="5">
-        <f t="shared" si="44"/>
-        <v>8715.77</v>
-      </c>
-      <c r="AK25" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="50"/>
+        <v>4065</v>
+      </c>
+      <c r="AA25" s="5">
+        <f t="shared" si="50"/>
+        <v>3212</v>
+      </c>
+      <c r="AB25" s="5">
+        <f t="shared" si="50"/>
+        <v>4129.6191691498279</v>
+      </c>
+      <c r="AC25" s="5">
+        <f t="shared" si="50"/>
+        <v>4039.3378888001389</v>
+      </c>
+      <c r="AD25" s="5">
+        <f t="shared" si="50"/>
+        <v>4287.9546705981556</v>
+      </c>
+      <c r="AO25" s="4">
+        <f t="shared" si="27"/>
         <v>21399.8</v>
       </c>
-      <c r="AL25" s="4">
+      <c r="AP25" s="4">
         <f>SUM(W25:Z25)</f>
-        <v>25457.620000000003</v>
-      </c>
-      <c r="AM25" s="4">
-        <f t="shared" ref="AM25:AS25" si="45">AM20-AM21</f>
-        <v>26160.346405160701</v>
-      </c>
-      <c r="AN25" s="4">
-        <f t="shared" si="45"/>
-        <v>36872.319827905449</v>
-      </c>
-      <c r="AO25" s="4">
-        <f t="shared" si="45"/>
-        <v>47473.111778428283</v>
-      </c>
-      <c r="AP25" s="4">
-        <f t="shared" si="45"/>
-        <v>58676.766158137354</v>
+        <v>16030</v>
       </c>
       <c r="AQ25" s="4">
-        <f t="shared" si="45"/>
-        <v>72524.482971457765</v>
+        <f t="shared" ref="AQ25:AW25" si="51">AQ20-AQ21</f>
+        <v>21807.311332853322</v>
       </c>
       <c r="AR25" s="4">
-        <f t="shared" si="45"/>
-        <v>85905.250079691701</v>
+        <f t="shared" si="51"/>
+        <v>30736.831447042743</v>
       </c>
       <c r="AS25" s="4">
-        <f t="shared" si="45"/>
-        <v>97330.648340290762</v>
-      </c>
-    </row>
-    <row r="26" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="51"/>
+        <v>39573.670488067524</v>
+      </c>
+      <c r="AT25" s="4">
+        <f t="shared" si="51"/>
+        <v>48913.056723251473</v>
+      </c>
+      <c r="AU25" s="4">
+        <f t="shared" si="51"/>
+        <v>60456.538109938847</v>
+      </c>
+      <c r="AV25" s="4">
+        <f t="shared" si="51"/>
+        <v>71610.769391222508</v>
+      </c>
+      <c r="AW25" s="4">
+        <f t="shared" si="51"/>
+        <v>81135.001720255124</v>
+      </c>
+    </row>
+    <row r="26" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
         <v>43</v>
       </c>
@@ -3395,27 +3760,39 @@
         <v>1361</v>
       </c>
       <c r="X26" s="5">
-        <f t="shared" ref="X26:X27" si="46">+T26*1.4</f>
-        <v>1076.5999999999999</v>
+        <v>1231</v>
       </c>
       <c r="Y26" s="5">
-        <f t="shared" ref="Y26:Y27" si="47">+U26*1.4</f>
-        <v>1418.1999999999998</v>
+        <v>1178</v>
       </c>
       <c r="Z26" s="5">
-        <f t="shared" ref="Z26:Z27" si="48">+V26*1.4</f>
-        <v>1611.3999999999999</v>
-      </c>
-      <c r="AK26" s="4">
-        <f t="shared" si="13"/>
+        <v>1124</v>
+      </c>
+      <c r="AA26" s="5">
+        <v>1232</v>
+      </c>
+      <c r="AB26" s="5">
+        <f>+AB18*0.9</f>
+        <v>1358.1000000000001</v>
+      </c>
+      <c r="AC26" s="5">
+        <f>+AC18*0.9</f>
+        <v>1403.1000000000001</v>
+      </c>
+      <c r="AD26" s="5">
+        <f>+AD18*0.9</f>
+        <v>1294.2</v>
+      </c>
+      <c r="AO26" s="4">
+        <f t="shared" si="27"/>
         <v>3621</v>
       </c>
-      <c r="AL26" s="4">
-        <f t="shared" si="14"/>
-        <v>5467.2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP26" s="4">
+        <f t="shared" si="40"/>
+        <v>4894</v>
+      </c>
+    </row>
+    <row r="27" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
         <v>44</v>
       </c>
@@ -3475,27 +3852,39 @@
         <v>1702</v>
       </c>
       <c r="X27" s="5">
-        <f t="shared" si="46"/>
-        <v>1973.9999999999998</v>
+        <v>1984</v>
       </c>
       <c r="Y27" s="5">
-        <f t="shared" si="47"/>
-        <v>2210.6</v>
+        <v>2037</v>
       </c>
       <c r="Z27" s="5">
-        <f t="shared" si="48"/>
-        <v>2247</v>
-      </c>
-      <c r="AK27" s="4">
-        <f t="shared" si="13"/>
+        <v>2107</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>2207</v>
+      </c>
+      <c r="AB27" s="5">
+        <f>+AB19</f>
+        <v>2150</v>
+      </c>
+      <c r="AC27" s="5">
+        <f>+AC19</f>
+        <v>2166</v>
+      </c>
+      <c r="AD27" s="5">
+        <f>+AD19</f>
+        <v>2166</v>
+      </c>
+      <c r="AO27" s="4">
+        <f t="shared" si="27"/>
         <v>5880</v>
       </c>
-      <c r="AL27" s="4">
-        <f t="shared" si="14"/>
-        <v>8133.6</v>
-      </c>
-    </row>
-    <row r="28" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP27" s="4">
+        <f t="shared" si="40"/>
+        <v>7830</v>
+      </c>
+    </row>
+    <row r="28" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
         <v>45</v>
       </c>
@@ -3504,59 +3893,59 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5">
-        <f t="shared" ref="G28:K28" si="49">G25+G18+G19-G26-G27</f>
+        <f t="shared" ref="G28:K28" si="52">G25+G18+G19-G26-G27</f>
         <v>566</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>921</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>1191</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>1391</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>1234</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" ref="L28" si="50">L25+L18+L19-L26-L27</f>
+        <f t="shared" ref="L28" si="53">L25+L18+L19-L26-L27</f>
         <v>1267</v>
       </c>
       <c r="M28" s="5">
-        <f t="shared" ref="M28:T28" si="51">M25+M18+M19-M26-M27</f>
+        <f t="shared" ref="M28:T28" si="54">M25+M18+M19-M26-M27</f>
         <v>2063</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>2066</v>
       </c>
       <c r="O28" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>2215</v>
       </c>
       <c r="P28" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>2884</v>
       </c>
       <c r="Q28" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>3660</v>
       </c>
       <c r="R28" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>4847</v>
       </c>
       <c r="S28" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>5460</v>
       </c>
       <c r="T28" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>4233</v>
       </c>
       <c r="U28" s="5">
@@ -3572,55 +3961,71 @@
         <v>4511</v>
       </c>
       <c r="X28" s="5">
-        <f t="shared" ref="X28:Z28" si="52">+X20*0.25</f>
-        <v>5926.9000000000005</v>
+        <f>X25+X18+X19-X26-X27</f>
+        <v>4533</v>
       </c>
       <c r="Y28" s="5">
-        <f t="shared" si="52"/>
-        <v>7508.9000000000005</v>
+        <f>Y25+Y18+Y19-Y26-Y27</f>
+        <v>4178</v>
       </c>
       <c r="Z28" s="5">
-        <f t="shared" si="52"/>
-        <v>8682.31</v>
-      </c>
-      <c r="AK28" s="5">
-        <f t="shared" ref="AK28" si="53">+AK20*0.25</f>
+        <f>Z25+Z18+Z19-Z26-Z27</f>
+        <v>4438</v>
+      </c>
+      <c r="AA28" s="5">
+        <f>AA25+AA18+AA19-AA26-AA27</f>
+        <v>3696</v>
+      </c>
+      <c r="AB28" s="5">
+        <f>AB25+AB18+AB19-AB26-AB27</f>
+        <v>4280.5191691498276</v>
+      </c>
+      <c r="AC28" s="5">
+        <f>AC25+AC18+AC19-AC26-AC27</f>
+        <v>4195.2378888001385</v>
+      </c>
+      <c r="AD28" s="5">
+        <f>AD25+AD18+AD19-AD26-AD27</f>
+        <v>4431.7546705981558</v>
+      </c>
+      <c r="AO28" s="5">
+        <f t="shared" ref="AO28" si="55">+AO20*0.25</f>
         <v>20487.650000000001</v>
       </c>
-      <c r="AL28" s="4">
-        <f t="shared" si="14"/>
-        <v>26629.11</v>
-      </c>
-      <c r="AM28" s="4">
-        <f>AM25+AM13-AM23</f>
-        <v>29044.7471711607</v>
-      </c>
-      <c r="AN28" s="4">
-        <f t="shared" ref="AN28:AS28" si="54">AN25+AN13-AN23</f>
-        <v>44371.761819505446</v>
-      </c>
-      <c r="AO28" s="4">
-        <f t="shared" si="54"/>
-        <v>61534.56551267828</v>
-      </c>
       <c r="AP28" s="4">
-        <f t="shared" si="54"/>
-        <v>81175.092132937367</v>
+        <f t="shared" si="40"/>
+        <v>17660</v>
       </c>
       <c r="AQ28" s="4">
-        <f t="shared" si="54"/>
-        <v>106271.97193365777</v>
+        <f>AQ25+AQ13-AQ23</f>
+        <v>21807.311332853322</v>
       </c>
       <c r="AR28" s="4">
-        <f t="shared" si="54"/>
-        <v>132476.78484752771</v>
+        <f t="shared" ref="AR28:AW28" si="56">AR25+AR13-AR23</f>
+        <v>30736.831447042743</v>
       </c>
       <c r="AS28" s="4">
-        <f t="shared" si="54"/>
-        <v>157097.45129234696</v>
-      </c>
-    </row>
-    <row r="29" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="56"/>
+        <v>39573.670488067524</v>
+      </c>
+      <c r="AT28" s="4">
+        <f t="shared" si="56"/>
+        <v>48913.056723251473</v>
+      </c>
+      <c r="AU28" s="4">
+        <f t="shared" si="56"/>
+        <v>60456.538109938847</v>
+      </c>
+      <c r="AV28" s="4">
+        <f t="shared" si="56"/>
+        <v>71610.769391222508</v>
+      </c>
+      <c r="AW28" s="4">
+        <f t="shared" si="56"/>
+        <v>81135.001720255124</v>
+      </c>
+    </row>
+    <row r="29" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="4" t="s">
         <v>46</v>
       </c>
@@ -3680,55 +4085,67 @@
         <v>771</v>
       </c>
       <c r="X29" s="5">
-        <f t="shared" ref="X29" si="55">+T29*1.3</f>
-        <v>867.1</v>
+        <v>943</v>
       </c>
       <c r="Y29" s="5">
-        <f t="shared" ref="Y29" si="56">+U29*1.3</f>
-        <v>952.9</v>
+        <v>1161</v>
       </c>
       <c r="Z29" s="5">
-        <f t="shared" ref="Z29" si="57">+V29*1.3</f>
-        <v>1053</v>
-      </c>
-      <c r="AK29" s="4">
-        <f t="shared" si="13"/>
+        <v>1094</v>
+      </c>
+      <c r="AA29" s="5">
+        <v>1151</v>
+      </c>
+      <c r="AB29" s="5">
+        <f>+X29*1.1</f>
+        <v>1037.3000000000002</v>
+      </c>
+      <c r="AC29" s="5">
+        <f>+Y29*1.1</f>
+        <v>1277.1000000000001</v>
+      </c>
+      <c r="AD29" s="5">
+        <f>+Z29*1.1</f>
+        <v>1203.4000000000001</v>
+      </c>
+      <c r="AO29" s="4">
+        <f t="shared" si="27"/>
         <v>3075</v>
       </c>
-      <c r="AL29" s="4">
+      <c r="AP29" s="4">
         <f>SUM(W29:Z29)</f>
-        <v>3644</v>
-      </c>
-      <c r="AM29" s="4">
-        <f t="shared" ref="AM29:AQ29" si="58">AL29*1.02</f>
-        <v>3716.88</v>
-      </c>
-      <c r="AN29" s="4">
+        <v>3969</v>
+      </c>
+      <c r="AQ29" s="4">
+        <f t="shared" ref="AQ29:AU29" si="57">AP29*1.02</f>
+        <v>4048.38</v>
+      </c>
+      <c r="AR29" s="4">
+        <f t="shared" si="57"/>
+        <v>4129.3476000000001</v>
+      </c>
+      <c r="AS29" s="4">
+        <f t="shared" si="57"/>
+        <v>4211.9345519999997</v>
+      </c>
+      <c r="AT29" s="4">
+        <f t="shared" si="57"/>
+        <v>4296.1732430399998</v>
+      </c>
+      <c r="AU29" s="4">
+        <f t="shared" si="57"/>
+        <v>4382.0967079007996</v>
+      </c>
+      <c r="AV29" s="4">
+        <f t="shared" ref="AV29:AW29" si="58">AU29*1.02</f>
+        <v>4469.7386420588155</v>
+      </c>
+      <c r="AW29" s="4">
         <f t="shared" si="58"/>
-        <v>3791.2176000000004</v>
-      </c>
-      <c r="AO29" s="4">
-        <f t="shared" si="58"/>
-        <v>3867.0419520000005</v>
-      </c>
-      <c r="AP29" s="4">
-        <f t="shared" si="58"/>
-        <v>3944.3827910400005</v>
-      </c>
-      <c r="AQ29" s="4">
-        <f t="shared" si="58"/>
-        <v>4023.2704468608003</v>
-      </c>
-      <c r="AR29" s="4">
-        <f t="shared" ref="AR29:AS29" si="59">AQ29*1.02</f>
-        <v>4103.735855798016</v>
-      </c>
-      <c r="AS29" s="4">
-        <f t="shared" si="59"/>
-        <v>4185.8105729139761</v>
-      </c>
-    </row>
-    <row r="30" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>4559.1334148999922</v>
+      </c>
+    </row>
+    <row r="30" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
@@ -3789,55 +4206,67 @@
         <v>1076</v>
       </c>
       <c r="X30" s="5">
-        <f t="shared" ref="X30:Z30" si="60">+T30*1.2</f>
-        <v>1153.2</v>
+        <v>1191</v>
       </c>
       <c r="Y30" s="5">
+        <v>1253</v>
+      </c>
+      <c r="Z30" s="5">
+        <v>1280</v>
+      </c>
+      <c r="AA30" s="5">
+        <v>1374</v>
+      </c>
+      <c r="AB30" s="5">
+        <f>+X30*1.1</f>
+        <v>1310.1000000000001</v>
+      </c>
+      <c r="AC30" s="5">
+        <f>+Y30*1.1</f>
+        <v>1378.3000000000002</v>
+      </c>
+      <c r="AD30" s="5">
+        <f>+Z30*1.1</f>
+        <v>1408</v>
+      </c>
+      <c r="AO30" s="4">
+        <f t="shared" si="27"/>
+        <v>4706.8</v>
+      </c>
+      <c r="AP30" s="4">
+        <f t="shared" si="40"/>
+        <v>4800</v>
+      </c>
+      <c r="AQ30" s="4">
+        <f>AP30*1.02</f>
+        <v>4896</v>
+      </c>
+      <c r="AR30" s="4">
+        <f t="shared" ref="AR30:AU30" si="59">AQ30*1.02</f>
+        <v>4993.92</v>
+      </c>
+      <c r="AS30" s="4">
+        <f t="shared" si="59"/>
+        <v>5093.7984000000006</v>
+      </c>
+      <c r="AT30" s="4">
+        <f t="shared" si="59"/>
+        <v>5195.6743680000009</v>
+      </c>
+      <c r="AU30" s="4">
+        <f t="shared" si="59"/>
+        <v>5299.5878553600014</v>
+      </c>
+      <c r="AV30" s="4">
+        <f t="shared" ref="AV30:AW30" si="60">AU30*1.02</f>
+        <v>5405.5796124672015</v>
+      </c>
+      <c r="AW30" s="4">
         <f t="shared" si="60"/>
-        <v>1153.2</v>
-      </c>
-      <c r="Z30" s="5">
-        <f t="shared" si="60"/>
-        <v>2151.3599999999997</v>
-      </c>
-      <c r="AK30" s="4">
-        <f t="shared" si="13"/>
-        <v>4706.8</v>
-      </c>
-      <c r="AL30" s="4">
-        <f t="shared" si="14"/>
-        <v>5533.7599999999993</v>
-      </c>
-      <c r="AM30" s="4">
-        <f>AL30*1.02</f>
-        <v>5644.435199999999</v>
-      </c>
-      <c r="AN30" s="4">
-        <f t="shared" ref="AN30:AQ30" si="61">AM30*1.02</f>
-        <v>5757.3239039999989</v>
-      </c>
-      <c r="AO30" s="4">
-        <f t="shared" si="61"/>
-        <v>5872.4703820799987</v>
-      </c>
-      <c r="AP30" s="4">
-        <f t="shared" si="61"/>
-        <v>5989.919789721599</v>
-      </c>
-      <c r="AQ30" s="4">
-        <f t="shared" si="61"/>
-        <v>6109.7181855160316</v>
-      </c>
-      <c r="AR30" s="4">
-        <f t="shared" ref="AR30:AS30" si="62">AQ30*1.02</f>
-        <v>6231.912549226352</v>
-      </c>
-      <c r="AS30" s="4">
-        <f t="shared" si="62"/>
-        <v>6356.5508002108791</v>
-      </c>
-    </row>
-    <row r="31" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>5513.6912047165461</v>
+      </c>
+    </row>
+    <row r="31" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="4" t="s">
         <v>48</v>
       </c>
@@ -3846,51 +4275,51 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5">
-        <f t="shared" ref="G31" si="63">G29+G30</f>
+        <f t="shared" ref="G31" si="61">G29+G30</f>
         <v>1044</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" ref="H31:I31" si="64">H29+H30</f>
+        <f t="shared" ref="H31:I31" si="62">H29+H30</f>
         <v>971</v>
       </c>
       <c r="I31" s="5">
+        <f t="shared" si="62"/>
+        <v>930</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" ref="J31:L31" si="63">J29+J30</f>
+        <v>1044</v>
+      </c>
+      <c r="K31" s="5">
+        <f t="shared" si="63"/>
+        <v>951</v>
+      </c>
+      <c r="L31" s="5">
+        <f t="shared" si="63"/>
+        <v>940</v>
+      </c>
+      <c r="M31" s="5">
+        <f t="shared" ref="M31:N31" si="64">M29+M30</f>
+        <v>1254</v>
+      </c>
+      <c r="N31" s="5">
         <f t="shared" si="64"/>
-        <v>930</v>
-      </c>
-      <c r="J31" s="5">
-        <f t="shared" ref="J31:L31" si="65">J29+J30</f>
-        <v>1044</v>
-      </c>
-      <c r="K31" s="5">
+        <v>1491</v>
+      </c>
+      <c r="O31" s="5">
+        <f t="shared" ref="O31:R31" si="65">O29+O30</f>
+        <v>1722</v>
+      </c>
+      <c r="P31" s="5">
         <f t="shared" si="65"/>
-        <v>951</v>
-      </c>
-      <c r="L31" s="5">
+        <v>1549</v>
+      </c>
+      <c r="Q31" s="5">
         <f t="shared" si="65"/>
-        <v>940</v>
-      </c>
-      <c r="M31" s="5">
-        <f t="shared" ref="M31:N31" si="66">M29+M30</f>
-        <v>1254</v>
-      </c>
-      <c r="N31" s="5">
-        <f t="shared" si="66"/>
-        <v>1491</v>
-      </c>
-      <c r="O31" s="5">
-        <f t="shared" ref="O31:R31" si="67">O29+O30</f>
-        <v>1722</v>
-      </c>
-      <c r="P31" s="5">
-        <f t="shared" si="67"/>
-        <v>1549</v>
-      </c>
-      <c r="Q31" s="5">
-        <f t="shared" si="67"/>
         <v>1605</v>
       </c>
       <c r="R31" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>2234</v>
       </c>
       <c r="S31" s="5">
@@ -3906,7 +4335,7 @@
         <v>1694</v>
       </c>
       <c r="V31" s="5">
-        <f t="shared" ref="V31:Z31" si="68">V29+V30</f>
+        <f t="shared" ref="V31:AD31" si="66">V29+V30</f>
         <v>2602.8000000000002</v>
       </c>
       <c r="W31" s="5">
@@ -3914,55 +4343,71 @@
         <v>1847</v>
       </c>
       <c r="X31" s="5">
+        <f t="shared" si="66"/>
+        <v>2134</v>
+      </c>
+      <c r="Y31" s="5">
+        <f t="shared" si="66"/>
+        <v>2414</v>
+      </c>
+      <c r="Z31" s="5">
+        <f t="shared" si="66"/>
+        <v>2374</v>
+      </c>
+      <c r="AA31" s="5">
+        <f t="shared" si="66"/>
+        <v>2525</v>
+      </c>
+      <c r="AB31" s="5">
+        <f t="shared" si="66"/>
+        <v>2347.4000000000005</v>
+      </c>
+      <c r="AC31" s="5">
+        <f t="shared" si="66"/>
+        <v>2655.4000000000005</v>
+      </c>
+      <c r="AD31" s="5">
+        <f t="shared" si="66"/>
+        <v>2611.4</v>
+      </c>
+      <c r="AO31" s="4">
+        <f t="shared" ref="AO31" si="67">+AO29+AO30</f>
+        <v>7781.8</v>
+      </c>
+      <c r="AP31" s="4">
+        <f>+AP29+AP30</f>
+        <v>8769</v>
+      </c>
+      <c r="AQ31" s="4">
+        <f t="shared" ref="AQ31:AU31" si="68">+AQ29+AQ30</f>
+        <v>8944.380000000001</v>
+      </c>
+      <c r="AR31" s="4">
         <f t="shared" si="68"/>
-        <v>2020.3000000000002</v>
-      </c>
-      <c r="Y31" s="5">
+        <v>9123.2675999999992</v>
+      </c>
+      <c r="AS31" s="4">
         <f t="shared" si="68"/>
-        <v>2106.1</v>
-      </c>
-      <c r="Z31" s="5">
+        <v>9305.7329520000003</v>
+      </c>
+      <c r="AT31" s="4">
         <f t="shared" si="68"/>
-        <v>3204.3599999999997</v>
-      </c>
-      <c r="AK31" s="4">
-        <f t="shared" ref="AK31" si="69">+AK29+AK30</f>
-        <v>7781.8</v>
-      </c>
-      <c r="AL31" s="4">
-        <f>+AL29+AL30</f>
-        <v>9177.7599999999984</v>
-      </c>
-      <c r="AM31" s="4">
-        <f t="shared" ref="AM31:AQ31" si="70">+AM29+AM30</f>
-        <v>9361.3151999999991</v>
-      </c>
-      <c r="AN31" s="4">
-        <f t="shared" si="70"/>
-        <v>9548.5415039999989</v>
-      </c>
-      <c r="AO31" s="4">
-        <f t="shared" si="70"/>
-        <v>9739.5123340799983</v>
-      </c>
-      <c r="AP31" s="4">
-        <f t="shared" si="70"/>
-        <v>9934.3025807615995</v>
-      </c>
-      <c r="AQ31" s="4">
-        <f t="shared" si="70"/>
-        <v>10132.988632376831</v>
-      </c>
-      <c r="AR31" s="4">
-        <f t="shared" ref="AR31" si="71">+AR29+AR30</f>
-        <v>10335.648405024367</v>
-      </c>
-      <c r="AS31" s="4">
-        <f t="shared" ref="AS31" si="72">+AS29+AS30</f>
-        <v>10542.361373124855</v>
-      </c>
-    </row>
-    <row r="32" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>9491.8476110400006</v>
+      </c>
+      <c r="AU31" s="4">
+        <f t="shared" si="68"/>
+        <v>9681.684563260802</v>
+      </c>
+      <c r="AV31" s="4">
+        <f t="shared" ref="AV31" si="69">+AV29+AV30</f>
+        <v>9875.318254526017</v>
+      </c>
+      <c r="AW31" s="4">
+        <f t="shared" ref="AW31" si="70">+AW29+AW30</f>
+        <v>10072.824619616538</v>
+      </c>
+    </row>
+    <row r="32" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
         <v>49</v>
       </c>
@@ -3971,51 +4416,51 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5">
-        <f t="shared" ref="G32" si="73">G28-G31</f>
+        <f t="shared" ref="G32" si="71">G28-G31</f>
         <v>-478</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" ref="H32:I32" si="74">H28-H31</f>
+        <f t="shared" ref="H32:I32" si="72">H28-H31</f>
         <v>-50</v>
       </c>
       <c r="I32" s="5">
+        <f t="shared" si="72"/>
+        <v>261</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" ref="J32:L32" si="73">J28-J31</f>
+        <v>347</v>
+      </c>
+      <c r="K32" s="5">
+        <f t="shared" si="73"/>
+        <v>283</v>
+      </c>
+      <c r="L32" s="5">
+        <f t="shared" si="73"/>
+        <v>327</v>
+      </c>
+      <c r="M32" s="5">
+        <f t="shared" ref="M32:N32" si="74">M28-M31</f>
+        <v>809</v>
+      </c>
+      <c r="N32" s="5">
         <f t="shared" si="74"/>
-        <v>261</v>
-      </c>
-      <c r="J32" s="5">
-        <f t="shared" ref="J32:L32" si="75">J28-J31</f>
-        <v>347</v>
-      </c>
-      <c r="K32" s="5">
+        <v>575</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" ref="O32:R32" si="75">O28-O31</f>
+        <v>493</v>
+      </c>
+      <c r="P32" s="5">
         <f t="shared" si="75"/>
-        <v>283</v>
-      </c>
-      <c r="L32" s="5">
+        <v>1335</v>
+      </c>
+      <c r="Q32" s="5">
         <f t="shared" si="75"/>
-        <v>327</v>
-      </c>
-      <c r="M32" s="5">
-        <f t="shared" ref="M32:N32" si="76">M28-M31</f>
-        <v>809</v>
-      </c>
-      <c r="N32" s="5">
-        <f t="shared" si="76"/>
-        <v>575</v>
-      </c>
-      <c r="O32" s="5">
-        <f t="shared" ref="O32:R32" si="77">O28-O31</f>
-        <v>493</v>
-      </c>
-      <c r="P32" s="5">
-        <f t="shared" si="77"/>
-        <v>1335</v>
-      </c>
-      <c r="Q32" s="5">
-        <f t="shared" si="77"/>
         <v>2055</v>
       </c>
       <c r="R32" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>2613</v>
       </c>
       <c r="S32" s="5">
@@ -4031,7 +4476,7 @@
         <v>3688</v>
       </c>
       <c r="V32" s="5">
-        <f t="shared" ref="V32:Z32" si="78">V28-V31</f>
+        <f t="shared" ref="V32:AD32" si="76">V28-V31</f>
         <v>3662.7999999999984</v>
       </c>
       <c r="W32" s="5">
@@ -4039,55 +4484,71 @@
         <v>2664</v>
       </c>
       <c r="X32" s="5">
+        <f t="shared" si="76"/>
+        <v>2399</v>
+      </c>
+      <c r="Y32" s="5">
+        <f t="shared" si="76"/>
+        <v>1764</v>
+      </c>
+      <c r="Z32" s="5">
+        <f t="shared" si="76"/>
+        <v>2064</v>
+      </c>
+      <c r="AA32" s="5">
+        <f t="shared" si="76"/>
+        <v>1171</v>
+      </c>
+      <c r="AB32" s="5">
+        <f t="shared" si="76"/>
+        <v>1933.119169149827</v>
+      </c>
+      <c r="AC32" s="5">
+        <f t="shared" si="76"/>
+        <v>1539.837888800138</v>
+      </c>
+      <c r="AD32" s="5">
+        <f t="shared" si="76"/>
+        <v>1820.3546705981557</v>
+      </c>
+      <c r="AO32" s="5">
+        <f t="shared" ref="AO32:AP32" si="77">AO28-AO31</f>
+        <v>12705.850000000002</v>
+      </c>
+      <c r="AP32" s="5">
+        <f t="shared" si="77"/>
+        <v>8891</v>
+      </c>
+      <c r="AQ32" s="5">
+        <f t="shared" ref="AQ32:AU32" si="78">AQ28-AQ31</f>
+        <v>12862.931332853321</v>
+      </c>
+      <c r="AR32" s="5">
         <f t="shared" si="78"/>
-        <v>3906.6000000000004</v>
-      </c>
-      <c r="Y32" s="5">
+        <v>21613.563847042744</v>
+      </c>
+      <c r="AS32" s="5">
         <f t="shared" si="78"/>
-        <v>5402.8000000000011</v>
-      </c>
-      <c r="Z32" s="5">
+        <v>30267.937536067526</v>
+      </c>
+      <c r="AT32" s="5">
         <f t="shared" si="78"/>
-        <v>5477.95</v>
-      </c>
-      <c r="AK32" s="5">
-        <f t="shared" ref="AK32:AL32" si="79">AK28-AK31</f>
-        <v>12705.850000000002</v>
-      </c>
-      <c r="AL32" s="5">
+        <v>39421.209112211473</v>
+      </c>
+      <c r="AU32" s="5">
+        <f t="shared" si="78"/>
+        <v>50774.853546678045</v>
+      </c>
+      <c r="AV32" s="5">
+        <f t="shared" ref="AV32:AW32" si="79">AV28-AV31</f>
+        <v>61735.451136696487</v>
+      </c>
+      <c r="AW32" s="5">
         <f t="shared" si="79"/>
-        <v>17451.350000000002</v>
-      </c>
-      <c r="AM32" s="5">
-        <f t="shared" ref="AM32:AQ32" si="80">AM28-AM31</f>
-        <v>19683.431971160702</v>
-      </c>
-      <c r="AN32" s="5">
-        <f t="shared" si="80"/>
-        <v>34823.220315505445</v>
-      </c>
-      <c r="AO32" s="5">
-        <f t="shared" si="80"/>
-        <v>51795.053178598282</v>
-      </c>
-      <c r="AP32" s="5">
-        <f t="shared" si="80"/>
-        <v>71240.78955217576</v>
-      </c>
-      <c r="AQ32" s="5">
-        <f t="shared" si="80"/>
-        <v>96138.983301280939</v>
-      </c>
-      <c r="AR32" s="5">
-        <f t="shared" ref="AR32:AS32" si="81">AR28-AR31</f>
-        <v>122141.13644250334</v>
-      </c>
-      <c r="AS32" s="5">
-        <f t="shared" si="81"/>
-        <v>146555.08991922211</v>
-      </c>
-    </row>
-    <row r="33" spans="2:101" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>71062.177100638582</v>
+      </c>
+    </row>
+    <row r="33" spans="2:105" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
         <v>50</v>
       </c>
@@ -4163,43 +4624,59 @@
         <f>213-29-48</f>
         <v>136</v>
       </c>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AL33" s="4">
-        <f t="shared" si="14"/>
-        <v>136</v>
-      </c>
-      <c r="AM33" s="4">
-        <f>AL63*$AV$46</f>
-        <v>991.03845000000013</v>
-      </c>
-      <c r="AN33" s="4">
-        <f t="shared" ref="AN33:AS33" si="82">AM63*$AV$46</f>
-        <v>1518.2374457395979</v>
-      </c>
-      <c r="AO33" s="4">
-        <f t="shared" si="82"/>
-        <v>2444.9446186513469</v>
-      </c>
+      <c r="X33" s="5">
+        <f>238-28+328</f>
+        <v>538</v>
+      </c>
+      <c r="Y33" s="5">
+        <f>282-38+37</f>
+        <v>281</v>
+      </c>
+      <c r="Z33" s="5">
+        <f>333-61-145</f>
+        <v>127</v>
+      </c>
+      <c r="AA33" s="5">
+        <f>350-76+108</f>
+        <v>382</v>
+      </c>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
       <c r="AP33" s="4">
-        <f t="shared" si="82"/>
-        <v>3828.0645624812123</v>
+        <f t="shared" si="40"/>
+        <v>1082</v>
       </c>
       <c r="AQ33" s="4">
-        <f t="shared" si="82"/>
-        <v>5742.3203424049652</v>
+        <f>AP63*$AZ$46</f>
+        <v>874.02</v>
       </c>
       <c r="AR33" s="4">
-        <f t="shared" si="82"/>
-        <v>8340.2935853189556</v>
+        <f t="shared" ref="AR33:AW33" si="80">AQ63*$AZ$46</f>
+        <v>1224.3122589877596</v>
       </c>
       <c r="AS33" s="4">
-        <f t="shared" si="82"/>
-        <v>11667.570051028424</v>
-      </c>
-    </row>
-    <row r="34" spans="2:101" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="80"/>
+        <v>1806.6780996915375</v>
+      </c>
+      <c r="AT33" s="4">
+        <f t="shared" si="80"/>
+        <v>2624.5807984033931</v>
+      </c>
+      <c r="AU33" s="4">
+        <f t="shared" si="80"/>
+        <v>3696.7484411240725</v>
+      </c>
+      <c r="AV33" s="4">
+        <f t="shared" si="80"/>
+        <v>5085.7742918130261</v>
+      </c>
+      <c r="AW33" s="4">
+        <f t="shared" si="80"/>
+        <v>6789.7155402400185</v>
+      </c>
+    </row>
+    <row r="34" spans="2:105" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
         <v>51</v>
       </c>
@@ -4208,51 +4685,51 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5">
-        <f t="shared" ref="G34:N34" si="83">G32+G33</f>
+        <f t="shared" ref="G34:N34" si="81">G32+G33</f>
         <v>-601</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>-253</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>176</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>160</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>70</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>150</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>555</v>
       </c>
       <c r="N34" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>379</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" ref="O34:R34" si="84">O32+O33</f>
+        <f t="shared" ref="O34:R34" si="82">O32+O33</f>
         <v>432</v>
       </c>
       <c r="P34" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>1316</v>
       </c>
       <c r="Q34" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>1933</v>
       </c>
       <c r="R34" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>2635</v>
       </c>
       <c r="S34" s="5">
@@ -4268,59 +4745,75 @@
         <v>3636</v>
       </c>
       <c r="V34" s="5">
-        <f t="shared" ref="V34:Z34" si="85">V32+V33</f>
+        <f t="shared" ref="V34:AD34" si="83">V32+V33</f>
         <v>3744.7999999999984</v>
       </c>
       <c r="W34" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>2800</v>
       </c>
       <c r="X34" s="5">
-        <f t="shared" si="85"/>
-        <v>3906.6000000000004</v>
+        <f t="shared" si="83"/>
+        <v>2937</v>
       </c>
       <c r="Y34" s="5">
-        <f t="shared" si="85"/>
-        <v>5402.8000000000011</v>
+        <f t="shared" si="83"/>
+        <v>2045</v>
       </c>
       <c r="Z34" s="5">
-        <f t="shared" si="85"/>
-        <v>5477.95</v>
-      </c>
-      <c r="AL34" s="4">
-        <f>+AL32+AL33</f>
-        <v>17587.350000000002</v>
-      </c>
-      <c r="AM34" s="4">
-        <f t="shared" ref="AM34:AQ34" si="86">+AM32+AM33</f>
-        <v>20674.470421160702</v>
-      </c>
-      <c r="AN34" s="4">
-        <f t="shared" si="86"/>
-        <v>36341.457761245045</v>
-      </c>
-      <c r="AO34" s="4">
-        <f t="shared" si="86"/>
-        <v>54239.997797249627</v>
+        <f t="shared" si="83"/>
+        <v>2191</v>
+      </c>
+      <c r="AA34" s="5">
+        <f t="shared" si="83"/>
+        <v>1553</v>
+      </c>
+      <c r="AB34" s="5">
+        <f t="shared" si="83"/>
+        <v>1933.119169149827</v>
+      </c>
+      <c r="AC34" s="5">
+        <f t="shared" si="83"/>
+        <v>1539.837888800138</v>
+      </c>
+      <c r="AD34" s="5">
+        <f t="shared" si="83"/>
+        <v>1820.3546705981557</v>
       </c>
       <c r="AP34" s="4">
-        <f t="shared" si="86"/>
-        <v>75068.854114656977</v>
+        <f>+AP32+AP33</f>
+        <v>9973</v>
       </c>
       <c r="AQ34" s="4">
-        <f t="shared" si="86"/>
-        <v>101881.30364368591</v>
+        <f t="shared" ref="AQ34:AU34" si="84">+AQ32+AQ33</f>
+        <v>13736.951332853321</v>
       </c>
       <c r="AR34" s="4">
-        <f t="shared" ref="AR34" si="87">+AR32+AR33</f>
-        <v>130481.43002782229</v>
+        <f t="shared" si="84"/>
+        <v>22837.876106030504</v>
       </c>
       <c r="AS34" s="4">
-        <f t="shared" ref="AS34" si="88">+AS32+AS33</f>
-        <v>158222.65997025053</v>
-      </c>
-    </row>
-    <row r="35" spans="2:101" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="84"/>
+        <v>32074.615635759063</v>
+      </c>
+      <c r="AT34" s="4">
+        <f t="shared" si="84"/>
+        <v>42045.789910614869</v>
+      </c>
+      <c r="AU34" s="4">
+        <f t="shared" si="84"/>
+        <v>54471.601987802118</v>
+      </c>
+      <c r="AV34" s="4">
+        <f t="shared" ref="AV34" si="85">+AV32+AV33</f>
+        <v>66821.225428509511</v>
+      </c>
+      <c r="AW34" s="4">
+        <f t="shared" ref="AW34" si="86">+AW32+AW33</f>
+        <v>77851.892640878606</v>
+      </c>
+    </row>
+    <row r="35" spans="2:105" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="4" t="s">
         <v>52</v>
       </c>
@@ -4391,54 +4884,70 @@
         <v>276</v>
       </c>
       <c r="W35" s="5">
-        <v>261</v>
+        <f>261+26</f>
+        <v>287</v>
       </c>
       <c r="X35" s="5">
-        <f t="shared" ref="X35:Z35" si="89">+X34*0.1</f>
-        <v>390.66000000000008</v>
+        <f>323-89</f>
+        <v>234</v>
       </c>
       <c r="Y35" s="5">
-        <f t="shared" si="89"/>
-        <v>540.28000000000009</v>
+        <f>167+25</f>
+        <v>192</v>
       </c>
       <c r="Z35" s="5">
-        <f t="shared" si="89"/>
-        <v>547.79499999999996</v>
-      </c>
-      <c r="AL35" s="4">
-        <f t="shared" si="14"/>
-        <v>1739.7350000000001</v>
-      </c>
-      <c r="AM35" s="4">
-        <f>AM34*0.15</f>
-        <v>3101.1705631741052</v>
-      </c>
-      <c r="AN35" s="4">
-        <f t="shared" ref="AN35:AQ35" si="90">AN34*0.15</f>
-        <v>5451.2186641867565</v>
-      </c>
-      <c r="AO35" s="4">
-        <f t="shared" si="90"/>
-        <v>8135.9996695874433</v>
+        <v>15</v>
+      </c>
+      <c r="AA35" s="5">
+        <f>409+15</f>
+        <v>424</v>
+      </c>
+      <c r="AB35" s="5">
+        <f>+AB34*0.2</f>
+        <v>386.62383382996541</v>
+      </c>
+      <c r="AC35" s="5">
+        <f>+AC34*0.2</f>
+        <v>307.96757776002761</v>
+      </c>
+      <c r="AD35" s="5">
+        <f>+AD34*0.2</f>
+        <v>364.07093411963115</v>
       </c>
       <c r="AP35" s="4">
-        <f t="shared" si="90"/>
-        <v>11260.328117198545</v>
+        <f t="shared" si="40"/>
+        <v>728</v>
       </c>
       <c r="AQ35" s="4">
-        <f t="shared" si="90"/>
-        <v>15282.195546552886</v>
+        <f>AQ34*0.15</f>
+        <v>2060.542699927998</v>
       </c>
       <c r="AR35" s="4">
-        <f t="shared" ref="AR35" si="91">AR34*0.15</f>
-        <v>19572.214504173342</v>
+        <f t="shared" ref="AR35:AU35" si="87">AR34*0.15</f>
+        <v>3425.6814159045757</v>
       </c>
       <c r="AS35" s="4">
-        <f t="shared" ref="AS35" si="92">AS34*0.15</f>
-        <v>23733.39899553758</v>
-      </c>
-    </row>
-    <row r="36" spans="2:101" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="87"/>
+        <v>4811.1923453638592</v>
+      </c>
+      <c r="AT35" s="4">
+        <f t="shared" si="87"/>
+        <v>6306.8684865922305</v>
+      </c>
+      <c r="AU35" s="4">
+        <f t="shared" si="87"/>
+        <v>8170.7402981703171</v>
+      </c>
+      <c r="AV35" s="4">
+        <f t="shared" ref="AV35" si="88">AV34*0.15</f>
+        <v>10023.183814276426</v>
+      </c>
+      <c r="AW35" s="4">
+        <f t="shared" ref="AW35" si="89">AW34*0.15</f>
+        <v>11677.78389613179</v>
+      </c>
+    </row>
+    <row r="36" spans="2:105" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="4" t="s">
         <v>53</v>
       </c>
@@ -4447,51 +4956,51 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5">
-        <f t="shared" ref="G36:N36" si="93">G34-G35</f>
+        <f t="shared" ref="G36:N36" si="90">G34-G35</f>
         <v>-658</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>-291</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>143</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>91</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>16</v>
       </c>
       <c r="L36" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>104</v>
       </c>
       <c r="M36" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>300</v>
       </c>
       <c r="N36" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>270</v>
       </c>
       <c r="O36" s="5">
-        <f t="shared" ref="O36:R36" si="94">O34-O35</f>
+        <f t="shared" ref="O36:R36" si="91">O34-O35</f>
         <v>337</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="91"/>
         <v>1165</v>
       </c>
       <c r="Q36" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="91"/>
         <v>1669</v>
       </c>
       <c r="R36" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="91"/>
         <v>2321</v>
       </c>
       <c r="S36" s="5">
@@ -4507,283 +5016,299 @@
         <v>3331</v>
       </c>
       <c r="V36" s="5">
-        <f t="shared" ref="V36:Z36" si="95">V34-V35</f>
+        <f t="shared" ref="V36:AD36" si="92">V34-V35</f>
         <v>3468.7999999999984</v>
       </c>
       <c r="W36" s="5">
-        <f t="shared" si="95"/>
-        <v>2539</v>
+        <f t="shared" si="92"/>
+        <v>2513</v>
       </c>
       <c r="X36" s="5">
-        <f t="shared" si="95"/>
-        <v>3515.9400000000005</v>
+        <f t="shared" si="92"/>
+        <v>2703</v>
       </c>
       <c r="Y36" s="5">
-        <f t="shared" si="95"/>
-        <v>4862.5200000000013</v>
+        <f t="shared" si="92"/>
+        <v>1853</v>
       </c>
       <c r="Z36" s="5">
-        <f t="shared" si="95"/>
-        <v>4930.1549999999997</v>
-      </c>
-      <c r="AL36" s="4">
-        <f>+AL34-AL35</f>
-        <v>15847.615000000002</v>
-      </c>
-      <c r="AM36" s="4">
-        <f t="shared" ref="AM36:AQ36" si="96">+AM34-AM35</f>
-        <v>17573.299857986596</v>
-      </c>
-      <c r="AN36" s="4">
+        <f t="shared" si="92"/>
+        <v>2176</v>
+      </c>
+      <c r="AA36" s="5">
+        <f t="shared" si="92"/>
+        <v>1129</v>
+      </c>
+      <c r="AB36" s="5">
+        <f t="shared" si="92"/>
+        <v>1546.4953353198616</v>
+      </c>
+      <c r="AC36" s="5">
+        <f t="shared" si="92"/>
+        <v>1231.8703110401104</v>
+      </c>
+      <c r="AD36" s="5">
+        <f t="shared" si="92"/>
+        <v>1456.2837364785246</v>
+      </c>
+      <c r="AP36" s="4">
+        <f>+AP34-AP35</f>
+        <v>9245</v>
+      </c>
+      <c r="AQ36" s="4">
+        <f t="shared" ref="AQ36:AU36" si="93">+AQ34-AQ35</f>
+        <v>11676.408632925322</v>
+      </c>
+      <c r="AR36" s="4">
+        <f t="shared" si="93"/>
+        <v>19412.194690125929</v>
+      </c>
+      <c r="AS36" s="4">
+        <f t="shared" si="93"/>
+        <v>27263.423290395203</v>
+      </c>
+      <c r="AT36" s="4">
+        <f t="shared" si="93"/>
+        <v>35738.921424022636</v>
+      </c>
+      <c r="AU36" s="4">
+        <f t="shared" si="93"/>
+        <v>46300.861689631798</v>
+      </c>
+      <c r="AV36" s="4">
+        <f t="shared" ref="AV36" si="94">+AV34-AV35</f>
+        <v>56798.041614233087</v>
+      </c>
+      <c r="AW36" s="4">
+        <f t="shared" ref="AW36" si="95">+AW34-AW35</f>
+        <v>66174.108744746816</v>
+      </c>
+      <c r="AX36" s="4">
+        <f>AW36*(1+$AZ$43)</f>
+        <v>65512.36765729935</v>
+      </c>
+      <c r="AY36" s="4">
+        <f t="shared" ref="AY36:DA36" si="96">AX36*(1+$AZ$43)</f>
+        <v>64857.243980726358</v>
+      </c>
+      <c r="AZ36" s="4">
         <f t="shared" si="96"/>
-        <v>30890.239097058289</v>
-      </c>
-      <c r="AO36" s="4">
+        <v>64208.671540919095</v>
+      </c>
+      <c r="BA36" s="4">
         <f t="shared" si="96"/>
-        <v>46103.998127662184</v>
-      </c>
-      <c r="AP36" s="4">
+        <v>63566.584825509904</v>
+      </c>
+      <c r="BB36" s="4">
         <f t="shared" si="96"/>
-        <v>63808.525997458433</v>
-      </c>
-      <c r="AQ36" s="4">
+        <v>62930.918977254805</v>
+      </c>
+      <c r="BC36" s="4">
         <f t="shared" si="96"/>
-        <v>86599.108097133023</v>
-      </c>
-      <c r="AR36" s="4">
-        <f t="shared" ref="AR36" si="97">+AR34-AR35</f>
-        <v>110909.21552364895</v>
-      </c>
-      <c r="AS36" s="4">
-        <f t="shared" ref="AS36" si="98">+AS34-AS35</f>
-        <v>134489.26097471296</v>
-      </c>
-      <c r="AT36" s="4">
-        <f>AS36*(1+$AV$43)</f>
-        <v>133144.36836496583</v>
-      </c>
-      <c r="AU36" s="4">
-        <f t="shared" ref="AU36:CW36" si="99">AT36*(1+$AV$43)</f>
-        <v>131812.92468131619</v>
-      </c>
-      <c r="AV36" s="4">
-        <f t="shared" si="99"/>
-        <v>130494.79543450303</v>
-      </c>
-      <c r="AW36" s="4">
-        <f t="shared" si="99"/>
-        <v>129189.847480158</v>
-      </c>
-      <c r="AX36" s="4">
-        <f t="shared" si="99"/>
-        <v>127897.94900535642</v>
-      </c>
-      <c r="AY36" s="4">
-        <f t="shared" si="99"/>
-        <v>126618.96951530286</v>
-      </c>
-      <c r="AZ36" s="4">
-        <f t="shared" si="99"/>
-        <v>125352.77982014982</v>
-      </c>
-      <c r="BA36" s="4">
-        <f t="shared" si="99"/>
-        <v>124099.25202194833</v>
-      </c>
-      <c r="BB36" s="4">
-        <f t="shared" si="99"/>
-        <v>122858.25950172884</v>
-      </c>
-      <c r="BC36" s="4">
-        <f t="shared" si="99"/>
-        <v>121629.67690671155</v>
+        <v>62301.609787482259</v>
       </c>
       <c r="BD36" s="4">
-        <f t="shared" si="99"/>
-        <v>120413.38013764443</v>
+        <f t="shared" si="96"/>
+        <v>61678.593689607434</v>
       </c>
       <c r="BE36" s="4">
-        <f t="shared" si="99"/>
-        <v>119209.24633626798</v>
+        <f t="shared" si="96"/>
+        <v>61061.807752711356</v>
       </c>
       <c r="BF36" s="4">
-        <f t="shared" si="99"/>
-        <v>118017.1538729053</v>
+        <f t="shared" si="96"/>
+        <v>60451.189675184243</v>
       </c>
       <c r="BG36" s="4">
-        <f t="shared" si="99"/>
-        <v>116836.98233417624</v>
+        <f t="shared" si="96"/>
+        <v>59846.6777784324</v>
       </c>
       <c r="BH36" s="4">
-        <f t="shared" si="99"/>
-        <v>115668.61251083447</v>
+        <f t="shared" si="96"/>
+        <v>59248.211000648073</v>
       </c>
       <c r="BI36" s="4">
-        <f t="shared" si="99"/>
-        <v>114511.92638572612</v>
+        <f t="shared" si="96"/>
+        <v>58655.728890641592</v>
       </c>
       <c r="BJ36" s="4">
-        <f t="shared" si="99"/>
-        <v>113366.80712186886</v>
+        <f t="shared" si="96"/>
+        <v>58069.171601735179</v>
       </c>
       <c r="BK36" s="4">
-        <f t="shared" si="99"/>
-        <v>112233.13905065016</v>
+        <f t="shared" si="96"/>
+        <v>57488.479885717825</v>
       </c>
       <c r="BL36" s="4">
-        <f t="shared" si="99"/>
-        <v>111110.80766014366</v>
+        <f t="shared" si="96"/>
+        <v>56913.595086860645</v>
       </c>
       <c r="BM36" s="4">
-        <f t="shared" si="99"/>
-        <v>109999.69958354223</v>
+        <f t="shared" si="96"/>
+        <v>56344.459135992038</v>
       </c>
       <c r="BN36" s="4">
-        <f t="shared" si="99"/>
-        <v>108899.70258770681</v>
+        <f t="shared" si="96"/>
+        <v>55781.014544632118</v>
       </c>
       <c r="BO36" s="4">
-        <f t="shared" si="99"/>
-        <v>107810.70556182975</v>
+        <f t="shared" si="96"/>
+        <v>55223.204399185794</v>
       </c>
       <c r="BP36" s="4">
-        <f t="shared" si="99"/>
-        <v>106732.59850621145</v>
+        <f t="shared" si="96"/>
+        <v>54670.972355193939</v>
       </c>
       <c r="BQ36" s="4">
-        <f t="shared" si="99"/>
-        <v>105665.27252114934</v>
+        <f t="shared" si="96"/>
+        <v>54124.262631641999</v>
       </c>
       <c r="BR36" s="4">
-        <f t="shared" si="99"/>
-        <v>104608.61979593785</v>
+        <f t="shared" si="96"/>
+        <v>53583.020005325576</v>
       </c>
       <c r="BS36" s="4">
-        <f t="shared" si="99"/>
-        <v>103562.53359797847</v>
+        <f t="shared" si="96"/>
+        <v>53047.189805272319</v>
       </c>
       <c r="BT36" s="4">
-        <f t="shared" si="99"/>
-        <v>102526.90826199869</v>
+        <f t="shared" si="96"/>
+        <v>52516.717907219594</v>
       </c>
       <c r="BU36" s="4">
-        <f t="shared" si="99"/>
-        <v>101501.6391793787</v>
+        <f t="shared" si="96"/>
+        <v>51991.550728147398</v>
       </c>
       <c r="BV36" s="4">
-        <f t="shared" si="99"/>
-        <v>100486.62278758491</v>
+        <f t="shared" si="96"/>
+        <v>51471.635220865923</v>
       </c>
       <c r="BW36" s="4">
-        <f t="shared" si="99"/>
-        <v>99481.756559709058</v>
+        <f t="shared" si="96"/>
+        <v>50956.91886865726</v>
       </c>
       <c r="BX36" s="4">
-        <f t="shared" si="99"/>
-        <v>98486.938994111973</v>
+        <f t="shared" si="96"/>
+        <v>50447.349679970685</v>
       </c>
       <c r="BY36" s="4">
-        <f t="shared" si="99"/>
-        <v>97502.069604170858</v>
+        <f t="shared" si="96"/>
+        <v>49942.876183170978</v>
       </c>
       <c r="BZ36" s="4">
-        <f t="shared" si="99"/>
-        <v>96527.048908129145</v>
+        <f t="shared" si="96"/>
+        <v>49443.447421339268</v>
       </c>
       <c r="CA36" s="4">
-        <f t="shared" si="99"/>
-        <v>95561.778419047856</v>
+        <f t="shared" si="96"/>
+        <v>48949.012947125877</v>
       </c>
       <c r="CB36" s="4">
-        <f t="shared" si="99"/>
-        <v>94606.16063485737</v>
+        <f t="shared" si="96"/>
+        <v>48459.522817654615</v>
       </c>
       <c r="CC36" s="4">
-        <f t="shared" si="99"/>
-        <v>93660.09902850879</v>
+        <f t="shared" si="96"/>
+        <v>47974.927589478066</v>
       </c>
       <c r="CD36" s="4">
-        <f t="shared" si="99"/>
-        <v>92723.498038223697</v>
+        <f t="shared" si="96"/>
+        <v>47495.178313583281</v>
       </c>
       <c r="CE36" s="4">
-        <f t="shared" si="99"/>
-        <v>91796.263057841454</v>
+        <f t="shared" si="96"/>
+        <v>47020.226530447449</v>
       </c>
       <c r="CF36" s="4">
-        <f t="shared" si="99"/>
-        <v>90878.300427263035</v>
+        <f t="shared" si="96"/>
+        <v>46550.024265142973</v>
       </c>
       <c r="CG36" s="4">
-        <f t="shared" si="99"/>
-        <v>89969.517422990408</v>
+        <f t="shared" si="96"/>
+        <v>46084.52402249154</v>
       </c>
       <c r="CH36" s="4">
-        <f t="shared" si="99"/>
-        <v>89069.822248760509</v>
+        <f t="shared" si="96"/>
+        <v>45623.678782266623</v>
       </c>
       <c r="CI36" s="4">
-        <f t="shared" si="99"/>
-        <v>88179.124026272897</v>
+        <f t="shared" si="96"/>
+        <v>45167.441994443958</v>
       </c>
       <c r="CJ36" s="4">
-        <f t="shared" si="99"/>
-        <v>87297.332786010171</v>
+        <f t="shared" si="96"/>
+        <v>44715.767574499521</v>
       </c>
       <c r="CK36" s="4">
-        <f t="shared" si="99"/>
-        <v>86424.359458150066</v>
+        <f t="shared" si="96"/>
+        <v>44268.609898754527</v>
       </c>
       <c r="CL36" s="4">
-        <f t="shared" si="99"/>
-        <v>85560.115863568557</v>
+        <f t="shared" si="96"/>
+        <v>43825.923799766984</v>
       </c>
       <c r="CM36" s="4">
-        <f t="shared" si="99"/>
-        <v>84704.514704932866</v>
+        <f t="shared" si="96"/>
+        <v>43387.664561769314</v>
       </c>
       <c r="CN36" s="4">
-        <f t="shared" si="99"/>
-        <v>83857.469557883538</v>
+        <f t="shared" si="96"/>
+        <v>42953.787916151618</v>
       </c>
       <c r="CO36" s="4">
-        <f t="shared" si="99"/>
-        <v>83018.894862304704</v>
+        <f t="shared" si="96"/>
+        <v>42524.250036990103</v>
       </c>
       <c r="CP36" s="4">
-        <f t="shared" si="99"/>
-        <v>82188.705913681653</v>
+        <f t="shared" si="96"/>
+        <v>42099.0075366202</v>
       </c>
       <c r="CQ36" s="4">
-        <f t="shared" si="99"/>
-        <v>81366.818854544836</v>
+        <f t="shared" si="96"/>
+        <v>41678.017461253999</v>
       </c>
       <c r="CR36" s="4">
-        <f t="shared" si="99"/>
-        <v>80553.15066599939</v>
+        <f t="shared" si="96"/>
+        <v>41261.237286641459</v>
       </c>
       <c r="CS36" s="4">
-        <f t="shared" si="99"/>
-        <v>79747.619159339389</v>
+        <f t="shared" si="96"/>
+        <v>40848.624913775042</v>
       </c>
       <c r="CT36" s="4">
-        <f t="shared" si="99"/>
-        <v>78950.142967745996</v>
+        <f t="shared" si="96"/>
+        <v>40440.138664637292</v>
       </c>
       <c r="CU36" s="4">
-        <f t="shared" si="99"/>
-        <v>78160.641538068536</v>
+        <f t="shared" si="96"/>
+        <v>40035.73727799092</v>
       </c>
       <c r="CV36" s="4">
-        <f t="shared" si="99"/>
-        <v>77379.035122687856</v>
+        <f t="shared" si="96"/>
+        <v>39635.379905211012</v>
       </c>
       <c r="CW36" s="4">
-        <f t="shared" si="99"/>
-        <v>76605.244771460973</v>
-      </c>
-    </row>
-    <row r="37" spans="2:101" x14ac:dyDescent="0.2">
+        <f t="shared" si="96"/>
+        <v>39239.026106158904</v>
+      </c>
+      <c r="CX36" s="4">
+        <f t="shared" si="96"/>
+        <v>38846.635845097313</v>
+      </c>
+      <c r="CY36" s="4">
+        <f t="shared" si="96"/>
+        <v>38458.169486646337</v>
+      </c>
+      <c r="CZ36" s="4">
+        <f t="shared" si="96"/>
+        <v>38073.587791779872</v>
+      </c>
+      <c r="DA36" s="4">
+        <f t="shared" si="96"/>
+        <v>37692.851913862076</v>
+      </c>
+    </row>
+    <row r="37" spans="2:105" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>54</v>
       </c>
@@ -4792,119 +5317,135 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3">
-        <f t="shared" ref="G37:K37" si="100">G36/G38</f>
+        <f t="shared" ref="G37:K37" si="97">G36/G38</f>
         <v>-0.76069364161849706</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="100"/>
+        <f t="shared" si="97"/>
         <v>-0.32881355932203388</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="100"/>
+        <f t="shared" si="97"/>
         <v>0.15509761388286333</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="100"/>
+        <f t="shared" si="97"/>
         <v>9.8913043478260868E-2</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="100"/>
+        <f t="shared" si="97"/>
         <v>1.7112299465240642E-2</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" ref="L37" si="101">L36/L38</f>
+        <f t="shared" ref="L37" si="98">L36/L38</f>
         <v>0.10048309178743961</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" ref="M37:O37" si="102">M36/M38</f>
+        <f t="shared" ref="M37:O37" si="99">M36/M38</f>
         <v>0.27149321266968324</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>0.2402135231316726</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>0.29744042365401591</v>
       </c>
       <c r="P37" s="3">
-        <f t="shared" ref="P37" si="103">P36/P38</f>
+        <f t="shared" ref="P37" si="100">P36/P38</f>
         <v>1.0411081322609472</v>
       </c>
       <c r="Q37" s="3">
-        <f t="shared" ref="Q37" si="104">Q36/Q38</f>
+        <f t="shared" ref="Q37" si="101">Q36/Q38</f>
         <v>1.4861976847729297</v>
       </c>
       <c r="R37" s="3">
-        <f t="shared" ref="R37" si="105">R36/R38</f>
+        <f t="shared" ref="R37" si="102">R36/R38</f>
         <v>2.044933920704846</v>
       </c>
       <c r="S37" s="3">
-        <f t="shared" ref="S37:U37" si="106">S36/S38</f>
+        <f t="shared" ref="S37:U37" si="103">S36/S38</f>
         <v>2.867761452031115</v>
       </c>
       <c r="T37" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="103"/>
         <v>2.032900432900433</v>
       </c>
       <c r="U37" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="103"/>
         <v>0.96049596309111884</v>
       </c>
       <c r="V37" s="3">
-        <f t="shared" ref="V37:Z37" si="107">V36/V38</f>
+        <f t="shared" ref="V37:AD37" si="104">V36/V38</f>
         <v>0.99936617689426632</v>
       </c>
       <c r="W37" s="3">
-        <f t="shared" si="107"/>
-        <v>0.73212226066897346</v>
+        <f t="shared" si="104"/>
+        <v>0.7246251441753172</v>
       </c>
       <c r="X37" s="3">
-        <f t="shared" si="107"/>
-        <v>1.0138235294117648</v>
+        <f t="shared" si="104"/>
+        <v>0.77717078780908566</v>
       </c>
       <c r="Y37" s="3">
-        <f t="shared" si="107"/>
-        <v>1.402110726643599</v>
+        <f t="shared" si="104"/>
+        <v>0.53048955052963065</v>
       </c>
       <c r="Z37" s="3">
-        <f t="shared" si="107"/>
-        <v>1.4216133217993079</v>
-      </c>
-      <c r="AL37" s="21">
-        <f>+AL36/AL38</f>
-        <v>4.5696698385236454</v>
-      </c>
-      <c r="AM37" s="21">
-        <f t="shared" ref="AM37:AQ37" si="108">+AM36/AM38</f>
-        <v>5.0672721620491918</v>
-      </c>
-      <c r="AN37" s="21">
-        <f t="shared" si="108"/>
-        <v>8.9072200395208441</v>
-      </c>
-      <c r="AO37" s="21">
-        <f t="shared" si="108"/>
-        <v>13.294117107169026</v>
+        <f t="shared" si="104"/>
+        <v>0.62313860252004583</v>
+      </c>
+      <c r="AA37" s="3">
+        <f t="shared" si="104"/>
+        <v>0.32405281285878301</v>
+      </c>
+      <c r="AB37" s="3">
+        <f t="shared" si="104"/>
+        <v>0.44388499865667669</v>
+      </c>
+      <c r="AC37" s="3">
+        <f t="shared" si="104"/>
+        <v>0.35357930856489966</v>
+      </c>
+      <c r="AD37" s="3">
+        <f t="shared" si="104"/>
+        <v>0.41799188762299788</v>
       </c>
       <c r="AP37" s="21">
-        <f t="shared" si="108"/>
-        <v>18.399228949670828</v>
+        <f>+AP36/AP38</f>
+        <v>2.6545115210681214</v>
       </c>
       <c r="AQ37" s="21">
-        <f t="shared" si="108"/>
-        <v>24.970907755805371</v>
+        <f t="shared" ref="AQ37:AU37" si="105">+AQ36/AQ38</f>
+        <v>3.3526404803460834</v>
       </c>
       <c r="AR37" s="21">
-        <f t="shared" ref="AR37" si="109">+AR36/AR38</f>
-        <v>31.980742653878014</v>
+        <f t="shared" si="105"/>
+        <v>5.5738122719477223</v>
       </c>
       <c r="AS37" s="21">
-        <f t="shared" ref="AS37" si="110">+AS36/AS38</f>
-        <v>38.780063718198662</v>
-      </c>
-    </row>
-    <row r="38" spans="2:101" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="105"/>
+        <v>7.8281310143981635</v>
+      </c>
+      <c r="AT37" s="21">
+        <f t="shared" si="105"/>
+        <v>10.261695908125084</v>
+      </c>
+      <c r="AU37" s="21">
+        <f t="shared" si="105"/>
+        <v>13.294339728556974</v>
+      </c>
+      <c r="AV37" s="21">
+        <f t="shared" ref="AV37" si="106">+AV36/AV38</f>
+        <v>16.30838894960393</v>
+      </c>
+      <c r="AW37" s="21">
+        <f t="shared" ref="AW37" si="107">+AW36/AW38</f>
+        <v>19.000533700307749</v>
+      </c>
+    </row>
+    <row r="38" spans="2:105" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="4" t="s">
         <v>1</v>
       </c>
@@ -4969,51 +5510,63 @@
         <v>3468</v>
       </c>
       <c r="X38" s="5">
-        <f t="shared" ref="X38:Z38" si="111">+W38</f>
-        <v>3468</v>
+        <v>3478</v>
       </c>
       <c r="Y38" s="5">
-        <f t="shared" si="111"/>
-        <v>3468</v>
+        <v>3493</v>
       </c>
       <c r="Z38" s="5">
-        <f t="shared" si="111"/>
-        <v>3468</v>
-      </c>
-      <c r="AL38" s="4">
+        <v>3492</v>
+      </c>
+      <c r="AA38" s="5">
+        <v>3484</v>
+      </c>
+      <c r="AB38" s="5">
+        <f>+AA38</f>
+        <v>3484</v>
+      </c>
+      <c r="AC38" s="5">
+        <f>+AB38</f>
+        <v>3484</v>
+      </c>
+      <c r="AD38" s="5">
+        <f>+AC38</f>
+        <v>3484</v>
+      </c>
+      <c r="AP38" s="4">
         <f>AVERAGE(W38:Z38)</f>
-        <v>3468</v>
-      </c>
-      <c r="AM38" s="4">
-        <f>AL38</f>
-        <v>3468</v>
-      </c>
-      <c r="AN38" s="4">
-        <f t="shared" ref="AN38:AQ38" si="112">AM38</f>
-        <v>3468</v>
-      </c>
-      <c r="AO38" s="4">
-        <f t="shared" si="112"/>
-        <v>3468</v>
-      </c>
-      <c r="AP38" s="4">
-        <f t="shared" si="112"/>
-        <v>3468</v>
+        <v>3482.75</v>
       </c>
       <c r="AQ38" s="4">
-        <f t="shared" si="112"/>
-        <v>3468</v>
+        <f>AP38</f>
+        <v>3482.75</v>
       </c>
       <c r="AR38" s="4">
-        <f t="shared" ref="AR38:AS38" si="113">AQ38</f>
-        <v>3468</v>
+        <f t="shared" ref="AR38:AU38" si="108">AQ38</f>
+        <v>3482.75</v>
       </c>
       <c r="AS38" s="4">
-        <f t="shared" si="113"/>
-        <v>3468</v>
-      </c>
-    </row>
-    <row r="40" spans="2:101" s="25" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="108"/>
+        <v>3482.75</v>
+      </c>
+      <c r="AT38" s="4">
+        <f t="shared" si="108"/>
+        <v>3482.75</v>
+      </c>
+      <c r="AU38" s="4">
+        <f t="shared" si="108"/>
+        <v>3482.75</v>
+      </c>
+      <c r="AV38" s="4">
+        <f t="shared" ref="AV38:AW38" si="109">AU38</f>
+        <v>3482.75</v>
+      </c>
+      <c r="AW38" s="4">
+        <f t="shared" si="109"/>
+        <v>3482.75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:105" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="25" t="s">
         <v>89</v>
       </c>
@@ -5030,35 +5583,35 @@
         <v>0.31799163179916312</v>
       </c>
       <c r="L40" s="23">
-        <f t="shared" ref="L40" si="114">L20/H20-1</f>
+        <f t="shared" ref="L40" si="110">L20/H20-1</f>
         <v>-4.9448818897637747E-2</v>
       </c>
       <c r="M40" s="23">
-        <f t="shared" ref="M40" si="115">M20/I20-1</f>
+        <f t="shared" ref="M40" si="111">M20/I20-1</f>
         <v>0.39155957480564818</v>
       </c>
       <c r="N40" s="23">
-        <f t="shared" ref="N40" si="116">N20/J20-1</f>
+        <f t="shared" ref="N40" si="112">N20/J20-1</f>
         <v>0.45503791982665232</v>
       </c>
       <c r="O40" s="23">
-        <f t="shared" ref="O40" si="117">O20/K20-1</f>
+        <f t="shared" ref="O40" si="113">O20/K20-1</f>
         <v>0.73583959899749374</v>
       </c>
       <c r="P40" s="23">
-        <f t="shared" ref="P40:Q40" si="118">P20/L20-1</f>
+        <f t="shared" ref="P40:Q40" si="114">P20/L20-1</f>
         <v>0.98111332007952279</v>
       </c>
       <c r="Q40" s="23">
-        <f t="shared" si="118"/>
+        <f t="shared" si="114"/>
         <v>0.56846425721126437</v>
       </c>
       <c r="R40" s="23">
-        <f t="shared" ref="R40:S40" si="119">R20/N20-1</f>
+        <f t="shared" ref="R40:S40" si="115">R20/N20-1</f>
         <v>0.64919955323901712</v>
       </c>
       <c r="S40" s="23">
-        <f t="shared" si="119"/>
+        <f t="shared" si="115"/>
         <v>0.80537106555010096</v>
       </c>
       <c r="T40" s="23">
@@ -5074,136 +5627,152 @@
         <v>0.39999999999999991</v>
       </c>
       <c r="W40" s="23">
-        <f t="shared" ref="W40:Z40" si="120">W20/S20-1</f>
+        <f t="shared" ref="W40:AD40" si="116">W20/S20-1</f>
         <v>0.24381531243335464</v>
       </c>
       <c r="X40" s="23">
-        <f t="shared" si="120"/>
-        <v>0.40000000000000013</v>
+        <f t="shared" si="116"/>
+        <v>0.47200897602456604</v>
       </c>
       <c r="Y40" s="23">
-        <f t="shared" si="120"/>
-        <v>0.40000000000000013</v>
+        <f t="shared" si="116"/>
+        <v>8.8375128181224838E-2</v>
       </c>
       <c r="Z40" s="23">
-        <f t="shared" si="120"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="AC40" s="27">
-        <f t="shared" ref="AC40:AF40" si="121">AC20/AB20-1</f>
+        <f t="shared" si="116"/>
+        <v>1.452839163770947E-2</v>
+      </c>
+      <c r="AA40" s="23">
+        <f t="shared" si="116"/>
+        <v>-8.6930429936988296E-2</v>
+      </c>
+      <c r="AB40" s="23">
+        <f t="shared" si="116"/>
+        <v>0.13406324310983453</v>
+      </c>
+      <c r="AC40" s="23">
+        <f t="shared" si="116"/>
+        <v>0.12948976125628553</v>
+      </c>
+      <c r="AD40" s="23">
+        <f t="shared" si="116"/>
+        <v>0.13521798932415607</v>
+      </c>
+      <c r="AG40" s="27">
+        <f t="shared" ref="AG40:AI40" si="117">AG20/AF20-1</f>
         <v>0.58845907814070664</v>
       </c>
-      <c r="AD40" s="27">
-        <f t="shared" si="121"/>
+      <c r="AH40" s="27">
+        <f t="shared" si="117"/>
         <v>0.26503272306147285</v>
       </c>
-      <c r="AE40" s="27">
-        <f t="shared" si="121"/>
+      <c r="AI40" s="27">
+        <f t="shared" si="117"/>
         <v>0.73012574069611524</v>
       </c>
-      <c r="AF40" s="27">
-        <f>AF20/AE20-1</f>
+      <c r="AJ40" s="27">
+        <f>AJ20/AI20-1</f>
         <v>0.67978989539054413</v>
       </c>
-      <c r="AG40" s="27">
-        <f>AG20/AF20-1</f>
+      <c r="AK40" s="27">
+        <f>AK20/AJ20-1</f>
         <v>0.82513159773516764</v>
       </c>
-      <c r="AH40" s="27">
-        <f>AH20/AG20-1</f>
+      <c r="AL40" s="27">
+        <f>AL20/AK20-1</f>
         <v>0.14522590184326489</v>
       </c>
-      <c r="AI40" s="27">
-        <f>+AI20/AH20-1</f>
+      <c r="AM40" s="27">
+        <f>+AM20/AL20-1</f>
         <v>0.28309870615998056</v>
       </c>
-      <c r="AJ40" s="27">
-        <f>+AJ20/AI20-1</f>
+      <c r="AN40" s="27">
+        <f>+AN20/AM20-1</f>
         <v>0.70671613394216126</v>
       </c>
-      <c r="AK40" s="27">
-        <f>+AK20/AJ20-1</f>
+      <c r="AO40" s="27">
+        <f>+AO20/AN20-1</f>
         <v>0.52259442989056737</v>
       </c>
-      <c r="AL40" s="27">
-        <f>+AL20/AK20-1</f>
-        <v>0.36425407501592399</v>
-      </c>
-      <c r="AM40" s="27">
-        <f t="shared" ref="AM40:AQ40" si="122">+AM20/AL20-1</f>
-        <v>0.23152290088009764</v>
-      </c>
-      <c r="AN40" s="27">
-        <f t="shared" si="122"/>
-        <v>0.33899999999999997</v>
-      </c>
-      <c r="AO40" s="27">
-        <f t="shared" si="122"/>
+      <c r="AP40" s="27">
+        <f>+AP20/AO20-1</f>
+        <v>0.18086993871917945</v>
+      </c>
+      <c r="AQ40" s="27">
+        <f t="shared" ref="AQ40:AU40" si="118">+AQ20/AP20-1</f>
+        <v>0.18602629663740111</v>
+      </c>
+      <c r="AR40" s="27">
+        <f t="shared" si="118"/>
+        <v>0.33900000000000019</v>
+      </c>
+      <c r="AS40" s="27">
+        <f t="shared" si="118"/>
         <v>0.28749999999999987</v>
       </c>
-      <c r="AP40" s="27">
-        <f t="shared" si="122"/>
+      <c r="AT40" s="27">
+        <f t="shared" si="118"/>
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="AU40" s="27">
+        <f t="shared" si="118"/>
         <v>0.23600000000000021</v>
       </c>
-      <c r="AQ40" s="27">
-        <f t="shared" si="122"/>
-        <v>0.23599999999999977</v>
-      </c>
-      <c r="AR40" s="27">
-        <f t="shared" ref="AR40:AS40" si="123">+AR20/AQ20-1</f>
-        <v>0.18450000000000011</v>
-      </c>
-      <c r="AS40" s="27">
-        <f t="shared" si="123"/>
+      <c r="AV40" s="27">
+        <f t="shared" ref="AV40:AW40" si="119">+AV20/AU20-1</f>
+        <v>0.18449999999999966</v>
+      </c>
+      <c r="AW40" s="27">
+        <f t="shared" si="119"/>
         <v>0.13300000000000023</v>
       </c>
     </row>
-    <row r="41" spans="2:101" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:105" x14ac:dyDescent="0.15">
       <c r="B41" s="22" t="s">
         <v>92</v>
       </c>
       <c r="K41" s="17">
-        <f t="shared" ref="K41" si="124">+K5/G5-1</f>
+        <f t="shared" ref="K41" si="120">+K5/G5-1</f>
         <v>0.40427490122026688</v>
       </c>
       <c r="L41" s="17">
-        <f t="shared" ref="L41" si="125">+L5/H5-1</f>
+        <f t="shared" ref="L41" si="121">+L5/H5-1</f>
         <v>-4.9351902344897058E-2</v>
       </c>
       <c r="M41" s="17">
-        <f t="shared" ref="M41" si="126">+M5/I5-1</f>
+        <f t="shared" ref="M41" si="122">+M5/I5-1</f>
         <v>0.43333401930319182</v>
       </c>
       <c r="N41" s="17">
-        <f t="shared" ref="N41" si="127">+N5/J5-1</f>
+        <f t="shared" ref="N41" si="123">+N5/J5-1</f>
         <v>0.61086578348722065</v>
       </c>
       <c r="O41" s="17">
-        <f t="shared" ref="O41" si="128">+O5/K5-1</f>
+        <f t="shared" ref="O41" si="124">+O5/K5-1</f>
         <v>1.088229976496113</v>
       </c>
       <c r="P41" s="17">
-        <f t="shared" ref="P41" si="129">+P5/L5-1</f>
+        <f t="shared" ref="P41" si="125">+P5/L5-1</f>
         <v>1.2200772200772199</v>
       </c>
       <c r="Q41" s="17">
-        <f t="shared" ref="Q41" si="130">+Q5/M5-1</f>
+        <f t="shared" ref="Q41" si="126">+Q5/M5-1</f>
         <v>0.73223259152907394</v>
       </c>
       <c r="R41" s="17">
-        <f t="shared" ref="R41:U41" si="131">+R5/N5-1</f>
+        <f t="shared" ref="R41:U41" si="127">+R5/N5-1</f>
         <v>0.70903250816857732</v>
       </c>
       <c r="S41" s="17">
-        <f t="shared" si="131"/>
+        <f t="shared" si="127"/>
         <v>0.67774891774891777</v>
       </c>
       <c r="T41" s="17">
-        <f t="shared" si="131"/>
+        <f t="shared" si="127"/>
         <v>0.26556521739130434</v>
       </c>
       <c r="U41" s="17">
-        <f t="shared" si="131"/>
+        <f t="shared" si="127"/>
         <v>0.42490675507666809</v>
       </c>
       <c r="V41" s="17">
@@ -5214,180 +5783,221 @@
         <f>+W5/S5-1</f>
         <v>0.36390171844359576</v>
       </c>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="17"/>
-      <c r="AI41" s="28">
-        <f>+AI5/AH5-1</f>
+      <c r="X41" s="17">
+        <f t="shared" ref="X41:AD41" si="128">+X5/T5-1</f>
+        <v>0.83018904964761764</v>
+      </c>
+      <c r="Y41" s="17">
+        <f t="shared" si="128"/>
+        <v>0.26533170462146982</v>
+      </c>
+      <c r="Z41" s="17">
+        <f t="shared" si="128"/>
+        <v>0.19549297025745282</v>
+      </c>
+      <c r="AA41" s="17">
+        <f t="shared" si="128"/>
+        <v>-8.5285249778303318E-2</v>
+      </c>
+      <c r="AB41" s="17">
+        <f t="shared" si="128"/>
+        <v>0.10824859484275118</v>
+      </c>
+      <c r="AC41" s="17">
+        <f t="shared" si="128"/>
+        <v>0.10734842860393656</v>
+      </c>
+      <c r="AD41" s="17">
+        <f t="shared" si="128"/>
+        <v>0.10948139036174909</v>
+      </c>
+      <c r="AM41" s="28">
+        <f>+AM5/AL5-1</f>
         <v>0.35729051069477991</v>
       </c>
-      <c r="AJ41" s="28">
-        <f>+AJ5/AI5-1</f>
+      <c r="AN41" s="28">
+        <f>+AN5/AM5-1</f>
         <v>0.87559116340959009</v>
       </c>
-      <c r="AK41" s="28">
-        <f>+AK5/AJ5-1</f>
+      <c r="AO41" s="28">
+        <f>+AO5/AN5-1</f>
         <v>0.403761953095785</v>
       </c>
-      <c r="AL41" s="28">
-        <f t="shared" ref="AL41" si="132">+AL5/AK5-1</f>
-        <v>0.35000000000000009</v>
-      </c>
-      <c r="AM41" s="28">
-        <f t="shared" ref="AM41" si="133">+AM5/AL5-1</f>
-        <v>0.35517216183570288</v>
-      </c>
-      <c r="AN41" s="28">
-        <f t="shared" ref="AN41" si="134">+AN5/AM5-1</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AO41" s="28">
-        <f t="shared" ref="AO41" si="135">+AO5/AN5-1</f>
+      <c r="AP41" s="28">
+        <f t="shared" ref="AP41" si="129">+AP5/AO5-1</f>
+        <v>0.37654954785588313</v>
+      </c>
+      <c r="AQ41" s="28">
+        <f t="shared" ref="AQ41" si="130">+AQ5/AP5-1</f>
+        <v>6.3111024609901367E-2</v>
+      </c>
+      <c r="AR41" s="28">
+        <f t="shared" ref="AR41" si="131">+AR5/AQ5-1</f>
+        <v>0.62517870312427859</v>
+      </c>
+      <c r="AS41" s="28">
+        <f t="shared" ref="AS41" si="132">+AS5/AR5-1</f>
         <v>0.25</v>
       </c>
-      <c r="AP41" s="28">
-        <f t="shared" ref="AP41" si="136">+AP5/AO5-1</f>
+      <c r="AT41" s="28">
+        <f t="shared" ref="AT41" si="133">+AT5/AS5-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AQ41" s="28">
-        <f t="shared" ref="AQ41" si="137">+AQ5/AP5-1</f>
+      <c r="AU41" s="28">
+        <f t="shared" ref="AU41" si="134">+AU5/AT5-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AR41" s="28">
-        <f t="shared" ref="AR41" si="138">+AR5/AQ5-1</f>
+      <c r="AV41" s="28">
+        <f t="shared" ref="AV41" si="135">+AV5/AU5-1</f>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AS41" s="28">
-        <f t="shared" ref="AS41" si="139">+AS5/AR5-1</f>
+      <c r="AW41" s="28">
+        <f t="shared" ref="AW41" si="136">+AW5/AV5-1</f>
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="42" spans="2:101" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:105" x14ac:dyDescent="0.15">
       <c r="B42" s="22" t="s">
         <v>93</v>
       </c>
       <c r="K42" s="17">
-        <f t="shared" ref="K42" si="140">+K10/G10-1</f>
+        <f t="shared" ref="K42" si="137">+K10/G10-1</f>
         <v>0.33101713811610356</v>
       </c>
       <c r="L42" s="17">
-        <f t="shared" ref="L42" si="141">+L10/H10-1</f>
+        <f t="shared" ref="L42" si="138">+L10/H10-1</f>
         <v>-5.4866280672732248E-2</v>
       </c>
       <c r="M42" s="17">
-        <f t="shared" ref="M42" si="142">+M10/I10-1</f>
+        <f t="shared" ref="M42" si="139">+M10/I10-1</f>
         <v>0.50835629972440333</v>
       </c>
       <c r="N42" s="17">
-        <f t="shared" ref="N42" si="143">+N10/J10-1</f>
+        <f t="shared" ref="N42" si="140">+N10/J10-1</f>
         <v>0.71375046476818782</v>
       </c>
       <c r="O42" s="17">
-        <f t="shared" ref="O42" si="144">+O10/K10-1</f>
+        <f t="shared" ref="O42" si="141">+O10/K10-1</f>
         <v>0.75644771700171409</v>
       </c>
       <c r="P42" s="17">
-        <f t="shared" ref="P42" si="145">+P10/L10-1</f>
+        <f t="shared" ref="P42" si="142">+P10/L10-1</f>
         <v>1.5090067094515751</v>
       </c>
       <c r="Q42" s="17">
-        <f t="shared" ref="Q42" si="146">+Q10/M10-1</f>
+        <f t="shared" ref="Q42" si="143">+Q10/M10-1</f>
         <v>0.63975150996993846</v>
       </c>
       <c r="R42" s="17">
-        <f t="shared" ref="R42:W42" si="147">+R10/N10-1</f>
+        <f t="shared" ref="R42:W42" si="144">+R10/N10-1</f>
         <v>0.7014080119272128</v>
       </c>
       <c r="S42" s="17">
-        <f t="shared" si="147"/>
+        <f t="shared" si="144"/>
         <v>0.69352549102241356</v>
       </c>
       <c r="T42" s="17">
-        <f t="shared" si="147"/>
+        <f t="shared" si="144"/>
         <v>0.25268262434539124</v>
       </c>
       <c r="U42" s="17">
-        <f t="shared" si="147"/>
+        <f t="shared" si="144"/>
         <v>0.53863587626091669</v>
       </c>
       <c r="V42" s="17">
-        <f t="shared" si="147"/>
+        <f t="shared" si="144"/>
         <v>0.43768310227569973</v>
       </c>
       <c r="W42" s="17">
-        <f t="shared" si="147"/>
+        <f t="shared" si="144"/>
         <v>0.44334609226376598</v>
       </c>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="17"/>
-      <c r="AI42" s="28">
-        <f t="shared" ref="AI42:AJ42" si="148">+AI10/AH10-1</f>
+      <c r="X42" s="17">
+        <f t="shared" ref="X42" si="145">+X10/T10-1</f>
+        <v>0.85513187408152214</v>
+      </c>
+      <c r="Y42" s="17">
+        <f t="shared" ref="Y42" si="146">+Y10/U10-1</f>
+        <v>0.17644422460462983</v>
+      </c>
+      <c r="Z42" s="17">
+        <f t="shared" ref="Z42" si="147">+Z10/V10-1</f>
+        <v>0.12573999149421988</v>
+      </c>
+      <c r="AA42" s="17">
+        <f t="shared" ref="AA42" si="148">+AA10/W10-1</f>
+        <v>-1.687129090216144E-2</v>
+      </c>
+      <c r="AB42" s="17"/>
+      <c r="AC42" s="17"/>
+      <c r="AD42" s="17"/>
+      <c r="AM42" s="28">
+        <f t="shared" ref="AM42:AN42" si="149">+AM10/AL10-1</f>
         <v>0.39565262627590125</v>
       </c>
-      <c r="AJ42" s="28">
-        <f t="shared" si="148"/>
+      <c r="AN42" s="28">
+        <f t="shared" si="149"/>
         <v>0.8252981439448186</v>
       </c>
-      <c r="AK42" s="28">
-        <f>+AK10/AJ10-1</f>
+      <c r="AO42" s="28">
+        <f>+AO10/AN10-1</f>
         <v>0.47203204567389845</v>
       </c>
-      <c r="AL42" s="28">
-        <f>+AL10/AK10-1</f>
+      <c r="AP42" s="28">
+        <f>+AP10/AO10-1</f>
         <v>0.35000000000000009</v>
       </c>
-      <c r="AM42" s="28">
-        <f t="shared" ref="AM42" si="149">+AM10/AL10-1</f>
+      <c r="AQ42" s="28">
+        <f t="shared" ref="AQ42" si="150">+AQ10/AP10-1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AN42" s="28">
-        <f t="shared" ref="AN42" si="150">+AN10/AM10-1</f>
+      <c r="AR42" s="28">
+        <f t="shared" ref="AR42" si="151">+AR10/AQ10-1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AO42" s="28">
-        <f t="shared" ref="AO42" si="151">+AO10/AN10-1</f>
+      <c r="AS42" s="28">
+        <f t="shared" ref="AS42" si="152">+AS10/AR10-1</f>
         <v>0.25</v>
       </c>
-      <c r="AP42" s="28">
-        <f t="shared" ref="AP42" si="152">+AP10/AO10-1</f>
+      <c r="AT42" s="28">
+        <f t="shared" ref="AT42" si="153">+AT10/AS10-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AQ42" s="28">
-        <f t="shared" ref="AQ42" si="153">+AQ10/AP10-1</f>
+      <c r="AU42" s="28">
+        <f t="shared" ref="AU42" si="154">+AU10/AT10-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AR42" s="28">
-        <f t="shared" ref="AR42" si="154">+AR10/AQ10-1</f>
+      <c r="AV42" s="28">
+        <f t="shared" ref="AV42" si="155">+AV10/AU10-1</f>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AS42" s="28">
-        <f t="shared" ref="AS42" si="155">+AS10/AR10-1</f>
+      <c r="AW42" s="28">
+        <f t="shared" ref="AW42" si="156">+AW10/AV10-1</f>
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="43" spans="2:101" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:105" x14ac:dyDescent="0.15">
       <c r="B43" s="20" t="s">
         <v>91</v>
       </c>
       <c r="K43" s="17">
-        <f t="shared" ref="K43:O43" si="156">K14/G14-1</f>
+        <f t="shared" ref="K43:O43" si="157">K14/G14-1</f>
         <v>0.39441436306640076</v>
       </c>
       <c r="L43" s="17">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>-4.9729102167182626E-2</v>
       </c>
       <c r="M43" s="17">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.43141075604053003</v>
       </c>
       <c r="N43" s="17">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.4053394107113788</v>
       </c>
       <c r="O43" s="17">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.67320662170447587</v>
       </c>
       <c r="P43" s="17">
@@ -5395,7 +6005,7 @@
         <v>0.9385053960496843</v>
       </c>
       <c r="Q43" s="17">
-        <f t="shared" ref="Q43" si="157">Q14/M14-1</f>
+        <f t="shared" ref="Q43" si="158">Q14/M14-1</f>
         <v>0.55091206098557044</v>
       </c>
       <c r="R43" s="17">
@@ -5403,19 +6013,19 @@
         <v>0.74041468782578468</v>
       </c>
       <c r="S43" s="17">
-        <f t="shared" ref="S43:U43" si="158">S14/O14-1</f>
+        <f t="shared" ref="S43:U43" si="159">S14/O14-1</f>
         <v>0.89495541712470983</v>
       </c>
       <c r="T43" s="17">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>0.43592436974789917</v>
       </c>
       <c r="U43" s="17">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>0.561046256473273</v>
       </c>
       <c r="V43" s="17">
-        <f t="shared" ref="V43" si="159">V14/R14-1</f>
+        <f t="shared" ref="V43" si="160">V14/R14-1</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="W43" s="17">
@@ -5423,25 +6033,41 @@
         <v>0.21683640582699493</v>
       </c>
       <c r="X43" s="17">
-        <f t="shared" ref="X43" si="160">X14/T14-1</f>
-        <v>0.39999999999999991</v>
+        <f t="shared" ref="X43" si="161">X14/T14-1</f>
+        <v>0.49370885149963417</v>
       </c>
       <c r="Y43" s="17">
-        <f t="shared" ref="Y43" si="161">Y14/U14-1</f>
-        <v>0.39999999999999991</v>
+        <f t="shared" ref="Y43" si="162">Y14/U14-1</f>
+        <v>4.4813044700590332E-2</v>
       </c>
       <c r="Z43" s="17">
-        <f t="shared" ref="Z43" si="162">Z14/V14-1</f>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="AU43" s="30" t="s">
+        <f t="shared" ref="Z43:AD43" si="163">Z14/V14-1</f>
+        <v>-1.9253624910862799E-2</v>
+      </c>
+      <c r="AA43" s="17">
+        <f t="shared" si="163"/>
+        <v>-0.12808560228837795</v>
+      </c>
+      <c r="AB43" s="17">
+        <f t="shared" si="163"/>
+        <v>0.16366102458488885</v>
+      </c>
+      <c r="AC43" s="17">
+        <f t="shared" si="163"/>
+        <v>0.16271585003413347</v>
+      </c>
+      <c r="AD43" s="17">
+        <f t="shared" si="163"/>
+        <v>0.16495545987983684</v>
+      </c>
+      <c r="AY43" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="AV43" s="28">
+      <c r="AZ43" s="28">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="44" spans="2:101" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:105" x14ac:dyDescent="0.15">
       <c r="B44" s="20" t="s">
         <v>90</v>
       </c>
@@ -5450,67 +6076,67 @@
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
       <c r="G44" s="17">
-        <f t="shared" ref="G44:K44" si="163">G22/G14</f>
+        <f t="shared" ref="G44:K44" si="164">G22/G14</f>
         <v>0.18609290396124251</v>
       </c>
       <c r="H44" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.17685758513931887</v>
       </c>
       <c r="I44" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.21784879189399844</v>
       </c>
       <c r="J44" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.21618101904606871</v>
       </c>
       <c r="K44" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.2440220723482526</v>
       </c>
       <c r="L44" s="17">
-        <f t="shared" ref="L44" si="164">L22/L14</f>
+        <f t="shared" ref="L44" si="165">L22/L14</f>
         <v>0.24373854612095297</v>
       </c>
       <c r="M44" s="17">
-        <f t="shared" ref="M44" si="165">M22/M14</f>
+        <f t="shared" ref="M44" si="166">M22/M14</f>
         <v>0.27021508303838826</v>
       </c>
       <c r="N44" s="17">
-        <f t="shared" ref="N44:U44" si="166">N22/N14</f>
+        <f t="shared" ref="N44:U44" si="167">N22/N14</f>
         <v>0.19819298042395458</v>
       </c>
       <c r="O44" s="17">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0.21131061438866497</v>
       </c>
       <c r="P44" s="17">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0.25220588235294117</v>
       </c>
       <c r="Q44" s="17">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0.28464846835776353</v>
       </c>
       <c r="R44" s="17">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0.28858569051580701</v>
       </c>
       <c r="S44" s="17">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0.29650638133298957</v>
       </c>
       <c r="T44" s="17">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0.25727871250914414</v>
       </c>
       <c r="U44" s="17">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0.26348046106269329</v>
       </c>
       <c r="V44" s="17">
-        <f t="shared" ref="V44:Z44" si="167">V22/V14</f>
+        <f t="shared" ref="V44:AD44" si="168">V22/V14</f>
         <v>0.26631804135963871</v>
       </c>
       <c r="W44" s="17">
@@ -5518,45 +6144,61 @@
         <v>0.1830702404915775</v>
       </c>
       <c r="X44" s="17">
-        <f t="shared" si="167"/>
-        <v>0.25</v>
+        <f t="shared" si="168"/>
+        <v>0.17522895342573094</v>
       </c>
       <c r="Y44" s="17">
-        <f t="shared" si="167"/>
-        <v>0.25</v>
+        <f t="shared" si="168"/>
+        <v>0.15746421267893659</v>
       </c>
       <c r="Z44" s="17">
-        <f t="shared" si="167"/>
-        <v>0.25000000000000006</v>
-      </c>
-      <c r="AI44" s="17">
-        <f t="shared" ref="AI44:AM44" si="168">AI22/AI14</f>
+        <f t="shared" si="168"/>
+        <v>0.16616577799321378</v>
+      </c>
+      <c r="AA44" s="17">
+        <f t="shared" si="168"/>
+        <v>0.15571081409477522</v>
+      </c>
+      <c r="AB44" s="17">
+        <f t="shared" si="168"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="AC44" s="17">
+        <f t="shared" si="168"/>
+        <v>0.14999999999999994</v>
+      </c>
+      <c r="AD44" s="17">
+        <f t="shared" si="168"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AM44" s="17">
+        <f t="shared" ref="AM44:AQ44" si="169">AM22/AM14</f>
         <v>0</v>
       </c>
-      <c r="AJ44" s="17">
-        <f t="shared" si="168"/>
+      <c r="AN44" s="17">
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
-      <c r="AK44" s="17">
-        <f t="shared" si="168"/>
+      <c r="AO44" s="17">
+        <f t="shared" si="169"/>
         <v>0.27064584436209632</v>
       </c>
-      <c r="AL44" s="17">
-        <f t="shared" si="168"/>
-        <v>0.23632042787233121</v>
-      </c>
-      <c r="AM44" s="17">
-        <f t="shared" si="168"/>
+      <c r="AP44" s="17">
+        <f t="shared" si="169"/>
+        <v>0.17052821969455731</v>
+      </c>
+      <c r="AQ44" s="17">
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
-      <c r="AU44" s="30" t="s">
+      <c r="AY44" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="AV44" s="32">
+      <c r="AZ44" s="32">
         <v>0.08</v>
       </c>
     </row>
-    <row r="45" spans="2:101" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:105" x14ac:dyDescent="0.15">
       <c r="B45" s="20" t="s">
         <v>45</v>
       </c>
@@ -5565,31 +6207,31 @@
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17">
-        <f t="shared" ref="G45:K45" si="169">+G28/G20</f>
+        <f t="shared" ref="G45:K45" si="170">+G28/G20</f>
         <v>0.1246421493063202</v>
       </c>
       <c r="H45" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.14503937007874015</v>
       </c>
       <c r="I45" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.18895763921941933</v>
       </c>
       <c r="J45" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.18838028169014084</v>
       </c>
       <c r="K45" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.20618212197159566</v>
       </c>
       <c r="L45" s="17">
-        <f t="shared" ref="L45" si="170">+L28/L20</f>
+        <f t="shared" ref="L45" si="171">+L28/L20</f>
         <v>0.20990722332670642</v>
       </c>
       <c r="M45" s="17">
-        <f t="shared" ref="M45" si="171">+M28/M20</f>
+        <f t="shared" ref="M45" si="172">+M28/M20</f>
         <v>0.23520693193478509</v>
       </c>
       <c r="N45" s="17">
@@ -5597,82 +6239,98 @@
         <v>0.19229337304542071</v>
       </c>
       <c r="O45" s="17">
-        <f t="shared" ref="O45:Z45" si="172">+O28/O20</f>
+        <f t="shared" ref="O45:AD45" si="173">+O28/O20</f>
         <v>0.21320627586870727</v>
       </c>
       <c r="P45" s="17">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.24117745442381669</v>
       </c>
       <c r="Q45" s="17">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.26604637639020134</v>
       </c>
       <c r="R45" s="17">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.27354816863254133</v>
       </c>
       <c r="S45" s="17">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.29110684580934099</v>
       </c>
       <c r="T45" s="17">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.24997047360340144</v>
       </c>
       <c r="U45" s="17">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.25086231005873033</v>
       </c>
       <c r="V45" s="17">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.25257794296679104</v>
       </c>
       <c r="W45" s="17">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.19336448197522396</v>
       </c>
       <c r="X45" s="17">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
+        <v>0.18185100493440848</v>
+      </c>
+      <c r="Y45" s="17">
+        <f t="shared" si="173"/>
+        <v>0.17892933618843684</v>
+      </c>
+      <c r="Z45" s="17">
+        <f t="shared" si="173"/>
+        <v>0.17634203520483172</v>
+      </c>
+      <c r="AA45" s="17">
+        <f t="shared" si="173"/>
+        <v>0.1735129806112389</v>
+      </c>
+      <c r="AB45" s="17">
+        <f t="shared" si="173"/>
+        <v>0.15142206276448977</v>
+      </c>
+      <c r="AC45" s="17">
+        <f t="shared" si="173"/>
+        <v>0.15906968057651291</v>
+      </c>
+      <c r="AD45" s="17">
+        <f t="shared" si="173"/>
+        <v>0.15511900037130005</v>
+      </c>
+      <c r="AM45" s="17">
+        <f t="shared" ref="AM45:AQ45" si="174">+AM28/AM20</f>
+        <v>0</v>
+      </c>
+      <c r="AN45" s="17">
+        <f t="shared" si="174"/>
+        <v>0</v>
+      </c>
+      <c r="AO45" s="17">
+        <f t="shared" si="174"/>
         <v>0.25</v>
       </c>
-      <c r="Y45" s="17">
-        <f t="shared" si="172"/>
-        <v>0.25</v>
-      </c>
-      <c r="Z45" s="17">
-        <f t="shared" si="172"/>
-        <v>0.25</v>
-      </c>
-      <c r="AI45" s="17">
-        <f t="shared" ref="AI45:AM45" si="173">+AI28/AI20</f>
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="17">
-        <f t="shared" si="173"/>
-        <v>0</v>
-      </c>
-      <c r="AK45" s="17">
-        <f t="shared" si="173"/>
-        <v>0.25</v>
-      </c>
-      <c r="AL45" s="17">
-        <f t="shared" si="173"/>
-        <v>0.23818217368219946</v>
-      </c>
-      <c r="AM45" s="17">
-        <f t="shared" si="173"/>
-        <v>0.21094911653891116</v>
-      </c>
-      <c r="AU45" s="30" t="s">
+      <c r="AP45" s="17">
+        <f t="shared" si="174"/>
+        <v>0.18248891736331416</v>
+      </c>
+      <c r="AQ45" s="17">
+        <f t="shared" si="174"/>
+        <v>0.18999999999999992</v>
+      </c>
+      <c r="AY45" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="AV45" s="4">
-        <f>NPV(AV44,AM36:CW36)+Main!K5-Main!K6</f>
-        <v>1207710.564308471</v>
-      </c>
-    </row>
-    <row r="46" spans="2:101" x14ac:dyDescent="0.2">
+      <c r="AZ45" s="4">
+        <f>NPV(AZ44,AQ36:DA36)+Main!K5-Main!K6</f>
+        <v>620317.01090449432</v>
+      </c>
+    </row>
+    <row r="46" spans="2:105" x14ac:dyDescent="0.15">
       <c r="B46" s="15"/>
       <c r="R46" s="17"/>
       <c r="S46" s="17"/>
@@ -5683,23 +6341,27 @@
       <c r="X46" s="17"/>
       <c r="Y46" s="17"/>
       <c r="Z46" s="17"/>
-      <c r="AU46" s="30" t="s">
+      <c r="AA46" s="17"/>
+      <c r="AB46" s="17"/>
+      <c r="AC46" s="17"/>
+      <c r="AD46" s="17"/>
+      <c r="AY46" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AV46" s="28">
+      <c r="AZ46" s="28">
         <v>0.03</v>
       </c>
     </row>
-    <row r="47" spans="2:101" x14ac:dyDescent="0.2">
-      <c r="AU47" s="30" t="s">
+    <row r="47" spans="2:105" x14ac:dyDescent="0.15">
+      <c r="AY47" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="AV47" s="21">
-        <f>AV45/Main!K3</f>
-        <v>382.45891146119766</v>
-      </c>
-    </row>
-    <row r="48" spans="2:101" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AZ47" s="21">
+        <f>AZ45/Main!K3</f>
+        <v>196.4425713931239</v>
+      </c>
+    </row>
+    <row r="48" spans="2:105" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
         <v>55</v>
       </c>
@@ -5714,27 +6376,27 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5">
-        <f t="shared" ref="M48:R48" si="174">M36</f>
+        <f t="shared" ref="M48:R48" si="175">M36</f>
         <v>300</v>
       </c>
       <c r="N48" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>270</v>
       </c>
       <c r="O48" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>337</v>
       </c>
       <c r="P48" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>1165</v>
       </c>
       <c r="Q48" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>1669</v>
       </c>
       <c r="R48" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>2321</v>
       </c>
       <c r="S48" s="5">
@@ -5750,31 +6412,47 @@
         <v>3331</v>
       </c>
       <c r="V48" s="5">
-        <f t="shared" ref="V48:Z48" si="175">V36</f>
+        <f t="shared" ref="V48:AD48" si="176">V36</f>
         <v>3468.7999999999984</v>
       </c>
       <c r="W48" s="5">
-        <f t="shared" si="175"/>
-        <v>2539</v>
+        <f t="shared" si="176"/>
+        <v>2513</v>
       </c>
       <c r="X48" s="5">
-        <f t="shared" si="175"/>
-        <v>3515.9400000000005</v>
+        <f t="shared" si="176"/>
+        <v>2703</v>
       </c>
       <c r="Y48" s="5">
-        <f t="shared" si="175"/>
-        <v>4862.5200000000013</v>
+        <f t="shared" si="176"/>
+        <v>1853</v>
       </c>
       <c r="Z48" s="5">
-        <f t="shared" si="175"/>
-        <v>4930.1549999999997</v>
-      </c>
-      <c r="AV48" s="28">
-        <f>AV47/Main!K2-1</f>
-        <v>1.3179327967345311</v>
-      </c>
-    </row>
-    <row r="49" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="176"/>
+        <v>2176</v>
+      </c>
+      <c r="AA48" s="5">
+        <f t="shared" si="176"/>
+        <v>1129</v>
+      </c>
+      <c r="AB48" s="5">
+        <f t="shared" si="176"/>
+        <v>1546.4953353198616</v>
+      </c>
+      <c r="AC48" s="5">
+        <f t="shared" si="176"/>
+        <v>1231.8703110401104</v>
+      </c>
+      <c r="AD48" s="5">
+        <f t="shared" si="176"/>
+        <v>1456.2837364785246</v>
+      </c>
+      <c r="AZ48" s="28">
+        <f>AZ47/Main!K2-1</f>
+        <v>0.11615097382456763</v>
+      </c>
+    </row>
+    <row r="49" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="4" t="s">
         <v>56</v>
       </c>
@@ -5820,11 +6498,23 @@
       <c r="W49" s="5">
         <v>2539</v>
       </c>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-    </row>
-    <row r="50" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X49" s="5">
+        <v>2614</v>
+      </c>
+      <c r="Y49" s="5">
+        <v>1878</v>
+      </c>
+      <c r="Z49" s="5">
+        <v>7943</v>
+      </c>
+      <c r="AA49" s="5">
+        <v>1144</v>
+      </c>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+    </row>
+    <row r="50" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="4" t="s">
         <v>57</v>
       </c>
@@ -5870,11 +6560,23 @@
       <c r="W50" s="5">
         <v>1046</v>
       </c>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
-    </row>
-    <row r="51" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X50" s="5">
+        <v>1154</v>
+      </c>
+      <c r="Y50" s="5">
+        <v>1235</v>
+      </c>
+      <c r="Z50" s="5">
+        <v>1232</v>
+      </c>
+      <c r="AA50" s="5">
+        <v>1246</v>
+      </c>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+    </row>
+    <row r="51" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B51" s="4" t="s">
         <v>58</v>
       </c>
@@ -5920,11 +6622,23 @@
       <c r="W51" s="5">
         <v>418</v>
       </c>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-    </row>
-    <row r="52" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X51" s="5">
+        <v>445</v>
+      </c>
+      <c r="Y51" s="5">
+        <v>465</v>
+      </c>
+      <c r="Z51" s="5">
+        <v>484</v>
+      </c>
+      <c r="AA51" s="5">
+        <v>524</v>
+      </c>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+    </row>
+    <row r="52" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B52" s="4" t="s">
         <v>59</v>
       </c>
@@ -5957,8 +6671,14 @@
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
-    </row>
-    <row r="53" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA52" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+    </row>
+    <row r="53" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="10" t="s">
         <v>80</v>
       </c>
@@ -6005,12 +6725,25 @@
         <v>40</v>
       </c>
       <c r="X53" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-    </row>
-    <row r="54" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f>-148-47</f>
+        <v>-195</v>
+      </c>
+      <c r="Y53" s="5">
+        <f>-113+145</f>
+        <v>32</v>
+      </c>
+      <c r="Z53" s="5">
+        <f>-6033+262</f>
+        <v>-5771</v>
+      </c>
+      <c r="AA53" s="5">
+        <v>-11</v>
+      </c>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+    </row>
+    <row r="54" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B54" s="4" t="s">
         <v>60</v>
       </c>
@@ -6043,8 +6776,14 @@
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
-    </row>
-    <row r="55" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+    </row>
+    <row r="55" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B55" s="19" t="s">
         <v>69</v>
       </c>
@@ -6075,8 +6814,14 @@
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
-    </row>
-    <row r="56" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+    </row>
+    <row r="56" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
         <v>61</v>
       </c>
@@ -6123,11 +6868,23 @@
       <c r="W56" s="5">
         <v>-1530</v>
       </c>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
-    </row>
-    <row r="57" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X56" s="5">
+        <v>-953</v>
+      </c>
+      <c r="Y56" s="5">
+        <v>-302</v>
+      </c>
+      <c r="Z56" s="5">
+        <v>482</v>
+      </c>
+      <c r="AA56" s="5">
+        <v>-2661</v>
+      </c>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+    </row>
+    <row r="57" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B57" s="4" t="s">
         <v>62</v>
       </c>
@@ -6143,23 +6900,23 @@
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5">
-        <f t="shared" ref="N57:R57" si="176">SUM(N49:N56)</f>
+        <f t="shared" ref="N57:R57" si="177">SUM(N49:N56)</f>
         <v>3019</v>
       </c>
       <c r="O57" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>1641</v>
       </c>
       <c r="P57" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>2124</v>
       </c>
       <c r="Q57" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>3147</v>
       </c>
       <c r="R57" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>4585</v>
       </c>
       <c r="S57" s="5">
@@ -6182,11 +6939,27 @@
         <f>SUM(W49:W56)</f>
         <v>2513</v>
       </c>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
-    </row>
-    <row r="58" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X57" s="5">
+        <f>SUM(X49:X56)</f>
+        <v>3065</v>
+      </c>
+      <c r="Y57" s="5">
+        <f>SUM(Y49:Y56)</f>
+        <v>3308</v>
+      </c>
+      <c r="Z57" s="5">
+        <f>SUM(Z49:Z56)</f>
+        <v>4370</v>
+      </c>
+      <c r="AA57" s="5">
+        <f>SUM(AA49:AA56)</f>
+        <v>242</v>
+      </c>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+    </row>
+    <row r="58" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -6211,8 +6984,12 @@
       <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
-    </row>
-    <row r="59" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+    </row>
+    <row r="59" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B59" s="10" t="s">
         <v>81</v>
       </c>
@@ -6259,11 +7036,23 @@
       <c r="W59" s="5">
         <v>2072</v>
       </c>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-    </row>
-    <row r="60" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X59" s="5">
+        <v>2060</v>
+      </c>
+      <c r="Y59" s="5">
+        <v>2460</v>
+      </c>
+      <c r="Z59" s="5">
+        <v>2306</v>
+      </c>
+      <c r="AA59" s="5">
+        <v>2773</v>
+      </c>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
+    </row>
+    <row r="60" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B60" s="10" t="s">
         <v>82</v>
       </c>
@@ -6283,23 +7072,23 @@
         <v>1868</v>
       </c>
       <c r="O60" s="5">
-        <f t="shared" ref="O60:R60" si="177">O57-O59</f>
+        <f t="shared" ref="O60:R60" si="178">O57-O59</f>
         <v>293</v>
       </c>
       <c r="P60" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>619</v>
       </c>
       <c r="Q60" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>1328</v>
       </c>
       <c r="R60" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>2775</v>
       </c>
       <c r="S60" s="5">
-        <f t="shared" ref="S60" si="178">S57-S59</f>
+        <f t="shared" ref="S60" si="179">S57-S59</f>
         <v>2228</v>
       </c>
       <c r="T60" s="5">
@@ -6318,11 +7107,27 @@
         <f>W57-W59</f>
         <v>441</v>
       </c>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-    </row>
-    <row r="61" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X60" s="5">
+        <f>X57-X59</f>
+        <v>1005</v>
+      </c>
+      <c r="Y60" s="5">
+        <f>Y57-Y59</f>
+        <v>848</v>
+      </c>
+      <c r="Z60" s="5">
+        <f>Z57-Z59</f>
+        <v>2064</v>
+      </c>
+      <c r="AA60" s="5">
+        <f>AA57-AA59</f>
+        <v>-2531</v>
+      </c>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+    </row>
+    <row r="61" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B61" s="10" t="s">
         <v>83</v>
       </c>
@@ -6341,38 +7146,54 @@
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5">
-        <f t="shared" ref="Q61:W61" si="179">SUM(N60:Q60)</f>
+        <f t="shared" ref="Q61:AA61" si="180">SUM(N60:Q60)</f>
         <v>4108</v>
       </c>
       <c r="R61" s="5">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>5015</v>
       </c>
       <c r="S61" s="5">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>6950</v>
       </c>
       <c r="T61" s="5">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>6952</v>
       </c>
       <c r="U61" s="5">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>8921</v>
       </c>
       <c r="V61" s="5">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>7566</v>
       </c>
       <c r="W61" s="5">
-        <f t="shared" si="179"/>
+        <f>SUM(T60:W60)</f>
         <v>5779</v>
       </c>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-    </row>
-    <row r="62" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X61" s="5">
+        <f>SUM(U60:X60)</f>
+        <v>6163</v>
+      </c>
+      <c r="Y61" s="5">
+        <f>SUM(V60:Y60)</f>
+        <v>3714</v>
+      </c>
+      <c r="Z61" s="5">
+        <f>SUM(W60:Z60)</f>
+        <v>4358</v>
+      </c>
+      <c r="AA61" s="5">
+        <f>SUM(X60:AA60)</f>
+        <v>1386</v>
+      </c>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="5"/>
+    </row>
+    <row r="62" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -6397,8 +7218,12 @@
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
-    </row>
-    <row r="63" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="5"/>
+    </row>
+    <row r="63" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B63" s="31" t="s">
         <v>115</v>
       </c>
@@ -6427,51 +7252,58 @@
         <v>19726</v>
       </c>
       <c r="X63" s="5">
-        <f t="shared" ref="X63:Z63" si="180">X64-X81</f>
-        <v>23241.940000000002</v>
+        <f t="shared" ref="X63:AA63" si="181">X64-X81</f>
+        <v>25105</v>
       </c>
       <c r="Y63" s="5">
-        <f t="shared" si="180"/>
-        <v>28104.460000000003</v>
+        <f t="shared" si="181"/>
+        <v>26958</v>
       </c>
       <c r="Z63" s="5">
-        <f t="shared" si="180"/>
-        <v>33034.615000000005</v>
-      </c>
-      <c r="AL63" s="4">
+        <f t="shared" si="181"/>
+        <v>29134</v>
+      </c>
+      <c r="AA63" s="5">
+        <f t="shared" si="181"/>
+        <v>21503</v>
+      </c>
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
+      <c r="AP63" s="4">
         <f>Z63</f>
-        <v>33034.615000000005</v>
-      </c>
-      <c r="AM63" s="4">
-        <f>AL63+AM36</f>
-        <v>50607.914857986601</v>
-      </c>
-      <c r="AN63" s="4">
-        <f t="shared" ref="AN63:AS63" si="181">AM63+AN36</f>
-        <v>81498.153955044894</v>
-      </c>
-      <c r="AO63" s="4">
-        <f t="shared" si="181"/>
-        <v>127602.15208270708</v>
-      </c>
-      <c r="AP63" s="4">
-        <f t="shared" si="181"/>
-        <v>191410.67808016553</v>
+        <v>29134</v>
       </c>
       <c r="AQ63" s="4">
-        <f t="shared" si="181"/>
-        <v>278009.78617729852</v>
+        <f>AP63+AQ36</f>
+        <v>40810.408632925319</v>
       </c>
       <c r="AR63" s="4">
-        <f t="shared" si="181"/>
-        <v>388919.00170094747</v>
+        <f t="shared" ref="AR63:AW63" si="182">AQ63+AR36</f>
+        <v>60222.603323051248</v>
       </c>
       <c r="AS63" s="4">
-        <f t="shared" si="181"/>
-        <v>523408.26267566043</v>
-      </c>
-    </row>
-    <row r="64" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="182"/>
+        <v>87486.026613446447</v>
+      </c>
+      <c r="AT63" s="4">
+        <f t="shared" si="182"/>
+        <v>123224.94803746909</v>
+      </c>
+      <c r="AU63" s="4">
+        <f t="shared" si="182"/>
+        <v>169525.80972710089</v>
+      </c>
+      <c r="AV63" s="4">
+        <f t="shared" si="182"/>
+        <v>226323.85134133397</v>
+      </c>
+      <c r="AW63" s="4">
+        <f t="shared" si="182"/>
+        <v>292497.96008608077</v>
+      </c>
+    </row>
+    <row r="64" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B64" s="10" t="s">
         <v>3</v>
       </c>
@@ -6510,18 +7342,24 @@
       </c>
       <c r="X64" s="5">
         <f>W64+X36</f>
-        <v>25917.940000000002</v>
+        <v>25105</v>
       </c>
       <c r="Y64" s="5">
-        <f t="shared" ref="Y64:Z64" si="182">X64+Y36</f>
-        <v>30780.460000000003</v>
+        <f t="shared" ref="Y64:Z64" si="183">X64+Y36</f>
+        <v>26958</v>
       </c>
       <c r="Z64" s="5">
-        <f t="shared" si="182"/>
-        <v>35710.615000000005</v>
-      </c>
-    </row>
-    <row r="65" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="183"/>
+        <v>29134</v>
+      </c>
+      <c r="AA64" s="5">
+        <v>26863</v>
+      </c>
+      <c r="AB64" s="5"/>
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5"/>
+    </row>
+    <row r="65" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B65" s="10" t="s">
         <v>63</v>
       </c>
@@ -6557,8 +7395,14 @@
       <c r="X65" s="5"/>
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
-    </row>
-    <row r="66" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA65" s="5">
+        <v>3887</v>
+      </c>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="5"/>
+    </row>
+    <row r="66" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B66" s="10" t="s">
         <v>59</v>
       </c>
@@ -6594,8 +7438,14 @@
       <c r="X66" s="5"/>
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
-    </row>
-    <row r="67" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA66" s="5">
+        <v>16033</v>
+      </c>
+      <c r="AB66" s="5"/>
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
+    </row>
+    <row r="67" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B67" s="10" t="s">
         <v>64</v>
       </c>
@@ -6631,8 +7481,14 @@
       <c r="X67" s="5"/>
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
-    </row>
-    <row r="68" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA67" s="5">
+        <v>3752</v>
+      </c>
+      <c r="AB67" s="5"/>
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5"/>
+    </row>
+    <row r="68" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="10" t="s">
         <v>65</v>
       </c>
@@ -6668,8 +7524,14 @@
       <c r="X68" s="5"/>
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
-    </row>
-    <row r="69" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA68" s="5">
+        <v>5736</v>
+      </c>
+      <c r="AB68" s="5"/>
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="5"/>
+    </row>
+    <row r="69" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B69" s="10" t="s">
         <v>66</v>
       </c>
@@ -6705,8 +7567,14 @@
       <c r="X69" s="5"/>
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
-    </row>
-    <row r="70" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA69" s="5">
+        <v>5162</v>
+      </c>
+      <c r="AB69" s="5"/>
+      <c r="AC69" s="5"/>
+      <c r="AD69" s="5"/>
+    </row>
+    <row r="70" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B70" s="10" t="s">
         <v>67</v>
       </c>
@@ -6742,8 +7610,14 @@
       <c r="X70" s="5"/>
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
-    </row>
-    <row r="71" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA70" s="5">
+        <v>31436</v>
+      </c>
+      <c r="AB70" s="5"/>
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="5"/>
+    </row>
+    <row r="71" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B71" s="10" t="s">
         <v>68</v>
       </c>
@@ -6779,8 +7653,14 @@
       <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
-    </row>
-    <row r="72" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA71" s="5">
+        <v>4367</v>
+      </c>
+      <c r="AB71" s="5"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+    </row>
+    <row r="72" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B72" s="10" t="s">
         <v>69</v>
       </c>
@@ -6816,8 +7696,14 @@
       <c r="X72" s="5"/>
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
-    </row>
-    <row r="73" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA72" s="5">
+        <v>184</v>
+      </c>
+      <c r="AB72" s="5"/>
+      <c r="AC72" s="5"/>
+      <c r="AD72" s="5"/>
+    </row>
+    <row r="73" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B73" s="10" t="s">
         <v>70</v>
       </c>
@@ -6855,8 +7741,14 @@
       <c r="X73" s="5"/>
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
-    </row>
-    <row r="74" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA73" s="5">
+        <v>421</v>
+      </c>
+      <c r="AB73" s="5"/>
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="5"/>
+    </row>
+    <row r="74" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B74" s="10" t="s">
         <v>71</v>
       </c>
@@ -6892,8 +7784,15 @@
       <c r="X74" s="5"/>
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
-    </row>
-    <row r="75" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA74" s="5">
+        <f>4616+6769</f>
+        <v>11385</v>
+      </c>
+      <c r="AB74" s="5"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
+    </row>
+    <row r="75" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B75" s="10" t="s">
         <v>72</v>
       </c>
@@ -6918,31 +7817,47 @@
         <v>62131</v>
       </c>
       <c r="T75" s="5">
-        <f t="shared" ref="T75:W75" si="183">SUM(T64:T74)</f>
+        <f t="shared" ref="T75:AA75" si="184">SUM(T64:T74)</f>
         <v>68513</v>
       </c>
       <c r="U75" s="5">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>74426</v>
       </c>
       <c r="V75" s="5">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>0</v>
       </c>
       <c r="W75" s="5">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>86833</v>
       </c>
-      <c r="X75" s="5"/>
-      <c r="Y75" s="5"/>
-      <c r="Z75" s="5"/>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="X75" s="5">
+        <f t="shared" si="184"/>
+        <v>25105</v>
+      </c>
+      <c r="Y75" s="5">
+        <f t="shared" si="184"/>
+        <v>26958</v>
+      </c>
+      <c r="Z75" s="5">
+        <f t="shared" si="184"/>
+        <v>29134</v>
+      </c>
+      <c r="AA75" s="5">
+        <f t="shared" si="184"/>
+        <v>109226</v>
+      </c>
+      <c r="AB75" s="5"/>
+      <c r="AC75" s="5"/>
+      <c r="AD75" s="5"/>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.15">
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
       <c r="U76" s="5"/>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B77" s="9" t="s">
         <v>73</v>
       </c>
@@ -6958,8 +7873,11 @@
       <c r="W77" s="5">
         <v>15904</v>
       </c>
-    </row>
-    <row r="78" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="5">
+        <v>14725</v>
+      </c>
+    </row>
+    <row r="78" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B78" s="9" t="s">
         <v>74</v>
       </c>
@@ -6975,8 +7893,11 @@
       <c r="W78" s="5">
         <v>7321</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA78" s="5">
+        <v>9243</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B79" s="9" t="s">
         <v>75</v>
       </c>
@@ -6992,8 +7913,11 @@
       <c r="W79" s="5">
         <v>1750</v>
       </c>
-    </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA79" s="5">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="80" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B80" s="9" t="s">
         <v>76</v>
       </c>
@@ -7009,8 +7933,11 @@
       <c r="W80" s="5">
         <v>1057</v>
       </c>
-    </row>
-    <row r="81" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B81" s="9" t="s">
         <v>4</v>
       </c>
@@ -7030,20 +7957,18 @@
         <f>1404+1272</f>
         <v>2676</v>
       </c>
-      <c r="X81" s="5">
-        <f>W81</f>
-        <v>2676</v>
-      </c>
-      <c r="Y81" s="5">
-        <f>X81</f>
-        <v>2676</v>
-      </c>
-      <c r="Z81" s="5">
-        <f>Y81</f>
-        <v>2676</v>
-      </c>
-    </row>
-    <row r="82" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="X81" s="5"/>
+      <c r="Y81" s="5"/>
+      <c r="Z81" s="5"/>
+      <c r="AA81" s="5">
+        <f>2461+2899</f>
+        <v>5360</v>
+      </c>
+      <c r="AB81" s="5"/>
+      <c r="AC81" s="5"/>
+      <c r="AD81" s="5"/>
+    </row>
+    <row r="82" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B82" s="9" t="s">
         <v>75</v>
       </c>
@@ -7059,8 +7984,11 @@
       <c r="W82" s="5">
         <v>2911</v>
       </c>
-    </row>
-    <row r="83" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="5">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="83" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B83" s="9" t="s">
         <v>77</v>
       </c>
@@ -7076,8 +8004,11 @@
       <c r="W83" s="5">
         <v>5979</v>
       </c>
-    </row>
-    <row r="84" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="5">
+        <v>8480</v>
+      </c>
+    </row>
+    <row r="84" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B84" s="9" t="s">
         <v>78</v>
       </c>
@@ -7097,8 +8028,12 @@
         <f>48054+407+774</f>
         <v>49235</v>
       </c>
-    </row>
-    <row r="85" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="5">
+        <f>73+64378+729</f>
+        <v>65180</v>
+      </c>
+    </row>
+    <row r="85" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B85" s="9" t="s">
         <v>79</v>
       </c>
@@ -7107,32 +8042,36 @@
         <v>62131</v>
       </c>
       <c r="T85" s="5">
-        <f t="shared" ref="T85:W85" si="184">SUM(T77:T84)</f>
+        <f t="shared" ref="T85:W85" si="185">SUM(T77:T84)</f>
         <v>68513</v>
       </c>
       <c r="U85" s="5">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>74426</v>
       </c>
       <c r="V85" s="5">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>0</v>
       </c>
       <c r="W85" s="5">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>86833</v>
       </c>
-    </row>
-    <row r="86" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="5">
+        <f t="shared" ref="AA85" si="186">SUM(AA77:AA84)</f>
+        <v>109226</v>
+      </c>
+    </row>
+    <row r="86" spans="2:30" x14ac:dyDescent="0.15">
       <c r="S86" s="5"/>
     </row>
-    <row r="87" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:30" x14ac:dyDescent="0.15">
       <c r="S87" s="5"/>
     </row>
-    <row r="88" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:30" x14ac:dyDescent="0.15">
       <c r="S88" s="5"/>
     </row>
-    <row r="89" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:30" x14ac:dyDescent="0.15">
       <c r="S89" s="5"/>
     </row>
   </sheetData>
@@ -7140,6 +8079,7 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{997EC1A7-4D47-4E8D-919D-603FB3C9B2D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -7153,20 +8093,20 @@
       <selection activeCell="D12" sqref="D4:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="30"/>
-    <col min="3" max="3" width="11.7109375" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="30"/>
+    <col min="2" max="2" width="9.1640625" style="30"/>
+    <col min="3" max="3" width="11.6640625" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" s="30" t="s">
         <v>98</v>
       </c>
@@ -7177,7 +8117,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C5" s="30" t="s">
         <v>100</v>
       </c>
@@ -7185,7 +8125,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" s="30" t="s">
         <v>101</v>
       </c>
@@ -7196,7 +8136,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" s="30" t="s">
         <v>102</v>
       </c>
@@ -7207,7 +8147,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" s="30" t="s">
         <v>104</v>
       </c>
@@ -7218,7 +8158,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C9" s="30" t="s">
         <v>105</v>
       </c>
@@ -7226,7 +8166,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="30" t="s">
         <v>106</v>
       </c>
@@ -7237,7 +8177,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C11" s="30" t="s">
         <v>108</v>
       </c>
@@ -7245,7 +8185,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C12" s="30" t="s">
         <v>109</v>
       </c>

--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C9540D-AE4D-3942-B342-F73163E1811C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CADEE2D-BC48-4BEA-B3E7-D054846AD55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16500" yWindow="620" windowWidth="16480" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33945" yWindow="510" windowWidth="33585" windowHeight="19890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <author>tc={7D7449AA-B6F8-4EBC-88EB-E7879CDB3FAB}</author>
   </authors>
   <commentList>
-    <comment ref="AP10" authorId="0" shapeId="0" xr:uid="{7D7449AA-B6F8-4EBC-88EB-E7879CDB3FAB}">
+    <comment ref="AT10" authorId="0" shapeId="0" xr:uid="{7D7449AA-B6F8-4EBC-88EB-E7879CDB3FAB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="127">
   <si>
     <t>Price</t>
   </si>
@@ -418,6 +418,21 @@
   </si>
   <si>
     <t>Q424</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Cruise, Waymo</t>
   </si>
 </sst>
 </file>
@@ -427,13 +442,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -519,68 +540,69 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -605,14 +627,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>57117</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>22023</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>72572</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>37478</xdr:colOff>
       <xdr:row>102</xdr:row>
       <xdr:rowOff>69705</xdr:rowOff>
     </xdr:to>
@@ -631,8 +653,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19659291" y="0"/>
-          <a:ext cx="15455" cy="16966227"/>
+          <a:off x="17793668" y="0"/>
+          <a:ext cx="15455" cy="16432652"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -657,13 +679,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>6283</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>6283</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>52551</xdr:rowOff>
@@ -1011,7 +1033,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AP10" dT="2023-04-23T20:32:30.18" personId="{DB2BD1D3-B51E-4CED-BC74-064ACA9A1F13}" id="{7D7449AA-B6F8-4EBC-88EB-E7879CDB3FAB}">
+  <threadedComment ref="AT10" dT="2023-04-23T20:32:30.18" personId="{DB2BD1D3-B51E-4CED-BC74-064ACA9A1F13}" id="{7D7449AA-B6F8-4EBC-88EB-E7879CDB3FAB}">
     <text>Q123: 1.8m/year</text>
   </threadedComment>
 </ThreadedComments>
@@ -1021,77 +1043,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="9"/>
+    <col min="1" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="33" t="s">
+        <v>109</v>
+      </c>
       <c r="J2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="11">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C3" s="33" t="s">
+        <v>126</v>
+      </c>
       <c r="J3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="10">
-        <v>3157.7524490000001</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+        <v>3194.6404149999998</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="10">
         <f>K2*K3</f>
-        <v>555764.43102400005</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+        <v>606981.67885000003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="10">
-        <f>19532+1575</f>
-        <v>21107</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+        <f>14635+16085</f>
+        <v>30720</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="19">
-        <f>2096+1457</f>
-        <v>3553</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K6" s="18">
+        <f>2264+5481</f>
+        <v>7745</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="10">
         <f>K4-K5+K6</f>
-        <v>538210.43102400005</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+        <v>584006.67885000003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
@@ -1106,42 +1134,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E310252-7C49-48D8-9A64-7380C8DB275B}">
-  <dimension ref="A1:DA89"/>
+  <dimension ref="A1:DE89"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="S45" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="S37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA61" sqref="AA61"/>
+      <selection pane="bottomRight" activeCell="AD42" sqref="AD42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="1" customWidth="1"/>
-    <col min="3" max="18" width="9.1640625" style="2"/>
-    <col min="19" max="19" width="8.6640625" style="2" customWidth="1"/>
-    <col min="20" max="27" width="9.1640625" style="2"/>
-    <col min="28" max="30" width="8.5" style="2" customWidth="1"/>
-    <col min="31" max="39" width="9.1640625" style="1"/>
-    <col min="40" max="42" width="9.6640625" style="1" customWidth="1"/>
-    <col min="43" max="43" width="10.83203125" style="1" customWidth="1"/>
-    <col min="44" max="44" width="10.33203125" style="1" customWidth="1"/>
-    <col min="45" max="45" width="10.83203125" style="1" customWidth="1"/>
-    <col min="46" max="46" width="11.1640625" style="1" customWidth="1"/>
-    <col min="47" max="50" width="10.83203125" style="1" customWidth="1"/>
-    <col min="51" max="51" width="9.1640625" style="1"/>
-    <col min="52" max="52" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
+    <col min="3" max="18" width="9.140625" style="2"/>
+    <col min="19" max="19" width="8.7109375" style="2" customWidth="1"/>
+    <col min="20" max="27" width="9.140625" style="2"/>
+    <col min="28" max="34" width="8.42578125" style="2" customWidth="1"/>
+    <col min="35" max="43" width="9.140625" style="1"/>
+    <col min="44" max="46" width="9.7109375" style="1" customWidth="1"/>
+    <col min="47" max="47" width="10.85546875" style="1" customWidth="1"/>
+    <col min="48" max="48" width="10.28515625" style="1" customWidth="1"/>
+    <col min="49" max="49" width="10.85546875" style="1" customWidth="1"/>
+    <col min="50" max="50" width="11.140625" style="1" customWidth="1"/>
+    <col min="51" max="54" width="10.85546875" style="1" customWidth="1"/>
+    <col min="55" max="55" width="9.140625" style="1"/>
+    <col min="56" max="56" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="24"/>
-    </row>
-    <row r="2" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W1" s="23"/>
+    </row>
+    <row r="2" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>84</v>
       </c>
@@ -1175,8 +1203,12 @@
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
-    </row>
-    <row r="3" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+    </row>
+    <row r="3" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1248,8 +1280,7 @@
         <v>17027</v>
       </c>
       <c r="AB3" s="5">
-        <f>+X3*1.3</f>
-        <v>24992.5</v>
+        <v>21551</v>
       </c>
       <c r="AC3" s="5">
         <f>+Y3*1.3</f>
@@ -1259,32 +1290,36 @@
         <f>+Z3*1.3</f>
         <v>29859.7</v>
       </c>
-      <c r="AL3" s="4">
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AP3" s="4">
         <f>SUM(G3:J3)</f>
         <v>66771</v>
       </c>
-      <c r="AM3" s="4">
+      <c r="AQ3" s="4">
         <f>SUM(K3:N3)</f>
         <v>56950</v>
       </c>
-      <c r="AN3" s="4">
+      <c r="AR3" s="4">
         <f>SUM(O3:R3)</f>
         <v>24935</v>
       </c>
-      <c r="AO3" s="4">
+      <c r="AS3" s="4">
         <f>SUM(S3:V3)</f>
         <v>66705</v>
       </c>
-      <c r="AP3" s="4">
+      <c r="AT3" s="4">
         <f>SUM(W3:Z3)</f>
         <v>68874</v>
       </c>
-      <c r="AQ3" s="4">
+      <c r="AU3" s="4">
         <f>SUM(AA3:AD3)</f>
-        <v>92659.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>89218.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1356,43 +1391,46 @@
         <v>369783</v>
       </c>
       <c r="AB4" s="5">
-        <f>+X4*1.1</f>
-        <v>491606.50000000006</v>
+        <v>422405</v>
       </c>
       <c r="AC4" s="5">
-        <f>+Y4*1.1</f>
-        <v>460981.4</v>
+        <f>+AB4*1.05</f>
+        <v>443525.25</v>
       </c>
       <c r="AD4" s="5">
         <f>+Z4*1.1</f>
         <v>507691.80000000005</v>
       </c>
-      <c r="AL4" s="4">
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AP4" s="4">
         <f>SUM(G4:J4)</f>
         <v>300885</v>
       </c>
-      <c r="AM4" s="4">
+      <c r="AQ4" s="4">
         <f>SUM(K4:N4)</f>
         <v>442066</v>
       </c>
-      <c r="AN4" s="4">
+      <c r="AR4" s="4">
         <f>SUM(O4:R4)</f>
         <v>911015</v>
       </c>
-      <c r="AO4" s="4">
+      <c r="AS4" s="4">
         <f>SUM(S4:V4)</f>
         <v>1247146</v>
       </c>
-      <c r="AP4" s="4">
+      <c r="AT4" s="4">
         <f>SUM(W4:Z4)</f>
         <v>1739707</v>
       </c>
-      <c r="AQ4" s="4">
+      <c r="AU4" s="4">
         <f>SUM(AA4:AD4)</f>
-        <v>1830062.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.15">
+        <v>1743405.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1449,103 +1487,107 @@
         <v>308600</v>
       </c>
       <c r="S5" s="7">
-        <f>S4+S3</f>
+        <f t="shared" ref="S5:AD5" si="1">S4+S3</f>
         <v>310048</v>
       </c>
       <c r="T5" s="7">
-        <f>T4+T3</f>
+        <f t="shared" si="1"/>
         <v>254695</v>
       </c>
       <c r="U5" s="7">
-        <f>U4+U3</f>
+        <f t="shared" si="1"/>
         <v>343830</v>
       </c>
       <c r="V5" s="7">
-        <f>V4+V3</f>
+        <f t="shared" si="1"/>
         <v>405278</v>
       </c>
       <c r="W5" s="7">
-        <f>W4+W3</f>
+        <f t="shared" si="1"/>
         <v>422875</v>
       </c>
       <c r="X5" s="7">
-        <f>X4+X3</f>
+        <f t="shared" si="1"/>
         <v>466140</v>
       </c>
       <c r="Y5" s="7">
-        <f>Y4+Y3</f>
+        <f t="shared" si="1"/>
         <v>435059</v>
       </c>
       <c r="Z5" s="7">
-        <f>Z4+Z3</f>
+        <f t="shared" si="1"/>
         <v>484507</v>
       </c>
       <c r="AA5" s="7">
-        <f>AA4+AA3</f>
+        <f t="shared" si="1"/>
         <v>386810</v>
       </c>
       <c r="AB5" s="7">
-        <f>AB4+AB3</f>
-        <v>516599.00000000006</v>
+        <f t="shared" si="1"/>
+        <v>443956</v>
       </c>
       <c r="AC5" s="7">
-        <f>AC4+AC3</f>
-        <v>481761.9</v>
+        <f>+AB5*1.05</f>
+        <v>466153.80000000005</v>
       </c>
       <c r="AD5" s="7">
-        <f>AD4+AD3</f>
+        <f t="shared" si="1"/>
         <v>537551.5</v>
       </c>
-      <c r="AL5" s="6">
-        <f>+AL3+AL4</f>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AP5" s="6">
+        <f t="shared" ref="AP5:AU5" si="2">+AP3+AP4</f>
         <v>367656</v>
       </c>
-      <c r="AM5" s="6">
-        <f>+AM3+AM4</f>
+      <c r="AQ5" s="6">
+        <f t="shared" si="2"/>
         <v>499016</v>
       </c>
-      <c r="AN5" s="6">
-        <f>+AN3+AN4</f>
+      <c r="AR5" s="6">
+        <f t="shared" si="2"/>
         <v>935950</v>
       </c>
-      <c r="AO5" s="6">
-        <f>+AO3+AO4</f>
+      <c r="AS5" s="6">
+        <f t="shared" si="2"/>
         <v>1313851</v>
       </c>
-      <c r="AP5" s="6">
-        <f>+AP3+AP4</f>
+      <c r="AT5" s="6">
+        <f t="shared" si="2"/>
         <v>1808581</v>
       </c>
-      <c r="AQ5" s="6">
-        <f>+AQ3+AQ4</f>
-        <v>1922722.4</v>
-      </c>
-      <c r="AR5" s="6">
-        <f t="shared" ref="AR5:AU5" si="1">AR10</f>
+      <c r="AU5" s="6">
+        <f t="shared" si="2"/>
+        <v>1832623.25</v>
+      </c>
+      <c r="AV5" s="6">
+        <f t="shared" ref="AV5:AY5" si="3">AV10</f>
         <v>3124767.4965000004</v>
       </c>
-      <c r="AS5" s="6">
-        <f t="shared" si="1"/>
+      <c r="AW5" s="6">
+        <f t="shared" si="3"/>
         <v>3905959.3706250004</v>
       </c>
-      <c r="AT5" s="6">
-        <f t="shared" si="1"/>
+      <c r="AX5" s="6">
+        <f t="shared" si="3"/>
         <v>4687151.2447500005</v>
       </c>
-      <c r="AU5" s="6">
-        <f t="shared" si="1"/>
+      <c r="AY5" s="6">
+        <f t="shared" si="3"/>
         <v>5624581.4937000005</v>
       </c>
-      <c r="AV5" s="6">
-        <f t="shared" ref="AV5:AW5" si="2">AV10</f>
+      <c r="AZ5" s="6">
+        <f t="shared" ref="AZ5:BA5" si="4">AZ10</f>
         <v>6468268.7177550001</v>
       </c>
-      <c r="AW5" s="6">
-        <f t="shared" si="2"/>
+      <c r="BA5" s="6">
+        <f t="shared" si="4"/>
         <v>7115095.5895305006</v>
       </c>
     </row>
-    <row r="6" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1554,79 +1596,79 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5">
-        <f t="shared" ref="G6" si="3">G14*1000000/G5</f>
+        <f t="shared" ref="G6" si="5">G14*1000000/G5</f>
         <v>55681.619828940478</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" ref="H6" si="4">H14*1000000/H5</f>
+        <f t="shared" ref="H6" si="6">H14*1000000/H5</f>
         <v>54196.904232560089</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" ref="I6" si="5">I14*1000000/I5</f>
+        <f t="shared" ref="I6" si="7">I14*1000000/I5</f>
         <v>52805.95970613051</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" ref="J6" si="6">J14*1000000/J5</f>
+        <f t="shared" ref="J6" si="8">J14*1000000/J5</f>
         <v>54801.730674873994</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" ref="K6" si="7">K14*1000000/K5</f>
+        <f t="shared" ref="K6" si="9">K14*1000000/K5</f>
         <v>55290.634604953899</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" ref="L6" si="8">L14*1000000/L5</f>
+        <f t="shared" ref="L6" si="10">L14*1000000/L5</f>
         <v>54175.399889685606</v>
       </c>
       <c r="M6" s="5">
-        <f t="shared" ref="M6" si="9">M14*1000000/M5</f>
+        <f t="shared" ref="M6" si="11">M14*1000000/M5</f>
         <v>52735.10409188801</v>
       </c>
       <c r="N6" s="5">
-        <f t="shared" ref="N6" si="10">N14*1000000/N5</f>
+        <f t="shared" ref="N6" si="12">N14*1000000/N5</f>
         <v>47809.713684443705</v>
       </c>
       <c r="O6" s="5">
-        <f t="shared" ref="O6" si="11">O14*1000000/O5</f>
+        <f t="shared" ref="O6" si="13">O14*1000000/O5</f>
         <v>44301.948051948049</v>
       </c>
       <c r="P6" s="5">
-        <f t="shared" ref="P6" si="12">P14*1000000/P5</f>
+        <f t="shared" ref="P6" si="14">P14*1000000/P5</f>
         <v>47304.34782608696</v>
       </c>
       <c r="Q6" s="5">
-        <f t="shared" ref="Q6" si="13">Q14*1000000/Q5</f>
+        <f t="shared" ref="Q6" si="15">Q14*1000000/Q5</f>
         <v>47215.084956485705</v>
       </c>
       <c r="R6" s="5">
-        <f t="shared" ref="R6" si="14">R14*1000000/R5</f>
+        <f t="shared" ref="R6" si="16">R14*1000000/R5</f>
         <v>48687.621516526247</v>
       </c>
       <c r="S6" s="5">
-        <f t="shared" ref="S6" si="15">S14*1000000/S5</f>
+        <f t="shared" ref="S6" si="17">S14*1000000/S5</f>
         <v>50037.413561771078</v>
       </c>
       <c r="T6" s="5">
-        <f t="shared" ref="T6:Y6" si="16">T14*1000000/T5</f>
+        <f t="shared" ref="T6:Y6" si="18">T14*1000000/T5</f>
         <v>53672.039105596894</v>
       </c>
       <c r="U6" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>51726.143733821948</v>
       </c>
       <c r="V6" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>51902.644604444358</v>
       </c>
       <c r="W6" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>44642.033697901272</v>
       </c>
       <c r="X6" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>43804.436435405674</v>
       </c>
       <c r="Y6" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>42711.448332295156</v>
       </c>
       <c r="Z6" s="5">
@@ -1634,71 +1676,75 @@
         <v>42579.364178432923</v>
       </c>
       <c r="AA6" s="5">
-        <f t="shared" ref="AA6:AD6" si="17">AA14*1000000/AA5</f>
+        <f t="shared" ref="AA6:AB6" si="19">AA14*1000000/AA5</f>
         <v>42553.191489361699</v>
       </c>
       <c r="AB6" s="5">
-        <f>+X6*1.05</f>
-        <v>45994.658257175957</v>
+        <f t="shared" si="19"/>
+        <v>41738.370469145593</v>
       </c>
       <c r="AC6" s="5">
-        <f>+Y6*1.05</f>
-        <v>44847.020748909919</v>
+        <f>+AB6*1.03</f>
+        <v>42990.521583219961</v>
       </c>
       <c r="AD6" s="5">
         <f>+Z6*1.05</f>
         <v>44708.332387354574</v>
       </c>
-      <c r="AL6" s="5">
-        <f>AL14/AL5*1000000</f>
-        <v>54268.120199316756</v>
-      </c>
-      <c r="AM6" s="5">
-        <f>AM14/AM5*1000000</f>
-        <v>51667.681998172404</v>
-      </c>
-      <c r="AN6" s="5">
-        <f>AN14/AN5*1000000</f>
-        <v>47144.612425877451</v>
-      </c>
-      <c r="AO6" s="5">
-        <f>AO14/AO5*1000000</f>
-        <v>51759.293862089384</v>
-      </c>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
       <c r="AP6" s="5">
         <f>AP14/AP5*1000000</f>
+        <v>54268.120199316756</v>
+      </c>
+      <c r="AQ6" s="5">
+        <f>AQ14/AQ5*1000000</f>
+        <v>51667.681998172404</v>
+      </c>
+      <c r="AR6" s="5">
+        <f>AR14/AR5*1000000</f>
+        <v>47144.612425877451</v>
+      </c>
+      <c r="AS6" s="5">
+        <f>AS14/AS5*1000000</f>
+        <v>51759.293862089384</v>
+      </c>
+      <c r="AT6" s="5">
+        <f>AT14/AT5*1000000</f>
         <v>43409.169951470241</v>
       </c>
-      <c r="AQ6" s="4">
-        <f>AP6*1.1</f>
+      <c r="AU6" s="4">
+        <f>AT6*1.1</f>
         <v>47750.086946617266</v>
       </c>
-      <c r="AR6" s="4">
-        <f>AQ6*1.03</f>
+      <c r="AV6" s="4">
+        <f>AU6*1.03</f>
         <v>49182.589555015787</v>
       </c>
-      <c r="AS6" s="4">
-        <f>AR6*1.03</f>
+      <c r="AW6" s="4">
+        <f>AV6*1.03</f>
         <v>50658.067241666264</v>
       </c>
-      <c r="AT6" s="4">
-        <f>AS6*1.03</f>
+      <c r="AX6" s="4">
+        <f>AW6*1.03</f>
         <v>52177.809258916255</v>
       </c>
-      <c r="AU6" s="4">
-        <f>AT6*1.03</f>
+      <c r="AY6" s="4">
+        <f>AX6*1.03</f>
         <v>53743.143536683747</v>
       </c>
-      <c r="AV6" s="4">
-        <f t="shared" ref="AV6:AW6" si="18">AU6*1.03</f>
+      <c r="AZ6" s="4">
+        <f t="shared" ref="AZ6:BA6" si="20">AY6*1.03</f>
         <v>55355.43784278426</v>
       </c>
-      <c r="AW6" s="4">
-        <f t="shared" si="18"/>
+      <c r="BA6" s="4">
+        <f t="shared" si="20"/>
         <v>57016.100978067792</v>
       </c>
     </row>
-    <row r="7" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1727,8 +1773,12 @@
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
-    </row>
-    <row r="8" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+    </row>
+    <row r="8" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
@@ -1799,27 +1849,36 @@
       <c r="AA8" s="5">
         <v>20995</v>
       </c>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
+      <c r="AB8" s="5">
+        <v>24255</v>
+      </c>
+      <c r="AC8" s="5">
+        <f>+AB8*1.06</f>
+        <v>25710.300000000003</v>
+      </c>
       <c r="AD8" s="5"/>
-      <c r="AL8" s="4">
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AP8" s="4">
         <f>SUM(G8:J8)</f>
         <v>62931</v>
       </c>
-      <c r="AM8" s="4">
+      <c r="AQ8" s="4">
         <f>SUM(K8:N8)</f>
         <v>54805</v>
       </c>
-      <c r="AN8" s="4">
+      <c r="AR8" s="4">
         <f>SUM(O8:R8)</f>
         <v>24390</v>
       </c>
-      <c r="AO8" s="4">
+      <c r="AS8" s="4">
         <f>SUM(S8:V8)</f>
         <v>71177</v>
       </c>
     </row>
-    <row r="9" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1890,27 +1949,36 @@
       <c r="AA9" s="5">
         <v>412376</v>
       </c>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
+      <c r="AB9" s="5">
+        <v>386576</v>
+      </c>
+      <c r="AC9" s="5">
+        <f>+AB9*1.06</f>
+        <v>409770.56</v>
+      </c>
       <c r="AD9" s="5"/>
-      <c r="AL9" s="4">
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AP9" s="4">
         <f>SUM(G9:J9)</f>
         <v>302301</v>
       </c>
-      <c r="AM9" s="4">
+      <c r="AQ9" s="4">
         <f>SUM(K9:N9)</f>
         <v>454932</v>
       </c>
-      <c r="AN9" s="4">
+      <c r="AR9" s="4">
         <f>SUM(O9:R9)</f>
         <v>906032</v>
       </c>
-      <c r="AO9" s="4">
+      <c r="AS9" s="4">
         <f>SUM(S9:V9)</f>
         <v>1298434</v>
       </c>
     </row>
-    <row r="10" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
@@ -1919,51 +1987,51 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7">
-        <f t="shared" ref="G10:R10" si="19">G9+G8</f>
+        <f t="shared" ref="G10:R10" si="21">G9+G8</f>
         <v>77138</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>87048</v>
       </c>
       <c r="I10" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>96155</v>
       </c>
       <c r="J10" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>104891</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>102672</v>
       </c>
       <c r="L10" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>82272</v>
       </c>
       <c r="M10" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>145036</v>
       </c>
       <c r="N10" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>179757</v>
       </c>
       <c r="O10" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>180338</v>
       </c>
       <c r="P10" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>206421</v>
       </c>
       <c r="Q10" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>237823</v>
       </c>
       <c r="R10" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>305840</v>
       </c>
       <c r="S10" s="7">
@@ -1975,95 +2043,99 @@
         <v>258580</v>
       </c>
       <c r="U10" s="7">
-        <f>+U8+U9</f>
+        <f t="shared" ref="U10:AD10" si="22">+U8+U9</f>
         <v>365923</v>
       </c>
       <c r="V10" s="7">
-        <f>+V8+V9</f>
+        <f t="shared" si="22"/>
         <v>439701</v>
       </c>
       <c r="W10" s="7">
-        <f>+W8+W9</f>
+        <f t="shared" si="22"/>
         <v>440808</v>
       </c>
       <c r="X10" s="7">
-        <f>+X8+X9</f>
+        <f t="shared" si="22"/>
         <v>479700</v>
       </c>
       <c r="Y10" s="7">
-        <f>+Y8+Y9</f>
+        <f t="shared" si="22"/>
         <v>430488</v>
       </c>
       <c r="Z10" s="7">
-        <f>+Z8+Z9</f>
+        <f t="shared" si="22"/>
         <v>494989</v>
       </c>
       <c r="AA10" s="7">
-        <f>+AA8+AA9</f>
+        <f t="shared" si="22"/>
         <v>433371</v>
       </c>
       <c r="AB10" s="7">
-        <f>+AB8+AB9</f>
+        <f t="shared" si="22"/>
+        <v>410831</v>
+      </c>
+      <c r="AC10" s="7">
+        <f t="shared" si="22"/>
+        <v>435480.86</v>
+      </c>
+      <c r="AD10" s="7">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="7">
-        <f>+AC8+AC9</f>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="7">
-        <f>+AD8+AD9</f>
-        <v>0</v>
-      </c>
-      <c r="AL10" s="6">
-        <f>+AL8+AL9</f>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AP10" s="6">
+        <f>+AP8+AP9</f>
         <v>365232</v>
       </c>
-      <c r="AM10" s="6">
-        <f>+AM8+AM9</f>
+      <c r="AQ10" s="6">
+        <f>+AQ8+AQ9</f>
         <v>509737</v>
       </c>
-      <c r="AN10" s="6">
-        <f>+AN8+AN9</f>
+      <c r="AR10" s="6">
+        <f>+AR8+AR9</f>
         <v>930422</v>
       </c>
-      <c r="AO10" s="6">
-        <f>+AO8+AO9</f>
+      <c r="AS10" s="6">
+        <f>+AS8+AS9</f>
         <v>1369611</v>
       </c>
-      <c r="AP10" s="6">
-        <f>+AO10*1.35</f>
+      <c r="AT10" s="6">
+        <f>+AS10*1.35</f>
         <v>1848974.85</v>
       </c>
-      <c r="AQ10" s="6">
-        <f>AP10*1.3</f>
+      <c r="AU10" s="6">
+        <f>AT10*1.3</f>
         <v>2403667.3050000002</v>
       </c>
-      <c r="AR10" s="6">
-        <f>AQ10*1.3</f>
+      <c r="AV10" s="6">
+        <f>AU10*1.3</f>
         <v>3124767.4965000004</v>
       </c>
-      <c r="AS10" s="6">
-        <f>AR10*1.25</f>
+      <c r="AW10" s="6">
+        <f>AV10*1.25</f>
         <v>3905959.3706250004</v>
       </c>
-      <c r="AT10" s="6">
-        <f>AS10*1.2</f>
+      <c r="AX10" s="6">
+        <f>AW10*1.2</f>
         <v>4687151.2447500005</v>
       </c>
-      <c r="AU10" s="6">
-        <f>AT10*1.2</f>
+      <c r="AY10" s="6">
+        <f>AX10*1.2</f>
         <v>5624581.4937000005</v>
       </c>
-      <c r="AV10" s="6">
-        <f>AU10*1.15</f>
+      <c r="AZ10" s="6">
+        <f>AY10*1.15</f>
         <v>6468268.7177550001</v>
       </c>
-      <c r="AW10" s="6">
-        <f>AV10*1.1</f>
+      <c r="BA10" s="6">
+        <f>AZ10*1.1</f>
         <v>7115095.5895305006</v>
       </c>
     </row>
-    <row r="11" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -2092,19 +2164,23 @@
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
-      <c r="AP11" s="28"/>
-    </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C12" s="29" t="s">
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AT11" s="27"/>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="C12" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="28" t="s">
         <v>97</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -2167,91 +2243,103 @@
       <c r="Z12" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="AA12" s="29" t="s">
+      <c r="AA12" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="AB12" s="29" t="s">
+      <c r="AB12" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="AC12" s="29" t="s">
+      <c r="AC12" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="AD12" s="29" t="s">
+      <c r="AD12" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AE12" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF12" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG12" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH12" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ12" s="1">
         <v>2013</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AK12" s="1">
         <v>2014</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AL12" s="1">
         <v>2015</v>
       </c>
-      <c r="AI12" s="1">
+      <c r="AM12" s="1">
         <v>2016</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AN12" s="1">
         <v>2017</v>
       </c>
-      <c r="AK12" s="1">
+      <c r="AO12" s="1">
         <v>2018</v>
       </c>
-      <c r="AL12" s="1">
+      <c r="AP12" s="1">
         <v>2019</v>
       </c>
-      <c r="AM12" s="1">
+      <c r="AQ12" s="1">
         <v>2020</v>
       </c>
-      <c r="AN12" s="1">
-        <f>+AM12+1</f>
+      <c r="AR12" s="1">
+        <f>+AQ12+1</f>
         <v>2021</v>
       </c>
-      <c r="AO12" s="1">
-        <f t="shared" ref="AO12:AU12" si="20">+AN12+1</f>
+      <c r="AS12" s="1">
+        <f t="shared" ref="AS12:AY12" si="23">+AR12+1</f>
         <v>2022</v>
       </c>
-      <c r="AP12" s="1">
-        <f t="shared" si="20"/>
+      <c r="AT12" s="1">
+        <f t="shared" si="23"/>
         <v>2023</v>
       </c>
-      <c r="AQ12" s="1">
-        <f t="shared" si="20"/>
+      <c r="AU12" s="1">
+        <f t="shared" si="23"/>
         <v>2024</v>
       </c>
-      <c r="AR12" s="1">
-        <f t="shared" si="20"/>
+      <c r="AV12" s="1">
+        <f t="shared" si="23"/>
         <v>2025</v>
       </c>
-      <c r="AS12" s="1">
-        <f t="shared" si="20"/>
+      <c r="AW12" s="1">
+        <f t="shared" si="23"/>
         <v>2026</v>
       </c>
-      <c r="AT12" s="1">
-        <f t="shared" si="20"/>
+      <c r="AX12" s="1">
+        <f t="shared" si="23"/>
         <v>2027</v>
       </c>
-      <c r="AU12" s="1">
-        <f t="shared" si="20"/>
+      <c r="AY12" s="1">
+        <f t="shared" si="23"/>
         <v>2028</v>
       </c>
-      <c r="AV12" s="1">
-        <f t="shared" ref="AV12" si="21">+AU12+1</f>
+      <c r="AZ12" s="1">
+        <f t="shared" ref="AZ12" si="24">+AY12+1</f>
         <v>2029</v>
       </c>
-      <c r="AW12" s="1">
-        <f t="shared" ref="AW12" si="22">+AV12+1</f>
+      <c r="BA12" s="1">
+        <f t="shared" ref="BA12" si="25">+AZ12+1</f>
         <v>2030</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="B13" s="30" t="s">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="B13" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
       <c r="W13" s="16"/>
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
@@ -2260,15 +2348,19 @@
       <c r="AB13" s="16"/>
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="4"/>
-      <c r="AT13" s="4"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
       <c r="AU13" s="4"/>
       <c r="AV13" s="4"/>
       <c r="AW13" s="4"/>
-    </row>
-    <row r="14" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+    </row>
+    <row r="14" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
@@ -2345,67 +2437,70 @@
         <v>16460</v>
       </c>
       <c r="AB14" s="5">
-        <f>+AB6*AB5/1000000</f>
-        <v>23760.794460998844</v>
+        <v>18530</v>
       </c>
       <c r="AC14" s="5">
         <f>+AC6*AC5/1000000</f>
-        <v>21605.585925334268</v>
+        <v>20040.195000000003</v>
       </c>
       <c r="AD14" s="5">
         <f>+AD6*AD5/1000000</f>
         <v>24033.031137321035</v>
       </c>
-      <c r="AL14" s="4">
-        <f t="shared" ref="AL14:AL19" si="23">SUM(G14:J14)</f>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AP14" s="4">
+        <f t="shared" ref="AP14:AP19" si="26">SUM(G14:J14)</f>
         <v>19952</v>
       </c>
-      <c r="AM14" s="4">
+      <c r="AQ14" s="4">
         <f>SUM(K14:N14)</f>
         <v>25783</v>
       </c>
-      <c r="AN14" s="4">
+      <c r="AR14" s="4">
         <f>SUM(O14:R14)</f>
         <v>44125</v>
       </c>
-      <c r="AO14" s="4">
+      <c r="AS14" s="4">
         <f>SUM(S14:V14)</f>
         <v>68004</v>
       </c>
-      <c r="AP14" s="4">
+      <c r="AT14" s="4">
         <f>SUM(W14:Z14)</f>
         <v>78509</v>
       </c>
-      <c r="AQ14" s="4">
-        <f>AQ6*AQ10/1000000</f>
+      <c r="AU14" s="4">
+        <f>AU6*AU10/1000000</f>
         <v>114775.32280449121</v>
       </c>
-      <c r="AR14" s="4">
-        <f t="shared" ref="AR14:AW14" si="24">AR6*AR10/1000000</f>
+      <c r="AV14" s="4">
+        <f t="shared" ref="AV14:BA14" si="27">AV6*AV10/1000000</f>
         <v>153684.15723521376</v>
       </c>
-      <c r="AS14" s="4">
-        <f t="shared" si="24"/>
+      <c r="AW14" s="4">
+        <f t="shared" si="27"/>
         <v>197868.35244033771</v>
       </c>
-      <c r="AT14" s="4">
-        <f t="shared" si="24"/>
+      <c r="AX14" s="4">
+        <f t="shared" si="27"/>
         <v>244565.28361625742</v>
       </c>
-      <c r="AU14" s="4">
-        <f t="shared" si="24"/>
+      <c r="AY14" s="4">
+        <f t="shared" si="27"/>
         <v>302282.69054969423</v>
       </c>
-      <c r="AV14" s="4">
-        <f t="shared" si="24"/>
+      <c r="AZ14" s="4">
+        <f t="shared" si="27"/>
         <v>358053.84695611271</v>
       </c>
-      <c r="AW14" s="4">
-        <f t="shared" si="24"/>
+      <c r="BA14" s="4">
+        <f t="shared" si="27"/>
         <v>405675.0086012758</v>
       </c>
     </row>
-    <row r="15" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
@@ -2459,7 +2554,7 @@
         <v>286</v>
       </c>
       <c r="V15" s="5">
-        <f t="shared" ref="V15:V16" si="25">+R15*1.4</f>
+        <f t="shared" ref="V15:V16" si="28">+R15*1.4</f>
         <v>439.59999999999997</v>
       </c>
       <c r="W15" s="5">
@@ -2478,39 +2573,42 @@
         <v>442</v>
       </c>
       <c r="AB15" s="5">
-        <f>+X15</f>
-        <v>282</v>
+        <v>890</v>
       </c>
       <c r="AC15" s="5">
         <f>+Y15</f>
         <v>554</v>
       </c>
       <c r="AD15" s="5">
-        <f>+Z15</f>
+        <f t="shared" ref="AC15:AD16" si="29">+Z15</f>
         <v>433</v>
       </c>
-      <c r="AL15" s="4">
-        <f t="shared" si="23"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AP15" s="4">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AM15" s="4">
+      <c r="AQ15" s="4">
         <f>SUM(K15:N15)</f>
         <v>401</v>
       </c>
-      <c r="AN15" s="4">
-        <f t="shared" ref="AN15:AN19" si="26">SUM(O15:R15)</f>
+      <c r="AR15" s="4">
+        <f t="shared" ref="AR15:AR19" si="30">SUM(O15:R15)</f>
         <v>1465</v>
       </c>
-      <c r="AO15" s="4">
-        <f t="shared" ref="AO15:AO30" si="27">SUM(S15:V15)</f>
+      <c r="AS15" s="4">
+        <f t="shared" ref="AS15:AS30" si="31">SUM(S15:V15)</f>
         <v>1748.6</v>
       </c>
-      <c r="AP15" s="4">
+      <c r="AT15" s="4">
         <f>SUM(W15:Z15)</f>
         <v>1790</v>
       </c>
     </row>
-    <row r="16" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
@@ -2564,7 +2662,7 @@
         <v>621</v>
       </c>
       <c r="V16" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>879.19999999999993</v>
       </c>
       <c r="W16" s="5">
@@ -2583,39 +2681,42 @@
         <v>476</v>
       </c>
       <c r="AB16" s="5">
-        <f>+X16</f>
-        <v>567</v>
+        <v>458</v>
       </c>
       <c r="AC16" s="5">
         <f>+Y16</f>
         <v>489</v>
       </c>
       <c r="AD16" s="5">
-        <f>+Z16</f>
+        <f t="shared" si="29"/>
         <v>500</v>
       </c>
-      <c r="AL16" s="4">
-        <f t="shared" si="23"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AP16" s="4">
+        <f t="shared" si="26"/>
         <v>869</v>
       </c>
-      <c r="AM16" s="4">
+      <c r="AQ16" s="4">
         <f>SUM(K16:N16)</f>
         <v>1052</v>
       </c>
-      <c r="AN16" s="4">
-        <f t="shared" si="26"/>
+      <c r="AR16" s="4">
+        <f t="shared" si="30"/>
         <v>1642</v>
       </c>
-      <c r="AO16" s="4">
-        <f t="shared" si="27"/>
+      <c r="AS16" s="4">
+        <f t="shared" si="31"/>
         <v>2756.2</v>
       </c>
-      <c r="AP16" s="4">
+      <c r="AT16" s="4">
         <f>SUM(W16:Z16)</f>
         <v>2120</v>
       </c>
     </row>
-    <row r="17" spans="2:49" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>35</v>
       </c>
@@ -2624,51 +2725,51 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7">
-        <f t="shared" ref="G17:K17" si="28">SUM(G14:G16)</f>
+        <f t="shared" ref="G17:K17" si="32">SUM(G14:G16)</f>
         <v>3724</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5376</v>
       </c>
       <c r="I17" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5353</v>
       </c>
       <c r="J17" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>6368</v>
       </c>
       <c r="K17" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5132</v>
       </c>
       <c r="L17" s="7">
-        <f t="shared" ref="L17" si="29">SUM(L14:L16)</f>
+        <f t="shared" ref="L17" si="33">SUM(L14:L16)</f>
         <v>5179</v>
       </c>
       <c r="M17" s="7">
-        <f t="shared" ref="M17:R17" si="30">SUM(M14:M16)</f>
+        <f t="shared" ref="M17:R17" si="34">SUM(M14:M16)</f>
         <v>7611</v>
       </c>
       <c r="N17" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>9314</v>
       </c>
       <c r="O17" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>9002</v>
       </c>
       <c r="P17" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>10206</v>
       </c>
       <c r="Q17" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>12057</v>
       </c>
       <c r="R17" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>15967</v>
       </c>
       <c r="S17" s="7">
@@ -2684,91 +2785,95 @@
         <v>18692</v>
       </c>
       <c r="V17" s="7">
-        <f t="shared" ref="V17:AD17" si="31">SUM(V14:V16)</f>
+        <f t="shared" ref="V17:AD17" si="35">SUM(V14:V16)</f>
         <v>22353.8</v>
       </c>
       <c r="W17" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>19963</v>
       </c>
       <c r="X17" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>21268</v>
       </c>
       <c r="Y17" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>19625</v>
       </c>
       <c r="Z17" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>21563</v>
       </c>
       <c r="AA17" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>17378</v>
       </c>
       <c r="AB17" s="7">
-        <f t="shared" si="31"/>
-        <v>24609.794460998844</v>
+        <f t="shared" si="35"/>
+        <v>19878</v>
       </c>
       <c r="AC17" s="7">
-        <f t="shared" si="31"/>
-        <v>22648.585925334268</v>
+        <f>SUM(AC14:AC16)</f>
+        <v>21083.195000000003</v>
       </c>
       <c r="AD17" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>24966.031137321035</v>
       </c>
-      <c r="AL17" s="6">
-        <f>SUM(AL14:AL16)</f>
-        <v>20821</v>
-      </c>
-      <c r="AM17" s="6">
-        <f>SUM(AM14:AM16)</f>
-        <v>27236</v>
-      </c>
-      <c r="AN17" s="6">
-        <f>SUM(AN14:AN16)</f>
-        <v>47232</v>
-      </c>
-      <c r="AO17" s="6">
-        <f>SUM(AO14:AO16)</f>
-        <v>72508.800000000003</v>
-      </c>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
       <c r="AP17" s="6">
         <f>SUM(AP14:AP16)</f>
+        <v>20821</v>
+      </c>
+      <c r="AQ17" s="6">
+        <f>SUM(AQ14:AQ16)</f>
+        <v>27236</v>
+      </c>
+      <c r="AR17" s="6">
+        <f>SUM(AR14:AR16)</f>
+        <v>47232</v>
+      </c>
+      <c r="AS17" s="6">
+        <f>SUM(AS14:AS16)</f>
+        <v>72508.800000000003</v>
+      </c>
+      <c r="AT17" s="6">
+        <f>SUM(AT14:AT16)</f>
         <v>82419</v>
-      </c>
-      <c r="AQ17" s="6">
-        <f>AQ14+AQ15+AQ16</f>
-        <v>114775.32280449121</v>
-      </c>
-      <c r="AR17" s="6">
-        <f>AR14+AR15+AR16</f>
-        <v>153684.15723521376</v>
-      </c>
-      <c r="AS17" s="6">
-        <f>AS14+AS15+AS16</f>
-        <v>197868.35244033771</v>
-      </c>
-      <c r="AT17" s="6">
-        <f>AT14+AT15+AT16</f>
-        <v>244565.28361625742</v>
       </c>
       <c r="AU17" s="6">
         <f>AU14+AU15+AU16</f>
+        <v>114775.32280449121</v>
+      </c>
+      <c r="AV17" s="6">
+        <f>AV14+AV15+AV16</f>
+        <v>153684.15723521376</v>
+      </c>
+      <c r="AW17" s="6">
+        <f>AW14+AW15+AW16</f>
+        <v>197868.35244033771</v>
+      </c>
+      <c r="AX17" s="6">
+        <f>AX14+AX15+AX16</f>
+        <v>244565.28361625742</v>
+      </c>
+      <c r="AY17" s="6">
+        <f>AY14+AY15+AY16</f>
         <v>302282.69054969423</v>
       </c>
-      <c r="AV17" s="6">
-        <f t="shared" ref="AV17:AW17" si="32">AV14+AV15+AV16</f>
+      <c r="AZ17" s="6">
+        <f t="shared" ref="AZ17:BA17" si="36">AZ14+AZ15+AZ16</f>
         <v>358053.84695611271</v>
       </c>
-      <c r="AW17" s="6">
-        <f t="shared" si="32"/>
+      <c r="BA17" s="6">
+        <f t="shared" si="36"/>
         <v>405675.0086012758</v>
       </c>
     </row>
-    <row r="18" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>36</v>
       </c>
@@ -2822,7 +2927,7 @@
         <v>1117</v>
       </c>
       <c r="V18" s="5">
-        <f t="shared" ref="V18:V19" si="33">+R18*1.4</f>
+        <f t="shared" ref="V18:V19" si="37">+R18*1.4</f>
         <v>963.19999999999993</v>
       </c>
       <c r="W18" s="5">
@@ -2841,48 +2946,51 @@
         <v>1635</v>
       </c>
       <c r="AB18" s="5">
-        <f>+X18</f>
-        <v>1509</v>
+        <v>3014</v>
       </c>
       <c r="AC18" s="5">
-        <f>+Y18</f>
-        <v>1559</v>
+        <f>+Y18*1.5</f>
+        <v>2338.5</v>
       </c>
       <c r="AD18" s="5">
-        <f>+Z18</f>
+        <f t="shared" ref="AC18:AD19" si="38">+Z18</f>
         <v>1438</v>
       </c>
-      <c r="AF18" s="4">
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AJ18" s="4">
         <v>1921.877</v>
       </c>
-      <c r="AG18" s="4">
+      <c r="AK18" s="4">
         <v>3007.0120000000002</v>
       </c>
-      <c r="AH18" s="4">
+      <c r="AL18" s="4">
         <v>3740.973</v>
       </c>
-      <c r="AL18" s="4">
-        <f t="shared" si="23"/>
+      <c r="AP18" s="4">
+        <f t="shared" si="26"/>
         <v>1531</v>
       </c>
-      <c r="AM18" s="4">
+      <c r="AQ18" s="4">
         <f>SUM(K18:N18)</f>
         <v>1994</v>
       </c>
-      <c r="AN18" s="4">
+      <c r="AR18" s="4">
         <f>SUM(O18:R18)</f>
         <v>2789</v>
       </c>
-      <c r="AO18" s="4">
-        <f t="shared" si="27"/>
+      <c r="AS18" s="4">
+        <f t="shared" si="31"/>
         <v>3562.2</v>
       </c>
-      <c r="AP18" s="4">
+      <c r="AT18" s="4">
         <f>SUM(W18:Z18)</f>
         <v>6035</v>
       </c>
     </row>
-    <row r="19" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>37</v>
       </c>
@@ -2936,7 +3044,7 @@
         <v>1645</v>
       </c>
       <c r="V19" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>1489.6</v>
       </c>
       <c r="W19" s="5">
@@ -2955,48 +3063,51 @@
         <v>2288</v>
       </c>
       <c r="AB19" s="5">
-        <f>+X19</f>
-        <v>2150</v>
+        <v>2608</v>
       </c>
       <c r="AC19" s="5">
-        <f>+Y19</f>
+        <f>+Y19*1.5</f>
+        <v>3249</v>
+      </c>
+      <c r="AD19" s="5">
+        <f t="shared" si="38"/>
         <v>2166</v>
       </c>
-      <c r="AD19" s="5">
-        <f>+Z19</f>
-        <v>2166</v>
-      </c>
-      <c r="AF19" s="4">
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AJ19" s="4">
         <v>91.619</v>
       </c>
-      <c r="AG19" s="4">
+      <c r="AK19" s="4">
         <v>191.34399999999999</v>
       </c>
-      <c r="AH19" s="4">
+      <c r="AL19" s="4">
         <v>305.05200000000002</v>
       </c>
-      <c r="AL19" s="4">
-        <f t="shared" si="23"/>
+      <c r="AP19" s="4">
+        <f t="shared" si="26"/>
         <v>2226</v>
       </c>
-      <c r="AM19" s="4">
+      <c r="AQ19" s="4">
         <f>SUM(K19:N19)</f>
         <v>2306</v>
       </c>
-      <c r="AN19" s="4">
-        <f t="shared" si="26"/>
+      <c r="AR19" s="4">
+        <f t="shared" si="30"/>
         <v>3802</v>
       </c>
-      <c r="AO19" s="4">
-        <f t="shared" si="27"/>
+      <c r="AS19" s="4">
+        <f t="shared" si="31"/>
         <v>5879.6</v>
       </c>
-      <c r="AP19" s="4">
+      <c r="AT19" s="4">
         <f>SUM(W19:Z19)</f>
         <v>8319</v>
       </c>
     </row>
-    <row r="20" spans="2:49" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
         <v>38</v>
       </c>
@@ -3005,51 +3116,51 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7">
-        <f t="shared" ref="G20:K20" si="34">SUM(G17:G19)</f>
+        <f t="shared" ref="G20:K20" si="39">SUM(G17:G19)</f>
         <v>4541</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>6350</v>
       </c>
       <c r="I20" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>6303</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>7384</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>5985</v>
       </c>
       <c r="L20" s="7">
-        <f t="shared" ref="L20" si="35">SUM(L17:L19)</f>
+        <f t="shared" ref="L20" si="40">SUM(L17:L19)</f>
         <v>6036</v>
       </c>
       <c r="M20" s="7">
-        <f t="shared" ref="M20:R20" si="36">SUM(M17:M19)</f>
+        <f t="shared" ref="M20:R20" si="41">SUM(M17:M19)</f>
         <v>8771</v>
       </c>
       <c r="N20" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>10744</v>
       </c>
       <c r="O20" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>10389</v>
       </c>
       <c r="P20" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>11958</v>
       </c>
       <c r="Q20" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>13757</v>
       </c>
       <c r="R20" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>17719</v>
       </c>
       <c r="S20" s="7">
@@ -3065,112 +3176,116 @@
         <v>21454</v>
       </c>
       <c r="V20" s="7">
-        <f t="shared" ref="V20:AE20" si="37">SUM(V17:V19)</f>
+        <f t="shared" ref="V20:AD20" si="42">SUM(V17:V19)</f>
         <v>24806.6</v>
       </c>
       <c r="W20" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>23329</v>
       </c>
       <c r="X20" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>24927</v>
       </c>
       <c r="Y20" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>23350</v>
       </c>
       <c r="Z20" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>25167</v>
       </c>
       <c r="AA20" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>21301</v>
       </c>
       <c r="AB20" s="7">
-        <f t="shared" si="37"/>
-        <v>28268.794460998844</v>
+        <f t="shared" si="42"/>
+        <v>25500</v>
       </c>
       <c r="AC20" s="7">
-        <f t="shared" si="37"/>
-        <v>26373.585925334268</v>
+        <f t="shared" si="42"/>
+        <v>26670.695000000003</v>
       </c>
       <c r="AD20" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>28570.031137321035</v>
       </c>
-      <c r="AF20" s="6">
-        <f>AF18+AF19</f>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AJ20" s="6">
+        <f>AJ18+AJ19</f>
         <v>2013.4959999999999</v>
       </c>
-      <c r="AG20" s="6">
-        <f>AG18+AG19</f>
+      <c r="AK20" s="6">
+        <f>AK18+AK19</f>
         <v>3198.3560000000002</v>
       </c>
-      <c r="AH20" s="6">
-        <f>AH18+AH19</f>
+      <c r="AL20" s="6">
+        <f>AL18+AL19</f>
         <v>4046.0250000000001</v>
       </c>
-      <c r="AI20" s="6">
+      <c r="AM20" s="6">
         <v>7000.1319999999996</v>
       </c>
-      <c r="AJ20" s="6">
+      <c r="AN20" s="6">
         <v>11758.751</v>
       </c>
-      <c r="AK20" s="6">
+      <c r="AO20" s="6">
         <v>21461.268</v>
       </c>
-      <c r="AL20" s="6">
-        <f t="shared" ref="AL20:AU20" si="38">SUM(AL17:AL19)</f>
+      <c r="AP20" s="6">
+        <f t="shared" ref="AP20:AY20" si="43">SUM(AP17:AP19)</f>
         <v>24578</v>
       </c>
-      <c r="AM20" s="6">
-        <f t="shared" si="38"/>
+      <c r="AQ20" s="6">
+        <f t="shared" si="43"/>
         <v>31536</v>
       </c>
-      <c r="AN20" s="6">
-        <f t="shared" si="38"/>
+      <c r="AR20" s="6">
+        <f t="shared" si="43"/>
         <v>53823</v>
       </c>
-      <c r="AO20" s="6">
-        <f t="shared" si="38"/>
+      <c r="AS20" s="6">
+        <f t="shared" si="43"/>
         <v>81950.600000000006</v>
       </c>
-      <c r="AP20" s="6">
-        <f>SUM(AP17:AP19)</f>
+      <c r="AT20" s="6">
+        <f>SUM(AT17:AT19)</f>
         <v>96773</v>
       </c>
-      <c r="AQ20" s="6">
-        <f t="shared" si="38"/>
+      <c r="AU20" s="6">
+        <f t="shared" si="43"/>
         <v>114775.32280449121</v>
       </c>
-      <c r="AR20" s="6">
-        <f t="shared" si="38"/>
+      <c r="AV20" s="6">
+        <f t="shared" si="43"/>
         <v>153684.15723521376</v>
       </c>
-      <c r="AS20" s="6">
-        <f t="shared" si="38"/>
+      <c r="AW20" s="6">
+        <f t="shared" si="43"/>
         <v>197868.35244033771</v>
       </c>
-      <c r="AT20" s="6">
-        <f t="shared" si="38"/>
+      <c r="AX20" s="6">
+        <f t="shared" si="43"/>
         <v>244565.28361625742</v>
       </c>
-      <c r="AU20" s="6">
-        <f t="shared" si="38"/>
+      <c r="AY20" s="6">
+        <f t="shared" si="43"/>
         <v>302282.69054969423</v>
       </c>
-      <c r="AV20" s="6">
-        <f t="shared" ref="AV20:AW20" si="39">SUM(AV17:AV19)</f>
+      <c r="AZ20" s="6">
+        <f t="shared" ref="AZ20:BA20" si="44">SUM(AZ17:AZ19)</f>
         <v>358053.84695611271</v>
       </c>
-      <c r="AW20" s="6">
-        <f t="shared" si="39"/>
+      <c r="BA20" s="6">
+        <f t="shared" si="44"/>
         <v>405675.0086012758</v>
       </c>
     </row>
-    <row r="21" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>39</v>
       </c>
@@ -3242,58 +3357,61 @@
         <v>13897</v>
       </c>
       <c r="AB21" s="5">
-        <f>+AB14*0.85</f>
-        <v>20196.675291849017</v>
+        <v>15962</v>
       </c>
       <c r="AC21" s="5">
         <f>+AC14*0.85</f>
-        <v>18364.748036534129</v>
+        <v>17034.165750000004</v>
       </c>
       <c r="AD21" s="5">
         <f>+AD14*0.85</f>
         <v>20428.07646672288</v>
       </c>
-      <c r="AF21" s="4">
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AJ21" s="4">
         <v>1483.3209999999999</v>
       </c>
-      <c r="AO21" s="4">
-        <f t="shared" si="27"/>
+      <c r="AS21" s="4">
+        <f t="shared" si="31"/>
         <v>49599</v>
       </c>
-      <c r="AP21" s="4">
-        <f t="shared" ref="AP15:AP35" si="40">SUM(W21:Z21)</f>
+      <c r="AT21" s="4">
+        <f t="shared" ref="AT21:AT35" si="45">SUM(W21:Z21)</f>
         <v>65121</v>
       </c>
-      <c r="AQ21" s="4">
-        <f>AQ20*0.81</f>
+      <c r="AU21" s="4">
+        <f>AU20*0.81</f>
         <v>92968.011471637888</v>
       </c>
-      <c r="AR21" s="4">
-        <f>AR20*0.8</f>
+      <c r="AV21" s="4">
+        <f>AV20*0.8</f>
         <v>122947.32578817102</v>
       </c>
-      <c r="AS21" s="4">
-        <f>AS20*0.8</f>
+      <c r="AW21" s="4">
+        <f>AW20*0.8</f>
         <v>158294.68195227018</v>
       </c>
-      <c r="AT21" s="4">
-        <f>AT20*0.8</f>
+      <c r="AX21" s="4">
+        <f>AX20*0.8</f>
         <v>195652.22689300595</v>
       </c>
-      <c r="AU21" s="4">
-        <f>AU20*0.8</f>
+      <c r="AY21" s="4">
+        <f>AY20*0.8</f>
         <v>241826.15243975539</v>
       </c>
-      <c r="AV21" s="4">
-        <f t="shared" ref="AV21:AW21" si="41">AV20*0.8</f>
+      <c r="AZ21" s="4">
+        <f t="shared" ref="AZ21:BA21" si="46">AZ20*0.8</f>
         <v>286443.07756489021</v>
       </c>
-      <c r="AW21" s="4">
-        <f t="shared" si="41"/>
+      <c r="BA21" s="4">
+        <f t="shared" si="46"/>
         <v>324540.00688102067</v>
       </c>
     </row>
-    <row r="22" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
@@ -3302,51 +3420,51 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5">
-        <f t="shared" ref="G22:N22" si="42">G14-G21</f>
+        <f t="shared" ref="G22:N22" si="47">G14-G21</f>
         <v>653</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>914</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>1118</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>1328</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>1194</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>1197</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>1985</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>1711</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" ref="O22:R22" si="43">O14-O21</f>
+        <f t="shared" ref="O22:R22" si="48">O14-O21</f>
         <v>1730</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>2401</v>
       </c>
       <c r="Q22" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>3243</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>4336</v>
       </c>
       <c r="S22" s="5">
@@ -3362,7 +3480,7 @@
         <v>4686</v>
       </c>
       <c r="V22" s="5">
-        <f t="shared" ref="V22:AD22" si="44">V14-V21</f>
+        <f t="shared" ref="V22:Z22" si="49">V14-V21</f>
         <v>5602</v>
       </c>
       <c r="W22" s="5">
@@ -3370,15 +3488,15 @@
         <v>3456</v>
       </c>
       <c r="X22" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>3578</v>
       </c>
       <c r="Y22" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>2926</v>
       </c>
       <c r="Z22" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>3428</v>
       </c>
       <c r="AA22" s="5">
@@ -3387,27 +3505,31 @@
       </c>
       <c r="AB22" s="5">
         <f>AB14-AB21</f>
-        <v>3564.1191691498279</v>
+        <v>2568</v>
       </c>
       <c r="AC22" s="5">
         <f>AC14-AC21</f>
-        <v>3240.8378888001389</v>
+        <v>3006.0292499999996</v>
       </c>
       <c r="AD22" s="5">
         <f>AD14-AD21</f>
         <v>3604.9546705981556</v>
       </c>
-      <c r="AO22" s="4">
-        <f t="shared" si="27"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AS22" s="4">
+        <f t="shared" si="31"/>
         <v>18405</v>
       </c>
-      <c r="AP22" s="4">
-        <f t="shared" si="40"/>
+      <c r="AT22" s="4">
+        <f t="shared" si="45"/>
         <v>13388</v>
       </c>
     </row>
-    <row r="23" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="31" t="s">
+    <row r="23" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="30" t="s">
         <v>117</v>
       </c>
       <c r="C23" s="5"/>
@@ -3438,36 +3560,40 @@
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
-      <c r="AQ23" s="4">
-        <f>AQ13*0.2</f>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AU23" s="4">
+        <f>AU13*0.2</f>
         <v>0</v>
       </c>
-      <c r="AR23" s="4">
-        <f t="shared" ref="AR23:AW23" si="45">AR13*0.2</f>
+      <c r="AV23" s="4">
+        <f t="shared" ref="AV23:BA23" si="50">AV13*0.2</f>
         <v>0</v>
       </c>
-      <c r="AS23" s="4">
-        <f t="shared" si="45"/>
+      <c r="AW23" s="4">
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="AT23" s="4">
-        <f t="shared" si="45"/>
+      <c r="AX23" s="4">
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="AU23" s="4">
-        <f t="shared" si="45"/>
+      <c r="AY23" s="4">
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="AV23" s="4">
-        <f t="shared" si="45"/>
+      <c r="AZ23" s="4">
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="AW23" s="4">
-        <f t="shared" si="45"/>
+      <c r="BA23" s="4">
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>41</v>
       </c>
@@ -3539,8 +3665,7 @@
         <v>269</v>
       </c>
       <c r="AB24" s="5">
-        <f>+AB16*0.5</f>
-        <v>283.5</v>
+        <v>245</v>
       </c>
       <c r="AC24" s="5">
         <f>+AC16*0.5</f>
@@ -3550,16 +3675,20 @@
         <f>+AD16*0.5</f>
         <v>250</v>
       </c>
-      <c r="AO24" s="4">
-        <f t="shared" si="27"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AS24" s="4">
+        <f t="shared" si="31"/>
         <v>1510</v>
       </c>
-      <c r="AP24" s="4">
-        <f t="shared" si="40"/>
+      <c r="AT24" s="4">
+        <f t="shared" si="45"/>
         <v>1268</v>
       </c>
     </row>
-    <row r="25" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>42</v>
       </c>
@@ -3568,35 +3697,35 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5">
-        <f t="shared" ref="G25:K25" si="46">G17-G24-G21</f>
+        <f t="shared" ref="G25:K25" si="51">G17-G24-G21</f>
         <v>751</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1016</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1222</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1434</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1311</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" ref="L25" si="47">L17-L24-L21</f>
+        <f t="shared" ref="L25" si="52">L17-L24-L21</f>
         <v>1317</v>
       </c>
       <c r="M25" s="5">
-        <f t="shared" ref="M25:N25" si="48">M17-M24-M21</f>
+        <f t="shared" ref="M25:N25" si="53">M17-M24-M21</f>
         <v>2105</v>
       </c>
       <c r="N25" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>2244</v>
       </c>
       <c r="O25" s="5">
@@ -3604,19 +3733,19 @@
         <v>2385</v>
       </c>
       <c r="P25" s="5">
-        <f t="shared" ref="P25:S25" si="49">P17-P24-P21</f>
+        <f t="shared" ref="P25:S25" si="54">P17-P24-P21</f>
         <v>2899</v>
       </c>
       <c r="Q25" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>3673</v>
       </c>
       <c r="R25" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>4882</v>
       </c>
       <c r="S25" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>5539</v>
       </c>
       <c r="T25" s="5">
@@ -3628,7 +3757,7 @@
         <v>5212</v>
       </c>
       <c r="V25" s="5">
-        <f t="shared" ref="V25:AD25" si="50">V17-V24-V21</f>
+        <f t="shared" ref="V25:AD25" si="55">V17-V24-V21</f>
         <v>6568.7999999999993</v>
       </c>
       <c r="W25" s="5">
@@ -3636,71 +3765,75 @@
         <v>4208</v>
       </c>
       <c r="X25" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>4089</v>
       </c>
       <c r="Y25" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>3668</v>
       </c>
       <c r="Z25" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>4065</v>
       </c>
       <c r="AA25" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>3212</v>
       </c>
       <c r="AB25" s="5">
-        <f t="shared" si="50"/>
-        <v>4129.6191691498279</v>
+        <f>AB17-AB24-AB21</f>
+        <v>3671</v>
       </c>
       <c r="AC25" s="5">
-        <f t="shared" si="50"/>
-        <v>4039.3378888001389</v>
+        <f t="shared" si="55"/>
+        <v>3804.5292499999996</v>
       </c>
       <c r="AD25" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>4287.9546705981556</v>
       </c>
-      <c r="AO25" s="4">
-        <f t="shared" si="27"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AS25" s="4">
+        <f t="shared" si="31"/>
         <v>21399.8</v>
       </c>
-      <c r="AP25" s="4">
+      <c r="AT25" s="4">
         <f>SUM(W25:Z25)</f>
         <v>16030</v>
       </c>
-      <c r="AQ25" s="4">
-        <f t="shared" ref="AQ25:AW25" si="51">AQ20-AQ21</f>
+      <c r="AU25" s="4">
+        <f t="shared" ref="AU25:BA25" si="56">AU20-AU21</f>
         <v>21807.311332853322</v>
       </c>
-      <c r="AR25" s="4">
-        <f t="shared" si="51"/>
+      <c r="AV25" s="4">
+        <f t="shared" si="56"/>
         <v>30736.831447042743</v>
       </c>
-      <c r="AS25" s="4">
-        <f t="shared" si="51"/>
+      <c r="AW25" s="4">
+        <f t="shared" si="56"/>
         <v>39573.670488067524</v>
       </c>
-      <c r="AT25" s="4">
-        <f t="shared" si="51"/>
+      <c r="AX25" s="4">
+        <f t="shared" si="56"/>
         <v>48913.056723251473</v>
       </c>
-      <c r="AU25" s="4">
-        <f t="shared" si="51"/>
+      <c r="AY25" s="4">
+        <f t="shared" si="56"/>
         <v>60456.538109938847</v>
       </c>
-      <c r="AV25" s="4">
-        <f t="shared" si="51"/>
+      <c r="AZ25" s="4">
+        <f t="shared" si="56"/>
         <v>71610.769391222508</v>
       </c>
-      <c r="AW25" s="4">
-        <f t="shared" si="51"/>
+      <c r="BA25" s="4">
+        <f t="shared" si="56"/>
         <v>81135.001720255124</v>
       </c>
     </row>
-    <row r="26" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>43</v>
       </c>
@@ -3772,27 +3905,30 @@
         <v>1232</v>
       </c>
       <c r="AB26" s="5">
-        <f>+AB18*0.9</f>
-        <v>1358.1000000000001</v>
+        <v>2274</v>
       </c>
       <c r="AC26" s="5">
-        <f>+AC18*0.9</f>
-        <v>1403.1000000000001</v>
+        <f>+AC18*0.85</f>
+        <v>1987.7249999999999</v>
       </c>
       <c r="AD26" s="5">
         <f>+AD18*0.9</f>
         <v>1294.2</v>
       </c>
-      <c r="AO26" s="4">
-        <f t="shared" si="27"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AS26" s="4">
+        <f t="shared" si="31"/>
         <v>3621</v>
       </c>
-      <c r="AP26" s="4">
-        <f t="shared" si="40"/>
+      <c r="AT26" s="4">
+        <f t="shared" si="45"/>
         <v>4894</v>
       </c>
     </row>
-    <row r="27" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>44</v>
       </c>
@@ -3864,27 +4000,30 @@
         <v>2207</v>
       </c>
       <c r="AB27" s="5">
-        <f>+AB19</f>
-        <v>2150</v>
+        <v>2441</v>
       </c>
       <c r="AC27" s="5">
         <f>+AC19</f>
-        <v>2166</v>
+        <v>3249</v>
       </c>
       <c r="AD27" s="5">
         <f>+AD19</f>
         <v>2166</v>
       </c>
-      <c r="AO27" s="4">
-        <f t="shared" si="27"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AS27" s="4">
+        <f t="shared" si="31"/>
         <v>5880</v>
       </c>
-      <c r="AP27" s="4">
-        <f t="shared" si="40"/>
+      <c r="AT27" s="4">
+        <f t="shared" si="45"/>
         <v>7830</v>
       </c>
     </row>
-    <row r="28" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>45</v>
       </c>
@@ -3893,139 +4032,143 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5">
-        <f t="shared" ref="G28:K28" si="52">G25+G18+G19-G26-G27</f>
+        <f t="shared" ref="G28:K28" si="57">G25+G18+G19-G26-G27</f>
         <v>566</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>921</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>1191</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>1391</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>1234</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" ref="L28" si="53">L25+L18+L19-L26-L27</f>
+        <f t="shared" ref="L28" si="58">L25+L18+L19-L26-L27</f>
         <v>1267</v>
       </c>
       <c r="M28" s="5">
-        <f t="shared" ref="M28:T28" si="54">M25+M18+M19-M26-M27</f>
+        <f t="shared" ref="M28:T28" si="59">M25+M18+M19-M26-M27</f>
         <v>2063</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>2066</v>
       </c>
       <c r="O28" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>2215</v>
       </c>
       <c r="P28" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>2884</v>
       </c>
       <c r="Q28" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>3660</v>
       </c>
       <c r="R28" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>4847</v>
       </c>
       <c r="S28" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>5460</v>
       </c>
       <c r="T28" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>4233</v>
       </c>
       <c r="U28" s="5">
-        <f>U25+U18+U19-U26-U27</f>
+        <f t="shared" ref="U28:AD28" si="60">U25+U18+U19-U26-U27</f>
         <v>5382</v>
       </c>
       <c r="V28" s="5">
-        <f>V25+V18+V19-V26-V27</f>
+        <f t="shared" si="60"/>
         <v>6265.5999999999985</v>
       </c>
       <c r="W28" s="5">
-        <f>W25+W18+W19-W26-W27</f>
+        <f t="shared" si="60"/>
         <v>4511</v>
       </c>
       <c r="X28" s="5">
-        <f>X25+X18+X19-X26-X27</f>
+        <f t="shared" si="60"/>
         <v>4533</v>
       </c>
       <c r="Y28" s="5">
-        <f>Y25+Y18+Y19-Y26-Y27</f>
+        <f t="shared" si="60"/>
         <v>4178</v>
       </c>
       <c r="Z28" s="5">
-        <f>Z25+Z18+Z19-Z26-Z27</f>
+        <f t="shared" si="60"/>
         <v>4438</v>
       </c>
       <c r="AA28" s="5">
-        <f>AA25+AA18+AA19-AA26-AA27</f>
+        <f t="shared" si="60"/>
         <v>3696</v>
       </c>
       <c r="AB28" s="5">
-        <f>AB25+AB18+AB19-AB26-AB27</f>
-        <v>4280.5191691498276</v>
+        <f t="shared" si="60"/>
+        <v>4578</v>
       </c>
       <c r="AC28" s="5">
-        <f>AC25+AC18+AC19-AC26-AC27</f>
-        <v>4195.2378888001385</v>
+        <f t="shared" si="60"/>
+        <v>4155.3042499999992</v>
       </c>
       <c r="AD28" s="5">
-        <f>AD25+AD18+AD19-AD26-AD27</f>
+        <f t="shared" si="60"/>
         <v>4431.7546705981558</v>
       </c>
-      <c r="AO28" s="5">
-        <f t="shared" ref="AO28" si="55">+AO20*0.25</f>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AS28" s="5">
+        <f t="shared" ref="AS28" si="61">+AS20*0.25</f>
         <v>20487.650000000001</v>
       </c>
-      <c r="AP28" s="4">
-        <f t="shared" si="40"/>
+      <c r="AT28" s="4">
+        <f t="shared" si="45"/>
         <v>17660</v>
       </c>
-      <c r="AQ28" s="4">
-        <f>AQ25+AQ13-AQ23</f>
+      <c r="AU28" s="4">
+        <f>AU25+AU13-AU23</f>
         <v>21807.311332853322</v>
       </c>
-      <c r="AR28" s="4">
-        <f t="shared" ref="AR28:AW28" si="56">AR25+AR13-AR23</f>
+      <c r="AV28" s="4">
+        <f t="shared" ref="AV28:BA28" si="62">AV25+AV13-AV23</f>
         <v>30736.831447042743</v>
       </c>
-      <c r="AS28" s="4">
-        <f t="shared" si="56"/>
+      <c r="AW28" s="4">
+        <f t="shared" si="62"/>
         <v>39573.670488067524</v>
       </c>
-      <c r="AT28" s="4">
-        <f t="shared" si="56"/>
+      <c r="AX28" s="4">
+        <f t="shared" si="62"/>
         <v>48913.056723251473</v>
       </c>
-      <c r="AU28" s="4">
-        <f t="shared" si="56"/>
+      <c r="AY28" s="4">
+        <f t="shared" si="62"/>
         <v>60456.538109938847</v>
       </c>
-      <c r="AV28" s="4">
-        <f t="shared" si="56"/>
+      <c r="AZ28" s="4">
+        <f t="shared" si="62"/>
         <v>71610.769391222508</v>
       </c>
-      <c r="AW28" s="4">
-        <f t="shared" si="56"/>
+      <c r="BA28" s="4">
+        <f t="shared" si="62"/>
         <v>81135.001720255124</v>
       </c>
     </row>
-    <row r="29" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>46</v>
       </c>
@@ -4097,55 +4240,58 @@
         <v>1151</v>
       </c>
       <c r="AB29" s="5">
-        <f>+X29*1.1</f>
-        <v>1037.3000000000002</v>
+        <v>1074</v>
       </c>
       <c r="AC29" s="5">
-        <f>+Y29*1.1</f>
+        <f t="shared" ref="AB29:AD30" si="63">+Y29*1.1</f>
         <v>1277.1000000000001</v>
       </c>
       <c r="AD29" s="5">
-        <f>+Z29*1.1</f>
+        <f t="shared" si="63"/>
         <v>1203.4000000000001</v>
       </c>
-      <c r="AO29" s="4">
-        <f t="shared" si="27"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AS29" s="4">
+        <f t="shared" si="31"/>
         <v>3075</v>
       </c>
-      <c r="AP29" s="4">
+      <c r="AT29" s="4">
         <f>SUM(W29:Z29)</f>
         <v>3969</v>
       </c>
-      <c r="AQ29" s="4">
-        <f t="shared" ref="AQ29:AU29" si="57">AP29*1.02</f>
+      <c r="AU29" s="4">
+        <f t="shared" ref="AU29:AY29" si="64">AT29*1.02</f>
         <v>4048.38</v>
       </c>
-      <c r="AR29" s="4">
-        <f t="shared" si="57"/>
+      <c r="AV29" s="4">
+        <f t="shared" si="64"/>
         <v>4129.3476000000001</v>
       </c>
-      <c r="AS29" s="4">
-        <f t="shared" si="57"/>
+      <c r="AW29" s="4">
+        <f t="shared" si="64"/>
         <v>4211.9345519999997</v>
       </c>
-      <c r="AT29" s="4">
-        <f t="shared" si="57"/>
+      <c r="AX29" s="4">
+        <f t="shared" si="64"/>
         <v>4296.1732430399998</v>
       </c>
-      <c r="AU29" s="4">
-        <f t="shared" si="57"/>
+      <c r="AY29" s="4">
+        <f t="shared" si="64"/>
         <v>4382.0967079007996</v>
       </c>
-      <c r="AV29" s="4">
-        <f t="shared" ref="AV29:AW29" si="58">AU29*1.02</f>
+      <c r="AZ29" s="4">
+        <f t="shared" ref="AZ29:BA29" si="65">AY29*1.02</f>
         <v>4469.7386420588155</v>
       </c>
-      <c r="AW29" s="4">
-        <f t="shared" si="58"/>
+      <c r="BA29" s="4">
+        <f t="shared" si="65"/>
         <v>4559.1334148999922</v>
       </c>
     </row>
-    <row r="30" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
@@ -4218,55 +4364,58 @@
         <v>1374</v>
       </c>
       <c r="AB30" s="5">
-        <f>+X30*1.1</f>
-        <v>1310.1000000000001</v>
+        <v>1277</v>
       </c>
       <c r="AC30" s="5">
-        <f>+Y30*1.1</f>
+        <f t="shared" si="63"/>
         <v>1378.3000000000002</v>
       </c>
       <c r="AD30" s="5">
-        <f>+Z30*1.1</f>
+        <f t="shared" si="63"/>
         <v>1408</v>
       </c>
-      <c r="AO30" s="4">
-        <f t="shared" si="27"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AS30" s="4">
+        <f t="shared" si="31"/>
         <v>4706.8</v>
       </c>
-      <c r="AP30" s="4">
-        <f t="shared" si="40"/>
+      <c r="AT30" s="4">
+        <f t="shared" si="45"/>
         <v>4800</v>
       </c>
-      <c r="AQ30" s="4">
-        <f>AP30*1.02</f>
+      <c r="AU30" s="4">
+        <f>AT30*1.02</f>
         <v>4896</v>
       </c>
-      <c r="AR30" s="4">
-        <f t="shared" ref="AR30:AU30" si="59">AQ30*1.02</f>
+      <c r="AV30" s="4">
+        <f t="shared" ref="AV30:AY30" si="66">AU30*1.02</f>
         <v>4993.92</v>
       </c>
-      <c r="AS30" s="4">
-        <f t="shared" si="59"/>
+      <c r="AW30" s="4">
+        <f t="shared" si="66"/>
         <v>5093.7984000000006</v>
       </c>
-      <c r="AT30" s="4">
-        <f t="shared" si="59"/>
+      <c r="AX30" s="4">
+        <f t="shared" si="66"/>
         <v>5195.6743680000009</v>
       </c>
-      <c r="AU30" s="4">
-        <f t="shared" si="59"/>
+      <c r="AY30" s="4">
+        <f t="shared" si="66"/>
         <v>5299.5878553600014</v>
       </c>
-      <c r="AV30" s="4">
-        <f t="shared" ref="AV30:AW30" si="60">AU30*1.02</f>
+      <c r="AZ30" s="4">
+        <f t="shared" ref="AZ30:BA30" si="67">AY30*1.02</f>
         <v>5405.5796124672015</v>
       </c>
-      <c r="AW30" s="4">
-        <f t="shared" si="60"/>
+      <c r="BA30" s="4">
+        <f t="shared" si="67"/>
         <v>5513.6912047165461</v>
       </c>
     </row>
-    <row r="31" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>48</v>
       </c>
@@ -4275,51 +4424,51 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5">
-        <f t="shared" ref="G31" si="61">G29+G30</f>
+        <f t="shared" ref="G31" si="68">G29+G30</f>
         <v>1044</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" ref="H31:I31" si="62">H29+H30</f>
+        <f t="shared" ref="H31:I31" si="69">H29+H30</f>
         <v>971</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>930</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" ref="J31:L31" si="63">J29+J30</f>
+        <f t="shared" ref="J31:L31" si="70">J29+J30</f>
         <v>1044</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>951</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>940</v>
       </c>
       <c r="M31" s="5">
-        <f t="shared" ref="M31:N31" si="64">M29+M30</f>
+        <f t="shared" ref="M31:N31" si="71">M29+M30</f>
         <v>1254</v>
       </c>
       <c r="N31" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>1491</v>
       </c>
       <c r="O31" s="5">
-        <f t="shared" ref="O31:R31" si="65">O29+O30</f>
+        <f t="shared" ref="O31:R31" si="72">O29+O30</f>
         <v>1722</v>
       </c>
       <c r="P31" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>1549</v>
       </c>
       <c r="Q31" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>1605</v>
       </c>
       <c r="R31" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>2234</v>
       </c>
       <c r="S31" s="5">
@@ -4335,7 +4484,7 @@
         <v>1694</v>
       </c>
       <c r="V31" s="5">
-        <f t="shared" ref="V31:AD31" si="66">V29+V30</f>
+        <f t="shared" ref="V31:AD31" si="73">V29+V30</f>
         <v>2602.8000000000002</v>
       </c>
       <c r="W31" s="5">
@@ -4343,71 +4492,75 @@
         <v>1847</v>
       </c>
       <c r="X31" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>2134</v>
       </c>
       <c r="Y31" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>2414</v>
       </c>
       <c r="Z31" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>2374</v>
       </c>
       <c r="AA31" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>2525</v>
       </c>
       <c r="AB31" s="5">
-        <f t="shared" si="66"/>
-        <v>2347.4000000000005</v>
+        <f t="shared" si="73"/>
+        <v>2351</v>
       </c>
       <c r="AC31" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>2655.4000000000005</v>
       </c>
       <c r="AD31" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>2611.4</v>
       </c>
-      <c r="AO31" s="4">
-        <f t="shared" ref="AO31" si="67">+AO29+AO30</f>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AS31" s="4">
+        <f t="shared" ref="AS31" si="74">+AS29+AS30</f>
         <v>7781.8</v>
       </c>
-      <c r="AP31" s="4">
-        <f>+AP29+AP30</f>
+      <c r="AT31" s="4">
+        <f>+AT29+AT30</f>
         <v>8769</v>
       </c>
-      <c r="AQ31" s="4">
-        <f t="shared" ref="AQ31:AU31" si="68">+AQ29+AQ30</f>
+      <c r="AU31" s="4">
+        <f t="shared" ref="AU31:AY31" si="75">+AU29+AU30</f>
         <v>8944.380000000001</v>
       </c>
-      <c r="AR31" s="4">
-        <f t="shared" si="68"/>
+      <c r="AV31" s="4">
+        <f t="shared" si="75"/>
         <v>9123.2675999999992</v>
       </c>
-      <c r="AS31" s="4">
-        <f t="shared" si="68"/>
+      <c r="AW31" s="4">
+        <f t="shared" si="75"/>
         <v>9305.7329520000003</v>
       </c>
-      <c r="AT31" s="4">
-        <f t="shared" si="68"/>
+      <c r="AX31" s="4">
+        <f t="shared" si="75"/>
         <v>9491.8476110400006</v>
       </c>
-      <c r="AU31" s="4">
-        <f t="shared" si="68"/>
+      <c r="AY31" s="4">
+        <f t="shared" si="75"/>
         <v>9681.684563260802</v>
       </c>
-      <c r="AV31" s="4">
-        <f t="shared" ref="AV31" si="69">+AV29+AV30</f>
+      <c r="AZ31" s="4">
+        <f t="shared" ref="AZ31" si="76">+AZ29+AZ30</f>
         <v>9875.318254526017</v>
       </c>
-      <c r="AW31" s="4">
-        <f t="shared" ref="AW31" si="70">+AW29+AW30</f>
+      <c r="BA31" s="4">
+        <f t="shared" ref="BA31" si="77">+BA29+BA30</f>
         <v>10072.824619616538</v>
       </c>
     </row>
-    <row r="32" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>49</v>
       </c>
@@ -4416,51 +4569,51 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5">
-        <f t="shared" ref="G32" si="71">G28-G31</f>
+        <f t="shared" ref="G32" si="78">G28-G31</f>
         <v>-478</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" ref="H32:I32" si="72">H28-H31</f>
+        <f t="shared" ref="H32:I32" si="79">H28-H31</f>
         <v>-50</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>261</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" ref="J32:L32" si="73">J28-J31</f>
+        <f t="shared" ref="J32:L32" si="80">J28-J31</f>
         <v>347</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>283</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>327</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" ref="M32:N32" si="74">M28-M31</f>
+        <f t="shared" ref="M32:N32" si="81">M28-M31</f>
         <v>809</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>575</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" ref="O32:R32" si="75">O28-O31</f>
+        <f t="shared" ref="O32:R32" si="82">O28-O31</f>
         <v>493</v>
       </c>
       <c r="P32" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>1335</v>
       </c>
       <c r="Q32" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>2055</v>
       </c>
       <c r="R32" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>2613</v>
       </c>
       <c r="S32" s="5">
@@ -4476,7 +4629,7 @@
         <v>3688</v>
       </c>
       <c r="V32" s="5">
-        <f t="shared" ref="V32:AD32" si="76">V28-V31</f>
+        <f t="shared" ref="V32:AD32" si="83">V28-V31</f>
         <v>3662.7999999999984</v>
       </c>
       <c r="W32" s="5">
@@ -4484,71 +4637,75 @@
         <v>2664</v>
       </c>
       <c r="X32" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>2399</v>
       </c>
       <c r="Y32" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>1764</v>
       </c>
       <c r="Z32" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>2064</v>
       </c>
       <c r="AA32" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>1171</v>
       </c>
       <c r="AB32" s="5">
-        <f t="shared" si="76"/>
-        <v>1933.119169149827</v>
+        <f t="shared" si="83"/>
+        <v>2227</v>
       </c>
       <c r="AC32" s="5">
-        <f t="shared" si="76"/>
-        <v>1539.837888800138</v>
+        <f t="shared" si="83"/>
+        <v>1499.9042499999987</v>
       </c>
       <c r="AD32" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>1820.3546705981557</v>
       </c>
-      <c r="AO32" s="5">
-        <f t="shared" ref="AO32:AP32" si="77">AO28-AO31</f>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AS32" s="5">
+        <f t="shared" ref="AS32:AT32" si="84">AS28-AS31</f>
         <v>12705.850000000002</v>
       </c>
-      <c r="AP32" s="5">
-        <f t="shared" si="77"/>
+      <c r="AT32" s="5">
+        <f t="shared" si="84"/>
         <v>8891</v>
       </c>
-      <c r="AQ32" s="5">
-        <f t="shared" ref="AQ32:AU32" si="78">AQ28-AQ31</f>
+      <c r="AU32" s="5">
+        <f t="shared" ref="AU32:AY32" si="85">AU28-AU31</f>
         <v>12862.931332853321</v>
       </c>
-      <c r="AR32" s="5">
-        <f t="shared" si="78"/>
+      <c r="AV32" s="5">
+        <f t="shared" si="85"/>
         <v>21613.563847042744</v>
       </c>
-      <c r="AS32" s="5">
-        <f t="shared" si="78"/>
+      <c r="AW32" s="5">
+        <f t="shared" si="85"/>
         <v>30267.937536067526</v>
       </c>
-      <c r="AT32" s="5">
-        <f t="shared" si="78"/>
+      <c r="AX32" s="5">
+        <f t="shared" si="85"/>
         <v>39421.209112211473</v>
       </c>
-      <c r="AU32" s="5">
-        <f t="shared" si="78"/>
+      <c r="AY32" s="5">
+        <f t="shared" si="85"/>
         <v>50774.853546678045</v>
       </c>
-      <c r="AV32" s="5">
-        <f t="shared" ref="AV32:AW32" si="79">AV28-AV31</f>
+      <c r="AZ32" s="5">
+        <f t="shared" ref="AZ32:BA32" si="86">AZ28-AZ31</f>
         <v>61735.451136696487</v>
       </c>
-      <c r="AW32" s="5">
-        <f t="shared" si="79"/>
+      <c r="BA32" s="5">
+        <f t="shared" si="86"/>
         <v>71062.177100638582</v>
       </c>
     </row>
-    <row r="33" spans="2:105" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>50</v>
       </c>
@@ -4640,43 +4797,50 @@
         <f>350-76+108</f>
         <v>382</v>
       </c>
-      <c r="AB33" s="5"/>
+      <c r="AB33" s="5">
+        <f>348-86+20</f>
+        <v>282</v>
+      </c>
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
-      <c r="AP33" s="4">
-        <f t="shared" si="40"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AT33" s="4">
+        <f t="shared" si="45"/>
         <v>1082</v>
       </c>
-      <c r="AQ33" s="4">
-        <f>AP63*$AZ$46</f>
+      <c r="AU33" s="4">
+        <f>AT63*$BD$46</f>
         <v>874.02</v>
       </c>
-      <c r="AR33" s="4">
-        <f t="shared" ref="AR33:AW33" si="80">AQ63*$AZ$46</f>
+      <c r="AV33" s="4">
+        <f t="shared" ref="AV33:BA33" si="87">AU63*$BD$46</f>
         <v>1224.3122589877596</v>
       </c>
-      <c r="AS33" s="4">
-        <f t="shared" si="80"/>
+      <c r="AW33" s="4">
+        <f t="shared" si="87"/>
         <v>1806.6780996915375</v>
       </c>
-      <c r="AT33" s="4">
-        <f t="shared" si="80"/>
+      <c r="AX33" s="4">
+        <f t="shared" si="87"/>
         <v>2624.5807984033931</v>
       </c>
-      <c r="AU33" s="4">
-        <f t="shared" si="80"/>
+      <c r="AY33" s="4">
+        <f t="shared" si="87"/>
         <v>3696.7484411240725</v>
       </c>
-      <c r="AV33" s="4">
-        <f t="shared" si="80"/>
+      <c r="AZ33" s="4">
+        <f t="shared" si="87"/>
         <v>5085.7742918130261</v>
       </c>
-      <c r="AW33" s="4">
-        <f t="shared" si="80"/>
+      <c r="BA33" s="4">
+        <f t="shared" si="87"/>
         <v>6789.7155402400185</v>
       </c>
     </row>
-    <row r="34" spans="2:105" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>51</v>
       </c>
@@ -4685,51 +4849,51 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5">
-        <f t="shared" ref="G34:N34" si="81">G32+G33</f>
+        <f t="shared" ref="G34:N34" si="88">G32+G33</f>
         <v>-601</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>-253</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>176</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>160</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>70</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>150</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>555</v>
       </c>
       <c r="N34" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>379</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" ref="O34:R34" si="82">O32+O33</f>
+        <f t="shared" ref="O34:R34" si="89">O32+O33</f>
         <v>432</v>
       </c>
       <c r="P34" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>1316</v>
       </c>
       <c r="Q34" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>1933</v>
       </c>
       <c r="R34" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>2635</v>
       </c>
       <c r="S34" s="5">
@@ -4745,75 +4909,79 @@
         <v>3636</v>
       </c>
       <c r="V34" s="5">
-        <f t="shared" ref="V34:AD34" si="83">V32+V33</f>
+        <f t="shared" ref="V34:AD34" si="90">V32+V33</f>
         <v>3744.7999999999984</v>
       </c>
       <c r="W34" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>2800</v>
       </c>
       <c r="X34" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>2937</v>
       </c>
       <c r="Y34" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>2045</v>
       </c>
       <c r="Z34" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>2191</v>
       </c>
       <c r="AA34" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>1553</v>
       </c>
       <c r="AB34" s="5">
-        <f t="shared" si="83"/>
-        <v>1933.119169149827</v>
+        <f t="shared" si="90"/>
+        <v>2509</v>
       </c>
       <c r="AC34" s="5">
-        <f t="shared" si="83"/>
-        <v>1539.837888800138</v>
+        <f t="shared" si="90"/>
+        <v>1499.9042499999987</v>
       </c>
       <c r="AD34" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>1820.3546705981557</v>
       </c>
-      <c r="AP34" s="4">
-        <f>+AP32+AP33</f>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AT34" s="4">
+        <f>+AT32+AT33</f>
         <v>9973</v>
       </c>
-      <c r="AQ34" s="4">
-        <f t="shared" ref="AQ34:AU34" si="84">+AQ32+AQ33</f>
+      <c r="AU34" s="4">
+        <f t="shared" ref="AU34:AY34" si="91">+AU32+AU33</f>
         <v>13736.951332853321</v>
       </c>
-      <c r="AR34" s="4">
-        <f t="shared" si="84"/>
+      <c r="AV34" s="4">
+        <f t="shared" si="91"/>
         <v>22837.876106030504</v>
       </c>
-      <c r="AS34" s="4">
-        <f t="shared" si="84"/>
+      <c r="AW34" s="4">
+        <f t="shared" si="91"/>
         <v>32074.615635759063</v>
       </c>
-      <c r="AT34" s="4">
-        <f t="shared" si="84"/>
+      <c r="AX34" s="4">
+        <f t="shared" si="91"/>
         <v>42045.789910614869</v>
       </c>
-      <c r="AU34" s="4">
-        <f t="shared" si="84"/>
+      <c r="AY34" s="4">
+        <f t="shared" si="91"/>
         <v>54471.601987802118</v>
       </c>
-      <c r="AV34" s="4">
-        <f t="shared" ref="AV34" si="85">+AV32+AV33</f>
+      <c r="AZ34" s="4">
+        <f t="shared" ref="AZ34" si="92">+AZ32+AZ33</f>
         <v>66821.225428509511</v>
       </c>
-      <c r="AW34" s="4">
-        <f t="shared" ref="AW34" si="86">+AW32+AW33</f>
+      <c r="BA34" s="4">
+        <f t="shared" ref="BA34" si="93">+BA32+BA33</f>
         <v>77851.892640878606</v>
       </c>
     </row>
-    <row r="35" spans="2:105" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
         <v>52</v>
       </c>
@@ -4903,51 +5071,55 @@
         <v>424</v>
       </c>
       <c r="AB35" s="5">
-        <f>+AB34*0.2</f>
-        <v>386.62383382996541</v>
+        <f>393+16</f>
+        <v>409</v>
       </c>
       <c r="AC35" s="5">
         <f>+AC34*0.2</f>
-        <v>307.96757776002761</v>
+        <v>299.98084999999975</v>
       </c>
       <c r="AD35" s="5">
         <f>+AD34*0.2</f>
         <v>364.07093411963115</v>
       </c>
-      <c r="AP35" s="4">
-        <f t="shared" si="40"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AT35" s="4">
+        <f t="shared" si="45"/>
         <v>728</v>
       </c>
-      <c r="AQ35" s="4">
-        <f>AQ34*0.15</f>
+      <c r="AU35" s="4">
+        <f>AU34*0.15</f>
         <v>2060.542699927998</v>
       </c>
-      <c r="AR35" s="4">
-        <f t="shared" ref="AR35:AU35" si="87">AR34*0.15</f>
+      <c r="AV35" s="4">
+        <f t="shared" ref="AV35:AY35" si="94">AV34*0.15</f>
         <v>3425.6814159045757</v>
       </c>
-      <c r="AS35" s="4">
-        <f t="shared" si="87"/>
+      <c r="AW35" s="4">
+        <f t="shared" si="94"/>
         <v>4811.1923453638592</v>
       </c>
-      <c r="AT35" s="4">
-        <f t="shared" si="87"/>
+      <c r="AX35" s="4">
+        <f t="shared" si="94"/>
         <v>6306.8684865922305</v>
       </c>
-      <c r="AU35" s="4">
-        <f t="shared" si="87"/>
+      <c r="AY35" s="4">
+        <f t="shared" si="94"/>
         <v>8170.7402981703171</v>
       </c>
-      <c r="AV35" s="4">
-        <f t="shared" ref="AV35" si="88">AV34*0.15</f>
+      <c r="AZ35" s="4">
+        <f t="shared" ref="AZ35" si="95">AZ34*0.15</f>
         <v>10023.183814276426</v>
       </c>
-      <c r="AW35" s="4">
-        <f t="shared" ref="AW35" si="89">AW34*0.15</f>
+      <c r="BA35" s="4">
+        <f t="shared" ref="BA35" si="96">BA34*0.15</f>
         <v>11677.78389613179</v>
       </c>
     </row>
-    <row r="36" spans="2:105" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>53</v>
       </c>
@@ -4956,51 +5128,51 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5">
-        <f t="shared" ref="G36:N36" si="90">G34-G35</f>
+        <f t="shared" ref="G36:N36" si="97">G34-G35</f>
         <v>-658</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="97"/>
         <v>-291</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="97"/>
         <v>143</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="97"/>
         <v>91</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="97"/>
         <v>16</v>
       </c>
       <c r="L36" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="97"/>
         <v>104</v>
       </c>
       <c r="M36" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="97"/>
         <v>300</v>
       </c>
       <c r="N36" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="97"/>
         <v>270</v>
       </c>
       <c r="O36" s="5">
-        <f t="shared" ref="O36:R36" si="91">O34-O35</f>
+        <f t="shared" ref="O36:R36" si="98">O34-O35</f>
         <v>337</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
         <v>1165</v>
       </c>
       <c r="Q36" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
         <v>1669</v>
       </c>
       <c r="R36" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
         <v>2321</v>
       </c>
       <c r="S36" s="5">
@@ -5016,299 +5188,303 @@
         <v>3331</v>
       </c>
       <c r="V36" s="5">
-        <f t="shared" ref="V36:AD36" si="92">V34-V35</f>
+        <f t="shared" ref="V36:AD36" si="99">V34-V35</f>
         <v>3468.7999999999984</v>
       </c>
       <c r="W36" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="99"/>
         <v>2513</v>
       </c>
       <c r="X36" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="99"/>
         <v>2703</v>
       </c>
       <c r="Y36" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="99"/>
         <v>1853</v>
       </c>
       <c r="Z36" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="99"/>
         <v>2176</v>
       </c>
       <c r="AA36" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="99"/>
         <v>1129</v>
       </c>
       <c r="AB36" s="5">
-        <f t="shared" si="92"/>
-        <v>1546.4953353198616</v>
+        <f t="shared" si="99"/>
+        <v>2100</v>
       </c>
       <c r="AC36" s="5">
-        <f t="shared" si="92"/>
-        <v>1231.8703110401104</v>
+        <f t="shared" si="99"/>
+        <v>1199.923399999999</v>
       </c>
       <c r="AD36" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="99"/>
         <v>1456.2837364785246</v>
       </c>
-      <c r="AP36" s="4">
-        <f>+AP34-AP35</f>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AT36" s="4">
+        <f>+AT34-AT35</f>
         <v>9245</v>
       </c>
-      <c r="AQ36" s="4">
-        <f t="shared" ref="AQ36:AU36" si="93">+AQ34-AQ35</f>
+      <c r="AU36" s="4">
+        <f t="shared" ref="AU36:AY36" si="100">+AU34-AU35</f>
         <v>11676.408632925322</v>
       </c>
-      <c r="AR36" s="4">
-        <f t="shared" si="93"/>
+      <c r="AV36" s="4">
+        <f t="shared" si="100"/>
         <v>19412.194690125929</v>
       </c>
-      <c r="AS36" s="4">
-        <f t="shared" si="93"/>
+      <c r="AW36" s="4">
+        <f t="shared" si="100"/>
         <v>27263.423290395203</v>
       </c>
-      <c r="AT36" s="4">
-        <f t="shared" si="93"/>
+      <c r="AX36" s="4">
+        <f t="shared" si="100"/>
         <v>35738.921424022636</v>
       </c>
-      <c r="AU36" s="4">
-        <f t="shared" si="93"/>
+      <c r="AY36" s="4">
+        <f t="shared" si="100"/>
         <v>46300.861689631798</v>
       </c>
-      <c r="AV36" s="4">
-        <f t="shared" ref="AV36" si="94">+AV34-AV35</f>
+      <c r="AZ36" s="4">
+        <f t="shared" ref="AZ36" si="101">+AZ34-AZ35</f>
         <v>56798.041614233087</v>
       </c>
-      <c r="AW36" s="4">
-        <f t="shared" ref="AW36" si="95">+AW34-AW35</f>
+      <c r="BA36" s="4">
+        <f t="shared" ref="BA36" si="102">+BA34-BA35</f>
         <v>66174.108744746816</v>
       </c>
-      <c r="AX36" s="4">
-        <f>AW36*(1+$AZ$43)</f>
+      <c r="BB36" s="4">
+        <f>BA36*(1+$BD$43)</f>
         <v>65512.36765729935</v>
       </c>
-      <c r="AY36" s="4">
-        <f t="shared" ref="AY36:DA36" si="96">AX36*(1+$AZ$43)</f>
+      <c r="BC36" s="4">
+        <f t="shared" ref="BC36:DE36" si="103">BB36*(1+$BD$43)</f>
         <v>64857.243980726358</v>
       </c>
-      <c r="AZ36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BD36" s="4">
+        <f t="shared" si="103"/>
         <v>64208.671540919095</v>
       </c>
-      <c r="BA36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BE36" s="4">
+        <f t="shared" si="103"/>
         <v>63566.584825509904</v>
       </c>
-      <c r="BB36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BF36" s="4">
+        <f t="shared" si="103"/>
         <v>62930.918977254805</v>
       </c>
-      <c r="BC36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BG36" s="4">
+        <f t="shared" si="103"/>
         <v>62301.609787482259</v>
       </c>
-      <c r="BD36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BH36" s="4">
+        <f t="shared" si="103"/>
         <v>61678.593689607434</v>
       </c>
-      <c r="BE36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BI36" s="4">
+        <f t="shared" si="103"/>
         <v>61061.807752711356</v>
       </c>
-      <c r="BF36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BJ36" s="4">
+        <f t="shared" si="103"/>
         <v>60451.189675184243</v>
       </c>
-      <c r="BG36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BK36" s="4">
+        <f t="shared" si="103"/>
         <v>59846.6777784324</v>
       </c>
-      <c r="BH36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BL36" s="4">
+        <f t="shared" si="103"/>
         <v>59248.211000648073</v>
       </c>
-      <c r="BI36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BM36" s="4">
+        <f t="shared" si="103"/>
         <v>58655.728890641592</v>
       </c>
-      <c r="BJ36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BN36" s="4">
+        <f t="shared" si="103"/>
         <v>58069.171601735179</v>
       </c>
-      <c r="BK36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BO36" s="4">
+        <f t="shared" si="103"/>
         <v>57488.479885717825</v>
       </c>
-      <c r="BL36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BP36" s="4">
+        <f t="shared" si="103"/>
         <v>56913.595086860645</v>
       </c>
-      <c r="BM36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BQ36" s="4">
+        <f t="shared" si="103"/>
         <v>56344.459135992038</v>
       </c>
-      <c r="BN36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BR36" s="4">
+        <f t="shared" si="103"/>
         <v>55781.014544632118</v>
       </c>
-      <c r="BO36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BS36" s="4">
+        <f t="shared" si="103"/>
         <v>55223.204399185794</v>
       </c>
-      <c r="BP36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BT36" s="4">
+        <f t="shared" si="103"/>
         <v>54670.972355193939</v>
       </c>
-      <c r="BQ36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BU36" s="4">
+        <f t="shared" si="103"/>
         <v>54124.262631641999</v>
       </c>
-      <c r="BR36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BV36" s="4">
+        <f t="shared" si="103"/>
         <v>53583.020005325576</v>
       </c>
-      <c r="BS36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BW36" s="4">
+        <f t="shared" si="103"/>
         <v>53047.189805272319</v>
       </c>
-      <c r="BT36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BX36" s="4">
+        <f t="shared" si="103"/>
         <v>52516.717907219594</v>
       </c>
-      <c r="BU36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BY36" s="4">
+        <f t="shared" si="103"/>
         <v>51991.550728147398</v>
       </c>
-      <c r="BV36" s="4">
-        <f t="shared" si="96"/>
+      <c r="BZ36" s="4">
+        <f t="shared" si="103"/>
         <v>51471.635220865923</v>
       </c>
-      <c r="BW36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CA36" s="4">
+        <f t="shared" si="103"/>
         <v>50956.91886865726</v>
       </c>
-      <c r="BX36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CB36" s="4">
+        <f t="shared" si="103"/>
         <v>50447.349679970685</v>
       </c>
-      <c r="BY36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CC36" s="4">
+        <f t="shared" si="103"/>
         <v>49942.876183170978</v>
       </c>
-      <c r="BZ36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CD36" s="4">
+        <f t="shared" si="103"/>
         <v>49443.447421339268</v>
       </c>
-      <c r="CA36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CE36" s="4">
+        <f t="shared" si="103"/>
         <v>48949.012947125877</v>
       </c>
-      <c r="CB36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CF36" s="4">
+        <f t="shared" si="103"/>
         <v>48459.522817654615</v>
       </c>
-      <c r="CC36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CG36" s="4">
+        <f t="shared" si="103"/>
         <v>47974.927589478066</v>
       </c>
-      <c r="CD36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CH36" s="4">
+        <f t="shared" si="103"/>
         <v>47495.178313583281</v>
       </c>
-      <c r="CE36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CI36" s="4">
+        <f t="shared" si="103"/>
         <v>47020.226530447449</v>
       </c>
-      <c r="CF36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CJ36" s="4">
+        <f t="shared" si="103"/>
         <v>46550.024265142973</v>
       </c>
-      <c r="CG36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CK36" s="4">
+        <f t="shared" si="103"/>
         <v>46084.52402249154</v>
       </c>
-      <c r="CH36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CL36" s="4">
+        <f t="shared" si="103"/>
         <v>45623.678782266623</v>
       </c>
-      <c r="CI36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CM36" s="4">
+        <f t="shared" si="103"/>
         <v>45167.441994443958</v>
       </c>
-      <c r="CJ36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CN36" s="4">
+        <f t="shared" si="103"/>
         <v>44715.767574499521</v>
       </c>
-      <c r="CK36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CO36" s="4">
+        <f t="shared" si="103"/>
         <v>44268.609898754527</v>
       </c>
-      <c r="CL36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CP36" s="4">
+        <f t="shared" si="103"/>
         <v>43825.923799766984</v>
       </c>
-      <c r="CM36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CQ36" s="4">
+        <f t="shared" si="103"/>
         <v>43387.664561769314</v>
       </c>
-      <c r="CN36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CR36" s="4">
+        <f t="shared" si="103"/>
         <v>42953.787916151618</v>
       </c>
-      <c r="CO36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CS36" s="4">
+        <f t="shared" si="103"/>
         <v>42524.250036990103</v>
       </c>
-      <c r="CP36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CT36" s="4">
+        <f t="shared" si="103"/>
         <v>42099.0075366202</v>
       </c>
-      <c r="CQ36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CU36" s="4">
+        <f t="shared" si="103"/>
         <v>41678.017461253999</v>
       </c>
-      <c r="CR36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CV36" s="4">
+        <f t="shared" si="103"/>
         <v>41261.237286641459</v>
       </c>
-      <c r="CS36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CW36" s="4">
+        <f t="shared" si="103"/>
         <v>40848.624913775042</v>
       </c>
-      <c r="CT36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CX36" s="4">
+        <f t="shared" si="103"/>
         <v>40440.138664637292</v>
       </c>
-      <c r="CU36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CY36" s="4">
+        <f t="shared" si="103"/>
         <v>40035.73727799092</v>
       </c>
-      <c r="CV36" s="4">
-        <f t="shared" si="96"/>
+      <c r="CZ36" s="4">
+        <f t="shared" si="103"/>
         <v>39635.379905211012</v>
       </c>
-      <c r="CW36" s="4">
-        <f t="shared" si="96"/>
+      <c r="DA36" s="4">
+        <f t="shared" si="103"/>
         <v>39239.026106158904</v>
       </c>
-      <c r="CX36" s="4">
-        <f t="shared" si="96"/>
+      <c r="DB36" s="4">
+        <f t="shared" si="103"/>
         <v>38846.635845097313</v>
       </c>
-      <c r="CY36" s="4">
-        <f t="shared" si="96"/>
+      <c r="DC36" s="4">
+        <f t="shared" si="103"/>
         <v>38458.169486646337</v>
       </c>
-      <c r="CZ36" s="4">
-        <f t="shared" si="96"/>
+      <c r="DD36" s="4">
+        <f t="shared" si="103"/>
         <v>38073.587791779872</v>
       </c>
-      <c r="DA36" s="4">
-        <f t="shared" si="96"/>
+      <c r="DE36" s="4">
+        <f t="shared" si="103"/>
         <v>37692.851913862076</v>
       </c>
     </row>
-    <row r="37" spans="2:105" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>54</v>
       </c>
@@ -5317,135 +5493,139 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3">
-        <f t="shared" ref="G37:K37" si="97">G36/G38</f>
+        <f t="shared" ref="G37:K37" si="104">G36/G38</f>
         <v>-0.76069364161849706</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="97"/>
+        <f t="shared" si="104"/>
         <v>-0.32881355932203388</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="97"/>
+        <f t="shared" si="104"/>
         <v>0.15509761388286333</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="97"/>
+        <f t="shared" si="104"/>
         <v>9.8913043478260868E-2</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="97"/>
+        <f t="shared" si="104"/>
         <v>1.7112299465240642E-2</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" ref="L37" si="98">L36/L38</f>
+        <f t="shared" ref="L37" si="105">L36/L38</f>
         <v>0.10048309178743961</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" ref="M37:O37" si="99">M36/M38</f>
+        <f t="shared" ref="M37:O37" si="106">M36/M38</f>
         <v>0.27149321266968324</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>0.2402135231316726</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>0.29744042365401591</v>
       </c>
       <c r="P37" s="3">
-        <f t="shared" ref="P37" si="100">P36/P38</f>
+        <f t="shared" ref="P37" si="107">P36/P38</f>
         <v>1.0411081322609472</v>
       </c>
       <c r="Q37" s="3">
-        <f t="shared" ref="Q37" si="101">Q36/Q38</f>
+        <f t="shared" ref="Q37" si="108">Q36/Q38</f>
         <v>1.4861976847729297</v>
       </c>
       <c r="R37" s="3">
-        <f t="shared" ref="R37" si="102">R36/R38</f>
+        <f t="shared" ref="R37" si="109">R36/R38</f>
         <v>2.044933920704846</v>
       </c>
       <c r="S37" s="3">
-        <f t="shared" ref="S37:U37" si="103">S36/S38</f>
+        <f t="shared" ref="S37:U37" si="110">S36/S38</f>
         <v>2.867761452031115</v>
       </c>
       <c r="T37" s="3">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>2.032900432900433</v>
       </c>
       <c r="U37" s="3">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>0.96049596309111884</v>
       </c>
       <c r="V37" s="3">
-        <f t="shared" ref="V37:AD37" si="104">V36/V38</f>
+        <f t="shared" ref="V37:AD37" si="111">V36/V38</f>
         <v>0.99936617689426632</v>
       </c>
       <c r="W37" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>0.7246251441753172</v>
       </c>
       <c r="X37" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>0.77717078780908566</v>
       </c>
       <c r="Y37" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>0.53048955052963065</v>
       </c>
       <c r="Z37" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>0.62313860252004583</v>
       </c>
       <c r="AA37" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>0.32405281285878301</v>
       </c>
       <c r="AB37" s="3">
-        <f t="shared" si="104"/>
-        <v>0.44388499865667669</v>
+        <f t="shared" si="111"/>
+        <v>0.60327492099971269</v>
       </c>
       <c r="AC37" s="3">
-        <f t="shared" si="104"/>
-        <v>0.35357930856489966</v>
+        <f t="shared" si="111"/>
+        <v>0.34470652111462197</v>
       </c>
       <c r="AD37" s="3">
-        <f t="shared" si="104"/>
-        <v>0.41799188762299788</v>
-      </c>
-      <c r="AP37" s="21">
-        <f>+AP36/AP38</f>
+        <f t="shared" si="111"/>
+        <v>0.41835212194154686</v>
+      </c>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AT37" s="20">
+        <f>+AT36/AT38</f>
         <v>2.6545115210681214</v>
       </c>
-      <c r="AQ37" s="21">
-        <f t="shared" ref="AQ37:AU37" si="105">+AQ36/AQ38</f>
+      <c r="AU37" s="20">
+        <f t="shared" ref="AU37:AY37" si="112">+AU36/AU38</f>
         <v>3.3526404803460834</v>
       </c>
-      <c r="AR37" s="21">
-        <f t="shared" si="105"/>
+      <c r="AV37" s="20">
+        <f t="shared" si="112"/>
         <v>5.5738122719477223</v>
       </c>
-      <c r="AS37" s="21">
-        <f t="shared" si="105"/>
+      <c r="AW37" s="20">
+        <f t="shared" si="112"/>
         <v>7.8281310143981635</v>
       </c>
-      <c r="AT37" s="21">
-        <f t="shared" si="105"/>
+      <c r="AX37" s="20">
+        <f t="shared" si="112"/>
         <v>10.261695908125084</v>
       </c>
-      <c r="AU37" s="21">
-        <f t="shared" si="105"/>
+      <c r="AY37" s="20">
+        <f t="shared" si="112"/>
         <v>13.294339728556974</v>
       </c>
-      <c r="AV37" s="21">
-        <f t="shared" ref="AV37" si="106">+AV36/AV38</f>
+      <c r="AZ37" s="20">
+        <f t="shared" ref="AZ37" si="113">+AZ36/AZ38</f>
         <v>16.30838894960393</v>
       </c>
-      <c r="AW37" s="21">
-        <f t="shared" ref="AW37" si="107">+AW36/AW38</f>
+      <c r="BA37" s="20">
+        <f t="shared" ref="BA37" si="114">+BA36/BA38</f>
         <v>19.000533700307749</v>
       </c>
     </row>
-    <row r="38" spans="2:105" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
         <v>1</v>
       </c>
@@ -5522,257 +5702,264 @@
         <v>3484</v>
       </c>
       <c r="AB38" s="5">
-        <f>+AA38</f>
-        <v>3484</v>
+        <v>3481</v>
       </c>
       <c r="AC38" s="5">
         <f>+AB38</f>
-        <v>3484</v>
+        <v>3481</v>
       </c>
       <c r="AD38" s="5">
         <f>+AC38</f>
-        <v>3484</v>
-      </c>
-      <c r="AP38" s="4">
+        <v>3481</v>
+      </c>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AT38" s="4">
         <f>AVERAGE(W38:Z38)</f>
         <v>3482.75</v>
       </c>
-      <c r="AQ38" s="4">
-        <f>AP38</f>
+      <c r="AU38" s="4">
+        <f>AT38</f>
         <v>3482.75</v>
       </c>
-      <c r="AR38" s="4">
-        <f t="shared" ref="AR38:AU38" si="108">AQ38</f>
+      <c r="AV38" s="4">
+        <f t="shared" ref="AV38:AY38" si="115">AU38</f>
         <v>3482.75</v>
       </c>
-      <c r="AS38" s="4">
-        <f t="shared" si="108"/>
+      <c r="AW38" s="4">
+        <f t="shared" si="115"/>
         <v>3482.75</v>
       </c>
-      <c r="AT38" s="4">
-        <f t="shared" si="108"/>
+      <c r="AX38" s="4">
+        <f t="shared" si="115"/>
         <v>3482.75</v>
       </c>
-      <c r="AU38" s="4">
-        <f t="shared" si="108"/>
+      <c r="AY38" s="4">
+        <f t="shared" si="115"/>
         <v>3482.75</v>
       </c>
-      <c r="AV38" s="4">
-        <f t="shared" ref="AV38:AW38" si="109">AU38</f>
+      <c r="AZ38" s="4">
+        <f t="shared" ref="AZ38:BA38" si="116">AY38</f>
         <v>3482.75</v>
       </c>
-      <c r="AW38" s="4">
-        <f t="shared" si="109"/>
+      <c r="BA38" s="4">
+        <f t="shared" si="116"/>
         <v>3482.75</v>
       </c>
     </row>
-    <row r="40" spans="2:105" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="25" t="s">
+    <row r="40" spans="2:109" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="23">
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="22">
         <f>K20/G20-1</f>
         <v>0.31799163179916312</v>
       </c>
-      <c r="L40" s="23">
-        <f t="shared" ref="L40" si="110">L20/H20-1</f>
+      <c r="L40" s="22">
+        <f t="shared" ref="L40" si="117">L20/H20-1</f>
         <v>-4.9448818897637747E-2</v>
       </c>
-      <c r="M40" s="23">
-        <f t="shared" ref="M40" si="111">M20/I20-1</f>
+      <c r="M40" s="22">
+        <f t="shared" ref="M40" si="118">M20/I20-1</f>
         <v>0.39155957480564818</v>
       </c>
-      <c r="N40" s="23">
-        <f t="shared" ref="N40" si="112">N20/J20-1</f>
+      <c r="N40" s="22">
+        <f t="shared" ref="N40" si="119">N20/J20-1</f>
         <v>0.45503791982665232</v>
       </c>
-      <c r="O40" s="23">
-        <f t="shared" ref="O40" si="113">O20/K20-1</f>
+      <c r="O40" s="22">
+        <f t="shared" ref="O40" si="120">O20/K20-1</f>
         <v>0.73583959899749374</v>
       </c>
-      <c r="P40" s="23">
-        <f t="shared" ref="P40:Q40" si="114">P20/L20-1</f>
+      <c r="P40" s="22">
+        <f t="shared" ref="P40:Q40" si="121">P20/L20-1</f>
         <v>0.98111332007952279</v>
       </c>
-      <c r="Q40" s="23">
-        <f t="shared" si="114"/>
+      <c r="Q40" s="22">
+        <f t="shared" si="121"/>
         <v>0.56846425721126437</v>
       </c>
-      <c r="R40" s="23">
-        <f t="shared" ref="R40:S40" si="115">R20/N20-1</f>
+      <c r="R40" s="22">
+        <f t="shared" ref="R40:S40" si="122">R20/N20-1</f>
         <v>0.64919955323901712</v>
       </c>
-      <c r="S40" s="23">
-        <f t="shared" si="115"/>
+      <c r="S40" s="22">
+        <f t="shared" si="122"/>
         <v>0.80537106555010096</v>
       </c>
-      <c r="T40" s="23">
+      <c r="T40" s="22">
         <f>T20/P20-1</f>
         <v>0.41612309750794441</v>
       </c>
-      <c r="U40" s="23">
+      <c r="U40" s="22">
         <f>U20/Q20-1</f>
         <v>0.55949698335392894</v>
       </c>
-      <c r="V40" s="23">
+      <c r="V40" s="22">
         <f>V20/R20-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="W40" s="23">
-        <f t="shared" ref="W40:AD40" si="116">W20/S20-1</f>
+      <c r="W40" s="22">
+        <f t="shared" ref="W40:AD40" si="123">W20/S20-1</f>
         <v>0.24381531243335464</v>
       </c>
-      <c r="X40" s="23">
-        <f t="shared" si="116"/>
+      <c r="X40" s="22">
+        <f t="shared" si="123"/>
         <v>0.47200897602456604</v>
       </c>
-      <c r="Y40" s="23">
-        <f t="shared" si="116"/>
+      <c r="Y40" s="22">
+        <f t="shared" si="123"/>
         <v>8.8375128181224838E-2</v>
       </c>
-      <c r="Z40" s="23">
-        <f t="shared" si="116"/>
+      <c r="Z40" s="22">
+        <f t="shared" si="123"/>
         <v>1.452839163770947E-2</v>
       </c>
-      <c r="AA40" s="23">
-        <f t="shared" si="116"/>
+      <c r="AA40" s="22">
+        <f t="shared" si="123"/>
         <v>-8.6930429936988296E-2</v>
       </c>
-      <c r="AB40" s="23">
-        <f t="shared" si="116"/>
-        <v>0.13406324310983453</v>
-      </c>
-      <c r="AC40" s="23">
-        <f t="shared" si="116"/>
-        <v>0.12948976125628553</v>
-      </c>
-      <c r="AD40" s="23">
-        <f t="shared" si="116"/>
+      <c r="AB40" s="22">
+        <f t="shared" si="123"/>
+        <v>2.2987122397400306E-2</v>
+      </c>
+      <c r="AC40" s="22">
+        <f t="shared" si="123"/>
+        <v>0.14221391862955057</v>
+      </c>
+      <c r="AD40" s="22">
+        <f t="shared" si="123"/>
         <v>0.13521798932415607</v>
       </c>
-      <c r="AG40" s="27">
-        <f t="shared" ref="AG40:AI40" si="117">AG20/AF20-1</f>
+      <c r="AE40" s="22"/>
+      <c r="AF40" s="22"/>
+      <c r="AG40" s="22"/>
+      <c r="AH40" s="22"/>
+      <c r="AK40" s="26">
+        <f t="shared" ref="AK40:AM40" si="124">AK20/AJ20-1</f>
         <v>0.58845907814070664</v>
       </c>
-      <c r="AH40" s="27">
-        <f t="shared" si="117"/>
+      <c r="AL40" s="26">
+        <f t="shared" si="124"/>
         <v>0.26503272306147285</v>
       </c>
-      <c r="AI40" s="27">
-        <f t="shared" si="117"/>
+      <c r="AM40" s="26">
+        <f t="shared" si="124"/>
         <v>0.73012574069611524</v>
       </c>
-      <c r="AJ40" s="27">
-        <f>AJ20/AI20-1</f>
+      <c r="AN40" s="26">
+        <f>AN20/AM20-1</f>
         <v>0.67978989539054413</v>
       </c>
-      <c r="AK40" s="27">
-        <f>AK20/AJ20-1</f>
+      <c r="AO40" s="26">
+        <f>AO20/AN20-1</f>
         <v>0.82513159773516764</v>
       </c>
-      <c r="AL40" s="27">
-        <f>AL20/AK20-1</f>
+      <c r="AP40" s="26">
+        <f>AP20/AO20-1</f>
         <v>0.14522590184326489</v>
       </c>
-      <c r="AM40" s="27">
-        <f>+AM20/AL20-1</f>
+      <c r="AQ40" s="26">
+        <f>+AQ20/AP20-1</f>
         <v>0.28309870615998056</v>
       </c>
-      <c r="AN40" s="27">
-        <f>+AN20/AM20-1</f>
+      <c r="AR40" s="26">
+        <f>+AR20/AQ20-1</f>
         <v>0.70671613394216126</v>
       </c>
-      <c r="AO40" s="27">
-        <f>+AO20/AN20-1</f>
+      <c r="AS40" s="26">
+        <f>+AS20/AR20-1</f>
         <v>0.52259442989056737</v>
       </c>
-      <c r="AP40" s="27">
-        <f>+AP20/AO20-1</f>
+      <c r="AT40" s="26">
+        <f>+AT20/AS20-1</f>
         <v>0.18086993871917945</v>
       </c>
-      <c r="AQ40" s="27">
-        <f t="shared" ref="AQ40:AU40" si="118">+AQ20/AP20-1</f>
+      <c r="AU40" s="26">
+        <f t="shared" ref="AU40:AY40" si="125">+AU20/AT20-1</f>
         <v>0.18602629663740111</v>
       </c>
-      <c r="AR40" s="27">
-        <f t="shared" si="118"/>
+      <c r="AV40" s="26">
+        <f t="shared" si="125"/>
         <v>0.33900000000000019</v>
       </c>
-      <c r="AS40" s="27">
-        <f t="shared" si="118"/>
+      <c r="AW40" s="26">
+        <f t="shared" si="125"/>
         <v>0.28749999999999987</v>
       </c>
-      <c r="AT40" s="27">
-        <f t="shared" si="118"/>
+      <c r="AX40" s="26">
+        <f t="shared" si="125"/>
         <v>0.23599999999999999</v>
       </c>
-      <c r="AU40" s="27">
-        <f t="shared" si="118"/>
+      <c r="AY40" s="26">
+        <f t="shared" si="125"/>
         <v>0.23600000000000021</v>
       </c>
-      <c r="AV40" s="27">
-        <f t="shared" ref="AV40:AW40" si="119">+AV20/AU20-1</f>
+      <c r="AZ40" s="26">
+        <f t="shared" ref="AZ40:BA40" si="126">+AZ20/AY20-1</f>
         <v>0.18449999999999966</v>
       </c>
-      <c r="AW40" s="27">
-        <f t="shared" si="119"/>
+      <c r="BA40" s="26">
+        <f t="shared" si="126"/>
         <v>0.13300000000000023</v>
       </c>
     </row>
-    <row r="41" spans="2:105" x14ac:dyDescent="0.15">
-      <c r="B41" s="22" t="s">
+    <row r="41" spans="2:109" x14ac:dyDescent="0.2">
+      <c r="B41" s="21" t="s">
         <v>92</v>
       </c>
       <c r="K41" s="17">
-        <f t="shared" ref="K41" si="120">+K5/G5-1</f>
+        <f t="shared" ref="K41" si="127">+K5/G5-1</f>
         <v>0.40427490122026688</v>
       </c>
       <c r="L41" s="17">
-        <f t="shared" ref="L41" si="121">+L5/H5-1</f>
+        <f t="shared" ref="L41" si="128">+L5/H5-1</f>
         <v>-4.9351902344897058E-2</v>
       </c>
       <c r="M41" s="17">
-        <f t="shared" ref="M41" si="122">+M5/I5-1</f>
+        <f t="shared" ref="M41" si="129">+M5/I5-1</f>
         <v>0.43333401930319182</v>
       </c>
       <c r="N41" s="17">
-        <f t="shared" ref="N41" si="123">+N5/J5-1</f>
+        <f t="shared" ref="N41" si="130">+N5/J5-1</f>
         <v>0.61086578348722065</v>
       </c>
       <c r="O41" s="17">
-        <f t="shared" ref="O41" si="124">+O5/K5-1</f>
+        <f t="shared" ref="O41" si="131">+O5/K5-1</f>
         <v>1.088229976496113</v>
       </c>
       <c r="P41" s="17">
-        <f t="shared" ref="P41" si="125">+P5/L5-1</f>
+        <f t="shared" ref="P41" si="132">+P5/L5-1</f>
         <v>1.2200772200772199</v>
       </c>
       <c r="Q41" s="17">
-        <f t="shared" ref="Q41" si="126">+Q5/M5-1</f>
+        <f t="shared" ref="Q41" si="133">+Q5/M5-1</f>
         <v>0.73223259152907394</v>
       </c>
       <c r="R41" s="17">
-        <f t="shared" ref="R41:U41" si="127">+R5/N5-1</f>
+        <f t="shared" ref="R41:U41" si="134">+R5/N5-1</f>
         <v>0.70903250816857732</v>
       </c>
       <c r="S41" s="17">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>0.67774891774891777</v>
       </c>
       <c r="T41" s="17">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>0.26556521739130434</v>
       </c>
       <c r="U41" s="17">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>0.42490675507666809</v>
       </c>
       <c r="V41" s="17">
@@ -5784,220 +5971,237 @@
         <v>0.36390171844359576</v>
       </c>
       <c r="X41" s="17">
-        <f t="shared" ref="X41:AD41" si="128">+X5/T5-1</f>
+        <f t="shared" ref="X41:AD41" si="135">+X5/T5-1</f>
         <v>0.83018904964761764</v>
       </c>
       <c r="Y41" s="17">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>0.26533170462146982</v>
       </c>
       <c r="Z41" s="17">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>0.19549297025745282</v>
       </c>
       <c r="AA41" s="17">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>-8.5285249778303318E-2</v>
       </c>
       <c r="AB41" s="17">
-        <f t="shared" si="128"/>
-        <v>0.10824859484275118</v>
+        <f t="shared" si="135"/>
+        <v>-4.7590852533573647E-2</v>
       </c>
       <c r="AC41" s="17">
-        <f t="shared" si="128"/>
-        <v>0.10734842860393656</v>
+        <f t="shared" si="135"/>
+        <v>7.147260486508733E-2</v>
       </c>
       <c r="AD41" s="17">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>0.10948139036174909</v>
       </c>
-      <c r="AM41" s="28">
-        <f>+AM5/AL5-1</f>
+      <c r="AE41" s="17"/>
+      <c r="AF41" s="17"/>
+      <c r="AG41" s="17"/>
+      <c r="AH41" s="17"/>
+      <c r="AQ41" s="27">
+        <f>+AQ5/AP5-1</f>
         <v>0.35729051069477991</v>
       </c>
-      <c r="AN41" s="28">
-        <f>+AN5/AM5-1</f>
+      <c r="AR41" s="27">
+        <f>+AR5/AQ5-1</f>
         <v>0.87559116340959009</v>
       </c>
-      <c r="AO41" s="28">
-        <f>+AO5/AN5-1</f>
+      <c r="AS41" s="27">
+        <f>+AS5/AR5-1</f>
         <v>0.403761953095785</v>
       </c>
-      <c r="AP41" s="28">
-        <f t="shared" ref="AP41" si="129">+AP5/AO5-1</f>
+      <c r="AT41" s="27">
+        <f t="shared" ref="AT41" si="136">+AT5/AS5-1</f>
         <v>0.37654954785588313</v>
       </c>
-      <c r="AQ41" s="28">
-        <f t="shared" ref="AQ41" si="130">+AQ5/AP5-1</f>
-        <v>6.3111024609901367E-2</v>
-      </c>
-      <c r="AR41" s="28">
-        <f t="shared" ref="AR41" si="131">+AR5/AQ5-1</f>
-        <v>0.62517870312427859</v>
-      </c>
-      <c r="AS41" s="28">
-        <f t="shared" ref="AS41" si="132">+AS5/AR5-1</f>
+      <c r="AU41" s="27">
+        <f t="shared" ref="AU41" si="137">+AU5/AT5-1</f>
+        <v>1.3293432807267136E-2</v>
+      </c>
+      <c r="AV41" s="27">
+        <f t="shared" ref="AV41" si="138">+AV5/AU5-1</f>
+        <v>0.70507904256916976</v>
+      </c>
+      <c r="AW41" s="27">
+        <f t="shared" ref="AW41" si="139">+AW5/AV5-1</f>
         <v>0.25</v>
       </c>
-      <c r="AT41" s="28">
-        <f t="shared" ref="AT41" si="133">+AT5/AS5-1</f>
+      <c r="AX41" s="27">
+        <f t="shared" ref="AX41" si="140">+AX5/AW5-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AU41" s="28">
-        <f t="shared" ref="AU41" si="134">+AU5/AT5-1</f>
+      <c r="AY41" s="27">
+        <f t="shared" ref="AY41" si="141">+AY5/AX5-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AV41" s="28">
-        <f t="shared" ref="AV41" si="135">+AV5/AU5-1</f>
+      <c r="AZ41" s="27">
+        <f t="shared" ref="AZ41" si="142">+AZ5/AY5-1</f>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AW41" s="28">
-        <f t="shared" ref="AW41" si="136">+AW5/AV5-1</f>
+      <c r="BA41" s="27">
+        <f t="shared" ref="BA41" si="143">+BA5/AZ5-1</f>
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="42" spans="2:105" x14ac:dyDescent="0.15">
-      <c r="B42" s="22" t="s">
+    <row r="42" spans="2:109" x14ac:dyDescent="0.2">
+      <c r="B42" s="21" t="s">
         <v>93</v>
       </c>
       <c r="K42" s="17">
-        <f t="shared" ref="K42" si="137">+K10/G10-1</f>
+        <f t="shared" ref="K42" si="144">+K10/G10-1</f>
         <v>0.33101713811610356</v>
       </c>
       <c r="L42" s="17">
-        <f t="shared" ref="L42" si="138">+L10/H10-1</f>
+        <f t="shared" ref="L42" si="145">+L10/H10-1</f>
         <v>-5.4866280672732248E-2</v>
       </c>
       <c r="M42" s="17">
-        <f t="shared" ref="M42" si="139">+M10/I10-1</f>
+        <f t="shared" ref="M42" si="146">+M10/I10-1</f>
         <v>0.50835629972440333</v>
       </c>
       <c r="N42" s="17">
-        <f t="shared" ref="N42" si="140">+N10/J10-1</f>
+        <f t="shared" ref="N42" si="147">+N10/J10-1</f>
         <v>0.71375046476818782</v>
       </c>
       <c r="O42" s="17">
-        <f t="shared" ref="O42" si="141">+O10/K10-1</f>
+        <f t="shared" ref="O42" si="148">+O10/K10-1</f>
         <v>0.75644771700171409</v>
       </c>
       <c r="P42" s="17">
-        <f t="shared" ref="P42" si="142">+P10/L10-1</f>
+        <f t="shared" ref="P42" si="149">+P10/L10-1</f>
         <v>1.5090067094515751</v>
       </c>
       <c r="Q42" s="17">
-        <f t="shared" ref="Q42" si="143">+Q10/M10-1</f>
+        <f t="shared" ref="Q42" si="150">+Q10/M10-1</f>
         <v>0.63975150996993846</v>
       </c>
       <c r="R42" s="17">
-        <f t="shared" ref="R42:W42" si="144">+R10/N10-1</f>
+        <f t="shared" ref="R42:W42" si="151">+R10/N10-1</f>
         <v>0.7014080119272128</v>
       </c>
       <c r="S42" s="17">
-        <f t="shared" si="144"/>
+        <f t="shared" si="151"/>
         <v>0.69352549102241356</v>
       </c>
       <c r="T42" s="17">
-        <f t="shared" si="144"/>
+        <f t="shared" si="151"/>
         <v>0.25268262434539124</v>
       </c>
       <c r="U42" s="17">
-        <f t="shared" si="144"/>
+        <f t="shared" si="151"/>
         <v>0.53863587626091669</v>
       </c>
       <c r="V42" s="17">
-        <f t="shared" si="144"/>
+        <f t="shared" si="151"/>
         <v>0.43768310227569973</v>
       </c>
       <c r="W42" s="17">
-        <f t="shared" si="144"/>
+        <f t="shared" si="151"/>
         <v>0.44334609226376598</v>
       </c>
       <c r="X42" s="17">
-        <f t="shared" ref="X42" si="145">+X10/T10-1</f>
+        <f t="shared" ref="X42" si="152">+X10/T10-1</f>
         <v>0.85513187408152214</v>
       </c>
       <c r="Y42" s="17">
-        <f t="shared" ref="Y42" si="146">+Y10/U10-1</f>
+        <f t="shared" ref="Y42" si="153">+Y10/U10-1</f>
         <v>0.17644422460462983</v>
       </c>
       <c r="Z42" s="17">
-        <f t="shared" ref="Z42" si="147">+Z10/V10-1</f>
+        <f t="shared" ref="Z42" si="154">+Z10/V10-1</f>
         <v>0.12573999149421988</v>
       </c>
       <c r="AA42" s="17">
-        <f t="shared" ref="AA42" si="148">+AA10/W10-1</f>
+        <f t="shared" ref="AA42:AD42" si="155">+AA10/W10-1</f>
         <v>-1.687129090216144E-2</v>
       </c>
-      <c r="AB42" s="17"/>
-      <c r="AC42" s="17"/>
-      <c r="AD42" s="17"/>
-      <c r="AM42" s="28">
-        <f t="shared" ref="AM42:AN42" si="149">+AM10/AL10-1</f>
+      <c r="AB42" s="17">
+        <f t="shared" si="155"/>
+        <v>-0.14356681259120285</v>
+      </c>
+      <c r="AC42" s="17">
+        <f t="shared" si="155"/>
+        <v>1.159813978554558E-2</v>
+      </c>
+      <c r="AD42" s="17">
+        <f t="shared" si="155"/>
+        <v>-1</v>
+      </c>
+      <c r="AE42" s="17"/>
+      <c r="AF42" s="17"/>
+      <c r="AG42" s="17"/>
+      <c r="AH42" s="17"/>
+      <c r="AQ42" s="27">
+        <f t="shared" ref="AQ42:AR42" si="156">+AQ10/AP10-1</f>
         <v>0.39565262627590125</v>
       </c>
-      <c r="AN42" s="28">
-        <f t="shared" si="149"/>
+      <c r="AR42" s="27">
+        <f t="shared" si="156"/>
         <v>0.8252981439448186</v>
       </c>
-      <c r="AO42" s="28">
-        <f>+AO10/AN10-1</f>
+      <c r="AS42" s="27">
+        <f>+AS10/AR10-1</f>
         <v>0.47203204567389845</v>
       </c>
-      <c r="AP42" s="28">
-        <f>+AP10/AO10-1</f>
+      <c r="AT42" s="27">
+        <f>+AT10/AS10-1</f>
         <v>0.35000000000000009</v>
       </c>
-      <c r="AQ42" s="28">
-        <f t="shared" ref="AQ42" si="150">+AQ10/AP10-1</f>
+      <c r="AU42" s="27">
+        <f t="shared" ref="AU42" si="157">+AU10/AT10-1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AR42" s="28">
-        <f t="shared" ref="AR42" si="151">+AR10/AQ10-1</f>
+      <c r="AV42" s="27">
+        <f t="shared" ref="AV42" si="158">+AV10/AU10-1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AS42" s="28">
-        <f t="shared" ref="AS42" si="152">+AS10/AR10-1</f>
+      <c r="AW42" s="27">
+        <f t="shared" ref="AW42" si="159">+AW10/AV10-1</f>
         <v>0.25</v>
       </c>
-      <c r="AT42" s="28">
-        <f t="shared" ref="AT42" si="153">+AT10/AS10-1</f>
+      <c r="AX42" s="27">
+        <f t="shared" ref="AX42" si="160">+AX10/AW10-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AU42" s="28">
-        <f t="shared" ref="AU42" si="154">+AU10/AT10-1</f>
+      <c r="AY42" s="27">
+        <f t="shared" ref="AY42" si="161">+AY10/AX10-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AV42" s="28">
-        <f t="shared" ref="AV42" si="155">+AV10/AU10-1</f>
+      <c r="AZ42" s="27">
+        <f t="shared" ref="AZ42" si="162">+AZ10/AY10-1</f>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AW42" s="28">
-        <f t="shared" ref="AW42" si="156">+AW10/AV10-1</f>
+      <c r="BA42" s="27">
+        <f t="shared" ref="BA42" si="163">+BA10/AZ10-1</f>
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="43" spans="2:105" x14ac:dyDescent="0.15">
-      <c r="B43" s="20" t="s">
+    <row r="43" spans="2:109" x14ac:dyDescent="0.2">
+      <c r="B43" s="19" t="s">
         <v>91</v>
       </c>
       <c r="K43" s="17">
-        <f t="shared" ref="K43:O43" si="157">K14/G14-1</f>
+        <f t="shared" ref="K43:O43" si="164">K14/G14-1</f>
         <v>0.39441436306640076</v>
       </c>
       <c r="L43" s="17">
-        <f t="shared" si="157"/>
+        <f t="shared" si="164"/>
         <v>-4.9729102167182626E-2</v>
       </c>
       <c r="M43" s="17">
-        <f t="shared" si="157"/>
+        <f t="shared" si="164"/>
         <v>0.43141075604053003</v>
       </c>
       <c r="N43" s="17">
-        <f t="shared" si="157"/>
+        <f t="shared" si="164"/>
         <v>0.4053394107113788</v>
       </c>
       <c r="O43" s="17">
-        <f t="shared" si="157"/>
+        <f t="shared" si="164"/>
         <v>0.67320662170447587</v>
       </c>
       <c r="P43" s="17">
@@ -6005,7 +6209,7 @@
         <v>0.9385053960496843</v>
       </c>
       <c r="Q43" s="17">
-        <f t="shared" ref="Q43" si="158">Q14/M14-1</f>
+        <f t="shared" ref="Q43" si="165">Q14/M14-1</f>
         <v>0.55091206098557044</v>
       </c>
       <c r="R43" s="17">
@@ -6013,19 +6217,19 @@
         <v>0.74041468782578468</v>
       </c>
       <c r="S43" s="17">
-        <f t="shared" ref="S43:U43" si="159">S14/O14-1</f>
+        <f t="shared" ref="S43:U43" si="166">S14/O14-1</f>
         <v>0.89495541712470983</v>
       </c>
       <c r="T43" s="17">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>0.43592436974789917</v>
       </c>
       <c r="U43" s="17">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>0.561046256473273</v>
       </c>
       <c r="V43" s="17">
-        <f t="shared" ref="V43" si="160">V14/R14-1</f>
+        <f t="shared" ref="V43" si="167">V14/R14-1</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="W43" s="17">
@@ -6033,42 +6237,46 @@
         <v>0.21683640582699493</v>
       </c>
       <c r="X43" s="17">
-        <f t="shared" ref="X43" si="161">X14/T14-1</f>
+        <f t="shared" ref="X43" si="168">X14/T14-1</f>
         <v>0.49370885149963417</v>
       </c>
       <c r="Y43" s="17">
-        <f t="shared" ref="Y43" si="162">Y14/U14-1</f>
+        <f t="shared" ref="Y43" si="169">Y14/U14-1</f>
         <v>4.4813044700590332E-2</v>
       </c>
       <c r="Z43" s="17">
-        <f t="shared" ref="Z43:AD43" si="163">Z14/V14-1</f>
+        <f t="shared" ref="Z43:AD43" si="170">Z14/V14-1</f>
         <v>-1.9253624910862799E-2</v>
       </c>
       <c r="AA43" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="170"/>
         <v>-0.12808560228837795</v>
       </c>
       <c r="AB43" s="17">
-        <f t="shared" si="163"/>
-        <v>0.16366102458488885</v>
+        <f t="shared" si="170"/>
+        <v>-9.2511876193741127E-2</v>
       </c>
       <c r="AC43" s="17">
-        <f t="shared" si="163"/>
-        <v>0.16271585003413347</v>
+        <f t="shared" si="170"/>
+        <v>7.8473522763965242E-2</v>
       </c>
       <c r="AD43" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="170"/>
         <v>0.16495545987983684</v>
       </c>
-      <c r="AY43" s="30" t="s">
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="17"/>
+      <c r="AG43" s="17"/>
+      <c r="AH43" s="17"/>
+      <c r="BC43" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="AZ43" s="28">
+      <c r="BD43" s="27">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="44" spans="2:105" x14ac:dyDescent="0.15">
-      <c r="B44" s="20" t="s">
+    <row r="44" spans="2:109" x14ac:dyDescent="0.2">
+      <c r="B44" s="19" t="s">
         <v>90</v>
       </c>
       <c r="C44" s="17"/>
@@ -6076,67 +6284,67 @@
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
       <c r="G44" s="17">
-        <f t="shared" ref="G44:K44" si="164">G22/G14</f>
+        <f t="shared" ref="G44:K44" si="171">G22/G14</f>
         <v>0.18609290396124251</v>
       </c>
       <c r="H44" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>0.17685758513931887</v>
       </c>
       <c r="I44" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>0.21784879189399844</v>
       </c>
       <c r="J44" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>0.21618101904606871</v>
       </c>
       <c r="K44" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>0.2440220723482526</v>
       </c>
       <c r="L44" s="17">
-        <f t="shared" ref="L44" si="165">L22/L14</f>
+        <f t="shared" ref="L44" si="172">L22/L14</f>
         <v>0.24373854612095297</v>
       </c>
       <c r="M44" s="17">
-        <f t="shared" ref="M44" si="166">M22/M14</f>
+        <f t="shared" ref="M44" si="173">M22/M14</f>
         <v>0.27021508303838826</v>
       </c>
       <c r="N44" s="17">
-        <f t="shared" ref="N44:U44" si="167">N22/N14</f>
+        <f t="shared" ref="N44:U44" si="174">N22/N14</f>
         <v>0.19819298042395458</v>
       </c>
       <c r="O44" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>0.21131061438866497</v>
       </c>
       <c r="P44" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>0.25220588235294117</v>
       </c>
       <c r="Q44" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>0.28464846835776353</v>
       </c>
       <c r="R44" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>0.28858569051580701</v>
       </c>
       <c r="S44" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>0.29650638133298957</v>
       </c>
       <c r="T44" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>0.25727871250914414</v>
       </c>
       <c r="U44" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>0.26348046106269329</v>
       </c>
       <c r="V44" s="17">
-        <f t="shared" ref="V44:AD44" si="168">V22/V14</f>
+        <f t="shared" ref="V44:AD44" si="175">V22/V14</f>
         <v>0.26631804135963871</v>
       </c>
       <c r="W44" s="17">
@@ -6144,62 +6352,66 @@
         <v>0.1830702404915775</v>
       </c>
       <c r="X44" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="175"/>
         <v>0.17522895342573094</v>
       </c>
       <c r="Y44" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="175"/>
         <v>0.15746421267893659</v>
       </c>
       <c r="Z44" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="175"/>
         <v>0.16616577799321378</v>
       </c>
       <c r="AA44" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="175"/>
         <v>0.15571081409477522</v>
       </c>
       <c r="AB44" s="17">
-        <f t="shared" si="168"/>
-        <v>0.15000000000000005</v>
+        <f t="shared" si="175"/>
+        <v>0.13858607663248787</v>
       </c>
       <c r="AC44" s="17">
-        <f t="shared" si="168"/>
-        <v>0.14999999999999994</v>
+        <f t="shared" si="175"/>
+        <v>0.14999999999999997</v>
       </c>
       <c r="AD44" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="175"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="AM44" s="17">
-        <f t="shared" ref="AM44:AQ44" si="169">AM22/AM14</f>
+      <c r="AE44" s="17"/>
+      <c r="AF44" s="17"/>
+      <c r="AG44" s="17"/>
+      <c r="AH44" s="17"/>
+      <c r="AQ44" s="17">
+        <f t="shared" ref="AQ44:AU44" si="176">AQ22/AQ14</f>
         <v>0</v>
       </c>
-      <c r="AN44" s="17">
-        <f t="shared" si="169"/>
+      <c r="AR44" s="17">
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AO44" s="17">
-        <f t="shared" si="169"/>
+      <c r="AS44" s="17">
+        <f t="shared" si="176"/>
         <v>0.27064584436209632</v>
       </c>
-      <c r="AP44" s="17">
-        <f t="shared" si="169"/>
+      <c r="AT44" s="17">
+        <f t="shared" si="176"/>
         <v>0.17052821969455731</v>
       </c>
-      <c r="AQ44" s="17">
-        <f t="shared" si="169"/>
+      <c r="AU44" s="17">
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AY44" s="30" t="s">
+      <c r="BC44" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="AZ44" s="32">
+      <c r="BD44" s="31">
         <v>0.08</v>
       </c>
     </row>
-    <row r="45" spans="2:105" x14ac:dyDescent="0.15">
-      <c r="B45" s="20" t="s">
+    <row r="45" spans="2:109" x14ac:dyDescent="0.2">
+      <c r="B45" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="17"/>
@@ -6207,31 +6419,31 @@
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17">
-        <f t="shared" ref="G45:K45" si="170">+G28/G20</f>
+        <f t="shared" ref="G45:K45" si="177">+G28/G20</f>
         <v>0.1246421493063202</v>
       </c>
       <c r="H45" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="177"/>
         <v>0.14503937007874015</v>
       </c>
       <c r="I45" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="177"/>
         <v>0.18895763921941933</v>
       </c>
       <c r="J45" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="177"/>
         <v>0.18838028169014084</v>
       </c>
       <c r="K45" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="177"/>
         <v>0.20618212197159566</v>
       </c>
       <c r="L45" s="17">
-        <f t="shared" ref="L45" si="171">+L28/L20</f>
+        <f t="shared" ref="L45" si="178">+L28/L20</f>
         <v>0.20990722332670642</v>
       </c>
       <c r="M45" s="17">
-        <f t="shared" ref="M45" si="172">+M28/M20</f>
+        <f t="shared" ref="M45" si="179">+M28/M20</f>
         <v>0.23520693193478509</v>
       </c>
       <c r="N45" s="17">
@@ -6239,98 +6451,102 @@
         <v>0.19229337304542071</v>
       </c>
       <c r="O45" s="17">
-        <f t="shared" ref="O45:AD45" si="173">+O28/O20</f>
+        <f t="shared" ref="O45:AD45" si="180">+O28/O20</f>
         <v>0.21320627586870727</v>
       </c>
       <c r="P45" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="180"/>
         <v>0.24117745442381669</v>
       </c>
       <c r="Q45" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="180"/>
         <v>0.26604637639020134</v>
       </c>
       <c r="R45" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="180"/>
         <v>0.27354816863254133</v>
       </c>
       <c r="S45" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="180"/>
         <v>0.29110684580934099</v>
       </c>
       <c r="T45" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="180"/>
         <v>0.24997047360340144</v>
       </c>
       <c r="U45" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="180"/>
         <v>0.25086231005873033</v>
       </c>
       <c r="V45" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="180"/>
         <v>0.25257794296679104</v>
       </c>
       <c r="W45" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="180"/>
         <v>0.19336448197522396</v>
       </c>
       <c r="X45" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="180"/>
         <v>0.18185100493440848</v>
       </c>
       <c r="Y45" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="180"/>
         <v>0.17892933618843684</v>
       </c>
       <c r="Z45" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="180"/>
         <v>0.17634203520483172</v>
       </c>
       <c r="AA45" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="180"/>
         <v>0.1735129806112389</v>
       </c>
       <c r="AB45" s="17">
-        <f t="shared" si="173"/>
-        <v>0.15142206276448977</v>
+        <f t="shared" si="180"/>
+        <v>0.17952941176470588</v>
       </c>
       <c r="AC45" s="17">
-        <f t="shared" si="173"/>
-        <v>0.15906968057651291</v>
+        <f t="shared" si="180"/>
+        <v>0.15580037378103564</v>
       </c>
       <c r="AD45" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="180"/>
         <v>0.15511900037130005</v>
       </c>
-      <c r="AM45" s="17">
-        <f t="shared" ref="AM45:AQ45" si="174">+AM28/AM20</f>
+      <c r="AE45" s="17"/>
+      <c r="AF45" s="17"/>
+      <c r="AG45" s="17"/>
+      <c r="AH45" s="17"/>
+      <c r="AQ45" s="17">
+        <f t="shared" ref="AQ45:AU45" si="181">+AQ28/AQ20</f>
         <v>0</v>
       </c>
-      <c r="AN45" s="17">
-        <f t="shared" si="174"/>
+      <c r="AR45" s="17">
+        <f t="shared" si="181"/>
         <v>0</v>
       </c>
-      <c r="AO45" s="17">
-        <f t="shared" si="174"/>
+      <c r="AS45" s="17">
+        <f t="shared" si="181"/>
         <v>0.25</v>
       </c>
-      <c r="AP45" s="17">
-        <f t="shared" si="174"/>
+      <c r="AT45" s="17">
+        <f t="shared" si="181"/>
         <v>0.18248891736331416</v>
       </c>
-      <c r="AQ45" s="17">
-        <f t="shared" si="174"/>
+      <c r="AU45" s="17">
+        <f t="shared" si="181"/>
         <v>0.18999999999999992</v>
       </c>
-      <c r="AY45" s="30" t="s">
+      <c r="BC45" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="AZ45" s="4">
-        <f>NPV(AZ44,AQ36:DA36)+Main!K5-Main!K6</f>
-        <v>620317.01090449432</v>
-      </c>
-    </row>
-    <row r="46" spans="2:105" x14ac:dyDescent="0.15">
+      <c r="BD45" s="4">
+        <f>NPV(BD44,AU36:DE36)+Main!K5-Main!K6</f>
+        <v>625738.01090449432</v>
+      </c>
+    </row>
+    <row r="46" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B46" s="15"/>
       <c r="R46" s="17"/>
       <c r="S46" s="17"/>
@@ -6345,23 +6561,27 @@
       <c r="AB46" s="17"/>
       <c r="AC46" s="17"/>
       <c r="AD46" s="17"/>
-      <c r="AY46" s="30" t="s">
+      <c r="AE46" s="17"/>
+      <c r="AF46" s="17"/>
+      <c r="AG46" s="17"/>
+      <c r="AH46" s="17"/>
+      <c r="BC46" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="AZ46" s="28">
+      <c r="BD46" s="27">
         <v>0.03</v>
       </c>
     </row>
-    <row r="47" spans="2:105" x14ac:dyDescent="0.15">
-      <c r="AY47" s="30" t="s">
+    <row r="47" spans="2:109" x14ac:dyDescent="0.2">
+      <c r="BC47" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="AZ47" s="21">
-        <f>AZ45/Main!K3</f>
-        <v>196.4425713931239</v>
-      </c>
-    </row>
-    <row r="48" spans="2:105" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="BD47" s="20">
+        <f>BD45/Main!K3</f>
+        <v>195.871187244244</v>
+      </c>
+    </row>
+    <row r="48" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
         <v>55</v>
       </c>
@@ -6376,27 +6596,27 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5">
-        <f t="shared" ref="M48:R48" si="175">M36</f>
+        <f t="shared" ref="M48:R48" si="182">M36</f>
         <v>300</v>
       </c>
       <c r="N48" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="182"/>
         <v>270</v>
       </c>
       <c r="O48" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="182"/>
         <v>337</v>
       </c>
       <c r="P48" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="182"/>
         <v>1165</v>
       </c>
       <c r="Q48" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="182"/>
         <v>1669</v>
       </c>
       <c r="R48" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="182"/>
         <v>2321</v>
       </c>
       <c r="S48" s="5">
@@ -6412,47 +6632,51 @@
         <v>3331</v>
       </c>
       <c r="V48" s="5">
-        <f t="shared" ref="V48:AD48" si="176">V36</f>
+        <f t="shared" ref="V48:AD48" si="183">V36</f>
         <v>3468.7999999999984</v>
       </c>
       <c r="W48" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="183"/>
         <v>2513</v>
       </c>
       <c r="X48" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="183"/>
         <v>2703</v>
       </c>
       <c r="Y48" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="183"/>
         <v>1853</v>
       </c>
       <c r="Z48" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="183"/>
         <v>2176</v>
       </c>
       <c r="AA48" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="183"/>
         <v>1129</v>
       </c>
       <c r="AB48" s="5">
-        <f t="shared" si="176"/>
-        <v>1546.4953353198616</v>
+        <f t="shared" si="183"/>
+        <v>2100</v>
       </c>
       <c r="AC48" s="5">
-        <f t="shared" si="176"/>
-        <v>1231.8703110401104</v>
+        <f>AC36</f>
+        <v>1199.923399999999</v>
       </c>
       <c r="AD48" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="183"/>
         <v>1456.2837364785246</v>
       </c>
-      <c r="AZ48" s="28">
-        <f>AZ47/Main!K2-1</f>
-        <v>0.11615097382456763</v>
-      </c>
-    </row>
-    <row r="49" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="BD48" s="27">
+        <f>BD47/Main!K2-1</f>
+        <v>3.0900985496020938E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
         <v>56</v>
       </c>
@@ -6513,8 +6737,12 @@
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
       <c r="AD49" s="5"/>
-    </row>
-    <row r="50" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
+    </row>
+    <row r="50" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>57</v>
       </c>
@@ -6575,8 +6803,12 @@
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
-    </row>
-    <row r="51" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="5"/>
+      <c r="AH50" s="5"/>
+    </row>
+    <row r="51" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>58</v>
       </c>
@@ -6637,8 +6869,12 @@
       <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
-    </row>
-    <row r="52" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="5"/>
+    </row>
+    <row r="52" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>59</v>
       </c>
@@ -6677,8 +6913,12 @@
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
-    </row>
-    <row r="53" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="5"/>
+    </row>
+    <row r="53" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="10" t="s">
         <v>80</v>
       </c>
@@ -6742,8 +6982,12 @@
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
-    </row>
-    <row r="54" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="5"/>
+    </row>
+    <row r="54" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
         <v>60</v>
       </c>
@@ -6782,9 +7026,13 @@
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
-    </row>
-    <row r="55" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="19" t="s">
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+    </row>
+    <row r="55" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="18" t="s">
         <v>69</v>
       </c>
       <c r="C55" s="5"/>
@@ -6820,8 +7068,12 @@
       <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
-    </row>
-    <row r="56" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5"/>
+      <c r="AG55" s="5"/>
+      <c r="AH55" s="5"/>
+    </row>
+    <row r="56" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
         <v>61</v>
       </c>
@@ -6883,8 +7135,12 @@
       <c r="AB56" s="5"/>
       <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
-    </row>
-    <row r="57" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="5"/>
+    </row>
+    <row r="57" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
         <v>62</v>
       </c>
@@ -6900,66 +7156,72 @@
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5">
-        <f t="shared" ref="N57:R57" si="177">SUM(N49:N56)</f>
+        <f t="shared" ref="N57:R57" si="184">SUM(N49:N56)</f>
         <v>3019</v>
       </c>
       <c r="O57" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="184"/>
         <v>1641</v>
       </c>
       <c r="P57" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="184"/>
         <v>2124</v>
       </c>
       <c r="Q57" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="184"/>
         <v>3147</v>
       </c>
       <c r="R57" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="184"/>
         <v>4585</v>
       </c>
       <c r="S57" s="5">
-        <f>SUM(S49:S56)</f>
+        <f t="shared" ref="S57:AA57" si="185">SUM(S49:S56)</f>
         <v>3995</v>
       </c>
       <c r="T57" s="5">
-        <f>SUM(T49:T56)</f>
+        <f t="shared" si="185"/>
         <v>2351</v>
       </c>
       <c r="U57" s="5">
-        <f>SUM(U49:U56)</f>
+        <f t="shared" si="185"/>
         <v>5100</v>
       </c>
       <c r="V57" s="5">
-        <f>SUM(V49:V56)</f>
+        <f t="shared" si="185"/>
         <v>3278</v>
       </c>
       <c r="W57" s="5">
-        <f>SUM(W49:W56)</f>
+        <f t="shared" si="185"/>
         <v>2513</v>
       </c>
       <c r="X57" s="5">
-        <f>SUM(X49:X56)</f>
+        <f t="shared" si="185"/>
         <v>3065</v>
       </c>
       <c r="Y57" s="5">
-        <f>SUM(Y49:Y56)</f>
+        <f t="shared" si="185"/>
         <v>3308</v>
       </c>
       <c r="Z57" s="5">
-        <f>SUM(Z49:Z56)</f>
+        <f t="shared" si="185"/>
         <v>4370</v>
       </c>
       <c r="AA57" s="5">
-        <f>SUM(AA49:AA56)</f>
+        <f t="shared" si="185"/>
         <v>242</v>
       </c>
-      <c r="AB57" s="5"/>
+      <c r="AB57" s="5">
+        <v>3612</v>
+      </c>
       <c r="AC57" s="5"/>
       <c r="AD57" s="5"/>
-    </row>
-    <row r="58" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5"/>
+      <c r="AG57" s="5"/>
+      <c r="AH57" s="5"/>
+    </row>
+    <row r="58" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -6988,8 +7250,12 @@
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
       <c r="AD58" s="5"/>
-    </row>
-    <row r="59" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+      <c r="AG58" s="5"/>
+      <c r="AH58" s="5"/>
+    </row>
+    <row r="59" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
         <v>81</v>
       </c>
@@ -7048,11 +7314,17 @@
       <c r="AA59" s="5">
         <v>2773</v>
       </c>
-      <c r="AB59" s="5"/>
+      <c r="AB59" s="5">
+        <v>2270</v>
+      </c>
       <c r="AC59" s="5"/>
       <c r="AD59" s="5"/>
-    </row>
-    <row r="60" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="5"/>
+      <c r="AG59" s="5"/>
+      <c r="AH59" s="5"/>
+    </row>
+    <row r="60" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="10" t="s">
         <v>82</v>
       </c>
@@ -7072,62 +7344,69 @@
         <v>1868</v>
       </c>
       <c r="O60" s="5">
-        <f t="shared" ref="O60:R60" si="178">O57-O59</f>
+        <f t="shared" ref="O60:R60" si="186">O57-O59</f>
         <v>293</v>
       </c>
       <c r="P60" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="186"/>
         <v>619</v>
       </c>
       <c r="Q60" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="186"/>
         <v>1328</v>
       </c>
       <c r="R60" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="186"/>
         <v>2775</v>
       </c>
       <c r="S60" s="5">
-        <f t="shared" ref="S60" si="179">S57-S59</f>
+        <f t="shared" ref="S60" si="187">S57-S59</f>
         <v>2228</v>
       </c>
       <c r="T60" s="5">
-        <f>T57-T59</f>
+        <f t="shared" ref="T60:AB60" si="188">T57-T59</f>
         <v>621</v>
       </c>
       <c r="U60" s="5">
-        <f>U57-U59</f>
+        <f t="shared" si="188"/>
         <v>3297</v>
       </c>
       <c r="V60" s="5">
-        <f>V57-V59</f>
+        <f t="shared" si="188"/>
         <v>1420</v>
       </c>
       <c r="W60" s="5">
-        <f>W57-W59</f>
+        <f t="shared" si="188"/>
         <v>441</v>
       </c>
       <c r="X60" s="5">
-        <f>X57-X59</f>
+        <f t="shared" si="188"/>
         <v>1005</v>
       </c>
       <c r="Y60" s="5">
-        <f>Y57-Y59</f>
+        <f t="shared" si="188"/>
         <v>848</v>
       </c>
       <c r="Z60" s="5">
-        <f>Z57-Z59</f>
+        <f t="shared" si="188"/>
         <v>2064</v>
       </c>
       <c r="AA60" s="5">
-        <f>AA57-AA59</f>
+        <f t="shared" si="188"/>
         <v>-2531</v>
       </c>
-      <c r="AB60" s="5"/>
+      <c r="AB60" s="5">
+        <f t="shared" si="188"/>
+        <v>1342</v>
+      </c>
       <c r="AC60" s="5"/>
       <c r="AD60" s="5"/>
-    </row>
-    <row r="61" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="5"/>
+      <c r="AG60" s="5"/>
+      <c r="AH60" s="5"/>
+    </row>
+    <row r="61" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="10" t="s">
         <v>83</v>
       </c>
@@ -7145,55 +7424,62 @@
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
-      <c r="Q61" s="5">
-        <f t="shared" ref="Q61:AA61" si="180">SUM(N60:Q60)</f>
+      <c r="Q61" s="7">
+        <f t="shared" ref="Q61:V61" si="189">SUM(N60:Q60)</f>
         <v>4108</v>
       </c>
-      <c r="R61" s="5">
-        <f t="shared" si="180"/>
+      <c r="R61" s="7">
+        <f t="shared" si="189"/>
         <v>5015</v>
       </c>
-      <c r="S61" s="5">
-        <f t="shared" si="180"/>
+      <c r="S61" s="7">
+        <f t="shared" si="189"/>
         <v>6950</v>
       </c>
-      <c r="T61" s="5">
-        <f t="shared" si="180"/>
+      <c r="T61" s="7">
+        <f t="shared" si="189"/>
         <v>6952</v>
       </c>
-      <c r="U61" s="5">
-        <f t="shared" si="180"/>
+      <c r="U61" s="7">
+        <f t="shared" si="189"/>
         <v>8921</v>
       </c>
-      <c r="V61" s="5">
-        <f t="shared" si="180"/>
+      <c r="V61" s="7">
+        <f t="shared" si="189"/>
         <v>7566</v>
       </c>
-      <c r="W61" s="5">
+      <c r="W61" s="7">
         <f>SUM(T60:W60)</f>
         <v>5779</v>
       </c>
-      <c r="X61" s="5">
+      <c r="X61" s="7">
         <f>SUM(U60:X60)</f>
         <v>6163</v>
       </c>
-      <c r="Y61" s="5">
+      <c r="Y61" s="7">
         <f>SUM(V60:Y60)</f>
         <v>3714</v>
       </c>
-      <c r="Z61" s="5">
+      <c r="Z61" s="7">
         <f>SUM(W60:Z60)</f>
         <v>4358</v>
       </c>
-      <c r="AA61" s="5">
+      <c r="AA61" s="7">
         <f>SUM(X60:AA60)</f>
         <v>1386</v>
       </c>
-      <c r="AB61" s="5"/>
+      <c r="AB61" s="7">
+        <f>SUM(Y60:AB60)</f>
+        <v>1723</v>
+      </c>
       <c r="AC61" s="5"/>
       <c r="AD61" s="5"/>
-    </row>
-    <row r="62" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE61" s="5"/>
+      <c r="AF61" s="5"/>
+      <c r="AG61" s="5"/>
+      <c r="AH61" s="5"/>
+    </row>
+    <row r="62" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -7222,9 +7508,13 @@
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
       <c r="AD62" s="5"/>
-    </row>
-    <row r="63" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="31" t="s">
+      <c r="AE62" s="5"/>
+      <c r="AF62" s="5"/>
+      <c r="AG62" s="5"/>
+      <c r="AH62" s="5"/>
+    </row>
+    <row r="63" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="30" t="s">
         <v>115</v>
       </c>
       <c r="C63" s="5"/>
@@ -7252,58 +7542,65 @@
         <v>19726</v>
       </c>
       <c r="X63" s="5">
-        <f t="shared" ref="X63:AA63" si="181">X64-X81</f>
+        <f t="shared" ref="X63:AB63" si="190">X64-X81</f>
         <v>25105</v>
       </c>
       <c r="Y63" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="190"/>
         <v>26958</v>
       </c>
       <c r="Z63" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="190"/>
         <v>29134</v>
       </c>
       <c r="AA63" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="190"/>
         <v>21503</v>
       </c>
-      <c r="AB63" s="5"/>
+      <c r="AB63" s="5">
+        <f t="shared" si="190"/>
+        <v>0</v>
+      </c>
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
-      <c r="AP63" s="4">
+      <c r="AE63" s="5"/>
+      <c r="AF63" s="5"/>
+      <c r="AG63" s="5"/>
+      <c r="AH63" s="5"/>
+      <c r="AT63" s="4">
         <f>Z63</f>
         <v>29134</v>
       </c>
-      <c r="AQ63" s="4">
-        <f>AP63+AQ36</f>
+      <c r="AU63" s="4">
+        <f>AT63+AU36</f>
         <v>40810.408632925319</v>
       </c>
-      <c r="AR63" s="4">
-        <f t="shared" ref="AR63:AW63" si="182">AQ63+AR36</f>
+      <c r="AV63" s="4">
+        <f t="shared" ref="AV63:BA63" si="191">AU63+AV36</f>
         <v>60222.603323051248</v>
       </c>
-      <c r="AS63" s="4">
-        <f t="shared" si="182"/>
+      <c r="AW63" s="4">
+        <f t="shared" si="191"/>
         <v>87486.026613446447</v>
       </c>
-      <c r="AT63" s="4">
-        <f t="shared" si="182"/>
+      <c r="AX63" s="4">
+        <f t="shared" si="191"/>
         <v>123224.94803746909</v>
       </c>
-      <c r="AU63" s="4">
-        <f t="shared" si="182"/>
+      <c r="AY63" s="4">
+        <f t="shared" si="191"/>
         <v>169525.80972710089</v>
       </c>
-      <c r="AV63" s="4">
-        <f t="shared" si="182"/>
+      <c r="AZ63" s="4">
+        <f t="shared" si="191"/>
         <v>226323.85134133397</v>
       </c>
-      <c r="AW63" s="4">
-        <f t="shared" si="182"/>
+      <c r="BA63" s="4">
+        <f t="shared" si="191"/>
         <v>292497.96008608077</v>
       </c>
     </row>
-    <row r="64" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="10" t="s">
         <v>3</v>
       </c>
@@ -7345,11 +7642,11 @@
         <v>25105</v>
       </c>
       <c r="Y64" s="5">
-        <f t="shared" ref="Y64:Z64" si="183">X64+Y36</f>
+        <f t="shared" ref="Y64:Z64" si="192">X64+Y36</f>
         <v>26958</v>
       </c>
       <c r="Z64" s="5">
-        <f t="shared" si="183"/>
+        <f t="shared" si="192"/>
         <v>29134</v>
       </c>
       <c r="AA64" s="5">
@@ -7358,8 +7655,12 @@
       <c r="AB64" s="5"/>
       <c r="AC64" s="5"/>
       <c r="AD64" s="5"/>
-    </row>
-    <row r="65" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE64" s="5"/>
+      <c r="AF64" s="5"/>
+      <c r="AG64" s="5"/>
+      <c r="AH64" s="5"/>
+    </row>
+    <row r="65" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="10" t="s">
         <v>63</v>
       </c>
@@ -7401,8 +7702,12 @@
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
       <c r="AD65" s="5"/>
-    </row>
-    <row r="66" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE65" s="5"/>
+      <c r="AF65" s="5"/>
+      <c r="AG65" s="5"/>
+      <c r="AH65" s="5"/>
+    </row>
+    <row r="66" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="10" t="s">
         <v>59</v>
       </c>
@@ -7444,8 +7749,12 @@
       <c r="AB66" s="5"/>
       <c r="AC66" s="5"/>
       <c r="AD66" s="5"/>
-    </row>
-    <row r="67" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE66" s="5"/>
+      <c r="AF66" s="5"/>
+      <c r="AG66" s="5"/>
+      <c r="AH66" s="5"/>
+    </row>
+    <row r="67" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="10" t="s">
         <v>64</v>
       </c>
@@ -7487,8 +7796,12 @@
       <c r="AB67" s="5"/>
       <c r="AC67" s="5"/>
       <c r="AD67" s="5"/>
-    </row>
-    <row r="68" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE67" s="5"/>
+      <c r="AF67" s="5"/>
+      <c r="AG67" s="5"/>
+      <c r="AH67" s="5"/>
+    </row>
+    <row r="68" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="10" t="s">
         <v>65</v>
       </c>
@@ -7530,8 +7843,12 @@
       <c r="AB68" s="5"/>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
-    </row>
-    <row r="69" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE68" s="5"/>
+      <c r="AF68" s="5"/>
+      <c r="AG68" s="5"/>
+      <c r="AH68" s="5"/>
+    </row>
+    <row r="69" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="10" t="s">
         <v>66</v>
       </c>
@@ -7573,8 +7890,12 @@
       <c r="AB69" s="5"/>
       <c r="AC69" s="5"/>
       <c r="AD69" s="5"/>
-    </row>
-    <row r="70" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE69" s="5"/>
+      <c r="AF69" s="5"/>
+      <c r="AG69" s="5"/>
+      <c r="AH69" s="5"/>
+    </row>
+    <row r="70" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="10" t="s">
         <v>67</v>
       </c>
@@ -7616,8 +7937,12 @@
       <c r="AB70" s="5"/>
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
-    </row>
-    <row r="71" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE70" s="5"/>
+      <c r="AF70" s="5"/>
+      <c r="AG70" s="5"/>
+      <c r="AH70" s="5"/>
+    </row>
+    <row r="71" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="10" t="s">
         <v>68</v>
       </c>
@@ -7659,8 +7984,12 @@
       <c r="AB71" s="5"/>
       <c r="AC71" s="5"/>
       <c r="AD71" s="5"/>
-    </row>
-    <row r="72" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE71" s="5"/>
+      <c r="AF71" s="5"/>
+      <c r="AG71" s="5"/>
+      <c r="AH71" s="5"/>
+    </row>
+    <row r="72" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="10" t="s">
         <v>69</v>
       </c>
@@ -7702,8 +8031,12 @@
       <c r="AB72" s="5"/>
       <c r="AC72" s="5"/>
       <c r="AD72" s="5"/>
-    </row>
-    <row r="73" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE72" s="5"/>
+      <c r="AF72" s="5"/>
+      <c r="AG72" s="5"/>
+      <c r="AH72" s="5"/>
+    </row>
+    <row r="73" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="10" t="s">
         <v>70</v>
       </c>
@@ -7747,8 +8080,12 @@
       <c r="AB73" s="5"/>
       <c r="AC73" s="5"/>
       <c r="AD73" s="5"/>
-    </row>
-    <row r="74" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE73" s="5"/>
+      <c r="AF73" s="5"/>
+      <c r="AG73" s="5"/>
+      <c r="AH73" s="5"/>
+    </row>
+    <row r="74" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="10" t="s">
         <v>71</v>
       </c>
@@ -7791,8 +8128,12 @@
       <c r="AB74" s="5"/>
       <c r="AC74" s="5"/>
       <c r="AD74" s="5"/>
-    </row>
-    <row r="75" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE74" s="5"/>
+      <c r="AF74" s="5"/>
+      <c r="AG74" s="5"/>
+      <c r="AH74" s="5"/>
+    </row>
+    <row r="75" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="10" t="s">
         <v>72</v>
       </c>
@@ -7817,47 +8158,51 @@
         <v>62131</v>
       </c>
       <c r="T75" s="5">
-        <f t="shared" ref="T75:AA75" si="184">SUM(T64:T74)</f>
+        <f t="shared" ref="T75:AA75" si="193">SUM(T64:T74)</f>
         <v>68513</v>
       </c>
       <c r="U75" s="5">
-        <f t="shared" si="184"/>
+        <f t="shared" si="193"/>
         <v>74426</v>
       </c>
       <c r="V75" s="5">
-        <f t="shared" si="184"/>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
       <c r="W75" s="5">
-        <f t="shared" si="184"/>
+        <f t="shared" si="193"/>
         <v>86833</v>
       </c>
       <c r="X75" s="5">
-        <f t="shared" si="184"/>
+        <f t="shared" si="193"/>
         <v>25105</v>
       </c>
       <c r="Y75" s="5">
-        <f t="shared" si="184"/>
+        <f t="shared" si="193"/>
         <v>26958</v>
       </c>
       <c r="Z75" s="5">
-        <f t="shared" si="184"/>
+        <f t="shared" si="193"/>
         <v>29134</v>
       </c>
       <c r="AA75" s="5">
-        <f t="shared" si="184"/>
+        <f t="shared" si="193"/>
         <v>109226</v>
       </c>
       <c r="AB75" s="5"/>
       <c r="AC75" s="5"/>
       <c r="AD75" s="5"/>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AE75" s="5"/>
+      <c r="AF75" s="5"/>
+      <c r="AG75" s="5"/>
+      <c r="AH75" s="5"/>
+    </row>
+    <row r="76" spans="2:34" x14ac:dyDescent="0.2">
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
       <c r="U76" s="5"/>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B77" s="9" t="s">
         <v>73</v>
       </c>
@@ -7877,7 +8222,7 @@
         <v>14725</v>
       </c>
     </row>
-    <row r="78" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B78" s="9" t="s">
         <v>74</v>
       </c>
@@ -7897,7 +8242,7 @@
         <v>9243</v>
       </c>
     </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B79" s="9" t="s">
         <v>75</v>
       </c>
@@ -7917,7 +8262,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B80" s="9" t="s">
         <v>76</v>
       </c>
@@ -7937,7 +8282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B81" s="9" t="s">
         <v>4</v>
       </c>
@@ -7967,8 +8312,12 @@
       <c r="AB81" s="5"/>
       <c r="AC81" s="5"/>
       <c r="AD81" s="5"/>
-    </row>
-    <row r="82" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AE81" s="5"/>
+      <c r="AF81" s="5"/>
+      <c r="AG81" s="5"/>
+      <c r="AH81" s="5"/>
+    </row>
+    <row r="82" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B82" s="9" t="s">
         <v>75</v>
       </c>
@@ -7988,7 +8337,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="83" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B83" s="9" t="s">
         <v>77</v>
       </c>
@@ -8008,7 +8357,7 @@
         <v>8480</v>
       </c>
     </row>
-    <row r="84" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B84" s="9" t="s">
         <v>78</v>
       </c>
@@ -8033,7 +8382,7 @@
         <v>65180</v>
       </c>
     </row>
-    <row r="85" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B85" s="9" t="s">
         <v>79</v>
       </c>
@@ -8042,36 +8391,36 @@
         <v>62131</v>
       </c>
       <c r="T85" s="5">
-        <f t="shared" ref="T85:W85" si="185">SUM(T77:T84)</f>
+        <f t="shared" ref="T85:W85" si="194">SUM(T77:T84)</f>
         <v>68513</v>
       </c>
       <c r="U85" s="5">
-        <f t="shared" si="185"/>
+        <f t="shared" si="194"/>
         <v>74426</v>
       </c>
       <c r="V85" s="5">
-        <f t="shared" si="185"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="W85" s="5">
-        <f t="shared" si="185"/>
+        <f t="shared" si="194"/>
         <v>86833</v>
       </c>
       <c r="AA85" s="5">
-        <f t="shared" ref="AA85" si="186">SUM(AA77:AA84)</f>
+        <f t="shared" ref="AA85" si="195">SUM(AA77:AA84)</f>
         <v>109226</v>
       </c>
     </row>
-    <row r="86" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:34" x14ac:dyDescent="0.2">
       <c r="S86" s="5"/>
     </row>
-    <row r="87" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:34" x14ac:dyDescent="0.2">
       <c r="S87" s="5"/>
     </row>
-    <row r="88" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:34" x14ac:dyDescent="0.2">
       <c r="S88" s="5"/>
     </row>
-    <row r="89" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:34" x14ac:dyDescent="0.2">
       <c r="S89" s="5"/>
     </row>
   </sheetData>
@@ -8087,109 +8436,116 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93975FF4-BC21-4380-828B-9AD627B5D152}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D12" sqref="D4:D12"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="30"/>
-    <col min="3" max="3" width="11.6640625" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="30"/>
+    <col min="1" max="1" width="5" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29"/>
+    <col min="3" max="3" width="11.7109375" style="29" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="30" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="29">
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C5" s="30" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="29">
         <v>550000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B6" s="30" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="29">
         <v>750000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="30" t="s">
+      <c r="E6" s="29">
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="29">
         <v>350000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B8" s="30" t="s">
+      <c r="E7" s="29">
+        <v>375000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="29">
         <v>250000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C9" s="30" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="29">
         <v>300000</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B10" s="30" t="s">
+      <c r="E9" s="29">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="29">
         <v>300000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C11" s="30" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="29">
         <v>300000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C12" s="30" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="29">
         <v>300000</v>
       </c>
     </row>

--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31896921-B8ED-4BDB-BD48-46E90156A8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77738C2-BBE6-48F1-8453-2BFC82DE0A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40395" yWindow="1545" windowWidth="28200" windowHeight="17955" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-39360" yWindow="2325" windowWidth="28230" windowHeight="17955" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -588,13 +588,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -719,81 +725,84 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1236,7 +1245,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1356,11 +1367,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E310252-7C49-48D8-9A64-7380C8DB275B}">
   <dimension ref="A1:DE123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AX54" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AA98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BJ54" sqref="BJ54"/>
+      <selection pane="bottomRight" activeCell="AB101" sqref="AB101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1369,7 +1380,9 @@
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
     <col min="3" max="18" width="9.140625" style="2"/>
     <col min="19" max="19" width="8.7109375" style="2" customWidth="1"/>
-    <col min="20" max="26" width="9.140625" style="2"/>
+    <col min="20" max="23" width="9.140625" style="2"/>
+    <col min="24" max="24" width="9.7109375" style="2" customWidth="1"/>
+    <col min="25" max="26" width="9.140625" style="2"/>
     <col min="27" max="30" width="9.5703125" style="2" customWidth="1"/>
     <col min="31" max="34" width="8.42578125" style="2" customWidth="1"/>
     <col min="35" max="43" width="9.140625" style="1"/>
@@ -1735,107 +1748,107 @@
         <v>133</v>
       </c>
       <c r="C9" s="7">
-        <f>+C45</f>
+        <f t="shared" ref="C9:AB9" si="8">+C45</f>
         <v>0</v>
       </c>
       <c r="D9" s="7">
-        <f>+D45</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E9" s="7">
-        <f>+E45</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F9" s="7">
-        <f>+F45</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G9" s="7">
-        <f>+G45</f>
+        <f t="shared" si="8"/>
         <v>3509</v>
       </c>
       <c r="H9" s="7">
-        <f>+H45</f>
+        <f t="shared" si="8"/>
         <v>5168</v>
       </c>
       <c r="I9" s="7">
-        <f>+I45</f>
+        <f t="shared" si="8"/>
         <v>5132</v>
       </c>
       <c r="J9" s="7">
-        <f>+J45</f>
+        <f t="shared" si="8"/>
         <v>6143</v>
       </c>
       <c r="K9" s="7">
-        <f>+K45</f>
+        <f t="shared" si="8"/>
         <v>4893</v>
       </c>
       <c r="L9" s="7">
-        <f>+L45</f>
+        <f t="shared" si="8"/>
         <v>4911</v>
       </c>
       <c r="M9" s="7">
-        <f>+M45</f>
+        <f t="shared" si="8"/>
         <v>7346</v>
       </c>
       <c r="N9" s="7">
-        <f>+N45</f>
+        <f t="shared" si="8"/>
         <v>8633</v>
       </c>
       <c r="O9" s="7">
-        <f>+O45</f>
+        <f t="shared" si="8"/>
         <v>8187</v>
       </c>
       <c r="P9" s="7">
-        <f>+P45</f>
+        <f t="shared" si="8"/>
         <v>9520</v>
       </c>
       <c r="Q9" s="7">
-        <f>+Q45</f>
+        <f t="shared" si="8"/>
         <v>11393</v>
       </c>
       <c r="R9" s="7">
-        <f>+R45</f>
+        <f t="shared" si="8"/>
         <v>15025</v>
       </c>
       <c r="S9" s="7">
-        <f>+S45</f>
+        <f t="shared" si="8"/>
         <v>15514</v>
       </c>
       <c r="T9" s="7">
-        <f>+T45</f>
+        <f t="shared" si="8"/>
         <v>13670</v>
       </c>
       <c r="U9" s="7">
-        <f>+U45</f>
+        <f t="shared" si="8"/>
         <v>17785</v>
       </c>
       <c r="V9" s="7">
-        <f>+V45</f>
+        <f t="shared" si="8"/>
         <v>21035</v>
       </c>
       <c r="W9" s="7">
-        <f>+W45</f>
+        <f t="shared" si="8"/>
         <v>18878</v>
       </c>
       <c r="X9" s="7">
-        <f>+X45</f>
+        <f t="shared" si="8"/>
         <v>20419</v>
       </c>
       <c r="Y9" s="7">
-        <f>+Y45</f>
+        <f t="shared" si="8"/>
         <v>18582</v>
       </c>
       <c r="Z9" s="7">
-        <f>+Z45</f>
+        <f t="shared" si="8"/>
         <v>20630</v>
       </c>
       <c r="AA9" s="7">
-        <f>+AA45</f>
+        <f t="shared" si="8"/>
         <v>16460</v>
       </c>
       <c r="AB9" s="7">
-        <f>+AB45</f>
+        <f t="shared" si="8"/>
         <v>18530</v>
       </c>
       <c r="AC9" s="24"/>
@@ -1845,31 +1858,31 @@
       <c r="AG9" s="24"/>
       <c r="AH9" s="24"/>
       <c r="AO9" s="6">
-        <f>+AO45</f>
+        <f t="shared" ref="AO9:AU9" si="9">+AO45</f>
         <v>0</v>
       </c>
       <c r="AP9" s="6">
-        <f>+AP45</f>
+        <f t="shared" si="9"/>
         <v>19952</v>
       </c>
       <c r="AQ9" s="6">
-        <f>+AQ45</f>
+        <f t="shared" si="9"/>
         <v>25783</v>
       </c>
       <c r="AR9" s="6">
-        <f>+AR45</f>
+        <f t="shared" si="9"/>
         <v>44125</v>
       </c>
       <c r="AS9" s="6">
-        <f>+AS45</f>
+        <f t="shared" si="9"/>
         <v>68004</v>
       </c>
       <c r="AT9" s="6">
-        <f>+AT45</f>
+        <f t="shared" si="9"/>
         <v>78509</v>
       </c>
       <c r="AU9" s="6">
-        <f>+AU45</f>
+        <f t="shared" si="9"/>
         <v>78862.236850815156</v>
       </c>
     </row>
@@ -2172,27 +2185,27 @@
       <c r="T20" s="24"/>
       <c r="U20" s="24"/>
       <c r="V20" s="7">
-        <f t="shared" ref="V20:AB20" si="8">+V42</f>
+        <f t="shared" ref="V20:AA20" si="10">+V42</f>
         <v>439701</v>
       </c>
       <c r="W20" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>440808</v>
       </c>
       <c r="X20" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>479700</v>
       </c>
       <c r="Y20" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>430488</v>
       </c>
       <c r="Z20" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>494989</v>
       </c>
       <c r="AA20" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>433371</v>
       </c>
       <c r="AB20" s="7">
@@ -2799,91 +2812,91 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7">
-        <f t="shared" ref="G37:R37" si="9">G36+G35</f>
+        <f t="shared" ref="G37:R37" si="11">G36+G35</f>
         <v>63019</v>
       </c>
       <c r="H37" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>95356</v>
       </c>
       <c r="I37" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>97186</v>
       </c>
       <c r="J37" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>112095</v>
       </c>
       <c r="K37" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>88496</v>
       </c>
       <c r="L37" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>90650</v>
       </c>
       <c r="M37" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>139300</v>
       </c>
       <c r="N37" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>180570</v>
       </c>
       <c r="O37" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>184800</v>
       </c>
       <c r="P37" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>201250</v>
       </c>
       <c r="Q37" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>241300</v>
       </c>
       <c r="R37" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>308600</v>
       </c>
       <c r="S37" s="7">
-        <f t="shared" ref="S37:AD37" si="10">S36+S35</f>
+        <f t="shared" ref="S37:AD37" si="12">S36+S35</f>
         <v>310048</v>
       </c>
       <c r="T37" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>254695</v>
       </c>
       <c r="U37" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>343830</v>
       </c>
       <c r="V37" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>405278</v>
       </c>
       <c r="W37" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>422875</v>
       </c>
       <c r="X37" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>466140</v>
       </c>
       <c r="Y37" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>435059</v>
       </c>
       <c r="Z37" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>484507</v>
       </c>
       <c r="AA37" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>386810</v>
       </c>
       <c r="AB37" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>443956</v>
       </c>
       <c r="AC37" s="7">
@@ -2891,7 +2904,7 @@
         <v>480124.2</v>
       </c>
       <c r="AD37" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>537551.5</v>
       </c>
       <c r="AE37" s="7"/>
@@ -2899,23 +2912,23 @@
       <c r="AG37" s="7"/>
       <c r="AH37" s="7"/>
       <c r="AP37" s="6">
-        <f t="shared" ref="AP37:AT37" si="11">+AP35+AP36</f>
+        <f t="shared" ref="AP37:AT37" si="13">+AP35+AP36</f>
         <v>367656</v>
       </c>
       <c r="AQ37" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>499016</v>
       </c>
       <c r="AR37" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>935950</v>
       </c>
       <c r="AS37" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1313851</v>
       </c>
       <c r="AT37" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1808581</v>
       </c>
       <c r="AU37" s="6">
@@ -2923,47 +2936,47 @@
         <v>1848441.7</v>
       </c>
       <c r="AV37" s="6">
-        <f t="shared" ref="AV37:AY37" si="12">AV42</f>
+        <f t="shared" ref="AV37:AY37" si="14">AV42</f>
         <v>2229103.3180000004</v>
       </c>
       <c r="AW37" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2786379.1475000004</v>
       </c>
       <c r="AX37" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3343654.9770000004</v>
       </c>
       <c r="AY37" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4012385.9724000003</v>
       </c>
       <c r="AZ37" s="6">
-        <f t="shared" ref="AZ37:BA37" si="13">AZ42</f>
+        <f t="shared" ref="AZ37:BA37" si="15">AZ42</f>
         <v>4614243.8682599999</v>
       </c>
       <c r="BA37" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5075668.2550860001</v>
       </c>
       <c r="BB37" s="6">
-        <f t="shared" ref="BB37:BF37" si="14">BB42</f>
+        <f t="shared" ref="BB37:BF37" si="16">BB42</f>
         <v>5329451.6678403001</v>
       </c>
       <c r="BC37" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5595924.2512323158</v>
       </c>
       <c r="BD37" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5875720.4637939315</v>
       </c>
       <c r="BE37" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6169506.486983628</v>
       </c>
       <c r="BF37" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6477981.8113328097</v>
       </c>
     </row>
@@ -2976,91 +2989,91 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5">
-        <f>G45*1000000/G37</f>
+        <f t="shared" ref="G38:AB38" si="17">G45*1000000/G37</f>
         <v>55681.619828940478</v>
       </c>
       <c r="H38" s="5">
-        <f>H45*1000000/H37</f>
+        <f t="shared" si="17"/>
         <v>54196.904232560089</v>
       </c>
       <c r="I38" s="5">
-        <f>I45*1000000/I37</f>
+        <f t="shared" si="17"/>
         <v>52805.95970613051</v>
       </c>
       <c r="J38" s="5">
-        <f>J45*1000000/J37</f>
+        <f t="shared" si="17"/>
         <v>54801.730674873994</v>
       </c>
       <c r="K38" s="5">
-        <f>K45*1000000/K37</f>
+        <f t="shared" si="17"/>
         <v>55290.634604953899</v>
       </c>
       <c r="L38" s="5">
-        <f>L45*1000000/L37</f>
+        <f t="shared" si="17"/>
         <v>54175.399889685606</v>
       </c>
       <c r="M38" s="5">
-        <f>M45*1000000/M37</f>
+        <f t="shared" si="17"/>
         <v>52735.10409188801</v>
       </c>
       <c r="N38" s="5">
-        <f>N45*1000000/N37</f>
+        <f t="shared" si="17"/>
         <v>47809.713684443705</v>
       </c>
       <c r="O38" s="5">
-        <f>O45*1000000/O37</f>
+        <f t="shared" si="17"/>
         <v>44301.948051948049</v>
       </c>
       <c r="P38" s="5">
-        <f>P45*1000000/P37</f>
+        <f t="shared" si="17"/>
         <v>47304.34782608696</v>
       </c>
       <c r="Q38" s="5">
-        <f>Q45*1000000/Q37</f>
+        <f t="shared" si="17"/>
         <v>47215.084956485705</v>
       </c>
       <c r="R38" s="5">
-        <f>R45*1000000/R37</f>
+        <f t="shared" si="17"/>
         <v>48687.621516526247</v>
       </c>
       <c r="S38" s="5">
-        <f>S45*1000000/S37</f>
+        <f t="shared" si="17"/>
         <v>50037.413561771078</v>
       </c>
       <c r="T38" s="5">
-        <f>T45*1000000/T37</f>
+        <f t="shared" si="17"/>
         <v>53672.039105596894</v>
       </c>
       <c r="U38" s="5">
-        <f>U45*1000000/U37</f>
+        <f t="shared" si="17"/>
         <v>51726.143733821948</v>
       </c>
       <c r="V38" s="5">
-        <f>V45*1000000/V37</f>
+        <f t="shared" si="17"/>
         <v>51902.644604444358</v>
       </c>
       <c r="W38" s="5">
-        <f>W45*1000000/W37</f>
+        <f t="shared" si="17"/>
         <v>44642.033697901272</v>
       </c>
       <c r="X38" s="5">
-        <f>X45*1000000/X37</f>
+        <f t="shared" si="17"/>
         <v>43804.436435405674</v>
       </c>
       <c r="Y38" s="5">
-        <f>Y45*1000000/Y37</f>
+        <f t="shared" si="17"/>
         <v>42711.448332295156</v>
       </c>
       <c r="Z38" s="5">
-        <f>Z45*1000000/Z37</f>
+        <f t="shared" si="17"/>
         <v>42579.364178432923</v>
       </c>
       <c r="AA38" s="5">
-        <f>AA45*1000000/AA37</f>
+        <f t="shared" si="17"/>
         <v>42553.191489361699</v>
       </c>
       <c r="AB38" s="5">
-        <f>AB45*1000000/AB37</f>
+        <f t="shared" si="17"/>
         <v>41738.370469145593</v>
       </c>
       <c r="AC38" s="5">
@@ -3076,27 +3089,27 @@
       <c r="AG38" s="5"/>
       <c r="AH38" s="5"/>
       <c r="AP38" s="5">
-        <f>AP45/AP37*1000000</f>
+        <f t="shared" ref="AP38:AU38" si="18">AP45/AP37*1000000</f>
         <v>54268.120199316756</v>
       </c>
       <c r="AQ38" s="5">
-        <f>AQ45/AQ37*1000000</f>
+        <f t="shared" si="18"/>
         <v>51667.681998172404</v>
       </c>
       <c r="AR38" s="5">
-        <f>AR45/AR37*1000000</f>
+        <f t="shared" si="18"/>
         <v>47144.612425877451</v>
       </c>
       <c r="AS38" s="5">
-        <f>AS45/AS37*1000000</f>
+        <f t="shared" si="18"/>
         <v>51759.293862089384</v>
       </c>
       <c r="AT38" s="5">
-        <f>AT45/AT37*1000000</f>
+        <f t="shared" si="18"/>
         <v>43409.169951470241</v>
       </c>
       <c r="AU38" s="5">
-        <f>AU45/AU37*1000000</f>
+        <f t="shared" si="18"/>
         <v>42664.173206444735</v>
       </c>
       <c r="AV38" s="4">
@@ -3116,31 +3129,31 @@
         <v>48018.902815219495</v>
       </c>
       <c r="AZ38" s="4">
-        <f t="shared" ref="AZ38:BA38" si="15">AY38*1.03</f>
+        <f t="shared" ref="AZ38:BA38" si="19">AY38*1.03</f>
         <v>49459.469899676078</v>
       </c>
       <c r="BA38" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>50943.253996666361</v>
       </c>
       <c r="BB38" s="4">
-        <f t="shared" ref="BB38" si="16">BA38*1.03</f>
+        <f t="shared" ref="BB38" si="20">BA38*1.03</f>
         <v>52471.55161656635</v>
       </c>
       <c r="BC38" s="4">
-        <f t="shared" ref="BC38" si="17">BB38*1.03</f>
+        <f t="shared" ref="BC38" si="21">BB38*1.03</f>
         <v>54045.698165063339</v>
       </c>
       <c r="BD38" s="4">
-        <f t="shared" ref="BD38" si="18">BC38*1.03</f>
+        <f t="shared" ref="BD38" si="22">BC38*1.03</f>
         <v>55667.06911001524</v>
       </c>
       <c r="BE38" s="4">
-        <f t="shared" ref="BE38" si="19">BD38*1.03</f>
+        <f t="shared" ref="BE38" si="23">BD38*1.03</f>
         <v>57337.081183315699</v>
       </c>
       <c r="BF38" s="4">
-        <f t="shared" ref="BF38" si="20">BE38*1.03</f>
+        <f t="shared" ref="BF38" si="24">BE38*1.03</f>
         <v>59057.193618815174</v>
       </c>
     </row>
@@ -3281,11 +3294,11 @@
         <v>71177</v>
       </c>
       <c r="AT40" s="4">
-        <f t="shared" ref="AT40:AT41" si="21">SUM(W40:Z40)</f>
+        <f t="shared" ref="AT40:AT41" si="25">SUM(W40:Z40)</f>
         <v>70826</v>
       </c>
       <c r="AU40" s="4">
-        <f t="shared" ref="AU40:AU41" si="22">SUM(AA40:AD40)</f>
+        <f t="shared" ref="AU40:AU41" si="26">SUM(AA40:AD40)</f>
         <v>89172.3</v>
       </c>
     </row>
@@ -3392,11 +3405,11 @@
         <v>1298434</v>
       </c>
       <c r="AT41" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1775159</v>
       </c>
       <c r="AU41" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1625522.56</v>
       </c>
     </row>
@@ -3409,51 +3422,51 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7">
-        <f t="shared" ref="G42:R42" si="23">G41+G40</f>
+        <f t="shared" ref="G42:R42" si="27">G41+G40</f>
         <v>77138</v>
       </c>
       <c r="H42" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>87048</v>
       </c>
       <c r="I42" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>96155</v>
       </c>
       <c r="J42" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>104891</v>
       </c>
       <c r="K42" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>102672</v>
       </c>
       <c r="L42" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>82272</v>
       </c>
       <c r="M42" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>145036</v>
       </c>
       <c r="N42" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>179757</v>
       </c>
       <c r="O42" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>180338</v>
       </c>
       <c r="P42" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>206421</v>
       </c>
       <c r="Q42" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>237823</v>
       </c>
       <c r="R42" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>305840</v>
       </c>
       <c r="S42" s="7">
@@ -3465,35 +3478,35 @@
         <v>258580</v>
       </c>
       <c r="U42" s="7">
-        <f t="shared" ref="U42:AB42" si="24">+U40+U41</f>
+        <f t="shared" ref="U42:AB42" si="28">+U40+U41</f>
         <v>365923</v>
       </c>
       <c r="V42" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>439701</v>
       </c>
       <c r="W42" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>440808</v>
       </c>
       <c r="X42" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>479700</v>
       </c>
       <c r="Y42" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>430488</v>
       </c>
       <c r="Z42" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>494989</v>
       </c>
       <c r="AA42" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>433371</v>
       </c>
       <c r="AB42" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>410831</v>
       </c>
       <c r="AC42" s="7">
@@ -3561,19 +3574,19 @@
         <v>5329451.6678403001</v>
       </c>
       <c r="BC42" s="6">
-        <f t="shared" ref="BC42:BF42" si="25">+BB42*1.05</f>
+        <f t="shared" ref="BC42:BF42" si="29">+BB42*1.05</f>
         <v>5595924.2512323158</v>
       </c>
       <c r="BD42" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5875720.4637939315</v>
       </c>
       <c r="BE42" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>6169506.486983628</v>
       </c>
       <c r="BF42" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>6477981.8113328097</v>
       </c>
     </row>
@@ -3658,43 +3671,43 @@
         <v>1652.2522470400008</v>
       </c>
       <c r="AW44" s="4">
-        <f t="shared" ref="AW44:BF44" si="26">+AW118-$AT$118</f>
+        <f t="shared" ref="AW44:BF44" si="30">+AW118-$AT$118</f>
         <v>3257.2066360000008</v>
       </c>
       <c r="AX44" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>5218.8175558400008</v>
       </c>
       <c r="AY44" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>7786.7445781760016</v>
       </c>
       <c r="AZ44" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>10611.464302745599</v>
       </c>
       <c r="BA44" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>13416.924574647679</v>
       </c>
       <c r="BB44" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>14574.176936807287</v>
       </c>
       <c r="BC44" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>15810.609723746242</v>
       </c>
       <c r="BD44" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>17131.247847037066</v>
       </c>
       <c r="BE44" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>18541.420758347613</v>
       </c>
       <c r="BF44" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>20046.780341171616</v>
       </c>
     </row>
@@ -3790,7 +3803,7 @@
       <c r="AG45" s="5"/>
       <c r="AH45" s="5"/>
       <c r="AP45" s="4">
-        <f t="shared" ref="AP45:AP50" si="27">SUM(G45:J45)</f>
+        <f t="shared" ref="AP45:AP50" si="31">SUM(G45:J45)</f>
         <v>19952</v>
       </c>
       <c r="AQ45" s="4">
@@ -3814,47 +3827,47 @@
         <v>78862.236850815156</v>
       </c>
       <c r="AV45" s="4">
-        <f>AV38*AV42/1000000</f>
+        <f t="shared" ref="AV45:BA45" si="32">AV38*AV42/1000000</f>
         <v>97955.935555839053</v>
       </c>
       <c r="AW45" s="4">
-        <f>AW38*AW42/1000000</f>
+        <f t="shared" si="32"/>
         <v>126118.26702814277</v>
       </c>
       <c r="AX45" s="4">
-        <f>AX38*AX42/1000000</f>
+        <f t="shared" si="32"/>
         <v>155882.17804678445</v>
       </c>
       <c r="AY45" s="4">
-        <f>AY38*AY42/1000000</f>
+        <f t="shared" si="32"/>
         <v>192670.37206582559</v>
       </c>
       <c r="AZ45" s="4">
-        <f>AZ38*AZ42/1000000</f>
+        <f t="shared" si="32"/>
         <v>228218.05571197037</v>
       </c>
       <c r="BA45" s="4">
-        <f>BA38*BA42/1000000</f>
+        <f t="shared" si="32"/>
         <v>258571.05712166245</v>
       </c>
       <c r="BB45" s="4">
-        <f t="shared" ref="BB45:BF45" si="28">BB38*BB42/1000000</f>
+        <f t="shared" ref="BB45:BF45" si="33">BB38*BB42/1000000</f>
         <v>279644.59827707795</v>
       </c>
       <c r="BC45" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>302435.6330366598</v>
       </c>
       <c r="BD45" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>327084.1371291476</v>
       </c>
       <c r="BE45" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>353741.49430517311</v>
       </c>
       <c r="BF45" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>382571.42609104479</v>
       </c>
     </row>
@@ -3912,7 +3925,7 @@
         <v>286</v>
       </c>
       <c r="V46" s="5">
-        <f t="shared" ref="V46:V47" si="29">+R46*1.4</f>
+        <f t="shared" ref="V46:V47" si="34">+R46*1.4</f>
         <v>439.59999999999997</v>
       </c>
       <c r="W46" s="5">
@@ -3938,7 +3951,7 @@
         <v>554</v>
       </c>
       <c r="AD46" s="5">
-        <f t="shared" ref="AD46:AD47" si="30">+Z46</f>
+        <f t="shared" ref="AD46:AD47" si="35">+Z46</f>
         <v>433</v>
       </c>
       <c r="AE46" s="5"/>
@@ -3946,7 +3959,7 @@
       <c r="AG46" s="5"/>
       <c r="AH46" s="5"/>
       <c r="AP46" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AQ46" s="4">
@@ -3954,11 +3967,11 @@
         <v>401</v>
       </c>
       <c r="AR46" s="4">
-        <f t="shared" ref="AR46:AR52" si="31">SUM(O46:R46)</f>
+        <f t="shared" ref="AR46:AR52" si="36">SUM(O46:R46)</f>
         <v>1465</v>
       </c>
       <c r="AS46" s="4">
-        <f t="shared" ref="AR46:AS61" si="32">SUM(S46:V46)</f>
+        <f t="shared" ref="AR46:AS61" si="37">SUM(S46:V46)</f>
         <v>1748.6</v>
       </c>
       <c r="AT46" s="4">
@@ -4024,7 +4037,7 @@
         <v>621</v>
       </c>
       <c r="V47" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>879.19999999999993</v>
       </c>
       <c r="W47" s="5">
@@ -4050,7 +4063,7 @@
         <v>489</v>
       </c>
       <c r="AD47" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>500</v>
       </c>
       <c r="AE47" s="5"/>
@@ -4058,7 +4071,7 @@
       <c r="AG47" s="5"/>
       <c r="AH47" s="5"/>
       <c r="AP47" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>869</v>
       </c>
       <c r="AQ47" s="4">
@@ -4066,11 +4079,11 @@
         <v>1052</v>
       </c>
       <c r="AR47" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>1642</v>
       </c>
       <c r="AS47" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>2756.2</v>
       </c>
       <c r="AT47" s="4">
@@ -4091,51 +4104,51 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7">
-        <f t="shared" ref="G48:K48" si="33">SUM(G45:G47)</f>
+        <f t="shared" ref="G48:K48" si="38">SUM(G45:G47)</f>
         <v>3724</v>
       </c>
       <c r="H48" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>5376</v>
       </c>
       <c r="I48" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>5353</v>
       </c>
       <c r="J48" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>6368</v>
       </c>
       <c r="K48" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>5132</v>
       </c>
       <c r="L48" s="7">
-        <f t="shared" ref="L48" si="34">SUM(L45:L47)</f>
+        <f t="shared" ref="L48" si="39">SUM(L45:L47)</f>
         <v>5179</v>
       </c>
       <c r="M48" s="7">
-        <f t="shared" ref="M48:R48" si="35">SUM(M45:M47)</f>
+        <f t="shared" ref="M48:R48" si="40">SUM(M45:M47)</f>
         <v>7611</v>
       </c>
       <c r="N48" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>9314</v>
       </c>
       <c r="O48" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>9002</v>
       </c>
       <c r="P48" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>10206</v>
       </c>
       <c r="Q48" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>12057</v>
       </c>
       <c r="R48" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>15967</v>
       </c>
       <c r="S48" s="7">
@@ -4151,31 +4164,31 @@
         <v>18692</v>
       </c>
       <c r="V48" s="7">
-        <f t="shared" ref="V48:AD48" si="36">SUM(V45:V47)</f>
+        <f t="shared" ref="V48:AD48" si="41">SUM(V45:V47)</f>
         <v>22353.8</v>
       </c>
       <c r="W48" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>19963</v>
       </c>
       <c r="X48" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>21268</v>
       </c>
       <c r="Y48" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>19625</v>
       </c>
       <c r="Z48" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>21563</v>
       </c>
       <c r="AA48" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>17378</v>
       </c>
       <c r="AB48" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>19878</v>
       </c>
       <c r="AC48" s="7">
@@ -4183,7 +4196,7 @@
         <v>20882.205713494131</v>
       </c>
       <c r="AD48" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>24966.031137321035</v>
       </c>
       <c r="AE48" s="7"/>
@@ -4231,31 +4244,31 @@
         <v>192670.37206582559</v>
       </c>
       <c r="AZ48" s="6">
-        <f t="shared" ref="AZ48:BF48" si="37">AZ45+AZ46+AZ47</f>
+        <f t="shared" ref="AZ48:BF48" si="42">AZ45+AZ46+AZ47</f>
         <v>228218.05571197037</v>
       </c>
       <c r="BA48" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>258571.05712166245</v>
       </c>
       <c r="BB48" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>279644.59827707795</v>
       </c>
       <c r="BC48" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>302435.6330366598</v>
       </c>
       <c r="BD48" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>327084.1371291476</v>
       </c>
       <c r="BE48" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>353741.49430517311</v>
       </c>
       <c r="BF48" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>382571.42609104479</v>
       </c>
     </row>
@@ -4313,7 +4326,7 @@
         <v>1117</v>
       </c>
       <c r="V49" s="5">
-        <f t="shared" ref="V49:V50" si="38">+R49*1.4</f>
+        <f t="shared" ref="V49:V50" si="43">+R49*1.4</f>
         <v>963.19999999999993</v>
       </c>
       <c r="W49" s="5">
@@ -4339,7 +4352,7 @@
         <v>2182.6</v>
       </c>
       <c r="AD49" s="5">
-        <f t="shared" ref="AD49:AD50" si="39">+Z49</f>
+        <f t="shared" ref="AD49:AD50" si="44">+Z49</f>
         <v>1438</v>
       </c>
       <c r="AE49" s="5"/>
@@ -4356,7 +4369,7 @@
         <v>3740.973</v>
       </c>
       <c r="AP49" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1531</v>
       </c>
       <c r="AQ49" s="4">
@@ -4368,7 +4381,7 @@
         <v>2789</v>
       </c>
       <c r="AS49" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>3562.2</v>
       </c>
       <c r="AT49" s="4">
@@ -4434,7 +4447,7 @@
         <v>1645</v>
       </c>
       <c r="V50" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>1489.6</v>
       </c>
       <c r="W50" s="5">
@@ -4460,7 +4473,7 @@
         <v>3032.3999999999996</v>
       </c>
       <c r="AD50" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>2166</v>
       </c>
       <c r="AE50" s="5"/>
@@ -4477,7 +4490,7 @@
         <v>305.05200000000002</v>
       </c>
       <c r="AP50" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>2226</v>
       </c>
       <c r="AQ50" s="4">
@@ -4485,11 +4498,11 @@
         <v>2306</v>
       </c>
       <c r="AR50" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>3802</v>
       </c>
       <c r="AS50" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>5879.6</v>
       </c>
       <c r="AT50" s="4">
@@ -4510,51 +4523,51 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7">
-        <f t="shared" ref="G51:K51" si="40">SUM(G48:G50)</f>
+        <f t="shared" ref="G51:K51" si="45">SUM(G48:G50)</f>
         <v>4541</v>
       </c>
       <c r="H51" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>6350</v>
       </c>
       <c r="I51" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>6303</v>
       </c>
       <c r="J51" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>7384</v>
       </c>
       <c r="K51" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>5985</v>
       </c>
       <c r="L51" s="7">
-        <f t="shared" ref="L51" si="41">SUM(L48:L50)</f>
+        <f t="shared" ref="L51" si="46">SUM(L48:L50)</f>
         <v>6036</v>
       </c>
       <c r="M51" s="7">
-        <f t="shared" ref="M51:R51" si="42">SUM(M48:M50)</f>
+        <f t="shared" ref="M51:R51" si="47">SUM(M48:M50)</f>
         <v>8771</v>
       </c>
       <c r="N51" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>10744</v>
       </c>
       <c r="O51" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>10389</v>
       </c>
       <c r="P51" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>11958</v>
       </c>
       <c r="Q51" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>13757</v>
       </c>
       <c r="R51" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>17719</v>
       </c>
       <c r="S51" s="7">
@@ -4570,31 +4583,31 @@
         <v>21454</v>
       </c>
       <c r="V51" s="7">
-        <f t="shared" ref="V51:AD51" si="43">SUM(V48:V50)</f>
+        <f t="shared" ref="V51:AD51" si="48">SUM(V48:V50)</f>
         <v>24806.6</v>
       </c>
       <c r="W51" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>23329</v>
       </c>
       <c r="X51" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>24927</v>
       </c>
       <c r="Y51" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>23350</v>
       </c>
       <c r="Z51" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>25167</v>
       </c>
       <c r="AA51" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>21301</v>
       </c>
       <c r="AB51" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>25500</v>
       </c>
       <c r="AC51" s="7">
@@ -4602,7 +4615,7 @@
         <v>26097.205713494128</v>
       </c>
       <c r="AD51" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>28570.031137321035</v>
       </c>
       <c r="AE51" s="7"/>
@@ -4631,19 +4644,19 @@
         <v>21461.268</v>
       </c>
       <c r="AP51" s="6">
-        <f t="shared" ref="AP51:AY51" si="44">SUM(AP48:AP50)</f>
+        <f t="shared" ref="AP51:AS51" si="49">SUM(AP48:AP50)</f>
         <v>24578</v>
       </c>
       <c r="AQ51" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>31536</v>
       </c>
       <c r="AR51" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>53823</v>
       </c>
       <c r="AS51" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>81950.600000000006</v>
       </c>
       <c r="AT51" s="6">
@@ -4663,39 +4676,39 @@
         <v>129375.47366414277</v>
       </c>
       <c r="AX51" s="6">
-        <f t="shared" ref="AV51:BA51" si="45">SUM(AX48:AX50)+AX44</f>
+        <f t="shared" ref="AX51:BA51" si="50">SUM(AX48:AX50)+AX44</f>
         <v>161100.99560262446</v>
       </c>
       <c r="AY51" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>200457.11664400159</v>
       </c>
       <c r="AZ51" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>238829.52001471596</v>
       </c>
       <c r="BA51" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>271987.9816963101</v>
       </c>
       <c r="BB51" s="6">
-        <f t="shared" ref="BB51" si="46">SUM(BB48:BB50)+BB44</f>
+        <f t="shared" ref="BB51" si="51">SUM(BB48:BB50)+BB44</f>
         <v>294218.77521388524</v>
       </c>
       <c r="BC51" s="6">
-        <f t="shared" ref="BC51" si="47">SUM(BC48:BC50)+BC44</f>
+        <f t="shared" ref="BC51" si="52">SUM(BC48:BC50)+BC44</f>
         <v>318246.24276040605</v>
       </c>
       <c r="BD51" s="6">
-        <f t="shared" ref="BD51" si="48">SUM(BD48:BD50)+BD44</f>
+        <f t="shared" ref="BD51" si="53">SUM(BD48:BD50)+BD44</f>
         <v>344215.38497618464</v>
       </c>
       <c r="BE51" s="6">
-        <f t="shared" ref="BE51" si="49">SUM(BE48:BE50)+BE44</f>
+        <f t="shared" ref="BE51" si="54">SUM(BE48:BE50)+BE44</f>
         <v>372282.91506352072</v>
       </c>
       <c r="BF51" s="6">
-        <f t="shared" ref="BF51" si="50">SUM(BF48:BF50)+BF44</f>
+        <f t="shared" ref="BF51" si="55">SUM(BF48:BF50)+BF44</f>
         <v>402618.20643221639</v>
       </c>
     </row>
@@ -4789,19 +4802,19 @@
         <v>1483.3209999999999</v>
       </c>
       <c r="AR52" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>32415</v>
       </c>
       <c r="AS52" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>49599</v>
       </c>
       <c r="AT52" s="4">
-        <f t="shared" ref="AT52:AT66" si="51">SUM(W52:Z52)</f>
+        <f t="shared" ref="AT52:AT66" si="56">SUM(W52:Z52)</f>
         <v>65121</v>
       </c>
       <c r="AU52" s="4">
-        <f>SUM(AA52:AD52)</f>
+        <f t="shared" ref="AU52:AU59" si="57">SUM(AA52:AD52)</f>
         <v>67150.401323192898</v>
       </c>
       <c r="AV52" s="4">
@@ -4829,23 +4842,23 @@
         <v>203990.98627223258</v>
       </c>
       <c r="BB52" s="4">
-        <f t="shared" ref="BB52:BF52" si="52">BB51*0.75</f>
+        <f t="shared" ref="BB52:BF52" si="58">BB51*0.75</f>
         <v>220664.08141041393</v>
       </c>
       <c r="BC52" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>238684.68207030452</v>
       </c>
       <c r="BD52" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>258161.53873213846</v>
       </c>
       <c r="BE52" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>279212.18629764055</v>
       </c>
       <c r="BF52" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>301963.65482416231</v>
       </c>
     </row>
@@ -4858,51 +4871,51 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5">
-        <f t="shared" ref="G53:N53" si="53">G45-G52</f>
+        <f t="shared" ref="G53:N53" si="59">G45-G52</f>
         <v>653</v>
       </c>
       <c r="H53" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>914</v>
       </c>
       <c r="I53" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>1118</v>
       </c>
       <c r="J53" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>1328</v>
       </c>
       <c r="K53" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>1194</v>
       </c>
       <c r="L53" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>1197</v>
       </c>
       <c r="M53" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>1985</v>
       </c>
       <c r="N53" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>1711</v>
       </c>
       <c r="O53" s="5">
-        <f t="shared" ref="O53:R53" si="54">O45-O52</f>
+        <f t="shared" ref="O53:R53" si="60">O45-O52</f>
         <v>1730</v>
       </c>
       <c r="P53" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>2401</v>
       </c>
       <c r="Q53" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>3243</v>
       </c>
       <c r="R53" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>4336</v>
       </c>
       <c r="S53" s="5">
@@ -4918,7 +4931,7 @@
         <v>4686</v>
       </c>
       <c r="V53" s="5">
-        <f t="shared" ref="V53:Z53" si="55">V45-V52</f>
+        <f t="shared" ref="V53:Z53" si="61">V45-V52</f>
         <v>5602</v>
       </c>
       <c r="W53" s="5">
@@ -4926,15 +4939,15 @@
         <v>3456</v>
       </c>
       <c r="X53" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>3578</v>
       </c>
       <c r="Y53" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>2926</v>
       </c>
       <c r="Z53" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>3428</v>
       </c>
       <c r="AA53" s="5">
@@ -4958,19 +4971,19 @@
       <c r="AG53" s="5"/>
       <c r="AH53" s="5"/>
       <c r="AR53" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>17139</v>
       </c>
       <c r="AS53" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>18405</v>
       </c>
       <c r="AT53" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>13388</v>
       </c>
       <c r="AU53" s="4">
-        <f>SUM(AA53:AD53)</f>
+        <f t="shared" si="57"/>
         <v>11711.835527622276</v>
       </c>
     </row>
@@ -5011,7 +5024,7 @@
       <c r="AG54" s="5"/>
       <c r="AH54" s="5"/>
       <c r="AU54" s="4">
-        <f>SUM(AA54:AD54)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
@@ -5102,15 +5115,15 @@
       <c r="AG55" s="5"/>
       <c r="AH55" s="5"/>
       <c r="AS55" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>1510</v>
       </c>
       <c r="AT55" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>1268</v>
       </c>
       <c r="AU55" s="4">
-        <f>SUM(AA55:AD55)</f>
+        <f t="shared" si="57"/>
         <v>1008.5</v>
       </c>
     </row>
@@ -5123,35 +5136,35 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5">
-        <f t="shared" ref="G56:K56" si="56">G48-G55-G52</f>
+        <f t="shared" ref="G56:K56" si="62">G48-G55-G52</f>
         <v>751</v>
       </c>
       <c r="H56" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>1016</v>
       </c>
       <c r="I56" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>1222</v>
       </c>
       <c r="J56" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>1434</v>
       </c>
       <c r="K56" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>1311</v>
       </c>
       <c r="L56" s="5">
-        <f t="shared" ref="L56" si="57">L48-L55-L52</f>
+        <f t="shared" ref="L56" si="63">L48-L55-L52</f>
         <v>1317</v>
       </c>
       <c r="M56" s="5">
-        <f t="shared" ref="M56:N56" si="58">M48-M55-M52</f>
+        <f t="shared" ref="M56:N56" si="64">M48-M55-M52</f>
         <v>2105</v>
       </c>
       <c r="N56" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>2244</v>
       </c>
       <c r="O56" s="5">
@@ -5159,19 +5172,19 @@
         <v>2385</v>
       </c>
       <c r="P56" s="5">
-        <f t="shared" ref="P56:S56" si="59">P48-P55-P52</f>
+        <f t="shared" ref="P56:S56" si="65">P48-P55-P52</f>
         <v>2899</v>
       </c>
       <c r="Q56" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>3673</v>
       </c>
       <c r="R56" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>4882</v>
       </c>
       <c r="S56" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>5539</v>
       </c>
       <c r="T56" s="5">
@@ -5183,7 +5196,7 @@
         <v>5212</v>
       </c>
       <c r="V56" s="5">
-        <f t="shared" ref="V56:AD56" si="60">V48-V55-V52</f>
+        <f t="shared" ref="V56:AD56" si="66">V48-V55-V52</f>
         <v>6568.7999999999993</v>
       </c>
       <c r="W56" s="5">
@@ -5191,19 +5204,19 @@
         <v>4208</v>
       </c>
       <c r="X56" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>4089</v>
       </c>
       <c r="Y56" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>3668</v>
       </c>
       <c r="Z56" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>4065</v>
       </c>
       <c r="AA56" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>3212</v>
       </c>
       <c r="AB56" s="5">
@@ -5211,11 +5224,11 @@
         <v>3671</v>
       </c>
       <c r="AC56" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>3774.3808570241199</v>
       </c>
       <c r="AD56" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>4287.9546705981556</v>
       </c>
       <c r="AE56" s="5"/>
@@ -5223,7 +5236,7 @@
       <c r="AG56" s="5"/>
       <c r="AH56" s="5"/>
       <c r="AS56" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>21399.8</v>
       </c>
       <c r="AT56" s="4">
@@ -5231,7 +5244,7 @@
         <v>16030</v>
       </c>
       <c r="AU56" s="4">
-        <f>SUM(AA56:AD56)</f>
+        <f t="shared" si="57"/>
         <v>14945.335527622276</v>
       </c>
       <c r="AV56" s="4">
@@ -5239,43 +5252,43 @@
         <v>21243.439358207805</v>
       </c>
       <c r="AW56" s="4">
-        <f t="shared" ref="AW56:BF56" si="61">AW51-AW52</f>
+        <f t="shared" ref="AW56:BF56" si="67">AW51-AW52</f>
         <v>29742.042711909977</v>
       </c>
       <c r="AX56" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>35442.219032577384</v>
       </c>
       <c r="AY56" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>46105.136828120361</v>
       </c>
       <c r="AZ56" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>57319.084803531819</v>
       </c>
       <c r="BA56" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>67996.995424077526</v>
       </c>
       <c r="BB56" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>73554.693803471309</v>
       </c>
       <c r="BC56" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>79561.560690101527</v>
       </c>
       <c r="BD56" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>86053.846244046174</v>
       </c>
       <c r="BE56" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>93070.728765880165</v>
       </c>
       <c r="BF56" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>100654.55160805408</v>
       </c>
     </row>
@@ -5366,15 +5379,15 @@
       <c r="AG57" s="5"/>
       <c r="AH57" s="5"/>
       <c r="AS57" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>3621</v>
       </c>
       <c r="AT57" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>4894</v>
       </c>
       <c r="AU57" s="4">
-        <f>SUM(AA57:AD57)</f>
+        <f t="shared" si="57"/>
         <v>6655.41</v>
       </c>
     </row>
@@ -5465,15 +5478,15 @@
       <c r="AG58" s="5"/>
       <c r="AH58" s="5"/>
       <c r="AS58" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>5880</v>
       </c>
       <c r="AT58" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>7830</v>
       </c>
       <c r="AU58" s="4">
-        <f>SUM(AA58:AD58)</f>
+        <f t="shared" si="57"/>
         <v>9846.4</v>
       </c>
     </row>
@@ -5486,99 +5499,99 @@
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5">
-        <f t="shared" ref="G59:K59" si="62">G56+G49+G50-G57-G58</f>
+        <f t="shared" ref="G59:K59" si="68">G56+G49+G50-G57-G58</f>
         <v>566</v>
       </c>
       <c r="H59" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>921</v>
       </c>
       <c r="I59" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1191</v>
       </c>
       <c r="J59" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1391</v>
       </c>
       <c r="K59" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1234</v>
       </c>
       <c r="L59" s="5">
-        <f t="shared" ref="L59" si="63">L56+L49+L50-L57-L58</f>
+        <f t="shared" ref="L59" si="69">L56+L49+L50-L57-L58</f>
         <v>1267</v>
       </c>
       <c r="M59" s="5">
-        <f t="shared" ref="M59:T59" si="64">M56+M49+M50-M57-M58</f>
+        <f t="shared" ref="M59:T59" si="70">M56+M49+M50-M57-M58</f>
         <v>2063</v>
       </c>
       <c r="N59" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>2066</v>
       </c>
       <c r="O59" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>2215</v>
       </c>
       <c r="P59" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>2884</v>
       </c>
       <c r="Q59" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>3660</v>
       </c>
       <c r="R59" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>4847</v>
       </c>
       <c r="S59" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>5460</v>
       </c>
       <c r="T59" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>4233</v>
       </c>
       <c r="U59" s="5">
-        <f t="shared" ref="U59:AD59" si="65">U56+U49+U50-U57-U58</f>
+        <f t="shared" ref="U59:AD59" si="71">U56+U49+U50-U57-U58</f>
         <v>5382</v>
       </c>
       <c r="V59" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>6265.5999999999985</v>
       </c>
       <c r="W59" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>4511</v>
       </c>
       <c r="X59" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>4533</v>
       </c>
       <c r="Y59" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>4178</v>
       </c>
       <c r="Z59" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>4438</v>
       </c>
       <c r="AA59" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>3696</v>
       </c>
       <c r="AB59" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>4578</v>
       </c>
       <c r="AC59" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>4101.7708570241202</v>
       </c>
       <c r="AD59" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>4431.7546705981558</v>
       </c>
       <c r="AE59" s="5"/>
@@ -5586,15 +5599,15 @@
       <c r="AG59" s="5"/>
       <c r="AH59" s="5"/>
       <c r="AS59" s="5">
-        <f t="shared" ref="AS59" si="66">+AS51*0.25</f>
+        <f t="shared" ref="AS59" si="72">+AS51*0.25</f>
         <v>20487.650000000001</v>
       </c>
       <c r="AT59" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>17660</v>
       </c>
       <c r="AU59" s="4">
-        <f>SUM(AA59:AD59)</f>
+        <f t="shared" si="57"/>
         <v>16807.525527622274</v>
       </c>
       <c r="AV59" s="4">
@@ -5602,43 +5615,43 @@
         <v>22895.691605247805</v>
       </c>
       <c r="AW59" s="4">
-        <f t="shared" ref="AW59:BF59" si="67">+AW56+AW44</f>
+        <f t="shared" ref="AW59:BF59" si="73">+AW56+AW44</f>
         <v>32999.249347909979</v>
       </c>
       <c r="AX59" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>40661.036588417388</v>
       </c>
       <c r="AY59" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>53891.881406296365</v>
       </c>
       <c r="AZ59" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>67930.549106277424</v>
       </c>
       <c r="BA59" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>81413.919998725207</v>
       </c>
       <c r="BB59" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>88128.870740278595</v>
       </c>
       <c r="BC59" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>95372.170413847765</v>
       </c>
       <c r="BD59" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>103185.09409108324</v>
       </c>
       <c r="BE59" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>111612.14952422777</v>
       </c>
       <c r="BF59" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>120701.3319492257</v>
       </c>
     </row>
@@ -5717,11 +5730,11 @@
         <v>1074</v>
       </c>
       <c r="AC60" s="5">
-        <f t="shared" ref="AC60:AD61" si="68">+Y60*1.1</f>
+        <f t="shared" ref="AC60:AD61" si="74">+Y60*1.1</f>
         <v>1277.1000000000001</v>
       </c>
       <c r="AD60" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>1203.4000000000001</v>
       </c>
       <c r="AE60" s="5"/>
@@ -5729,7 +5742,7 @@
       <c r="AG60" s="5"/>
       <c r="AH60" s="5"/>
       <c r="AS60" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>3075</v>
       </c>
       <c r="AT60" s="4">
@@ -5737,7 +5750,7 @@
         <v>3969</v>
       </c>
       <c r="AU60" s="4">
-        <f t="shared" ref="AU60:AU61" si="69">SUM(AA60:AD60)</f>
+        <f t="shared" ref="AU60:AU61" si="75">SUM(AA60:AD60)</f>
         <v>4705.5</v>
       </c>
       <c r="AV60" s="4">
@@ -5745,43 +5758,43 @@
         <v>4893.72</v>
       </c>
       <c r="AW60" s="4">
-        <f t="shared" ref="AW60:BA60" si="70">AV60*1.04</f>
+        <f t="shared" ref="AW60:BA60" si="76">AV60*1.04</f>
         <v>5089.4688000000006</v>
       </c>
       <c r="AX60" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>5293.0475520000009</v>
       </c>
       <c r="AY60" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>5504.7694540800012</v>
       </c>
       <c r="AZ60" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>5724.9602322432011</v>
       </c>
       <c r="BA60" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>5953.9586415329295</v>
       </c>
       <c r="BB60" s="4">
-        <f t="shared" ref="BB60:BF60" si="71">BA60*1.04</f>
+        <f t="shared" ref="BB60:BF60" si="77">BA60*1.04</f>
         <v>6192.1169871942466</v>
       </c>
       <c r="BC60" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>6439.8016666820167</v>
       </c>
       <c r="BD60" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>6697.3937333492977</v>
       </c>
       <c r="BE60" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>6965.2894826832699</v>
       </c>
       <c r="BF60" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>7243.9010619906012</v>
       </c>
     </row>
@@ -5861,11 +5874,11 @@
         <v>1277</v>
       </c>
       <c r="AC61" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>1378.3000000000002</v>
       </c>
       <c r="AD61" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>1408</v>
       </c>
       <c r="AE61" s="5"/>
@@ -5873,15 +5886,15 @@
       <c r="AG61" s="5"/>
       <c r="AH61" s="5"/>
       <c r="AS61" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>4706.8</v>
       </c>
       <c r="AT61" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>4800</v>
       </c>
       <c r="AU61" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>5437.3</v>
       </c>
       <c r="AV61" s="4">
@@ -5889,43 +5902,43 @@
         <v>5654.7920000000004</v>
       </c>
       <c r="AW61" s="4">
-        <f t="shared" ref="AW61:BA61" si="72">AV61*1.04</f>
+        <f t="shared" ref="AW61:BA61" si="78">AV61*1.04</f>
         <v>5880.9836800000003</v>
       </c>
       <c r="AX61" s="4">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>6116.2230272000006</v>
       </c>
       <c r="AY61" s="4">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>6360.8719482880006</v>
       </c>
       <c r="AZ61" s="4">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>6615.3068262195211</v>
       </c>
       <c r="BA61" s="4">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>6879.9190992683025</v>
       </c>
       <c r="BB61" s="4">
-        <f t="shared" ref="BB61:BF61" si="73">BA61*1.04</f>
+        <f t="shared" ref="BB61:BF61" si="79">BA61*1.04</f>
         <v>7155.1158632390352</v>
       </c>
       <c r="BC61" s="4">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>7441.3204977685973</v>
       </c>
       <c r="BD61" s="4">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>7738.9733176793416</v>
       </c>
       <c r="BE61" s="4">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>8048.5322503865154</v>
       </c>
       <c r="BF61" s="4">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>8370.4735404019757</v>
       </c>
     </row>
@@ -5938,51 +5951,51 @@
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5">
-        <f t="shared" ref="G62" si="74">G60+G61</f>
+        <f t="shared" ref="G62" si="80">G60+G61</f>
         <v>1044</v>
       </c>
       <c r="H62" s="5">
-        <f t="shared" ref="H62:I62" si="75">H60+H61</f>
+        <f t="shared" ref="H62:I62" si="81">H60+H61</f>
         <v>971</v>
       </c>
       <c r="I62" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>930</v>
       </c>
       <c r="J62" s="5">
-        <f t="shared" ref="J62:L62" si="76">J60+J61</f>
+        <f t="shared" ref="J62:L62" si="82">J60+J61</f>
         <v>1044</v>
       </c>
       <c r="K62" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>951</v>
       </c>
       <c r="L62" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>940</v>
       </c>
       <c r="M62" s="5">
-        <f t="shared" ref="M62:N62" si="77">M60+M61</f>
+        <f t="shared" ref="M62:N62" si="83">M60+M61</f>
         <v>1254</v>
       </c>
       <c r="N62" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>1491</v>
       </c>
       <c r="O62" s="5">
-        <f t="shared" ref="O62:R62" si="78">O60+O61</f>
+        <f t="shared" ref="O62:R62" si="84">O60+O61</f>
         <v>1722</v>
       </c>
       <c r="P62" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>1549</v>
       </c>
       <c r="Q62" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>1605</v>
       </c>
       <c r="R62" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>2234</v>
       </c>
       <c r="S62" s="5">
@@ -5998,7 +6011,7 @@
         <v>1694</v>
       </c>
       <c r="V62" s="5">
-        <f t="shared" ref="V62:AD62" si="79">V60+V61</f>
+        <f t="shared" ref="V62:AD62" si="85">V60+V61</f>
         <v>2602.8000000000002</v>
       </c>
       <c r="W62" s="5">
@@ -6006,31 +6019,31 @@
         <v>1847</v>
       </c>
       <c r="X62" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>2134</v>
       </c>
       <c r="Y62" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>2414</v>
       </c>
       <c r="Z62" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>2374</v>
       </c>
       <c r="AA62" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>2525</v>
       </c>
       <c r="AB62" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>2351</v>
       </c>
       <c r="AC62" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>2655.4000000000005</v>
       </c>
       <c r="AD62" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>2611.4</v>
       </c>
       <c r="AE62" s="5"/>
@@ -6038,7 +6051,7 @@
       <c r="AG62" s="5"/>
       <c r="AH62" s="5"/>
       <c r="AS62" s="4">
-        <f t="shared" ref="AS62" si="80">+AS60+AS61</f>
+        <f t="shared" ref="AS62" si="86">+AS60+AS61</f>
         <v>7781.8</v>
       </c>
       <c r="AT62" s="4">
@@ -6046,7 +6059,7 @@
         <v>8769</v>
       </c>
       <c r="AU62" s="4">
-        <f t="shared" ref="AU62:AY62" si="81">+AU60+AU61</f>
+        <f t="shared" ref="AU62:AY62" si="87">+AU60+AU61</f>
         <v>10142.799999999999</v>
       </c>
       <c r="AV62" s="4">
@@ -6054,43 +6067,43 @@
         <v>10548.512000000001</v>
       </c>
       <c r="AW62" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>10970.45248</v>
       </c>
       <c r="AX62" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>11409.270579200002</v>
       </c>
       <c r="AY62" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>11865.641402368001</v>
       </c>
       <c r="AZ62" s="4">
-        <f t="shared" ref="AZ62" si="82">+AZ60+AZ61</f>
+        <f t="shared" ref="AZ62" si="88">+AZ60+AZ61</f>
         <v>12340.267058462723</v>
       </c>
       <c r="BA62" s="4">
-        <f t="shared" ref="BA62:BF62" si="83">+BA60+BA61</f>
+        <f t="shared" ref="BA62:BF62" si="89">+BA60+BA61</f>
         <v>12833.877740801232</v>
       </c>
       <c r="BB62" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>13347.232850433282</v>
       </c>
       <c r="BC62" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>13881.122164450615</v>
       </c>
       <c r="BD62" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>14436.367051028639</v>
       </c>
       <c r="BE62" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>15013.821733069784</v>
       </c>
       <c r="BF62" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>15614.374602392578</v>
       </c>
     </row>
@@ -6103,51 +6116,51 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5">
-        <f t="shared" ref="G63" si="84">G59-G62</f>
+        <f t="shared" ref="G63" si="90">G59-G62</f>
         <v>-478</v>
       </c>
       <c r="H63" s="5">
-        <f t="shared" ref="H63:I63" si="85">H59-H62</f>
+        <f t="shared" ref="H63:I63" si="91">H59-H62</f>
         <v>-50</v>
       </c>
       <c r="I63" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>261</v>
       </c>
       <c r="J63" s="5">
-        <f t="shared" ref="J63:L63" si="86">J59-J62</f>
+        <f t="shared" ref="J63:L63" si="92">J59-J62</f>
         <v>347</v>
       </c>
       <c r="K63" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>283</v>
       </c>
       <c r="L63" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>327</v>
       </c>
       <c r="M63" s="5">
-        <f t="shared" ref="M63:N63" si="87">M59-M62</f>
+        <f t="shared" ref="M63:N63" si="93">M59-M62</f>
         <v>809</v>
       </c>
       <c r="N63" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>575</v>
       </c>
       <c r="O63" s="5">
-        <f t="shared" ref="O63:R63" si="88">O59-O62</f>
+        <f t="shared" ref="O63:R63" si="94">O59-O62</f>
         <v>493</v>
       </c>
       <c r="P63" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>1335</v>
       </c>
       <c r="Q63" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>2055</v>
       </c>
       <c r="R63" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>2613</v>
       </c>
       <c r="S63" s="5">
@@ -6163,7 +6176,7 @@
         <v>3688</v>
       </c>
       <c r="V63" s="5">
-        <f t="shared" ref="V63:AD63" si="89">V59-V62</f>
+        <f t="shared" ref="V63:AD63" si="95">V59-V62</f>
         <v>3662.7999999999984</v>
       </c>
       <c r="W63" s="5">
@@ -6171,31 +6184,31 @@
         <v>2664</v>
       </c>
       <c r="X63" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>2399</v>
       </c>
       <c r="Y63" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>1764</v>
       </c>
       <c r="Z63" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>2064</v>
       </c>
       <c r="AA63" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>1171</v>
       </c>
       <c r="AB63" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>2227</v>
       </c>
       <c r="AC63" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>1446.3708570241197</v>
       </c>
       <c r="AD63" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>1820.3546705981557</v>
       </c>
       <c r="AE63" s="5"/>
@@ -6203,15 +6216,15 @@
       <c r="AG63" s="5"/>
       <c r="AH63" s="5"/>
       <c r="AS63" s="5">
-        <f t="shared" ref="AS63:AT63" si="90">AS59-AS62</f>
+        <f t="shared" ref="AS63:AT63" si="96">AS59-AS62</f>
         <v>12705.850000000002</v>
       </c>
       <c r="AT63" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>8891</v>
       </c>
       <c r="AU63" s="5">
-        <f t="shared" ref="AU63:BA63" si="91">AU59-AU62</f>
+        <f t="shared" ref="AU63:BA63" si="97">AU59-AU62</f>
         <v>6664.725527622275</v>
       </c>
       <c r="AV63" s="5">
@@ -6219,43 +6232,43 @@
         <v>12347.179605247804</v>
       </c>
       <c r="AW63" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>22028.796867909979</v>
       </c>
       <c r="AX63" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>29251.766009217386</v>
       </c>
       <c r="AY63" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>42026.240003928368</v>
       </c>
       <c r="AZ63" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>55590.282047814704</v>
       </c>
       <c r="BA63" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>68580.042257923982</v>
       </c>
       <c r="BB63" s="5">
-        <f t="shared" ref="BB63:BF63" si="92">BB59-BB62</f>
+        <f t="shared" ref="BB63:BF63" si="98">BB59-BB62</f>
         <v>74781.637889845311</v>
       </c>
       <c r="BC63" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>81491.04824939715</v>
       </c>
       <c r="BD63" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>88748.727040054597</v>
       </c>
       <c r="BE63" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>96598.327791157993</v>
       </c>
       <c r="BF63" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>105086.95734683312</v>
       </c>
     </row>
@@ -6362,55 +6375,55 @@
       <c r="AG64" s="5"/>
       <c r="AH64" s="5"/>
       <c r="AT64" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>1082</v>
       </c>
       <c r="AU64" s="4">
-        <f t="shared" ref="AU64" si="93">SUM(AA64:AD64)</f>
+        <f t="shared" ref="AU64" si="99">SUM(AA64:AD64)</f>
         <v>664</v>
       </c>
       <c r="AV64" s="4">
-        <f>AU94*$BH$81</f>
+        <f t="shared" ref="AV64:BF64" si="100">AU94*$BH$81</f>
         <v>2970.6380422097823</v>
       </c>
       <c r="AW64" s="4">
-        <f>AV94*$BH$81</f>
+        <f t="shared" si="100"/>
         <v>4272.6525422436771</v>
       </c>
       <c r="AX64" s="4">
-        <f>AW94*$BH$81</f>
+        <f t="shared" si="100"/>
         <v>6508.2757421067381</v>
       </c>
       <c r="AY64" s="4">
-        <f>AX94*$BH$81</f>
+        <f t="shared" si="100"/>
         <v>9547.8792909692893</v>
       </c>
       <c r="AZ64" s="4">
-        <f>AY94*$BH$81</f>
+        <f t="shared" si="100"/>
         <v>13931.679431035591</v>
       </c>
       <c r="BA64" s="4">
-        <f>AZ94*$BH$81</f>
+        <f t="shared" si="100"/>
         <v>19841.046156737866</v>
       </c>
       <c r="BB64" s="4">
-        <f>BA94*$BH$81</f>
+        <f t="shared" si="100"/>
         <v>27356.838671984122</v>
       </c>
       <c r="BC64" s="4">
-        <f>BB94*$BH$81</f>
+        <f t="shared" si="100"/>
         <v>36038.609179739629</v>
       </c>
       <c r="BD64" s="4">
-        <f>BC94*$BH$81</f>
+        <f t="shared" si="100"/>
         <v>46028.630061216252</v>
       </c>
       <c r="BE64" s="4">
-        <f>BD94*$BH$81</f>
+        <f t="shared" si="100"/>
         <v>57484.705414824275</v>
       </c>
       <c r="BF64" s="4">
-        <f>BE94*$BH$81</f>
+        <f t="shared" si="100"/>
         <v>70581.763237332765</v>
       </c>
     </row>
@@ -6423,51 +6436,51 @@
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5">
-        <f t="shared" ref="G65:N65" si="94">G63+G64</f>
+        <f t="shared" ref="G65:N65" si="101">G63+G64</f>
         <v>-601</v>
       </c>
       <c r="H65" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>-253</v>
       </c>
       <c r="I65" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>176</v>
       </c>
       <c r="J65" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>160</v>
       </c>
       <c r="K65" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>70</v>
       </c>
       <c r="L65" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>150</v>
       </c>
       <c r="M65" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>555</v>
       </c>
       <c r="N65" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="101"/>
         <v>379</v>
       </c>
       <c r="O65" s="5">
-        <f t="shared" ref="O65:R65" si="95">O63+O64</f>
+        <f t="shared" ref="O65:R65" si="102">O63+O64</f>
         <v>432</v>
       </c>
       <c r="P65" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="102"/>
         <v>1316</v>
       </c>
       <c r="Q65" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="102"/>
         <v>1933</v>
       </c>
       <c r="R65" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="102"/>
         <v>2635</v>
       </c>
       <c r="S65" s="5">
@@ -6483,39 +6496,39 @@
         <v>3636</v>
       </c>
       <c r="V65" s="5">
-        <f t="shared" ref="V65:AD65" si="96">V63+V64</f>
+        <f t="shared" ref="V65:AD65" si="103">V63+V64</f>
         <v>3744.7999999999984</v>
       </c>
       <c r="W65" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="103"/>
         <v>2800</v>
       </c>
       <c r="X65" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="103"/>
         <v>2937</v>
       </c>
       <c r="Y65" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="103"/>
         <v>2045</v>
       </c>
       <c r="Z65" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="103"/>
         <v>2191</v>
       </c>
       <c r="AA65" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="103"/>
         <v>1553</v>
       </c>
       <c r="AB65" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="103"/>
         <v>2509</v>
       </c>
       <c r="AC65" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="103"/>
         <v>1446.3708570241197</v>
       </c>
       <c r="AD65" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="103"/>
         <v>1820.3546705981557</v>
       </c>
       <c r="AE65" s="5"/>
@@ -6527,51 +6540,51 @@
         <v>9973</v>
       </c>
       <c r="AU65" s="4">
-        <f t="shared" ref="AU65:BF65" si="97">+AU63+AU64</f>
+        <f t="shared" ref="AU65:BF65" si="104">+AU63+AU64</f>
         <v>7328.725527622275</v>
       </c>
       <c r="AV65" s="4">
-        <f t="shared" si="97"/>
+        <f t="shared" si="104"/>
         <v>15317.817647457587</v>
       </c>
       <c r="AW65" s="4">
-        <f t="shared" si="97"/>
+        <f t="shared" si="104"/>
         <v>26301.449410153655</v>
       </c>
       <c r="AX65" s="4">
-        <f t="shared" si="97"/>
+        <f t="shared" si="104"/>
         <v>35760.041751324126</v>
       </c>
       <c r="AY65" s="4">
-        <f t="shared" si="97"/>
+        <f t="shared" si="104"/>
         <v>51574.119294897653</v>
       </c>
       <c r="AZ65" s="4">
-        <f t="shared" si="97"/>
+        <f t="shared" si="104"/>
         <v>69521.961478850295</v>
       </c>
       <c r="BA65" s="4">
-        <f t="shared" si="97"/>
+        <f t="shared" si="104"/>
         <v>88421.088414661848</v>
       </c>
       <c r="BB65" s="4">
-        <f t="shared" si="97"/>
+        <f t="shared" si="104"/>
         <v>102138.47656182943</v>
       </c>
       <c r="BC65" s="4">
-        <f t="shared" si="97"/>
+        <f t="shared" si="104"/>
         <v>117529.65742913677</v>
       </c>
       <c r="BD65" s="4">
-        <f t="shared" si="97"/>
+        <f t="shared" si="104"/>
         <v>134777.35710127084</v>
       </c>
       <c r="BE65" s="4">
-        <f t="shared" si="97"/>
+        <f t="shared" si="104"/>
         <v>154083.03320598227</v>
       </c>
       <c r="BF65" s="4">
-        <f t="shared" si="97"/>
+        <f t="shared" si="104"/>
         <v>175668.72058416589</v>
       </c>
     </row>
@@ -6681,55 +6694,55 @@
       <c r="AG66" s="5"/>
       <c r="AH66" s="5"/>
       <c r="AT66" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>728</v>
       </c>
       <c r="AU66" s="4">
-        <f t="shared" ref="AU66" si="98">SUM(AA66:AD66)</f>
+        <f t="shared" ref="AU66" si="105">SUM(AA66:AD66)</f>
         <v>1486.345105524455</v>
       </c>
       <c r="AV66" s="4">
-        <f>+AV65*0.15</f>
+        <f t="shared" ref="AV66:BA66" si="106">+AV65*0.15</f>
         <v>2297.672647118638</v>
       </c>
       <c r="AW66" s="4">
-        <f>+AW65*0.15</f>
+        <f t="shared" si="106"/>
         <v>3945.2174115230482</v>
       </c>
       <c r="AX66" s="4">
-        <f>+AX65*0.15</f>
+        <f t="shared" si="106"/>
         <v>5364.0062626986191</v>
       </c>
       <c r="AY66" s="4">
-        <f>+AY65*0.15</f>
+        <f t="shared" si="106"/>
         <v>7736.1178942346478</v>
       </c>
       <c r="AZ66" s="4">
-        <f>+AZ65*0.15</f>
+        <f t="shared" si="106"/>
         <v>10428.294221827544</v>
       </c>
       <c r="BA66" s="4">
-        <f>+BA65*0.15</f>
+        <f t="shared" si="106"/>
         <v>13263.163262199278</v>
       </c>
       <c r="BB66" s="4">
-        <f t="shared" ref="BB66:BF66" si="99">+BB65*0.15</f>
+        <f t="shared" ref="BB66:BF66" si="107">+BB65*0.15</f>
         <v>15320.771484274414</v>
       </c>
       <c r="BC66" s="4">
-        <f t="shared" si="99"/>
+        <f t="shared" si="107"/>
         <v>17629.448614370514</v>
       </c>
       <c r="BD66" s="4">
-        <f t="shared" si="99"/>
+        <f t="shared" si="107"/>
         <v>20216.603565190624</v>
       </c>
       <c r="BE66" s="4">
-        <f t="shared" si="99"/>
+        <f t="shared" si="107"/>
         <v>23112.454980897339</v>
       </c>
       <c r="BF66" s="4">
-        <f t="shared" si="99"/>
+        <f t="shared" si="107"/>
         <v>26350.308087624882</v>
       </c>
     </row>
@@ -6742,51 +6755,51 @@
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5">
-        <f t="shared" ref="G67:N67" si="100">G65-G66</f>
+        <f t="shared" ref="G67:N67" si="108">G65-G66</f>
         <v>-658</v>
       </c>
       <c r="H67" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="108"/>
         <v>-291</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="108"/>
         <v>143</v>
       </c>
       <c r="J67" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="108"/>
         <v>91</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="108"/>
         <v>16</v>
       </c>
       <c r="L67" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="108"/>
         <v>104</v>
       </c>
       <c r="M67" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="108"/>
         <v>300</v>
       </c>
       <c r="N67" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="108"/>
         <v>270</v>
       </c>
       <c r="O67" s="5">
-        <f t="shared" ref="O67:R67" si="101">O65-O66</f>
+        <f t="shared" ref="O67:R67" si="109">O65-O66</f>
         <v>337</v>
       </c>
       <c r="P67" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>1165</v>
       </c>
       <c r="Q67" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>1669</v>
       </c>
       <c r="R67" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>2321</v>
       </c>
       <c r="S67" s="5">
@@ -6802,39 +6815,39 @@
         <v>3331</v>
       </c>
       <c r="V67" s="5">
-        <f t="shared" ref="V67:AD67" si="102">V65-V66</f>
+        <f t="shared" ref="V67:AD67" si="110">V65-V66</f>
         <v>3468.7999999999984</v>
       </c>
       <c r="W67" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>2513</v>
       </c>
       <c r="X67" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>2703</v>
       </c>
       <c r="Y67" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>1853</v>
       </c>
       <c r="Z67" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>2176</v>
       </c>
       <c r="AA67" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>1129</v>
       </c>
       <c r="AB67" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>2100</v>
       </c>
       <c r="AC67" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>1157.0966856192958</v>
       </c>
       <c r="AD67" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>1456.2837364785246</v>
       </c>
       <c r="AE67" s="5"/>
@@ -6846,255 +6859,255 @@
         <v>9245</v>
       </c>
       <c r="AU67" s="4">
-        <f t="shared" ref="AU67" si="103">+AU65-AU66</f>
+        <f t="shared" ref="AU67" si="111">+AU65-AU66</f>
         <v>5842.38042209782</v>
       </c>
       <c r="AV67" s="4">
-        <f>+AV65-AV66</f>
+        <f t="shared" ref="AV67:BA67" si="112">+AV65-AV66</f>
         <v>13020.145000338949</v>
       </c>
       <c r="AW67" s="4">
-        <f>+AW65-AW66</f>
+        <f t="shared" si="112"/>
         <v>22356.231998630607</v>
       </c>
       <c r="AX67" s="4">
-        <f>+AX65-AX66</f>
+        <f t="shared" si="112"/>
         <v>30396.035488625508</v>
       </c>
       <c r="AY67" s="4">
-        <f>+AY65-AY66</f>
+        <f t="shared" si="112"/>
         <v>43838.001400663008</v>
       </c>
       <c r="AZ67" s="4">
-        <f>+AZ65-AZ66</f>
+        <f t="shared" si="112"/>
         <v>59093.667257022753</v>
       </c>
       <c r="BA67" s="4">
-        <f>+BA65-BA66</f>
+        <f t="shared" si="112"/>
         <v>75157.925152462572</v>
       </c>
       <c r="BB67" s="4">
-        <f t="shared" ref="BB67:BF67" si="104">+BB65-BB66</f>
+        <f t="shared" ref="BB67:BF67" si="113">+BB65-BB66</f>
         <v>86817.705077555016</v>
       </c>
       <c r="BC67" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="113"/>
         <v>99900.208814766258</v>
       </c>
       <c r="BD67" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="113"/>
         <v>114560.75353608021</v>
       </c>
       <c r="BE67" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="113"/>
         <v>130970.57822508493</v>
       </c>
       <c r="BF67" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="113"/>
         <v>149318.41249654102</v>
       </c>
       <c r="BG67" s="4">
-        <f>BF67*(1+$BH$78)</f>
+        <f t="shared" ref="BG67:CL67" si="114">BF67*(1+$BH$78)</f>
         <v>147825.22837157559</v>
       </c>
       <c r="BH67" s="4">
-        <f>BG67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>146346.97608785983</v>
       </c>
       <c r="BI67" s="4">
-        <f>BH67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>144883.50632698124</v>
       </c>
       <c r="BJ67" s="4">
-        <f>BI67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>143434.67126371141</v>
       </c>
       <c r="BK67" s="4">
-        <f>BJ67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>142000.3245510743</v>
       </c>
       <c r="BL67" s="4">
-        <f>BK67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>140580.32130556356</v>
       </c>
       <c r="BM67" s="4">
-        <f>BL67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>139174.51809250793</v>
       </c>
       <c r="BN67" s="4">
-        <f>BM67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>137782.77291158284</v>
       </c>
       <c r="BO67" s="4">
-        <f>BN67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>136404.94518246703</v>
       </c>
       <c r="BP67" s="4">
-        <f>BO67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>135040.89573064234</v>
       </c>
       <c r="BQ67" s="4">
-        <f>BP67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>133690.48677333593</v>
       </c>
       <c r="BR67" s="4">
-        <f>BQ67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>132353.58190560256</v>
       </c>
       <c r="BS67" s="4">
-        <f>BR67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>131030.04608654654</v>
       </c>
       <c r="BT67" s="4">
-        <f>BS67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>129719.74562568107</v>
       </c>
       <c r="BU67" s="4">
-        <f>BT67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>128422.54816942426</v>
       </c>
       <c r="BV67" s="4">
-        <f>BU67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>127138.32268773002</v>
       </c>
       <c r="BW67" s="4">
-        <f>BV67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>125866.93946085272</v>
       </c>
       <c r="BX67" s="4">
-        <f>BW67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>124608.27006624419</v>
       </c>
       <c r="BY67" s="4">
-        <f>BX67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>123362.18736558175</v>
       </c>
       <c r="BZ67" s="4">
-        <f>BY67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>122128.56549192593</v>
       </c>
       <c r="CA67" s="4">
-        <f>BZ67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>120907.27983700666</v>
       </c>
       <c r="CB67" s="4">
-        <f>CA67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>119698.2070386366</v>
       </c>
       <c r="CC67" s="4">
-        <f>CB67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>118501.22496825023</v>
       </c>
       <c r="CD67" s="4">
-        <f>CC67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>117316.21271856772</v>
       </c>
       <c r="CE67" s="4">
-        <f>CD67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>116143.05059138205</v>
       </c>
       <c r="CF67" s="4">
-        <f>CE67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>114981.62008546822</v>
       </c>
       <c r="CG67" s="4">
-        <f>CF67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>113831.80388461355</v>
       </c>
       <c r="CH67" s="4">
-        <f>CG67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>112693.48584576741</v>
       </c>
       <c r="CI67" s="4">
-        <f>CH67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>111566.55098730973</v>
       </c>
       <c r="CJ67" s="4">
-        <f>CI67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>110450.88547743663</v>
       </c>
       <c r="CK67" s="4">
-        <f>CJ67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>109346.37662266227</v>
       </c>
       <c r="CL67" s="4">
-        <f>CK67*(1+$BH$78)</f>
+        <f t="shared" si="114"/>
         <v>108252.91285643565</v>
       </c>
       <c r="CM67" s="4">
-        <f>CL67*(1+$BH$78)</f>
+        <f t="shared" ref="CM67:DE67" si="115">CL67*(1+$BH$78)</f>
         <v>107170.38372787129</v>
       </c>
       <c r="CN67" s="4">
-        <f>CM67*(1+$BH$78)</f>
+        <f t="shared" si="115"/>
         <v>106098.67989059257</v>
       </c>
       <c r="CO67" s="4">
-        <f>CN67*(1+$BH$78)</f>
+        <f t="shared" si="115"/>
         <v>105037.69309168664</v>
       </c>
       <c r="CP67" s="4">
-        <f>CO67*(1+$BH$78)</f>
+        <f t="shared" si="115"/>
         <v>103987.31616076977</v>
       </c>
       <c r="CQ67" s="4">
-        <f>CP67*(1+$BH$78)</f>
+        <f t="shared" si="115"/>
         <v>102947.44299916207</v>
       </c>
       <c r="CR67" s="4">
-        <f>CQ67*(1+$BH$78)</f>
+        <f t="shared" si="115"/>
         <v>101917.96856917045</v>
       </c>
       <c r="CS67" s="4">
-        <f>CR67*(1+$BH$78)</f>
+        <f t="shared" si="115"/>
         <v>100898.78888347874</v>
       </c>
       <c r="CT67" s="4">
-        <f>CS67*(1+$BH$78)</f>
+        <f t="shared" si="115"/>
         <v>99889.800994643956</v>
       </c>
       <c r="CU67" s="4">
-        <f>CT67*(1+$BH$78)</f>
+        <f t="shared" si="115"/>
         <v>98890.902984697517</v>
       </c>
       <c r="CV67" s="4">
-        <f>CU67*(1+$BH$78)</f>
+        <f t="shared" si="115"/>
         <v>97901.993954850535</v>
       </c>
       <c r="CW67" s="4">
-        <f>CV67*(1+$BH$78)</f>
+        <f t="shared" si="115"/>
         <v>96922.974015302025</v>
       </c>
       <c r="CX67" s="4">
-        <f>CW67*(1+$BH$78)</f>
+        <f t="shared" si="115"/>
         <v>95953.744275149002</v>
       </c>
       <c r="CY67" s="4">
-        <f>CX67*(1+$BH$78)</f>
+        <f t="shared" si="115"/>
         <v>94994.206832397511</v>
       </c>
       <c r="CZ67" s="4">
-        <f>CY67*(1+$BH$78)</f>
+        <f t="shared" si="115"/>
         <v>94044.264764073538</v>
       </c>
       <c r="DA67" s="4">
-        <f>CZ67*(1+$BH$78)</f>
+        <f t="shared" si="115"/>
         <v>93103.822116432799</v>
       </c>
       <c r="DB67" s="4">
-        <f>DA67*(1+$BH$78)</f>
+        <f t="shared" si="115"/>
         <v>92172.783895268469</v>
       </c>
       <c r="DC67" s="4">
-        <f>DB67*(1+$BH$78)</f>
+        <f t="shared" si="115"/>
         <v>91251.056056315778</v>
       </c>
       <c r="DD67" s="4">
-        <f>DC67*(1+$BH$78)</f>
+        <f t="shared" si="115"/>
         <v>90338.545495752624</v>
       </c>
       <c r="DE67" s="4">
-        <f>DD67*(1+$BH$78)</f>
+        <f t="shared" si="115"/>
         <v>89435.16004079509</v>
       </c>
     </row>
@@ -7107,99 +7120,99 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3">
-        <f t="shared" ref="G68:K68" si="105">G67/G69</f>
+        <f t="shared" ref="G68:K68" si="116">G67/G69</f>
         <v>-0.76069364161849706</v>
       </c>
       <c r="H68" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="116"/>
         <v>-0.32881355932203388</v>
       </c>
       <c r="I68" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="116"/>
         <v>0.15509761388286333</v>
       </c>
       <c r="J68" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="116"/>
         <v>9.8913043478260868E-2</v>
       </c>
       <c r="K68" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="116"/>
         <v>1.7112299465240642E-2</v>
       </c>
       <c r="L68" s="3">
-        <f t="shared" ref="L68" si="106">L67/L69</f>
+        <f t="shared" ref="L68" si="117">L67/L69</f>
         <v>0.10048309178743961</v>
       </c>
       <c r="M68" s="3">
-        <f t="shared" ref="M68:O68" si="107">M67/M69</f>
+        <f t="shared" ref="M68:O68" si="118">M67/M69</f>
         <v>0.27149321266968324</v>
       </c>
       <c r="N68" s="3">
-        <f t="shared" si="107"/>
+        <f t="shared" si="118"/>
         <v>0.2402135231316726</v>
       </c>
       <c r="O68" s="3">
-        <f t="shared" si="107"/>
+        <f t="shared" si="118"/>
         <v>0.29744042365401591</v>
       </c>
       <c r="P68" s="3">
-        <f t="shared" ref="P68" si="108">P67/P69</f>
+        <f t="shared" ref="P68" si="119">P67/P69</f>
         <v>1.0411081322609472</v>
       </c>
       <c r="Q68" s="3">
-        <f t="shared" ref="Q68" si="109">Q67/Q69</f>
+        <f t="shared" ref="Q68" si="120">Q67/Q69</f>
         <v>1.4861976847729297</v>
       </c>
       <c r="R68" s="3">
-        <f t="shared" ref="R68" si="110">R67/R69</f>
+        <f t="shared" ref="R68" si="121">R67/R69</f>
         <v>2.044933920704846</v>
       </c>
       <c r="S68" s="3">
-        <f t="shared" ref="S68:U68" si="111">S67/S69</f>
+        <f t="shared" ref="S68:U68" si="122">S67/S69</f>
         <v>2.867761452031115</v>
       </c>
       <c r="T68" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="122"/>
         <v>2.032900432900433</v>
       </c>
       <c r="U68" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="122"/>
         <v>0.96049596309111884</v>
       </c>
       <c r="V68" s="3">
-        <f t="shared" ref="V68:AD68" si="112">V67/V69</f>
+        <f t="shared" ref="V68:AD68" si="123">V67/V69</f>
         <v>0.99936617689426632</v>
       </c>
       <c r="W68" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="123"/>
         <v>0.7246251441753172</v>
       </c>
       <c r="X68" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="123"/>
         <v>0.77717078780908566</v>
       </c>
       <c r="Y68" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="123"/>
         <v>0.53048955052963065</v>
       </c>
       <c r="Z68" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="123"/>
         <v>0.62313860252004583</v>
       </c>
       <c r="AA68" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="123"/>
         <v>0.32405281285878301</v>
       </c>
       <c r="AB68" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="123"/>
         <v>0.60327492099971269</v>
       </c>
       <c r="AC68" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="123"/>
         <v>0.33240352933619532</v>
       </c>
       <c r="AD68" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="123"/>
         <v>0.41835212194154686</v>
       </c>
       <c r="AE68" s="3"/>
@@ -7211,51 +7224,51 @@
         <v>2.6545115210681214</v>
       </c>
       <c r="AU68" s="20">
-        <f t="shared" ref="AU68:BA68" si="113">+AU67/AU69</f>
+        <f t="shared" ref="AU68:BA68" si="124">+AU67/AU69</f>
         <v>1.6780011264731298</v>
       </c>
       <c r="AV68" s="20">
-        <f t="shared" si="113"/>
+        <f t="shared" si="124"/>
         <v>3.7395404610724348</v>
       </c>
       <c r="AW68" s="20">
-        <f t="shared" si="113"/>
+        <f t="shared" si="124"/>
         <v>6.4209756583989677</v>
       </c>
       <c r="AX68" s="20">
-        <f t="shared" si="113"/>
+        <f t="shared" si="124"/>
         <v>8.7301028185899359</v>
       </c>
       <c r="AY68" s="20">
-        <f t="shared" si="113"/>
+        <f t="shared" si="124"/>
         <v>12.590795261194229</v>
       </c>
       <c r="AZ68" s="20">
-        <f t="shared" si="113"/>
+        <f t="shared" si="124"/>
         <v>16.972403893738136</v>
       </c>
       <c r="BA68" s="20">
-        <f t="shared" si="113"/>
+        <f t="shared" si="124"/>
         <v>21.586249774527918</v>
       </c>
       <c r="BB68" s="20">
-        <f t="shared" ref="BB68:BF68" si="114">+BB67/BB69</f>
+        <f t="shared" ref="BB68:BF68" si="125">+BB67/BB69</f>
         <v>24.935077210470315</v>
       </c>
       <c r="BC68" s="20">
-        <f t="shared" si="114"/>
+        <f t="shared" si="125"/>
         <v>28.69252784225354</v>
       </c>
       <c r="BD68" s="20">
-        <f t="shared" si="114"/>
+        <f t="shared" si="125"/>
         <v>32.90321060848143</v>
       </c>
       <c r="BE68" s="20">
-        <f t="shared" si="114"/>
+        <f t="shared" si="125"/>
         <v>37.616307381369978</v>
       </c>
       <c r="BF68" s="20">
-        <f t="shared" si="114"/>
+        <f t="shared" si="125"/>
         <v>42.886023550381566</v>
       </c>
     </row>
@@ -7359,47 +7372,47 @@
         <v>3481.75</v>
       </c>
       <c r="AV69" s="4">
-        <f t="shared" ref="AV69:AY69" si="115">AU69</f>
+        <f t="shared" ref="AV69:AY69" si="126">AU69</f>
         <v>3481.75</v>
       </c>
       <c r="AW69" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="126"/>
         <v>3481.75</v>
       </c>
       <c r="AX69" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="126"/>
         <v>3481.75</v>
       </c>
       <c r="AY69" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="126"/>
         <v>3481.75</v>
       </c>
       <c r="AZ69" s="4">
-        <f t="shared" ref="AZ69:BA69" si="116">AY69</f>
+        <f t="shared" ref="AZ69:BA69" si="127">AY69</f>
         <v>3481.75</v>
       </c>
       <c r="BA69" s="4">
-        <f t="shared" si="116"/>
+        <f t="shared" si="127"/>
         <v>3481.75</v>
       </c>
       <c r="BB69" s="4">
-        <f t="shared" ref="BB69" si="117">BA69</f>
+        <f t="shared" ref="BB69" si="128">BA69</f>
         <v>3481.75</v>
       </c>
       <c r="BC69" s="4">
-        <f t="shared" ref="BC69" si="118">BB69</f>
+        <f t="shared" ref="BC69" si="129">BB69</f>
         <v>3481.75</v>
       </c>
       <c r="BD69" s="4">
-        <f t="shared" ref="BD69" si="119">BC69</f>
+        <f t="shared" ref="BD69" si="130">BC69</f>
         <v>3481.75</v>
       </c>
       <c r="BE69" s="4">
-        <f t="shared" ref="BE69" si="120">BD69</f>
+        <f t="shared" ref="BE69" si="131">BD69</f>
         <v>3481.75</v>
       </c>
       <c r="BF69" s="4">
-        <f t="shared" ref="BF69" si="121">BE69</f>
+        <f t="shared" ref="BF69" si="132">BE69</f>
         <v>3481.75</v>
       </c>
     </row>
@@ -7420,35 +7433,35 @@
         <v>0.31799163179916312</v>
       </c>
       <c r="L71" s="22">
-        <f t="shared" ref="L71" si="122">L51/H51-1</f>
+        <f t="shared" ref="L71" si="133">L51/H51-1</f>
         <v>-4.9448818897637747E-2</v>
       </c>
       <c r="M71" s="22">
-        <f t="shared" ref="M71" si="123">M51/I51-1</f>
+        <f t="shared" ref="M71" si="134">M51/I51-1</f>
         <v>0.39155957480564818</v>
       </c>
       <c r="N71" s="22">
-        <f t="shared" ref="N71" si="124">N51/J51-1</f>
+        <f t="shared" ref="N71" si="135">N51/J51-1</f>
         <v>0.45503791982665232</v>
       </c>
       <c r="O71" s="22">
-        <f t="shared" ref="O71" si="125">O51/K51-1</f>
+        <f t="shared" ref="O71" si="136">O51/K51-1</f>
         <v>0.73583959899749374</v>
       </c>
       <c r="P71" s="22">
-        <f t="shared" ref="P71:Q71" si="126">P51/L51-1</f>
+        <f t="shared" ref="P71:Q71" si="137">P51/L51-1</f>
         <v>0.98111332007952279</v>
       </c>
       <c r="Q71" s="22">
-        <f t="shared" si="126"/>
+        <f t="shared" si="137"/>
         <v>0.56846425721126437</v>
       </c>
       <c r="R71" s="22">
-        <f t="shared" ref="R71:S71" si="127">R51/N51-1</f>
+        <f t="shared" ref="R71:S71" si="138">R51/N51-1</f>
         <v>0.64919955323901712</v>
       </c>
       <c r="S71" s="22">
-        <f t="shared" si="127"/>
+        <f t="shared" si="138"/>
         <v>0.80537106555010096</v>
       </c>
       <c r="T71" s="22">
@@ -7464,15 +7477,15 @@
         <v>0.39999999999999991</v>
       </c>
       <c r="W71" s="22">
-        <f t="shared" ref="W71:AD71" si="128">W51/S51-1</f>
+        <f t="shared" ref="W71:AD71" si="139">W51/S51-1</f>
         <v>0.24381531243335464</v>
       </c>
       <c r="X71" s="22">
-        <f t="shared" si="128"/>
+        <f t="shared" si="139"/>
         <v>0.47200897602456604</v>
       </c>
       <c r="Y71" s="22">
-        <f t="shared" si="128"/>
+        <f t="shared" si="139"/>
         <v>8.8375128181224838E-2</v>
       </c>
       <c r="Z71" s="22">
@@ -7484,15 +7497,15 @@
         <v>-8.6930429936988296E-2</v>
       </c>
       <c r="AB71" s="22">
-        <f t="shared" si="128"/>
+        <f t="shared" si="139"/>
         <v>2.2987122397400306E-2</v>
       </c>
       <c r="AC71" s="22">
-        <f t="shared" si="128"/>
+        <f t="shared" si="139"/>
         <v>0.11765334961430951</v>
       </c>
       <c r="AD71" s="22">
-        <f t="shared" si="128"/>
+        <f t="shared" si="139"/>
         <v>0.13521798932415607</v>
       </c>
       <c r="AE71" s="22"/>
@@ -7500,15 +7513,15 @@
       <c r="AG71" s="22"/>
       <c r="AH71" s="22"/>
       <c r="AK71" s="25">
-        <f t="shared" ref="AK71:AM71" si="129">AK51/AJ51-1</f>
+        <f t="shared" ref="AK71:AM71" si="140">AK51/AJ51-1</f>
         <v>0.58845907814070664</v>
       </c>
       <c r="AL71" s="25">
-        <f t="shared" si="129"/>
+        <f t="shared" si="140"/>
         <v>0.26503272306147285</v>
       </c>
       <c r="AM71" s="25">
-        <f t="shared" si="129"/>
+        <f t="shared" si="140"/>
         <v>0.73012574069611524</v>
       </c>
       <c r="AN71" s="25">
@@ -7540,51 +7553,51 @@
         <v>0.18086993871917945</v>
       </c>
       <c r="AU71" s="25">
-        <f t="shared" ref="AU71:AY71" si="130">+AU51/AT51-1</f>
+        <f t="shared" ref="AU71:AY71" si="141">+AU51/AT51-1</f>
         <v>5.444432726912618E-2</v>
       </c>
       <c r="AV71" s="25">
-        <f t="shared" si="130"/>
+        <f t="shared" si="141"/>
         <v>-2.3848604099481197E-2</v>
       </c>
       <c r="AW71" s="25">
-        <f t="shared" si="130"/>
+        <f t="shared" si="141"/>
         <v>0.2988437649339839</v>
       </c>
       <c r="AX71" s="25">
-        <f t="shared" si="130"/>
+        <f t="shared" si="141"/>
         <v>0.24522052781689352</v>
       </c>
       <c r="AY71" s="25">
-        <f t="shared" si="130"/>
+        <f t="shared" si="141"/>
         <v>0.24429471024781169</v>
       </c>
       <c r="AZ71" s="25">
-        <f t="shared" ref="AZ71:BA71" si="131">+AZ51/AY51-1</f>
+        <f t="shared" ref="AZ71:BA71" si="142">+AZ51/AY51-1</f>
         <v>0.19142450022795243</v>
       </c>
       <c r="BA71" s="25">
-        <f t="shared" si="131"/>
+        <f t="shared" si="142"/>
         <v>0.1388373668361893</v>
       </c>
       <c r="BB71" s="25">
-        <f t="shared" ref="BB71" si="132">+BB51/BA51-1</f>
+        <f t="shared" ref="BB71" si="143">+BB51/BA51-1</f>
         <v>8.173446995315059E-2</v>
       </c>
       <c r="BC71" s="25">
-        <f t="shared" ref="BC71" si="133">+BC51/BB51-1</f>
+        <f t="shared" ref="BC71" si="144">+BC51/BB51-1</f>
         <v>8.1665310206848085E-2</v>
       </c>
       <c r="BD71" s="25">
-        <f t="shared" ref="BD71" si="134">+BD51/BC51-1</f>
+        <f t="shared" ref="BD71" si="145">+BD51/BC51-1</f>
         <v>8.1600781805080569E-2</v>
       </c>
       <c r="BE71" s="25">
-        <f t="shared" ref="BE71" si="135">+BE51/BD51-1</f>
+        <f t="shared" ref="BE71" si="146">+BE51/BD51-1</f>
         <v>8.1540603100230369E-2</v>
       </c>
       <c r="BF71" s="25">
-        <f t="shared" ref="BF71" si="136">+BF51/BE51-1</f>
+        <f t="shared" ref="BF71" si="147">+BF51/BE51-1</f>
         <v>8.1484511217818634E-2</v>
       </c>
     </row>
@@ -7593,83 +7606,83 @@
         <v>92</v>
       </c>
       <c r="K72" s="17">
-        <f>+K37/G37-1</f>
+        <f t="shared" ref="K72:AD72" si="148">+K37/G37-1</f>
         <v>0.40427490122026688</v>
       </c>
       <c r="L72" s="17">
-        <f>+L37/H37-1</f>
+        <f t="shared" si="148"/>
         <v>-4.9351902344897058E-2</v>
       </c>
       <c r="M72" s="17">
-        <f>+M37/I37-1</f>
+        <f t="shared" si="148"/>
         <v>0.43333401930319182</v>
       </c>
       <c r="N72" s="17">
-        <f>+N37/J37-1</f>
+        <f t="shared" si="148"/>
         <v>0.61086578348722065</v>
       </c>
       <c r="O72" s="17">
-        <f>+O37/K37-1</f>
+        <f t="shared" si="148"/>
         <v>1.088229976496113</v>
       </c>
       <c r="P72" s="17">
-        <f>+P37/L37-1</f>
+        <f t="shared" si="148"/>
         <v>1.2200772200772199</v>
       </c>
       <c r="Q72" s="17">
-        <f>+Q37/M37-1</f>
+        <f t="shared" si="148"/>
         <v>0.73223259152907394</v>
       </c>
       <c r="R72" s="17">
-        <f>+R37/N37-1</f>
+        <f t="shared" si="148"/>
         <v>0.70903250816857732</v>
       </c>
       <c r="S72" s="17">
-        <f>+S37/O37-1</f>
+        <f t="shared" si="148"/>
         <v>0.67774891774891777</v>
       </c>
       <c r="T72" s="17">
-        <f>+T37/P37-1</f>
+        <f t="shared" si="148"/>
         <v>0.26556521739130434</v>
       </c>
       <c r="U72" s="17">
-        <f>+U37/Q37-1</f>
+        <f t="shared" si="148"/>
         <v>0.42490675507666809</v>
       </c>
       <c r="V72" s="17">
-        <f>+V37/R37-1</f>
+        <f t="shared" si="148"/>
         <v>0.31327932598833441</v>
       </c>
       <c r="W72" s="17">
-        <f>+W37/S37-1</f>
+        <f t="shared" si="148"/>
         <v>0.36390171844359576</v>
       </c>
       <c r="X72" s="17">
-        <f>+X37/T37-1</f>
+        <f t="shared" si="148"/>
         <v>0.83018904964761764</v>
       </c>
       <c r="Y72" s="17">
-        <f>+Y37/U37-1</f>
+        <f t="shared" si="148"/>
         <v>0.26533170462146982</v>
       </c>
       <c r="Z72" s="17">
-        <f>+Z37/V37-1</f>
+        <f t="shared" si="148"/>
         <v>0.19549297025745282</v>
       </c>
       <c r="AA72" s="17">
-        <f>+AA37/W37-1</f>
+        <f t="shared" si="148"/>
         <v>-8.5285249778303318E-2</v>
       </c>
       <c r="AB72" s="17">
-        <f>+AB37/X37-1</f>
+        <f t="shared" si="148"/>
         <v>-4.7590852533573647E-2</v>
       </c>
       <c r="AC72" s="17">
-        <f>+AC37/Y37-1</f>
+        <f t="shared" si="148"/>
         <v>0.10358411158026848</v>
       </c>
       <c r="AD72" s="17">
-        <f>+AD37/Z37-1</f>
+        <f t="shared" si="148"/>
         <v>0.10948139036174909</v>
       </c>
       <c r="AE72" s="17"/>
@@ -7677,67 +7690,67 @@
       <c r="AG72" s="17"/>
       <c r="AH72" s="17"/>
       <c r="AQ72" s="26">
-        <f>+AQ37/AP37-1</f>
+        <f t="shared" ref="AQ72:BA72" si="149">+AQ37/AP37-1</f>
         <v>0.35729051069477991</v>
       </c>
       <c r="AR72" s="26">
-        <f>+AR37/AQ37-1</f>
+        <f t="shared" si="149"/>
         <v>0.87559116340959009</v>
       </c>
       <c r="AS72" s="26">
-        <f>+AS37/AR37-1</f>
+        <f t="shared" si="149"/>
         <v>0.403761953095785</v>
       </c>
       <c r="AT72" s="26">
-        <f>+AT37/AS37-1</f>
+        <f t="shared" si="149"/>
         <v>0.37654954785588313</v>
       </c>
       <c r="AU72" s="26">
-        <f>+AU37/AT37-1</f>
+        <f t="shared" si="149"/>
         <v>2.2039764876441881E-2</v>
       </c>
       <c r="AV72" s="26">
-        <f>+AV37/AU37-1</f>
+        <f t="shared" si="149"/>
         <v>0.20593650208172676</v>
       </c>
       <c r="AW72" s="26">
-        <f>+AW37/AV37-1</f>
+        <f t="shared" si="149"/>
         <v>0.25</v>
       </c>
       <c r="AX72" s="26">
-        <f>+AX37/AW37-1</f>
+        <f t="shared" si="149"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AY72" s="26">
-        <f>+AY37/AX37-1</f>
+        <f t="shared" si="149"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AZ72" s="26">
-        <f>+AZ37/AY37-1</f>
+        <f t="shared" si="149"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="BA72" s="26">
-        <f>+BA37/AZ37-1</f>
+        <f t="shared" si="149"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BB72" s="26">
-        <f t="shared" ref="BB72:BF72" si="137">+BB37/BA37-1</f>
+        <f t="shared" ref="BB72:BF72" si="150">+BB37/BA37-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BC72" s="26">
-        <f t="shared" si="137"/>
+        <f t="shared" si="150"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BD72" s="26">
-        <f t="shared" si="137"/>
+        <f t="shared" si="150"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BE72" s="26">
-        <f t="shared" si="137"/>
+        <f t="shared" si="150"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BF72" s="26">
-        <f t="shared" si="137"/>
+        <f t="shared" si="150"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -7746,83 +7759,83 @@
         <v>93</v>
       </c>
       <c r="K73" s="17">
-        <f>+K42/G42-1</f>
+        <f t="shared" ref="K73:AD73" si="151">+K42/G42-1</f>
         <v>0.33101713811610356</v>
       </c>
       <c r="L73" s="17">
-        <f>+L42/H42-1</f>
+        <f t="shared" si="151"/>
         <v>-5.4866280672732248E-2</v>
       </c>
       <c r="M73" s="17">
-        <f>+M42/I42-1</f>
+        <f t="shared" si="151"/>
         <v>0.50835629972440333</v>
       </c>
       <c r="N73" s="17">
-        <f>+N42/J42-1</f>
+        <f t="shared" si="151"/>
         <v>0.71375046476818782</v>
       </c>
       <c r="O73" s="17">
-        <f>+O42/K42-1</f>
+        <f t="shared" si="151"/>
         <v>0.75644771700171409</v>
       </c>
       <c r="P73" s="17">
-        <f>+P42/L42-1</f>
+        <f t="shared" si="151"/>
         <v>1.5090067094515751</v>
       </c>
       <c r="Q73" s="17">
-        <f>+Q42/M42-1</f>
+        <f t="shared" si="151"/>
         <v>0.63975150996993846</v>
       </c>
       <c r="R73" s="17">
-        <f>+R42/N42-1</f>
+        <f t="shared" si="151"/>
         <v>0.7014080119272128</v>
       </c>
       <c r="S73" s="17">
-        <f>+S42/O42-1</f>
+        <f t="shared" si="151"/>
         <v>0.69352549102241356</v>
       </c>
       <c r="T73" s="17">
-        <f>+T42/P42-1</f>
+        <f t="shared" si="151"/>
         <v>0.25268262434539124</v>
       </c>
       <c r="U73" s="17">
-        <f>+U42/Q42-1</f>
+        <f t="shared" si="151"/>
         <v>0.53863587626091669</v>
       </c>
       <c r="V73" s="17">
-        <f>+V42/R42-1</f>
+        <f t="shared" si="151"/>
         <v>0.43768310227569973</v>
       </c>
       <c r="W73" s="17">
-        <f>+W42/S42-1</f>
+        <f t="shared" si="151"/>
         <v>0.44334609226376598</v>
       </c>
       <c r="X73" s="17">
-        <f>+X42/T42-1</f>
+        <f t="shared" si="151"/>
         <v>0.85513187408152214</v>
       </c>
       <c r="Y73" s="17">
-        <f>+Y42/U42-1</f>
+        <f t="shared" si="151"/>
         <v>0.17644422460462983</v>
       </c>
       <c r="Z73" s="17">
-        <f>+Z42/V42-1</f>
+        <f t="shared" si="151"/>
         <v>0.12573999149421988</v>
       </c>
       <c r="AA73" s="17">
-        <f>+AA42/W42-1</f>
+        <f t="shared" si="151"/>
         <v>-1.687129090216144E-2</v>
       </c>
       <c r="AB73" s="17">
-        <f>+AB42/X42-1</f>
+        <f t="shared" si="151"/>
         <v>-0.14356681259120285</v>
       </c>
       <c r="AC73" s="17">
-        <f>+AC42/Y42-1</f>
+        <f t="shared" si="151"/>
         <v>1.159813978554558E-2</v>
       </c>
       <c r="AD73" s="17">
-        <f>+AD42/Z42-1</f>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="AE73" s="17"/>
@@ -7830,67 +7843,67 @@
       <c r="AG73" s="17"/>
       <c r="AH73" s="17"/>
       <c r="AQ73" s="26">
-        <f>+AQ42/AP42-1</f>
+        <f t="shared" ref="AQ73:BA73" si="152">+AQ42/AP42-1</f>
         <v>0.39565262627590125</v>
       </c>
       <c r="AR73" s="26">
-        <f>+AR42/AQ42-1</f>
+        <f t="shared" si="152"/>
         <v>0.8252981439448186</v>
       </c>
       <c r="AS73" s="26">
-        <f>+AS42/AR42-1</f>
+        <f t="shared" si="152"/>
         <v>0.47203204567389845</v>
       </c>
       <c r="AT73" s="26">
-        <f>+AT42/AS42-1</f>
+        <f t="shared" si="152"/>
         <v>0.34781700789494252</v>
       </c>
       <c r="AU73" s="26">
-        <f>+AU42/AT42-1</f>
+        <f t="shared" si="152"/>
         <v>-7.1121997199327103E-2</v>
       </c>
       <c r="AV73" s="26">
-        <f>+AV42/AU42-1</f>
+        <f t="shared" si="152"/>
         <v>0.30000000000000027</v>
       </c>
       <c r="AW73" s="26">
-        <f>+AW42/AV42-1</f>
+        <f t="shared" si="152"/>
         <v>0.25</v>
       </c>
       <c r="AX73" s="26">
-        <f>+AX42/AW42-1</f>
+        <f t="shared" si="152"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AY73" s="26">
-        <f>+AY42/AX42-1</f>
+        <f t="shared" si="152"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AZ73" s="26">
-        <f>+AZ42/AY42-1</f>
+        <f t="shared" si="152"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="BA73" s="26">
-        <f>+BA42/AZ42-1</f>
+        <f t="shared" si="152"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BB73" s="26">
-        <f t="shared" ref="BB73:BF73" si="138">+BB42/BA42-1</f>
+        <f t="shared" ref="BB73:BF73" si="153">+BB42/BA42-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BC73" s="26">
-        <f t="shared" si="138"/>
+        <f t="shared" si="153"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BD73" s="26">
-        <f t="shared" si="138"/>
+        <f t="shared" si="153"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BE73" s="26">
-        <f t="shared" si="138"/>
+        <f t="shared" si="153"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BF73" s="26">
-        <f t="shared" si="138"/>
+        <f t="shared" si="153"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -7899,23 +7912,23 @@
         <v>91</v>
       </c>
       <c r="K74" s="17">
-        <f t="shared" ref="K74:O74" si="139">K45/G45-1</f>
+        <f t="shared" ref="K74:O74" si="154">K45/G45-1</f>
         <v>0.39441436306640076</v>
       </c>
       <c r="L74" s="17">
-        <f t="shared" si="139"/>
+        <f t="shared" si="154"/>
         <v>-4.9729102167182626E-2</v>
       </c>
       <c r="M74" s="17">
-        <f t="shared" si="139"/>
+        <f t="shared" si="154"/>
         <v>0.43141075604053003</v>
       </c>
       <c r="N74" s="17">
-        <f t="shared" si="139"/>
+        <f t="shared" si="154"/>
         <v>0.4053394107113788</v>
       </c>
       <c r="O74" s="17">
-        <f t="shared" si="139"/>
+        <f t="shared" si="154"/>
         <v>0.67320662170447587</v>
       </c>
       <c r="P74" s="17">
@@ -7923,7 +7936,7 @@
         <v>0.9385053960496843</v>
       </c>
       <c r="Q74" s="17">
-        <f t="shared" ref="Q74" si="140">Q45/M45-1</f>
+        <f t="shared" ref="Q74" si="155">Q45/M45-1</f>
         <v>0.55091206098557044</v>
       </c>
       <c r="R74" s="17">
@@ -7931,19 +7944,19 @@
         <v>0.74041468782578468</v>
       </c>
       <c r="S74" s="17">
-        <f t="shared" ref="S74:U74" si="141">S45/O45-1</f>
+        <f t="shared" ref="S74:U74" si="156">S45/O45-1</f>
         <v>0.89495541712470983</v>
       </c>
       <c r="T74" s="17">
-        <f t="shared" si="141"/>
+        <f t="shared" si="156"/>
         <v>0.43592436974789917</v>
       </c>
       <c r="U74" s="17">
-        <f t="shared" si="141"/>
+        <f t="shared" si="156"/>
         <v>0.561046256473273</v>
       </c>
       <c r="V74" s="17">
-        <f t="shared" ref="V74" si="142">V45/R45-1</f>
+        <f t="shared" ref="V74" si="157">V45/R45-1</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="W74" s="17">
@@ -7951,19 +7964,19 @@
         <v>0.21683640582699493</v>
       </c>
       <c r="X74" s="17">
-        <f t="shared" ref="X74" si="143">X45/T45-1</f>
+        <f t="shared" ref="X74" si="158">X45/T45-1</f>
         <v>0.49370885149963417</v>
       </c>
       <c r="Y74" s="17">
-        <f t="shared" ref="Y74" si="144">Y45/U45-1</f>
+        <f t="shared" ref="Y74" si="159">Y45/U45-1</f>
         <v>4.4813044700590332E-2</v>
       </c>
       <c r="Z74" s="17">
-        <f t="shared" ref="Z74:AD74" si="145">Z45/V45-1</f>
+        <f t="shared" ref="Z74:AD74" si="160">Z45/V45-1</f>
         <v>-1.9253624910862799E-2</v>
       </c>
       <c r="AA74" s="17">
-        <f t="shared" si="145"/>
+        <f t="shared" si="160"/>
         <v>-0.12808560228837795</v>
       </c>
       <c r="AB74" s="17">
@@ -7971,11 +7984,11 @@
         <v>-9.2511876193741127E-2</v>
       </c>
       <c r="AC74" s="17">
-        <f t="shared" si="145"/>
+        <f t="shared" si="160"/>
         <v>6.7657179716614557E-2</v>
       </c>
       <c r="AD74" s="17">
-        <f t="shared" si="145"/>
+        <f t="shared" si="160"/>
         <v>0.16495545987983684</v>
       </c>
       <c r="AE74" s="17"/>
@@ -7992,67 +8005,67 @@
       <c r="E75" s="17"/>
       <c r="F75" s="17"/>
       <c r="G75" s="17">
-        <f t="shared" ref="G75:K75" si="146">G53/G45</f>
+        <f t="shared" ref="G75:K75" si="161">G53/G45</f>
         <v>0.18609290396124251</v>
       </c>
       <c r="H75" s="17">
-        <f t="shared" si="146"/>
+        <f t="shared" si="161"/>
         <v>0.17685758513931887</v>
       </c>
       <c r="I75" s="17">
-        <f t="shared" si="146"/>
+        <f t="shared" si="161"/>
         <v>0.21784879189399844</v>
       </c>
       <c r="J75" s="17">
-        <f t="shared" si="146"/>
+        <f t="shared" si="161"/>
         <v>0.21618101904606871</v>
       </c>
       <c r="K75" s="17">
-        <f t="shared" si="146"/>
+        <f t="shared" si="161"/>
         <v>0.2440220723482526</v>
       </c>
       <c r="L75" s="17">
-        <f t="shared" ref="L75" si="147">L53/L45</f>
+        <f t="shared" ref="L75" si="162">L53/L45</f>
         <v>0.24373854612095297</v>
       </c>
       <c r="M75" s="17">
-        <f t="shared" ref="M75" si="148">M53/M45</f>
+        <f t="shared" ref="M75" si="163">M53/M45</f>
         <v>0.27021508303838826</v>
       </c>
       <c r="N75" s="17">
-        <f t="shared" ref="N75:U75" si="149">N53/N45</f>
+        <f t="shared" ref="N75:U75" si="164">N53/N45</f>
         <v>0.19819298042395458</v>
       </c>
       <c r="O75" s="17">
-        <f t="shared" si="149"/>
+        <f t="shared" si="164"/>
         <v>0.21131061438866497</v>
       </c>
       <c r="P75" s="17">
-        <f t="shared" si="149"/>
+        <f t="shared" si="164"/>
         <v>0.25220588235294117</v>
       </c>
       <c r="Q75" s="17">
-        <f t="shared" si="149"/>
+        <f t="shared" si="164"/>
         <v>0.28464846835776353</v>
       </c>
       <c r="R75" s="17">
-        <f t="shared" si="149"/>
+        <f t="shared" si="164"/>
         <v>0.28858569051580701</v>
       </c>
       <c r="S75" s="17">
-        <f t="shared" si="149"/>
+        <f t="shared" si="164"/>
         <v>0.29650638133298957</v>
       </c>
       <c r="T75" s="17">
-        <f t="shared" si="149"/>
+        <f t="shared" si="164"/>
         <v>0.25727871250914414</v>
       </c>
       <c r="U75" s="17">
-        <f t="shared" si="149"/>
+        <f t="shared" si="164"/>
         <v>0.26348046106269329</v>
       </c>
       <c r="V75" s="17">
-        <f t="shared" ref="V75:AD75" si="150">V53/V45</f>
+        <f t="shared" ref="V75:AD75" si="165">V53/V45</f>
         <v>0.26631804135963871</v>
       </c>
       <c r="W75" s="17">
@@ -8060,31 +8073,31 @@
         <v>0.1830702404915775</v>
       </c>
       <c r="X75" s="17">
-        <f t="shared" si="150"/>
+        <f t="shared" si="165"/>
         <v>0.17522895342573094</v>
       </c>
       <c r="Y75" s="17">
-        <f t="shared" si="150"/>
+        <f t="shared" si="165"/>
         <v>0.15746421267893659</v>
       </c>
       <c r="Z75" s="17">
-        <f t="shared" si="150"/>
+        <f t="shared" si="165"/>
         <v>0.16616577799321378</v>
       </c>
       <c r="AA75" s="17">
-        <f t="shared" si="150"/>
+        <f t="shared" si="165"/>
         <v>0.15571081409477522</v>
       </c>
       <c r="AB75" s="17">
-        <f t="shared" si="150"/>
+        <f t="shared" si="165"/>
         <v>0.13858607663248787</v>
       </c>
       <c r="AC75" s="17">
-        <f t="shared" si="150"/>
+        <f t="shared" si="165"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="AD75" s="17">
-        <f t="shared" si="150"/>
+        <f t="shared" si="165"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="AE75" s="17"/>
@@ -8092,23 +8105,23 @@
       <c r="AG75" s="17"/>
       <c r="AH75" s="17"/>
       <c r="AQ75" s="17">
-        <f t="shared" ref="AQ75:AX75" si="151">AQ53/AQ45</f>
+        <f t="shared" ref="AQ75:AU75" si="166">AQ53/AQ45</f>
         <v>0</v>
       </c>
       <c r="AR75" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="166"/>
         <v>0.38841926345609062</v>
       </c>
       <c r="AS75" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="166"/>
         <v>0.27064584436209632</v>
       </c>
       <c r="AT75" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="166"/>
         <v>0.17052821969455731</v>
       </c>
       <c r="AU75" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="166"/>
         <v>0.14851006001488046</v>
       </c>
       <c r="AV75" s="17"/>
@@ -8124,31 +8137,31 @@
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
       <c r="G76" s="17">
-        <f t="shared" ref="G76:K76" si="152">+G59/G51</f>
+        <f t="shared" ref="G76:K76" si="167">+G59/G51</f>
         <v>0.1246421493063202</v>
       </c>
       <c r="H76" s="17">
-        <f t="shared" si="152"/>
+        <f t="shared" si="167"/>
         <v>0.14503937007874015</v>
       </c>
       <c r="I76" s="17">
-        <f t="shared" si="152"/>
+        <f t="shared" si="167"/>
         <v>0.18895763921941933</v>
       </c>
       <c r="J76" s="17">
-        <f t="shared" si="152"/>
+        <f t="shared" si="167"/>
         <v>0.18838028169014084</v>
       </c>
       <c r="K76" s="17">
-        <f t="shared" si="152"/>
+        <f t="shared" si="167"/>
         <v>0.20618212197159566</v>
       </c>
       <c r="L76" s="17">
-        <f t="shared" ref="L76" si="153">+L59/L51</f>
+        <f t="shared" ref="L76" si="168">+L59/L51</f>
         <v>0.20990722332670642</v>
       </c>
       <c r="M76" s="17">
-        <f t="shared" ref="M76" si="154">+M59/M51</f>
+        <f t="shared" ref="M76" si="169">+M59/M51</f>
         <v>0.23520693193478509</v>
       </c>
       <c r="N76" s="17">
@@ -8156,67 +8169,67 @@
         <v>0.19229337304542071</v>
       </c>
       <c r="O76" s="17">
-        <f t="shared" ref="O76:AD76" si="155">+O59/O51</f>
+        <f t="shared" ref="O76:AD76" si="170">+O59/O51</f>
         <v>0.21320627586870727</v>
       </c>
       <c r="P76" s="17">
-        <f t="shared" si="155"/>
+        <f t="shared" si="170"/>
         <v>0.24117745442381669</v>
       </c>
       <c r="Q76" s="17">
-        <f t="shared" si="155"/>
+        <f t="shared" si="170"/>
         <v>0.26604637639020134</v>
       </c>
       <c r="R76" s="17">
-        <f t="shared" si="155"/>
+        <f t="shared" si="170"/>
         <v>0.27354816863254133</v>
       </c>
       <c r="S76" s="17">
-        <f t="shared" si="155"/>
+        <f t="shared" si="170"/>
         <v>0.29110684580934099</v>
       </c>
       <c r="T76" s="17">
-        <f t="shared" si="155"/>
+        <f t="shared" si="170"/>
         <v>0.24997047360340144</v>
       </c>
       <c r="U76" s="17">
-        <f t="shared" si="155"/>
+        <f t="shared" si="170"/>
         <v>0.25086231005873033</v>
       </c>
       <c r="V76" s="17">
-        <f t="shared" si="155"/>
+        <f t="shared" si="170"/>
         <v>0.25257794296679104</v>
       </c>
       <c r="W76" s="17">
-        <f t="shared" si="155"/>
+        <f t="shared" si="170"/>
         <v>0.19336448197522396</v>
       </c>
       <c r="X76" s="17">
-        <f t="shared" si="155"/>
+        <f t="shared" si="170"/>
         <v>0.18185100493440848</v>
       </c>
       <c r="Y76" s="17">
-        <f t="shared" si="155"/>
+        <f t="shared" si="170"/>
         <v>0.17892933618843684</v>
       </c>
       <c r="Z76" s="17">
-        <f t="shared" si="155"/>
+        <f t="shared" si="170"/>
         <v>0.17634203520483172</v>
       </c>
       <c r="AA76" s="17">
-        <f t="shared" si="155"/>
+        <f t="shared" si="170"/>
         <v>0.1735129806112389</v>
       </c>
       <c r="AB76" s="41">
-        <f t="shared" si="155"/>
+        <f t="shared" si="170"/>
         <v>0.17952941176470588</v>
       </c>
       <c r="AC76" s="17">
-        <f t="shared" si="155"/>
+        <f t="shared" si="170"/>
         <v>0.15717279857679209</v>
       </c>
       <c r="AD76" s="17">
-        <f t="shared" si="155"/>
+        <f t="shared" si="170"/>
         <v>0.15511900037130005</v>
       </c>
       <c r="AE76" s="17"/>
@@ -8224,67 +8237,67 @@
       <c r="AG76" s="17"/>
       <c r="AH76" s="17"/>
       <c r="AQ76" s="17">
-        <f t="shared" ref="AQ76:BF76" si="156">+AQ59/AQ51</f>
+        <f t="shared" ref="AQ76:BF76" si="171">+AQ59/AQ51</f>
         <v>0</v>
       </c>
       <c r="AR76" s="17">
-        <f t="shared" si="156"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="AS76" s="17">
-        <f t="shared" si="156"/>
+        <f t="shared" si="171"/>
         <v>0.25</v>
       </c>
       <c r="AT76" s="17">
-        <f t="shared" si="156"/>
+        <f t="shared" si="171"/>
         <v>0.18248891736331416</v>
       </c>
       <c r="AU76" s="17">
-        <f t="shared" si="156"/>
+        <f t="shared" si="171"/>
         <v>0.16471225777031828</v>
       </c>
       <c r="AV76" s="17">
-        <f t="shared" si="156"/>
+        <f t="shared" si="171"/>
         <v>0.22985752587485617</v>
       </c>
       <c r="AW76" s="17">
-        <f t="shared" si="156"/>
+        <f t="shared" si="171"/>
         <v>0.25506572778682646</v>
       </c>
       <c r="AX76" s="17">
-        <f t="shared" si="156"/>
+        <f t="shared" si="171"/>
         <v>0.25239469462195546</v>
       </c>
       <c r="AY76" s="17">
-        <f t="shared" si="156"/>
+        <f t="shared" si="171"/>
         <v>0.2688449395488649</v>
       </c>
       <c r="AZ76" s="17">
-        <f t="shared" si="156"/>
+        <f t="shared" si="171"/>
         <v>0.28443112518959862</v>
       </c>
       <c r="BA76" s="17">
-        <f t="shared" si="156"/>
+        <f t="shared" si="171"/>
         <v>0.2993291081869508</v>
       </c>
       <c r="BB76" s="17">
-        <f t="shared" si="156"/>
+        <f t="shared" si="171"/>
         <v>0.29953516962407462</v>
       </c>
       <c r="BC76" s="17">
-        <f t="shared" si="156"/>
+        <f t="shared" si="171"/>
         <v>0.29968042854680105</v>
       </c>
       <c r="BD76" s="17">
-        <f t="shared" si="156"/>
+        <f t="shared" si="171"/>
         <v>0.2997689777818105</v>
       </c>
       <c r="BE76" s="17">
-        <f t="shared" si="156"/>
+        <f t="shared" si="171"/>
         <v>0.29980465126954314</v>
       </c>
       <c r="BF76" s="17">
-        <f t="shared" si="156"/>
+        <f t="shared" si="171"/>
         <v>0.29979104278173424</v>
       </c>
     </row>
@@ -8331,27 +8344,27 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5">
-        <f t="shared" ref="M79:R79" si="157">M67</f>
+        <f t="shared" ref="M79:R79" si="172">M67</f>
         <v>300</v>
       </c>
       <c r="N79" s="5">
-        <f t="shared" si="157"/>
+        <f t="shared" si="172"/>
         <v>270</v>
       </c>
       <c r="O79" s="5">
-        <f t="shared" si="157"/>
+        <f t="shared" si="172"/>
         <v>337</v>
       </c>
       <c r="P79" s="5">
-        <f t="shared" si="157"/>
+        <f t="shared" si="172"/>
         <v>1165</v>
       </c>
       <c r="Q79" s="5">
-        <f t="shared" si="157"/>
+        <f t="shared" si="172"/>
         <v>1669</v>
       </c>
       <c r="R79" s="5">
-        <f t="shared" si="157"/>
+        <f t="shared" si="172"/>
         <v>2321</v>
       </c>
       <c r="S79" s="5">
@@ -8367,31 +8380,31 @@
         <v>3331</v>
       </c>
       <c r="V79" s="5">
-        <f t="shared" ref="V79:AD79" si="158">V67</f>
+        <f t="shared" ref="V79:AD79" si="173">V67</f>
         <v>3468.7999999999984</v>
       </c>
       <c r="W79" s="5">
-        <f t="shared" si="158"/>
+        <f t="shared" si="173"/>
         <v>2513</v>
       </c>
       <c r="X79" s="5">
-        <f t="shared" si="158"/>
+        <f t="shared" si="173"/>
         <v>2703</v>
       </c>
       <c r="Y79" s="5">
-        <f t="shared" si="158"/>
+        <f t="shared" si="173"/>
         <v>1853</v>
       </c>
       <c r="Z79" s="5">
-        <f t="shared" si="158"/>
+        <f t="shared" si="173"/>
         <v>2176</v>
       </c>
       <c r="AA79" s="5">
-        <f t="shared" si="158"/>
+        <f t="shared" si="173"/>
         <v>1129</v>
       </c>
       <c r="AB79" s="5">
-        <f t="shared" si="158"/>
+        <f t="shared" si="173"/>
         <v>2100</v>
       </c>
       <c r="AC79" s="5">
@@ -8399,7 +8412,7 @@
         <v>1157.0966856192958</v>
       </c>
       <c r="AD79" s="5">
-        <f t="shared" si="158"/>
+        <f t="shared" si="173"/>
         <v>1456.2837364785246</v>
       </c>
       <c r="AE79" s="5"/>
@@ -8913,59 +8926,59 @@
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
       <c r="N88" s="5">
-        <f t="shared" ref="N88:R88" si="159">SUM(N80:N87)</f>
+        <f t="shared" ref="N88:R88" si="174">SUM(N80:N87)</f>
         <v>3019</v>
       </c>
       <c r="O88" s="5">
-        <f t="shared" si="159"/>
+        <f t="shared" si="174"/>
         <v>1641</v>
       </c>
       <c r="P88" s="5">
-        <f t="shared" si="159"/>
+        <f t="shared" si="174"/>
         <v>2124</v>
       </c>
       <c r="Q88" s="5">
-        <f t="shared" si="159"/>
+        <f t="shared" si="174"/>
         <v>3147</v>
       </c>
       <c r="R88" s="5">
-        <f t="shared" si="159"/>
+        <f t="shared" si="174"/>
         <v>4585</v>
       </c>
       <c r="S88" s="5">
-        <f t="shared" ref="S88:AA88" si="160">SUM(S80:S87)</f>
+        <f t="shared" ref="S88:AA88" si="175">SUM(S80:S87)</f>
         <v>3995</v>
       </c>
       <c r="T88" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="175"/>
         <v>2351</v>
       </c>
       <c r="U88" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="175"/>
         <v>5100</v>
       </c>
       <c r="V88" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="175"/>
         <v>3278</v>
       </c>
       <c r="W88" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="175"/>
         <v>2513</v>
       </c>
       <c r="X88" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="175"/>
         <v>3065</v>
       </c>
       <c r="Y88" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="175"/>
         <v>3308</v>
       </c>
       <c r="Z88" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="175"/>
         <v>4370</v>
       </c>
       <c r="AA88" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="175"/>
         <v>242</v>
       </c>
       <c r="AB88" s="5">
@@ -9125,59 +9138,59 @@
         <v>1868</v>
       </c>
       <c r="O91" s="5">
-        <f t="shared" ref="O91:R91" si="161">O88-O90</f>
+        <f t="shared" ref="O91:R91" si="176">O88-O90</f>
         <v>293</v>
       </c>
       <c r="P91" s="5">
-        <f t="shared" si="161"/>
+        <f t="shared" si="176"/>
         <v>619</v>
       </c>
       <c r="Q91" s="5">
-        <f t="shared" si="161"/>
+        <f t="shared" si="176"/>
         <v>1328</v>
       </c>
       <c r="R91" s="5">
-        <f t="shared" si="161"/>
+        <f t="shared" si="176"/>
         <v>2775</v>
       </c>
       <c r="S91" s="5">
-        <f t="shared" ref="S91" si="162">S88-S90</f>
+        <f t="shared" ref="S91" si="177">S88-S90</f>
         <v>2228</v>
       </c>
       <c r="T91" s="5">
-        <f t="shared" ref="T91:AB91" si="163">T88-T90</f>
+        <f t="shared" ref="T91:AB91" si="178">T88-T90</f>
         <v>621</v>
       </c>
       <c r="U91" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="178"/>
         <v>3297</v>
       </c>
       <c r="V91" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="178"/>
         <v>1420</v>
       </c>
       <c r="W91" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="178"/>
         <v>441</v>
       </c>
       <c r="X91" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="178"/>
         <v>1005</v>
       </c>
       <c r="Y91" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="178"/>
         <v>848</v>
       </c>
       <c r="Z91" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="178"/>
         <v>2064</v>
       </c>
       <c r="AA91" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="178"/>
         <v>-2531</v>
       </c>
       <c r="AB91" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="178"/>
         <v>1342</v>
       </c>
       <c r="AC91" s="5"/>
@@ -9218,51 +9231,51 @@
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
       <c r="Q92" s="7">
-        <f t="shared" ref="Q92:V92" si="164">SUM(N91:Q91)</f>
+        <f t="shared" ref="Q92:V92" si="179">SUM(N91:Q91)</f>
         <v>4108</v>
       </c>
       <c r="R92" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="179"/>
         <v>5015</v>
       </c>
       <c r="S92" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="179"/>
         <v>6950</v>
       </c>
       <c r="T92" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="179"/>
         <v>6952</v>
       </c>
       <c r="U92" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="179"/>
         <v>8921</v>
       </c>
       <c r="V92" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="179"/>
         <v>7566</v>
       </c>
       <c r="W92" s="7">
-        <f t="shared" ref="W92:AB92" si="165">SUM(T91:W91)</f>
+        <f t="shared" ref="W92:AB92" si="180">SUM(T91:W91)</f>
         <v>5779</v>
       </c>
       <c r="X92" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="180"/>
         <v>6163</v>
       </c>
       <c r="Y92" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="180"/>
         <v>3714</v>
       </c>
       <c r="Z92" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="180"/>
         <v>4358</v>
       </c>
       <c r="AA92" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="180"/>
         <v>1386</v>
       </c>
       <c r="AB92" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="180"/>
         <v>1723</v>
       </c>
       <c r="AC92" s="5"/>
@@ -9335,23 +9348,23 @@
         <v>19726</v>
       </c>
       <c r="X94" s="5">
-        <f t="shared" ref="X94:AB94" si="166">X95-X112</f>
+        <f t="shared" ref="X94:AB94" si="181">X95-X112</f>
         <v>25105</v>
       </c>
       <c r="Y94" s="5">
-        <f t="shared" si="166"/>
+        <f t="shared" si="181"/>
         <v>26958</v>
       </c>
       <c r="Z94" s="5">
-        <f t="shared" si="166"/>
+        <f t="shared" si="181"/>
         <v>23864</v>
       </c>
       <c r="AA94" s="5">
-        <f t="shared" si="166"/>
+        <f t="shared" si="181"/>
         <v>21503</v>
       </c>
       <c r="AB94" s="5">
-        <f t="shared" si="166"/>
+        <f t="shared" si="181"/>
         <v>22975</v>
       </c>
       <c r="AC94" s="5"/>
@@ -9369,47 +9382,47 @@
         <v>29706.38042209782</v>
       </c>
       <c r="AV94" s="4">
-        <f t="shared" ref="AV94:BA94" si="167">AU94+AV67</f>
+        <f t="shared" ref="AV94:BA94" si="182">AU94+AV67</f>
         <v>42726.525422436767</v>
       </c>
       <c r="AW94" s="4">
-        <f t="shared" si="167"/>
+        <f t="shared" si="182"/>
         <v>65082.757421067377</v>
       </c>
       <c r="AX94" s="4">
-        <f t="shared" si="167"/>
+        <f t="shared" si="182"/>
         <v>95478.792909692886</v>
       </c>
       <c r="AY94" s="4">
-        <f t="shared" si="167"/>
+        <f t="shared" si="182"/>
         <v>139316.79431035591</v>
       </c>
       <c r="AZ94" s="4">
-        <f t="shared" si="167"/>
+        <f t="shared" si="182"/>
         <v>198410.46156737866</v>
       </c>
       <c r="BA94" s="4">
-        <f t="shared" si="167"/>
+        <f t="shared" si="182"/>
         <v>273568.38671984122</v>
       </c>
       <c r="BB94" s="4">
-        <f t="shared" ref="BB94" si="168">BA94+BB67</f>
+        <f t="shared" ref="BB94" si="183">BA94+BB67</f>
         <v>360386.09179739625</v>
       </c>
       <c r="BC94" s="4">
-        <f t="shared" ref="BC94" si="169">BB94+BC67</f>
+        <f t="shared" ref="BC94" si="184">BB94+BC67</f>
         <v>460286.30061216251</v>
       </c>
       <c r="BD94" s="4">
-        <f t="shared" ref="BD94" si="170">BC94+BD67</f>
+        <f t="shared" ref="BD94" si="185">BC94+BD67</f>
         <v>574847.05414824269</v>
       </c>
       <c r="BE94" s="4">
-        <f t="shared" ref="BE94" si="171">BD94+BE67</f>
+        <f t="shared" ref="BE94" si="186">BD94+BE67</f>
         <v>705817.63237332762</v>
       </c>
       <c r="BF94" s="4">
-        <f t="shared" ref="BF94" si="172">BE94+BF67</f>
+        <f t="shared" ref="BF94" si="187">BE94+BF67</f>
         <v>855136.04486986867</v>
       </c>
     </row>
@@ -9455,7 +9468,7 @@
         <v>25105</v>
       </c>
       <c r="Y95" s="5">
-        <f t="shared" ref="Y95" si="173">X95+Y67</f>
+        <f t="shared" ref="Y95" si="188">X95+Y67</f>
         <v>26958</v>
       </c>
       <c r="Z95" s="36">
@@ -9772,7 +9785,7 @@
       <c r="AA101" s="5">
         <v>31436</v>
       </c>
-      <c r="AB101" s="5">
+      <c r="AB101" s="42">
         <v>32902</v>
       </c>
       <c r="AC101" s="5"/>
@@ -10018,39 +10031,39 @@
         <v>62131</v>
       </c>
       <c r="T106" s="5">
-        <f t="shared" ref="T106:AB106" si="174">SUM(T95:T105)</f>
+        <f t="shared" ref="T106:AB106" si="189">SUM(T95:T105)</f>
         <v>68513</v>
       </c>
       <c r="U106" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="189"/>
         <v>74426</v>
       </c>
       <c r="V106" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="189"/>
         <v>0</v>
       </c>
       <c r="W106" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="189"/>
         <v>86833</v>
       </c>
       <c r="X106" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="189"/>
         <v>25105</v>
       </c>
       <c r="Y106" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="189"/>
         <v>26958</v>
       </c>
       <c r="Z106" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="189"/>
         <v>106618</v>
       </c>
       <c r="AA106" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="189"/>
         <v>109226</v>
       </c>
       <c r="AB106" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="189"/>
         <v>112832</v>
       </c>
       <c r="AC106" s="5"/>
@@ -10352,51 +10365,51 @@
         <v>1201</v>
       </c>
       <c r="AU118" s="4">
-        <f>+AU37*AU123*8/1000</f>
+        <f t="shared" ref="AU118:BA118" si="190">+AU37*AU123*8/1000</f>
         <v>1774.5040319999998</v>
       </c>
       <c r="AV118" s="4">
-        <f>+AV37*AV123*8/1000</f>
+        <f t="shared" si="190"/>
         <v>2853.2522470400008</v>
       </c>
       <c r="AW118" s="4">
-        <f>+AW37*AW123*8/1000</f>
+        <f t="shared" si="190"/>
         <v>4458.2066360000008</v>
       </c>
       <c r="AX118" s="4">
-        <f>+AX37*AX123*8/1000</f>
+        <f t="shared" si="190"/>
         <v>6419.8175558400008</v>
       </c>
       <c r="AY118" s="4">
-        <f>+AY37*AY123*8/1000</f>
+        <f t="shared" si="190"/>
         <v>8987.7445781760016</v>
       </c>
       <c r="AZ118" s="4">
-        <f>+AZ37*AZ123*8/1000</f>
+        <f t="shared" si="190"/>
         <v>11812.464302745599</v>
       </c>
       <c r="BA118" s="4">
-        <f>+BA37*BA123*8/1000</f>
+        <f t="shared" si="190"/>
         <v>14617.924574647679</v>
       </c>
       <c r="BB118" s="4">
-        <f t="shared" ref="BB118:BF118" si="175">+BB37*BB123*8/1000</f>
+        <f t="shared" ref="BB118:BF118" si="191">+BB37*BB123*8/1000</f>
         <v>15775.176936807287</v>
       </c>
       <c r="BC118" s="4">
-        <f t="shared" si="175"/>
+        <f t="shared" si="191"/>
         <v>17011.609723746242</v>
       </c>
       <c r="BD118" s="4">
-        <f t="shared" si="175"/>
+        <f t="shared" si="191"/>
         <v>18332.247847037066</v>
       </c>
       <c r="BE118" s="4">
-        <f t="shared" si="175"/>
+        <f t="shared" si="191"/>
         <v>19742.420758347613</v>
       </c>
       <c r="BF118" s="4">
-        <f t="shared" si="175"/>
+        <f t="shared" si="191"/>
         <v>21247.780341171616</v>
       </c>
     </row>
@@ -10442,47 +10455,47 @@
         <v>221.81300399999998</v>
       </c>
       <c r="AV121" s="4">
-        <f t="shared" ref="AV121:BA121" si="176">+AV118/8</f>
+        <f t="shared" ref="AV121:BA121" si="192">+AV118/8</f>
         <v>356.6565308800001</v>
       </c>
       <c r="AW121" s="4">
-        <f t="shared" si="176"/>
+        <f t="shared" si="192"/>
         <v>557.2758295000001</v>
       </c>
       <c r="AX121" s="4">
-        <f t="shared" si="176"/>
+        <f t="shared" si="192"/>
         <v>802.47719448000009</v>
       </c>
       <c r="AY121" s="4">
-        <f t="shared" si="176"/>
+        <f t="shared" si="192"/>
         <v>1123.4680722720002</v>
       </c>
       <c r="AZ121" s="4">
-        <f t="shared" si="176"/>
+        <f t="shared" si="192"/>
         <v>1476.5580378431998</v>
       </c>
       <c r="BA121" s="4">
-        <f t="shared" si="176"/>
+        <f t="shared" si="192"/>
         <v>1827.2405718309599</v>
       </c>
       <c r="BB121" s="4">
-        <f t="shared" ref="BB121:BF121" si="177">+BB118/8</f>
+        <f t="shared" ref="BB121:BF121" si="193">+BB118/8</f>
         <v>1971.8971171009109</v>
       </c>
       <c r="BC121" s="4">
-        <f t="shared" si="177"/>
+        <f t="shared" si="193"/>
         <v>2126.4512154682802</v>
       </c>
       <c r="BD121" s="4">
-        <f t="shared" si="177"/>
+        <f t="shared" si="193"/>
         <v>2291.5309808796333</v>
       </c>
       <c r="BE121" s="4">
-        <f t="shared" si="177"/>
+        <f t="shared" si="193"/>
         <v>2467.8025947934516</v>
       </c>
       <c r="BF121" s="4">
-        <f t="shared" si="177"/>
+        <f t="shared" si="193"/>
         <v>2655.972542646452</v>
       </c>
     </row>

--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77738C2-BBE6-48F1-8453-2BFC82DE0A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D1FD49-C305-484C-97A1-FCBE3FBD7FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-39360" yWindow="2325" windowWidth="28230" windowHeight="17955" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24735" yWindow="1230" windowWidth="24495" windowHeight="18015" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1367,11 +1367,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E310252-7C49-48D8-9A64-7380C8DB275B}">
   <dimension ref="A1:DE123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AA98" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="W40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB101" sqref="AB101"/>
+      <selection pane="bottomRight" activeCell="AD72" sqref="AD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="AU9" s="6">
         <f t="shared" si="9"/>
-        <v>78862.236850815156</v>
+        <v>78438.263692538225</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="AU20" s="6">
         <f>+AU37</f>
-        <v>1848441.7</v>
+        <v>1838181.22</v>
       </c>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.2">
@@ -2539,7 +2539,7 @@
       <c r="AH33" s="31"/>
       <c r="AU33" s="1">
         <f>+AU37*8/1000</f>
-        <v>14787.533599999999</v>
+        <v>14705.44976</v>
       </c>
     </row>
     <row r="34" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2656,8 +2656,8 @@
         <v>21551</v>
       </c>
       <c r="AC35" s="5">
-        <f>+X35*1.03</f>
-        <v>19801.75</v>
+        <f>+Y35*1.08</f>
+        <v>17263.800000000003</v>
       </c>
       <c r="AD35" s="5">
         <f>+Z35*1.3</f>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="AU35" s="4">
         <f>SUM(AA35:AD35)</f>
-        <v>88239.45</v>
+        <v>85701.5</v>
       </c>
     </row>
     <row r="36" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2767,8 +2767,8 @@
         <v>422405</v>
       </c>
       <c r="AC36" s="5">
-        <f>+X36*1.03</f>
-        <v>460322.45</v>
+        <f>+Y36*1.08</f>
+        <v>452599.92000000004</v>
       </c>
       <c r="AD36" s="5">
         <f>+Z36*1.1</f>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="AU36" s="4">
         <f>SUM(AA36:AD36)</f>
-        <v>1760202.25</v>
+        <v>1752479.72</v>
       </c>
     </row>
     <row r="37" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="AC37" s="7">
         <f>AC36+AC35</f>
-        <v>480124.2</v>
+        <v>469863.72000000003</v>
       </c>
       <c r="AD37" s="7">
         <f t="shared" si="12"/>
@@ -2933,51 +2933,51 @@
       </c>
       <c r="AU37" s="6">
         <f>+AU35+AU36</f>
-        <v>1848441.7</v>
+        <v>1838181.22</v>
       </c>
       <c r="AV37" s="6">
         <f t="shared" ref="AV37:AY37" si="14">AV42</f>
-        <v>2229103.3180000004</v>
+        <v>2267383.352</v>
       </c>
       <c r="AW37" s="6">
         <f t="shared" si="14"/>
-        <v>2786379.1475000004</v>
+        <v>2834229.19</v>
       </c>
       <c r="AX37" s="6">
         <f t="shared" si="14"/>
-        <v>3343654.9770000004</v>
+        <v>3401075.0279999999</v>
       </c>
       <c r="AY37" s="6">
         <f t="shared" si="14"/>
-        <v>4012385.9724000003</v>
+        <v>4081290.0335999997</v>
       </c>
       <c r="AZ37" s="6">
         <f t="shared" ref="AZ37:BA37" si="15">AZ42</f>
-        <v>4614243.8682599999</v>
+        <v>4693483.538639999</v>
       </c>
       <c r="BA37" s="6">
         <f t="shared" si="15"/>
-        <v>5075668.2550860001</v>
+        <v>5162831.8925039992</v>
       </c>
       <c r="BB37" s="6">
         <f t="shared" ref="BB37:BF37" si="16">BB42</f>
-        <v>5329451.6678403001</v>
+        <v>5420973.4871291993</v>
       </c>
       <c r="BC37" s="6">
         <f t="shared" si="16"/>
-        <v>5595924.2512323158</v>
+        <v>5692022.1614856599</v>
       </c>
       <c r="BD37" s="6">
         <f t="shared" si="16"/>
-        <v>5875720.4637939315</v>
+        <v>5976623.2695599431</v>
       </c>
       <c r="BE37" s="6">
         <f t="shared" si="16"/>
-        <v>6169506.486983628</v>
+        <v>6275454.4330379404</v>
       </c>
       <c r="BF37" s="6">
         <f t="shared" si="16"/>
-        <v>6477981.8113328097</v>
+        <v>6589227.1546898372</v>
       </c>
     </row>
     <row r="38" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3110,51 +3110,51 @@
       </c>
       <c r="AU38" s="5">
         <f t="shared" si="18"/>
-        <v>42664.173206444735</v>
+        <v>42671.670692260814</v>
       </c>
       <c r="AV38" s="4">
         <f>AU38*1.03</f>
-        <v>43944.098402638076</v>
+        <v>43951.820813028637</v>
       </c>
       <c r="AW38" s="4">
         <f>AV38*1.03</f>
-        <v>45262.421354717218</v>
+        <v>45270.375437419498</v>
       </c>
       <c r="AX38" s="4">
         <f>AW38*1.03</f>
-        <v>46620.293995358734</v>
+        <v>46628.486700542082</v>
       </c>
       <c r="AY38" s="4">
         <f>AX38*1.03</f>
-        <v>48018.902815219495</v>
+        <v>48027.341301558343</v>
       </c>
       <c r="AZ38" s="4">
         <f t="shared" ref="AZ38:BA38" si="19">AY38*1.03</f>
-        <v>49459.469899676078</v>
+        <v>49468.161540605091</v>
       </c>
       <c r="BA38" s="4">
         <f t="shared" si="19"/>
-        <v>50943.253996666361</v>
+        <v>50952.206386823244</v>
       </c>
       <c r="BB38" s="4">
         <f t="shared" ref="BB38" si="20">BA38*1.03</f>
-        <v>52471.55161656635</v>
+        <v>52480.772578427939</v>
       </c>
       <c r="BC38" s="4">
         <f t="shared" ref="BC38" si="21">BB38*1.03</f>
-        <v>54045.698165063339</v>
+        <v>54055.195755780776</v>
       </c>
       <c r="BD38" s="4">
         <f t="shared" ref="BD38" si="22">BC38*1.03</f>
-        <v>55667.06911001524</v>
+        <v>55676.851628454198</v>
       </c>
       <c r="BE38" s="4">
         <f t="shared" ref="BE38" si="23">BD38*1.03</f>
-        <v>57337.081183315699</v>
+        <v>57347.157177307825</v>
       </c>
       <c r="BF38" s="4">
         <f t="shared" ref="BF38" si="24">BE38*1.03</f>
-        <v>59057.193618815174</v>
+        <v>59067.571892627064</v>
       </c>
     </row>
     <row r="39" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3266,8 +3266,8 @@
         <v>24255</v>
       </c>
       <c r="AC40" s="5">
-        <f>+AB40*1.06</f>
-        <v>25710.300000000003</v>
+        <f>+Y40*1.08</f>
+        <v>14783.04</v>
       </c>
       <c r="AD40" s="5">
         <f>+Z40</f>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="AU40" s="4">
         <f t="shared" ref="AU40:AU41" si="26">SUM(AA40:AD40)</f>
-        <v>89172.3</v>
+        <v>78245.040000000008</v>
       </c>
     </row>
     <row r="41" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3377,8 +3377,8 @@
         <v>386576</v>
       </c>
       <c r="AC41" s="5">
-        <f>+AB41*1.06</f>
-        <v>409770.56</v>
+        <f>+Y41*1.08</f>
+        <v>450144.00000000006</v>
       </c>
       <c r="AD41" s="5">
         <f>+Y41</f>
@@ -3410,7 +3410,7 @@
       </c>
       <c r="AU41" s="4">
         <f t="shared" si="26"/>
-        <v>1625522.56</v>
+        <v>1665896</v>
       </c>
     </row>
     <row r="42" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="AC42" s="7">
         <f>+AC40+AC41</f>
-        <v>435480.86</v>
+        <v>464927.04000000004</v>
       </c>
       <c r="AD42" s="7">
         <f>+Z42</f>
@@ -3543,51 +3543,51 @@
       </c>
       <c r="AU42" s="6">
         <f>+AU40+AU41</f>
-        <v>1714694.86</v>
+        <v>1744141.04</v>
       </c>
       <c r="AV42" s="6">
         <f>AU42*1.3</f>
-        <v>2229103.3180000004</v>
+        <v>2267383.352</v>
       </c>
       <c r="AW42" s="6">
         <f>AV42*1.25</f>
-        <v>2786379.1475000004</v>
+        <v>2834229.19</v>
       </c>
       <c r="AX42" s="6">
         <f>AW42*1.2</f>
-        <v>3343654.9770000004</v>
+        <v>3401075.0279999999</v>
       </c>
       <c r="AY42" s="6">
         <f>AX42*1.2</f>
-        <v>4012385.9724000003</v>
+        <v>4081290.0335999997</v>
       </c>
       <c r="AZ42" s="6">
         <f>AY42*1.15</f>
-        <v>4614243.8682599999</v>
+        <v>4693483.538639999</v>
       </c>
       <c r="BA42" s="6">
         <f>AZ42*1.1</f>
-        <v>5075668.2550860001</v>
+        <v>5162831.8925039992</v>
       </c>
       <c r="BB42" s="6">
         <f>+BA42*1.05</f>
-        <v>5329451.6678403001</v>
+        <v>5420973.4871291993</v>
       </c>
       <c r="BC42" s="6">
         <f t="shared" ref="BC42:BF42" si="29">+BB42*1.05</f>
-        <v>5595924.2512323158</v>
+        <v>5692022.1614856599</v>
       </c>
       <c r="BD42" s="6">
         <f t="shared" si="29"/>
-        <v>5875720.4637939315</v>
+        <v>5976623.2695599431</v>
       </c>
       <c r="BE42" s="6">
         <f t="shared" si="29"/>
-        <v>6169506.486983628</v>
+        <v>6275454.4330379404</v>
       </c>
       <c r="BF42" s="6">
         <f t="shared" si="29"/>
-        <v>6477981.8113328097</v>
+        <v>6589227.1546898372</v>
       </c>
     </row>
     <row r="43" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3664,51 +3664,51 @@
       <c r="AT44" s="26"/>
       <c r="AU44" s="4">
         <f>+AU118-AT118</f>
-        <v>573.50403199999982</v>
+        <v>563.65397119999989</v>
       </c>
       <c r="AV44" s="4">
         <f>+AV118-$AT$118</f>
-        <v>1652.2522470400008</v>
+        <v>1701.2506905599998</v>
       </c>
       <c r="AW44" s="4">
         <f t="shared" ref="AW44:BF44" si="30">+AW118-$AT$118</f>
-        <v>3257.2066360000008</v>
+        <v>3333.7667039999997</v>
       </c>
       <c r="AX44" s="4">
         <f t="shared" si="30"/>
-        <v>5218.8175558400008</v>
+        <v>5329.0640537599993</v>
       </c>
       <c r="AY44" s="4">
         <f t="shared" si="30"/>
-        <v>7786.7445781760016</v>
+        <v>7941.0896752640001</v>
       </c>
       <c r="AZ44" s="4">
         <f t="shared" si="30"/>
-        <v>10611.464302745599</v>
+        <v>10814.317858918397</v>
       </c>
       <c r="BA44" s="4">
         <f t="shared" si="30"/>
-        <v>13416.924574647679</v>
+        <v>13667.955850411518</v>
       </c>
       <c r="BB44" s="4">
         <f t="shared" si="30"/>
-        <v>14574.176936807287</v>
+        <v>14845.08152190243</v>
       </c>
       <c r="BC44" s="4">
         <f t="shared" si="30"/>
-        <v>15810.609723746242</v>
+        <v>16102.747370916408</v>
       </c>
       <c r="BD44" s="4">
         <f t="shared" si="30"/>
-        <v>17131.247847037066</v>
+        <v>17446.064601027025</v>
       </c>
       <c r="BE44" s="4">
         <f t="shared" si="30"/>
-        <v>18541.420758347613</v>
+        <v>18880.45418572141</v>
       </c>
       <c r="BF44" s="4">
         <f t="shared" si="30"/>
-        <v>20046.780341171616</v>
+        <v>20411.665067382663</v>
       </c>
     </row>
     <row r="45" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3792,7 +3792,7 @@
       </c>
       <c r="AC45" s="5">
         <f>+AC38*AC37/1000000</f>
-        <v>19839.205713494131</v>
+        <v>19415.232555217186</v>
       </c>
       <c r="AD45" s="5">
         <f>+AD38*AD37/1000000</f>
@@ -3824,51 +3824,51 @@
       </c>
       <c r="AU45" s="4">
         <f>SUM(AA45:AD45)</f>
-        <v>78862.236850815156</v>
+        <v>78438.263692538225</v>
       </c>
       <c r="AV45" s="4">
         <f t="shared" ref="AV45:BA45" si="32">AV38*AV42/1000000</f>
-        <v>97955.935555839053</v>
+        <v>99655.626801548235</v>
       </c>
       <c r="AW45" s="4">
         <f t="shared" si="32"/>
-        <v>126118.26702814277</v>
+        <v>128306.61950699336</v>
       </c>
       <c r="AX45" s="4">
         <f t="shared" si="32"/>
-        <v>155882.17804678445</v>
+        <v>158586.9817106438</v>
       </c>
       <c r="AY45" s="4">
         <f t="shared" si="32"/>
-        <v>192670.37206582559</v>
+        <v>196013.5093943557</v>
       </c>
       <c r="AZ45" s="4">
         <f t="shared" si="32"/>
-        <v>228218.05571197037</v>
+        <v>232178.0018776143</v>
       </c>
       <c r="BA45" s="4">
         <f t="shared" si="32"/>
-        <v>258571.05712166245</v>
+        <v>263057.67612733698</v>
       </c>
       <c r="BB45" s="4">
         <f t="shared" ref="BB45:BF45" si="33">BB38*BB42/1000000</f>
-        <v>279644.59827707795</v>
+        <v>284496.87673171499</v>
       </c>
       <c r="BC45" s="4">
         <f t="shared" si="33"/>
-        <v>302435.6330366598</v>
+        <v>307683.37218534981</v>
       </c>
       <c r="BD45" s="4">
         <f t="shared" si="33"/>
-        <v>327084.1371291476</v>
+        <v>332759.56701845577</v>
       </c>
       <c r="BE45" s="4">
         <f t="shared" si="33"/>
-        <v>353741.49430517311</v>
+        <v>359879.47173045995</v>
       </c>
       <c r="BF45" s="4">
         <f t="shared" si="33"/>
-        <v>382571.42609104479</v>
+        <v>389209.64867649245</v>
       </c>
     </row>
     <row r="46" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="AC48" s="7">
         <f>SUM(AC45:AC47)</f>
-        <v>20882.205713494131</v>
+        <v>20458.232555217186</v>
       </c>
       <c r="AD48" s="7">
         <f t="shared" si="41"/>
@@ -4225,51 +4225,51 @@
       </c>
       <c r="AU48" s="6">
         <f>AU45+AU46+AU47</f>
-        <v>83104.236850815156</v>
+        <v>82680.263692538225</v>
       </c>
       <c r="AV48" s="6">
         <f>AV45+AV46+AV47</f>
-        <v>97955.935555839053</v>
+        <v>99655.626801548235</v>
       </c>
       <c r="AW48" s="6">
         <f>AW45+AW46+AW47</f>
-        <v>126118.26702814277</v>
+        <v>128306.61950699336</v>
       </c>
       <c r="AX48" s="6">
         <f>AX45+AX46+AX47</f>
-        <v>155882.17804678445</v>
+        <v>158586.9817106438</v>
       </c>
       <c r="AY48" s="6">
         <f>AY45+AY46+AY47</f>
-        <v>192670.37206582559</v>
+        <v>196013.5093943557</v>
       </c>
       <c r="AZ48" s="6">
         <f t="shared" ref="AZ48:BF48" si="42">AZ45+AZ46+AZ47</f>
-        <v>228218.05571197037</v>
+        <v>232178.0018776143</v>
       </c>
       <c r="BA48" s="6">
         <f t="shared" si="42"/>
-        <v>258571.05712166245</v>
+        <v>263057.67612733698</v>
       </c>
       <c r="BB48" s="6">
         <f t="shared" si="42"/>
-        <v>279644.59827707795</v>
+        <v>284496.87673171499</v>
       </c>
       <c r="BC48" s="6">
         <f t="shared" si="42"/>
-        <v>302435.6330366598</v>
+        <v>307683.37218534981</v>
       </c>
       <c r="BD48" s="6">
         <f t="shared" si="42"/>
-        <v>327084.1371291476</v>
+        <v>332759.56701845577</v>
       </c>
       <c r="BE48" s="6">
         <f t="shared" si="42"/>
-        <v>353741.49430517311</v>
+        <v>359879.47173045995</v>
       </c>
       <c r="BF48" s="6">
         <f t="shared" si="42"/>
-        <v>382571.42609104479</v>
+        <v>389209.64867649245</v>
       </c>
     </row>
     <row r="49" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4612,7 +4612,7 @@
       </c>
       <c r="AC51" s="7">
         <f>SUM(AC48:AC50)</f>
-        <v>26097.205713494128</v>
+        <v>25673.232555217182</v>
       </c>
       <c r="AD51" s="7">
         <f t="shared" si="48"/>
@@ -4665,51 +4665,51 @@
       </c>
       <c r="AU51" s="6">
         <f>SUM(AU48:AU50)+AU44</f>
-        <v>102041.74088281515</v>
+        <v>101607.91766373822</v>
       </c>
       <c r="AV51" s="6">
         <f>SUM(AV48:AV50)+AV44</f>
-        <v>99608.187802879052</v>
+        <v>101356.87749210824</v>
       </c>
       <c r="AW51" s="6">
         <f>SUM(AW48:AW50)+AW44</f>
-        <v>129375.47366414277</v>
+        <v>131640.38621099337</v>
       </c>
       <c r="AX51" s="6">
         <f t="shared" ref="AX51:BA51" si="50">SUM(AX48:AX50)+AX44</f>
-        <v>161100.99560262446</v>
+        <v>163916.0457644038</v>
       </c>
       <c r="AY51" s="6">
         <f t="shared" si="50"/>
-        <v>200457.11664400159</v>
+        <v>203954.5990696197</v>
       </c>
       <c r="AZ51" s="6">
         <f t="shared" si="50"/>
-        <v>238829.52001471596</v>
+        <v>242992.31973653269</v>
       </c>
       <c r="BA51" s="6">
         <f t="shared" si="50"/>
-        <v>271987.9816963101</v>
+        <v>276725.63197774848</v>
       </c>
       <c r="BB51" s="6">
         <f t="shared" ref="BB51" si="51">SUM(BB48:BB50)+BB44</f>
-        <v>294218.77521388524</v>
+        <v>299341.9582536174</v>
       </c>
       <c r="BC51" s="6">
         <f t="shared" ref="BC51" si="52">SUM(BC48:BC50)+BC44</f>
-        <v>318246.24276040605</v>
+        <v>323786.11955626623</v>
       </c>
       <c r="BD51" s="6">
         <f t="shared" ref="BD51" si="53">SUM(BD48:BD50)+BD44</f>
-        <v>344215.38497618464</v>
+        <v>350205.63161948277</v>
       </c>
       <c r="BE51" s="6">
         <f t="shared" ref="BE51" si="54">SUM(BE48:BE50)+BE44</f>
-        <v>372282.91506352072</v>
+        <v>378759.92591618135</v>
       </c>
       <c r="BF51" s="6">
         <f t="shared" ref="BF51" si="55">SUM(BF48:BF50)+BF44</f>
-        <v>402618.20643221639</v>
+        <v>409621.31374387513</v>
       </c>
     </row>
     <row r="52" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="AC52" s="5">
         <f>+AC45*0.85</f>
-        <v>16863.324856470012</v>
+        <v>16502.947671934609</v>
       </c>
       <c r="AD52" s="5">
         <f>+AD45*0.85</f>
@@ -4815,51 +4815,51 @@
       </c>
       <c r="AU52" s="4">
         <f t="shared" ref="AU52:AU59" si="57">SUM(AA52:AD52)</f>
-        <v>67150.401323192898</v>
+        <v>66790.024138657493</v>
       </c>
       <c r="AV52" s="4">
         <f>AV45*0.8</f>
-        <v>78364.748444671248</v>
+        <v>79724.501441238594</v>
       </c>
       <c r="AW52" s="4">
         <f>AW45*0.79</f>
-        <v>99633.430952232797</v>
+        <v>101362.22941052476</v>
       </c>
       <c r="AX52" s="4">
         <f>AX51*0.78</f>
-        <v>125658.77657004708</v>
+        <v>127854.51569623497</v>
       </c>
       <c r="AY52" s="4">
         <f>AY51*0.77</f>
-        <v>154351.97981588123</v>
+        <v>157045.04128360716</v>
       </c>
       <c r="AZ52" s="4">
         <f>AZ51*0.76</f>
-        <v>181510.43521118414</v>
+        <v>184674.16299976484</v>
       </c>
       <c r="BA52" s="4">
         <f>BA51*0.75</f>
-        <v>203990.98627223258</v>
+        <v>207544.22398331136</v>
       </c>
       <c r="BB52" s="4">
         <f t="shared" ref="BB52:BF52" si="58">BB51*0.75</f>
-        <v>220664.08141041393</v>
+        <v>224506.46869021305</v>
       </c>
       <c r="BC52" s="4">
         <f t="shared" si="58"/>
-        <v>238684.68207030452</v>
+        <v>242839.58966719967</v>
       </c>
       <c r="BD52" s="4">
         <f t="shared" si="58"/>
-        <v>258161.53873213846</v>
+        <v>262654.22371461208</v>
       </c>
       <c r="BE52" s="4">
         <f t="shared" si="58"/>
-        <v>279212.18629764055</v>
+        <v>284069.944437136</v>
       </c>
       <c r="BF52" s="4">
         <f t="shared" si="58"/>
-        <v>301963.65482416231</v>
+        <v>307215.98530790635</v>
       </c>
     </row>
     <row r="53" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4960,7 +4960,7 @@
       </c>
       <c r="AC53" s="5">
         <f>AC45-AC52</f>
-        <v>2975.8808570241199</v>
+        <v>2912.2848832825766</v>
       </c>
       <c r="AD53" s="5">
         <f>AD45-AD52</f>
@@ -4984,7 +4984,7 @@
       </c>
       <c r="AU53" s="4">
         <f t="shared" si="57"/>
-        <v>11711.835527622276</v>
+        <v>11648.239553880732</v>
       </c>
     </row>
     <row r="54" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="AC56" s="5">
         <f t="shared" si="66"/>
-        <v>3774.3808570241199</v>
+        <v>3710.7848832825766</v>
       </c>
       <c r="AD56" s="5">
         <f t="shared" si="66"/>
@@ -5245,51 +5245,51 @@
       </c>
       <c r="AU56" s="4">
         <f t="shared" si="57"/>
-        <v>14945.335527622276</v>
+        <v>14881.739553880732</v>
       </c>
       <c r="AV56" s="4">
         <f>AV51-AV52</f>
-        <v>21243.439358207805</v>
+        <v>21632.376050869643</v>
       </c>
       <c r="AW56" s="4">
         <f t="shared" ref="AW56:BF56" si="67">AW51-AW52</f>
-        <v>29742.042711909977</v>
+        <v>30278.156800468612</v>
       </c>
       <c r="AX56" s="4">
         <f t="shared" si="67"/>
-        <v>35442.219032577384</v>
+        <v>36061.530068168824</v>
       </c>
       <c r="AY56" s="4">
         <f t="shared" si="67"/>
-        <v>46105.136828120361</v>
+        <v>46909.557786012534</v>
       </c>
       <c r="AZ56" s="4">
         <f t="shared" si="67"/>
-        <v>57319.084803531819</v>
+        <v>58318.156736767851</v>
       </c>
       <c r="BA56" s="4">
         <f t="shared" si="67"/>
-        <v>67996.995424077526</v>
+        <v>69181.407994437119</v>
       </c>
       <c r="BB56" s="4">
         <f t="shared" si="67"/>
-        <v>73554.693803471309</v>
+        <v>74835.48956340435</v>
       </c>
       <c r="BC56" s="4">
         <f t="shared" si="67"/>
-        <v>79561.560690101527</v>
+        <v>80946.529889066558</v>
       </c>
       <c r="BD56" s="4">
         <f t="shared" si="67"/>
-        <v>86053.846244046174</v>
+        <v>87551.407904870692</v>
       </c>
       <c r="BE56" s="4">
         <f t="shared" si="67"/>
-        <v>93070.728765880165</v>
+        <v>94689.981479045353</v>
       </c>
       <c r="BF56" s="4">
         <f t="shared" si="67"/>
-        <v>100654.55160805408</v>
+        <v>102405.32843596878</v>
       </c>
     </row>
     <row r="57" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="AC59" s="5">
         <f t="shared" si="71"/>
-        <v>4101.7708570241202</v>
+        <v>4038.174883282577</v>
       </c>
       <c r="AD59" s="5">
         <f t="shared" si="71"/>
@@ -5608,51 +5608,51 @@
       </c>
       <c r="AU59" s="4">
         <f t="shared" si="57"/>
-        <v>16807.525527622274</v>
+        <v>16743.929553880731</v>
       </c>
       <c r="AV59" s="4">
         <f>+AV56+AV44</f>
-        <v>22895.691605247805</v>
+        <v>23333.626741429642</v>
       </c>
       <c r="AW59" s="4">
         <f t="shared" ref="AW59:BF59" si="73">+AW56+AW44</f>
-        <v>32999.249347909979</v>
+        <v>33611.923504468614</v>
       </c>
       <c r="AX59" s="4">
         <f t="shared" si="73"/>
-        <v>40661.036588417388</v>
+        <v>41390.594121928822</v>
       </c>
       <c r="AY59" s="4">
         <f t="shared" si="73"/>
-        <v>53891.881406296365</v>
+        <v>54850.647461276531</v>
       </c>
       <c r="AZ59" s="4">
         <f t="shared" si="73"/>
-        <v>67930.549106277424</v>
+        <v>69132.474595686246</v>
       </c>
       <c r="BA59" s="4">
         <f t="shared" si="73"/>
-        <v>81413.919998725207</v>
+        <v>82849.363844848631</v>
       </c>
       <c r="BB59" s="4">
         <f t="shared" si="73"/>
-        <v>88128.870740278595</v>
+        <v>89680.571085306787</v>
       </c>
       <c r="BC59" s="4">
         <f t="shared" si="73"/>
-        <v>95372.170413847765</v>
+        <v>97049.277259982962</v>
       </c>
       <c r="BD59" s="4">
         <f t="shared" si="73"/>
-        <v>103185.09409108324</v>
+        <v>104997.47250589772</v>
       </c>
       <c r="BE59" s="4">
         <f t="shared" si="73"/>
-        <v>111612.14952422777</v>
+        <v>113570.43566476676</v>
       </c>
       <c r="BF59" s="4">
         <f t="shared" si="73"/>
-        <v>120701.3319492257</v>
+        <v>122816.99350335145</v>
       </c>
     </row>
     <row r="60" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="AC63" s="5">
         <f t="shared" si="95"/>
-        <v>1446.3708570241197</v>
+        <v>1382.7748832825764</v>
       </c>
       <c r="AD63" s="5">
         <f t="shared" si="95"/>
@@ -6225,51 +6225,51 @@
       </c>
       <c r="AU63" s="5">
         <f t="shared" ref="AU63:BA63" si="97">AU59-AU62</f>
-        <v>6664.725527622275</v>
+        <v>6601.1295538807317</v>
       </c>
       <c r="AV63" s="5">
         <f>AV59-AV62</f>
-        <v>12347.179605247804</v>
+        <v>12785.114741429641</v>
       </c>
       <c r="AW63" s="5">
         <f t="shared" si="97"/>
-        <v>22028.796867909979</v>
+        <v>22641.471024468614</v>
       </c>
       <c r="AX63" s="5">
         <f t="shared" si="97"/>
-        <v>29251.766009217386</v>
+        <v>29981.32354272882</v>
       </c>
       <c r="AY63" s="5">
         <f t="shared" si="97"/>
-        <v>42026.240003928368</v>
+        <v>42985.006058908533</v>
       </c>
       <c r="AZ63" s="5">
         <f t="shared" si="97"/>
-        <v>55590.282047814704</v>
+        <v>56792.207537223527</v>
       </c>
       <c r="BA63" s="5">
         <f t="shared" si="97"/>
-        <v>68580.042257923982</v>
+        <v>70015.486104047392</v>
       </c>
       <c r="BB63" s="5">
         <f t="shared" ref="BB63:BF63" si="98">BB59-BB62</f>
-        <v>74781.637889845311</v>
+        <v>76333.338234873503</v>
       </c>
       <c r="BC63" s="5">
         <f t="shared" si="98"/>
-        <v>81491.04824939715</v>
+        <v>83168.155095532347</v>
       </c>
       <c r="BD63" s="5">
         <f t="shared" si="98"/>
-        <v>88748.727040054597</v>
+        <v>90561.105454869074</v>
       </c>
       <c r="BE63" s="5">
         <f t="shared" si="98"/>
-        <v>96598.327791157993</v>
+        <v>98556.613931696978</v>
       </c>
       <c r="BF63" s="5">
         <f t="shared" si="98"/>
-        <v>105086.95734683312</v>
+        <v>107202.61890095887</v>
       </c>
     </row>
     <row r="64" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6384,47 +6384,47 @@
       </c>
       <c r="AV64" s="4">
         <f t="shared" ref="AV64:BF64" si="100">AU94*$BH$81</f>
-        <v>2970.6380422097823</v>
+        <v>2965.5503643104585</v>
       </c>
       <c r="AW64" s="4">
         <f t="shared" si="100"/>
-        <v>4272.6525422436771</v>
+        <v>4304.356898298367</v>
       </c>
       <c r="AX64" s="4">
         <f t="shared" si="100"/>
-        <v>6508.2757421067381</v>
+        <v>6594.7522717335614</v>
       </c>
       <c r="AY64" s="4">
         <f t="shared" si="100"/>
-        <v>9547.8792909692893</v>
+        <v>9703.7187159628647</v>
       </c>
       <c r="AZ64" s="4">
         <f t="shared" si="100"/>
-        <v>13931.679431035591</v>
+        <v>14182.260321826934</v>
       </c>
       <c r="BA64" s="4">
         <f t="shared" si="100"/>
-        <v>19841.046156737866</v>
+        <v>20215.090089846224</v>
       </c>
       <c r="BB64" s="4">
         <f t="shared" si="100"/>
-        <v>27356.838671984122</v>
+        <v>27884.689066327177</v>
       </c>
       <c r="BC64" s="4">
         <f t="shared" si="100"/>
-        <v>36038.609179739629</v>
+        <v>36743.221386929239</v>
       </c>
       <c r="BD64" s="4">
         <f t="shared" si="100"/>
-        <v>46028.630061216252</v>
+        <v>46935.688387938477</v>
       </c>
       <c r="BE64" s="4">
         <f t="shared" si="100"/>
-        <v>57484.705414824275</v>
+        <v>58622.915864577124</v>
       </c>
       <c r="BF64" s="4">
         <f t="shared" si="100"/>
-        <v>70581.763237332765</v>
+        <v>71983.175897260415</v>
       </c>
     </row>
     <row r="65" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6525,7 +6525,7 @@
       </c>
       <c r="AC65" s="5">
         <f t="shared" si="103"/>
-        <v>1446.3708570241197</v>
+        <v>1382.7748832825764</v>
       </c>
       <c r="AD65" s="5">
         <f t="shared" si="103"/>
@@ -6541,51 +6541,51 @@
       </c>
       <c r="AU65" s="4">
         <f t="shared" ref="AU65:BF65" si="104">+AU63+AU64</f>
-        <v>7328.725527622275</v>
+        <v>7265.1295538807317</v>
       </c>
       <c r="AV65" s="4">
         <f t="shared" si="104"/>
-        <v>15317.817647457587</v>
+        <v>15750.6651057401</v>
       </c>
       <c r="AW65" s="4">
         <f t="shared" si="104"/>
-        <v>26301.449410153655</v>
+        <v>26945.827922766981</v>
       </c>
       <c r="AX65" s="4">
         <f t="shared" si="104"/>
-        <v>35760.041751324126</v>
+        <v>36576.075814462383</v>
       </c>
       <c r="AY65" s="4">
         <f t="shared" si="104"/>
-        <v>51574.119294897653</v>
+        <v>52688.7247748714</v>
       </c>
       <c r="AZ65" s="4">
         <f t="shared" si="104"/>
-        <v>69521.961478850295</v>
+        <v>70974.467859050463</v>
       </c>
       <c r="BA65" s="4">
         <f t="shared" si="104"/>
-        <v>88421.088414661848</v>
+        <v>90230.576193893619</v>
       </c>
       <c r="BB65" s="4">
         <f t="shared" si="104"/>
-        <v>102138.47656182943</v>
+        <v>104218.02730120068</v>
       </c>
       <c r="BC65" s="4">
         <f t="shared" si="104"/>
-        <v>117529.65742913677</v>
+        <v>119911.37648246158</v>
       </c>
       <c r="BD65" s="4">
         <f t="shared" si="104"/>
-        <v>134777.35710127084</v>
+        <v>137496.79384280756</v>
       </c>
       <c r="BE65" s="4">
         <f t="shared" si="104"/>
-        <v>154083.03320598227</v>
+        <v>157179.52979627409</v>
       </c>
       <c r="BF65" s="4">
         <f t="shared" si="104"/>
-        <v>175668.72058416589</v>
+        <v>179185.79479821929</v>
       </c>
     </row>
     <row r="66" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="AC66" s="5">
         <f>+AC65*0.2</f>
-        <v>289.27417140482396</v>
+        <v>276.55497665651529</v>
       </c>
       <c r="AD66" s="5">
         <f>+AD65*0.2</f>
@@ -6699,51 +6699,51 @@
       </c>
       <c r="AU66" s="4">
         <f t="shared" ref="AU66" si="105">SUM(AA66:AD66)</f>
-        <v>1486.345105524455</v>
+        <v>1473.6259107761464</v>
       </c>
       <c r="AV66" s="4">
         <f t="shared" ref="AV66:BA66" si="106">+AV65*0.15</f>
-        <v>2297.672647118638</v>
+        <v>2362.5997658610149</v>
       </c>
       <c r="AW66" s="4">
         <f t="shared" si="106"/>
-        <v>3945.2174115230482</v>
+        <v>4041.8741884150468</v>
       </c>
       <c r="AX66" s="4">
         <f t="shared" si="106"/>
-        <v>5364.0062626986191</v>
+        <v>5486.4113721693575</v>
       </c>
       <c r="AY66" s="4">
         <f t="shared" si="106"/>
-        <v>7736.1178942346478</v>
+        <v>7903.3087162307093</v>
       </c>
       <c r="AZ66" s="4">
         <f t="shared" si="106"/>
-        <v>10428.294221827544</v>
+        <v>10646.170178857568</v>
       </c>
       <c r="BA66" s="4">
         <f t="shared" si="106"/>
-        <v>13263.163262199278</v>
+        <v>13534.586429084042</v>
       </c>
       <c r="BB66" s="4">
         <f t="shared" ref="BB66:BF66" si="107">+BB65*0.15</f>
-        <v>15320.771484274414</v>
+        <v>15632.704095180101</v>
       </c>
       <c r="BC66" s="4">
         <f t="shared" si="107"/>
-        <v>17629.448614370514</v>
+        <v>17986.706472369235</v>
       </c>
       <c r="BD66" s="4">
         <f t="shared" si="107"/>
-        <v>20216.603565190624</v>
+        <v>20624.519076421133</v>
       </c>
       <c r="BE66" s="4">
         <f t="shared" si="107"/>
-        <v>23112.454980897339</v>
+        <v>23576.929469441111</v>
       </c>
       <c r="BF66" s="4">
         <f t="shared" si="107"/>
-        <v>26350.308087624882</v>
+        <v>26877.869219732893</v>
       </c>
     </row>
     <row r="67" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6844,7 +6844,7 @@
       </c>
       <c r="AC67" s="5">
         <f t="shared" si="110"/>
-        <v>1157.0966856192958</v>
+        <v>1106.2199066260612</v>
       </c>
       <c r="AD67" s="5">
         <f t="shared" si="110"/>
@@ -6860,255 +6860,255 @@
       </c>
       <c r="AU67" s="4">
         <f t="shared" ref="AU67" si="111">+AU65-AU66</f>
-        <v>5842.38042209782</v>
+        <v>5791.5036431045855</v>
       </c>
       <c r="AV67" s="4">
         <f t="shared" ref="AV67:BA67" si="112">+AV65-AV66</f>
-        <v>13020.145000338949</v>
+        <v>13388.065339879086</v>
       </c>
       <c r="AW67" s="4">
         <f t="shared" si="112"/>
-        <v>22356.231998630607</v>
+        <v>22903.953734351933</v>
       </c>
       <c r="AX67" s="4">
         <f t="shared" si="112"/>
-        <v>30396.035488625508</v>
+        <v>31089.664442293026</v>
       </c>
       <c r="AY67" s="4">
         <f t="shared" si="112"/>
-        <v>43838.001400663008</v>
+        <v>44785.416058640694</v>
       </c>
       <c r="AZ67" s="4">
         <f t="shared" si="112"/>
-        <v>59093.667257022753</v>
+        <v>60328.297680192896</v>
       </c>
       <c r="BA67" s="4">
         <f t="shared" si="112"/>
-        <v>75157.925152462572</v>
+        <v>76695.989764809579</v>
       </c>
       <c r="BB67" s="4">
         <f t="shared" ref="BB67:BF67" si="113">+BB65-BB66</f>
-        <v>86817.705077555016</v>
+        <v>88585.323206020577</v>
       </c>
       <c r="BC67" s="4">
         <f t="shared" si="113"/>
-        <v>99900.208814766258</v>
+        <v>101924.67001009235</v>
       </c>
       <c r="BD67" s="4">
         <f t="shared" si="113"/>
-        <v>114560.75353608021</v>
+        <v>116872.27476638643</v>
       </c>
       <c r="BE67" s="4">
         <f t="shared" si="113"/>
-        <v>130970.57822508493</v>
+        <v>133602.60032683297</v>
       </c>
       <c r="BF67" s="4">
         <f t="shared" si="113"/>
-        <v>149318.41249654102</v>
+        <v>152307.92557848641</v>
       </c>
       <c r="BG67" s="4">
         <f t="shared" ref="BG67:CL67" si="114">BF67*(1+$BH$78)</f>
-        <v>147825.22837157559</v>
+        <v>150784.84632270155</v>
       </c>
       <c r="BH67" s="4">
         <f t="shared" si="114"/>
-        <v>146346.97608785983</v>
+        <v>149276.99785947453</v>
       </c>
       <c r="BI67" s="4">
         <f t="shared" si="114"/>
-        <v>144883.50632698124</v>
+        <v>147784.2278808798</v>
       </c>
       <c r="BJ67" s="4">
         <f t="shared" si="114"/>
-        <v>143434.67126371141</v>
+        <v>146306.38560207101</v>
       </c>
       <c r="BK67" s="4">
         <f t="shared" si="114"/>
-        <v>142000.3245510743</v>
+        <v>144843.32174605029</v>
       </c>
       <c r="BL67" s="4">
         <f t="shared" si="114"/>
-        <v>140580.32130556356</v>
+        <v>143394.8885285898</v>
       </c>
       <c r="BM67" s="4">
         <f t="shared" si="114"/>
-        <v>139174.51809250793</v>
+        <v>141960.93964330389</v>
       </c>
       <c r="BN67" s="4">
         <f t="shared" si="114"/>
-        <v>137782.77291158284</v>
+        <v>140541.33024687084</v>
       </c>
       <c r="BO67" s="4">
         <f t="shared" si="114"/>
-        <v>136404.94518246703</v>
+        <v>139135.91694440212</v>
       </c>
       <c r="BP67" s="4">
         <f t="shared" si="114"/>
-        <v>135040.89573064234</v>
+        <v>137744.55777495811</v>
       </c>
       <c r="BQ67" s="4">
         <f t="shared" si="114"/>
-        <v>133690.48677333593</v>
+        <v>136367.11219720854</v>
       </c>
       <c r="BR67" s="4">
         <f t="shared" si="114"/>
-        <v>132353.58190560256</v>
+        <v>135003.44107523645</v>
       </c>
       <c r="BS67" s="4">
         <f t="shared" si="114"/>
-        <v>131030.04608654654</v>
+        <v>133653.40666448409</v>
       </c>
       <c r="BT67" s="4">
         <f t="shared" si="114"/>
-        <v>129719.74562568107</v>
+        <v>132316.87259783925</v>
       </c>
       <c r="BU67" s="4">
         <f t="shared" si="114"/>
-        <v>128422.54816942426</v>
+        <v>130993.70387186085</v>
       </c>
       <c r="BV67" s="4">
         <f t="shared" si="114"/>
-        <v>127138.32268773002</v>
+        <v>129683.76683314225</v>
       </c>
       <c r="BW67" s="4">
         <f t="shared" si="114"/>
-        <v>125866.93946085272</v>
+        <v>128386.92916481082</v>
       </c>
       <c r="BX67" s="4">
         <f t="shared" si="114"/>
-        <v>124608.27006624419</v>
+        <v>127103.05987316271</v>
       </c>
       <c r="BY67" s="4">
         <f t="shared" si="114"/>
-        <v>123362.18736558175</v>
+        <v>125832.02927443109</v>
       </c>
       <c r="BZ67" s="4">
         <f t="shared" si="114"/>
-        <v>122128.56549192593</v>
+        <v>124573.70898168678</v>
       </c>
       <c r="CA67" s="4">
         <f t="shared" si="114"/>
-        <v>120907.27983700666</v>
+        <v>123327.97189186991</v>
       </c>
       <c r="CB67" s="4">
         <f t="shared" si="114"/>
-        <v>119698.2070386366</v>
+        <v>122094.69217295121</v>
       </c>
       <c r="CC67" s="4">
         <f t="shared" si="114"/>
-        <v>118501.22496825023</v>
+        <v>120873.7452512217</v>
       </c>
       <c r="CD67" s="4">
         <f t="shared" si="114"/>
-        <v>117316.21271856772</v>
+        <v>119665.00779870948</v>
       </c>
       <c r="CE67" s="4">
         <f t="shared" si="114"/>
-        <v>116143.05059138205</v>
+        <v>118468.35772072239</v>
       </c>
       <c r="CF67" s="4">
         <f t="shared" si="114"/>
-        <v>114981.62008546822</v>
+        <v>117283.67414351516</v>
       </c>
       <c r="CG67" s="4">
         <f t="shared" si="114"/>
-        <v>113831.80388461355</v>
+        <v>116110.83740208001</v>
       </c>
       <c r="CH67" s="4">
         <f t="shared" si="114"/>
-        <v>112693.48584576741</v>
+        <v>114949.72902805921</v>
       </c>
       <c r="CI67" s="4">
         <f t="shared" si="114"/>
-        <v>111566.55098730973</v>
+        <v>113800.23173777862</v>
       </c>
       <c r="CJ67" s="4">
         <f t="shared" si="114"/>
-        <v>110450.88547743663</v>
+        <v>112662.22942040084</v>
       </c>
       <c r="CK67" s="4">
         <f t="shared" si="114"/>
-        <v>109346.37662266227</v>
+        <v>111535.60712619683</v>
       </c>
       <c r="CL67" s="4">
         <f t="shared" si="114"/>
-        <v>108252.91285643565</v>
+        <v>110420.25105493487</v>
       </c>
       <c r="CM67" s="4">
         <f t="shared" ref="CM67:DE67" si="115">CL67*(1+$BH$78)</f>
-        <v>107170.38372787129</v>
+        <v>109316.04854438551</v>
       </c>
       <c r="CN67" s="4">
         <f t="shared" si="115"/>
-        <v>106098.67989059257</v>
+        <v>108222.88805894165</v>
       </c>
       <c r="CO67" s="4">
         <f t="shared" si="115"/>
-        <v>105037.69309168664</v>
+        <v>107140.65917835223</v>
       </c>
       <c r="CP67" s="4">
         <f t="shared" si="115"/>
-        <v>103987.31616076977</v>
+        <v>106069.25258656871</v>
       </c>
       <c r="CQ67" s="4">
         <f t="shared" si="115"/>
-        <v>102947.44299916207</v>
+        <v>105008.56006070302</v>
       </c>
       <c r="CR67" s="4">
         <f t="shared" si="115"/>
-        <v>101917.96856917045</v>
+        <v>103958.474460096</v>
       </c>
       <c r="CS67" s="4">
         <f t="shared" si="115"/>
-        <v>100898.78888347874</v>
+        <v>102918.88971549504</v>
       </c>
       <c r="CT67" s="4">
         <f t="shared" si="115"/>
-        <v>99889.800994643956</v>
+        <v>101889.70081834009</v>
       </c>
       <c r="CU67" s="4">
         <f t="shared" si="115"/>
-        <v>98890.902984697517</v>
+        <v>100870.80381015669</v>
       </c>
       <c r="CV67" s="4">
         <f t="shared" si="115"/>
-        <v>97901.993954850535</v>
+        <v>99862.095772055123</v>
       </c>
       <c r="CW67" s="4">
         <f t="shared" si="115"/>
-        <v>96922.974015302025</v>
+        <v>98863.474814334564</v>
       </c>
       <c r="CX67" s="4">
         <f t="shared" si="115"/>
-        <v>95953.744275149002</v>
+        <v>97874.840066191216</v>
       </c>
       <c r="CY67" s="4">
         <f t="shared" si="115"/>
-        <v>94994.206832397511</v>
+        <v>96896.091665529297</v>
       </c>
       <c r="CZ67" s="4">
         <f t="shared" si="115"/>
-        <v>94044.264764073538</v>
+        <v>95927.130748873999</v>
       </c>
       <c r="DA67" s="4">
         <f t="shared" si="115"/>
-        <v>93103.822116432799</v>
+        <v>94967.859441385255</v>
       </c>
       <c r="DB67" s="4">
         <f t="shared" si="115"/>
-        <v>92172.783895268469</v>
+        <v>94018.180846971401</v>
       </c>
       <c r="DC67" s="4">
         <f t="shared" si="115"/>
-        <v>91251.056056315778</v>
+        <v>93077.999038501686</v>
       </c>
       <c r="DD67" s="4">
         <f t="shared" si="115"/>
-        <v>90338.545495752624</v>
+        <v>92147.219048116662</v>
       </c>
       <c r="DE67" s="4">
         <f t="shared" si="115"/>
-        <v>89435.16004079509</v>
+        <v>91225.746857635488</v>
       </c>
     </row>
     <row r="68" spans="2:109" x14ac:dyDescent="0.2">
@@ -7209,7 +7209,7 @@
       </c>
       <c r="AC68" s="3">
         <f t="shared" si="123"/>
-        <v>0.33240352933619532</v>
+        <v>0.31778796513245078</v>
       </c>
       <c r="AD68" s="3">
         <f t="shared" si="123"/>
@@ -7225,51 +7225,51 @@
       </c>
       <c r="AU68" s="20">
         <f t="shared" ref="AU68:BA68" si="124">+AU67/AU69</f>
-        <v>1.6780011264731298</v>
+        <v>1.6633887105922556</v>
       </c>
       <c r="AV68" s="20">
         <f t="shared" si="124"/>
-        <v>3.7395404610724348</v>
+        <v>3.8452115573717487</v>
       </c>
       <c r="AW68" s="20">
         <f t="shared" si="124"/>
-        <v>6.4209756583989677</v>
+        <v>6.5782878536230154</v>
       </c>
       <c r="AX68" s="20">
         <f t="shared" si="124"/>
-        <v>8.7301028185899359</v>
+        <v>8.9293213017284483</v>
       </c>
       <c r="AY68" s="20">
         <f t="shared" si="124"/>
-        <v>12.590795261194229</v>
+        <v>12.862904016267882</v>
       </c>
       <c r="AZ68" s="20">
         <f t="shared" si="124"/>
-        <v>16.972403893738136</v>
+        <v>17.327004431734874</v>
       </c>
       <c r="BA68" s="20">
         <f t="shared" si="124"/>
-        <v>21.586249774527918</v>
+        <v>22.028000219662406</v>
       </c>
       <c r="BB68" s="20">
         <f t="shared" ref="BB68:BF68" si="125">+BB67/BB69</f>
-        <v>24.935077210470315</v>
+        <v>25.442758154956724</v>
       </c>
       <c r="BC68" s="20">
         <f t="shared" si="125"/>
-        <v>28.69252784225354</v>
+        <v>29.273977169553341</v>
       </c>
       <c r="BD68" s="20">
         <f t="shared" si="125"/>
-        <v>32.90321060848143</v>
+        <v>33.567106991135617</v>
       </c>
       <c r="BE68" s="20">
         <f t="shared" si="125"/>
-        <v>37.616307381369978</v>
+        <v>38.372255425241036</v>
       </c>
       <c r="BF68" s="20">
         <f t="shared" si="125"/>
-        <v>42.886023550381566</v>
+        <v>43.744647254537632</v>
       </c>
     </row>
     <row r="69" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -7502,7 +7502,7 @@
       </c>
       <c r="AC71" s="22">
         <f t="shared" si="139"/>
-        <v>0.11765334961430951</v>
+        <v>9.9496040908658712E-2</v>
       </c>
       <c r="AD71" s="22">
         <f t="shared" si="139"/>
@@ -7554,51 +7554,51 @@
       </c>
       <c r="AU71" s="25">
         <f t="shared" ref="AU71:AY71" si="141">+AU51/AT51-1</f>
-        <v>5.444432726912618E-2</v>
+        <v>4.9961432049623555E-2</v>
       </c>
       <c r="AV71" s="25">
         <f t="shared" si="141"/>
-        <v>-2.3848604099481197E-2</v>
+        <v>-2.4706752918682851E-3</v>
       </c>
       <c r="AW71" s="25">
         <f t="shared" si="141"/>
-        <v>0.2988437649339839</v>
+        <v>0.29878099511543299</v>
       </c>
       <c r="AX71" s="25">
         <f t="shared" si="141"/>
-        <v>0.24522052781689352</v>
+        <v>0.2451805291856175</v>
       </c>
       <c r="AY71" s="25">
         <f t="shared" si="141"/>
-        <v>0.24429471024781169</v>
+        <v>0.24426256208475916</v>
       </c>
       <c r="AZ71" s="25">
         <f t="shared" ref="AZ71:BA71" si="142">+AZ51/AY51-1</f>
-        <v>0.19142450022795243</v>
+        <v>0.19140397345777682</v>
       </c>
       <c r="BA71" s="25">
         <f t="shared" si="142"/>
-        <v>0.1388373668361893</v>
+        <v>0.13882460267794272</v>
       </c>
       <c r="BB71" s="25">
         <f t="shared" ref="BB71" si="143">+BB51/BA51-1</f>
-        <v>8.173446995315059E-2</v>
+        <v>8.172833905638166E-2</v>
       </c>
       <c r="BC71" s="25">
         <f t="shared" ref="BC71" si="144">+BC51/BB51-1</f>
-        <v>8.1665310206848085E-2</v>
+        <v>8.1659655884052551E-2</v>
       </c>
       <c r="BD71" s="25">
         <f t="shared" ref="BD71" si="145">+BD51/BC51-1</f>
-        <v>8.1600781805080569E-2</v>
+        <v>8.1595567158416982E-2</v>
       </c>
       <c r="BE71" s="25">
         <f t="shared" ref="BE71" si="146">+BE51/BD51-1</f>
-        <v>8.1540603100230369E-2</v>
+        <v>8.1535794169422138E-2</v>
       </c>
       <c r="BF71" s="25">
         <f t="shared" ref="BF71" si="147">+BF51/BE51-1</f>
-        <v>8.1484511217818634E-2</v>
+        <v>8.1480076734737006E-2</v>
       </c>
     </row>
     <row r="72" spans="2:109" x14ac:dyDescent="0.2">
@@ -7670,19 +7670,19 @@
         <v>0.19549297025745282</v>
       </c>
       <c r="AA72" s="17">
-        <f t="shared" si="148"/>
+        <f>+AA37/W37-1</f>
         <v>-8.5285249778303318E-2</v>
       </c>
       <c r="AB72" s="17">
-        <f t="shared" si="148"/>
+        <f>+AB37/X37-1</f>
         <v>-4.7590852533573647E-2</v>
       </c>
       <c r="AC72" s="17">
-        <f t="shared" si="148"/>
-        <v>0.10358411158026848</v>
+        <f>+AC37/Y37-1</f>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="AD72" s="17">
-        <f t="shared" si="148"/>
+        <f>+AD37/Z37-1</f>
         <v>0.10948139036174909</v>
       </c>
       <c r="AE72" s="17"/>
@@ -7707,11 +7707,11 @@
       </c>
       <c r="AU72" s="26">
         <f t="shared" si="149"/>
-        <v>2.2039764876441881E-2</v>
+        <v>1.6366543715763848E-2</v>
       </c>
       <c r="AV72" s="26">
         <f t="shared" si="149"/>
-        <v>0.20593650208172676</v>
+        <v>0.23349282830775531</v>
       </c>
       <c r="AW72" s="26">
         <f t="shared" si="149"/>
@@ -7832,7 +7832,7 @@
       </c>
       <c r="AC73" s="17">
         <f t="shared" si="151"/>
-        <v>1.159813978554558E-2</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="AD73" s="17">
         <f t="shared" si="151"/>
@@ -7860,11 +7860,11 @@
       </c>
       <c r="AU73" s="26">
         <f t="shared" si="152"/>
-        <v>-7.1121997199327103E-2</v>
+        <v>-5.5170524137520105E-2</v>
       </c>
       <c r="AV73" s="26">
         <f t="shared" si="152"/>
-        <v>0.30000000000000027</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AW73" s="26">
         <f t="shared" si="152"/>
@@ -7985,7 +7985,7 @@
       </c>
       <c r="AC74" s="17">
         <f t="shared" si="160"/>
-        <v>6.7657179716614557E-2</v>
+        <v>4.484084356997009E-2</v>
       </c>
       <c r="AD74" s="17">
         <f t="shared" si="160"/>
@@ -8094,7 +8094,7 @@
       </c>
       <c r="AC75" s="17">
         <f t="shared" si="165"/>
-        <v>0.15000000000000002</v>
+        <v>0.14999999999999994</v>
       </c>
       <c r="AD75" s="17">
         <f t="shared" si="165"/>
@@ -8122,7 +8122,7 @@
       </c>
       <c r="AU75" s="17">
         <f t="shared" si="166"/>
-        <v>0.14851006001488046</v>
+        <v>0.14850200661681426</v>
       </c>
       <c r="AV75" s="17"/>
       <c r="AW75" s="17"/>
@@ -8226,7 +8226,7 @@
       </c>
       <c r="AC76" s="17">
         <f t="shared" si="170"/>
-        <v>0.15717279857679209</v>
+        <v>0.15729125168002889</v>
       </c>
       <c r="AD76" s="17">
         <f t="shared" si="170"/>
@@ -8254,51 +8254,51 @@
       </c>
       <c r="AU76" s="17">
         <f t="shared" si="171"/>
-        <v>0.16471225777031828</v>
+        <v>0.16478961422369839</v>
       </c>
       <c r="AV76" s="17">
         <f t="shared" si="171"/>
-        <v>0.22985752587485617</v>
+        <v>0.23021256493666575</v>
       </c>
       <c r="AW76" s="17">
         <f t="shared" si="171"/>
-        <v>0.25506572778682646</v>
+        <v>0.25533139541686989</v>
       </c>
       <c r="AX76" s="17">
         <f t="shared" si="171"/>
-        <v>0.25239469462195546</v>
+        <v>0.25251093588128304</v>
       </c>
       <c r="AY76" s="17">
         <f t="shared" si="171"/>
-        <v>0.2688449395488649</v>
+        <v>0.26893557542457436</v>
       </c>
       <c r="AZ76" s="17">
         <f t="shared" si="171"/>
-        <v>0.28443112518959862</v>
+        <v>0.28450477229339577</v>
       </c>
       <c r="BA76" s="17">
         <f t="shared" si="171"/>
-        <v>0.2993291081869508</v>
+        <v>0.29939172332077485</v>
       </c>
       <c r="BB76" s="17">
         <f t="shared" si="171"/>
-        <v>0.29953516962407462</v>
+        <v>0.29959238460424897</v>
       </c>
       <c r="BC76" s="17">
         <f t="shared" si="171"/>
-        <v>0.29968042854680105</v>
+        <v>0.29973266733294335</v>
       </c>
       <c r="BD76" s="17">
         <f t="shared" si="171"/>
-        <v>0.2997689777818105</v>
+        <v>0.2998166306473995</v>
       </c>
       <c r="BE76" s="17">
         <f t="shared" si="171"/>
-        <v>0.29980465126954314</v>
+        <v>0.29984807761816812</v>
       </c>
       <c r="BF76" s="17">
         <f t="shared" si="171"/>
-        <v>0.29979104278173424</v>
+        <v>0.29983057370922234</v>
       </c>
     </row>
     <row r="77" spans="2:109" x14ac:dyDescent="0.2">
@@ -8409,7 +8409,7 @@
       </c>
       <c r="AC79" s="5">
         <f>AC67</f>
-        <v>1157.0966856192958</v>
+        <v>1106.2199066260612</v>
       </c>
       <c r="AD79" s="5">
         <f t="shared" si="173"/>
@@ -8496,7 +8496,7 @@
       </c>
       <c r="BH80" s="4">
         <f>NPV(BH79,AV67:DF67)+Main!K5-Main!K6</f>
-        <v>1180885.0517001939</v>
+        <v>1204471.4704534928</v>
       </c>
     </row>
     <row r="81" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -8641,7 +8641,7 @@
       </c>
       <c r="BH82" s="20">
         <f>BH80/Main!K3</f>
-        <v>369.64568724401926</v>
+        <v>377.02880887565959</v>
       </c>
     </row>
     <row r="83" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -9379,51 +9379,51 @@
       </c>
       <c r="AU94" s="4">
         <f>AT94+AU67</f>
-        <v>29706.38042209782</v>
+        <v>29655.503643104585</v>
       </c>
       <c r="AV94" s="4">
         <f t="shared" ref="AV94:BA94" si="182">AU94+AV67</f>
-        <v>42726.525422436767</v>
+        <v>43043.56898298367</v>
       </c>
       <c r="AW94" s="4">
         <f t="shared" si="182"/>
-        <v>65082.757421067377</v>
+        <v>65947.522717335611</v>
       </c>
       <c r="AX94" s="4">
         <f t="shared" si="182"/>
-        <v>95478.792909692886</v>
+        <v>97037.187159628636</v>
       </c>
       <c r="AY94" s="4">
         <f t="shared" si="182"/>
-        <v>139316.79431035591</v>
+        <v>141822.60321826933</v>
       </c>
       <c r="AZ94" s="4">
         <f t="shared" si="182"/>
-        <v>198410.46156737866</v>
+        <v>202150.90089846222</v>
       </c>
       <c r="BA94" s="4">
         <f t="shared" si="182"/>
-        <v>273568.38671984122</v>
+        <v>278846.89066327177</v>
       </c>
       <c r="BB94" s="4">
         <f t="shared" ref="BB94" si="183">BA94+BB67</f>
-        <v>360386.09179739625</v>
+        <v>367432.21386929235</v>
       </c>
       <c r="BC94" s="4">
         <f t="shared" ref="BC94" si="184">BB94+BC67</f>
-        <v>460286.30061216251</v>
+        <v>469356.88387938472</v>
       </c>
       <c r="BD94" s="4">
         <f t="shared" ref="BD94" si="185">BC94+BD67</f>
-        <v>574847.05414824269</v>
+        <v>586229.15864577121</v>
       </c>
       <c r="BE94" s="4">
         <f t="shared" ref="BE94" si="186">BD94+BE67</f>
-        <v>705817.63237332762</v>
+        <v>719831.75897260418</v>
       </c>
       <c r="BF94" s="4">
         <f t="shared" ref="BF94" si="187">BE94+BF67</f>
-        <v>855136.04486986867</v>
+        <v>872139.68455109058</v>
       </c>
     </row>
     <row r="95" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -10366,51 +10366,51 @@
       </c>
       <c r="AU118" s="4">
         <f t="shared" ref="AU118:BA118" si="190">+AU37*AU123*8/1000</f>
-        <v>1774.5040319999998</v>
+        <v>1764.6539711999999</v>
       </c>
       <c r="AV118" s="4">
         <f t="shared" si="190"/>
-        <v>2853.2522470400008</v>
+        <v>2902.2506905599998</v>
       </c>
       <c r="AW118" s="4">
         <f t="shared" si="190"/>
-        <v>4458.2066360000008</v>
+        <v>4534.7667039999997</v>
       </c>
       <c r="AX118" s="4">
         <f t="shared" si="190"/>
-        <v>6419.8175558400008</v>
+        <v>6530.0640537599993</v>
       </c>
       <c r="AY118" s="4">
         <f t="shared" si="190"/>
-        <v>8987.7445781760016</v>
+        <v>9142.0896752640001</v>
       </c>
       <c r="AZ118" s="4">
         <f t="shared" si="190"/>
-        <v>11812.464302745599</v>
+        <v>12015.317858918397</v>
       </c>
       <c r="BA118" s="4">
         <f t="shared" si="190"/>
-        <v>14617.924574647679</v>
+        <v>14868.955850411518</v>
       </c>
       <c r="BB118" s="4">
         <f t="shared" ref="BB118:BF118" si="191">+BB37*BB123*8/1000</f>
-        <v>15775.176936807287</v>
+        <v>16046.08152190243</v>
       </c>
       <c r="BC118" s="4">
         <f t="shared" si="191"/>
-        <v>17011.609723746242</v>
+        <v>17303.747370916408</v>
       </c>
       <c r="BD118" s="4">
         <f t="shared" si="191"/>
-        <v>18332.247847037066</v>
+        <v>18647.064601027025</v>
       </c>
       <c r="BE118" s="4">
         <f t="shared" si="191"/>
-        <v>19742.420758347613</v>
+        <v>20081.45418572141</v>
       </c>
       <c r="BF118" s="4">
         <f t="shared" si="191"/>
-        <v>21247.780341171616</v>
+        <v>21612.665067382663</v>
       </c>
     </row>
     <row r="119" spans="2:58" x14ac:dyDescent="0.2">
@@ -10452,51 +10452,51 @@
       </c>
       <c r="AU121" s="4">
         <f>+AU118/8</f>
-        <v>221.81300399999998</v>
+        <v>220.58174639999999</v>
       </c>
       <c r="AV121" s="4">
         <f t="shared" ref="AV121:BA121" si="192">+AV118/8</f>
-        <v>356.6565308800001</v>
+        <v>362.78133631999998</v>
       </c>
       <c r="AW121" s="4">
         <f t="shared" si="192"/>
-        <v>557.2758295000001</v>
+        <v>566.84583799999996</v>
       </c>
       <c r="AX121" s="4">
         <f t="shared" si="192"/>
-        <v>802.47719448000009</v>
+        <v>816.25800671999991</v>
       </c>
       <c r="AY121" s="4">
         <f t="shared" si="192"/>
-        <v>1123.4680722720002</v>
+        <v>1142.761209408</v>
       </c>
       <c r="AZ121" s="4">
         <f t="shared" si="192"/>
-        <v>1476.5580378431998</v>
+        <v>1501.9147323647996</v>
       </c>
       <c r="BA121" s="4">
         <f t="shared" si="192"/>
-        <v>1827.2405718309599</v>
+        <v>1858.6194813014397</v>
       </c>
       <c r="BB121" s="4">
         <f t="shared" ref="BB121:BF121" si="193">+BB118/8</f>
-        <v>1971.8971171009109</v>
+        <v>2005.7601902378037</v>
       </c>
       <c r="BC121" s="4">
         <f t="shared" si="193"/>
-        <v>2126.4512154682802</v>
+        <v>2162.968421364551</v>
       </c>
       <c r="BD121" s="4">
         <f t="shared" si="193"/>
-        <v>2291.5309808796333</v>
+        <v>2330.8830751283781</v>
       </c>
       <c r="BE121" s="4">
         <f t="shared" si="193"/>
-        <v>2467.8025947934516</v>
+        <v>2510.1817732151762</v>
       </c>
       <c r="BF121" s="4">
         <f t="shared" si="193"/>
-        <v>2655.972542646452</v>
+        <v>2701.5831334228328</v>
       </c>
     </row>
     <row r="122" spans="2:58" x14ac:dyDescent="0.2">

--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D1FD49-C305-484C-97A1-FCBE3FBD7FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4685863-569B-4E98-9B96-1BE257CF1A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24735" yWindow="1230" windowWidth="24495" windowHeight="18015" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-41640" yWindow="720" windowWidth="26610" windowHeight="13410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -829,16 +829,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>22023</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>35161</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>39414</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>37478</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>69705</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>39414</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>45983</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -855,8 +855,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17793668" y="0"/>
-          <a:ext cx="15455" cy="16432652"/>
+          <a:off x="18625333" y="39414"/>
+          <a:ext cx="4253" cy="22833724"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1246,7 +1246,7 @@
   <dimension ref="B2:L17"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="11">
-        <v>254</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="K4" s="10">
         <f>K2*K3</f>
-        <v>811438.66541000002</v>
+        <v>1242715.1214349999</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="K7" s="10">
         <f>K4-K5+K6</f>
-        <v>788463.66541000002</v>
+        <v>1219740.1214349999</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -1368,10 +1368,10 @@
   <dimension ref="A1:DE123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="W40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="W72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD72" sqref="AD72"/>
+      <selection pane="bottomRight" activeCell="AC92" sqref="AC92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="AU9" s="6">
         <f t="shared" si="9"/>
-        <v>78438.263692538225</v>
+        <v>77854.031137321028</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="AU20" s="6">
         <f>+AU37</f>
-        <v>1838181.22</v>
+        <v>1831207.5</v>
       </c>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.2">
@@ -2539,7 +2539,7 @@
       <c r="AH33" s="31"/>
       <c r="AU33" s="1">
         <f>+AU37*8/1000</f>
-        <v>14705.44976</v>
+        <v>14649.66</v>
       </c>
     </row>
     <row r="34" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2656,8 +2656,7 @@
         <v>21551</v>
       </c>
       <c r="AC35" s="5">
-        <f>+Y35*1.08</f>
-        <v>17263.800000000003</v>
+        <v>22915</v>
       </c>
       <c r="AD35" s="5">
         <f>+Z35*1.3</f>
@@ -2689,7 +2688,7 @@
       </c>
       <c r="AU35" s="4">
         <f>SUM(AA35:AD35)</f>
-        <v>85701.5</v>
+        <v>91352.7</v>
       </c>
     </row>
     <row r="36" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2767,8 +2766,7 @@
         <v>422405</v>
       </c>
       <c r="AC36" s="5">
-        <f>+Y36*1.08</f>
-        <v>452599.92000000004</v>
+        <v>439975</v>
       </c>
       <c r="AD36" s="5">
         <f>+Z36*1.1</f>
@@ -2800,7 +2798,7 @@
       </c>
       <c r="AU36" s="4">
         <f>SUM(AA36:AD36)</f>
-        <v>1752479.72</v>
+        <v>1739854.8</v>
       </c>
     </row>
     <row r="37" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2901,7 +2899,7 @@
       </c>
       <c r="AC37" s="7">
         <f>AC36+AC35</f>
-        <v>469863.72000000003</v>
+        <v>462890</v>
       </c>
       <c r="AD37" s="7">
         <f t="shared" si="12"/>
@@ -2933,51 +2931,51 @@
       </c>
       <c r="AU37" s="6">
         <f>+AU35+AU36</f>
-        <v>1838181.22</v>
+        <v>1831207.5</v>
       </c>
       <c r="AV37" s="6">
         <f t="shared" ref="AV37:AY37" si="14">AV42</f>
-        <v>2267383.352</v>
+        <v>2273713</v>
       </c>
       <c r="AW37" s="6">
         <f t="shared" si="14"/>
-        <v>2834229.19</v>
+        <v>2842141.25</v>
       </c>
       <c r="AX37" s="6">
         <f t="shared" si="14"/>
-        <v>3401075.0279999999</v>
+        <v>3410569.5</v>
       </c>
       <c r="AY37" s="6">
         <f t="shared" si="14"/>
-        <v>4081290.0335999997</v>
+        <v>4092683.4</v>
       </c>
       <c r="AZ37" s="6">
         <f t="shared" ref="AZ37:BA37" si="15">AZ42</f>
-        <v>4693483.538639999</v>
+        <v>4706585.9099999992</v>
       </c>
       <c r="BA37" s="6">
         <f t="shared" si="15"/>
-        <v>5162831.8925039992</v>
+        <v>5177244.5009999992</v>
       </c>
       <c r="BB37" s="6">
         <f t="shared" ref="BB37:BF37" si="16">BB42</f>
-        <v>5420973.4871291993</v>
+        <v>5436106.7260499997</v>
       </c>
       <c r="BC37" s="6">
         <f t="shared" si="16"/>
-        <v>5692022.1614856599</v>
+        <v>5707912.0623524999</v>
       </c>
       <c r="BD37" s="6">
         <f t="shared" si="16"/>
-        <v>5976623.2695599431</v>
+        <v>5993307.6654701252</v>
       </c>
       <c r="BE37" s="6">
         <f t="shared" si="16"/>
-        <v>6275454.4330379404</v>
+        <v>6292973.0487436317</v>
       </c>
       <c r="BF37" s="6">
         <f t="shared" si="16"/>
-        <v>6589227.1546898372</v>
+        <v>6607621.7011808138</v>
       </c>
     </row>
     <row r="38" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3110,51 +3108,51 @@
       </c>
       <c r="AU38" s="5">
         <f t="shared" si="18"/>
-        <v>42671.670692260814</v>
+        <v>42515.133395489604</v>
       </c>
       <c r="AV38" s="4">
         <f>AU38*1.03</f>
-        <v>43951.820813028637</v>
+        <v>43790.587397354291</v>
       </c>
       <c r="AW38" s="4">
         <f>AV38*1.03</f>
-        <v>45270.375437419498</v>
+        <v>45104.305019274922</v>
       </c>
       <c r="AX38" s="4">
         <f>AW38*1.03</f>
-        <v>46628.486700542082</v>
+        <v>46457.434169853172</v>
       </c>
       <c r="AY38" s="4">
         <f>AX38*1.03</f>
-        <v>48027.341301558343</v>
+        <v>47851.15719494877</v>
       </c>
       <c r="AZ38" s="4">
         <f t="shared" ref="AZ38:BA38" si="19">AY38*1.03</f>
-        <v>49468.161540605091</v>
+        <v>49286.691910797235</v>
       </c>
       <c r="BA38" s="4">
         <f t="shared" si="19"/>
-        <v>50952.206386823244</v>
+        <v>50765.292668121154</v>
       </c>
       <c r="BB38" s="4">
         <f t="shared" ref="BB38" si="20">BA38*1.03</f>
-        <v>52480.772578427939</v>
+        <v>52288.251448164789</v>
       </c>
       <c r="BC38" s="4">
         <f t="shared" ref="BC38" si="21">BB38*1.03</f>
-        <v>54055.195755780776</v>
+        <v>53856.898991609734</v>
       </c>
       <c r="BD38" s="4">
         <f t="shared" ref="BD38" si="22">BC38*1.03</f>
-        <v>55676.851628454198</v>
+        <v>55472.605961358029</v>
       </c>
       <c r="BE38" s="4">
         <f t="shared" ref="BE38" si="23">BD38*1.03</f>
-        <v>57347.157177307825</v>
+        <v>57136.784140198768</v>
       </c>
       <c r="BF38" s="4">
         <f t="shared" ref="BF38" si="24">BE38*1.03</f>
-        <v>59067.571892627064</v>
+        <v>58850.887664404734</v>
       </c>
     </row>
     <row r="39" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3266,8 +3264,7 @@
         <v>24255</v>
       </c>
       <c r="AC40" s="5">
-        <f>+Y40*1.08</f>
-        <v>14783.04</v>
+        <v>26128</v>
       </c>
       <c r="AD40" s="5">
         <f>+Z40</f>
@@ -3299,7 +3296,7 @@
       </c>
       <c r="AU40" s="4">
         <f t="shared" ref="AU40:AU41" si="26">SUM(AA40:AD40)</f>
-        <v>78245.040000000008</v>
+        <v>89590</v>
       </c>
     </row>
     <row r="41" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3377,8 +3374,7 @@
         <v>386576</v>
       </c>
       <c r="AC41" s="5">
-        <f>+Y41*1.08</f>
-        <v>450144.00000000006</v>
+        <v>443668</v>
       </c>
       <c r="AD41" s="5">
         <f>+Y41</f>
@@ -3410,7 +3406,7 @@
       </c>
       <c r="AU41" s="4">
         <f t="shared" si="26"/>
-        <v>1665896</v>
+        <v>1659420</v>
       </c>
     </row>
     <row r="42" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3511,7 +3507,7 @@
       </c>
       <c r="AC42" s="7">
         <f>+AC40+AC41</f>
-        <v>464927.04000000004</v>
+        <v>469796</v>
       </c>
       <c r="AD42" s="7">
         <f>+Z42</f>
@@ -3543,51 +3539,51 @@
       </c>
       <c r="AU42" s="6">
         <f>+AU40+AU41</f>
-        <v>1744141.04</v>
+        <v>1749010</v>
       </c>
       <c r="AV42" s="6">
         <f>AU42*1.3</f>
-        <v>2267383.352</v>
+        <v>2273713</v>
       </c>
       <c r="AW42" s="6">
         <f>AV42*1.25</f>
-        <v>2834229.19</v>
+        <v>2842141.25</v>
       </c>
       <c r="AX42" s="6">
         <f>AW42*1.2</f>
-        <v>3401075.0279999999</v>
+        <v>3410569.5</v>
       </c>
       <c r="AY42" s="6">
         <f>AX42*1.2</f>
-        <v>4081290.0335999997</v>
+        <v>4092683.4</v>
       </c>
       <c r="AZ42" s="6">
         <f>AY42*1.15</f>
-        <v>4693483.538639999</v>
+        <v>4706585.9099999992</v>
       </c>
       <c r="BA42" s="6">
         <f>AZ42*1.1</f>
-        <v>5162831.8925039992</v>
+        <v>5177244.5009999992</v>
       </c>
       <c r="BB42" s="6">
         <f>+BA42*1.05</f>
-        <v>5420973.4871291993</v>
+        <v>5436106.7260499997</v>
       </c>
       <c r="BC42" s="6">
         <f t="shared" ref="BC42:BF42" si="29">+BB42*1.05</f>
-        <v>5692022.1614856599</v>
+        <v>5707912.0623524999</v>
       </c>
       <c r="BD42" s="6">
         <f t="shared" si="29"/>
-        <v>5976623.2695599431</v>
+        <v>5993307.6654701252</v>
       </c>
       <c r="BE42" s="6">
         <f t="shared" si="29"/>
-        <v>6275454.4330379404</v>
+        <v>6292973.0487436317</v>
       </c>
       <c r="BF42" s="6">
         <f t="shared" si="29"/>
-        <v>6589227.1546898372</v>
+        <v>6607621.7011808138</v>
       </c>
     </row>
     <row r="43" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3664,51 +3660,51 @@
       <c r="AT44" s="26"/>
       <c r="AU44" s="4">
         <f>+AU118-AT118</f>
-        <v>563.65397119999989</v>
+        <v>556.95920000000001</v>
       </c>
       <c r="AV44" s="4">
         <f>+AV118-$AT$118</f>
-        <v>1701.2506905599998</v>
+        <v>1709.3526400000001</v>
       </c>
       <c r="AW44" s="4">
         <f t="shared" ref="AW44:BF44" si="30">+AW118-$AT$118</f>
-        <v>3333.7667039999997</v>
+        <v>3346.4260000000004</v>
       </c>
       <c r="AX44" s="4">
         <f t="shared" si="30"/>
-        <v>5329.0640537599993</v>
+        <v>5347.2934399999995</v>
       </c>
       <c r="AY44" s="4">
         <f t="shared" si="30"/>
-        <v>7941.0896752640001</v>
+        <v>7966.6108160000022</v>
       </c>
       <c r="AZ44" s="4">
         <f t="shared" si="30"/>
-        <v>10814.317858918397</v>
+        <v>10847.859929599999</v>
       </c>
       <c r="BA44" s="4">
         <f t="shared" si="30"/>
-        <v>13667.955850411518</v>
+        <v>13709.464162879998</v>
       </c>
       <c r="BB44" s="4">
         <f t="shared" si="30"/>
-        <v>14845.08152190243</v>
+        <v>14889.875909107997</v>
       </c>
       <c r="BC44" s="4">
         <f t="shared" si="30"/>
-        <v>16102.747370916408</v>
+        <v>16151.052669551598</v>
       </c>
       <c r="BD44" s="4">
         <f t="shared" si="30"/>
-        <v>17446.064601027025</v>
+        <v>17498.119916266791</v>
       </c>
       <c r="BE44" s="4">
         <f t="shared" si="30"/>
-        <v>18880.45418572141</v>
+        <v>18936.513755979624</v>
       </c>
       <c r="BF44" s="4">
         <f t="shared" si="30"/>
-        <v>20411.665067382663</v>
+        <v>20471.999179873066</v>
       </c>
     </row>
     <row r="45" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3791,8 +3787,7 @@
         <v>18530</v>
       </c>
       <c r="AC45" s="5">
-        <f>+AC38*AC37/1000000</f>
-        <v>19415.232555217186</v>
+        <v>18831</v>
       </c>
       <c r="AD45" s="5">
         <f>+AD38*AD37/1000000</f>
@@ -3824,51 +3819,51 @@
       </c>
       <c r="AU45" s="4">
         <f>SUM(AA45:AD45)</f>
-        <v>78438.263692538225</v>
+        <v>77854.031137321028</v>
       </c>
       <c r="AV45" s="4">
         <f t="shared" ref="AV45:BA45" si="32">AV38*AV42/1000000</f>
-        <v>99655.626801548235</v>
+        <v>99567.227843000612</v>
       </c>
       <c r="AW45" s="4">
         <f t="shared" si="32"/>
-        <v>128306.61950699336</v>
+        <v>128192.8058478633</v>
       </c>
       <c r="AX45" s="4">
         <f t="shared" si="32"/>
-        <v>158586.9817106438</v>
+        <v>158446.30802795905</v>
       </c>
       <c r="AY45" s="4">
         <f t="shared" si="32"/>
-        <v>196013.5093943557</v>
+        <v>195839.63672255739</v>
       </c>
       <c r="AZ45" s="4">
         <f t="shared" si="32"/>
-        <v>232178.0018776143</v>
+        <v>231972.0496978692</v>
       </c>
       <c r="BA45" s="4">
         <f t="shared" si="32"/>
-        <v>263057.67612733698</v>
+        <v>262824.33230768581</v>
       </c>
       <c r="BB45" s="4">
         <f t="shared" ref="BB45:BF45" si="33">BB38*BB42/1000000</f>
-        <v>284496.87673171499</v>
+        <v>284244.51539076224</v>
       </c>
       <c r="BC45" s="4">
         <f t="shared" si="33"/>
-        <v>307683.37218534981</v>
+        <v>307410.44339510938</v>
       </c>
       <c r="BD45" s="4">
         <f t="shared" si="33"/>
-        <v>332759.56701845577</v>
+        <v>332464.39453181083</v>
       </c>
       <c r="BE45" s="4">
         <f t="shared" si="33"/>
-        <v>359879.47173045995</v>
+        <v>359560.24268615345</v>
       </c>
       <c r="BF45" s="4">
         <f t="shared" si="33"/>
-        <v>389209.64867649245</v>
+        <v>388864.40246507496</v>
       </c>
     </row>
     <row r="46" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3947,8 +3942,7 @@
         <v>890</v>
       </c>
       <c r="AC46" s="5">
-        <f>+Y46</f>
-        <v>554</v>
+        <v>739</v>
       </c>
       <c r="AD46" s="5">
         <f t="shared" ref="AD46:AD47" si="35">+Z46</f>
@@ -3980,7 +3974,7 @@
       </c>
       <c r="AU46" s="4">
         <f>SUM(AA46:AD46)</f>
-        <v>2319</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="47" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4059,8 +4053,7 @@
         <v>458</v>
       </c>
       <c r="AC47" s="5">
-        <f>+Y47</f>
-        <v>489</v>
+        <v>446</v>
       </c>
       <c r="AD47" s="5">
         <f t="shared" si="35"/>
@@ -4092,7 +4085,7 @@
       </c>
       <c r="AU47" s="4">
         <f>SUM(AA47:AD47)</f>
-        <v>1923</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="48" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4193,7 +4186,7 @@
       </c>
       <c r="AC48" s="7">
         <f>SUM(AC45:AC47)</f>
-        <v>20458.232555217186</v>
+        <v>20016</v>
       </c>
       <c r="AD48" s="7">
         <f t="shared" si="41"/>
@@ -4225,51 +4218,51 @@
       </c>
       <c r="AU48" s="6">
         <f>AU45+AU46+AU47</f>
-        <v>82680.263692538225</v>
+        <v>82238.031137321028</v>
       </c>
       <c r="AV48" s="6">
         <f>AV45+AV46+AV47</f>
-        <v>99655.626801548235</v>
+        <v>99567.227843000612</v>
       </c>
       <c r="AW48" s="6">
         <f>AW45+AW46+AW47</f>
-        <v>128306.61950699336</v>
+        <v>128192.8058478633</v>
       </c>
       <c r="AX48" s="6">
         <f>AX45+AX46+AX47</f>
-        <v>158586.9817106438</v>
+        <v>158446.30802795905</v>
       </c>
       <c r="AY48" s="6">
         <f>AY45+AY46+AY47</f>
-        <v>196013.5093943557</v>
+        <v>195839.63672255739</v>
       </c>
       <c r="AZ48" s="6">
         <f t="shared" ref="AZ48:BF48" si="42">AZ45+AZ46+AZ47</f>
-        <v>232178.0018776143</v>
+        <v>231972.0496978692</v>
       </c>
       <c r="BA48" s="6">
         <f t="shared" si="42"/>
-        <v>263057.67612733698</v>
+        <v>262824.33230768581</v>
       </c>
       <c r="BB48" s="6">
         <f t="shared" si="42"/>
-        <v>284496.87673171499</v>
+        <v>284244.51539076224</v>
       </c>
       <c r="BC48" s="6">
         <f t="shared" si="42"/>
-        <v>307683.37218534981</v>
+        <v>307410.44339510938</v>
       </c>
       <c r="BD48" s="6">
         <f t="shared" si="42"/>
-        <v>332759.56701845577</v>
+        <v>332464.39453181083</v>
       </c>
       <c r="BE48" s="6">
         <f t="shared" si="42"/>
-        <v>359879.47173045995</v>
+        <v>359560.24268615345</v>
       </c>
       <c r="BF48" s="6">
         <f t="shared" si="42"/>
-        <v>389209.64867649245</v>
+        <v>388864.40246507496</v>
       </c>
     </row>
     <row r="49" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4348,8 +4341,7 @@
         <v>3014</v>
       </c>
       <c r="AC49" s="5">
-        <f>+Y49*1.4</f>
-        <v>2182.6</v>
+        <v>2376</v>
       </c>
       <c r="AD49" s="5">
         <f t="shared" ref="AD49:AD50" si="44">+Z49</f>
@@ -4390,7 +4382,7 @@
       </c>
       <c r="AU49" s="4">
         <f>SUM(AA49:AD49)</f>
-        <v>8269.6</v>
+        <v>8463</v>
       </c>
     </row>
     <row r="50" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4469,8 +4461,7 @@
         <v>2608</v>
       </c>
       <c r="AC50" s="5">
-        <f>+Y50*1.4</f>
-        <v>3032.3999999999996</v>
+        <v>2790</v>
       </c>
       <c r="AD50" s="5">
         <f t="shared" si="44"/>
@@ -4511,7 +4502,7 @@
       </c>
       <c r="AU50" s="4">
         <f>SUM(AA50:AD50)</f>
-        <v>10094.4</v>
+        <v>9852</v>
       </c>
     </row>
     <row r="51" spans="2:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4612,7 +4603,7 @@
       </c>
       <c r="AC51" s="7">
         <f>SUM(AC48:AC50)</f>
-        <v>25673.232555217182</v>
+        <v>25182</v>
       </c>
       <c r="AD51" s="7">
         <f t="shared" si="48"/>
@@ -4665,51 +4656,51 @@
       </c>
       <c r="AU51" s="6">
         <f>SUM(AU48:AU50)+AU44</f>
-        <v>101607.91766373822</v>
+        <v>101109.99033732103</v>
       </c>
       <c r="AV51" s="6">
         <f>SUM(AV48:AV50)+AV44</f>
-        <v>101356.87749210824</v>
+        <v>101276.58048300061</v>
       </c>
       <c r="AW51" s="6">
         <f>SUM(AW48:AW50)+AW44</f>
-        <v>131640.38621099337</v>
+        <v>131539.2318478633</v>
       </c>
       <c r="AX51" s="6">
         <f t="shared" ref="AX51:BA51" si="50">SUM(AX48:AX50)+AX44</f>
-        <v>163916.0457644038</v>
+        <v>163793.60146795906</v>
       </c>
       <c r="AY51" s="6">
         <f t="shared" si="50"/>
-        <v>203954.5990696197</v>
+        <v>203806.24753855739</v>
       </c>
       <c r="AZ51" s="6">
         <f t="shared" si="50"/>
-        <v>242992.31973653269</v>
+        <v>242819.9096274692</v>
       </c>
       <c r="BA51" s="6">
         <f t="shared" si="50"/>
-        <v>276725.63197774848</v>
+        <v>276533.79647056578</v>
       </c>
       <c r="BB51" s="6">
         <f t="shared" ref="BB51" si="51">SUM(BB48:BB50)+BB44</f>
-        <v>299341.9582536174</v>
+        <v>299134.39129987021</v>
       </c>
       <c r="BC51" s="6">
         <f t="shared" ref="BC51" si="52">SUM(BC48:BC50)+BC44</f>
-        <v>323786.11955626623</v>
+        <v>323561.49606466095</v>
       </c>
       <c r="BD51" s="6">
         <f t="shared" ref="BD51" si="53">SUM(BD48:BD50)+BD44</f>
-        <v>350205.63161948277</v>
+        <v>349962.51444807765</v>
       </c>
       <c r="BE51" s="6">
         <f t="shared" ref="BE51" si="54">SUM(BE48:BE50)+BE44</f>
-        <v>378759.92591618135</v>
+        <v>378496.75644213305</v>
       </c>
       <c r="BF51" s="6">
         <f t="shared" ref="BF51" si="55">SUM(BF48:BF50)+BF44</f>
-        <v>409621.31374387513</v>
+        <v>409336.40164494806</v>
       </c>
     </row>
     <row r="52" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4787,8 +4778,7 @@
         <v>15962</v>
       </c>
       <c r="AC52" s="5">
-        <f>+AC45*0.85</f>
-        <v>16502.947671934609</v>
+        <v>15743</v>
       </c>
       <c r="AD52" s="5">
         <f>+AD45*0.85</f>
@@ -4815,51 +4805,51 @@
       </c>
       <c r="AU52" s="4">
         <f t="shared" ref="AU52:AU59" si="57">SUM(AA52:AD52)</f>
-        <v>66790.024138657493</v>
+        <v>66030.07646672288</v>
       </c>
       <c r="AV52" s="4">
         <f>AV45*0.8</f>
-        <v>79724.501441238594</v>
+        <v>79653.782274400495</v>
       </c>
       <c r="AW52" s="4">
         <f>AW45*0.79</f>
-        <v>101362.22941052476</v>
+        <v>101272.31661981202</v>
       </c>
       <c r="AX52" s="4">
         <f>AX51*0.78</f>
-        <v>127854.51569623497</v>
+        <v>127759.00914500807</v>
       </c>
       <c r="AY52" s="4">
         <f>AY51*0.77</f>
-        <v>157045.04128360716</v>
+        <v>156930.81060468921</v>
       </c>
       <c r="AZ52" s="4">
         <f>AZ51*0.76</f>
-        <v>184674.16299976484</v>
+        <v>184543.13131687659</v>
       </c>
       <c r="BA52" s="4">
         <f>BA51*0.75</f>
-        <v>207544.22398331136</v>
+        <v>207400.34735292435</v>
       </c>
       <c r="BB52" s="4">
         <f t="shared" ref="BB52:BF52" si="58">BB51*0.75</f>
-        <v>224506.46869021305</v>
+        <v>224350.79347490266</v>
       </c>
       <c r="BC52" s="4">
         <f t="shared" si="58"/>
-        <v>242839.58966719967</v>
+        <v>242671.12204849572</v>
       </c>
       <c r="BD52" s="4">
         <f t="shared" si="58"/>
-        <v>262654.22371461208</v>
+        <v>262471.88583605824</v>
       </c>
       <c r="BE52" s="4">
         <f t="shared" si="58"/>
-        <v>284069.944437136</v>
+        <v>283872.56733159977</v>
       </c>
       <c r="BF52" s="4">
         <f t="shared" si="58"/>
-        <v>307215.98530790635</v>
+        <v>307002.30123371107</v>
       </c>
     </row>
     <row r="53" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4960,7 +4950,7 @@
       </c>
       <c r="AC53" s="5">
         <f>AC45-AC52</f>
-        <v>2912.2848832825766</v>
+        <v>3088</v>
       </c>
       <c r="AD53" s="5">
         <f>AD45-AD52</f>
@@ -4984,7 +4974,7 @@
       </c>
       <c r="AU53" s="4">
         <f t="shared" si="57"/>
-        <v>11648.239553880732</v>
+        <v>11823.954670598156</v>
       </c>
     </row>
     <row r="54" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5103,8 +5093,7 @@
         <v>245</v>
       </c>
       <c r="AC55" s="5">
-        <f>+AC47*0.5</f>
-        <v>244.5</v>
+        <v>247</v>
       </c>
       <c r="AD55" s="5">
         <f>+AD47*0.5</f>
@@ -5124,7 +5113,7 @@
       </c>
       <c r="AU55" s="4">
         <f t="shared" si="57"/>
-        <v>1008.5</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="56" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5225,7 +5214,7 @@
       </c>
       <c r="AC56" s="5">
         <f t="shared" si="66"/>
-        <v>3710.7848832825766</v>
+        <v>4026</v>
       </c>
       <c r="AD56" s="5">
         <f t="shared" si="66"/>
@@ -5245,51 +5234,51 @@
       </c>
       <c r="AU56" s="4">
         <f t="shared" si="57"/>
-        <v>14881.739553880732</v>
+        <v>15196.954670598156</v>
       </c>
       <c r="AV56" s="4">
         <f>AV51-AV52</f>
-        <v>21632.376050869643</v>
+        <v>21622.798208600114</v>
       </c>
       <c r="AW56" s="4">
         <f t="shared" ref="AW56:BF56" si="67">AW51-AW52</f>
-        <v>30278.156800468612</v>
+        <v>30266.915228051279</v>
       </c>
       <c r="AX56" s="4">
         <f t="shared" si="67"/>
-        <v>36061.530068168824</v>
+        <v>36034.592322950994</v>
       </c>
       <c r="AY56" s="4">
         <f t="shared" si="67"/>
-        <v>46909.557786012534</v>
+        <v>46875.436933868186</v>
       </c>
       <c r="AZ56" s="4">
         <f t="shared" si="67"/>
-        <v>58318.156736767851</v>
+        <v>58276.778310592606</v>
       </c>
       <c r="BA56" s="4">
         <f t="shared" si="67"/>
-        <v>69181.407994437119</v>
+        <v>69133.44911764143</v>
       </c>
       <c r="BB56" s="4">
         <f t="shared" si="67"/>
-        <v>74835.48956340435</v>
+        <v>74783.597824967554</v>
       </c>
       <c r="BC56" s="4">
         <f t="shared" si="67"/>
-        <v>80946.529889066558</v>
+        <v>80890.374016165239</v>
       </c>
       <c r="BD56" s="4">
         <f t="shared" si="67"/>
-        <v>87551.407904870692</v>
+        <v>87490.628612019413</v>
       </c>
       <c r="BE56" s="4">
         <f t="shared" si="67"/>
-        <v>94689.981479045353</v>
+        <v>94624.189110533276</v>
       </c>
       <c r="BF56" s="4">
         <f t="shared" si="67"/>
-        <v>102405.32843596878</v>
+        <v>102334.10041123698</v>
       </c>
     </row>
     <row r="57" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5367,8 +5356,7 @@
         <v>2274</v>
       </c>
       <c r="AC57" s="5">
-        <f>+AC49*0.85</f>
-        <v>1855.2099999999998</v>
+        <v>1651</v>
       </c>
       <c r="AD57" s="5">
         <f>+AD49*0.9</f>
@@ -5388,7 +5376,7 @@
       </c>
       <c r="AU57" s="4">
         <f t="shared" si="57"/>
-        <v>6655.41</v>
+        <v>6451.2</v>
       </c>
     </row>
     <row r="58" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5466,8 +5454,7 @@
         <v>2441</v>
       </c>
       <c r="AC58" s="5">
-        <f>+AC50</f>
-        <v>3032.3999999999996</v>
+        <v>2544</v>
       </c>
       <c r="AD58" s="5">
         <f>+AD50</f>
@@ -5487,7 +5474,7 @@
       </c>
       <c r="AU58" s="4">
         <f t="shared" si="57"/>
-        <v>9846.4</v>
+        <v>9358</v>
       </c>
     </row>
     <row r="59" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5588,7 +5575,7 @@
       </c>
       <c r="AC59" s="5">
         <f t="shared" si="71"/>
-        <v>4038.174883282577</v>
+        <v>4997</v>
       </c>
       <c r="AD59" s="5">
         <f t="shared" si="71"/>
@@ -5608,51 +5595,51 @@
       </c>
       <c r="AU59" s="4">
         <f t="shared" si="57"/>
-        <v>16743.929553880731</v>
+        <v>17702.754670598155</v>
       </c>
       <c r="AV59" s="4">
         <f>+AV56+AV44</f>
-        <v>23333.626741429642</v>
+        <v>23332.150848600115</v>
       </c>
       <c r="AW59" s="4">
         <f t="shared" ref="AW59:BF59" si="73">+AW56+AW44</f>
-        <v>33611.923504468614</v>
+        <v>33613.341228051278</v>
       </c>
       <c r="AX59" s="4">
         <f t="shared" si="73"/>
-        <v>41390.594121928822</v>
+        <v>41381.885762950995</v>
       </c>
       <c r="AY59" s="4">
         <f t="shared" si="73"/>
-        <v>54850.647461276531</v>
+        <v>54842.047749868187</v>
       </c>
       <c r="AZ59" s="4">
         <f t="shared" si="73"/>
-        <v>69132.474595686246</v>
+        <v>69124.638240192609</v>
       </c>
       <c r="BA59" s="4">
         <f t="shared" si="73"/>
-        <v>82849.363844848631</v>
+        <v>82842.913280521432</v>
       </c>
       <c r="BB59" s="4">
         <f t="shared" si="73"/>
-        <v>89680.571085306787</v>
+        <v>89673.473734075553</v>
       </c>
       <c r="BC59" s="4">
         <f t="shared" si="73"/>
-        <v>97049.277259982962</v>
+        <v>97041.42668571684</v>
       </c>
       <c r="BD59" s="4">
         <f t="shared" si="73"/>
-        <v>104997.47250589772</v>
+        <v>104988.7485282862</v>
       </c>
       <c r="BE59" s="4">
         <f t="shared" si="73"/>
-        <v>113570.43566476676</v>
+        <v>113560.7028665129</v>
       </c>
       <c r="BF59" s="4">
         <f t="shared" si="73"/>
-        <v>122816.99350335145</v>
+        <v>122806.09959111005</v>
       </c>
     </row>
     <row r="60" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5730,11 +5717,10 @@
         <v>1074</v>
       </c>
       <c r="AC60" s="5">
-        <f t="shared" ref="AC60:AD61" si="74">+Y60*1.1</f>
-        <v>1277.1000000000001</v>
+        <v>1039</v>
       </c>
       <c r="AD60" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" ref="AC60:AD61" si="74">+Z60*1.1</f>
         <v>1203.4000000000001</v>
       </c>
       <c r="AE60" s="5"/>
@@ -5751,51 +5737,51 @@
       </c>
       <c r="AU60" s="4">
         <f t="shared" ref="AU60:AU61" si="75">SUM(AA60:AD60)</f>
-        <v>4705.5</v>
+        <v>4467.3999999999996</v>
       </c>
       <c r="AV60" s="4">
         <f>AU60*1.04</f>
-        <v>4893.72</v>
+        <v>4646.0959999999995</v>
       </c>
       <c r="AW60" s="4">
         <f t="shared" ref="AW60:BA60" si="76">AV60*1.04</f>
-        <v>5089.4688000000006</v>
+        <v>4831.93984</v>
       </c>
       <c r="AX60" s="4">
         <f t="shared" si="76"/>
-        <v>5293.0475520000009</v>
+        <v>5025.2174335999998</v>
       </c>
       <c r="AY60" s="4">
         <f t="shared" si="76"/>
-        <v>5504.7694540800012</v>
+        <v>5226.226130944</v>
       </c>
       <c r="AZ60" s="4">
         <f t="shared" si="76"/>
-        <v>5724.9602322432011</v>
+        <v>5435.2751761817599</v>
       </c>
       <c r="BA60" s="4">
         <f t="shared" si="76"/>
-        <v>5953.9586415329295</v>
+        <v>5652.6861832290306</v>
       </c>
       <c r="BB60" s="4">
         <f t="shared" ref="BB60:BF60" si="77">BA60*1.04</f>
-        <v>6192.1169871942466</v>
+        <v>5878.7936305581916</v>
       </c>
       <c r="BC60" s="4">
         <f t="shared" si="77"/>
-        <v>6439.8016666820167</v>
+        <v>6113.9453757805195</v>
       </c>
       <c r="BD60" s="4">
         <f t="shared" si="77"/>
-        <v>6697.3937333492977</v>
+        <v>6358.5031908117408</v>
       </c>
       <c r="BE60" s="4">
         <f t="shared" si="77"/>
-        <v>6965.2894826832699</v>
+        <v>6612.843318444211</v>
       </c>
       <c r="BF60" s="4">
         <f t="shared" si="77"/>
-        <v>7243.9010619906012</v>
+        <v>6877.3570511819798</v>
       </c>
     </row>
     <row r="61" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5874,8 +5860,7 @@
         <v>1277</v>
       </c>
       <c r="AC61" s="5">
-        <f t="shared" si="74"/>
-        <v>1378.3000000000002</v>
+        <v>1186</v>
       </c>
       <c r="AD61" s="5">
         <f t="shared" si="74"/>
@@ -5895,51 +5880,51 @@
       </c>
       <c r="AU61" s="4">
         <f t="shared" si="75"/>
-        <v>5437.3</v>
+        <v>5245</v>
       </c>
       <c r="AV61" s="4">
         <f>AU61*1.04</f>
-        <v>5654.7920000000004</v>
+        <v>5454.8</v>
       </c>
       <c r="AW61" s="4">
         <f t="shared" ref="AW61:BA61" si="78">AV61*1.04</f>
-        <v>5880.9836800000003</v>
+        <v>5672.9920000000002</v>
       </c>
       <c r="AX61" s="4">
         <f t="shared" si="78"/>
-        <v>6116.2230272000006</v>
+        <v>5899.9116800000002</v>
       </c>
       <c r="AY61" s="4">
         <f t="shared" si="78"/>
-        <v>6360.8719482880006</v>
+        <v>6135.9081472000007</v>
       </c>
       <c r="AZ61" s="4">
         <f t="shared" si="78"/>
-        <v>6615.3068262195211</v>
+        <v>6381.344473088001</v>
       </c>
       <c r="BA61" s="4">
         <f t="shared" si="78"/>
-        <v>6879.9190992683025</v>
+        <v>6636.5982520115213</v>
       </c>
       <c r="BB61" s="4">
         <f t="shared" ref="BB61:BF61" si="79">BA61*1.04</f>
-        <v>7155.1158632390352</v>
+        <v>6902.0621820919823</v>
       </c>
       <c r="BC61" s="4">
         <f t="shared" si="79"/>
-        <v>7441.3204977685973</v>
+        <v>7178.1446693756616</v>
       </c>
       <c r="BD61" s="4">
         <f t="shared" si="79"/>
-        <v>7738.9733176793416</v>
+        <v>7465.270456150688</v>
       </c>
       <c r="BE61" s="4">
         <f t="shared" si="79"/>
-        <v>8048.5322503865154</v>
+        <v>7763.8812743967155</v>
       </c>
       <c r="BF61" s="4">
         <f t="shared" si="79"/>
-        <v>8370.4735404019757</v>
+        <v>8074.4365253725846</v>
       </c>
     </row>
     <row r="62" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6040,7 +6025,7 @@
       </c>
       <c r="AC62" s="5">
         <f t="shared" si="85"/>
-        <v>2655.4000000000005</v>
+        <v>2225</v>
       </c>
       <c r="AD62" s="5">
         <f t="shared" si="85"/>
@@ -6060,51 +6045,51 @@
       </c>
       <c r="AU62" s="4">
         <f t="shared" ref="AU62:AY62" si="87">+AU60+AU61</f>
-        <v>10142.799999999999</v>
+        <v>9712.4</v>
       </c>
       <c r="AV62" s="4">
         <f>+AV60+AV61</f>
-        <v>10548.512000000001</v>
+        <v>10100.896000000001</v>
       </c>
       <c r="AW62" s="4">
         <f t="shared" si="87"/>
-        <v>10970.45248</v>
+        <v>10504.931840000001</v>
       </c>
       <c r="AX62" s="4">
         <f t="shared" si="87"/>
-        <v>11409.270579200002</v>
+        <v>10925.1291136</v>
       </c>
       <c r="AY62" s="4">
         <f t="shared" si="87"/>
-        <v>11865.641402368001</v>
+        <v>11362.134278144</v>
       </c>
       <c r="AZ62" s="4">
         <f t="shared" ref="AZ62" si="88">+AZ60+AZ61</f>
-        <v>12340.267058462723</v>
+        <v>11816.61964926976</v>
       </c>
       <c r="BA62" s="4">
         <f t="shared" ref="BA62:BF62" si="89">+BA60+BA61</f>
-        <v>12833.877740801232</v>
+        <v>12289.284435240552</v>
       </c>
       <c r="BB62" s="4">
         <f t="shared" si="89"/>
-        <v>13347.232850433282</v>
+        <v>12780.855812650174</v>
       </c>
       <c r="BC62" s="4">
         <f t="shared" si="89"/>
-        <v>13881.122164450615</v>
+        <v>13292.090045156181</v>
       </c>
       <c r="BD62" s="4">
         <f t="shared" si="89"/>
-        <v>14436.367051028639</v>
+        <v>13823.773646962429</v>
       </c>
       <c r="BE62" s="4">
         <f t="shared" si="89"/>
-        <v>15013.821733069784</v>
+        <v>14376.724592840927</v>
       </c>
       <c r="BF62" s="4">
         <f t="shared" si="89"/>
-        <v>15614.374602392578</v>
+        <v>14951.793576554564</v>
       </c>
     </row>
     <row r="63" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6205,7 +6190,7 @@
       </c>
       <c r="AC63" s="5">
         <f t="shared" si="95"/>
-        <v>1382.7748832825764</v>
+        <v>2772</v>
       </c>
       <c r="AD63" s="5">
         <f t="shared" si="95"/>
@@ -6225,51 +6210,51 @@
       </c>
       <c r="AU63" s="5">
         <f t="shared" ref="AU63:BA63" si="97">AU59-AU62</f>
-        <v>6601.1295538807317</v>
+        <v>7990.3546705981553</v>
       </c>
       <c r="AV63" s="5">
         <f>AV59-AV62</f>
-        <v>12785.114741429641</v>
+        <v>13231.254848600114</v>
       </c>
       <c r="AW63" s="5">
         <f t="shared" si="97"/>
-        <v>22641.471024468614</v>
+        <v>23108.409388051277</v>
       </c>
       <c r="AX63" s="5">
         <f t="shared" si="97"/>
-        <v>29981.32354272882</v>
+        <v>30456.756649350995</v>
       </c>
       <c r="AY63" s="5">
         <f t="shared" si="97"/>
-        <v>42985.006058908533</v>
+        <v>43479.913471724183</v>
       </c>
       <c r="AZ63" s="5">
         <f t="shared" si="97"/>
-        <v>56792.207537223527</v>
+        <v>57308.018590922846</v>
       </c>
       <c r="BA63" s="5">
         <f t="shared" si="97"/>
-        <v>70015.486104047392</v>
+        <v>70553.62884528088</v>
       </c>
       <c r="BB63" s="5">
         <f t="shared" ref="BB63:BF63" si="98">BB59-BB62</f>
-        <v>76333.338234873503</v>
+        <v>76892.617921425379</v>
       </c>
       <c r="BC63" s="5">
         <f t="shared" si="98"/>
-        <v>83168.155095532347</v>
+        <v>83749.336640560665</v>
       </c>
       <c r="BD63" s="5">
         <f t="shared" si="98"/>
-        <v>90561.105454869074</v>
+        <v>91164.974881323782</v>
       </c>
       <c r="BE63" s="5">
         <f t="shared" si="98"/>
-        <v>98556.613931696978</v>
+        <v>99183.978273671979</v>
       </c>
       <c r="BF63" s="5">
         <f t="shared" si="98"/>
-        <v>107202.61890095887</v>
+        <v>107854.30601455548</v>
       </c>
     </row>
     <row r="64" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6368,7 +6353,10 @@
         <f>348-86+20</f>
         <v>282</v>
       </c>
-      <c r="AC64" s="5"/>
+      <c r="AC64" s="5">
+        <f>429-92-270</f>
+        <v>67</v>
+      </c>
       <c r="AD64" s="5"/>
       <c r="AE64" s="5"/>
       <c r="AF64" s="5"/>
@@ -6380,51 +6368,51 @@
       </c>
       <c r="AU64" s="4">
         <f t="shared" ref="AU64" si="99">SUM(AA64:AD64)</f>
-        <v>664</v>
+        <v>731</v>
       </c>
       <c r="AV64" s="4">
         <f t="shared" ref="AV64:BF64" si="100">AU94*$BH$81</f>
-        <v>2965.5503643104585</v>
+        <v>3077.1283736478526</v>
       </c>
       <c r="AW64" s="4">
         <f t="shared" si="100"/>
-        <v>4304.356898298367</v>
+        <v>4463.3409475389299</v>
       </c>
       <c r="AX64" s="4">
         <f t="shared" si="100"/>
-        <v>6594.7522717335614</v>
+        <v>6806.9397260640972</v>
       </c>
       <c r="AY64" s="4">
         <f t="shared" si="100"/>
-        <v>9703.7187159628647</v>
+        <v>9974.3539179743802</v>
       </c>
       <c r="AZ64" s="4">
         <f t="shared" si="100"/>
-        <v>14182.260321826934</v>
+        <v>14517.966646098759</v>
       </c>
       <c r="BA64" s="4">
         <f t="shared" si="100"/>
-        <v>20215.090089846224</v>
+        <v>20623.175391245597</v>
       </c>
       <c r="BB64" s="4">
         <f t="shared" si="100"/>
-        <v>27884.689066327177</v>
+        <v>28373.203751350346</v>
       </c>
       <c r="BC64" s="4">
         <f t="shared" si="100"/>
-        <v>36743.221386929239</v>
+        <v>37320.798593536281</v>
       </c>
       <c r="BD64" s="4">
         <f t="shared" si="100"/>
-        <v>46935.688387938477</v>
+        <v>47611.76008843453</v>
       </c>
       <c r="BE64" s="4">
         <f t="shared" si="100"/>
-        <v>58622.915864577124</v>
+        <v>59407.782560863976</v>
       </c>
       <c r="BF64" s="4">
         <f t="shared" si="100"/>
-        <v>71983.175897260415</v>
+        <v>72888.082231799533</v>
       </c>
     </row>
     <row r="65" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6525,7 +6513,7 @@
       </c>
       <c r="AC65" s="5">
         <f t="shared" si="103"/>
-        <v>1382.7748832825764</v>
+        <v>2839</v>
       </c>
       <c r="AD65" s="5">
         <f t="shared" si="103"/>
@@ -6541,51 +6529,51 @@
       </c>
       <c r="AU65" s="4">
         <f t="shared" ref="AU65:BF65" si="104">+AU63+AU64</f>
-        <v>7265.1295538807317</v>
+        <v>8721.3546705981553</v>
       </c>
       <c r="AV65" s="4">
         <f t="shared" si="104"/>
-        <v>15750.6651057401</v>
+        <v>16308.383222247967</v>
       </c>
       <c r="AW65" s="4">
         <f t="shared" si="104"/>
-        <v>26945.827922766981</v>
+        <v>27571.750335590208</v>
       </c>
       <c r="AX65" s="4">
         <f t="shared" si="104"/>
-        <v>36576.075814462383</v>
+        <v>37263.696375415093</v>
       </c>
       <c r="AY65" s="4">
         <f t="shared" si="104"/>
-        <v>52688.7247748714</v>
+        <v>53454.267389698565</v>
       </c>
       <c r="AZ65" s="4">
         <f t="shared" si="104"/>
-        <v>70974.467859050463</v>
+        <v>71825.98523702161</v>
       </c>
       <c r="BA65" s="4">
         <f t="shared" si="104"/>
-        <v>90230.576193893619</v>
+        <v>91176.804236526485</v>
       </c>
       <c r="BB65" s="4">
         <f t="shared" si="104"/>
-        <v>104218.02730120068</v>
+        <v>105265.82167277572</v>
       </c>
       <c r="BC65" s="4">
         <f t="shared" si="104"/>
-        <v>119911.37648246158</v>
+        <v>121070.13523409695</v>
       </c>
       <c r="BD65" s="4">
         <f t="shared" si="104"/>
-        <v>137496.79384280756</v>
+        <v>138776.73496975831</v>
       </c>
       <c r="BE65" s="4">
         <f t="shared" si="104"/>
-        <v>157179.52979627409</v>
+        <v>158591.76083453596</v>
       </c>
       <c r="BF65" s="4">
         <f t="shared" si="104"/>
-        <v>179185.79479821929</v>
+        <v>180742.388246355</v>
       </c>
     </row>
     <row r="66" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6682,8 +6670,8 @@
         <v>409</v>
       </c>
       <c r="AC66" s="5">
-        <f>+AC65*0.2</f>
-        <v>276.55497665651529</v>
+        <f>601+16</f>
+        <v>617</v>
       </c>
       <c r="AD66" s="5">
         <f>+AD65*0.2</f>
@@ -6699,51 +6687,51 @@
       </c>
       <c r="AU66" s="4">
         <f t="shared" ref="AU66" si="105">SUM(AA66:AD66)</f>
-        <v>1473.6259107761464</v>
+        <v>1814.0709341196311</v>
       </c>
       <c r="AV66" s="4">
         <f t="shared" ref="AV66:BA66" si="106">+AV65*0.15</f>
-        <v>2362.5997658610149</v>
+        <v>2446.257483337195</v>
       </c>
       <c r="AW66" s="4">
         <f t="shared" si="106"/>
-        <v>4041.8741884150468</v>
+        <v>4135.7625503385307</v>
       </c>
       <c r="AX66" s="4">
         <f t="shared" si="106"/>
-        <v>5486.4113721693575</v>
+        <v>5589.5544563122639</v>
       </c>
       <c r="AY66" s="4">
         <f t="shared" si="106"/>
-        <v>7903.3087162307093</v>
+        <v>8018.1401084547842</v>
       </c>
       <c r="AZ66" s="4">
         <f t="shared" si="106"/>
-        <v>10646.170178857568</v>
+        <v>10773.897785553241</v>
       </c>
       <c r="BA66" s="4">
         <f t="shared" si="106"/>
-        <v>13534.586429084042</v>
+        <v>13676.520635478972</v>
       </c>
       <c r="BB66" s="4">
         <f t="shared" ref="BB66:BF66" si="107">+BB65*0.15</f>
-        <v>15632.704095180101</v>
+        <v>15789.873250916358</v>
       </c>
       <c r="BC66" s="4">
         <f t="shared" si="107"/>
-        <v>17986.706472369235</v>
+        <v>18160.52028511454</v>
       </c>
       <c r="BD66" s="4">
         <f t="shared" si="107"/>
-        <v>20624.519076421133</v>
+        <v>20816.510245463745</v>
       </c>
       <c r="BE66" s="4">
         <f t="shared" si="107"/>
-        <v>23576.929469441111</v>
+        <v>23788.764125180394</v>
       </c>
       <c r="BF66" s="4">
         <f t="shared" si="107"/>
-        <v>26877.869219732893</v>
+        <v>27111.358236953249</v>
       </c>
     </row>
     <row r="67" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6844,7 +6832,7 @@
       </c>
       <c r="AC67" s="5">
         <f t="shared" si="110"/>
-        <v>1106.2199066260612</v>
+        <v>2222</v>
       </c>
       <c r="AD67" s="5">
         <f t="shared" si="110"/>
@@ -6860,255 +6848,255 @@
       </c>
       <c r="AU67" s="4">
         <f t="shared" ref="AU67" si="111">+AU65-AU66</f>
-        <v>5791.5036431045855</v>
+        <v>6907.2837364785246</v>
       </c>
       <c r="AV67" s="4">
         <f t="shared" ref="AV67:BA67" si="112">+AV65-AV66</f>
-        <v>13388.065339879086</v>
+        <v>13862.125738910772</v>
       </c>
       <c r="AW67" s="4">
         <f t="shared" si="112"/>
-        <v>22903.953734351933</v>
+        <v>23435.987785251677</v>
       </c>
       <c r="AX67" s="4">
         <f t="shared" si="112"/>
-        <v>31089.664442293026</v>
+        <v>31674.141919102829</v>
       </c>
       <c r="AY67" s="4">
         <f t="shared" si="112"/>
-        <v>44785.416058640694</v>
+        <v>45436.127281243782</v>
       </c>
       <c r="AZ67" s="4">
         <f t="shared" si="112"/>
-        <v>60328.297680192896</v>
+        <v>61052.087451468367</v>
       </c>
       <c r="BA67" s="4">
         <f t="shared" si="112"/>
-        <v>76695.989764809579</v>
+        <v>77500.283601047515</v>
       </c>
       <c r="BB67" s="4">
         <f t="shared" ref="BB67:BF67" si="113">+BB65-BB66</f>
-        <v>88585.323206020577</v>
+        <v>89475.948421859372</v>
       </c>
       <c r="BC67" s="4">
         <f t="shared" si="113"/>
-        <v>101924.67001009235</v>
+        <v>102909.6149489824</v>
       </c>
       <c r="BD67" s="4">
         <f t="shared" si="113"/>
-        <v>116872.27476638643</v>
+        <v>117960.22472429456</v>
       </c>
       <c r="BE67" s="4">
         <f t="shared" si="113"/>
-        <v>133602.60032683297</v>
+        <v>134802.99670935556</v>
       </c>
       <c r="BF67" s="4">
         <f t="shared" si="113"/>
-        <v>152307.92557848641</v>
+        <v>153631.03000940176</v>
       </c>
       <c r="BG67" s="4">
         <f t="shared" ref="BG67:CL67" si="114">BF67*(1+$BH$78)</f>
-        <v>150784.84632270155</v>
+        <v>152094.71970930774</v>
       </c>
       <c r="BH67" s="4">
         <f t="shared" si="114"/>
-        <v>149276.99785947453</v>
+        <v>150573.77251221467</v>
       </c>
       <c r="BI67" s="4">
         <f t="shared" si="114"/>
-        <v>147784.2278808798</v>
+        <v>149068.0347870925</v>
       </c>
       <c r="BJ67" s="4">
         <f t="shared" si="114"/>
-        <v>146306.38560207101</v>
+        <v>147577.35443922158</v>
       </c>
       <c r="BK67" s="4">
         <f t="shared" si="114"/>
-        <v>144843.32174605029</v>
+        <v>146101.58089482936</v>
       </c>
       <c r="BL67" s="4">
         <f t="shared" si="114"/>
-        <v>143394.8885285898</v>
+        <v>144640.56508588107</v>
       </c>
       <c r="BM67" s="4">
         <f t="shared" si="114"/>
-        <v>141960.93964330389</v>
+        <v>143194.15943502224</v>
       </c>
       <c r="BN67" s="4">
         <f t="shared" si="114"/>
-        <v>140541.33024687084</v>
+        <v>141762.21784067203</v>
       </c>
       <c r="BO67" s="4">
         <f t="shared" si="114"/>
-        <v>139135.91694440212</v>
+        <v>140344.59566226532</v>
       </c>
       <c r="BP67" s="4">
         <f t="shared" si="114"/>
-        <v>137744.55777495811</v>
+        <v>138941.14970564266</v>
       </c>
       <c r="BQ67" s="4">
         <f t="shared" si="114"/>
-        <v>136367.11219720854</v>
+        <v>137551.73820858623</v>
       </c>
       <c r="BR67" s="4">
         <f t="shared" si="114"/>
-        <v>135003.44107523645</v>
+        <v>136176.22082650036</v>
       </c>
       <c r="BS67" s="4">
         <f t="shared" si="114"/>
-        <v>133653.40666448409</v>
+        <v>134814.45861823537</v>
       </c>
       <c r="BT67" s="4">
         <f t="shared" si="114"/>
-        <v>132316.87259783925</v>
+        <v>133466.31403205302</v>
       </c>
       <c r="BU67" s="4">
         <f t="shared" si="114"/>
-        <v>130993.70387186085</v>
+        <v>132131.65089173248</v>
       </c>
       <c r="BV67" s="4">
         <f t="shared" si="114"/>
-        <v>129683.76683314225</v>
+        <v>130810.33438281516</v>
       </c>
       <c r="BW67" s="4">
         <f t="shared" si="114"/>
-        <v>128386.92916481082</v>
+        <v>129502.231038987</v>
       </c>
       <c r="BX67" s="4">
         <f t="shared" si="114"/>
-        <v>127103.05987316271</v>
+        <v>128207.20872859712</v>
       </c>
       <c r="BY67" s="4">
         <f t="shared" si="114"/>
-        <v>125832.02927443109</v>
+        <v>126925.13664131115</v>
       </c>
       <c r="BZ67" s="4">
         <f t="shared" si="114"/>
-        <v>124573.70898168678</v>
+        <v>125655.88527489804</v>
       </c>
       <c r="CA67" s="4">
         <f t="shared" si="114"/>
-        <v>123327.97189186991</v>
+        <v>124399.32642214907</v>
       </c>
       <c r="CB67" s="4">
         <f t="shared" si="114"/>
-        <v>122094.69217295121</v>
+        <v>123155.33315792757</v>
       </c>
       <c r="CC67" s="4">
         <f t="shared" si="114"/>
-        <v>120873.7452512217</v>
+        <v>121923.7798263483</v>
       </c>
       <c r="CD67" s="4">
         <f t="shared" si="114"/>
-        <v>119665.00779870948</v>
+        <v>120704.54202808482</v>
       </c>
       <c r="CE67" s="4">
         <f t="shared" si="114"/>
-        <v>118468.35772072239</v>
+        <v>119497.49660780397</v>
       </c>
       <c r="CF67" s="4">
         <f t="shared" si="114"/>
-        <v>117283.67414351516</v>
+        <v>118302.52164172594</v>
       </c>
       <c r="CG67" s="4">
         <f t="shared" si="114"/>
-        <v>116110.83740208001</v>
+        <v>117119.49642530868</v>
       </c>
       <c r="CH67" s="4">
         <f t="shared" si="114"/>
-        <v>114949.72902805921</v>
+        <v>115948.3014610556</v>
       </c>
       <c r="CI67" s="4">
         <f t="shared" si="114"/>
-        <v>113800.23173777862</v>
+        <v>114788.81844644505</v>
       </c>
       <c r="CJ67" s="4">
         <f t="shared" si="114"/>
-        <v>112662.22942040084</v>
+        <v>113640.9302619806</v>
       </c>
       <c r="CK67" s="4">
         <f t="shared" si="114"/>
-        <v>111535.60712619683</v>
+        <v>112504.52095936079</v>
       </c>
       <c r="CL67" s="4">
         <f t="shared" si="114"/>
-        <v>110420.25105493487</v>
+        <v>111379.47574976718</v>
       </c>
       <c r="CM67" s="4">
         <f t="shared" ref="CM67:DE67" si="115">CL67*(1+$BH$78)</f>
-        <v>109316.04854438551</v>
+        <v>110265.68099226951</v>
       </c>
       <c r="CN67" s="4">
         <f t="shared" si="115"/>
-        <v>108222.88805894165</v>
+        <v>109163.02418234681</v>
       </c>
       <c r="CO67" s="4">
         <f t="shared" si="115"/>
-        <v>107140.65917835223</v>
+        <v>108071.39394052334</v>
       </c>
       <c r="CP67" s="4">
         <f t="shared" si="115"/>
-        <v>106069.25258656871</v>
+        <v>106990.6800011181</v>
       </c>
       <c r="CQ67" s="4">
         <f t="shared" si="115"/>
-        <v>105008.56006070302</v>
+        <v>105920.77320110692</v>
       </c>
       <c r="CR67" s="4">
         <f t="shared" si="115"/>
-        <v>103958.474460096</v>
+        <v>104861.56546909585</v>
       </c>
       <c r="CS67" s="4">
         <f t="shared" si="115"/>
-        <v>102918.88971549504</v>
+        <v>103812.94981440488</v>
       </c>
       <c r="CT67" s="4">
         <f t="shared" si="115"/>
-        <v>101889.70081834009</v>
+        <v>102774.82031626084</v>
       </c>
       <c r="CU67" s="4">
         <f t="shared" si="115"/>
-        <v>100870.80381015669</v>
+        <v>101747.07211309823</v>
       </c>
       <c r="CV67" s="4">
         <f t="shared" si="115"/>
-        <v>99862.095772055123</v>
+        <v>100729.60139196724</v>
       </c>
       <c r="CW67" s="4">
         <f t="shared" si="115"/>
-        <v>98863.474814334564</v>
+        <v>99722.30537804756</v>
       </c>
       <c r="CX67" s="4">
         <f t="shared" si="115"/>
-        <v>97874.840066191216</v>
+        <v>98725.082324267089</v>
       </c>
       <c r="CY67" s="4">
         <f t="shared" si="115"/>
-        <v>96896.091665529297</v>
+        <v>97737.831501024411</v>
       </c>
       <c r="CZ67" s="4">
         <f t="shared" si="115"/>
-        <v>95927.130748873999</v>
+        <v>96760.453186014172</v>
       </c>
       <c r="DA67" s="4">
         <f t="shared" si="115"/>
-        <v>94967.859441385255</v>
+        <v>95792.848654154033</v>
       </c>
       <c r="DB67" s="4">
         <f t="shared" si="115"/>
-        <v>94018.180846971401</v>
+        <v>94834.920167612494</v>
       </c>
       <c r="DC67" s="4">
         <f t="shared" si="115"/>
-        <v>93077.999038501686</v>
+        <v>93886.570965936364</v>
       </c>
       <c r="DD67" s="4">
         <f t="shared" si="115"/>
-        <v>92147.219048116662</v>
+        <v>92947.705256276997</v>
       </c>
       <c r="DE67" s="4">
         <f t="shared" si="115"/>
-        <v>91225.746857635488</v>
+        <v>92018.228203714229</v>
       </c>
     </row>
     <row r="68" spans="2:109" x14ac:dyDescent="0.2">
@@ -7209,11 +7197,11 @@
       </c>
       <c r="AC68" s="3">
         <f t="shared" si="123"/>
-        <v>0.31778796513245078</v>
+        <v>0.63540177294824129</v>
       </c>
       <c r="AD68" s="3">
         <f t="shared" si="123"/>
-        <v>0.41835212194154686</v>
+        <v>0.41643801443480827</v>
       </c>
       <c r="AE68" s="3"/>
       <c r="AF68" s="3"/>
@@ -7225,51 +7213,51 @@
       </c>
       <c r="AU68" s="20">
         <f t="shared" ref="AU68:BA68" si="124">+AU67/AU69</f>
-        <v>1.6633887105922556</v>
+        <v>1.979306178516663</v>
       </c>
       <c r="AV68" s="20">
         <f t="shared" si="124"/>
-        <v>3.8452115573717487</v>
+        <v>3.9722403435520515</v>
       </c>
       <c r="AW68" s="20">
         <f t="shared" si="124"/>
-        <v>6.5782878536230154</v>
+        <v>6.7156638112333766</v>
       </c>
       <c r="AX68" s="20">
         <f t="shared" si="124"/>
-        <v>8.9293213017284483</v>
+        <v>9.0763355309414226</v>
       </c>
       <c r="AY68" s="20">
         <f t="shared" si="124"/>
-        <v>12.862904016267882</v>
+        <v>13.019880301237562</v>
       </c>
       <c r="AZ68" s="20">
         <f t="shared" si="124"/>
-        <v>17.327004431734874</v>
+        <v>17.494688000993872</v>
       </c>
       <c r="BA68" s="20">
         <f t="shared" si="124"/>
-        <v>22.028000219662406</v>
+        <v>22.207975815186622</v>
       </c>
       <c r="BB68" s="20">
         <f t="shared" ref="BB68:BF68" si="125">+BB67/BB69</f>
-        <v>25.442758154956724</v>
+        <v>25.639644221465542</v>
       </c>
       <c r="BC68" s="20">
         <f t="shared" si="125"/>
-        <v>29.273977169553341</v>
+        <v>29.489108087680322</v>
       </c>
       <c r="BD68" s="20">
         <f t="shared" si="125"/>
-        <v>33.567106991135617</v>
+        <v>33.801912665461586</v>
       </c>
       <c r="BE68" s="20">
         <f t="shared" si="125"/>
-        <v>38.372255425241036</v>
+        <v>38.628267557663314</v>
       </c>
       <c r="BF68" s="20">
         <f t="shared" si="125"/>
-        <v>43.744647254537632</v>
+        <v>44.023505984497959</v>
       </c>
     </row>
     <row r="69" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -7352,12 +7340,11 @@
         <v>3481</v>
       </c>
       <c r="AC69" s="5">
-        <f>+AB69</f>
-        <v>3481</v>
+        <v>3497</v>
       </c>
       <c r="AD69" s="5">
         <f>+AC69</f>
-        <v>3481</v>
+        <v>3497</v>
       </c>
       <c r="AE69" s="5"/>
       <c r="AF69" s="5"/>
@@ -7369,51 +7356,51 @@
       </c>
       <c r="AU69" s="4">
         <f>AVERAGE(AA69:AD69)</f>
-        <v>3481.75</v>
+        <v>3489.75</v>
       </c>
       <c r="AV69" s="4">
         <f t="shared" ref="AV69:AY69" si="126">AU69</f>
-        <v>3481.75</v>
+        <v>3489.75</v>
       </c>
       <c r="AW69" s="4">
         <f t="shared" si="126"/>
-        <v>3481.75</v>
+        <v>3489.75</v>
       </c>
       <c r="AX69" s="4">
         <f t="shared" si="126"/>
-        <v>3481.75</v>
+        <v>3489.75</v>
       </c>
       <c r="AY69" s="4">
         <f t="shared" si="126"/>
-        <v>3481.75</v>
+        <v>3489.75</v>
       </c>
       <c r="AZ69" s="4">
         <f t="shared" ref="AZ69:BA69" si="127">AY69</f>
-        <v>3481.75</v>
+        <v>3489.75</v>
       </c>
       <c r="BA69" s="4">
         <f t="shared" si="127"/>
-        <v>3481.75</v>
+        <v>3489.75</v>
       </c>
       <c r="BB69" s="4">
         <f t="shared" ref="BB69" si="128">BA69</f>
-        <v>3481.75</v>
+        <v>3489.75</v>
       </c>
       <c r="BC69" s="4">
         <f t="shared" ref="BC69" si="129">BB69</f>
-        <v>3481.75</v>
+        <v>3489.75</v>
       </c>
       <c r="BD69" s="4">
         <f t="shared" ref="BD69" si="130">BC69</f>
-        <v>3481.75</v>
+        <v>3489.75</v>
       </c>
       <c r="BE69" s="4">
         <f t="shared" ref="BE69" si="131">BD69</f>
-        <v>3481.75</v>
+        <v>3489.75</v>
       </c>
       <c r="BF69" s="4">
         <f t="shared" ref="BF69" si="132">BE69</f>
-        <v>3481.75</v>
+        <v>3489.75</v>
       </c>
     </row>
     <row r="71" spans="2:109" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -7502,7 +7489,7 @@
       </c>
       <c r="AC71" s="22">
         <f t="shared" si="139"/>
-        <v>9.9496040908658712E-2</v>
+        <v>7.8458244111349051E-2</v>
       </c>
       <c r="AD71" s="22">
         <f t="shared" si="139"/>
@@ -7554,51 +7541,51 @@
       </c>
       <c r="AU71" s="25">
         <f t="shared" ref="AU71:AY71" si="141">+AU51/AT51-1</f>
-        <v>4.9961432049623555E-2</v>
+        <v>4.4816119551124967E-2</v>
       </c>
       <c r="AV71" s="25">
         <f t="shared" si="141"/>
-        <v>-2.4706752918682851E-3</v>
+        <v>1.6476131104732339E-3</v>
       </c>
       <c r="AW71" s="25">
         <f t="shared" si="141"/>
-        <v>0.29878099511543299</v>
+        <v>0.29881193875757206</v>
       </c>
       <c r="AX71" s="25">
         <f t="shared" si="141"/>
-        <v>0.2451805291856175</v>
+        <v>0.24520722195945899</v>
       </c>
       <c r="AY71" s="25">
         <f t="shared" si="141"/>
-        <v>0.24426256208475916</v>
+        <v>0.24428699114003871</v>
       </c>
       <c r="AZ71" s="25">
         <f t="shared" ref="AZ71:BA71" si="142">+AZ51/AY51-1</f>
-        <v>0.19140397345777682</v>
+        <v>0.19142525099251895</v>
       </c>
       <c r="BA71" s="25">
         <f t="shared" si="142"/>
-        <v>0.13882460267794272</v>
+        <v>0.13884317350591191</v>
       </c>
       <c r="BB71" s="25">
         <f t="shared" ref="BB71" si="143">+BB51/BA51-1</f>
-        <v>8.172833905638166E-2</v>
+        <v>8.172814722018984E-2</v>
       </c>
       <c r="BC71" s="25">
         <f t="shared" ref="BC71" si="144">+BC51/BB51-1</f>
-        <v>8.1659655884052551E-2</v>
+        <v>8.1659299215460557E-2</v>
       </c>
       <c r="BD71" s="25">
         <f t="shared" ref="BD71" si="145">+BD51/BC51-1</f>
-        <v>8.1595567158416982E-2</v>
+        <v>8.1595055977058184E-2</v>
       </c>
       <c r="BE71" s="25">
         <f t="shared" ref="BE71" si="146">+BE51/BD51-1</f>
-        <v>8.1535794169422138E-2</v>
+        <v>8.1535138239181126E-2</v>
       </c>
       <c r="BF71" s="25">
         <f t="shared" ref="BF71" si="147">+BF51/BE51-1</f>
-        <v>8.1480076734737006E-2</v>
+        <v>8.1479285298789561E-2</v>
       </c>
     </row>
     <row r="72" spans="2:109" x14ac:dyDescent="0.2">
@@ -7606,7 +7593,7 @@
         <v>92</v>
       </c>
       <c r="K72" s="17">
-        <f t="shared" ref="K72:AD72" si="148">+K37/G37-1</f>
+        <f t="shared" ref="K72:Z72" si="148">+K37/G37-1</f>
         <v>0.40427490122026688</v>
       </c>
       <c r="L72" s="17">
@@ -7679,7 +7666,7 @@
       </c>
       <c r="AC72" s="17">
         <f>+AC37/Y37-1</f>
-        <v>8.0000000000000071E-2</v>
+        <v>6.3970633868050131E-2</v>
       </c>
       <c r="AD72" s="17">
         <f>+AD37/Z37-1</f>
@@ -7707,11 +7694,11 @@
       </c>
       <c r="AU72" s="26">
         <f t="shared" si="149"/>
-        <v>1.6366543715763848E-2</v>
+        <v>1.2510636792048668E-2</v>
       </c>
       <c r="AV72" s="26">
         <f t="shared" si="149"/>
-        <v>0.23349282830775531</v>
+        <v>0.24164683685491672</v>
       </c>
       <c r="AW72" s="26">
         <f t="shared" si="149"/>
@@ -7832,7 +7819,7 @@
       </c>
       <c r="AC73" s="17">
         <f t="shared" si="151"/>
-        <v>8.0000000000000071E-2</v>
+        <v>9.1310326884837645E-2</v>
       </c>
       <c r="AD73" s="17">
         <f t="shared" si="151"/>
@@ -7860,7 +7847,7 @@
       </c>
       <c r="AU73" s="26">
         <f t="shared" si="152"/>
-        <v>-5.5170524137520105E-2</v>
+        <v>-5.2532929574183984E-2</v>
       </c>
       <c r="AV73" s="26">
         <f t="shared" si="152"/>
@@ -7985,7 +7972,7 @@
       </c>
       <c r="AC74" s="17">
         <f t="shared" si="160"/>
-        <v>4.484084356997009E-2</v>
+        <v>1.3400064578624526E-2</v>
       </c>
       <c r="AD74" s="17">
         <f t="shared" si="160"/>
@@ -8094,7 +8081,7 @@
       </c>
       <c r="AC75" s="17">
         <f t="shared" si="165"/>
-        <v>0.14999999999999994</v>
+        <v>0.16398491848547608</v>
       </c>
       <c r="AD75" s="17">
         <f t="shared" si="165"/>
@@ -8122,7 +8109,7 @@
       </c>
       <c r="AU75" s="17">
         <f t="shared" si="166"/>
-        <v>0.14850200661681426</v>
+        <v>0.15187337762565881</v>
       </c>
       <c r="AV75" s="17"/>
       <c r="AW75" s="17"/>
@@ -8226,7 +8213,7 @@
       </c>
       <c r="AC76" s="17">
         <f t="shared" si="170"/>
-        <v>0.15729125168002889</v>
+        <v>0.19843539035819235</v>
       </c>
       <c r="AD76" s="17">
         <f t="shared" si="170"/>
@@ -8254,51 +8241,51 @@
       </c>
       <c r="AU76" s="17">
         <f t="shared" si="171"/>
-        <v>0.16478961422369839</v>
+        <v>0.17508412978320537</v>
       </c>
       <c r="AV76" s="17">
         <f t="shared" si="171"/>
-        <v>0.23021256493666575</v>
+        <v>0.23038051578485555</v>
       </c>
       <c r="AW76" s="17">
         <f t="shared" si="171"/>
-        <v>0.25533139541686989</v>
+        <v>0.25553852455918297</v>
       </c>
       <c r="AX76" s="17">
         <f t="shared" si="171"/>
-        <v>0.25251093588128304</v>
+        <v>0.25264653437055068</v>
       </c>
       <c r="AY76" s="17">
         <f t="shared" si="171"/>
-        <v>0.26893557542457436</v>
+        <v>0.269089139377304</v>
       </c>
       <c r="AZ76" s="17">
         <f t="shared" si="171"/>
-        <v>0.28450477229339577</v>
+        <v>0.28467450772979297</v>
       </c>
       <c r="BA76" s="17">
         <f t="shared" si="171"/>
-        <v>0.29939172332077485</v>
+        <v>0.29957608920810236</v>
       </c>
       <c r="BB76" s="17">
         <f t="shared" si="171"/>
-        <v>0.29959238460424897</v>
+        <v>0.29977654305947554</v>
       </c>
       <c r="BC76" s="17">
         <f t="shared" si="171"/>
-        <v>0.29973266733294335</v>
+        <v>0.29991648532346987</v>
       </c>
       <c r="BD76" s="17">
         <f t="shared" si="171"/>
-        <v>0.2998166306473995</v>
+        <v>0.29999998340925998</v>
       </c>
       <c r="BE76" s="17">
         <f t="shared" si="171"/>
-        <v>0.29984807761816812</v>
+        <v>0.30003084817418979</v>
       </c>
       <c r="BF76" s="17">
         <f t="shared" si="171"/>
-        <v>0.29983057370922234</v>
+        <v>0.30001265242378838</v>
       </c>
     </row>
     <row r="77" spans="2:109" x14ac:dyDescent="0.2">
@@ -8409,7 +8396,7 @@
       </c>
       <c r="AC79" s="5">
         <f>AC67</f>
-        <v>1106.2199066260612</v>
+        <v>2222</v>
       </c>
       <c r="AD79" s="5">
         <f t="shared" si="173"/>
@@ -8496,7 +8483,7 @@
       </c>
       <c r="BH80" s="4">
         <f>NPV(BH79,AV67:DF67)+Main!K5-Main!K6</f>
-        <v>1204471.4704534928</v>
+        <v>1216195.9994596136</v>
       </c>
     </row>
     <row r="81" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -8641,7 +8628,7 @@
       </c>
       <c r="BH82" s="20">
         <f>BH80/Main!K3</f>
-        <v>377.02880887565959</v>
+        <v>380.69887106828378</v>
       </c>
     </row>
     <row r="83" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -8984,7 +8971,9 @@
       <c r="AB88" s="5">
         <v>3612</v>
       </c>
-      <c r="AC88" s="5"/>
+      <c r="AC88" s="5">
+        <v>6255</v>
+      </c>
       <c r="AD88" s="5"/>
       <c r="AE88" s="5"/>
       <c r="AF88" s="5"/>
@@ -9099,7 +9088,9 @@
       <c r="AB90" s="5">
         <v>2270</v>
       </c>
-      <c r="AC90" s="5"/>
+      <c r="AC90" s="5">
+        <v>3513</v>
+      </c>
       <c r="AD90" s="5"/>
       <c r="AE90" s="5"/>
       <c r="AF90" s="5"/>
@@ -9158,7 +9149,7 @@
         <v>2228</v>
       </c>
       <c r="T91" s="5">
-        <f t="shared" ref="T91:AB91" si="178">T88-T90</f>
+        <f t="shared" ref="T91:AC91" si="178">T88-T90</f>
         <v>621</v>
       </c>
       <c r="U91" s="5">
@@ -9193,7 +9184,10 @@
         <f t="shared" si="178"/>
         <v>1342</v>
       </c>
-      <c r="AC91" s="5"/>
+      <c r="AC91" s="5">
+        <f t="shared" si="178"/>
+        <v>2742</v>
+      </c>
       <c r="AD91" s="5"/>
       <c r="AE91" s="5"/>
       <c r="AF91" s="5"/>
@@ -9255,7 +9249,7 @@
         <v>7566</v>
       </c>
       <c r="W92" s="7">
-        <f t="shared" ref="W92:AB92" si="180">SUM(T91:W91)</f>
+        <f t="shared" ref="W92:AC92" si="180">SUM(T91:W91)</f>
         <v>5779</v>
       </c>
       <c r="X92" s="7">
@@ -9278,7 +9272,10 @@
         <f t="shared" si="180"/>
         <v>1723</v>
       </c>
-      <c r="AC92" s="5"/>
+      <c r="AC92" s="7">
+        <f t="shared" si="180"/>
+        <v>3617</v>
+      </c>
       <c r="AD92" s="5"/>
       <c r="AE92" s="5"/>
       <c r="AF92" s="5"/>
@@ -9379,51 +9376,51 @@
       </c>
       <c r="AU94" s="4">
         <f>AT94+AU67</f>
-        <v>29655.503643104585</v>
+        <v>30771.283736478523</v>
       </c>
       <c r="AV94" s="4">
         <f t="shared" ref="AV94:BA94" si="182">AU94+AV67</f>
-        <v>43043.56898298367</v>
+        <v>44633.409475389293</v>
       </c>
       <c r="AW94" s="4">
         <f t="shared" si="182"/>
-        <v>65947.522717335611</v>
+        <v>68069.397260640966</v>
       </c>
       <c r="AX94" s="4">
         <f t="shared" si="182"/>
-        <v>97037.187159628636</v>
+        <v>99743.539179743791</v>
       </c>
       <c r="AY94" s="4">
         <f t="shared" si="182"/>
-        <v>141822.60321826933</v>
+        <v>145179.66646098759</v>
       </c>
       <c r="AZ94" s="4">
         <f t="shared" si="182"/>
-        <v>202150.90089846222</v>
+        <v>206231.75391245596</v>
       </c>
       <c r="BA94" s="4">
         <f t="shared" si="182"/>
-        <v>278846.89066327177</v>
+        <v>283732.03751350346</v>
       </c>
       <c r="BB94" s="4">
         <f t="shared" ref="BB94" si="183">BA94+BB67</f>
-        <v>367432.21386929235</v>
+        <v>373207.98593536281</v>
       </c>
       <c r="BC94" s="4">
         <f t="shared" ref="BC94" si="184">BB94+BC67</f>
-        <v>469356.88387938472</v>
+        <v>476117.60088434524</v>
       </c>
       <c r="BD94" s="4">
         <f t="shared" ref="BD94" si="185">BC94+BD67</f>
-        <v>586229.15864577121</v>
+        <v>594077.82560863975</v>
       </c>
       <c r="BE94" s="4">
         <f t="shared" ref="BE94" si="186">BD94+BE67</f>
-        <v>719831.75897260418</v>
+        <v>728880.82231799536</v>
       </c>
       <c r="BF94" s="4">
         <f t="shared" ref="BF94" si="187">BE94+BF67</f>
-        <v>872139.68455109058</v>
+        <v>882511.85232739709</v>
       </c>
     </row>
     <row r="95" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -10366,51 +10363,51 @@
       </c>
       <c r="AU118" s="4">
         <f t="shared" ref="AU118:BA118" si="190">+AU37*AU123*8/1000</f>
-        <v>1764.6539711999999</v>
+        <v>1757.9592</v>
       </c>
       <c r="AV118" s="4">
         <f t="shared" si="190"/>
-        <v>2902.2506905599998</v>
+        <v>2910.3526400000001</v>
       </c>
       <c r="AW118" s="4">
         <f t="shared" si="190"/>
-        <v>4534.7667039999997</v>
+        <v>4547.4260000000004</v>
       </c>
       <c r="AX118" s="4">
         <f t="shared" si="190"/>
-        <v>6530.0640537599993</v>
+        <v>6548.2934399999995</v>
       </c>
       <c r="AY118" s="4">
         <f t="shared" si="190"/>
-        <v>9142.0896752640001</v>
+        <v>9167.6108160000022</v>
       </c>
       <c r="AZ118" s="4">
         <f t="shared" si="190"/>
-        <v>12015.317858918397</v>
+        <v>12048.859929599999</v>
       </c>
       <c r="BA118" s="4">
         <f t="shared" si="190"/>
-        <v>14868.955850411518</v>
+        <v>14910.464162879998</v>
       </c>
       <c r="BB118" s="4">
         <f t="shared" ref="BB118:BF118" si="191">+BB37*BB123*8/1000</f>
-        <v>16046.08152190243</v>
+        <v>16090.875909107997</v>
       </c>
       <c r="BC118" s="4">
         <f t="shared" si="191"/>
-        <v>17303.747370916408</v>
+        <v>17352.052669551598</v>
       </c>
       <c r="BD118" s="4">
         <f t="shared" si="191"/>
-        <v>18647.064601027025</v>
+        <v>18699.119916266791</v>
       </c>
       <c r="BE118" s="4">
         <f t="shared" si="191"/>
-        <v>20081.45418572141</v>
+        <v>20137.513755979624</v>
       </c>
       <c r="BF118" s="4">
         <f t="shared" si="191"/>
-        <v>21612.665067382663</v>
+        <v>21672.999179873066</v>
       </c>
     </row>
     <row r="119" spans="2:58" x14ac:dyDescent="0.2">
@@ -10452,51 +10449,51 @@
       </c>
       <c r="AU121" s="4">
         <f>+AU118/8</f>
-        <v>220.58174639999999</v>
+        <v>219.7449</v>
       </c>
       <c r="AV121" s="4">
         <f t="shared" ref="AV121:BA121" si="192">+AV118/8</f>
-        <v>362.78133631999998</v>
+        <v>363.79408000000001</v>
       </c>
       <c r="AW121" s="4">
         <f t="shared" si="192"/>
-        <v>566.84583799999996</v>
+        <v>568.42825000000005</v>
       </c>
       <c r="AX121" s="4">
         <f t="shared" si="192"/>
-        <v>816.25800671999991</v>
+        <v>818.53667999999993</v>
       </c>
       <c r="AY121" s="4">
         <f t="shared" si="192"/>
-        <v>1142.761209408</v>
+        <v>1145.9513520000003</v>
       </c>
       <c r="AZ121" s="4">
         <f t="shared" si="192"/>
-        <v>1501.9147323647996</v>
+        <v>1506.1074911999999</v>
       </c>
       <c r="BA121" s="4">
         <f t="shared" si="192"/>
-        <v>1858.6194813014397</v>
+        <v>1863.8080203599998</v>
       </c>
       <c r="BB121" s="4">
         <f t="shared" ref="BB121:BF121" si="193">+BB118/8</f>
-        <v>2005.7601902378037</v>
+        <v>2011.3594886384997</v>
       </c>
       <c r="BC121" s="4">
         <f t="shared" si="193"/>
-        <v>2162.968421364551</v>
+        <v>2169.0065836939498</v>
       </c>
       <c r="BD121" s="4">
         <f t="shared" si="193"/>
-        <v>2330.8830751283781</v>
+        <v>2337.3899895333489</v>
       </c>
       <c r="BE121" s="4">
         <f t="shared" si="193"/>
-        <v>2510.1817732151762</v>
+        <v>2517.189219497453</v>
       </c>
       <c r="BF121" s="4">
         <f t="shared" si="193"/>
-        <v>2701.5831334228328</v>
+        <v>2709.1248974841333</v>
       </c>
     </row>
     <row r="122" spans="2:58" x14ac:dyDescent="0.2">

--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4685863-569B-4E98-9B96-1BE257CF1A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B899A1-6EB5-489F-9FD2-AACD175A4F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41640" yWindow="720" windowWidth="26610" windowHeight="13410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2380" yWindow="3360" windowWidth="22990" windowHeight="13690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="177">
   <si>
     <t>Price</t>
   </si>
@@ -455,9 +455,6 @@
     <t>Q425</t>
   </si>
   <si>
-    <t>Cruise, Waymo</t>
-  </si>
-  <si>
     <t>Optimus</t>
   </si>
   <si>
@@ -551,9 +548,6 @@
     <t>Model 3: $29,490 - is a four-door mid-size sedan, mass market</t>
   </si>
   <si>
-    <t>Model Y: $30,990 - SUV</t>
-  </si>
-  <si>
     <t>Buffalo</t>
   </si>
   <si>
@@ -579,6 +573,42 @@
   </si>
   <si>
     <t>Software Revenue</t>
+  </si>
+  <si>
+    <t>Energy Storage</t>
+  </si>
+  <si>
+    <t>Powerwall - consumer product</t>
+  </si>
+  <si>
+    <t>Megapack - industrial</t>
+  </si>
+  <si>
+    <t>Model S: four-door sedan</t>
+  </si>
+  <si>
+    <t>Model Y: $30,990 - compact SUV</t>
+  </si>
+  <si>
+    <t>Model X: mid-sized SUV</t>
+  </si>
+  <si>
+    <t>Cybercab: Robotaxi style product, will compete with Cruise and Waymo. Launch 2025.</t>
+  </si>
+  <si>
+    <t>Solar Roof</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>IPO 6/29/2010</t>
+  </si>
+  <si>
+    <t>August 2020 split</t>
+  </si>
+  <si>
+    <t>August 2022 split</t>
   </si>
 </sst>
 </file>
@@ -588,7 +618,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,6 +729,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -727,7 +765,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -805,6 +843,8 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1243,32 +1283,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L17"/>
+  <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="32" t="s">
-        <v>109</v>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="11">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C3" s="32" t="s">
-        <v>125</v>
-      </c>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="32"/>
       <c r="J3" s="9" t="s">
         <v>1</v>
       </c>
@@ -1279,19 +1320,22 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="33" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="10">
         <f>K2*K3</f>
-        <v>1242715.1214349999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1156459.83023</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="43" t="s">
+        <v>168</v>
+      </c>
       <c r="J5" s="9" t="s">
         <v>3</v>
       </c>
@@ -1303,9 +1347,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="33" t="s">
-        <v>157</v>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="43" t="s">
+        <v>170</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>4</v>
@@ -1318,44 +1362,82 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="33" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="10">
         <f>K4-K5+K6</f>
-        <v>1219740.1214349999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1133484.83023</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="33" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="J10" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="33" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="9" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="B15" s="44" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
         <v>6</v>
+      </c>
+      <c r="J20" s="43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J21" s="43" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1367,39 +1449,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E310252-7C49-48D8-9A64-7380C8DB275B}">
   <dimension ref="A1:DE123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="W72" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="W92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC92" sqref="AC92"/>
+      <selection pane="bottomRight" activeCell="AC94" sqref="AC94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="18" width="9.140625" style="2"/>
-    <col min="19" max="19" width="8.7109375" style="2" customWidth="1"/>
-    <col min="20" max="23" width="9.140625" style="2"/>
-    <col min="24" max="24" width="9.7109375" style="2" customWidth="1"/>
-    <col min="25" max="26" width="9.140625" style="2"/>
-    <col min="27" max="30" width="9.5703125" style="2" customWidth="1"/>
-    <col min="31" max="34" width="8.42578125" style="2" customWidth="1"/>
-    <col min="35" max="43" width="9.140625" style="1"/>
-    <col min="44" max="46" width="9.7109375" style="1" customWidth="1"/>
-    <col min="47" max="47" width="10.7109375" style="1" customWidth="1"/>
-    <col min="48" max="58" width="9.7109375" style="1" customWidth="1"/>
-    <col min="59" max="59" width="9.140625" style="1"/>
-    <col min="60" max="60" width="9.5703125" style="1" customWidth="1"/>
-    <col min="61" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="18" width="9.1796875" style="2"/>
+    <col min="19" max="19" width="8.7265625" style="2" customWidth="1"/>
+    <col min="20" max="23" width="9.1796875" style="2"/>
+    <col min="24" max="24" width="9.7265625" style="2" customWidth="1"/>
+    <col min="25" max="26" width="9.1796875" style="2"/>
+    <col min="27" max="30" width="9.54296875" style="2" customWidth="1"/>
+    <col min="31" max="34" width="8.453125" style="2" customWidth="1"/>
+    <col min="35" max="43" width="9.1796875" style="1"/>
+    <col min="44" max="46" width="9.7265625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="10.7265625" style="1" customWidth="1"/>
+    <col min="48" max="58" width="9.7265625" style="1" customWidth="1"/>
+    <col min="59" max="59" width="9.1796875" style="1"/>
+    <col min="60" max="60" width="9.54296875" style="1" customWidth="1"/>
+    <col min="61" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="C2" s="27" t="s">
         <v>94</v>
@@ -1582,10 +1664,10 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -1610,10 +1692,10 @@
       <c r="AG3" s="31"/>
       <c r="AH3" s="31"/>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -1635,10 +1717,10 @@
       <c r="AG4" s="31"/>
       <c r="AH4" s="31"/>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -1661,10 +1743,10 @@
       <c r="AG5" s="31"/>
       <c r="AH5" s="31"/>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -1687,10 +1769,10 @@
       <c r="AG6" s="31"/>
       <c r="AH6" s="31"/>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -1714,10 +1796,10 @@
       <c r="AG7" s="31"/>
       <c r="AH7" s="31"/>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -1742,10 +1824,10 @@
       <c r="AG8" s="31"/>
       <c r="AH8" s="31"/>
     </row>
-    <row r="9" spans="1:58" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:58" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="38"/>
       <c r="B9" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" ref="C9:AB9" si="8">+C45</f>
@@ -1886,10 +1968,10 @@
         <v>77854.031137321028</v>
       </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
@@ -1913,10 +1995,10 @@
       <c r="AG10" s="31"/>
       <c r="AH10" s="31"/>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -1941,7 +2023,7 @@
       <c r="AG11" s="31"/>
       <c r="AH11" s="31"/>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="33"/>
       <c r="C12" s="27"/>
@@ -1961,10 +2043,10 @@
       <c r="AG12" s="31"/>
       <c r="AH12" s="31"/>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -1985,10 +2067,10 @@
       <c r="AG13" s="31"/>
       <c r="AH13" s="31"/>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -2017,10 +2099,10 @@
       <c r="AG14" s="31"/>
       <c r="AH14" s="31"/>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -2042,10 +2124,10 @@
       <c r="AG15" s="31"/>
       <c r="AH15" s="31"/>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -2074,10 +2156,10 @@
       <c r="AG16" s="31"/>
       <c r="AH16" s="31"/>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -2102,10 +2184,10 @@
       <c r="AG17" s="31"/>
       <c r="AH17" s="31"/>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -2134,10 +2216,10 @@
       <c r="AG18" s="31"/>
       <c r="AH18" s="31"/>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -2160,10 +2242,10 @@
       <c r="AG19" s="31"/>
       <c r="AH19" s="31"/>
     </row>
-    <row r="20" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:47" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="B20" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -2227,10 +2309,10 @@
         <v>1831207.5</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -2255,7 +2337,7 @@
       <c r="AG21" s="31"/>
       <c r="AH21" s="31"/>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="33"/>
       <c r="C22" s="27"/>
@@ -2275,10 +2357,10 @@
       <c r="AG22" s="31"/>
       <c r="AH22" s="31"/>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -2300,10 +2382,10 @@
       <c r="AG23" s="31"/>
       <c r="AH23" s="31"/>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -2325,10 +2407,10 @@
       <c r="AG24" s="31"/>
       <c r="AH24" s="31"/>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -2350,10 +2432,10 @@
       <c r="AG25" s="31"/>
       <c r="AH25" s="31"/>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -2375,10 +2457,10 @@
       <c r="AG26" s="31"/>
       <c r="AH26" s="31"/>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -2400,10 +2482,10 @@
       <c r="AG27" s="31"/>
       <c r="AH27" s="31"/>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
@@ -2425,10 +2507,10 @@
       <c r="AG28" s="31"/>
       <c r="AH28" s="31"/>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
@@ -2450,10 +2532,10 @@
       <c r="AG29" s="31"/>
       <c r="AH29" s="31"/>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
@@ -2475,10 +2557,10 @@
       <c r="AG30" s="31"/>
       <c r="AH30" s="31"/>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
@@ -2500,7 +2582,7 @@
       <c r="AG31" s="31"/>
       <c r="AH31" s="31"/>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="33"/>
       <c r="C32" s="27"/>
@@ -2520,7 +2602,7 @@
       <c r="AG32" s="31"/>
       <c r="AH32" s="31"/>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
@@ -2542,7 +2624,7 @@
         <v>14649.66</v>
       </c>
     </row>
-    <row r="34" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
         <v>84</v>
       </c>
@@ -2581,7 +2663,7 @@
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
     </row>
-    <row r="35" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>9</v>
       </c>
@@ -2691,7 +2773,7 @@
         <v>91352.7</v>
       </c>
     </row>
-    <row r="36" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>10</v>
       </c>
@@ -2801,7 +2883,7 @@
         <v>1739854.8</v>
       </c>
     </row>
-    <row r="37" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:58" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
         <v>11</v>
       </c>
@@ -2978,7 +3060,7 @@
         <v>6607621.7011808138</v>
       </c>
     </row>
-    <row r="38" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>12</v>
       </c>
@@ -3155,7 +3237,7 @@
         <v>58850.887664404734</v>
       </c>
     </row>
-    <row r="39" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -3189,7 +3271,7 @@
       <c r="AG39" s="5"/>
       <c r="AH39" s="5"/>
     </row>
-    <row r="40" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
@@ -3299,7 +3381,7 @@
         <v>89590</v>
       </c>
     </row>
-    <row r="41" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
@@ -3409,7 +3491,7 @@
         <v>1659420</v>
       </c>
     </row>
-    <row r="42" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:58" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
         <v>15</v>
       </c>
@@ -3586,7 +3668,7 @@
         <v>6607621.7011808138</v>
       </c>
     </row>
-    <row r="43" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -3621,9 +3703,9 @@
       <c r="AH43" s="5"/>
       <c r="AT43" s="26"/>
     </row>
-    <row r="44" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -3707,7 +3789,7 @@
         <v>20471.999179873066</v>
       </c>
     </row>
-    <row r="45" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>32</v>
       </c>
@@ -3866,7 +3948,7 @@
         <v>388864.40246507496</v>
       </c>
     </row>
-    <row r="46" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>33</v>
       </c>
@@ -3977,7 +4059,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="47" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>34</v>
       </c>
@@ -4088,7 +4170,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="48" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:58" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
         <v>35</v>
       </c>
@@ -4265,7 +4347,7 @@
         <v>388864.40246507496</v>
       </c>
     </row>
-    <row r="49" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>36</v>
       </c>
@@ -4385,7 +4467,7 @@
         <v>8463</v>
       </c>
     </row>
-    <row r="50" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
         <v>37</v>
       </c>
@@ -4505,7 +4587,7 @@
         <v>9852</v>
       </c>
     </row>
-    <row r="51" spans="2:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:58" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B51" s="6" t="s">
         <v>38</v>
       </c>
@@ -4703,7 +4785,7 @@
         <v>409336.40164494806</v>
       </c>
     </row>
-    <row r="52" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>39</v>
       </c>
@@ -4852,7 +4934,7 @@
         <v>307002.30123371107</v>
       </c>
     </row>
-    <row r="53" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>40</v>
       </c>
@@ -4977,7 +5059,7 @@
         <v>11823.954670598156</v>
       </c>
     </row>
-    <row r="54" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="29" t="s">
         <v>116</v>
       </c>
@@ -5018,7 +5100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
         <v>41</v>
       </c>
@@ -5116,7 +5198,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="56" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>42</v>
       </c>
@@ -5281,7 +5363,7 @@
         <v>102334.10041123698</v>
       </c>
     </row>
-    <row r="57" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
         <v>43</v>
       </c>
@@ -5379,7 +5461,7 @@
         <v>6451.2</v>
       </c>
     </row>
-    <row r="58" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>44</v>
       </c>
@@ -5477,7 +5559,7 @@
         <v>9358</v>
       </c>
     </row>
-    <row r="59" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
         <v>45</v>
       </c>
@@ -5642,7 +5724,7 @@
         <v>122806.09959111005</v>
       </c>
     </row>
-    <row r="60" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
         <v>46</v>
       </c>
@@ -5720,7 +5802,7 @@
         <v>1039</v>
       </c>
       <c r="AD60" s="5">
-        <f t="shared" ref="AC60:AD61" si="74">+Z60*1.1</f>
+        <f t="shared" ref="AD60:AD61" si="74">+Z60*1.1</f>
         <v>1203.4000000000001</v>
       </c>
       <c r="AE60" s="5"/>
@@ -5784,7 +5866,7 @@
         <v>6877.3570511819798</v>
       </c>
     </row>
-    <row r="61" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>47</v>
       </c>
@@ -5927,7 +6009,7 @@
         <v>8074.4365253725846</v>
       </c>
     </row>
-    <row r="62" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>48</v>
       </c>
@@ -6092,7 +6174,7 @@
         <v>14951.793576554564</v>
       </c>
     </row>
-    <row r="63" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>49</v>
       </c>
@@ -6257,7 +6339,7 @@
         <v>107854.30601455548</v>
       </c>
     </row>
-    <row r="64" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
         <v>50</v>
       </c>
@@ -6415,7 +6497,7 @@
         <v>72888.082231799533</v>
       </c>
     </row>
-    <row r="65" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
         <v>51</v>
       </c>
@@ -6576,7 +6658,7 @@
         <v>180742.388246355</v>
       </c>
     </row>
-    <row r="66" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
         <v>52</v>
       </c>
@@ -6734,7 +6816,7 @@
         <v>27111.358236953249</v>
       </c>
     </row>
-    <row r="67" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
         <v>53</v>
       </c>
@@ -7099,7 +7181,7 @@
         <v>92018.228203714229</v>
       </c>
     </row>
-    <row r="68" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:109" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>54</v>
       </c>
@@ -7260,7 +7342,7 @@
         <v>44.023505984497959</v>
       </c>
     </row>
-    <row r="69" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
         <v>1</v>
       </c>
@@ -7403,7 +7485,7 @@
         <v>3489.75</v>
       </c>
     </row>
-    <row r="71" spans="2:109" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:109" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B71" s="23" t="s">
         <v>89</v>
       </c>
@@ -7588,7 +7670,7 @@
         <v>8.1479285298789561E-2</v>
       </c>
     </row>
-    <row r="72" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:109" x14ac:dyDescent="0.25">
       <c r="B72" s="21" t="s">
         <v>92</v>
       </c>
@@ -7741,7 +7823,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="73" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:109" x14ac:dyDescent="0.25">
       <c r="B73" s="21" t="s">
         <v>93</v>
       </c>
@@ -7894,7 +7976,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="74" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:109" x14ac:dyDescent="0.25">
       <c r="B74" s="19" t="s">
         <v>91</v>
       </c>
@@ -7983,7 +8065,7 @@
       <c r="AG74" s="17"/>
       <c r="AH74" s="17"/>
     </row>
-    <row r="75" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:109" x14ac:dyDescent="0.25">
       <c r="B75" s="19" t="s">
         <v>90</v>
       </c>
@@ -8115,7 +8197,7 @@
       <c r="AW75" s="17"/>
       <c r="AX75" s="17"/>
     </row>
-    <row r="76" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:109" x14ac:dyDescent="0.25">
       <c r="B76" s="19" t="s">
         <v>45</v>
       </c>
@@ -8288,7 +8370,7 @@
         <v>0.30001265242378838</v>
       </c>
     </row>
-    <row r="77" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:109" x14ac:dyDescent="0.25">
       <c r="B77" s="15"/>
       <c r="R77" s="17"/>
       <c r="S77" s="17"/>
@@ -8308,7 +8390,7 @@
       <c r="AG77" s="17"/>
       <c r="AH77" s="17"/>
     </row>
-    <row r="78" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:109" x14ac:dyDescent="0.25">
       <c r="BG78" s="28" t="s">
         <v>110</v>
       </c>
@@ -8316,7 +8398,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="79" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
         <v>55</v>
       </c>
@@ -8413,7 +8495,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="80" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
         <v>56</v>
       </c>
@@ -8486,7 +8568,7 @@
         <v>1216195.9994596136</v>
       </c>
     </row>
-    <row r="81" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="s">
         <v>57</v>
       </c>
@@ -8558,7 +8640,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="82" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
         <v>58</v>
       </c>
@@ -8631,7 +8713,7 @@
         <v>380.69887106828378</v>
       </c>
     </row>
-    <row r="83" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
         <v>59</v>
       </c>
@@ -8675,7 +8757,7 @@
       <c r="AG83" s="5"/>
       <c r="AH83" s="5"/>
     </row>
-    <row r="84" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>80</v>
       </c>
@@ -8744,7 +8826,7 @@
       <c r="AG84" s="5"/>
       <c r="AH84" s="5"/>
     </row>
-    <row r="85" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="4" t="s">
         <v>60</v>
       </c>
@@ -8788,7 +8870,7 @@
       <c r="AG85" s="5"/>
       <c r="AH85" s="5"/>
     </row>
-    <row r="86" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="18" t="s">
         <v>69</v>
       </c>
@@ -8830,7 +8912,7 @@
       <c r="AG86" s="5"/>
       <c r="AH86" s="5"/>
     </row>
-    <row r="87" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="4" t="s">
         <v>61</v>
       </c>
@@ -8897,7 +8979,7 @@
       <c r="AG87" s="5"/>
       <c r="AH87" s="5"/>
     </row>
-    <row r="88" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="4" t="s">
         <v>62</v>
       </c>
@@ -8992,7 +9074,7 @@
         <v>13256</v>
       </c>
     </row>
-    <row r="89" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -9026,7 +9108,7 @@
       <c r="AG89" s="5"/>
       <c r="AH89" s="5"/>
     </row>
-    <row r="90" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
         <v>81</v>
       </c>
@@ -9109,7 +9191,7 @@
         <v>8898</v>
       </c>
     </row>
-    <row r="91" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
         <v>82</v>
       </c>
@@ -9206,7 +9288,7 @@
         <v>4358</v>
       </c>
     </row>
-    <row r="92" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:60" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>83</v>
       </c>
@@ -9282,7 +9364,7 @@
       <c r="AG92" s="5"/>
       <c r="AH92" s="5"/>
     </row>
-    <row r="93" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -9316,7 +9398,7 @@
       <c r="AG93" s="5"/>
       <c r="AH93" s="5"/>
     </row>
-    <row r="94" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="29" t="s">
         <v>115</v>
       </c>
@@ -9345,7 +9427,7 @@
         <v>19726</v>
       </c>
       <c r="X94" s="5">
-        <f t="shared" ref="X94:AB94" si="181">X95-X112</f>
+        <f t="shared" ref="X94:AC94" si="181">X95-X112</f>
         <v>25105</v>
       </c>
       <c r="Y94" s="5">
@@ -9364,7 +9446,10 @@
         <f t="shared" si="181"/>
         <v>22975</v>
       </c>
-      <c r="AC94" s="5"/>
+      <c r="AC94" s="5">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
       <c r="AD94" s="5"/>
       <c r="AE94" s="5"/>
       <c r="AF94" s="5"/>
@@ -9423,7 +9508,7 @@
         <v>882511.85232739709</v>
       </c>
     </row>
-    <row r="95" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
         <v>3</v>
       </c>
@@ -9486,7 +9571,7 @@
       <c r="AG95" s="5"/>
       <c r="AH95" s="5"/>
     </row>
-    <row r="96" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
         <v>63</v>
       </c>
@@ -9537,7 +9622,7 @@
       <c r="AG96" s="5"/>
       <c r="AH96" s="5"/>
     </row>
-    <row r="97" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>59</v>
       </c>
@@ -9588,7 +9673,7 @@
       <c r="AG97" s="5"/>
       <c r="AH97" s="5"/>
     </row>
-    <row r="98" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
         <v>64</v>
       </c>
@@ -9639,7 +9724,7 @@
       <c r="AG98" s="5"/>
       <c r="AH98" s="5"/>
     </row>
-    <row r="99" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
         <v>65</v>
       </c>
@@ -9690,7 +9775,7 @@
       <c r="AG99" s="5"/>
       <c r="AH99" s="5"/>
     </row>
-    <row r="100" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
         <v>66</v>
       </c>
@@ -9741,7 +9826,7 @@
       <c r="AG100" s="5"/>
       <c r="AH100" s="5"/>
     </row>
-    <row r="101" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
         <v>67</v>
       </c>
@@ -9792,7 +9877,7 @@
       <c r="AG101" s="5"/>
       <c r="AH101" s="5"/>
     </row>
-    <row r="102" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
         <v>68</v>
       </c>
@@ -9843,7 +9928,7 @@
       <c r="AG102" s="5"/>
       <c r="AH102" s="5"/>
     </row>
-    <row r="103" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
         <v>69</v>
       </c>
@@ -9894,7 +9979,7 @@
       <c r="AG103" s="5"/>
       <c r="AH103" s="5"/>
     </row>
-    <row r="104" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
         <v>70</v>
       </c>
@@ -9949,7 +10034,7 @@
       <c r="AG104" s="5"/>
       <c r="AH104" s="5"/>
     </row>
-    <row r="105" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
         <v>71</v>
       </c>
@@ -10003,7 +10088,7 @@
       <c r="AG105" s="5"/>
       <c r="AH105" s="5"/>
     </row>
-    <row r="106" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
         <v>72</v>
       </c>
@@ -10070,14 +10155,14 @@
       <c r="AG106" s="5"/>
       <c r="AH106" s="5"/>
     </row>
-    <row r="107" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:34" x14ac:dyDescent="0.25">
       <c r="S107" s="5"/>
       <c r="T107" s="5"/>
       <c r="U107" s="5"/>
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B108" s="9" t="s">
         <v>73</v>
       </c>
@@ -10103,7 +10188,7 @@
         <v>13056</v>
       </c>
     </row>
-    <row r="109" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B109" s="9" t="s">
         <v>74</v>
       </c>
@@ -10129,7 +10214,7 @@
         <v>9616</v>
       </c>
     </row>
-    <row r="110" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B110" s="9" t="s">
         <v>75</v>
       </c>
@@ -10162,7 +10247,7 @@
         <v>6150</v>
       </c>
     </row>
-    <row r="111" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B111" s="9" t="s">
         <v>76</v>
       </c>
@@ -10188,7 +10273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B112" s="9" t="s">
         <v>4</v>
       </c>
@@ -10229,7 +10314,7 @@
       <c r="AG112" s="5"/>
       <c r="AH112" s="5"/>
     </row>
-    <row r="113" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B113" s="9" t="s">
         <v>77</v>
       </c>
@@ -10255,7 +10340,7 @@
         <v>9002</v>
       </c>
     </row>
-    <row r="114" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B114" s="9" t="s">
         <v>78</v>
       </c>
@@ -10288,7 +10373,7 @@
         <v>67191</v>
       </c>
     </row>
-    <row r="115" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B115" s="9" t="s">
         <v>79</v>
       </c>
@@ -10325,12 +10410,12 @@
         <v>112760</v>
       </c>
     </row>
-    <row r="116" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:58" x14ac:dyDescent="0.25">
       <c r="S116" s="5"/>
     </row>
-    <row r="117" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B117" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S117" s="5"/>
       <c r="Z117" s="5">
@@ -10347,9 +10432,9 @@
         <v>3536</v>
       </c>
     </row>
-    <row r="118" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B118" s="33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="S118" s="5"/>
       <c r="Z118" s="5"/>
@@ -10410,9 +10495,9 @@
         <v>21672.999179873066</v>
       </c>
     </row>
-    <row r="119" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B119" s="33" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S119" s="5"/>
       <c r="Z119" s="5"/>
@@ -10425,7 +10510,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="120" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B120" s="33"/>
       <c r="S120" s="5"/>
       <c r="Z120" s="5"/>
@@ -10434,9 +10519,9 @@
       <c r="AS120" s="4"/>
       <c r="AT120" s="4"/>
     </row>
-    <row r="121" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:58" ht="13" x14ac:dyDescent="0.3">
       <c r="B121" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S121" s="5"/>
       <c r="Z121" s="5"/>
@@ -10496,9 +10581,9 @@
         <v>2709.1248974841333</v>
       </c>
     </row>
-    <row r="122" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B122" s="33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S122" s="5"/>
       <c r="AT122" s="26">
@@ -10506,9 +10591,9 @@
         <v>0.21386886371438374</v>
       </c>
     </row>
-    <row r="123" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B123" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="S123" s="5"/>
       <c r="AT123" s="26">
@@ -10571,20 +10656,20 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="28"/>
-    <col min="3" max="3" width="11.7109375" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="28"/>
+    <col min="2" max="2" width="9.1796875" style="28"/>
+    <col min="3" max="3" width="11.7265625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
         <v>98</v>
       </c>
@@ -10595,7 +10680,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="28" t="s">
         <v>100</v>
       </c>
@@ -10603,7 +10688,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="28" t="s">
         <v>101</v>
       </c>
@@ -10617,7 +10702,7 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="28" t="s">
         <v>102</v>
       </c>
@@ -10631,7 +10716,7 @@
         <v>375000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="28" t="s">
         <v>104</v>
       </c>
@@ -10642,7 +10727,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="28" t="s">
         <v>105</v>
       </c>
@@ -10653,7 +10738,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="28" t="s">
         <v>106</v>
       </c>
@@ -10664,7 +10749,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="28" t="s">
         <v>108</v>
       </c>
@@ -10672,7 +10757,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="28" t="s">
         <v>109</v>
       </c>
@@ -10680,14 +10765,14 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="33" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -10706,13 +10791,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="33"/>
+    <col min="2" max="16384" width="9.1796875" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>8</v>
       </c>

--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B899A1-6EB5-489F-9FD2-AACD175A4F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FFAF81-66F8-4F94-8A92-DA40483BFF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="3360" windowWidth="22990" windowHeight="13690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57510" yWindow="3210" windowWidth="17210" windowHeight="12590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -869,16 +869,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>35161</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>8885</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>39414</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>39414</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>13138</xdr:colOff>
       <xdr:row>139</xdr:row>
-      <xdr:rowOff>45983</xdr:rowOff>
+      <xdr:rowOff>6569</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -895,8 +895,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18625333" y="39414"/>
-          <a:ext cx="4253" cy="22833724"/>
+          <a:off x="20136195" y="0"/>
+          <a:ext cx="4253" cy="21999466"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1285,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="11">
-        <v>362</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="K4" s="10">
         <f>K2*K3</f>
-        <v>1156459.83023</v>
+        <v>827411.86748499994</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="K7" s="10">
         <f>K4-K5+K6</f>
-        <v>1133484.83023</v>
+        <v>804436.86748499994</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -1449,11 +1449,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E310252-7C49-48D8-9A64-7380C8DB275B}">
   <dimension ref="A1:DE123"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="W92" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Z44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC94" sqref="AC94"/>
+      <selection pane="bottomRight" activeCell="AD50" sqref="AD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="AU9" s="6">
         <f t="shared" si="9"/>
-        <v>77854.031137321028</v>
+        <v>75977.108281201305</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="AU20" s="6">
         <f>+AU37</f>
-        <v>1831207.5</v>
+        <v>1789226</v>
       </c>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.25">
@@ -2621,7 +2621,7 @@
       <c r="AH33" s="31"/>
       <c r="AU33" s="1">
         <f>+AU37*8/1000</f>
-        <v>14649.66</v>
+        <v>14313.808000000001</v>
       </c>
     </row>
     <row r="34" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2741,10 +2741,11 @@
         <v>22915</v>
       </c>
       <c r="AD35" s="5">
-        <f>+Z35*1.3</f>
-        <v>29859.7</v>
-      </c>
-      <c r="AE35" s="5"/>
+        <v>23640</v>
+      </c>
+      <c r="AE35" s="5">
+        <v>12881</v>
+      </c>
       <c r="AF35" s="5"/>
       <c r="AG35" s="5"/>
       <c r="AH35" s="5"/>
@@ -2770,7 +2771,7 @@
       </c>
       <c r="AU35" s="4">
         <f>SUM(AA35:AD35)</f>
-        <v>91352.7</v>
+        <v>85133</v>
       </c>
     </row>
     <row r="36" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2851,10 +2852,11 @@
         <v>439975</v>
       </c>
       <c r="AD36" s="5">
-        <f>+Z36*1.1</f>
-        <v>507691.80000000005</v>
-      </c>
-      <c r="AE36" s="5"/>
+        <v>471930</v>
+      </c>
+      <c r="AE36" s="5">
+        <v>323800</v>
+      </c>
       <c r="AF36" s="5"/>
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
@@ -2880,7 +2882,7 @@
       </c>
       <c r="AU36" s="4">
         <f>SUM(AA36:AD36)</f>
-        <v>1739854.8</v>
+        <v>1704093</v>
       </c>
     </row>
     <row r="37" spans="1:58" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -2985,79 +2987,82 @@
       </c>
       <c r="AD37" s="7">
         <f t="shared" si="12"/>
-        <v>537551.5</v>
-      </c>
-      <c r="AE37" s="7"/>
+        <v>495570</v>
+      </c>
+      <c r="AE37" s="7">
+        <f t="shared" ref="AE37" si="13">AE36+AE35</f>
+        <v>336681</v>
+      </c>
       <c r="AF37" s="7"/>
       <c r="AG37" s="7"/>
       <c r="AH37" s="7"/>
       <c r="AP37" s="6">
-        <f t="shared" ref="AP37:AT37" si="13">+AP35+AP36</f>
+        <f t="shared" ref="AP37:AT37" si="14">+AP35+AP36</f>
         <v>367656</v>
       </c>
       <c r="AQ37" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>499016</v>
       </c>
       <c r="AR37" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>935950</v>
       </c>
       <c r="AS37" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1313851</v>
       </c>
       <c r="AT37" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1808581</v>
       </c>
       <c r="AU37" s="6">
         <f>+AU35+AU36</f>
-        <v>1831207.5</v>
+        <v>1789226</v>
       </c>
       <c r="AV37" s="6">
-        <f t="shared" ref="AV37:AY37" si="14">AV42</f>
-        <v>2273713</v>
+        <f t="shared" ref="AV37:AY37" si="15">AV42</f>
+        <v>2305475.9</v>
       </c>
       <c r="AW37" s="6">
-        <f t="shared" si="14"/>
-        <v>2842141.25</v>
+        <f t="shared" si="15"/>
+        <v>2881844.875</v>
       </c>
       <c r="AX37" s="6">
-        <f t="shared" si="14"/>
-        <v>3410569.5</v>
+        <f t="shared" si="15"/>
+        <v>3458213.85</v>
       </c>
       <c r="AY37" s="6">
-        <f t="shared" si="14"/>
-        <v>4092683.4</v>
+        <f t="shared" si="15"/>
+        <v>4149856.62</v>
       </c>
       <c r="AZ37" s="6">
-        <f t="shared" ref="AZ37:BA37" si="15">AZ42</f>
-        <v>4706585.9099999992</v>
+        <f t="shared" ref="AZ37:BA37" si="16">AZ42</f>
+        <v>4772335.1129999999</v>
       </c>
       <c r="BA37" s="6">
-        <f t="shared" si="15"/>
-        <v>5177244.5009999992</v>
+        <f t="shared" si="16"/>
+        <v>5249568.6243000003</v>
       </c>
       <c r="BB37" s="6">
-        <f t="shared" ref="BB37:BF37" si="16">BB42</f>
-        <v>5436106.7260499997</v>
+        <f t="shared" ref="BB37:BF37" si="17">BB42</f>
+        <v>5512047.0555150006</v>
       </c>
       <c r="BC37" s="6">
-        <f t="shared" si="16"/>
-        <v>5707912.0623524999</v>
+        <f t="shared" si="17"/>
+        <v>5787649.4082907513</v>
       </c>
       <c r="BD37" s="6">
-        <f t="shared" si="16"/>
-        <v>5993307.6654701252</v>
+        <f t="shared" si="17"/>
+        <v>6077031.8787052892</v>
       </c>
       <c r="BE37" s="6">
-        <f t="shared" si="16"/>
-        <v>6292973.0487436317</v>
+        <f t="shared" si="17"/>
+        <v>6380883.4726405535</v>
       </c>
       <c r="BF37" s="6">
-        <f t="shared" si="16"/>
-        <v>6607621.7011808138</v>
+        <f t="shared" si="17"/>
+        <v>6699927.6462725811</v>
       </c>
     </row>
     <row r="38" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3069,91 +3074,91 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5">
-        <f t="shared" ref="G38:AB38" si="17">G45*1000000/G37</f>
+        <f t="shared" ref="G38:AB38" si="18">G45*1000000/G37</f>
         <v>55681.619828940478</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>54196.904232560089</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>52805.95970613051</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>54801.730674873994</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>55290.634604953899</v>
       </c>
       <c r="L38" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>54175.399889685606</v>
       </c>
       <c r="M38" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>52735.10409188801</v>
       </c>
       <c r="N38" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>47809.713684443705</v>
       </c>
       <c r="O38" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>44301.948051948049</v>
       </c>
       <c r="P38" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>47304.34782608696</v>
       </c>
       <c r="Q38" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>47215.084956485705</v>
       </c>
       <c r="R38" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>48687.621516526247</v>
       </c>
       <c r="S38" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>50037.413561771078</v>
       </c>
       <c r="T38" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>53672.039105596894</v>
       </c>
       <c r="U38" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>51726.143733821948</v>
       </c>
       <c r="V38" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>51902.644604444358</v>
       </c>
       <c r="W38" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>44642.033697901272</v>
       </c>
       <c r="X38" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>43804.436435405674</v>
       </c>
       <c r="Y38" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>42711.448332295156</v>
       </c>
       <c r="Z38" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>42579.364178432923</v>
       </c>
       <c r="AA38" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>42553.191489361699</v>
       </c>
       <c r="AB38" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>41738.370469145593</v>
       </c>
       <c r="AC38" s="5">
@@ -3164,77 +3169,80 @@
         <f>+Z38*1.05</f>
         <v>44708.332387354574</v>
       </c>
-      <c r="AE38" s="5"/>
+      <c r="AE38" s="5">
+        <f>+AA38*1.05</f>
+        <v>44680.851063829788</v>
+      </c>
       <c r="AF38" s="5"/>
       <c r="AG38" s="5"/>
       <c r="AH38" s="5"/>
       <c r="AP38" s="5">
-        <f t="shared" ref="AP38:AU38" si="18">AP45/AP37*1000000</f>
+        <f t="shared" ref="AP38:AU38" si="19">AP45/AP37*1000000</f>
         <v>54268.120199316756</v>
       </c>
       <c r="AQ38" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>51667.681998172404</v>
       </c>
       <c r="AR38" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>47144.612425877451</v>
       </c>
       <c r="AS38" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>51759.293862089384</v>
       </c>
       <c r="AT38" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>43409.169951470241</v>
       </c>
       <c r="AU38" s="5">
-        <f t="shared" si="18"/>
-        <v>42515.133395489604</v>
+        <f t="shared" si="19"/>
+        <v>42463.673276154776</v>
       </c>
       <c r="AV38" s="4">
         <f>AU38*1.03</f>
-        <v>43790.587397354291</v>
+        <v>43737.583474439423</v>
       </c>
       <c r="AW38" s="4">
         <f>AV38*1.03</f>
-        <v>45104.305019274922</v>
+        <v>45049.710978672607</v>
       </c>
       <c r="AX38" s="4">
         <f>AW38*1.03</f>
-        <v>46457.434169853172</v>
+        <v>46401.202308032785</v>
       </c>
       <c r="AY38" s="4">
         <f>AX38*1.03</f>
-        <v>47851.15719494877</v>
+        <v>47793.238377273767</v>
       </c>
       <c r="AZ38" s="4">
-        <f t="shared" ref="AZ38:BA38" si="19">AY38*1.03</f>
-        <v>49286.691910797235</v>
+        <f t="shared" ref="AZ38:BA38" si="20">AY38*1.03</f>
+        <v>49227.03552859198</v>
       </c>
       <c r="BA38" s="4">
-        <f t="shared" si="19"/>
-        <v>50765.292668121154</v>
+        <f t="shared" si="20"/>
+        <v>50703.846594449744</v>
       </c>
       <c r="BB38" s="4">
-        <f t="shared" ref="BB38" si="20">BA38*1.03</f>
-        <v>52288.251448164789</v>
+        <f t="shared" ref="BB38" si="21">BA38*1.03</f>
+        <v>52224.961992283235</v>
       </c>
       <c r="BC38" s="4">
-        <f t="shared" ref="BC38" si="21">BB38*1.03</f>
-        <v>53856.898991609734</v>
+        <f t="shared" ref="BC38" si="22">BB38*1.03</f>
+        <v>53791.710852051736</v>
       </c>
       <c r="BD38" s="4">
-        <f t="shared" ref="BD38" si="22">BC38*1.03</f>
-        <v>55472.605961358029</v>
+        <f t="shared" ref="BD38" si="23">BC38*1.03</f>
+        <v>55405.462177613292</v>
       </c>
       <c r="BE38" s="4">
-        <f t="shared" ref="BE38" si="23">BD38*1.03</f>
-        <v>57136.784140198768</v>
+        <f t="shared" ref="BE38" si="24">BD38*1.03</f>
+        <v>57067.626042941694</v>
       </c>
       <c r="BF38" s="4">
-        <f t="shared" ref="BF38" si="24">BE38*1.03</f>
-        <v>58850.887664404734</v>
+        <f t="shared" ref="BF38" si="25">BE38*1.03</f>
+        <v>58779.654824229947</v>
       </c>
     </row>
     <row r="39" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3349,10 +3357,11 @@
         <v>26128</v>
       </c>
       <c r="AD40" s="5">
-        <f>+Z40</f>
-        <v>18212</v>
-      </c>
-      <c r="AE40" s="5"/>
+        <v>22727</v>
+      </c>
+      <c r="AE40" s="5">
+        <v>17161</v>
+      </c>
       <c r="AF40" s="5"/>
       <c r="AG40" s="5"/>
       <c r="AH40" s="5"/>
@@ -3373,12 +3382,12 @@
         <v>71177</v>
       </c>
       <c r="AT40" s="4">
-        <f t="shared" ref="AT40:AT41" si="25">SUM(W40:Z40)</f>
+        <f t="shared" ref="AT40:AT41" si="26">SUM(W40:Z40)</f>
         <v>70826</v>
       </c>
       <c r="AU40" s="4">
-        <f t="shared" ref="AU40:AU41" si="26">SUM(AA40:AD40)</f>
-        <v>89590</v>
+        <f t="shared" ref="AU40:AU41" si="27">SUM(AA40:AD40)</f>
+        <v>94105</v>
       </c>
     </row>
     <row r="41" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3459,10 +3468,11 @@
         <v>443668</v>
       </c>
       <c r="AD41" s="5">
-        <f>+Y41</f>
-        <v>416800</v>
-      </c>
-      <c r="AE41" s="5"/>
+        <v>436718</v>
+      </c>
+      <c r="AE41" s="5">
+        <v>345454</v>
+      </c>
       <c r="AF41" s="5"/>
       <c r="AG41" s="5"/>
       <c r="AH41" s="5"/>
@@ -3483,12 +3493,12 @@
         <v>1298434</v>
       </c>
       <c r="AT41" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1775159</v>
       </c>
       <c r="AU41" s="4">
-        <f t="shared" si="26"/>
-        <v>1659420</v>
+        <f t="shared" si="27"/>
+        <v>1679338</v>
       </c>
     </row>
     <row r="42" spans="1:58" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -3500,51 +3510,51 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7">
-        <f t="shared" ref="G42:R42" si="27">G41+G40</f>
+        <f t="shared" ref="G42:R42" si="28">G41+G40</f>
         <v>77138</v>
       </c>
       <c r="H42" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>87048</v>
       </c>
       <c r="I42" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>96155</v>
       </c>
       <c r="J42" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>104891</v>
       </c>
       <c r="K42" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>102672</v>
       </c>
       <c r="L42" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>82272</v>
       </c>
       <c r="M42" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>145036</v>
       </c>
       <c r="N42" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>179757</v>
       </c>
       <c r="O42" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>180338</v>
       </c>
       <c r="P42" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>206421</v>
       </c>
       <c r="Q42" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>237823</v>
       </c>
       <c r="R42" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>305840</v>
       </c>
       <c r="S42" s="7">
@@ -3556,35 +3566,35 @@
         <v>258580</v>
       </c>
       <c r="U42" s="7">
-        <f t="shared" ref="U42:AB42" si="28">+U40+U41</f>
+        <f t="shared" ref="U42:AB42" si="29">+U40+U41</f>
         <v>365923</v>
       </c>
       <c r="V42" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>439701</v>
       </c>
       <c r="W42" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>440808</v>
       </c>
       <c r="X42" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>479700</v>
       </c>
       <c r="Y42" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>430488</v>
       </c>
       <c r="Z42" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>494989</v>
       </c>
       <c r="AA42" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>433371</v>
       </c>
       <c r="AB42" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>410831</v>
       </c>
       <c r="AC42" s="7">
@@ -3592,10 +3602,13 @@
         <v>469796</v>
       </c>
       <c r="AD42" s="7">
-        <f>+Z42</f>
-        <v>494989</v>
-      </c>
-      <c r="AE42" s="7"/>
+        <f>+AD41+AD40</f>
+        <v>459445</v>
+      </c>
+      <c r="AE42" s="7">
+        <f>+AE41+AE40</f>
+        <v>362615</v>
+      </c>
       <c r="AF42" s="7"/>
       <c r="AG42" s="7"/>
       <c r="AH42" s="7"/>
@@ -3621,51 +3634,51 @@
       </c>
       <c r="AU42" s="6">
         <f>+AU40+AU41</f>
-        <v>1749010</v>
+        <v>1773443</v>
       </c>
       <c r="AV42" s="6">
         <f>AU42*1.3</f>
-        <v>2273713</v>
+        <v>2305475.9</v>
       </c>
       <c r="AW42" s="6">
         <f>AV42*1.25</f>
-        <v>2842141.25</v>
+        <v>2881844.875</v>
       </c>
       <c r="AX42" s="6">
         <f>AW42*1.2</f>
-        <v>3410569.5</v>
+        <v>3458213.85</v>
       </c>
       <c r="AY42" s="6">
         <f>AX42*1.2</f>
-        <v>4092683.4</v>
+        <v>4149856.62</v>
       </c>
       <c r="AZ42" s="6">
         <f>AY42*1.15</f>
-        <v>4706585.9099999992</v>
+        <v>4772335.1129999999</v>
       </c>
       <c r="BA42" s="6">
         <f>AZ42*1.1</f>
-        <v>5177244.5009999992</v>
+        <v>5249568.6243000003</v>
       </c>
       <c r="BB42" s="6">
         <f>+BA42*1.05</f>
-        <v>5436106.7260499997</v>
+        <v>5512047.0555150006</v>
       </c>
       <c r="BC42" s="6">
-        <f t="shared" ref="BC42:BF42" si="29">+BB42*1.05</f>
-        <v>5707912.0623524999</v>
+        <f t="shared" ref="BC42:BF42" si="30">+BB42*1.05</f>
+        <v>5787649.4082907513</v>
       </c>
       <c r="BD42" s="6">
-        <f t="shared" si="29"/>
-        <v>5993307.6654701252</v>
+        <f t="shared" si="30"/>
+        <v>6077031.8787052892</v>
       </c>
       <c r="BE42" s="6">
-        <f t="shared" si="29"/>
-        <v>6292973.0487436317</v>
+        <f t="shared" si="30"/>
+        <v>6380883.4726405535</v>
       </c>
       <c r="BF42" s="6">
-        <f t="shared" si="29"/>
-        <v>6607621.7011808138</v>
+        <f t="shared" si="30"/>
+        <v>6699927.6462725811</v>
       </c>
     </row>
     <row r="43" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3742,51 +3755,51 @@
       <c r="AT44" s="26"/>
       <c r="AU44" s="4">
         <f>+AU118-AT118</f>
-        <v>556.95920000000001</v>
+        <v>516.65696000000003</v>
       </c>
       <c r="AV44" s="4">
         <f>+AV118-$AT$118</f>
-        <v>1709.3526400000001</v>
+        <v>1750.0091519999996</v>
       </c>
       <c r="AW44" s="4">
-        <f t="shared" ref="AW44:BF44" si="30">+AW118-$AT$118</f>
-        <v>3346.4260000000004</v>
+        <f t="shared" ref="AW44:BF44" si="31">+AW118-$AT$118</f>
+        <v>3409.9517999999998</v>
       </c>
       <c r="AX44" s="4">
-        <f t="shared" si="30"/>
-        <v>5347.2934399999995</v>
+        <f t="shared" si="31"/>
+        <v>5438.7705919999999</v>
       </c>
       <c r="AY44" s="4">
-        <f t="shared" si="30"/>
-        <v>7966.6108160000022</v>
+        <f t="shared" si="31"/>
+        <v>8094.6788288000007</v>
       </c>
       <c r="AZ44" s="4">
-        <f t="shared" si="30"/>
-        <v>10847.859929599999</v>
+        <f t="shared" si="31"/>
+        <v>11016.177889280001</v>
       </c>
       <c r="BA44" s="4">
-        <f t="shared" si="30"/>
-        <v>13709.464162879998</v>
+        <f t="shared" si="31"/>
+        <v>13917.757637983999</v>
       </c>
       <c r="BB44" s="4">
-        <f t="shared" si="30"/>
-        <v>14889.875909107997</v>
+        <f t="shared" si="31"/>
+        <v>15114.659284324402</v>
       </c>
       <c r="BC44" s="4">
-        <f t="shared" si="30"/>
-        <v>16151.052669551598</v>
+        <f t="shared" si="31"/>
+        <v>16393.454201203884</v>
       </c>
       <c r="BD44" s="4">
-        <f t="shared" si="30"/>
-        <v>17498.119916266791</v>
+        <f t="shared" si="31"/>
+        <v>17759.339461560503</v>
       </c>
       <c r="BE44" s="4">
-        <f t="shared" si="30"/>
-        <v>18936.513755979624</v>
+        <f t="shared" si="31"/>
+        <v>19217.827112449773</v>
       </c>
       <c r="BF44" s="4">
-        <f t="shared" si="30"/>
-        <v>20471.999179873066</v>
+        <f t="shared" si="31"/>
+        <v>20774.762679774063</v>
       </c>
     </row>
     <row r="45" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3873,14 +3886,14 @@
       </c>
       <c r="AD45" s="5">
         <f>+AD38*AD37/1000000</f>
-        <v>24033.031137321035</v>
+        <v>22156.108281201305</v>
       </c>
       <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
       <c r="AG45" s="5"/>
       <c r="AH45" s="5"/>
       <c r="AP45" s="4">
-        <f t="shared" ref="AP45:AP50" si="31">SUM(G45:J45)</f>
+        <f t="shared" ref="AP45:AP50" si="32">SUM(G45:J45)</f>
         <v>19952</v>
       </c>
       <c r="AQ45" s="4">
@@ -3901,51 +3914,51 @@
       </c>
       <c r="AU45" s="4">
         <f>SUM(AA45:AD45)</f>
-        <v>77854.031137321028</v>
+        <v>75977.108281201305</v>
       </c>
       <c r="AV45" s="4">
-        <f t="shared" ref="AV45:BA45" si="32">AV38*AV42/1000000</f>
-        <v>99567.227843000612</v>
+        <f t="shared" ref="AV45:BA45" si="33">AV38*AV42/1000000</f>
+        <v>100835.94462455835</v>
       </c>
       <c r="AW45" s="4">
-        <f t="shared" si="32"/>
-        <v>128192.8058478633</v>
+        <f t="shared" si="33"/>
+        <v>129826.27870411889</v>
       </c>
       <c r="AX45" s="4">
-        <f t="shared" si="32"/>
-        <v>158446.30802795905</v>
+        <f t="shared" si="33"/>
+        <v>160465.28047829095</v>
       </c>
       <c r="AY45" s="4">
-        <f t="shared" si="32"/>
-        <v>195839.63672255739</v>
+        <f t="shared" si="33"/>
+        <v>198335.08667116761</v>
       </c>
       <c r="AZ45" s="4">
-        <f t="shared" si="32"/>
-        <v>231972.0496978692</v>
+        <f t="shared" si="33"/>
+        <v>234927.91016199801</v>
       </c>
       <c r="BA45" s="4">
-        <f t="shared" si="32"/>
-        <v>262824.33230768581</v>
+        <f t="shared" si="33"/>
+        <v>266173.32221354381</v>
       </c>
       <c r="BB45" s="4">
-        <f t="shared" ref="BB45:BF45" si="33">BB38*BB42/1000000</f>
-        <v>284244.51539076224</v>
+        <f t="shared" ref="BB45:BF45" si="34">BB38*BB42/1000000</f>
+        <v>287866.44797394762</v>
       </c>
       <c r="BC45" s="4">
-        <f t="shared" si="33"/>
-        <v>307410.44339510938</v>
+        <f t="shared" si="34"/>
+        <v>311327.56348382443</v>
       </c>
       <c r="BD45" s="4">
-        <f t="shared" si="33"/>
-        <v>332464.39453181083</v>
+        <f t="shared" si="34"/>
+        <v>336700.75990775618</v>
       </c>
       <c r="BE45" s="4">
-        <f t="shared" si="33"/>
-        <v>359560.24268615345</v>
+        <f t="shared" si="34"/>
+        <v>364141.87184023828</v>
       </c>
       <c r="BF45" s="4">
-        <f t="shared" si="33"/>
-        <v>388864.40246507496</v>
+        <f t="shared" si="34"/>
+        <v>393819.43439521769</v>
       </c>
     </row>
     <row r="46" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4002,7 +4015,7 @@
         <v>286</v>
       </c>
       <c r="V46" s="5">
-        <f t="shared" ref="V46:V47" si="34">+R46*1.4</f>
+        <f t="shared" ref="V46:V47" si="35">+R46*1.4</f>
         <v>439.59999999999997</v>
       </c>
       <c r="W46" s="5">
@@ -4027,7 +4040,7 @@
         <v>739</v>
       </c>
       <c r="AD46" s="5">
-        <f t="shared" ref="AD46:AD47" si="35">+Z46</f>
+        <f t="shared" ref="AD46:AD47" si="36">+Z46</f>
         <v>433</v>
       </c>
       <c r="AE46" s="5"/>
@@ -4035,7 +4048,7 @@
       <c r="AG46" s="5"/>
       <c r="AH46" s="5"/>
       <c r="AP46" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AQ46" s="4">
@@ -4043,11 +4056,11 @@
         <v>401</v>
       </c>
       <c r="AR46" s="4">
-        <f t="shared" ref="AR46:AR52" si="36">SUM(O46:R46)</f>
+        <f t="shared" ref="AR46:AR52" si="37">SUM(O46:R46)</f>
         <v>1465</v>
       </c>
       <c r="AS46" s="4">
-        <f t="shared" ref="AR46:AS61" si="37">SUM(S46:V46)</f>
+        <f t="shared" ref="AR46:AS61" si="38">SUM(S46:V46)</f>
         <v>1748.6</v>
       </c>
       <c r="AT46" s="4">
@@ -4113,7 +4126,7 @@
         <v>621</v>
       </c>
       <c r="V47" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>879.19999999999993</v>
       </c>
       <c r="W47" s="5">
@@ -4138,7 +4151,7 @@
         <v>446</v>
       </c>
       <c r="AD47" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>500</v>
       </c>
       <c r="AE47" s="5"/>
@@ -4146,7 +4159,7 @@
       <c r="AG47" s="5"/>
       <c r="AH47" s="5"/>
       <c r="AP47" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>869</v>
       </c>
       <c r="AQ47" s="4">
@@ -4154,11 +4167,11 @@
         <v>1052</v>
       </c>
       <c r="AR47" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1642</v>
       </c>
       <c r="AS47" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>2756.2</v>
       </c>
       <c r="AT47" s="4">
@@ -4179,51 +4192,51 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7">
-        <f t="shared" ref="G48:K48" si="38">SUM(G45:G47)</f>
+        <f t="shared" ref="G48:K48" si="39">SUM(G45:G47)</f>
         <v>3724</v>
       </c>
       <c r="H48" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>5376</v>
       </c>
       <c r="I48" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>5353</v>
       </c>
       <c r="J48" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>6368</v>
       </c>
       <c r="K48" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>5132</v>
       </c>
       <c r="L48" s="7">
-        <f t="shared" ref="L48" si="39">SUM(L45:L47)</f>
+        <f t="shared" ref="L48" si="40">SUM(L45:L47)</f>
         <v>5179</v>
       </c>
       <c r="M48" s="7">
-        <f t="shared" ref="M48:R48" si="40">SUM(M45:M47)</f>
+        <f t="shared" ref="M48:R48" si="41">SUM(M45:M47)</f>
         <v>7611</v>
       </c>
       <c r="N48" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>9314</v>
       </c>
       <c r="O48" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>9002</v>
       </c>
       <c r="P48" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>10206</v>
       </c>
       <c r="Q48" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>12057</v>
       </c>
       <c r="R48" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>15967</v>
       </c>
       <c r="S48" s="7">
@@ -4239,31 +4252,31 @@
         <v>18692</v>
       </c>
       <c r="V48" s="7">
-        <f t="shared" ref="V48:AD48" si="41">SUM(V45:V47)</f>
+        <f t="shared" ref="V48:AD48" si="42">SUM(V45:V47)</f>
         <v>22353.8</v>
       </c>
       <c r="W48" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>19963</v>
       </c>
       <c r="X48" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>21268</v>
       </c>
       <c r="Y48" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>19625</v>
       </c>
       <c r="Z48" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>21563</v>
       </c>
       <c r="AA48" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>17378</v>
       </c>
       <c r="AB48" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>19878</v>
       </c>
       <c r="AC48" s="7">
@@ -4271,8 +4284,8 @@
         <v>20016</v>
       </c>
       <c r="AD48" s="7">
-        <f t="shared" si="41"/>
-        <v>24966.031137321035</v>
+        <f t="shared" si="42"/>
+        <v>23089.108281201305</v>
       </c>
       <c r="AE48" s="7"/>
       <c r="AF48" s="7"/>
@@ -4300,51 +4313,51 @@
       </c>
       <c r="AU48" s="6">
         <f>AU45+AU46+AU47</f>
-        <v>82238.031137321028</v>
+        <v>80361.108281201305</v>
       </c>
       <c r="AV48" s="6">
         <f>AV45+AV46+AV47</f>
-        <v>99567.227843000612</v>
+        <v>100835.94462455835</v>
       </c>
       <c r="AW48" s="6">
         <f>AW45+AW46+AW47</f>
-        <v>128192.8058478633</v>
+        <v>129826.27870411889</v>
       </c>
       <c r="AX48" s="6">
         <f>AX45+AX46+AX47</f>
-        <v>158446.30802795905</v>
+        <v>160465.28047829095</v>
       </c>
       <c r="AY48" s="6">
         <f>AY45+AY46+AY47</f>
-        <v>195839.63672255739</v>
+        <v>198335.08667116761</v>
       </c>
       <c r="AZ48" s="6">
-        <f t="shared" ref="AZ48:BF48" si="42">AZ45+AZ46+AZ47</f>
-        <v>231972.0496978692</v>
+        <f t="shared" ref="AZ48:BF48" si="43">AZ45+AZ46+AZ47</f>
+        <v>234927.91016199801</v>
       </c>
       <c r="BA48" s="6">
-        <f t="shared" si="42"/>
-        <v>262824.33230768581</v>
+        <f t="shared" si="43"/>
+        <v>266173.32221354381</v>
       </c>
       <c r="BB48" s="6">
-        <f t="shared" si="42"/>
-        <v>284244.51539076224</v>
+        <f t="shared" si="43"/>
+        <v>287866.44797394762</v>
       </c>
       <c r="BC48" s="6">
-        <f t="shared" si="42"/>
-        <v>307410.44339510938</v>
+        <f t="shared" si="43"/>
+        <v>311327.56348382443</v>
       </c>
       <c r="BD48" s="6">
-        <f t="shared" si="42"/>
-        <v>332464.39453181083</v>
+        <f t="shared" si="43"/>
+        <v>336700.75990775618</v>
       </c>
       <c r="BE48" s="6">
-        <f t="shared" si="42"/>
-        <v>359560.24268615345</v>
+        <f t="shared" si="43"/>
+        <v>364141.87184023828</v>
       </c>
       <c r="BF48" s="6">
-        <f t="shared" si="42"/>
-        <v>388864.40246507496</v>
+        <f t="shared" si="43"/>
+        <v>393819.43439521769</v>
       </c>
     </row>
     <row r="49" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4401,7 +4414,7 @@
         <v>1117</v>
       </c>
       <c r="V49" s="5">
-        <f t="shared" ref="V49:V50" si="43">+R49*1.4</f>
+        <f t="shared" ref="V49:V50" si="44">+R49*1.4</f>
         <v>963.19999999999993</v>
       </c>
       <c r="W49" s="5">
@@ -4426,7 +4439,7 @@
         <v>2376</v>
       </c>
       <c r="AD49" s="5">
-        <f t="shared" ref="AD49:AD50" si="44">+Z49</f>
+        <f t="shared" ref="AD49:AD50" si="45">+Z49</f>
         <v>1438</v>
       </c>
       <c r="AE49" s="5"/>
@@ -4443,7 +4456,7 @@
         <v>3740.973</v>
       </c>
       <c r="AP49" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1531</v>
       </c>
       <c r="AQ49" s="4">
@@ -4455,7 +4468,7 @@
         <v>2789</v>
       </c>
       <c r="AS49" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>3562.2</v>
       </c>
       <c r="AT49" s="4">
@@ -4521,7 +4534,7 @@
         <v>1645</v>
       </c>
       <c r="V50" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1489.6</v>
       </c>
       <c r="W50" s="5">
@@ -4546,7 +4559,7 @@
         <v>2790</v>
       </c>
       <c r="AD50" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2166</v>
       </c>
       <c r="AE50" s="5"/>
@@ -4563,7 +4576,7 @@
         <v>305.05200000000002</v>
       </c>
       <c r="AP50" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2226</v>
       </c>
       <c r="AQ50" s="4">
@@ -4571,11 +4584,11 @@
         <v>2306</v>
       </c>
       <c r="AR50" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>3802</v>
       </c>
       <c r="AS50" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>5879.6</v>
       </c>
       <c r="AT50" s="4">
@@ -4596,51 +4609,51 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7">
-        <f t="shared" ref="G51:K51" si="45">SUM(G48:G50)</f>
+        <f t="shared" ref="G51:K51" si="46">SUM(G48:G50)</f>
         <v>4541</v>
       </c>
       <c r="H51" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>6350</v>
       </c>
       <c r="I51" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>6303</v>
       </c>
       <c r="J51" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>7384</v>
       </c>
       <c r="K51" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>5985</v>
       </c>
       <c r="L51" s="7">
-        <f t="shared" ref="L51" si="46">SUM(L48:L50)</f>
+        <f t="shared" ref="L51" si="47">SUM(L48:L50)</f>
         <v>6036</v>
       </c>
       <c r="M51" s="7">
-        <f t="shared" ref="M51:R51" si="47">SUM(M48:M50)</f>
+        <f t="shared" ref="M51:R51" si="48">SUM(M48:M50)</f>
         <v>8771</v>
       </c>
       <c r="N51" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>10744</v>
       </c>
       <c r="O51" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>10389</v>
       </c>
       <c r="P51" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>11958</v>
       </c>
       <c r="Q51" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>13757</v>
       </c>
       <c r="R51" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>17719</v>
       </c>
       <c r="S51" s="7">
@@ -4656,31 +4669,31 @@
         <v>21454</v>
       </c>
       <c r="V51" s="7">
-        <f t="shared" ref="V51:AD51" si="48">SUM(V48:V50)</f>
+        <f t="shared" ref="V51:AD51" si="49">SUM(V48:V50)</f>
         <v>24806.6</v>
       </c>
       <c r="W51" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>23329</v>
       </c>
       <c r="X51" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>24927</v>
       </c>
       <c r="Y51" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>23350</v>
       </c>
       <c r="Z51" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>25167</v>
       </c>
       <c r="AA51" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>21301</v>
       </c>
       <c r="AB51" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>25500</v>
       </c>
       <c r="AC51" s="7">
@@ -4688,8 +4701,8 @@
         <v>25182</v>
       </c>
       <c r="AD51" s="7">
-        <f t="shared" si="48"/>
-        <v>28570.031137321035</v>
+        <f t="shared" si="49"/>
+        <v>26693.108281201305</v>
       </c>
       <c r="AE51" s="7"/>
       <c r="AF51" s="7"/>
@@ -4717,19 +4730,19 @@
         <v>21461.268</v>
       </c>
       <c r="AP51" s="6">
-        <f t="shared" ref="AP51:AS51" si="49">SUM(AP48:AP50)</f>
+        <f t="shared" ref="AP51:AS51" si="50">SUM(AP48:AP50)</f>
         <v>24578</v>
       </c>
       <c r="AQ51" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>31536</v>
       </c>
       <c r="AR51" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>53823</v>
       </c>
       <c r="AS51" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>81950.600000000006</v>
       </c>
       <c r="AT51" s="6">
@@ -4738,51 +4751,51 @@
       </c>
       <c r="AU51" s="6">
         <f>SUM(AU48:AU50)+AU44</f>
-        <v>101109.99033732103</v>
+        <v>99192.765241201298</v>
       </c>
       <c r="AV51" s="6">
         <f>SUM(AV48:AV50)+AV44</f>
-        <v>101276.58048300061</v>
+        <v>102585.95377655835</v>
       </c>
       <c r="AW51" s="6">
         <f>SUM(AW48:AW50)+AW44</f>
-        <v>131539.2318478633</v>
+        <v>133236.2305041189</v>
       </c>
       <c r="AX51" s="6">
-        <f t="shared" ref="AX51:BA51" si="50">SUM(AX48:AX50)+AX44</f>
-        <v>163793.60146795906</v>
+        <f t="shared" ref="AX51:BA51" si="51">SUM(AX48:AX50)+AX44</f>
+        <v>165904.05107029094</v>
       </c>
       <c r="AY51" s="6">
-        <f t="shared" si="50"/>
-        <v>203806.24753855739</v>
+        <f t="shared" si="51"/>
+        <v>206429.76549996762</v>
       </c>
       <c r="AZ51" s="6">
-        <f t="shared" si="50"/>
-        <v>242819.9096274692</v>
+        <f t="shared" si="51"/>
+        <v>245944.088051278</v>
       </c>
       <c r="BA51" s="6">
-        <f t="shared" si="50"/>
-        <v>276533.79647056578</v>
+        <f t="shared" si="51"/>
+        <v>280091.07985152781</v>
       </c>
       <c r="BB51" s="6">
-        <f t="shared" ref="BB51" si="51">SUM(BB48:BB50)+BB44</f>
-        <v>299134.39129987021</v>
+        <f t="shared" ref="BB51" si="52">SUM(BB48:BB50)+BB44</f>
+        <v>302981.10725827201</v>
       </c>
       <c r="BC51" s="6">
-        <f t="shared" ref="BC51" si="52">SUM(BC48:BC50)+BC44</f>
-        <v>323561.49606466095</v>
+        <f t="shared" ref="BC51" si="53">SUM(BC48:BC50)+BC44</f>
+        <v>327721.01768502832</v>
       </c>
       <c r="BD51" s="6">
-        <f t="shared" ref="BD51" si="53">SUM(BD48:BD50)+BD44</f>
-        <v>349962.51444807765</v>
+        <f t="shared" ref="BD51" si="54">SUM(BD48:BD50)+BD44</f>
+        <v>354460.09936931665</v>
       </c>
       <c r="BE51" s="6">
-        <f t="shared" ref="BE51" si="54">SUM(BE48:BE50)+BE44</f>
-        <v>378496.75644213305</v>
+        <f t="shared" ref="BE51" si="55">SUM(BE48:BE50)+BE44</f>
+        <v>383359.69895268808</v>
       </c>
       <c r="BF51" s="6">
-        <f t="shared" ref="BF51" si="55">SUM(BF48:BF50)+BF44</f>
-        <v>409336.40164494806</v>
+        <f t="shared" ref="BF51" si="56">SUM(BF48:BF50)+BF44</f>
+        <v>414594.19707499177</v>
       </c>
     </row>
     <row r="52" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4864,7 +4877,7 @@
       </c>
       <c r="AD52" s="5">
         <f>+AD45*0.85</f>
-        <v>20428.07646672288</v>
+        <v>18832.692039021109</v>
       </c>
       <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
@@ -4874,64 +4887,64 @@
         <v>1483.3209999999999</v>
       </c>
       <c r="AR52" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>32415</v>
       </c>
       <c r="AS52" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>49599</v>
       </c>
       <c r="AT52" s="4">
-        <f t="shared" ref="AT52:AT66" si="56">SUM(W52:Z52)</f>
+        <f t="shared" ref="AT52:AT66" si="57">SUM(W52:Z52)</f>
         <v>65121</v>
       </c>
       <c r="AU52" s="4">
-        <f t="shared" ref="AU52:AU59" si="57">SUM(AA52:AD52)</f>
-        <v>66030.07646672288</v>
+        <f t="shared" ref="AU52:AU59" si="58">SUM(AA52:AD52)</f>
+        <v>64434.692039021109</v>
       </c>
       <c r="AV52" s="4">
         <f>AV45*0.8</f>
-        <v>79653.782274400495</v>
+        <v>80668.755699646688</v>
       </c>
       <c r="AW52" s="4">
         <f>AW45*0.79</f>
-        <v>101272.31661981202</v>
+        <v>102562.76017625393</v>
       </c>
       <c r="AX52" s="4">
         <f>AX51*0.78</f>
-        <v>127759.00914500807</v>
+        <v>129405.15983482693</v>
       </c>
       <c r="AY52" s="4">
         <f>AY51*0.77</f>
-        <v>156930.81060468921</v>
+        <v>158950.91943497508</v>
       </c>
       <c r="AZ52" s="4">
         <f>AZ51*0.76</f>
-        <v>184543.13131687659</v>
+        <v>186917.50691897128</v>
       </c>
       <c r="BA52" s="4">
         <f>BA51*0.75</f>
-        <v>207400.34735292435</v>
+        <v>210068.30988864586</v>
       </c>
       <c r="BB52" s="4">
-        <f t="shared" ref="BB52:BF52" si="58">BB51*0.75</f>
-        <v>224350.79347490266</v>
+        <f t="shared" ref="BB52:BF52" si="59">BB51*0.75</f>
+        <v>227235.83044370401</v>
       </c>
       <c r="BC52" s="4">
-        <f t="shared" si="58"/>
-        <v>242671.12204849572</v>
+        <f t="shared" si="59"/>
+        <v>245790.76326377125</v>
       </c>
       <c r="BD52" s="4">
-        <f t="shared" si="58"/>
-        <v>262471.88583605824</v>
+        <f t="shared" si="59"/>
+        <v>265845.0745269875</v>
       </c>
       <c r="BE52" s="4">
-        <f t="shared" si="58"/>
-        <v>283872.56733159977</v>
+        <f t="shared" si="59"/>
+        <v>287519.77421451604</v>
       </c>
       <c r="BF52" s="4">
-        <f t="shared" si="58"/>
-        <v>307002.30123371107</v>
+        <f t="shared" si="59"/>
+        <v>310945.64780624385</v>
       </c>
     </row>
     <row r="53" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4943,51 +4956,51 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5">
-        <f t="shared" ref="G53:N53" si="59">G45-G52</f>
+        <f t="shared" ref="G53:N53" si="60">G45-G52</f>
         <v>653</v>
       </c>
       <c r="H53" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>914</v>
       </c>
       <c r="I53" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1118</v>
       </c>
       <c r="J53" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1328</v>
       </c>
       <c r="K53" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1194</v>
       </c>
       <c r="L53" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1197</v>
       </c>
       <c r="M53" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1985</v>
       </c>
       <c r="N53" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1711</v>
       </c>
       <c r="O53" s="5">
-        <f t="shared" ref="O53:R53" si="60">O45-O52</f>
+        <f t="shared" ref="O53:R53" si="61">O45-O52</f>
         <v>1730</v>
       </c>
       <c r="P53" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>2401</v>
       </c>
       <c r="Q53" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>3243</v>
       </c>
       <c r="R53" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>4336</v>
       </c>
       <c r="S53" s="5">
@@ -5003,7 +5016,7 @@
         <v>4686</v>
       </c>
       <c r="V53" s="5">
-        <f t="shared" ref="V53:Z53" si="61">V45-V52</f>
+        <f t="shared" ref="V53:Z53" si="62">V45-V52</f>
         <v>5602</v>
       </c>
       <c r="W53" s="5">
@@ -5011,15 +5024,15 @@
         <v>3456</v>
       </c>
       <c r="X53" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>3578</v>
       </c>
       <c r="Y53" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>2926</v>
       </c>
       <c r="Z53" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>3428</v>
       </c>
       <c r="AA53" s="5">
@@ -5036,27 +5049,27 @@
       </c>
       <c r="AD53" s="5">
         <f>AD45-AD52</f>
-        <v>3604.9546705981556</v>
+        <v>3323.4162421801957</v>
       </c>
       <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
       <c r="AG53" s="5"/>
       <c r="AH53" s="5"/>
       <c r="AR53" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>17139</v>
       </c>
       <c r="AS53" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>18405</v>
       </c>
       <c r="AT53" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>13388</v>
       </c>
       <c r="AU53" s="4">
-        <f t="shared" si="57"/>
-        <v>11823.954670598156</v>
+        <f t="shared" si="58"/>
+        <v>11542.416242180196</v>
       </c>
     </row>
     <row r="54" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5096,7 +5109,7 @@
       <c r="AG54" s="5"/>
       <c r="AH54" s="5"/>
       <c r="AU54" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
     </row>
@@ -5186,15 +5199,15 @@
       <c r="AG55" s="5"/>
       <c r="AH55" s="5"/>
       <c r="AS55" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1510</v>
       </c>
       <c r="AT55" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>1268</v>
       </c>
       <c r="AU55" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>1011</v>
       </c>
     </row>
@@ -5207,35 +5220,35 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5">
-        <f t="shared" ref="G56:K56" si="62">G48-G55-G52</f>
+        <f t="shared" ref="G56:K56" si="63">G48-G55-G52</f>
         <v>751</v>
       </c>
       <c r="H56" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1016</v>
       </c>
       <c r="I56" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1222</v>
       </c>
       <c r="J56" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1434</v>
       </c>
       <c r="K56" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1311</v>
       </c>
       <c r="L56" s="5">
-        <f t="shared" ref="L56" si="63">L48-L55-L52</f>
+        <f t="shared" ref="L56" si="64">L48-L55-L52</f>
         <v>1317</v>
       </c>
       <c r="M56" s="5">
-        <f t="shared" ref="M56:N56" si="64">M48-M55-M52</f>
+        <f t="shared" ref="M56:N56" si="65">M48-M55-M52</f>
         <v>2105</v>
       </c>
       <c r="N56" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>2244</v>
       </c>
       <c r="O56" s="5">
@@ -5243,19 +5256,19 @@
         <v>2385</v>
       </c>
       <c r="P56" s="5">
-        <f t="shared" ref="P56:S56" si="65">P48-P55-P52</f>
+        <f t="shared" ref="P56:S56" si="66">P48-P55-P52</f>
         <v>2899</v>
       </c>
       <c r="Q56" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>3673</v>
       </c>
       <c r="R56" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>4882</v>
       </c>
       <c r="S56" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>5539</v>
       </c>
       <c r="T56" s="5">
@@ -5267,7 +5280,7 @@
         <v>5212</v>
       </c>
       <c r="V56" s="5">
-        <f t="shared" ref="V56:AD56" si="66">V48-V55-V52</f>
+        <f t="shared" ref="V56:AD56" si="67">V48-V55-V52</f>
         <v>6568.7999999999993</v>
       </c>
       <c r="W56" s="5">
@@ -5275,19 +5288,19 @@
         <v>4208</v>
       </c>
       <c r="X56" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>4089</v>
       </c>
       <c r="Y56" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>3668</v>
       </c>
       <c r="Z56" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>4065</v>
       </c>
       <c r="AA56" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>3212</v>
       </c>
       <c r="AB56" s="5">
@@ -5295,19 +5308,19 @@
         <v>3671</v>
       </c>
       <c r="AC56" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>4026</v>
       </c>
       <c r="AD56" s="5">
-        <f t="shared" si="66"/>
-        <v>4287.9546705981556</v>
+        <f t="shared" si="67"/>
+        <v>4006.4162421801957</v>
       </c>
       <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
       <c r="AG56" s="5"/>
       <c r="AH56" s="5"/>
       <c r="AS56" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>21399.8</v>
       </c>
       <c r="AT56" s="4">
@@ -5315,52 +5328,52 @@
         <v>16030</v>
       </c>
       <c r="AU56" s="4">
-        <f t="shared" si="57"/>
-        <v>15196.954670598156</v>
+        <f t="shared" si="58"/>
+        <v>14915.416242180196</v>
       </c>
       <c r="AV56" s="4">
         <f>AV51-AV52</f>
-        <v>21622.798208600114</v>
+        <v>21917.198076911664</v>
       </c>
       <c r="AW56" s="4">
-        <f t="shared" ref="AW56:BF56" si="67">AW51-AW52</f>
-        <v>30266.915228051279</v>
+        <f t="shared" ref="AW56:BF56" si="68">AW51-AW52</f>
+        <v>30673.470327864969</v>
       </c>
       <c r="AX56" s="4">
-        <f t="shared" si="67"/>
-        <v>36034.592322950994</v>
+        <f t="shared" si="68"/>
+        <v>36498.891235464005</v>
       </c>
       <c r="AY56" s="4">
-        <f t="shared" si="67"/>
-        <v>46875.436933868186</v>
+        <f t="shared" si="68"/>
+        <v>47478.84606499254</v>
       </c>
       <c r="AZ56" s="4">
-        <f t="shared" si="67"/>
-        <v>58276.778310592606</v>
+        <f t="shared" si="68"/>
+        <v>59026.581132306717</v>
       </c>
       <c r="BA56" s="4">
-        <f t="shared" si="67"/>
-        <v>69133.44911764143</v>
+        <f t="shared" si="68"/>
+        <v>70022.769962881954</v>
       </c>
       <c r="BB56" s="4">
-        <f t="shared" si="67"/>
-        <v>74783.597824967554</v>
+        <f t="shared" si="68"/>
+        <v>75745.276814568002</v>
       </c>
       <c r="BC56" s="4">
-        <f t="shared" si="67"/>
-        <v>80890.374016165239</v>
+        <f t="shared" si="68"/>
+        <v>81930.254421257065</v>
       </c>
       <c r="BD56" s="4">
-        <f t="shared" si="67"/>
-        <v>87490.628612019413</v>
+        <f t="shared" si="68"/>
+        <v>88615.024842329149</v>
       </c>
       <c r="BE56" s="4">
-        <f t="shared" si="67"/>
-        <v>94624.189110533276</v>
+        <f t="shared" si="68"/>
+        <v>95839.924738172034</v>
       </c>
       <c r="BF56" s="4">
-        <f t="shared" si="67"/>
-        <v>102334.10041123698</v>
+        <f t="shared" si="68"/>
+        <v>103648.54926874791</v>
       </c>
     </row>
     <row r="57" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5449,15 +5462,15 @@
       <c r="AG57" s="5"/>
       <c r="AH57" s="5"/>
       <c r="AS57" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>3621</v>
       </c>
       <c r="AT57" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>4894</v>
       </c>
       <c r="AU57" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>6451.2</v>
       </c>
     </row>
@@ -5547,15 +5560,15 @@
       <c r="AG58" s="5"/>
       <c r="AH58" s="5"/>
       <c r="AS58" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>5880</v>
       </c>
       <c r="AT58" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>7830</v>
       </c>
       <c r="AU58" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>9358</v>
       </c>
     </row>
@@ -5568,160 +5581,160 @@
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5">
-        <f t="shared" ref="G59:K59" si="68">G56+G49+G50-G57-G58</f>
+        <f t="shared" ref="G59:K59" si="69">G56+G49+G50-G57-G58</f>
         <v>566</v>
       </c>
       <c r="H59" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>921</v>
       </c>
       <c r="I59" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1191</v>
       </c>
       <c r="J59" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1391</v>
       </c>
       <c r="K59" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1234</v>
       </c>
       <c r="L59" s="5">
-        <f t="shared" ref="L59" si="69">L56+L49+L50-L57-L58</f>
+        <f t="shared" ref="L59" si="70">L56+L49+L50-L57-L58</f>
         <v>1267</v>
       </c>
       <c r="M59" s="5">
-        <f t="shared" ref="M59:T59" si="70">M56+M49+M50-M57-M58</f>
+        <f t="shared" ref="M59:T59" si="71">M56+M49+M50-M57-M58</f>
         <v>2063</v>
       </c>
       <c r="N59" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>2066</v>
       </c>
       <c r="O59" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>2215</v>
       </c>
       <c r="P59" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>2884</v>
       </c>
       <c r="Q59" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>3660</v>
       </c>
       <c r="R59" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>4847</v>
       </c>
       <c r="S59" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>5460</v>
       </c>
       <c r="T59" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>4233</v>
       </c>
       <c r="U59" s="5">
-        <f t="shared" ref="U59:AD59" si="71">U56+U49+U50-U57-U58</f>
+        <f t="shared" ref="U59:AD59" si="72">U56+U49+U50-U57-U58</f>
         <v>5382</v>
       </c>
       <c r="V59" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>6265.5999999999985</v>
       </c>
       <c r="W59" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>4511</v>
       </c>
       <c r="X59" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>4533</v>
       </c>
       <c r="Y59" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>4178</v>
       </c>
       <c r="Z59" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>4438</v>
       </c>
       <c r="AA59" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>3696</v>
       </c>
       <c r="AB59" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>4578</v>
       </c>
       <c r="AC59" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>4997</v>
       </c>
       <c r="AD59" s="5">
-        <f t="shared" si="71"/>
-        <v>4431.7546705981558</v>
+        <f t="shared" si="72"/>
+        <v>4150.2162421801959</v>
       </c>
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
       <c r="AG59" s="5"/>
       <c r="AH59" s="5"/>
       <c r="AS59" s="5">
-        <f t="shared" ref="AS59" si="72">+AS51*0.25</f>
+        <f t="shared" ref="AS59" si="73">+AS51*0.25</f>
         <v>20487.650000000001</v>
       </c>
       <c r="AT59" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>17660</v>
       </c>
       <c r="AU59" s="4">
-        <f t="shared" si="57"/>
-        <v>17702.754670598155</v>
+        <f t="shared" si="58"/>
+        <v>17421.216242180195</v>
       </c>
       <c r="AV59" s="4">
         <f>+AV56+AV44</f>
-        <v>23332.150848600115</v>
+        <v>23667.207228911662</v>
       </c>
       <c r="AW59" s="4">
-        <f t="shared" ref="AW59:BF59" si="73">+AW56+AW44</f>
-        <v>33613.341228051278</v>
+        <f t="shared" ref="AW59:BF59" si="74">+AW56+AW44</f>
+        <v>34083.422127864971</v>
       </c>
       <c r="AX59" s="4">
-        <f t="shared" si="73"/>
-        <v>41381.885762950995</v>
+        <f t="shared" si="74"/>
+        <v>41937.661827464006</v>
       </c>
       <c r="AY59" s="4">
-        <f t="shared" si="73"/>
-        <v>54842.047749868187</v>
+        <f t="shared" si="74"/>
+        <v>55573.524893792543</v>
       </c>
       <c r="AZ59" s="4">
-        <f t="shared" si="73"/>
-        <v>69124.638240192609</v>
+        <f t="shared" si="74"/>
+        <v>70042.759021586724</v>
       </c>
       <c r="BA59" s="4">
-        <f t="shared" si="73"/>
-        <v>82842.913280521432</v>
+        <f t="shared" si="74"/>
+        <v>83940.527600865957</v>
       </c>
       <c r="BB59" s="4">
-        <f t="shared" si="73"/>
-        <v>89673.473734075553</v>
+        <f t="shared" si="74"/>
+        <v>90859.936098892402</v>
       </c>
       <c r="BC59" s="4">
-        <f t="shared" si="73"/>
-        <v>97041.42668571684</v>
+        <f t="shared" si="74"/>
+        <v>98323.708622460952</v>
       </c>
       <c r="BD59" s="4">
-        <f t="shared" si="73"/>
-        <v>104988.7485282862</v>
+        <f t="shared" si="74"/>
+        <v>106374.36430388966</v>
       </c>
       <c r="BE59" s="4">
-        <f t="shared" si="73"/>
-        <v>113560.7028665129</v>
+        <f t="shared" si="74"/>
+        <v>115057.7518506218</v>
       </c>
       <c r="BF59" s="4">
-        <f t="shared" si="73"/>
-        <v>122806.09959111005</v>
+        <f t="shared" si="74"/>
+        <v>124423.31194852198</v>
       </c>
     </row>
     <row r="60" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5802,7 +5815,7 @@
         <v>1039</v>
       </c>
       <c r="AD60" s="5">
-        <f t="shared" ref="AD60:AD61" si="74">+Z60*1.1</f>
+        <f t="shared" ref="AD60:AD61" si="75">+Z60*1.1</f>
         <v>1203.4000000000001</v>
       </c>
       <c r="AE60" s="5"/>
@@ -5810,7 +5823,7 @@
       <c r="AG60" s="5"/>
       <c r="AH60" s="5"/>
       <c r="AS60" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>3075</v>
       </c>
       <c r="AT60" s="4">
@@ -5818,7 +5831,7 @@
         <v>3969</v>
       </c>
       <c r="AU60" s="4">
-        <f t="shared" ref="AU60:AU61" si="75">SUM(AA60:AD60)</f>
+        <f t="shared" ref="AU60:AU61" si="76">SUM(AA60:AD60)</f>
         <v>4467.3999999999996</v>
       </c>
       <c r="AV60" s="4">
@@ -5826,43 +5839,43 @@
         <v>4646.0959999999995</v>
       </c>
       <c r="AW60" s="4">
-        <f t="shared" ref="AW60:BA60" si="76">AV60*1.04</f>
+        <f t="shared" ref="AW60:BA60" si="77">AV60*1.04</f>
         <v>4831.93984</v>
       </c>
       <c r="AX60" s="4">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>5025.2174335999998</v>
       </c>
       <c r="AY60" s="4">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>5226.226130944</v>
       </c>
       <c r="AZ60" s="4">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>5435.2751761817599</v>
       </c>
       <c r="BA60" s="4">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>5652.6861832290306</v>
       </c>
       <c r="BB60" s="4">
-        <f t="shared" ref="BB60:BF60" si="77">BA60*1.04</f>
+        <f t="shared" ref="BB60:BF60" si="78">BA60*1.04</f>
         <v>5878.7936305581916</v>
       </c>
       <c r="BC60" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>6113.9453757805195</v>
       </c>
       <c r="BD60" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>6358.5031908117408</v>
       </c>
       <c r="BE60" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>6612.843318444211</v>
       </c>
       <c r="BF60" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>6877.3570511819798</v>
       </c>
     </row>
@@ -5945,7 +5958,7 @@
         <v>1186</v>
       </c>
       <c r="AD61" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1408</v>
       </c>
       <c r="AE61" s="5"/>
@@ -5953,15 +5966,15 @@
       <c r="AG61" s="5"/>
       <c r="AH61" s="5"/>
       <c r="AS61" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4706.8</v>
       </c>
       <c r="AT61" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>4800</v>
       </c>
       <c r="AU61" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>5245</v>
       </c>
       <c r="AV61" s="4">
@@ -5969,43 +5982,43 @@
         <v>5454.8</v>
       </c>
       <c r="AW61" s="4">
-        <f t="shared" ref="AW61:BA61" si="78">AV61*1.04</f>
+        <f t="shared" ref="AW61:BA61" si="79">AV61*1.04</f>
         <v>5672.9920000000002</v>
       </c>
       <c r="AX61" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>5899.9116800000002</v>
       </c>
       <c r="AY61" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>6135.9081472000007</v>
       </c>
       <c r="AZ61" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>6381.344473088001</v>
       </c>
       <c r="BA61" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>6636.5982520115213</v>
       </c>
       <c r="BB61" s="4">
-        <f t="shared" ref="BB61:BF61" si="79">BA61*1.04</f>
+        <f t="shared" ref="BB61:BF61" si="80">BA61*1.04</f>
         <v>6902.0621820919823</v>
       </c>
       <c r="BC61" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>7178.1446693756616</v>
       </c>
       <c r="BD61" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>7465.270456150688</v>
       </c>
       <c r="BE61" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>7763.8812743967155</v>
       </c>
       <c r="BF61" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>8074.4365253725846</v>
       </c>
     </row>
@@ -6018,51 +6031,51 @@
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5">
-        <f t="shared" ref="G62" si="80">G60+G61</f>
+        <f t="shared" ref="G62" si="81">G60+G61</f>
         <v>1044</v>
       </c>
       <c r="H62" s="5">
-        <f t="shared" ref="H62:I62" si="81">H60+H61</f>
+        <f t="shared" ref="H62:I62" si="82">H60+H61</f>
         <v>971</v>
       </c>
       <c r="I62" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>930</v>
       </c>
       <c r="J62" s="5">
-        <f t="shared" ref="J62:L62" si="82">J60+J61</f>
+        <f t="shared" ref="J62:L62" si="83">J60+J61</f>
         <v>1044</v>
       </c>
       <c r="K62" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>951</v>
       </c>
       <c r="L62" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>940</v>
       </c>
       <c r="M62" s="5">
-        <f t="shared" ref="M62:N62" si="83">M60+M61</f>
+        <f t="shared" ref="M62:N62" si="84">M60+M61</f>
         <v>1254</v>
       </c>
       <c r="N62" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>1491</v>
       </c>
       <c r="O62" s="5">
-        <f t="shared" ref="O62:R62" si="84">O60+O61</f>
+        <f t="shared" ref="O62:R62" si="85">O60+O61</f>
         <v>1722</v>
       </c>
       <c r="P62" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1549</v>
       </c>
       <c r="Q62" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1605</v>
       </c>
       <c r="R62" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>2234</v>
       </c>
       <c r="S62" s="5">
@@ -6078,7 +6091,7 @@
         <v>1694</v>
       </c>
       <c r="V62" s="5">
-        <f t="shared" ref="V62:AD62" si="85">V60+V61</f>
+        <f t="shared" ref="V62:AD62" si="86">V60+V61</f>
         <v>2602.8000000000002</v>
       </c>
       <c r="W62" s="5">
@@ -6086,31 +6099,31 @@
         <v>1847</v>
       </c>
       <c r="X62" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2134</v>
       </c>
       <c r="Y62" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2414</v>
       </c>
       <c r="Z62" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2374</v>
       </c>
       <c r="AA62" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2525</v>
       </c>
       <c r="AB62" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2351</v>
       </c>
       <c r="AC62" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2225</v>
       </c>
       <c r="AD62" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2611.4</v>
       </c>
       <c r="AE62" s="5"/>
@@ -6118,7 +6131,7 @@
       <c r="AG62" s="5"/>
       <c r="AH62" s="5"/>
       <c r="AS62" s="4">
-        <f t="shared" ref="AS62" si="86">+AS60+AS61</f>
+        <f t="shared" ref="AS62" si="87">+AS60+AS61</f>
         <v>7781.8</v>
       </c>
       <c r="AT62" s="4">
@@ -6126,7 +6139,7 @@
         <v>8769</v>
       </c>
       <c r="AU62" s="4">
-        <f t="shared" ref="AU62:AY62" si="87">+AU60+AU61</f>
+        <f t="shared" ref="AU62:AY62" si="88">+AU60+AU61</f>
         <v>9712.4</v>
       </c>
       <c r="AV62" s="4">
@@ -6134,43 +6147,43 @@
         <v>10100.896000000001</v>
       </c>
       <c r="AW62" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>10504.931840000001</v>
       </c>
       <c r="AX62" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>10925.1291136</v>
       </c>
       <c r="AY62" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>11362.134278144</v>
       </c>
       <c r="AZ62" s="4">
-        <f t="shared" ref="AZ62" si="88">+AZ60+AZ61</f>
+        <f t="shared" ref="AZ62" si="89">+AZ60+AZ61</f>
         <v>11816.61964926976</v>
       </c>
       <c r="BA62" s="4">
-        <f t="shared" ref="BA62:BF62" si="89">+BA60+BA61</f>
+        <f t="shared" ref="BA62:BF62" si="90">+BA60+BA61</f>
         <v>12289.284435240552</v>
       </c>
       <c r="BB62" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>12780.855812650174</v>
       </c>
       <c r="BC62" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>13292.090045156181</v>
       </c>
       <c r="BD62" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>13823.773646962429</v>
       </c>
       <c r="BE62" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>14376.724592840927</v>
       </c>
       <c r="BF62" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>14951.793576554564</v>
       </c>
     </row>
@@ -6183,51 +6196,51 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5">
-        <f t="shared" ref="G63" si="90">G59-G62</f>
+        <f t="shared" ref="G63" si="91">G59-G62</f>
         <v>-478</v>
       </c>
       <c r="H63" s="5">
-        <f t="shared" ref="H63:I63" si="91">H59-H62</f>
+        <f t="shared" ref="H63:I63" si="92">H59-H62</f>
         <v>-50</v>
       </c>
       <c r="I63" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>261</v>
       </c>
       <c r="J63" s="5">
-        <f t="shared" ref="J63:L63" si="92">J59-J62</f>
+        <f t="shared" ref="J63:L63" si="93">J59-J62</f>
         <v>347</v>
       </c>
       <c r="K63" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>283</v>
       </c>
       <c r="L63" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>327</v>
       </c>
       <c r="M63" s="5">
-        <f t="shared" ref="M63:N63" si="93">M59-M62</f>
+        <f t="shared" ref="M63:N63" si="94">M59-M62</f>
         <v>809</v>
       </c>
       <c r="N63" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>575</v>
       </c>
       <c r="O63" s="5">
-        <f t="shared" ref="O63:R63" si="94">O59-O62</f>
+        <f t="shared" ref="O63:R63" si="95">O59-O62</f>
         <v>493</v>
       </c>
       <c r="P63" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>1335</v>
       </c>
       <c r="Q63" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>2055</v>
       </c>
       <c r="R63" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>2613</v>
       </c>
       <c r="S63" s="5">
@@ -6243,7 +6256,7 @@
         <v>3688</v>
       </c>
       <c r="V63" s="5">
-        <f t="shared" ref="V63:AD63" si="95">V59-V62</f>
+        <f t="shared" ref="V63:AD63" si="96">V59-V62</f>
         <v>3662.7999999999984</v>
       </c>
       <c r="W63" s="5">
@@ -6251,92 +6264,92 @@
         <v>2664</v>
       </c>
       <c r="X63" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>2399</v>
       </c>
       <c r="Y63" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1764</v>
       </c>
       <c r="Z63" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>2064</v>
       </c>
       <c r="AA63" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1171</v>
       </c>
       <c r="AB63" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>2227</v>
       </c>
       <c r="AC63" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>2772</v>
       </c>
       <c r="AD63" s="5">
-        <f t="shared" si="95"/>
-        <v>1820.3546705981557</v>
+        <f t="shared" si="96"/>
+        <v>1538.8162421801958</v>
       </c>
       <c r="AE63" s="5"/>
       <c r="AF63" s="5"/>
       <c r="AG63" s="5"/>
       <c r="AH63" s="5"/>
       <c r="AS63" s="5">
-        <f t="shared" ref="AS63:AT63" si="96">AS59-AS62</f>
+        <f t="shared" ref="AS63:AT63" si="97">AS59-AS62</f>
         <v>12705.850000000002</v>
       </c>
       <c r="AT63" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>8891</v>
       </c>
       <c r="AU63" s="5">
-        <f t="shared" ref="AU63:BA63" si="97">AU59-AU62</f>
-        <v>7990.3546705981553</v>
+        <f t="shared" ref="AU63:BA63" si="98">AU59-AU62</f>
+        <v>7708.8162421801953</v>
       </c>
       <c r="AV63" s="5">
         <f>AV59-AV62</f>
-        <v>13231.254848600114</v>
+        <v>13566.311228911662</v>
       </c>
       <c r="AW63" s="5">
-        <f t="shared" si="97"/>
-        <v>23108.409388051277</v>
+        <f t="shared" si="98"/>
+        <v>23578.49028786497</v>
       </c>
       <c r="AX63" s="5">
-        <f t="shared" si="97"/>
-        <v>30456.756649350995</v>
+        <f t="shared" si="98"/>
+        <v>31012.532713864006</v>
       </c>
       <c r="AY63" s="5">
-        <f t="shared" si="97"/>
-        <v>43479.913471724183</v>
+        <f t="shared" si="98"/>
+        <v>44211.390615648546</v>
       </c>
       <c r="AZ63" s="5">
-        <f t="shared" si="97"/>
-        <v>57308.018590922846</v>
+        <f t="shared" si="98"/>
+        <v>58226.13937231696</v>
       </c>
       <c r="BA63" s="5">
-        <f t="shared" si="97"/>
-        <v>70553.62884528088</v>
+        <f t="shared" si="98"/>
+        <v>71651.243165625405</v>
       </c>
       <c r="BB63" s="5">
-        <f t="shared" ref="BB63:BF63" si="98">BB59-BB62</f>
-        <v>76892.617921425379</v>
+        <f t="shared" ref="BB63:BF63" si="99">BB59-BB62</f>
+        <v>78079.080286242228</v>
       </c>
       <c r="BC63" s="5">
-        <f t="shared" si="98"/>
-        <v>83749.336640560665</v>
+        <f t="shared" si="99"/>
+        <v>85031.618577304776</v>
       </c>
       <c r="BD63" s="5">
-        <f t="shared" si="98"/>
-        <v>91164.974881323782</v>
+        <f t="shared" si="99"/>
+        <v>92550.590656927234</v>
       </c>
       <c r="BE63" s="5">
-        <f t="shared" si="98"/>
-        <v>99183.978273671979</v>
+        <f t="shared" si="99"/>
+        <v>100681.02725778088</v>
       </c>
       <c r="BF63" s="5">
-        <f t="shared" si="98"/>
-        <v>107854.30601455548</v>
+        <f t="shared" si="99"/>
+        <v>109471.51837196741</v>
       </c>
     </row>
     <row r="64" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6445,56 +6458,56 @@
       <c r="AG64" s="5"/>
       <c r="AH64" s="5"/>
       <c r="AT64" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>1082</v>
       </c>
       <c r="AU64" s="4">
-        <f t="shared" ref="AU64" si="99">SUM(AA64:AD64)</f>
+        <f t="shared" ref="AU64" si="100">SUM(AA64:AD64)</f>
         <v>731</v>
       </c>
       <c r="AV64" s="4">
-        <f t="shared" ref="AV64:BF64" si="100">AU94*$BH$81</f>
-        <v>3077.1283736478526</v>
+        <f t="shared" ref="AV64:BF64" si="101">AU94*$BH$81</f>
+        <v>3054.6052993744161</v>
       </c>
       <c r="AW64" s="4">
-        <f t="shared" si="100"/>
-        <v>4463.3409475389299</v>
+        <f t="shared" si="101"/>
+        <v>4467.3832042787326</v>
       </c>
       <c r="AX64" s="4">
-        <f t="shared" si="100"/>
-        <v>6806.9397260640972</v>
+        <f t="shared" si="101"/>
+        <v>6851.2824511109475</v>
       </c>
       <c r="AY64" s="4">
-        <f t="shared" si="100"/>
-        <v>9974.3539179743802</v>
+        <f t="shared" si="101"/>
+        <v>10069.706740133821</v>
       </c>
       <c r="AZ64" s="4">
-        <f t="shared" si="100"/>
-        <v>14517.966646098759</v>
+        <f t="shared" si="101"/>
+        <v>14683.600015375321</v>
       </c>
       <c r="BA64" s="4">
-        <f t="shared" si="100"/>
-        <v>20623.175391245597</v>
+        <f t="shared" si="101"/>
+        <v>20880.927863329169</v>
       </c>
       <c r="BB64" s="4">
-        <f t="shared" si="100"/>
-        <v>28373.203751350346</v>
+        <f t="shared" si="101"/>
+        <v>28746.162400790305</v>
       </c>
       <c r="BC64" s="4">
-        <f t="shared" si="100"/>
-        <v>37320.798593536281</v>
+        <f t="shared" si="101"/>
+        <v>37826.308029188069</v>
       </c>
       <c r="BD64" s="4">
-        <f t="shared" si="100"/>
-        <v>47611.76008843453</v>
+        <f t="shared" si="101"/>
+        <v>48269.231790739963</v>
       </c>
       <c r="BE64" s="4">
-        <f t="shared" si="100"/>
-        <v>59407.782560863976</v>
+        <f t="shared" si="101"/>
+        <v>60238.916698791669</v>
       </c>
       <c r="BF64" s="4">
-        <f t="shared" si="100"/>
-        <v>72888.082231799533</v>
+        <f t="shared" si="101"/>
+        <v>73917.111935100329</v>
       </c>
     </row>
     <row r="65" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6506,51 +6519,51 @@
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5">
-        <f t="shared" ref="G65:N65" si="101">G63+G64</f>
+        <f t="shared" ref="G65:N65" si="102">G63+G64</f>
         <v>-601</v>
       </c>
       <c r="H65" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>-253</v>
       </c>
       <c r="I65" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>176</v>
       </c>
       <c r="J65" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>160</v>
       </c>
       <c r="K65" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>70</v>
       </c>
       <c r="L65" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>150</v>
       </c>
       <c r="M65" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>555</v>
       </c>
       <c r="N65" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>379</v>
       </c>
       <c r="O65" s="5">
-        <f t="shared" ref="O65:R65" si="102">O63+O64</f>
+        <f t="shared" ref="O65:R65" si="103">O63+O64</f>
         <v>432</v>
       </c>
       <c r="P65" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>1316</v>
       </c>
       <c r="Q65" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>1933</v>
       </c>
       <c r="R65" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>2635</v>
       </c>
       <c r="S65" s="5">
@@ -6566,40 +6579,40 @@
         <v>3636</v>
       </c>
       <c r="V65" s="5">
-        <f t="shared" ref="V65:AD65" si="103">V63+V64</f>
+        <f t="shared" ref="V65:AD65" si="104">V63+V64</f>
         <v>3744.7999999999984</v>
       </c>
       <c r="W65" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>2800</v>
       </c>
       <c r="X65" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>2937</v>
       </c>
       <c r="Y65" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>2045</v>
       </c>
       <c r="Z65" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>2191</v>
       </c>
       <c r="AA65" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>1553</v>
       </c>
       <c r="AB65" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>2509</v>
       </c>
       <c r="AC65" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>2839</v>
       </c>
       <c r="AD65" s="5">
-        <f t="shared" si="103"/>
-        <v>1820.3546705981557</v>
+        <f t="shared" si="104"/>
+        <v>1538.8162421801958</v>
       </c>
       <c r="AE65" s="5"/>
       <c r="AF65" s="5"/>
@@ -6610,52 +6623,52 @@
         <v>9973</v>
       </c>
       <c r="AU65" s="4">
-        <f t="shared" ref="AU65:BF65" si="104">+AU63+AU64</f>
-        <v>8721.3546705981553</v>
+        <f t="shared" ref="AU65:BF65" si="105">+AU63+AU64</f>
+        <v>8439.8162421801953</v>
       </c>
       <c r="AV65" s="4">
-        <f t="shared" si="104"/>
-        <v>16308.383222247967</v>
+        <f t="shared" si="105"/>
+        <v>16620.916528286078</v>
       </c>
       <c r="AW65" s="4">
-        <f t="shared" si="104"/>
-        <v>27571.750335590208</v>
+        <f t="shared" si="105"/>
+        <v>28045.873492143703</v>
       </c>
       <c r="AX65" s="4">
-        <f t="shared" si="104"/>
-        <v>37263.696375415093</v>
+        <f t="shared" si="105"/>
+        <v>37863.815164974956</v>
       </c>
       <c r="AY65" s="4">
-        <f t="shared" si="104"/>
-        <v>53454.267389698565</v>
+        <f t="shared" si="105"/>
+        <v>54281.097355782367</v>
       </c>
       <c r="AZ65" s="4">
-        <f t="shared" si="104"/>
-        <v>71825.98523702161</v>
+        <f t="shared" si="105"/>
+        <v>72909.739387692287</v>
       </c>
       <c r="BA65" s="4">
-        <f t="shared" si="104"/>
-        <v>91176.804236526485</v>
+        <f t="shared" si="105"/>
+        <v>92532.171028954574</v>
       </c>
       <c r="BB65" s="4">
-        <f t="shared" si="104"/>
-        <v>105265.82167277572</v>
+        <f t="shared" si="105"/>
+        <v>106825.24268703253</v>
       </c>
       <c r="BC65" s="4">
-        <f t="shared" si="104"/>
-        <v>121070.13523409695</v>
+        <f t="shared" si="105"/>
+        <v>122857.92660649284</v>
       </c>
       <c r="BD65" s="4">
-        <f t="shared" si="104"/>
-        <v>138776.73496975831</v>
+        <f t="shared" si="105"/>
+        <v>140819.82244766719</v>
       </c>
       <c r="BE65" s="4">
-        <f t="shared" si="104"/>
-        <v>158591.76083453596</v>
+        <f t="shared" si="105"/>
+        <v>160919.94395657256</v>
       </c>
       <c r="BF65" s="4">
-        <f t="shared" si="104"/>
-        <v>180742.388246355</v>
+        <f t="shared" si="105"/>
+        <v>183388.63030706774</v>
       </c>
     </row>
     <row r="66" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6757,63 +6770,63 @@
       </c>
       <c r="AD66" s="5">
         <f>+AD65*0.2</f>
-        <v>364.07093411963115</v>
+        <v>307.76324843603919</v>
       </c>
       <c r="AE66" s="5"/>
       <c r="AF66" s="5"/>
       <c r="AG66" s="5"/>
       <c r="AH66" s="5"/>
       <c r="AT66" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>728</v>
       </c>
       <c r="AU66" s="4">
-        <f t="shared" ref="AU66" si="105">SUM(AA66:AD66)</f>
-        <v>1814.0709341196311</v>
+        <f t="shared" ref="AU66" si="106">SUM(AA66:AD66)</f>
+        <v>1757.7632484360392</v>
       </c>
       <c r="AV66" s="4">
-        <f t="shared" ref="AV66:BA66" si="106">+AV65*0.15</f>
-        <v>2446.257483337195</v>
+        <f t="shared" ref="AV66:BA66" si="107">+AV65*0.15</f>
+        <v>2493.1374792429115</v>
       </c>
       <c r="AW66" s="4">
-        <f t="shared" si="106"/>
-        <v>4135.7625503385307</v>
+        <f t="shared" si="107"/>
+        <v>4206.8810238215556</v>
       </c>
       <c r="AX66" s="4">
-        <f t="shared" si="106"/>
-        <v>5589.5544563122639</v>
+        <f t="shared" si="107"/>
+        <v>5679.5722747462432</v>
       </c>
       <c r="AY66" s="4">
-        <f t="shared" si="106"/>
-        <v>8018.1401084547842</v>
+        <f t="shared" si="107"/>
+        <v>8142.1646033673551</v>
       </c>
       <c r="AZ66" s="4">
-        <f t="shared" si="106"/>
-        <v>10773.897785553241</v>
+        <f t="shared" si="107"/>
+        <v>10936.460908153842</v>
       </c>
       <c r="BA66" s="4">
-        <f t="shared" si="106"/>
-        <v>13676.520635478972</v>
+        <f t="shared" si="107"/>
+        <v>13879.825654343185</v>
       </c>
       <c r="BB66" s="4">
-        <f t="shared" ref="BB66:BF66" si="107">+BB65*0.15</f>
-        <v>15789.873250916358</v>
+        <f t="shared" ref="BB66:BF66" si="108">+BB65*0.15</f>
+        <v>16023.786403054879</v>
       </c>
       <c r="BC66" s="4">
-        <f t="shared" si="107"/>
-        <v>18160.52028511454</v>
+        <f t="shared" si="108"/>
+        <v>18428.688990973926</v>
       </c>
       <c r="BD66" s="4">
-        <f t="shared" si="107"/>
-        <v>20816.510245463745</v>
+        <f t="shared" si="108"/>
+        <v>21122.973367150076</v>
       </c>
       <c r="BE66" s="4">
-        <f t="shared" si="107"/>
-        <v>23788.764125180394</v>
+        <f t="shared" si="108"/>
+        <v>24137.991593485884</v>
       </c>
       <c r="BF66" s="4">
-        <f t="shared" si="107"/>
-        <v>27111.358236953249</v>
+        <f t="shared" si="108"/>
+        <v>27508.294546060159</v>
       </c>
     </row>
     <row r="67" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6825,51 +6838,51 @@
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5">
-        <f t="shared" ref="G67:N67" si="108">G65-G66</f>
+        <f t="shared" ref="G67:N67" si="109">G65-G66</f>
         <v>-658</v>
       </c>
       <c r="H67" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>-291</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>143</v>
       </c>
       <c r="J67" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>91</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>16</v>
       </c>
       <c r="L67" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>104</v>
       </c>
       <c r="M67" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>300</v>
       </c>
       <c r="N67" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>270</v>
       </c>
       <c r="O67" s="5">
-        <f t="shared" ref="O67:R67" si="109">O65-O66</f>
+        <f t="shared" ref="O67:R67" si="110">O65-O66</f>
         <v>337</v>
       </c>
       <c r="P67" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>1165</v>
       </c>
       <c r="Q67" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>1669</v>
       </c>
       <c r="R67" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>2321</v>
       </c>
       <c r="S67" s="5">
@@ -6885,40 +6898,40 @@
         <v>3331</v>
       </c>
       <c r="V67" s="5">
-        <f t="shared" ref="V67:AD67" si="110">V65-V66</f>
+        <f t="shared" ref="V67:AD67" si="111">V65-V66</f>
         <v>3468.7999999999984</v>
       </c>
       <c r="W67" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>2513</v>
       </c>
       <c r="X67" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>2703</v>
       </c>
       <c r="Y67" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1853</v>
       </c>
       <c r="Z67" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>2176</v>
       </c>
       <c r="AA67" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1129</v>
       </c>
       <c r="AB67" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>2100</v>
       </c>
       <c r="AC67" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>2222</v>
       </c>
       <c r="AD67" s="5">
-        <f t="shared" si="110"/>
-        <v>1456.2837364785246</v>
+        <f t="shared" si="111"/>
+        <v>1231.0529937441565</v>
       </c>
       <c r="AE67" s="5"/>
       <c r="AF67" s="5"/>
@@ -6929,256 +6942,256 @@
         <v>9245</v>
       </c>
       <c r="AU67" s="4">
-        <f t="shared" ref="AU67" si="111">+AU65-AU66</f>
-        <v>6907.2837364785246</v>
+        <f t="shared" ref="AU67" si="112">+AU65-AU66</f>
+        <v>6682.0529937441561</v>
       </c>
       <c r="AV67" s="4">
-        <f t="shared" ref="AV67:BA67" si="112">+AV65-AV66</f>
-        <v>13862.125738910772</v>
+        <f t="shared" ref="AV67:BA67" si="113">+AV65-AV66</f>
+        <v>14127.779049043165</v>
       </c>
       <c r="AW67" s="4">
-        <f t="shared" si="112"/>
-        <v>23435.987785251677</v>
+        <f t="shared" si="113"/>
+        <v>23838.992468322147</v>
       </c>
       <c r="AX67" s="4">
-        <f t="shared" si="112"/>
-        <v>31674.141919102829</v>
+        <f t="shared" si="113"/>
+        <v>32184.242890228714</v>
       </c>
       <c r="AY67" s="4">
-        <f t="shared" si="112"/>
-        <v>45436.127281243782</v>
+        <f t="shared" si="113"/>
+        <v>46138.932752415014</v>
       </c>
       <c r="AZ67" s="4">
-        <f t="shared" si="112"/>
-        <v>61052.087451468367</v>
+        <f t="shared" si="113"/>
+        <v>61973.278479538443</v>
       </c>
       <c r="BA67" s="4">
-        <f t="shared" si="112"/>
-        <v>77500.283601047515</v>
+        <f t="shared" si="113"/>
+        <v>78652.345374611381</v>
       </c>
       <c r="BB67" s="4">
-        <f t="shared" ref="BB67:BF67" si="113">+BB65-BB66</f>
-        <v>89475.948421859372</v>
+        <f t="shared" ref="BB67:BF67" si="114">+BB65-BB66</f>
+        <v>90801.456283977648</v>
       </c>
       <c r="BC67" s="4">
-        <f t="shared" si="113"/>
-        <v>102909.6149489824</v>
+        <f t="shared" si="114"/>
+        <v>104429.23761551891</v>
       </c>
       <c r="BD67" s="4">
-        <f t="shared" si="113"/>
-        <v>117960.22472429456</v>
+        <f t="shared" si="114"/>
+        <v>119696.84908051712</v>
       </c>
       <c r="BE67" s="4">
-        <f t="shared" si="113"/>
-        <v>134802.99670935556</v>
+        <f t="shared" si="114"/>
+        <v>136781.95236308669</v>
       </c>
       <c r="BF67" s="4">
-        <f t="shared" si="113"/>
-        <v>153631.03000940176</v>
+        <f t="shared" si="114"/>
+        <v>155880.33576100759</v>
       </c>
       <c r="BG67" s="4">
-        <f t="shared" ref="BG67:CL67" si="114">BF67*(1+$BH$78)</f>
-        <v>152094.71970930774</v>
+        <f t="shared" ref="BG67:CL67" si="115">BF67*(1+$BH$78)</f>
+        <v>154321.53240339752</v>
       </c>
       <c r="BH67" s="4">
-        <f t="shared" si="114"/>
-        <v>150573.77251221467</v>
+        <f t="shared" si="115"/>
+        <v>152778.31707936354</v>
       </c>
       <c r="BI67" s="4">
-        <f t="shared" si="114"/>
-        <v>149068.0347870925</v>
+        <f t="shared" si="115"/>
+        <v>151250.53390856989</v>
       </c>
       <c r="BJ67" s="4">
-        <f t="shared" si="114"/>
-        <v>147577.35443922158</v>
+        <f t="shared" si="115"/>
+        <v>149738.02856948419</v>
       </c>
       <c r="BK67" s="4">
-        <f t="shared" si="114"/>
-        <v>146101.58089482936</v>
+        <f t="shared" si="115"/>
+        <v>148240.64828378934</v>
       </c>
       <c r="BL67" s="4">
-        <f t="shared" si="114"/>
-        <v>144640.56508588107</v>
+        <f t="shared" si="115"/>
+        <v>146758.24180095145</v>
       </c>
       <c r="BM67" s="4">
-        <f t="shared" si="114"/>
-        <v>143194.15943502224</v>
+        <f t="shared" si="115"/>
+        <v>145290.65938294193</v>
       </c>
       <c r="BN67" s="4">
-        <f t="shared" si="114"/>
-        <v>141762.21784067203</v>
+        <f t="shared" si="115"/>
+        <v>143837.75278911251</v>
       </c>
       <c r="BO67" s="4">
-        <f t="shared" si="114"/>
-        <v>140344.59566226532</v>
+        <f t="shared" si="115"/>
+        <v>142399.37526122137</v>
       </c>
       <c r="BP67" s="4">
-        <f t="shared" si="114"/>
-        <v>138941.14970564266</v>
+        <f t="shared" si="115"/>
+        <v>140975.38150860916</v>
       </c>
       <c r="BQ67" s="4">
-        <f t="shared" si="114"/>
-        <v>137551.73820858623</v>
+        <f t="shared" si="115"/>
+        <v>139565.62769352307</v>
       </c>
       <c r="BR67" s="4">
-        <f t="shared" si="114"/>
-        <v>136176.22082650036</v>
+        <f t="shared" si="115"/>
+        <v>138169.97141658782</v>
       </c>
       <c r="BS67" s="4">
-        <f t="shared" si="114"/>
-        <v>134814.45861823537</v>
+        <f t="shared" si="115"/>
+        <v>136788.27170242195</v>
       </c>
       <c r="BT67" s="4">
-        <f t="shared" si="114"/>
-        <v>133466.31403205302</v>
+        <f t="shared" si="115"/>
+        <v>135420.38898539773</v>
       </c>
       <c r="BU67" s="4">
-        <f t="shared" si="114"/>
-        <v>132131.65089173248</v>
+        <f t="shared" si="115"/>
+        <v>134066.18509554374</v>
       </c>
       <c r="BV67" s="4">
-        <f t="shared" si="114"/>
-        <v>130810.33438281516</v>
+        <f t="shared" si="115"/>
+        <v>132725.52324458832</v>
       </c>
       <c r="BW67" s="4">
-        <f t="shared" si="114"/>
-        <v>129502.231038987</v>
+        <f t="shared" si="115"/>
+        <v>131398.26801214242</v>
       </c>
       <c r="BX67" s="4">
-        <f t="shared" si="114"/>
-        <v>128207.20872859712</v>
+        <f t="shared" si="115"/>
+        <v>130084.285332021</v>
       </c>
       <c r="BY67" s="4">
-        <f t="shared" si="114"/>
-        <v>126925.13664131115</v>
+        <f t="shared" si="115"/>
+        <v>128783.44247870079</v>
       </c>
       <c r="BZ67" s="4">
-        <f t="shared" si="114"/>
-        <v>125655.88527489804</v>
+        <f t="shared" si="115"/>
+        <v>127495.60805391378</v>
       </c>
       <c r="CA67" s="4">
-        <f t="shared" si="114"/>
-        <v>124399.32642214907</v>
+        <f t="shared" si="115"/>
+        <v>126220.65197337464</v>
       </c>
       <c r="CB67" s="4">
-        <f t="shared" si="114"/>
-        <v>123155.33315792757</v>
+        <f t="shared" si="115"/>
+        <v>124958.44545364089</v>
       </c>
       <c r="CC67" s="4">
-        <f t="shared" si="114"/>
-        <v>121923.7798263483</v>
+        <f t="shared" si="115"/>
+        <v>123708.86099910448</v>
       </c>
       <c r="CD67" s="4">
-        <f t="shared" si="114"/>
-        <v>120704.54202808482</v>
+        <f t="shared" si="115"/>
+        <v>122471.77238911344</v>
       </c>
       <c r="CE67" s="4">
-        <f t="shared" si="114"/>
-        <v>119497.49660780397</v>
+        <f t="shared" si="115"/>
+        <v>121247.0546652223</v>
       </c>
       <c r="CF67" s="4">
-        <f t="shared" si="114"/>
-        <v>118302.52164172594</v>
+        <f t="shared" si="115"/>
+        <v>120034.58411857007</v>
       </c>
       <c r="CG67" s="4">
-        <f t="shared" si="114"/>
-        <v>117119.49642530868</v>
+        <f t="shared" si="115"/>
+        <v>118834.23827738437</v>
       </c>
       <c r="CH67" s="4">
-        <f t="shared" si="114"/>
-        <v>115948.3014610556</v>
+        <f t="shared" si="115"/>
+        <v>117645.89589461053</v>
       </c>
       <c r="CI67" s="4">
-        <f t="shared" si="114"/>
-        <v>114788.81844644505</v>
+        <f t="shared" si="115"/>
+        <v>116469.43693566442</v>
       </c>
       <c r="CJ67" s="4">
-        <f t="shared" si="114"/>
-        <v>113640.9302619806</v>
+        <f t="shared" si="115"/>
+        <v>115304.74256630777</v>
       </c>
       <c r="CK67" s="4">
-        <f t="shared" si="114"/>
-        <v>112504.52095936079</v>
+        <f t="shared" si="115"/>
+        <v>114151.69514064469</v>
       </c>
       <c r="CL67" s="4">
-        <f t="shared" si="114"/>
-        <v>111379.47574976718</v>
+        <f t="shared" si="115"/>
+        <v>113010.17818923824</v>
       </c>
       <c r="CM67" s="4">
-        <f t="shared" ref="CM67:DE67" si="115">CL67*(1+$BH$78)</f>
-        <v>110265.68099226951</v>
+        <f t="shared" ref="CM67:DE67" si="116">CL67*(1+$BH$78)</f>
+        <v>111880.07640734586</v>
       </c>
       <c r="CN67" s="4">
-        <f t="shared" si="115"/>
-        <v>109163.02418234681</v>
+        <f t="shared" si="116"/>
+        <v>110761.2756432724</v>
       </c>
       <c r="CO67" s="4">
-        <f t="shared" si="115"/>
-        <v>108071.39394052334</v>
+        <f t="shared" si="116"/>
+        <v>109653.66288683968</v>
       </c>
       <c r="CP67" s="4">
-        <f t="shared" si="115"/>
-        <v>106990.6800011181</v>
+        <f t="shared" si="116"/>
+        <v>108557.12625797128</v>
       </c>
       <c r="CQ67" s="4">
-        <f t="shared" si="115"/>
-        <v>105920.77320110692</v>
+        <f t="shared" si="116"/>
+        <v>107471.55499539156</v>
       </c>
       <c r="CR67" s="4">
-        <f t="shared" si="115"/>
-        <v>104861.56546909585</v>
+        <f t="shared" si="116"/>
+        <v>106396.83944543764</v>
       </c>
       <c r="CS67" s="4">
-        <f t="shared" si="115"/>
-        <v>103812.94981440488</v>
+        <f t="shared" si="116"/>
+        <v>105332.87105098326</v>
       </c>
       <c r="CT67" s="4">
-        <f t="shared" si="115"/>
-        <v>102774.82031626084</v>
+        <f t="shared" si="116"/>
+        <v>104279.54234047343</v>
       </c>
       <c r="CU67" s="4">
-        <f t="shared" si="115"/>
-        <v>101747.07211309823</v>
+        <f t="shared" si="116"/>
+        <v>103236.7469170687</v>
       </c>
       <c r="CV67" s="4">
-        <f t="shared" si="115"/>
-        <v>100729.60139196724</v>
+        <f t="shared" si="116"/>
+        <v>102204.37944789801</v>
       </c>
       <c r="CW67" s="4">
-        <f t="shared" si="115"/>
-        <v>99722.30537804756</v>
+        <f t="shared" si="116"/>
+        <v>101182.33565341902</v>
       </c>
       <c r="CX67" s="4">
-        <f t="shared" si="115"/>
-        <v>98725.082324267089</v>
+        <f t="shared" si="116"/>
+        <v>100170.51229688483</v>
       </c>
       <c r="CY67" s="4">
-        <f t="shared" si="115"/>
-        <v>97737.831501024411</v>
+        <f t="shared" si="116"/>
+        <v>99168.807173915979</v>
       </c>
       <c r="CZ67" s="4">
-        <f t="shared" si="115"/>
-        <v>96760.453186014172</v>
+        <f t="shared" si="116"/>
+        <v>98177.119102176817</v>
       </c>
       <c r="DA67" s="4">
-        <f t="shared" si="115"/>
-        <v>95792.848654154033</v>
+        <f t="shared" si="116"/>
+        <v>97195.347911155055</v>
       </c>
       <c r="DB67" s="4">
-        <f t="shared" si="115"/>
-        <v>94834.920167612494</v>
+        <f t="shared" si="116"/>
+        <v>96223.394432043497</v>
       </c>
       <c r="DC67" s="4">
-        <f t="shared" si="115"/>
-        <v>93886.570965936364</v>
+        <f t="shared" si="116"/>
+        <v>95261.160487723057</v>
       </c>
       <c r="DD67" s="4">
-        <f t="shared" si="115"/>
-        <v>92947.705256276997</v>
+        <f t="shared" si="116"/>
+        <v>94308.548882845818</v>
       </c>
       <c r="DE67" s="4">
-        <f t="shared" si="115"/>
-        <v>92018.228203714229</v>
+        <f t="shared" si="116"/>
+        <v>93365.463394017366</v>
       </c>
     </row>
     <row r="68" spans="2:109" x14ac:dyDescent="0.25">
@@ -7190,100 +7203,100 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3">
-        <f t="shared" ref="G68:K68" si="116">G67/G69</f>
+        <f t="shared" ref="G68:K68" si="117">G67/G69</f>
         <v>-0.76069364161849706</v>
       </c>
       <c r="H68" s="3">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>-0.32881355932203388</v>
       </c>
       <c r="I68" s="3">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0.15509761388286333</v>
       </c>
       <c r="J68" s="3">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>9.8913043478260868E-2</v>
       </c>
       <c r="K68" s="3">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>1.7112299465240642E-2</v>
       </c>
       <c r="L68" s="3">
-        <f t="shared" ref="L68" si="117">L67/L69</f>
+        <f t="shared" ref="L68" si="118">L67/L69</f>
         <v>0.10048309178743961</v>
       </c>
       <c r="M68" s="3">
-        <f t="shared" ref="M68:O68" si="118">M67/M69</f>
+        <f t="shared" ref="M68:O68" si="119">M67/M69</f>
         <v>0.27149321266968324</v>
       </c>
       <c r="N68" s="3">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0.2402135231316726</v>
       </c>
       <c r="O68" s="3">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0.29744042365401591</v>
       </c>
       <c r="P68" s="3">
-        <f t="shared" ref="P68" si="119">P67/P69</f>
+        <f t="shared" ref="P68" si="120">P67/P69</f>
         <v>1.0411081322609472</v>
       </c>
       <c r="Q68" s="3">
-        <f t="shared" ref="Q68" si="120">Q67/Q69</f>
+        <f t="shared" ref="Q68" si="121">Q67/Q69</f>
         <v>1.4861976847729297</v>
       </c>
       <c r="R68" s="3">
-        <f t="shared" ref="R68" si="121">R67/R69</f>
+        <f t="shared" ref="R68" si="122">R67/R69</f>
         <v>2.044933920704846</v>
       </c>
       <c r="S68" s="3">
-        <f t="shared" ref="S68:U68" si="122">S67/S69</f>
+        <f t="shared" ref="S68:U68" si="123">S67/S69</f>
         <v>2.867761452031115</v>
       </c>
       <c r="T68" s="3">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>2.032900432900433</v>
       </c>
       <c r="U68" s="3">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0.96049596309111884</v>
       </c>
       <c r="V68" s="3">
-        <f t="shared" ref="V68:AD68" si="123">V67/V69</f>
+        <f t="shared" ref="V68:AD68" si="124">V67/V69</f>
         <v>0.99936617689426632</v>
       </c>
       <c r="W68" s="3">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.7246251441753172</v>
       </c>
       <c r="X68" s="3">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.77717078780908566</v>
       </c>
       <c r="Y68" s="3">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.53048955052963065</v>
       </c>
       <c r="Z68" s="3">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.62313860252004583</v>
       </c>
       <c r="AA68" s="3">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.32405281285878301</v>
       </c>
       <c r="AB68" s="3">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.60327492099971269</v>
       </c>
       <c r="AC68" s="3">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.63540177294824129</v>
       </c>
       <c r="AD68" s="3">
-        <f t="shared" si="123"/>
-        <v>0.41643801443480827</v>
+        <f t="shared" si="124"/>
+        <v>0.35203116778500332</v>
       </c>
       <c r="AE68" s="3"/>
       <c r="AF68" s="3"/>
@@ -7294,52 +7307,52 @@
         <v>2.6545115210681214</v>
       </c>
       <c r="AU68" s="20">
-        <f t="shared" ref="AU68:BA68" si="124">+AU67/AU69</f>
-        <v>1.979306178516663</v>
+        <f t="shared" ref="AU68:BA68" si="125">+AU67/AU69</f>
+        <v>1.9147655258239575</v>
       </c>
       <c r="AV68" s="20">
-        <f t="shared" si="124"/>
-        <v>3.9722403435520515</v>
+        <f t="shared" si="125"/>
+        <v>4.0483642235240822</v>
       </c>
       <c r="AW68" s="20">
-        <f t="shared" si="124"/>
-        <v>6.7156638112333766</v>
+        <f t="shared" si="125"/>
+        <v>6.8311462048347726</v>
       </c>
       <c r="AX68" s="20">
-        <f t="shared" si="124"/>
-        <v>9.0763355309414226</v>
+        <f t="shared" si="125"/>
+        <v>9.2225067383705746</v>
       </c>
       <c r="AY68" s="20">
-        <f t="shared" si="124"/>
-        <v>13.019880301237562</v>
+        <f t="shared" si="125"/>
+        <v>13.221271653389215</v>
       </c>
       <c r="AZ68" s="20">
-        <f t="shared" si="124"/>
-        <v>17.494688000993872</v>
+        <f t="shared" si="125"/>
+        <v>17.758658494029213</v>
       </c>
       <c r="BA68" s="20">
-        <f t="shared" si="124"/>
-        <v>22.207975815186622</v>
+        <f t="shared" si="125"/>
+        <v>22.538103123321552</v>
       </c>
       <c r="BB68" s="20">
-        <f t="shared" ref="BB68:BF68" si="125">+BB67/BB69</f>
-        <v>25.639644221465542</v>
+        <f t="shared" ref="BB68:BF68" si="126">+BB67/BB69</f>
+        <v>26.019473109528661</v>
       </c>
       <c r="BC68" s="20">
-        <f t="shared" si="125"/>
-        <v>29.489108087680322</v>
+        <f t="shared" si="126"/>
+        <v>29.924561248089091</v>
       </c>
       <c r="BD68" s="20">
-        <f t="shared" si="125"/>
-        <v>33.801912665461586</v>
+        <f t="shared" si="126"/>
+        <v>34.299548414791062</v>
       </c>
       <c r="BE68" s="20">
-        <f t="shared" si="125"/>
-        <v>38.628267557663314</v>
+        <f t="shared" si="126"/>
+        <v>39.195344183132512</v>
       </c>
       <c r="BF68" s="20">
-        <f t="shared" si="125"/>
-        <v>44.023505984497959</v>
+        <f t="shared" si="126"/>
+        <v>44.668052370802378</v>
       </c>
     </row>
     <row r="69" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7441,47 +7454,47 @@
         <v>3489.75</v>
       </c>
       <c r="AV69" s="4">
-        <f t="shared" ref="AV69:AY69" si="126">AU69</f>
+        <f t="shared" ref="AV69:AY69" si="127">AU69</f>
         <v>3489.75</v>
       </c>
       <c r="AW69" s="4">
-        <f t="shared" si="126"/>
-        <v>3489.75</v>
-      </c>
-      <c r="AX69" s="4">
-        <f t="shared" si="126"/>
-        <v>3489.75</v>
-      </c>
-      <c r="AY69" s="4">
-        <f t="shared" si="126"/>
-        <v>3489.75</v>
-      </c>
-      <c r="AZ69" s="4">
-        <f t="shared" ref="AZ69:BA69" si="127">AY69</f>
-        <v>3489.75</v>
-      </c>
-      <c r="BA69" s="4">
         <f t="shared" si="127"/>
         <v>3489.75</v>
       </c>
+      <c r="AX69" s="4">
+        <f t="shared" si="127"/>
+        <v>3489.75</v>
+      </c>
+      <c r="AY69" s="4">
+        <f t="shared" si="127"/>
+        <v>3489.75</v>
+      </c>
+      <c r="AZ69" s="4">
+        <f t="shared" ref="AZ69:BA69" si="128">AY69</f>
+        <v>3489.75</v>
+      </c>
+      <c r="BA69" s="4">
+        <f t="shared" si="128"/>
+        <v>3489.75</v>
+      </c>
       <c r="BB69" s="4">
-        <f t="shared" ref="BB69" si="128">BA69</f>
+        <f t="shared" ref="BB69" si="129">BA69</f>
         <v>3489.75</v>
       </c>
       <c r="BC69" s="4">
-        <f t="shared" ref="BC69" si="129">BB69</f>
+        <f t="shared" ref="BC69" si="130">BB69</f>
         <v>3489.75</v>
       </c>
       <c r="BD69" s="4">
-        <f t="shared" ref="BD69" si="130">BC69</f>
+        <f t="shared" ref="BD69" si="131">BC69</f>
         <v>3489.75</v>
       </c>
       <c r="BE69" s="4">
-        <f t="shared" ref="BE69" si="131">BD69</f>
+        <f t="shared" ref="BE69" si="132">BD69</f>
         <v>3489.75</v>
       </c>
       <c r="BF69" s="4">
-        <f t="shared" ref="BF69" si="132">BE69</f>
+        <f t="shared" ref="BF69" si="133">BE69</f>
         <v>3489.75</v>
       </c>
     </row>
@@ -7502,35 +7515,35 @@
         <v>0.31799163179916312</v>
       </c>
       <c r="L71" s="22">
-        <f t="shared" ref="L71" si="133">L51/H51-1</f>
+        <f t="shared" ref="L71" si="134">L51/H51-1</f>
         <v>-4.9448818897637747E-2</v>
       </c>
       <c r="M71" s="22">
-        <f t="shared" ref="M71" si="134">M51/I51-1</f>
+        <f t="shared" ref="M71" si="135">M51/I51-1</f>
         <v>0.39155957480564818</v>
       </c>
       <c r="N71" s="22">
-        <f t="shared" ref="N71" si="135">N51/J51-1</f>
+        <f t="shared" ref="N71" si="136">N51/J51-1</f>
         <v>0.45503791982665232</v>
       </c>
       <c r="O71" s="22">
-        <f t="shared" ref="O71" si="136">O51/K51-1</f>
+        <f t="shared" ref="O71" si="137">O51/K51-1</f>
         <v>0.73583959899749374</v>
       </c>
       <c r="P71" s="22">
-        <f t="shared" ref="P71:Q71" si="137">P51/L51-1</f>
+        <f t="shared" ref="P71:Q71" si="138">P51/L51-1</f>
         <v>0.98111332007952279</v>
       </c>
       <c r="Q71" s="22">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0.56846425721126437</v>
       </c>
       <c r="R71" s="22">
-        <f t="shared" ref="R71:S71" si="138">R51/N51-1</f>
+        <f t="shared" ref="R71:S71" si="139">R51/N51-1</f>
         <v>0.64919955323901712</v>
       </c>
       <c r="S71" s="22">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>0.80537106555010096</v>
       </c>
       <c r="T71" s="22">
@@ -7546,15 +7559,15 @@
         <v>0.39999999999999991</v>
       </c>
       <c r="W71" s="22">
-        <f t="shared" ref="W71:AD71" si="139">W51/S51-1</f>
+        <f t="shared" ref="W71:AE71" si="140">W51/S51-1</f>
         <v>0.24381531243335464</v>
       </c>
       <c r="X71" s="22">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0.47200897602456604</v>
       </c>
       <c r="Y71" s="22">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>8.8375128181224838E-2</v>
       </c>
       <c r="Z71" s="22">
@@ -7566,31 +7579,34 @@
         <v>-8.6930429936988296E-2</v>
       </c>
       <c r="AB71" s="22">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>2.2987122397400306E-2</v>
       </c>
       <c r="AC71" s="22">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>7.8458244111349051E-2</v>
       </c>
       <c r="AD71" s="22">
-        <f t="shared" si="139"/>
-        <v>0.13521798932415607</v>
-      </c>
-      <c r="AE71" s="22"/>
+        <f t="shared" si="140"/>
+        <v>6.0639260984674648E-2</v>
+      </c>
+      <c r="AE71" s="22">
+        <f t="shared" si="140"/>
+        <v>-1</v>
+      </c>
       <c r="AF71" s="22"/>
       <c r="AG71" s="22"/>
       <c r="AH71" s="22"/>
       <c r="AK71" s="25">
-        <f t="shared" ref="AK71:AM71" si="140">AK51/AJ51-1</f>
+        <f t="shared" ref="AK71:AM71" si="141">AK51/AJ51-1</f>
         <v>0.58845907814070664</v>
       </c>
       <c r="AL71" s="25">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>0.26503272306147285</v>
       </c>
       <c r="AM71" s="25">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>0.73012574069611524</v>
       </c>
       <c r="AN71" s="25">
@@ -7622,52 +7638,52 @@
         <v>0.18086993871917945</v>
       </c>
       <c r="AU71" s="25">
-        <f t="shared" ref="AU71:AY71" si="141">+AU51/AT51-1</f>
-        <v>4.4816119551124967E-2</v>
+        <f t="shared" ref="AU71:AY71" si="142">+AU51/AT51-1</f>
+        <v>2.5004549215187133E-2</v>
       </c>
       <c r="AV71" s="25">
-        <f t="shared" si="141"/>
-        <v>1.6476131104732339E-3</v>
+        <f t="shared" si="142"/>
+        <v>3.420802441696269E-2</v>
       </c>
       <c r="AW71" s="25">
-        <f t="shared" si="141"/>
-        <v>0.29881193875757206</v>
+        <f t="shared" si="142"/>
+        <v>0.29877654395376263</v>
       </c>
       <c r="AX71" s="25">
-        <f t="shared" si="141"/>
-        <v>0.24520722195945899</v>
+        <f t="shared" si="142"/>
+        <v>0.24518721703975355</v>
       </c>
       <c r="AY71" s="25">
-        <f t="shared" si="141"/>
-        <v>0.24428699114003871</v>
+        <f t="shared" si="142"/>
+        <v>0.24427200040164521</v>
       </c>
       <c r="AZ71" s="25">
-        <f t="shared" ref="AZ71:BA71" si="142">+AZ51/AY51-1</f>
-        <v>0.19142525099251895</v>
+        <f t="shared" ref="AZ71:BA71" si="143">+AZ51/AY51-1</f>
+        <v>0.19141775632795843</v>
       </c>
       <c r="BA71" s="25">
-        <f t="shared" si="142"/>
-        <v>0.13884317350591191</v>
+        <f t="shared" si="143"/>
+        <v>0.13884046602140865</v>
       </c>
       <c r="BB71" s="25">
-        <f t="shared" ref="BB71" si="143">+BB51/BA51-1</f>
-        <v>8.172814722018984E-2</v>
+        <f t="shared" ref="BB71" si="144">+BB51/BA51-1</f>
+        <v>8.1723514432797684E-2</v>
       </c>
       <c r="BC71" s="25">
-        <f t="shared" ref="BC71" si="144">+BC51/BB51-1</f>
-        <v>8.1659299215460557E-2</v>
+        <f t="shared" ref="BC71" si="145">+BC51/BB51-1</f>
+        <v>8.1654960768451801E-2</v>
       </c>
       <c r="BD71" s="25">
-        <f t="shared" ref="BD71" si="145">+BD51/BC51-1</f>
-        <v>8.1595055977058184E-2</v>
+        <f t="shared" ref="BD71" si="146">+BD51/BC51-1</f>
+        <v>8.1590988192240976E-2</v>
       </c>
       <c r="BE71" s="25">
-        <f t="shared" ref="BE71" si="146">+BE51/BD51-1</f>
-        <v>8.1535138239181126E-2</v>
+        <f t="shared" ref="BE71" si="147">+BE51/BD51-1</f>
+        <v>8.153131942013192E-2</v>
       </c>
       <c r="BF71" s="25">
-        <f t="shared" ref="BF71" si="147">+BF51/BE51-1</f>
-        <v>8.1479285298789561E-2</v>
+        <f t="shared" ref="BF71" si="148">+BF51/BE51-1</f>
+        <v>8.1475695561203043E-2</v>
       </c>
     </row>
     <row r="72" spans="2:109" x14ac:dyDescent="0.25">
@@ -7675,67 +7691,67 @@
         <v>92</v>
       </c>
       <c r="K72" s="17">
-        <f t="shared" ref="K72:Z72" si="148">+K37/G37-1</f>
+        <f t="shared" ref="K72:Z72" si="149">+K37/G37-1</f>
         <v>0.40427490122026688</v>
       </c>
       <c r="L72" s="17">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>-4.9351902344897058E-2</v>
       </c>
       <c r="M72" s="17">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.43333401930319182</v>
       </c>
       <c r="N72" s="17">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.61086578348722065</v>
       </c>
       <c r="O72" s="17">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>1.088229976496113</v>
       </c>
       <c r="P72" s="17">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>1.2200772200772199</v>
       </c>
       <c r="Q72" s="17">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.73223259152907394</v>
       </c>
       <c r="R72" s="17">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.70903250816857732</v>
       </c>
       <c r="S72" s="17">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.67774891774891777</v>
       </c>
       <c r="T72" s="17">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.26556521739130434</v>
       </c>
       <c r="U72" s="17">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.42490675507666809</v>
       </c>
       <c r="V72" s="17">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.31327932598833441</v>
       </c>
       <c r="W72" s="17">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.36390171844359576</v>
       </c>
       <c r="X72" s="17">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.83018904964761764</v>
       </c>
       <c r="Y72" s="17">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.26533170462146982</v>
       </c>
       <c r="Z72" s="17">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.19549297025745282</v>
       </c>
       <c r="AA72" s="17">
@@ -7752,74 +7768,77 @@
       </c>
       <c r="AD72" s="17">
         <f>+AD37/Z37-1</f>
-        <v>0.10948139036174909</v>
-      </c>
-      <c r="AE72" s="17"/>
+        <v>2.2833519433155702E-2</v>
+      </c>
+      <c r="AE72" s="17">
+        <f t="shared" ref="AE72" si="150">+AE37/AA37-1</f>
+        <v>-0.12959592564825106</v>
+      </c>
       <c r="AF72" s="17"/>
       <c r="AG72" s="17"/>
       <c r="AH72" s="17"/>
       <c r="AQ72" s="26">
-        <f t="shared" ref="AQ72:BA72" si="149">+AQ37/AP37-1</f>
+        <f t="shared" ref="AQ72:BA72" si="151">+AQ37/AP37-1</f>
         <v>0.35729051069477991</v>
       </c>
       <c r="AR72" s="26">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>0.87559116340959009</v>
       </c>
       <c r="AS72" s="26">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>0.403761953095785</v>
       </c>
       <c r="AT72" s="26">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>0.37654954785588313</v>
       </c>
       <c r="AU72" s="26">
-        <f t="shared" si="149"/>
-        <v>1.2510636792048668E-2</v>
+        <f t="shared" si="151"/>
+        <v>-1.0701760109168457E-2</v>
       </c>
       <c r="AV72" s="26">
-        <f t="shared" si="149"/>
-        <v>0.24164683685491672</v>
+        <f t="shared" si="151"/>
+        <v>0.28853252747277303</v>
       </c>
       <c r="AW72" s="26">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>0.25</v>
       </c>
       <c r="AX72" s="26">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AY72" s="26">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AZ72" s="26">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="BA72" s="26">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BB72" s="26">
-        <f t="shared" ref="BB72:BF72" si="150">+BB37/BA37-1</f>
+        <f t="shared" ref="BB72:BF72" si="152">+BB37/BA37-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BC72" s="26">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BD72" s="26">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BE72" s="26">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BF72" s="26">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -7828,151 +7847,154 @@
         <v>93</v>
       </c>
       <c r="K73" s="17">
-        <f t="shared" ref="K73:AD73" si="151">+K42/G42-1</f>
+        <f t="shared" ref="K73:AD73" si="153">+K42/G42-1</f>
         <v>0.33101713811610356</v>
       </c>
       <c r="L73" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>-5.4866280672732248E-2</v>
       </c>
       <c r="M73" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>0.50835629972440333</v>
       </c>
       <c r="N73" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>0.71375046476818782</v>
       </c>
       <c r="O73" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>0.75644771700171409</v>
       </c>
       <c r="P73" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>1.5090067094515751</v>
       </c>
       <c r="Q73" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>0.63975150996993846</v>
       </c>
       <c r="R73" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>0.7014080119272128</v>
       </c>
       <c r="S73" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>0.69352549102241356</v>
       </c>
       <c r="T73" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>0.25268262434539124</v>
       </c>
       <c r="U73" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>0.53863587626091669</v>
       </c>
       <c r="V73" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>0.43768310227569973</v>
       </c>
       <c r="W73" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>0.44334609226376598</v>
       </c>
       <c r="X73" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>0.85513187408152214</v>
       </c>
       <c r="Y73" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>0.17644422460462983</v>
       </c>
       <c r="Z73" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>0.12573999149421988</v>
       </c>
       <c r="AA73" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>-1.687129090216144E-2</v>
       </c>
       <c r="AB73" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>-0.14356681259120285</v>
       </c>
       <c r="AC73" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>9.1310326884837645E-2</v>
       </c>
       <c r="AD73" s="17">
-        <f t="shared" si="151"/>
-        <v>0</v>
-      </c>
-      <c r="AE73" s="17"/>
+        <f t="shared" si="153"/>
+        <v>-7.1807656331756897E-2</v>
+      </c>
+      <c r="AE73" s="17">
+        <f t="shared" ref="AE73" si="154">+AE42/AA42-1</f>
+        <v>-0.16326888508921922</v>
+      </c>
       <c r="AF73" s="17"/>
       <c r="AG73" s="17"/>
       <c r="AH73" s="17"/>
       <c r="AQ73" s="26">
-        <f t="shared" ref="AQ73:BA73" si="152">+AQ42/AP42-1</f>
+        <f t="shared" ref="AQ73:BA73" si="155">+AQ42/AP42-1</f>
         <v>0.39565262627590125</v>
       </c>
       <c r="AR73" s="26">
-        <f t="shared" si="152"/>
+        <f t="shared" si="155"/>
         <v>0.8252981439448186</v>
       </c>
       <c r="AS73" s="26">
-        <f t="shared" si="152"/>
+        <f t="shared" si="155"/>
         <v>0.47203204567389845</v>
       </c>
       <c r="AT73" s="26">
-        <f t="shared" si="152"/>
+        <f t="shared" si="155"/>
         <v>0.34781700789494252</v>
       </c>
       <c r="AU73" s="26">
-        <f t="shared" si="152"/>
-        <v>-5.2532929574183984E-2</v>
+        <f t="shared" si="155"/>
+        <v>-3.9297177387681903E-2</v>
       </c>
       <c r="AV73" s="26">
-        <f t="shared" si="152"/>
+        <f t="shared" si="155"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AW73" s="26">
-        <f t="shared" si="152"/>
+        <f t="shared" si="155"/>
         <v>0.25</v>
       </c>
       <c r="AX73" s="26">
-        <f t="shared" si="152"/>
+        <f t="shared" si="155"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AY73" s="26">
-        <f t="shared" si="152"/>
+        <f t="shared" si="155"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AZ73" s="26">
-        <f t="shared" si="152"/>
+        <f t="shared" si="155"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="BA73" s="26">
-        <f t="shared" si="152"/>
+        <f t="shared" si="155"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BB73" s="26">
-        <f t="shared" ref="BB73:BF73" si="153">+BB42/BA42-1</f>
+        <f t="shared" ref="BB73:BF73" si="156">+BB42/BA42-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BC73" s="26">
-        <f t="shared" si="153"/>
+        <f t="shared" si="156"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BD73" s="26">
-        <f t="shared" si="153"/>
+        <f t="shared" si="156"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BE73" s="26">
-        <f t="shared" si="153"/>
+        <f t="shared" si="156"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BF73" s="26">
-        <f t="shared" si="153"/>
+        <f t="shared" si="156"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -7981,23 +8003,23 @@
         <v>91</v>
       </c>
       <c r="K74" s="17">
-        <f t="shared" ref="K74:O74" si="154">K45/G45-1</f>
+        <f t="shared" ref="K74:O74" si="157">K45/G45-1</f>
         <v>0.39441436306640076</v>
       </c>
       <c r="L74" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="157"/>
         <v>-4.9729102167182626E-2</v>
       </c>
       <c r="M74" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="157"/>
         <v>0.43141075604053003</v>
       </c>
       <c r="N74" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="157"/>
         <v>0.4053394107113788</v>
       </c>
       <c r="O74" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="157"/>
         <v>0.67320662170447587</v>
       </c>
       <c r="P74" s="17">
@@ -8005,7 +8027,7 @@
         <v>0.9385053960496843</v>
       </c>
       <c r="Q74" s="17">
-        <f t="shared" ref="Q74" si="155">Q45/M45-1</f>
+        <f t="shared" ref="Q74" si="158">Q45/M45-1</f>
         <v>0.55091206098557044</v>
       </c>
       <c r="R74" s="17">
@@ -8013,19 +8035,19 @@
         <v>0.74041468782578468</v>
       </c>
       <c r="S74" s="17">
-        <f t="shared" ref="S74:U74" si="156">S45/O45-1</f>
+        <f t="shared" ref="S74:U74" si="159">S45/O45-1</f>
         <v>0.89495541712470983</v>
       </c>
       <c r="T74" s="17">
-        <f t="shared" si="156"/>
+        <f t="shared" si="159"/>
         <v>0.43592436974789917</v>
       </c>
       <c r="U74" s="17">
-        <f t="shared" si="156"/>
+        <f t="shared" si="159"/>
         <v>0.561046256473273</v>
       </c>
       <c r="V74" s="17">
-        <f t="shared" ref="V74" si="157">V45/R45-1</f>
+        <f t="shared" ref="V74" si="160">V45/R45-1</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="W74" s="17">
@@ -8033,19 +8055,19 @@
         <v>0.21683640582699493</v>
       </c>
       <c r="X74" s="17">
-        <f t="shared" ref="X74" si="158">X45/T45-1</f>
+        <f t="shared" ref="X74" si="161">X45/T45-1</f>
         <v>0.49370885149963417</v>
       </c>
       <c r="Y74" s="17">
-        <f t="shared" ref="Y74" si="159">Y45/U45-1</f>
+        <f t="shared" ref="Y74" si="162">Y45/U45-1</f>
         <v>4.4813044700590332E-2</v>
       </c>
       <c r="Z74" s="17">
-        <f t="shared" ref="Z74:AD74" si="160">Z45/V45-1</f>
+        <f t="shared" ref="Z74:AD74" si="163">Z45/V45-1</f>
         <v>-1.9253624910862799E-2</v>
       </c>
       <c r="AA74" s="17">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>-0.12808560228837795</v>
       </c>
       <c r="AB74" s="17">
@@ -8053,12 +8075,12 @@
         <v>-9.2511876193741127E-2</v>
       </c>
       <c r="AC74" s="17">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>1.3400064578624526E-2</v>
       </c>
       <c r="AD74" s="17">
-        <f t="shared" si="160"/>
-        <v>0.16495545987983684</v>
+        <f t="shared" si="163"/>
+        <v>7.3975195404813565E-2</v>
       </c>
       <c r="AE74" s="17"/>
       <c r="AF74" s="17"/>
@@ -8074,67 +8096,67 @@
       <c r="E75" s="17"/>
       <c r="F75" s="17"/>
       <c r="G75" s="17">
-        <f t="shared" ref="G75:K75" si="161">G53/G45</f>
+        <f t="shared" ref="G75:K75" si="164">G53/G45</f>
         <v>0.18609290396124251</v>
       </c>
       <c r="H75" s="17">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.17685758513931887</v>
       </c>
       <c r="I75" s="17">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.21784879189399844</v>
       </c>
       <c r="J75" s="17">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.21618101904606871</v>
       </c>
       <c r="K75" s="17">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.2440220723482526</v>
       </c>
       <c r="L75" s="17">
-        <f t="shared" ref="L75" si="162">L53/L45</f>
+        <f t="shared" ref="L75" si="165">L53/L45</f>
         <v>0.24373854612095297</v>
       </c>
       <c r="M75" s="17">
-        <f t="shared" ref="M75" si="163">M53/M45</f>
+        <f t="shared" ref="M75" si="166">M53/M45</f>
         <v>0.27021508303838826</v>
       </c>
       <c r="N75" s="17">
-        <f t="shared" ref="N75:U75" si="164">N53/N45</f>
+        <f t="shared" ref="N75:U75" si="167">N53/N45</f>
         <v>0.19819298042395458</v>
       </c>
       <c r="O75" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0.21131061438866497</v>
       </c>
       <c r="P75" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0.25220588235294117</v>
       </c>
       <c r="Q75" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0.28464846835776353</v>
       </c>
       <c r="R75" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0.28858569051580701</v>
       </c>
       <c r="S75" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0.29650638133298957</v>
       </c>
       <c r="T75" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0.25727871250914414</v>
       </c>
       <c r="U75" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0.26348046106269329</v>
       </c>
       <c r="V75" s="17">
-        <f t="shared" ref="V75:AD75" si="165">V53/V45</f>
+        <f t="shared" ref="V75:AD75" si="168">V53/V45</f>
         <v>0.26631804135963871</v>
       </c>
       <c r="W75" s="17">
@@ -8142,56 +8164,56 @@
         <v>0.1830702404915775</v>
       </c>
       <c r="X75" s="17">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0.17522895342573094</v>
       </c>
       <c r="Y75" s="17">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0.15746421267893659</v>
       </c>
       <c r="Z75" s="17">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0.16616577799321378</v>
       </c>
       <c r="AA75" s="17">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0.15571081409477522</v>
       </c>
       <c r="AB75" s="17">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0.13858607663248787</v>
       </c>
       <c r="AC75" s="17">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0.16398491848547608</v>
       </c>
       <c r="AD75" s="17">
-        <f t="shared" si="165"/>
-        <v>0.15000000000000002</v>
+        <f t="shared" si="168"/>
+        <v>0.15</v>
       </c>
       <c r="AE75" s="17"/>
       <c r="AF75" s="17"/>
       <c r="AG75" s="17"/>
       <c r="AH75" s="17"/>
       <c r="AQ75" s="17">
-        <f t="shared" ref="AQ75:AU75" si="166">AQ53/AQ45</f>
+        <f t="shared" ref="AQ75:AU75" si="169">AQ53/AQ45</f>
         <v>0</v>
       </c>
       <c r="AR75" s="17">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.38841926345609062</v>
       </c>
       <c r="AS75" s="17">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.27064584436209632</v>
       </c>
       <c r="AT75" s="17">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.17052821969455731</v>
       </c>
       <c r="AU75" s="17">
-        <f t="shared" si="166"/>
-        <v>0.15187337762565881</v>
+        <f t="shared" si="169"/>
+        <v>0.15191965716120953</v>
       </c>
       <c r="AV75" s="17"/>
       <c r="AW75" s="17"/>
@@ -8206,31 +8228,31 @@
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
       <c r="G76" s="17">
-        <f t="shared" ref="G76:K76" si="167">+G59/G51</f>
+        <f t="shared" ref="G76:K76" si="170">+G59/G51</f>
         <v>0.1246421493063202</v>
       </c>
       <c r="H76" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.14503937007874015</v>
       </c>
       <c r="I76" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.18895763921941933</v>
       </c>
       <c r="J76" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.18838028169014084</v>
       </c>
       <c r="K76" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.20618212197159566</v>
       </c>
       <c r="L76" s="17">
-        <f t="shared" ref="L76" si="168">+L59/L51</f>
+        <f t="shared" ref="L76" si="171">+L59/L51</f>
         <v>0.20990722332670642</v>
       </c>
       <c r="M76" s="17">
-        <f t="shared" ref="M76" si="169">+M59/M51</f>
+        <f t="shared" ref="M76" si="172">+M59/M51</f>
         <v>0.23520693193478509</v>
       </c>
       <c r="N76" s="17">
@@ -8238,136 +8260,136 @@
         <v>0.19229337304542071</v>
       </c>
       <c r="O76" s="17">
-        <f t="shared" ref="O76:AD76" si="170">+O59/O51</f>
+        <f t="shared" ref="O76:AD76" si="173">+O59/O51</f>
         <v>0.21320627586870727</v>
       </c>
       <c r="P76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>0.24117745442381669</v>
       </c>
       <c r="Q76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>0.26604637639020134</v>
       </c>
       <c r="R76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>0.27354816863254133</v>
       </c>
       <c r="S76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>0.29110684580934099</v>
       </c>
       <c r="T76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>0.24997047360340144</v>
       </c>
       <c r="U76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>0.25086231005873033</v>
       </c>
       <c r="V76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>0.25257794296679104</v>
       </c>
       <c r="W76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>0.19336448197522396</v>
       </c>
       <c r="X76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>0.18185100493440848</v>
       </c>
       <c r="Y76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>0.17892933618843684</v>
       </c>
       <c r="Z76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>0.17634203520483172</v>
       </c>
       <c r="AA76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>0.1735129806112389</v>
       </c>
       <c r="AB76" s="41">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>0.17952941176470588</v>
       </c>
       <c r="AC76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>0.19843539035819235</v>
       </c>
       <c r="AD76" s="17">
-        <f t="shared" si="170"/>
-        <v>0.15511900037130005</v>
+        <f t="shared" si="173"/>
+        <v>0.15547894229698972</v>
       </c>
       <c r="AE76" s="17"/>
       <c r="AF76" s="17"/>
       <c r="AG76" s="17"/>
       <c r="AH76" s="17"/>
       <c r="AQ76" s="17">
-        <f t="shared" ref="AQ76:BF76" si="171">+AQ59/AQ51</f>
+        <f t="shared" ref="AQ76:BF76" si="174">+AQ59/AQ51</f>
         <v>0</v>
       </c>
       <c r="AR76" s="17">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
       <c r="AS76" s="17">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>0.25</v>
       </c>
       <c r="AT76" s="17">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>0.18248891736331416</v>
       </c>
       <c r="AU76" s="17">
-        <f t="shared" si="171"/>
-        <v>0.17508412978320537</v>
+        <f t="shared" si="174"/>
+        <v>0.17562990808672421</v>
       </c>
       <c r="AV76" s="17">
-        <f t="shared" si="171"/>
-        <v>0.23038051578485555</v>
+        <f t="shared" si="174"/>
+        <v>0.23070611869984675</v>
       </c>
       <c r="AW76" s="17">
-        <f t="shared" si="171"/>
-        <v>0.25553852455918297</v>
+        <f t="shared" si="174"/>
+        <v>0.25581196645165755</v>
       </c>
       <c r="AX76" s="17">
-        <f t="shared" si="171"/>
-        <v>0.25264653437055068</v>
+        <f t="shared" si="174"/>
+        <v>0.2527826268069589</v>
       </c>
       <c r="AY76" s="17">
-        <f t="shared" si="171"/>
-        <v>0.269089139377304</v>
+        <f t="shared" si="174"/>
+        <v>0.26921275020196284</v>
       </c>
       <c r="AZ76" s="17">
-        <f t="shared" si="171"/>
-        <v>0.28467450772979297</v>
+        <f t="shared" si="174"/>
+        <v>0.28479139131404202</v>
       </c>
       <c r="BA76" s="17">
-        <f t="shared" si="171"/>
-        <v>0.29957608920810236</v>
+        <f t="shared" si="174"/>
+        <v>0.29969011382069577</v>
       </c>
       <c r="BB76" s="17">
-        <f t="shared" si="171"/>
-        <v>0.29977654305947554</v>
+        <f t="shared" si="174"/>
+        <v>0.29988647451024109</v>
       </c>
       <c r="BC76" s="17">
-        <f t="shared" si="171"/>
-        <v>0.29991648532346987</v>
+        <f t="shared" si="174"/>
+        <v>0.30002259030258344</v>
       </c>
       <c r="BD76" s="17">
-        <f t="shared" si="171"/>
-        <v>0.29999998340925998</v>
+        <f t="shared" si="174"/>
+        <v>0.3001025065815851</v>
       </c>
       <c r="BE76" s="17">
-        <f t="shared" si="171"/>
-        <v>0.30003084817418979</v>
+        <f t="shared" si="174"/>
+        <v>0.30013001409629531</v>
       </c>
       <c r="BF76" s="17">
-        <f t="shared" si="171"/>
-        <v>0.30001265242378838</v>
+        <f t="shared" si="174"/>
+        <v>0.30010866728560676</v>
       </c>
     </row>
     <row r="77" spans="2:109" x14ac:dyDescent="0.25">
@@ -8413,27 +8435,27 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5">
-        <f t="shared" ref="M79:R79" si="172">M67</f>
+        <f t="shared" ref="M79:R79" si="175">M67</f>
         <v>300</v>
       </c>
       <c r="N79" s="5">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>270</v>
       </c>
       <c r="O79" s="5">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>337</v>
       </c>
       <c r="P79" s="5">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>1165</v>
       </c>
       <c r="Q79" s="5">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>1669</v>
       </c>
       <c r="R79" s="5">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>2321</v>
       </c>
       <c r="S79" s="5">
@@ -8449,31 +8471,31 @@
         <v>3331</v>
       </c>
       <c r="V79" s="5">
-        <f t="shared" ref="V79:AD79" si="173">V67</f>
+        <f t="shared" ref="V79:AD79" si="176">V67</f>
         <v>3468.7999999999984</v>
       </c>
       <c r="W79" s="5">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>2513</v>
       </c>
       <c r="X79" s="5">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>2703</v>
       </c>
       <c r="Y79" s="5">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>1853</v>
       </c>
       <c r="Z79" s="5">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>2176</v>
       </c>
       <c r="AA79" s="5">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>1129</v>
       </c>
       <c r="AB79" s="5">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>2100</v>
       </c>
       <c r="AC79" s="5">
@@ -8481,8 +8503,8 @@
         <v>2222</v>
       </c>
       <c r="AD79" s="5">
-        <f t="shared" si="173"/>
-        <v>1456.2837364785246</v>
+        <f t="shared" si="176"/>
+        <v>1231.0529937441565</v>
       </c>
       <c r="AE79" s="5"/>
       <c r="AF79" s="5"/>
@@ -8565,7 +8587,7 @@
       </c>
       <c r="BH80" s="4">
         <f>NPV(BH79,AV67:DF67)+Main!K5-Main!K6</f>
-        <v>1216195.9994596136</v>
+        <v>1233892.5426769429</v>
       </c>
     </row>
     <row r="81" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8710,7 +8732,7 @@
       </c>
       <c r="BH82" s="20">
         <f>BH80/Main!K3</f>
-        <v>380.69887106828378</v>
+        <v>386.2383186800518</v>
       </c>
     </row>
     <row r="83" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8995,59 +9017,59 @@
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
       <c r="N88" s="5">
-        <f t="shared" ref="N88:R88" si="174">SUM(N80:N87)</f>
+        <f t="shared" ref="N88:R88" si="177">SUM(N80:N87)</f>
         <v>3019</v>
       </c>
       <c r="O88" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="177"/>
         <v>1641</v>
       </c>
       <c r="P88" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="177"/>
         <v>2124</v>
       </c>
       <c r="Q88" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="177"/>
         <v>3147</v>
       </c>
       <c r="R88" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="177"/>
         <v>4585</v>
       </c>
       <c r="S88" s="5">
-        <f t="shared" ref="S88:AA88" si="175">SUM(S80:S87)</f>
+        <f t="shared" ref="S88:AA88" si="178">SUM(S80:S87)</f>
         <v>3995</v>
       </c>
       <c r="T88" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>2351</v>
       </c>
       <c r="U88" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>5100</v>
       </c>
       <c r="V88" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>3278</v>
       </c>
       <c r="W88" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>2513</v>
       </c>
       <c r="X88" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>3065</v>
       </c>
       <c r="Y88" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>3308</v>
       </c>
       <c r="Z88" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>4370</v>
       </c>
       <c r="AA88" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>242</v>
       </c>
       <c r="AB88" s="5">
@@ -9211,63 +9233,63 @@
         <v>1868</v>
       </c>
       <c r="O91" s="5">
-        <f t="shared" ref="O91:R91" si="176">O88-O90</f>
+        <f t="shared" ref="O91:R91" si="179">O88-O90</f>
         <v>293</v>
       </c>
       <c r="P91" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>619</v>
       </c>
       <c r="Q91" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>1328</v>
       </c>
       <c r="R91" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>2775</v>
       </c>
       <c r="S91" s="5">
-        <f t="shared" ref="S91" si="177">S88-S90</f>
+        <f t="shared" ref="S91" si="180">S88-S90</f>
         <v>2228</v>
       </c>
       <c r="T91" s="5">
-        <f t="shared" ref="T91:AC91" si="178">T88-T90</f>
+        <f t="shared" ref="T91:AC91" si="181">T88-T90</f>
         <v>621</v>
       </c>
       <c r="U91" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>3297</v>
       </c>
       <c r="V91" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>1420</v>
       </c>
       <c r="W91" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>441</v>
       </c>
       <c r="X91" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>1005</v>
       </c>
       <c r="Y91" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>848</v>
       </c>
       <c r="Z91" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>2064</v>
       </c>
       <c r="AA91" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>-2531</v>
       </c>
       <c r="AB91" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>1342</v>
       </c>
       <c r="AC91" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>2742</v>
       </c>
       <c r="AD91" s="5"/>
@@ -9307,55 +9329,55 @@
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
       <c r="Q92" s="7">
-        <f t="shared" ref="Q92:V92" si="179">SUM(N91:Q91)</f>
+        <f t="shared" ref="Q92:V92" si="182">SUM(N91:Q91)</f>
         <v>4108</v>
       </c>
       <c r="R92" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>5015</v>
       </c>
       <c r="S92" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>6950</v>
       </c>
       <c r="T92" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>6952</v>
       </c>
       <c r="U92" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>8921</v>
       </c>
       <c r="V92" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>7566</v>
       </c>
       <c r="W92" s="7">
-        <f t="shared" ref="W92:AC92" si="180">SUM(T91:W91)</f>
+        <f t="shared" ref="W92:AC92" si="183">SUM(T91:W91)</f>
         <v>5779</v>
       </c>
       <c r="X92" s="7">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>6163</v>
       </c>
       <c r="Y92" s="7">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>3714</v>
       </c>
       <c r="Z92" s="7">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>4358</v>
       </c>
       <c r="AA92" s="7">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>1386</v>
       </c>
       <c r="AB92" s="7">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>1723</v>
       </c>
       <c r="AC92" s="7">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>3617</v>
       </c>
       <c r="AD92" s="5"/>
@@ -9427,27 +9449,27 @@
         <v>19726</v>
       </c>
       <c r="X94" s="5">
-        <f t="shared" ref="X94:AC94" si="181">X95-X112</f>
+        <f t="shared" ref="X94:AC94" si="184">X95-X112</f>
         <v>25105</v>
       </c>
       <c r="Y94" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>26958</v>
       </c>
       <c r="Z94" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>23864</v>
       </c>
       <c r="AA94" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>21503</v>
       </c>
       <c r="AB94" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>22975</v>
       </c>
       <c r="AC94" s="5">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>0</v>
       </c>
       <c r="AD94" s="5"/>
@@ -9461,51 +9483,51 @@
       </c>
       <c r="AU94" s="4">
         <f>AT94+AU67</f>
-        <v>30771.283736478523</v>
+        <v>30546.052993744157</v>
       </c>
       <c r="AV94" s="4">
-        <f t="shared" ref="AV94:BA94" si="182">AU94+AV67</f>
-        <v>44633.409475389293</v>
+        <f t="shared" ref="AV94:BA94" si="185">AU94+AV67</f>
+        <v>44673.832042787326</v>
       </c>
       <c r="AW94" s="4">
-        <f t="shared" si="182"/>
-        <v>68069.397260640966</v>
+        <f t="shared" si="185"/>
+        <v>68512.824511109473</v>
       </c>
       <c r="AX94" s="4">
-        <f t="shared" si="182"/>
-        <v>99743.539179743791</v>
+        <f t="shared" si="185"/>
+        <v>100697.06740133819</v>
       </c>
       <c r="AY94" s="4">
-        <f t="shared" si="182"/>
-        <v>145179.66646098759</v>
+        <f t="shared" si="185"/>
+        <v>146836.00015375321</v>
       </c>
       <c r="AZ94" s="4">
-        <f t="shared" si="182"/>
-        <v>206231.75391245596</v>
+        <f t="shared" si="185"/>
+        <v>208809.27863329166</v>
       </c>
       <c r="BA94" s="4">
-        <f t="shared" si="182"/>
-        <v>283732.03751350346</v>
+        <f t="shared" si="185"/>
+        <v>287461.62400790304</v>
       </c>
       <c r="BB94" s="4">
-        <f t="shared" ref="BB94" si="183">BA94+BB67</f>
-        <v>373207.98593536281</v>
+        <f t="shared" ref="BB94" si="186">BA94+BB67</f>
+        <v>378263.0802918807</v>
       </c>
       <c r="BC94" s="4">
-        <f t="shared" ref="BC94" si="184">BB94+BC67</f>
-        <v>476117.60088434524</v>
+        <f t="shared" ref="BC94" si="187">BB94+BC67</f>
+        <v>482692.31790739961</v>
       </c>
       <c r="BD94" s="4">
-        <f t="shared" ref="BD94" si="185">BC94+BD67</f>
-        <v>594077.82560863975</v>
+        <f t="shared" ref="BD94" si="188">BC94+BD67</f>
+        <v>602389.16698791669</v>
       </c>
       <c r="BE94" s="4">
-        <f t="shared" ref="BE94" si="186">BD94+BE67</f>
-        <v>728880.82231799536</v>
+        <f t="shared" ref="BE94" si="189">BD94+BE67</f>
+        <v>739171.11935100332</v>
       </c>
       <c r="BF94" s="4">
-        <f t="shared" ref="BF94" si="187">BE94+BF67</f>
-        <v>882511.85232739709</v>
+        <f t="shared" ref="BF94" si="190">BE94+BF67</f>
+        <v>895051.45511201094</v>
       </c>
     </row>
     <row r="95" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -9550,7 +9572,7 @@
         <v>25105</v>
       </c>
       <c r="Y95" s="5">
-        <f t="shared" ref="Y95" si="188">X95+Y67</f>
+        <f t="shared" ref="Y95" si="191">X95+Y67</f>
         <v>26958</v>
       </c>
       <c r="Z95" s="36">
@@ -10113,39 +10135,39 @@
         <v>62131</v>
       </c>
       <c r="T106" s="5">
-        <f t="shared" ref="T106:AB106" si="189">SUM(T95:T105)</f>
+        <f t="shared" ref="T106:AB106" si="192">SUM(T95:T105)</f>
         <v>68513</v>
       </c>
       <c r="U106" s="5">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>74426</v>
       </c>
       <c r="V106" s="5">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="W106" s="5">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>86833</v>
       </c>
       <c r="X106" s="5">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>25105</v>
       </c>
       <c r="Y106" s="5">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>26958</v>
       </c>
       <c r="Z106" s="5">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>106618</v>
       </c>
       <c r="AA106" s="5">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>109226</v>
       </c>
       <c r="AB106" s="5">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>112832</v>
       </c>
       <c r="AC106" s="5"/>
@@ -10447,52 +10469,52 @@
         <v>1201</v>
       </c>
       <c r="AU118" s="4">
-        <f t="shared" ref="AU118:BA118" si="190">+AU37*AU123*8/1000</f>
-        <v>1757.9592</v>
+        <f t="shared" ref="AU118:BA118" si="193">+AU37*AU123*8/1000</f>
+        <v>1717.65696</v>
       </c>
       <c r="AV118" s="4">
-        <f t="shared" si="190"/>
-        <v>2910.3526400000001</v>
+        <f t="shared" si="193"/>
+        <v>2951.0091519999996</v>
       </c>
       <c r="AW118" s="4">
-        <f t="shared" si="190"/>
-        <v>4547.4260000000004</v>
+        <f t="shared" si="193"/>
+        <v>4610.9517999999998</v>
       </c>
       <c r="AX118" s="4">
-        <f t="shared" si="190"/>
-        <v>6548.2934399999995</v>
+        <f t="shared" si="193"/>
+        <v>6639.7705919999999</v>
       </c>
       <c r="AY118" s="4">
-        <f t="shared" si="190"/>
-        <v>9167.6108160000022</v>
+        <f t="shared" si="193"/>
+        <v>9295.6788288000007</v>
       </c>
       <c r="AZ118" s="4">
-        <f t="shared" si="190"/>
-        <v>12048.859929599999</v>
+        <f t="shared" si="193"/>
+        <v>12217.177889280001</v>
       </c>
       <c r="BA118" s="4">
-        <f t="shared" si="190"/>
-        <v>14910.464162879998</v>
+        <f t="shared" si="193"/>
+        <v>15118.757637983999</v>
       </c>
       <c r="BB118" s="4">
-        <f t="shared" ref="BB118:BF118" si="191">+BB37*BB123*8/1000</f>
-        <v>16090.875909107997</v>
+        <f t="shared" ref="BB118:BF118" si="194">+BB37*BB123*8/1000</f>
+        <v>16315.659284324402</v>
       </c>
       <c r="BC118" s="4">
-        <f t="shared" si="191"/>
-        <v>17352.052669551598</v>
+        <f t="shared" si="194"/>
+        <v>17594.454201203884</v>
       </c>
       <c r="BD118" s="4">
-        <f t="shared" si="191"/>
-        <v>18699.119916266791</v>
+        <f t="shared" si="194"/>
+        <v>18960.339461560503</v>
       </c>
       <c r="BE118" s="4">
-        <f t="shared" si="191"/>
-        <v>20137.513755979624</v>
+        <f t="shared" si="194"/>
+        <v>20418.827112449773</v>
       </c>
       <c r="BF118" s="4">
-        <f t="shared" si="191"/>
-        <v>21672.999179873066</v>
+        <f t="shared" si="194"/>
+        <v>21975.762679774063</v>
       </c>
     </row>
     <row r="119" spans="2:58" x14ac:dyDescent="0.25">
@@ -10534,51 +10556,51 @@
       </c>
       <c r="AU121" s="4">
         <f>+AU118/8</f>
-        <v>219.7449</v>
+        <v>214.70712</v>
       </c>
       <c r="AV121" s="4">
-        <f t="shared" ref="AV121:BA121" si="192">+AV118/8</f>
-        <v>363.79408000000001</v>
+        <f t="shared" ref="AV121:BA121" si="195">+AV118/8</f>
+        <v>368.87614399999995</v>
       </c>
       <c r="AW121" s="4">
-        <f t="shared" si="192"/>
-        <v>568.42825000000005</v>
+        <f t="shared" si="195"/>
+        <v>576.36897499999998</v>
       </c>
       <c r="AX121" s="4">
-        <f t="shared" si="192"/>
-        <v>818.53667999999993</v>
+        <f t="shared" si="195"/>
+        <v>829.97132399999998</v>
       </c>
       <c r="AY121" s="4">
-        <f t="shared" si="192"/>
-        <v>1145.9513520000003</v>
+        <f t="shared" si="195"/>
+        <v>1161.9598536000001</v>
       </c>
       <c r="AZ121" s="4">
-        <f t="shared" si="192"/>
-        <v>1506.1074911999999</v>
+        <f t="shared" si="195"/>
+        <v>1527.1472361600001</v>
       </c>
       <c r="BA121" s="4">
-        <f t="shared" si="192"/>
-        <v>1863.8080203599998</v>
+        <f t="shared" si="195"/>
+        <v>1889.8447047479999</v>
       </c>
       <c r="BB121" s="4">
-        <f t="shared" ref="BB121:BF121" si="193">+BB118/8</f>
-        <v>2011.3594886384997</v>
+        <f t="shared" ref="BB121:BF121" si="196">+BB118/8</f>
+        <v>2039.4574105405502</v>
       </c>
       <c r="BC121" s="4">
-        <f t="shared" si="193"/>
-        <v>2169.0065836939498</v>
+        <f t="shared" si="196"/>
+        <v>2199.3067751504855</v>
       </c>
       <c r="BD121" s="4">
-        <f t="shared" si="193"/>
-        <v>2337.3899895333489</v>
+        <f t="shared" si="196"/>
+        <v>2370.0424326950629</v>
       </c>
       <c r="BE121" s="4">
-        <f t="shared" si="193"/>
-        <v>2517.189219497453</v>
+        <f t="shared" si="196"/>
+        <v>2552.3533890562217</v>
       </c>
       <c r="BF121" s="4">
-        <f t="shared" si="193"/>
-        <v>2709.1248974841333</v>
+        <f t="shared" si="196"/>
+        <v>2746.9703349717579</v>
       </c>
     </row>
     <row r="122" spans="2:58" x14ac:dyDescent="0.25">

--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FFAF81-66F8-4F94-8A92-DA40483BFF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E61CE18-889C-4F73-BB54-F55B7D6CA998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57510" yWindow="3210" windowWidth="17210" windowHeight="12590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23400" yWindow="4710" windowWidth="23430" windowHeight="15690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="183">
   <si>
     <t>Price</t>
   </si>
@@ -609,6 +609,24 @@
   </si>
   <si>
     <t>August 2022 split</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>Financing</t>
+  </si>
+  <si>
+    <t>NCI</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>CFFF</t>
   </si>
 </sst>
 </file>
@@ -618,13 +636,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -763,88 +787,92 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -869,16 +897,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>8885</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>33950</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>100264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>13138</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>6569</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>38203</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>106833</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -895,8 +923,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20136195" y="0"/>
-          <a:ext cx="4253" cy="21999466"/>
+          <a:off x="19835924" y="100264"/>
+          <a:ext cx="4253" cy="23748885"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -929,7 +957,7 @@
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>21322</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>20053</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1285,16 +1313,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1796875" style="9"/>
+    <col min="1" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
         <v>125</v>
       </c>
@@ -1302,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="K2" s="11">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
         <v>169</v>
       </c>
@@ -1314,13 +1342,13 @@
         <v>1</v>
       </c>
       <c r="K3" s="10">
-        <v>3194.6404149999998</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+        <v>3521</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="33" t="s">
         <v>155</v>
       </c>
@@ -1329,10 +1357,10 @@
       </c>
       <c r="K4" s="10">
         <f>K2*K3</f>
-        <v>827411.86748499994</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+        <v>883771</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
         <v>168</v>
       </c>
@@ -1340,14 +1368,13 @@
         <v>3</v>
       </c>
       <c r="K5" s="10">
-        <f>14635+16085</f>
-        <v>30720</v>
-      </c>
-      <c r="L5" s="31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+        <v>36996</v>
+      </c>
+      <c r="L5" s="46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="43" t="s">
         <v>170</v>
       </c>
@@ -1355,14 +1382,13 @@
         <v>4</v>
       </c>
       <c r="K6" s="18">
-        <f>2264+5481</f>
-        <v>7745</v>
-      </c>
-      <c r="L6" s="31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+        <v>7529</v>
+      </c>
+      <c r="L6" s="46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
         <v>107</v>
       </c>
@@ -1371,25 +1397,25 @@
       </c>
       <c r="K7" s="10">
         <f>K4-K5+K6</f>
-        <v>804436.86748499994</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+        <v>854304</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="33" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="33" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="43" t="s">
         <v>171</v>
       </c>
@@ -1397,37 +1423,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="43" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="43" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="44" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="43" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="43" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J19" s="43" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>6</v>
       </c>
@@ -1435,7 +1461,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J21" s="43" t="s">
         <v>176</v>
       </c>
@@ -1447,41 +1473,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E310252-7C49-48D8-9A64-7380C8DB275B}">
-  <dimension ref="A1:DE123"/>
+  <dimension ref="A1:DE132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Z44" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Y62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD50" sqref="AD50"/>
+      <selection pane="bottomRight" activeCell="AE81" sqref="AE81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="18" width="9.1796875" style="2"/>
-    <col min="19" max="19" width="8.7265625" style="2" customWidth="1"/>
-    <col min="20" max="23" width="9.1796875" style="2"/>
-    <col min="24" max="24" width="9.7265625" style="2" customWidth="1"/>
-    <col min="25" max="26" width="9.1796875" style="2"/>
-    <col min="27" max="30" width="9.54296875" style="2" customWidth="1"/>
-    <col min="31" max="34" width="8.453125" style="2" customWidth="1"/>
-    <col min="35" max="43" width="9.1796875" style="1"/>
-    <col min="44" max="46" width="9.7265625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="10.7265625" style="1" customWidth="1"/>
-    <col min="48" max="58" width="9.7265625" style="1" customWidth="1"/>
-    <col min="59" max="59" width="9.1796875" style="1"/>
-    <col min="60" max="60" width="9.54296875" style="1" customWidth="1"/>
-    <col min="61" max="16384" width="9.1796875" style="1"/>
+    <col min="3" max="18" width="9.140625" style="2"/>
+    <col min="19" max="19" width="8.7109375" style="2" customWidth="1"/>
+    <col min="20" max="23" width="9.140625" style="2"/>
+    <col min="24" max="24" width="9.7109375" style="2" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="2"/>
+    <col min="26" max="26" width="8.28515625" style="2" customWidth="1"/>
+    <col min="27" max="31" width="9.5703125" style="2" customWidth="1"/>
+    <col min="32" max="34" width="8.42578125" style="2" customWidth="1"/>
+    <col min="35" max="43" width="9.140625" style="1"/>
+    <col min="44" max="46" width="9.7109375" style="1" customWidth="1"/>
+    <col min="47" max="47" width="10.7109375" style="1" customWidth="1"/>
+    <col min="48" max="58" width="9.7109375" style="1" customWidth="1"/>
+    <col min="59" max="59" width="9.140625" style="1"/>
+    <col min="60" max="60" width="9.5703125" style="1" customWidth="1"/>
+    <col min="61" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="C2" s="27" t="s">
         <v>94</v>
@@ -1664,7 +1691,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="33" t="s">
         <v>135</v>
@@ -1692,7 +1719,7 @@
       <c r="AG3" s="31"/>
       <c r="AH3" s="31"/>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="33" t="s">
         <v>127</v>
@@ -1717,7 +1744,7 @@
       <c r="AG4" s="31"/>
       <c r="AH4" s="31"/>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="33" t="s">
         <v>141</v>
@@ -1743,7 +1770,7 @@
       <c r="AG5" s="31"/>
       <c r="AH5" s="31"/>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="33" t="s">
         <v>150</v>
@@ -1769,7 +1796,7 @@
       <c r="AG6" s="31"/>
       <c r="AH6" s="31"/>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="33" t="s">
         <v>151</v>
@@ -1796,7 +1823,7 @@
       <c r="AG7" s="31"/>
       <c r="AH7" s="31"/>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="33" t="s">
         <v>137</v>
@@ -1824,7 +1851,7 @@
       <c r="AG8" s="31"/>
       <c r="AH8" s="31"/>
     </row>
-    <row r="9" spans="1:58" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:58" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="23" t="s">
         <v>132</v>
@@ -1965,10 +1992,10 @@
       </c>
       <c r="AU9" s="6">
         <f t="shared" si="9"/>
-        <v>75977.108281201305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+        <v>72480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="33" t="s">
         <v>128</v>
@@ -1995,7 +2022,7 @@
       <c r="AG10" s="31"/>
       <c r="AH10" s="31"/>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="33" t="s">
         <v>131</v>
@@ -2023,7 +2050,7 @@
       <c r="AG11" s="31"/>
       <c r="AH11" s="31"/>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="33"/>
       <c r="C12" s="27"/>
@@ -2043,7 +2070,7 @@
       <c r="AG12" s="31"/>
       <c r="AH12" s="31"/>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="33" t="s">
         <v>130</v>
@@ -2067,7 +2094,7 @@
       <c r="AG13" s="31"/>
       <c r="AH13" s="31"/>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="33" t="s">
         <v>136</v>
@@ -2099,7 +2126,7 @@
       <c r="AG14" s="31"/>
       <c r="AH14" s="31"/>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="33" t="s">
         <v>152</v>
@@ -2124,7 +2151,7 @@
       <c r="AG15" s="31"/>
       <c r="AH15" s="31"/>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="33" t="s">
         <v>139</v>
@@ -2156,7 +2183,7 @@
       <c r="AG16" s="31"/>
       <c r="AH16" s="31"/>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="33" t="s">
         <v>129</v>
@@ -2184,7 +2211,7 @@
       <c r="AG17" s="31"/>
       <c r="AH17" s="31"/>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="33" t="s">
         <v>140</v>
@@ -2216,7 +2243,7 @@
       <c r="AG18" s="31"/>
       <c r="AH18" s="31"/>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="33" t="s">
         <v>138</v>
@@ -2242,7 +2269,7 @@
       <c r="AG19" s="31"/>
       <c r="AH19" s="31"/>
     </row>
-    <row r="20" spans="1:47" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
       <c r="B20" s="23" t="s">
         <v>134</v>
@@ -2309,7 +2336,7 @@
         <v>1789226</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="33" t="s">
         <v>133</v>
@@ -2337,7 +2364,7 @@
       <c r="AG21" s="31"/>
       <c r="AH21" s="31"/>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="33"/>
       <c r="C22" s="27"/>
@@ -2357,7 +2384,7 @@
       <c r="AG22" s="31"/>
       <c r="AH22" s="31"/>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="33" t="s">
         <v>142</v>
@@ -2382,7 +2409,7 @@
       <c r="AG23" s="31"/>
       <c r="AH23" s="31"/>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="33" t="s">
         <v>143</v>
@@ -2407,7 +2434,7 @@
       <c r="AG24" s="31"/>
       <c r="AH24" s="31"/>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="33" t="s">
         <v>144</v>
@@ -2432,7 +2459,7 @@
       <c r="AG25" s="31"/>
       <c r="AH25" s="31"/>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="33" t="s">
         <v>153</v>
@@ -2457,7 +2484,7 @@
       <c r="AG26" s="31"/>
       <c r="AH26" s="31"/>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="33" t="s">
         <v>145</v>
@@ -2482,7 +2509,7 @@
       <c r="AG27" s="31"/>
       <c r="AH27" s="31"/>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="33" t="s">
         <v>146</v>
@@ -2507,7 +2534,7 @@
       <c r="AG28" s="31"/>
       <c r="AH28" s="31"/>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="33" t="s">
         <v>147</v>
@@ -2532,7 +2559,7 @@
       <c r="AG29" s="31"/>
       <c r="AH29" s="31"/>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="33" t="s">
         <v>148</v>
@@ -2557,7 +2584,7 @@
       <c r="AG30" s="31"/>
       <c r="AH30" s="31"/>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="33" t="s">
         <v>149</v>
@@ -2582,7 +2609,7 @@
       <c r="AG31" s="31"/>
       <c r="AH31" s="31"/>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="33"/>
       <c r="C32" s="27"/>
@@ -2602,7 +2629,7 @@
       <c r="AG32" s="31"/>
       <c r="AH32" s="31"/>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
@@ -2624,7 +2651,7 @@
         <v>14313.808000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="13" t="s">
         <v>84</v>
       </c>
@@ -2663,7 +2690,7 @@
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
     </row>
-    <row r="35" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
         <v>9</v>
       </c>
@@ -2774,7 +2801,7 @@
         <v>85133</v>
       </c>
     </row>
-    <row r="36" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>10</v>
       </c>
@@ -2885,7 +2912,7 @@
         <v>1704093</v>
       </c>
     </row>
-    <row r="37" spans="1:58" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
         <v>11</v>
       </c>
@@ -3065,7 +3092,7 @@
         <v>6699927.6462725811</v>
       </c>
     </row>
-    <row r="38" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
         <v>12</v>
       </c>
@@ -3074,7 +3101,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5">
-        <f t="shared" ref="G38:AB38" si="18">G45*1000000/G37</f>
+        <f t="shared" ref="G38:AE38" si="18">G45*1000000/G37</f>
         <v>55681.619828940478</v>
       </c>
       <c r="H38" s="5">
@@ -3162,16 +3189,16 @@
         <v>41738.370469145593</v>
       </c>
       <c r="AC38" s="5">
-        <f>+AB38*0.99</f>
-        <v>41320.986764454137</v>
+        <f t="shared" si="18"/>
+        <v>40681.371384130136</v>
       </c>
       <c r="AD38" s="5">
-        <f>+Z38*1.05</f>
-        <v>44708.332387354574</v>
+        <f t="shared" si="18"/>
+        <v>37651.59311499889</v>
       </c>
       <c r="AE38" s="5">
-        <f>+AA38*1.05</f>
-        <v>44680.851063829788</v>
+        <f t="shared" si="18"/>
+        <v>38389.454706383789</v>
       </c>
       <c r="AF38" s="5"/>
       <c r="AG38" s="5"/>
@@ -3198,54 +3225,54 @@
       </c>
       <c r="AU38" s="5">
         <f t="shared" si="19"/>
-        <v>42463.673276154776</v>
+        <v>40509.136352814006</v>
       </c>
       <c r="AV38" s="4">
         <f>AU38*1.03</f>
-        <v>43737.583474439423</v>
+        <v>41724.410443398425</v>
       </c>
       <c r="AW38" s="4">
         <f>AV38*1.03</f>
-        <v>45049.710978672607</v>
+        <v>42976.142756700378</v>
       </c>
       <c r="AX38" s="4">
         <f>AW38*1.03</f>
-        <v>46401.202308032785</v>
+        <v>44265.427039401387</v>
       </c>
       <c r="AY38" s="4">
         <f>AX38*1.03</f>
-        <v>47793.238377273767</v>
+        <v>45593.38985058343</v>
       </c>
       <c r="AZ38" s="4">
         <f t="shared" ref="AZ38:BA38" si="20">AY38*1.03</f>
-        <v>49227.03552859198</v>
+        <v>46961.191546100934</v>
       </c>
       <c r="BA38" s="4">
         <f t="shared" si="20"/>
-        <v>50703.846594449744</v>
+        <v>48370.027292483966</v>
       </c>
       <c r="BB38" s="4">
         <f t="shared" ref="BB38" si="21">BA38*1.03</f>
-        <v>52224.961992283235</v>
+        <v>49821.128111258484</v>
       </c>
       <c r="BC38" s="4">
         <f t="shared" ref="BC38" si="22">BB38*1.03</f>
-        <v>53791.710852051736</v>
+        <v>51315.761954596237</v>
       </c>
       <c r="BD38" s="4">
         <f t="shared" ref="BD38" si="23">BC38*1.03</f>
-        <v>55405.462177613292</v>
+        <v>52855.234813234129</v>
       </c>
       <c r="BE38" s="4">
         <f t="shared" ref="BE38" si="24">BD38*1.03</f>
-        <v>57067.626042941694</v>
+        <v>54440.891857631155</v>
       </c>
       <c r="BF38" s="4">
         <f t="shared" ref="BF38" si="25">BE38*1.03</f>
-        <v>58779.654824229947</v>
-      </c>
-    </row>
-    <row r="39" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>56074.118613360093</v>
+      </c>
+    </row>
+    <row r="39" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -3279,7 +3306,7 @@
       <c r="AG39" s="5"/>
       <c r="AH39" s="5"/>
     </row>
-    <row r="40" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
@@ -3390,7 +3417,7 @@
         <v>94105</v>
       </c>
     </row>
-    <row r="41" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
@@ -3501,7 +3528,7 @@
         <v>1679338</v>
       </c>
     </row>
-    <row r="42" spans="1:58" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
         <v>15</v>
       </c>
@@ -3681,7 +3708,7 @@
         <v>6699927.6462725811</v>
       </c>
     </row>
-    <row r="43" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -3716,7 +3743,7 @@
       <c r="AH43" s="5"/>
       <c r="AT43" s="26"/>
     </row>
-    <row r="44" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="40" t="s">
         <v>164</v>
       </c>
@@ -3754,15 +3781,15 @@
       <c r="AH44" s="5"/>
       <c r="AT44" s="26"/>
       <c r="AU44" s="4">
-        <f>+AU118-AT118</f>
+        <f>+AU127-AT127</f>
         <v>516.65696000000003</v>
       </c>
       <c r="AV44" s="4">
-        <f>+AV118-$AT$118</f>
+        <f>+AV127-$AT$127</f>
         <v>1750.0091519999996</v>
       </c>
       <c r="AW44" s="4">
-        <f t="shared" ref="AW44:BF44" si="31">+AW118-$AT$118</f>
+        <f t="shared" ref="AW44:BF44" si="31">+AW127-$AT$127</f>
         <v>3409.9517999999998</v>
       </c>
       <c r="AX44" s="4">
@@ -3802,7 +3829,7 @@
         <v>20774.762679774063</v>
       </c>
     </row>
-    <row r="45" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
         <v>32</v>
       </c>
@@ -3885,10 +3912,11 @@
         <v>18831</v>
       </c>
       <c r="AD45" s="5">
-        <f>+AD38*AD37/1000000</f>
-        <v>22156.108281201305</v>
-      </c>
-      <c r="AE45" s="5"/>
+        <v>18659</v>
+      </c>
+      <c r="AE45" s="5">
+        <v>12925</v>
+      </c>
       <c r="AF45" s="5"/>
       <c r="AG45" s="5"/>
       <c r="AH45" s="5"/>
@@ -3914,54 +3942,54 @@
       </c>
       <c r="AU45" s="4">
         <f>SUM(AA45:AD45)</f>
-        <v>75977.108281201305</v>
+        <v>72480</v>
       </c>
       <c r="AV45" s="4">
         <f t="shared" ref="AV45:BA45" si="33">AV38*AV42/1000000</f>
-        <v>100835.94462455835</v>
+        <v>96194.622718963379</v>
       </c>
       <c r="AW45" s="4">
         <f t="shared" si="33"/>
-        <v>129826.27870411889</v>
+        <v>123850.57675066536</v>
       </c>
       <c r="AX45" s="4">
         <f t="shared" si="33"/>
-        <v>160465.28047829095</v>
+        <v>153079.31286382239</v>
       </c>
       <c r="AY45" s="4">
         <f t="shared" si="33"/>
-        <v>198335.08667116761</v>
+        <v>189206.03069968446</v>
       </c>
       <c r="AZ45" s="4">
         <f t="shared" si="33"/>
-        <v>234927.91016199801</v>
+        <v>224114.54336377623</v>
       </c>
       <c r="BA45" s="4">
         <f t="shared" si="33"/>
-        <v>266173.32221354381</v>
+        <v>253921.7776311585</v>
       </c>
       <c r="BB45" s="4">
         <f t="shared" ref="BB45:BF45" si="34">BB38*BB42/1000000</f>
-        <v>287866.44797394762</v>
+        <v>274616.40250809793</v>
       </c>
       <c r="BC45" s="4">
         <f t="shared" si="34"/>
-        <v>311327.56348382443</v>
+        <v>296997.63931250793</v>
       </c>
       <c r="BD45" s="4">
         <f t="shared" si="34"/>
-        <v>336700.75990775618</v>
+        <v>321202.94691647741</v>
       </c>
       <c r="BE45" s="4">
         <f t="shared" si="34"/>
-        <v>364141.87184023828</v>
+        <v>347380.98709017033</v>
       </c>
       <c r="BF45" s="4">
         <f t="shared" si="34"/>
-        <v>393819.43439521769</v>
-      </c>
-    </row>
-    <row r="46" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>375692.53753801924</v>
+      </c>
+    </row>
+    <row r="46" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
         <v>33</v>
       </c>
@@ -4040,10 +4068,11 @@
         <v>739</v>
       </c>
       <c r="AD46" s="5">
-        <f t="shared" ref="AD46:AD47" si="36">+Z46</f>
-        <v>433</v>
-      </c>
-      <c r="AE46" s="5"/>
+        <v>692</v>
+      </c>
+      <c r="AE46" s="5">
+        <v>595</v>
+      </c>
       <c r="AF46" s="5"/>
       <c r="AG46" s="5"/>
       <c r="AH46" s="5"/>
@@ -4056,11 +4085,11 @@
         <v>401</v>
       </c>
       <c r="AR46" s="4">
-        <f t="shared" ref="AR46:AR52" si="37">SUM(O46:R46)</f>
+        <f t="shared" ref="AR46:AR52" si="36">SUM(O46:R46)</f>
         <v>1465</v>
       </c>
       <c r="AS46" s="4">
-        <f t="shared" ref="AR46:AS61" si="38">SUM(S46:V46)</f>
+        <f t="shared" ref="AR46:AS61" si="37">SUM(S46:V46)</f>
         <v>1748.6</v>
       </c>
       <c r="AT46" s="4">
@@ -4069,10 +4098,10 @@
       </c>
       <c r="AU46" s="4">
         <f>SUM(AA46:AD46)</f>
-        <v>2504</v>
-      </c>
-    </row>
-    <row r="47" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="47" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
         <v>34</v>
       </c>
@@ -4151,10 +4180,11 @@
         <v>446</v>
       </c>
       <c r="AD47" s="5">
-        <f t="shared" si="36"/>
-        <v>500</v>
-      </c>
-      <c r="AE47" s="5"/>
+        <v>447</v>
+      </c>
+      <c r="AE47" s="5">
+        <v>447</v>
+      </c>
       <c r="AF47" s="5"/>
       <c r="AG47" s="5"/>
       <c r="AH47" s="5"/>
@@ -4167,11 +4197,11 @@
         <v>1052</v>
       </c>
       <c r="AR47" s="4">
+        <f t="shared" si="36"/>
+        <v>1642</v>
+      </c>
+      <c r="AS47" s="4">
         <f t="shared" si="37"/>
-        <v>1642</v>
-      </c>
-      <c r="AS47" s="4">
-        <f t="shared" si="38"/>
         <v>2756.2</v>
       </c>
       <c r="AT47" s="4">
@@ -4180,10 +4210,10 @@
       </c>
       <c r="AU47" s="4">
         <f>SUM(AA47:AD47)</f>
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="48" spans="1:58" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="48" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
         <v>35</v>
       </c>
@@ -4192,51 +4222,51 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7">
-        <f t="shared" ref="G48:K48" si="39">SUM(G45:G47)</f>
+        <f t="shared" ref="G48:K48" si="38">SUM(G45:G47)</f>
         <v>3724</v>
       </c>
       <c r="H48" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>5376</v>
       </c>
       <c r="I48" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>5353</v>
       </c>
       <c r="J48" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>6368</v>
       </c>
       <c r="K48" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>5132</v>
       </c>
       <c r="L48" s="7">
-        <f t="shared" ref="L48" si="40">SUM(L45:L47)</f>
+        <f t="shared" ref="L48" si="39">SUM(L45:L47)</f>
         <v>5179</v>
       </c>
       <c r="M48" s="7">
-        <f t="shared" ref="M48:R48" si="41">SUM(M45:M47)</f>
+        <f t="shared" ref="M48:R48" si="40">SUM(M45:M47)</f>
         <v>7611</v>
       </c>
       <c r="N48" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>9314</v>
       </c>
       <c r="O48" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>9002</v>
       </c>
       <c r="P48" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>10206</v>
       </c>
       <c r="Q48" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>12057</v>
       </c>
       <c r="R48" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>15967</v>
       </c>
       <c r="S48" s="7">
@@ -4252,31 +4282,31 @@
         <v>18692</v>
       </c>
       <c r="V48" s="7">
-        <f t="shared" ref="V48:AD48" si="42">SUM(V45:V47)</f>
+        <f t="shared" ref="V48:AD48" si="41">SUM(V45:V47)</f>
         <v>22353.8</v>
       </c>
       <c r="W48" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>19963</v>
       </c>
       <c r="X48" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>21268</v>
       </c>
       <c r="Y48" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>19625</v>
       </c>
       <c r="Z48" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>21563</v>
       </c>
       <c r="AA48" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>17378</v>
       </c>
       <c r="AB48" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>19878</v>
       </c>
       <c r="AC48" s="7">
@@ -4284,10 +4314,13 @@
         <v>20016</v>
       </c>
       <c r="AD48" s="7">
-        <f t="shared" si="42"/>
-        <v>23089.108281201305</v>
-      </c>
-      <c r="AE48" s="7"/>
+        <f t="shared" si="41"/>
+        <v>19798</v>
+      </c>
+      <c r="AE48" s="7">
+        <f t="shared" ref="AE48" si="42">SUM(AE45:AE47)</f>
+        <v>13967</v>
+      </c>
       <c r="AF48" s="7"/>
       <c r="AG48" s="7"/>
       <c r="AH48" s="7"/>
@@ -4313,54 +4346,54 @@
       </c>
       <c r="AU48" s="6">
         <f>AU45+AU46+AU47</f>
-        <v>80361.108281201305</v>
+        <v>77070</v>
       </c>
       <c r="AV48" s="6">
         <f>AV45+AV46+AV47</f>
-        <v>100835.94462455835</v>
+        <v>96194.622718963379</v>
       </c>
       <c r="AW48" s="6">
         <f>AW45+AW46+AW47</f>
-        <v>129826.27870411889</v>
+        <v>123850.57675066536</v>
       </c>
       <c r="AX48" s="6">
         <f>AX45+AX46+AX47</f>
-        <v>160465.28047829095</v>
+        <v>153079.31286382239</v>
       </c>
       <c r="AY48" s="6">
         <f>AY45+AY46+AY47</f>
-        <v>198335.08667116761</v>
+        <v>189206.03069968446</v>
       </c>
       <c r="AZ48" s="6">
         <f t="shared" ref="AZ48:BF48" si="43">AZ45+AZ46+AZ47</f>
-        <v>234927.91016199801</v>
+        <v>224114.54336377623</v>
       </c>
       <c r="BA48" s="6">
         <f t="shared" si="43"/>
-        <v>266173.32221354381</v>
+        <v>253921.7776311585</v>
       </c>
       <c r="BB48" s="6">
         <f t="shared" si="43"/>
-        <v>287866.44797394762</v>
+        <v>274616.40250809793</v>
       </c>
       <c r="BC48" s="6">
         <f t="shared" si="43"/>
-        <v>311327.56348382443</v>
+        <v>296997.63931250793</v>
       </c>
       <c r="BD48" s="6">
         <f t="shared" si="43"/>
-        <v>336700.75990775618</v>
+        <v>321202.94691647741</v>
       </c>
       <c r="BE48" s="6">
         <f t="shared" si="43"/>
-        <v>364141.87184023828</v>
+        <v>347380.98709017033</v>
       </c>
       <c r="BF48" s="6">
         <f t="shared" si="43"/>
-        <v>393819.43439521769</v>
-      </c>
-    </row>
-    <row r="49" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>375692.53753801924</v>
+      </c>
+    </row>
+    <row r="49" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
         <v>36</v>
       </c>
@@ -4439,10 +4472,11 @@
         <v>2376</v>
       </c>
       <c r="AD49" s="5">
-        <f t="shared" ref="AD49:AD50" si="45">+Z49</f>
-        <v>1438</v>
-      </c>
-      <c r="AE49" s="5"/>
+        <v>3061</v>
+      </c>
+      <c r="AE49" s="5">
+        <v>2730</v>
+      </c>
       <c r="AF49" s="5"/>
       <c r="AG49" s="5"/>
       <c r="AH49" s="5"/>
@@ -4468,7 +4502,7 @@
         <v>2789</v>
       </c>
       <c r="AS49" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>3562.2</v>
       </c>
       <c r="AT49" s="4">
@@ -4477,10 +4511,10 @@
       </c>
       <c r="AU49" s="4">
         <f>SUM(AA49:AD49)</f>
-        <v>8463</v>
-      </c>
-    </row>
-    <row r="50" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>10086</v>
+      </c>
+    </row>
+    <row r="50" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>37</v>
       </c>
@@ -4559,10 +4593,11 @@
         <v>2790</v>
       </c>
       <c r="AD50" s="5">
-        <f t="shared" si="45"/>
-        <v>2166</v>
-      </c>
-      <c r="AE50" s="5"/>
+        <v>2848</v>
+      </c>
+      <c r="AE50" s="5">
+        <v>2638</v>
+      </c>
       <c r="AF50" s="5"/>
       <c r="AG50" s="5"/>
       <c r="AH50" s="5"/>
@@ -4584,11 +4619,11 @@
         <v>2306</v>
       </c>
       <c r="AR50" s="4">
+        <f t="shared" si="36"/>
+        <v>3802</v>
+      </c>
+      <c r="AS50" s="4">
         <f t="shared" si="37"/>
-        <v>3802</v>
-      </c>
-      <c r="AS50" s="4">
-        <f t="shared" si="38"/>
         <v>5879.6</v>
       </c>
       <c r="AT50" s="4">
@@ -4597,10 +4632,10 @@
       </c>
       <c r="AU50" s="4">
         <f>SUM(AA50:AD50)</f>
-        <v>9852</v>
-      </c>
-    </row>
-    <row r="51" spans="2:58" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+        <v>10534</v>
+      </c>
+    </row>
+    <row r="51" spans="2:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
         <v>38</v>
       </c>
@@ -4609,51 +4644,51 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7">
-        <f t="shared" ref="G51:K51" si="46">SUM(G48:G50)</f>
+        <f t="shared" ref="G51:K51" si="45">SUM(G48:G50)</f>
         <v>4541</v>
       </c>
       <c r="H51" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>6350</v>
       </c>
       <c r="I51" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>6303</v>
       </c>
       <c r="J51" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>7384</v>
       </c>
       <c r="K51" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>5985</v>
       </c>
       <c r="L51" s="7">
-        <f t="shared" ref="L51" si="47">SUM(L48:L50)</f>
+        <f t="shared" ref="L51" si="46">SUM(L48:L50)</f>
         <v>6036</v>
       </c>
       <c r="M51" s="7">
-        <f t="shared" ref="M51:R51" si="48">SUM(M48:M50)</f>
+        <f t="shared" ref="M51:R51" si="47">SUM(M48:M50)</f>
         <v>8771</v>
       </c>
       <c r="N51" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>10744</v>
       </c>
       <c r="O51" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>10389</v>
       </c>
       <c r="P51" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>11958</v>
       </c>
       <c r="Q51" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>13757</v>
       </c>
       <c r="R51" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>17719</v>
       </c>
       <c r="S51" s="7">
@@ -4669,31 +4704,31 @@
         <v>21454</v>
       </c>
       <c r="V51" s="7">
-        <f t="shared" ref="V51:AD51" si="49">SUM(V48:V50)</f>
+        <f t="shared" ref="V51:AD51" si="48">SUM(V48:V50)</f>
         <v>24806.6</v>
       </c>
       <c r="W51" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>23329</v>
       </c>
       <c r="X51" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>24927</v>
       </c>
       <c r="Y51" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>23350</v>
       </c>
       <c r="Z51" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>25167</v>
       </c>
       <c r="AA51" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>21301</v>
       </c>
       <c r="AB51" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>25500</v>
       </c>
       <c r="AC51" s="7">
@@ -4701,10 +4736,13 @@
         <v>25182</v>
       </c>
       <c r="AD51" s="7">
-        <f t="shared" si="49"/>
-        <v>26693.108281201305</v>
-      </c>
-      <c r="AE51" s="7"/>
+        <f t="shared" si="48"/>
+        <v>25707</v>
+      </c>
+      <c r="AE51" s="7">
+        <f t="shared" ref="AE51" si="49">SUM(AE48:AE50)</f>
+        <v>19335</v>
+      </c>
       <c r="AF51" s="7"/>
       <c r="AG51" s="7"/>
       <c r="AH51" s="7"/>
@@ -4751,54 +4789,54 @@
       </c>
       <c r="AU51" s="6">
         <f>SUM(AU48:AU50)+AU44</f>
-        <v>99192.765241201298</v>
+        <v>98206.656959999993</v>
       </c>
       <c r="AV51" s="6">
         <f>SUM(AV48:AV50)+AV44</f>
-        <v>102585.95377655835</v>
+        <v>97944.631870963378</v>
       </c>
       <c r="AW51" s="6">
         <f>SUM(AW48:AW50)+AW44</f>
-        <v>133236.2305041189</v>
+        <v>127260.52855066536</v>
       </c>
       <c r="AX51" s="6">
         <f t="shared" ref="AX51:BA51" si="51">SUM(AX48:AX50)+AX44</f>
-        <v>165904.05107029094</v>
+        <v>158518.08345582237</v>
       </c>
       <c r="AY51" s="6">
         <f t="shared" si="51"/>
-        <v>206429.76549996762</v>
+        <v>197300.70952848447</v>
       </c>
       <c r="AZ51" s="6">
         <f t="shared" si="51"/>
-        <v>245944.088051278</v>
+        <v>235130.72125305622</v>
       </c>
       <c r="BA51" s="6">
         <f t="shared" si="51"/>
-        <v>280091.07985152781</v>
+        <v>267839.53526914248</v>
       </c>
       <c r="BB51" s="6">
         <f t="shared" ref="BB51" si="52">SUM(BB48:BB50)+BB44</f>
-        <v>302981.10725827201</v>
+        <v>289731.06179242232</v>
       </c>
       <c r="BC51" s="6">
         <f t="shared" ref="BC51" si="53">SUM(BC48:BC50)+BC44</f>
-        <v>327721.01768502832</v>
+        <v>313391.09351371182</v>
       </c>
       <c r="BD51" s="6">
         <f t="shared" ref="BD51" si="54">SUM(BD48:BD50)+BD44</f>
-        <v>354460.09936931665</v>
+        <v>338962.28637803788</v>
       </c>
       <c r="BE51" s="6">
         <f t="shared" ref="BE51" si="55">SUM(BE48:BE50)+BE44</f>
-        <v>383359.69895268808</v>
+        <v>366598.81420262012</v>
       </c>
       <c r="BF51" s="6">
         <f t="shared" ref="BF51" si="56">SUM(BF48:BF50)+BF44</f>
-        <v>414594.19707499177</v>
-      </c>
-    </row>
-    <row r="52" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>396467.30021779332</v>
+      </c>
+    </row>
+    <row r="52" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>39</v>
       </c>
@@ -4876,10 +4914,11 @@
         <v>15743</v>
       </c>
       <c r="AD52" s="5">
-        <f>+AD45*0.85</f>
-        <v>18832.692039021109</v>
-      </c>
-      <c r="AE52" s="5"/>
+        <v>16268</v>
+      </c>
+      <c r="AE52" s="5">
+        <v>11461</v>
+      </c>
       <c r="AF52" s="5"/>
       <c r="AG52" s="5"/>
       <c r="AH52" s="5"/>
@@ -4887,11 +4926,11 @@
         <v>1483.3209999999999</v>
       </c>
       <c r="AR52" s="4">
+        <f t="shared" si="36"/>
+        <v>32415</v>
+      </c>
+      <c r="AS52" s="4">
         <f t="shared" si="37"/>
-        <v>32415</v>
-      </c>
-      <c r="AS52" s="4">
-        <f t="shared" si="38"/>
         <v>49599</v>
       </c>
       <c r="AT52" s="4">
@@ -4900,54 +4939,54 @@
       </c>
       <c r="AU52" s="4">
         <f t="shared" ref="AU52:AU59" si="58">SUM(AA52:AD52)</f>
-        <v>64434.692039021109</v>
+        <v>61870</v>
       </c>
       <c r="AV52" s="4">
         <f>AV45*0.8</f>
-        <v>80668.755699646688</v>
+        <v>76955.698175170706</v>
       </c>
       <c r="AW52" s="4">
         <f>AW45*0.79</f>
-        <v>102562.76017625393</v>
+        <v>97841.955633025646</v>
       </c>
       <c r="AX52" s="4">
         <f>AX51*0.78</f>
-        <v>129405.15983482693</v>
+        <v>123644.10509554145</v>
       </c>
       <c r="AY52" s="4">
         <f>AY51*0.77</f>
-        <v>158950.91943497508</v>
+        <v>151921.54633693304</v>
       </c>
       <c r="AZ52" s="4">
         <f>AZ51*0.76</f>
-        <v>186917.50691897128</v>
+        <v>178699.34815232272</v>
       </c>
       <c r="BA52" s="4">
         <f>BA51*0.75</f>
-        <v>210068.30988864586</v>
+        <v>200879.65145185686</v>
       </c>
       <c r="BB52" s="4">
         <f t="shared" ref="BB52:BF52" si="59">BB51*0.75</f>
-        <v>227235.83044370401</v>
+        <v>217298.29634431674</v>
       </c>
       <c r="BC52" s="4">
         <f t="shared" si="59"/>
-        <v>245790.76326377125</v>
+        <v>235043.32013528387</v>
       </c>
       <c r="BD52" s="4">
         <f t="shared" si="59"/>
-        <v>265845.0745269875</v>
+        <v>254221.71478352841</v>
       </c>
       <c r="BE52" s="4">
         <f t="shared" si="59"/>
-        <v>287519.77421451604</v>
+        <v>274949.11065196508</v>
       </c>
       <c r="BF52" s="4">
         <f t="shared" si="59"/>
-        <v>310945.64780624385</v>
-      </c>
-    </row>
-    <row r="53" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>297350.47516334499</v>
+      </c>
+    </row>
+    <row r="53" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
         <v>40</v>
       </c>
@@ -5049,18 +5088,21 @@
       </c>
       <c r="AD53" s="5">
         <f>AD45-AD52</f>
-        <v>3323.4162421801957</v>
-      </c>
-      <c r="AE53" s="5"/>
+        <v>2391</v>
+      </c>
+      <c r="AE53" s="5">
+        <f>AE45-AE52</f>
+        <v>1464</v>
+      </c>
       <c r="AF53" s="5"/>
       <c r="AG53" s="5"/>
       <c r="AH53" s="5"/>
       <c r="AR53" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>17139</v>
       </c>
       <c r="AS53" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>18405</v>
       </c>
       <c r="AT53" s="4">
@@ -5069,10 +5111,10 @@
       </c>
       <c r="AU53" s="4">
         <f t="shared" si="58"/>
-        <v>11542.416242180196</v>
-      </c>
-    </row>
-    <row r="54" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>10610</v>
+      </c>
+    </row>
+    <row r="54" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="29" t="s">
         <v>116</v>
       </c>
@@ -5113,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
         <v>41</v>
       </c>
@@ -5191,15 +5233,16 @@
         <v>247</v>
       </c>
       <c r="AD55" s="5">
-        <f>+AD47*0.5</f>
-        <v>250</v>
-      </c>
-      <c r="AE55" s="5"/>
+        <v>242</v>
+      </c>
+      <c r="AE55" s="5">
+        <v>239</v>
+      </c>
       <c r="AF55" s="5"/>
       <c r="AG55" s="5"/>
       <c r="AH55" s="5"/>
       <c r="AS55" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1510</v>
       </c>
       <c r="AT55" s="4">
@@ -5208,10 +5251,10 @@
       </c>
       <c r="AU55" s="4">
         <f t="shared" si="58"/>
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="56" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="56" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
         <v>42</v>
       </c>
@@ -5313,14 +5356,17 @@
       </c>
       <c r="AD56" s="5">
         <f t="shared" si="67"/>
-        <v>4006.4162421801957</v>
-      </c>
-      <c r="AE56" s="5"/>
+        <v>3288</v>
+      </c>
+      <c r="AE56" s="5">
+        <f t="shared" ref="AE56" si="68">AE48-AE55-AE52</f>
+        <v>2267</v>
+      </c>
       <c r="AF56" s="5"/>
       <c r="AG56" s="5"/>
       <c r="AH56" s="5"/>
       <c r="AS56" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>21399.8</v>
       </c>
       <c r="AT56" s="4">
@@ -5329,54 +5375,54 @@
       </c>
       <c r="AU56" s="4">
         <f t="shared" si="58"/>
-        <v>14915.416242180196</v>
+        <v>14197</v>
       </c>
       <c r="AV56" s="4">
         <f>AV51-AV52</f>
-        <v>21917.198076911664</v>
+        <v>20988.933695792672</v>
       </c>
       <c r="AW56" s="4">
-        <f t="shared" ref="AW56:BF56" si="68">AW51-AW52</f>
-        <v>30673.470327864969</v>
+        <f t="shared" ref="AW56:BF56" si="69">AW51-AW52</f>
+        <v>29418.572917639714</v>
       </c>
       <c r="AX56" s="4">
-        <f t="shared" si="68"/>
-        <v>36498.891235464005</v>
+        <f t="shared" si="69"/>
+        <v>34873.978360280918</v>
       </c>
       <c r="AY56" s="4">
-        <f t="shared" si="68"/>
-        <v>47478.84606499254</v>
+        <f t="shared" si="69"/>
+        <v>45379.16319155143</v>
       </c>
       <c r="AZ56" s="4">
-        <f t="shared" si="68"/>
-        <v>59026.581132306717</v>
+        <f t="shared" si="69"/>
+        <v>56431.373100733501</v>
       </c>
       <c r="BA56" s="4">
-        <f t="shared" si="68"/>
-        <v>70022.769962881954</v>
+        <f t="shared" si="69"/>
+        <v>66959.883817285619</v>
       </c>
       <c r="BB56" s="4">
-        <f t="shared" si="68"/>
-        <v>75745.276814568002</v>
+        <f t="shared" si="69"/>
+        <v>72432.76544810558</v>
       </c>
       <c r="BC56" s="4">
-        <f t="shared" si="68"/>
-        <v>81930.254421257065</v>
+        <f t="shared" si="69"/>
+        <v>78347.773378427955</v>
       </c>
       <c r="BD56" s="4">
-        <f t="shared" si="68"/>
-        <v>88615.024842329149</v>
+        <f t="shared" si="69"/>
+        <v>84740.571594509471</v>
       </c>
       <c r="BE56" s="4">
-        <f t="shared" si="68"/>
-        <v>95839.924738172034</v>
+        <f t="shared" si="69"/>
+        <v>91649.703550655046</v>
       </c>
       <c r="BF56" s="4">
-        <f t="shared" si="68"/>
-        <v>103648.54926874791</v>
-      </c>
-    </row>
-    <row r="57" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="69"/>
+        <v>99116.825054448331</v>
+      </c>
+    </row>
+    <row r="57" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
         <v>43</v>
       </c>
@@ -5454,15 +5500,16 @@
         <v>1651</v>
       </c>
       <c r="AD57" s="5">
-        <f>+AD49*0.9</f>
-        <v>1294.2</v>
-      </c>
-      <c r="AE57" s="5"/>
+        <v>2289</v>
+      </c>
+      <c r="AE57" s="5">
+        <v>1945</v>
+      </c>
       <c r="AF57" s="5"/>
       <c r="AG57" s="5"/>
       <c r="AH57" s="5"/>
       <c r="AS57" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>3621</v>
       </c>
       <c r="AT57" s="4">
@@ -5471,10 +5518,10 @@
       </c>
       <c r="AU57" s="4">
         <f t="shared" si="58"/>
-        <v>6451.2</v>
-      </c>
-    </row>
-    <row r="58" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7446</v>
+      </c>
+    </row>
+    <row r="58" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
         <v>44</v>
       </c>
@@ -5552,15 +5599,16 @@
         <v>2544</v>
       </c>
       <c r="AD58" s="5">
-        <f>+AD50</f>
-        <v>2166</v>
-      </c>
-      <c r="AE58" s="5"/>
+        <v>2729</v>
+      </c>
+      <c r="AE58" s="5">
+        <v>2537</v>
+      </c>
       <c r="AF58" s="5"/>
       <c r="AG58" s="5"/>
       <c r="AH58" s="5"/>
       <c r="AS58" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>5880</v>
       </c>
       <c r="AT58" s="4">
@@ -5569,10 +5617,10 @@
       </c>
       <c r="AU58" s="4">
         <f t="shared" si="58"/>
-        <v>9358</v>
-      </c>
-    </row>
-    <row r="59" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9921</v>
+      </c>
+    </row>
+    <row r="59" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
         <v>45</v>
       </c>
@@ -5581,107 +5629,110 @@
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5">
-        <f t="shared" ref="G59:K59" si="69">G56+G49+G50-G57-G58</f>
+        <f t="shared" ref="G59:K59" si="70">G56+G49+G50-G57-G58</f>
         <v>566</v>
       </c>
       <c r="H59" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>921</v>
       </c>
       <c r="I59" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>1191</v>
       </c>
       <c r="J59" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>1391</v>
       </c>
       <c r="K59" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>1234</v>
       </c>
       <c r="L59" s="5">
-        <f t="shared" ref="L59" si="70">L56+L49+L50-L57-L58</f>
+        <f t="shared" ref="L59" si="71">L56+L49+L50-L57-L58</f>
         <v>1267</v>
       </c>
       <c r="M59" s="5">
-        <f t="shared" ref="M59:T59" si="71">M56+M49+M50-M57-M58</f>
+        <f t="shared" ref="M59:T59" si="72">M56+M49+M50-M57-M58</f>
         <v>2063</v>
       </c>
       <c r="N59" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>2066</v>
       </c>
       <c r="O59" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>2215</v>
       </c>
       <c r="P59" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>2884</v>
       </c>
       <c r="Q59" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>3660</v>
       </c>
       <c r="R59" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>4847</v>
       </c>
       <c r="S59" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>5460</v>
       </c>
       <c r="T59" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>4233</v>
       </c>
       <c r="U59" s="5">
-        <f t="shared" ref="U59:AD59" si="72">U56+U49+U50-U57-U58</f>
+        <f t="shared" ref="U59:AD59" si="73">U56+U49+U50-U57-U58</f>
         <v>5382</v>
       </c>
       <c r="V59" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>6265.5999999999985</v>
       </c>
       <c r="W59" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>4511</v>
       </c>
       <c r="X59" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>4533</v>
       </c>
       <c r="Y59" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>4178</v>
       </c>
       <c r="Z59" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>4438</v>
       </c>
       <c r="AA59" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>3696</v>
       </c>
       <c r="AB59" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>4578</v>
       </c>
       <c r="AC59" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>4997</v>
       </c>
       <c r="AD59" s="5">
-        <f t="shared" si="72"/>
-        <v>4150.2162421801959</v>
-      </c>
-      <c r="AE59" s="5"/>
+        <f t="shared" si="73"/>
+        <v>4179</v>
+      </c>
+      <c r="AE59" s="5">
+        <f t="shared" ref="AE59" si="74">AE56+AE49+AE50-AE57-AE58</f>
+        <v>3153</v>
+      </c>
       <c r="AF59" s="5"/>
       <c r="AG59" s="5"/>
       <c r="AH59" s="5"/>
       <c r="AS59" s="5">
-        <f t="shared" ref="AS59" si="73">+AS51*0.25</f>
+        <f t="shared" ref="AS59" si="75">+AS51*0.25</f>
         <v>20487.650000000001</v>
       </c>
       <c r="AT59" s="4">
@@ -5690,54 +5741,54 @@
       </c>
       <c r="AU59" s="4">
         <f t="shared" si="58"/>
-        <v>17421.216242180195</v>
+        <v>17450</v>
       </c>
       <c r="AV59" s="4">
         <f>+AV56+AV44</f>
-        <v>23667.207228911662</v>
+        <v>22738.94284779267</v>
       </c>
       <c r="AW59" s="4">
-        <f t="shared" ref="AW59:BF59" si="74">+AW56+AW44</f>
-        <v>34083.422127864971</v>
+        <f t="shared" ref="AW59:BF59" si="76">+AW56+AW44</f>
+        <v>32828.524717639717</v>
       </c>
       <c r="AX59" s="4">
-        <f t="shared" si="74"/>
-        <v>41937.661827464006</v>
+        <f t="shared" si="76"/>
+        <v>40312.748952280919</v>
       </c>
       <c r="AY59" s="4">
-        <f t="shared" si="74"/>
-        <v>55573.524893792543</v>
+        <f t="shared" si="76"/>
+        <v>53473.842020351432</v>
       </c>
       <c r="AZ59" s="4">
-        <f t="shared" si="74"/>
-        <v>70042.759021586724</v>
+        <f t="shared" si="76"/>
+        <v>67447.550990013508</v>
       </c>
       <c r="BA59" s="4">
-        <f t="shared" si="74"/>
-        <v>83940.527600865957</v>
+        <f t="shared" si="76"/>
+        <v>80877.641455269622</v>
       </c>
       <c r="BB59" s="4">
-        <f t="shared" si="74"/>
-        <v>90859.936098892402</v>
+        <f t="shared" si="76"/>
+        <v>87547.424732429979</v>
       </c>
       <c r="BC59" s="4">
-        <f t="shared" si="74"/>
-        <v>98323.708622460952</v>
+        <f t="shared" si="76"/>
+        <v>94741.227579631843</v>
       </c>
       <c r="BD59" s="4">
-        <f t="shared" si="74"/>
-        <v>106374.36430388966</v>
+        <f t="shared" si="76"/>
+        <v>102499.91105606998</v>
       </c>
       <c r="BE59" s="4">
-        <f t="shared" si="74"/>
-        <v>115057.7518506218</v>
+        <f t="shared" si="76"/>
+        <v>110867.53066310482</v>
       </c>
       <c r="BF59" s="4">
-        <f t="shared" si="74"/>
-        <v>124423.31194852198</v>
-      </c>
-    </row>
-    <row r="60" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="76"/>
+        <v>119891.5877342224</v>
+      </c>
+    </row>
+    <row r="60" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
         <v>46</v>
       </c>
@@ -5815,15 +5866,16 @@
         <v>1039</v>
       </c>
       <c r="AD60" s="5">
-        <f t="shared" ref="AD60:AD61" si="75">+Z60*1.1</f>
-        <v>1203.4000000000001</v>
-      </c>
-      <c r="AE60" s="5"/>
+        <v>1276</v>
+      </c>
+      <c r="AE60" s="5">
+        <v>1409</v>
+      </c>
       <c r="AF60" s="5"/>
       <c r="AG60" s="5"/>
       <c r="AH60" s="5"/>
       <c r="AS60" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>3075</v>
       </c>
       <c r="AT60" s="4">
@@ -5831,55 +5883,55 @@
         <v>3969</v>
       </c>
       <c r="AU60" s="4">
-        <f t="shared" ref="AU60:AU61" si="76">SUM(AA60:AD60)</f>
-        <v>4467.3999999999996</v>
+        <f t="shared" ref="AU60:AU61" si="77">SUM(AA60:AD60)</f>
+        <v>4540</v>
       </c>
       <c r="AV60" s="4">
         <f>AU60*1.04</f>
-        <v>4646.0959999999995</v>
+        <v>4721.6000000000004</v>
       </c>
       <c r="AW60" s="4">
-        <f t="shared" ref="AW60:BA60" si="77">AV60*1.04</f>
-        <v>4831.93984</v>
+        <f t="shared" ref="AW60:BA60" si="78">AV60*1.04</f>
+        <v>4910.4640000000009</v>
       </c>
       <c r="AX60" s="4">
-        <f t="shared" si="77"/>
-        <v>5025.2174335999998</v>
+        <f t="shared" si="78"/>
+        <v>5106.8825600000009</v>
       </c>
       <c r="AY60" s="4">
-        <f t="shared" si="77"/>
-        <v>5226.226130944</v>
+        <f t="shared" si="78"/>
+        <v>5311.1578624000012</v>
       </c>
       <c r="AZ60" s="4">
-        <f t="shared" si="77"/>
-        <v>5435.2751761817599</v>
+        <f t="shared" si="78"/>
+        <v>5523.6041768960013</v>
       </c>
       <c r="BA60" s="4">
-        <f t="shared" si="77"/>
-        <v>5652.6861832290306</v>
+        <f t="shared" si="78"/>
+        <v>5744.5483439718419</v>
       </c>
       <c r="BB60" s="4">
-        <f t="shared" ref="BB60:BF60" si="78">BA60*1.04</f>
-        <v>5878.7936305581916</v>
+        <f t="shared" ref="BB60:BF60" si="79">BA60*1.04</f>
+        <v>5974.3302777307154</v>
       </c>
       <c r="BC60" s="4">
-        <f t="shared" si="78"/>
-        <v>6113.9453757805195</v>
+        <f t="shared" si="79"/>
+        <v>6213.3034888399443</v>
       </c>
       <c r="BD60" s="4">
-        <f t="shared" si="78"/>
-        <v>6358.5031908117408</v>
+        <f t="shared" si="79"/>
+        <v>6461.8356283935427</v>
       </c>
       <c r="BE60" s="4">
-        <f t="shared" si="78"/>
-        <v>6612.843318444211</v>
+        <f t="shared" si="79"/>
+        <v>6720.3090535292849</v>
       </c>
       <c r="BF60" s="4">
-        <f t="shared" si="78"/>
-        <v>6877.3570511819798</v>
-      </c>
-    </row>
-    <row r="61" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="79"/>
+        <v>6989.1214156704564</v>
+      </c>
+    </row>
+    <row r="61" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
         <v>47</v>
       </c>
@@ -5958,15 +6010,16 @@
         <v>1186</v>
       </c>
       <c r="AD61" s="5">
-        <f t="shared" si="75"/>
-        <v>1408</v>
-      </c>
-      <c r="AE61" s="5"/>
+        <v>1313</v>
+      </c>
+      <c r="AE61" s="5">
+        <v>1251</v>
+      </c>
       <c r="AF61" s="5"/>
       <c r="AG61" s="5"/>
       <c r="AH61" s="5"/>
       <c r="AS61" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>4706.8</v>
       </c>
       <c r="AT61" s="4">
@@ -5974,55 +6027,55 @@
         <v>4800</v>
       </c>
       <c r="AU61" s="4">
-        <f t="shared" si="76"/>
-        <v>5245</v>
+        <f t="shared" si="77"/>
+        <v>5150</v>
       </c>
       <c r="AV61" s="4">
         <f>AU61*1.04</f>
-        <v>5454.8</v>
+        <v>5356</v>
       </c>
       <c r="AW61" s="4">
-        <f t="shared" ref="AW61:BA61" si="79">AV61*1.04</f>
-        <v>5672.9920000000002</v>
+        <f t="shared" ref="AW61:BA61" si="80">AV61*1.04</f>
+        <v>5570.24</v>
       </c>
       <c r="AX61" s="4">
-        <f t="shared" si="79"/>
-        <v>5899.9116800000002</v>
+        <f t="shared" si="80"/>
+        <v>5793.0496000000003</v>
       </c>
       <c r="AY61" s="4">
-        <f t="shared" si="79"/>
-        <v>6135.9081472000007</v>
+        <f t="shared" si="80"/>
+        <v>6024.7715840000001</v>
       </c>
       <c r="AZ61" s="4">
-        <f t="shared" si="79"/>
-        <v>6381.344473088001</v>
+        <f t="shared" si="80"/>
+        <v>6265.7624473599999</v>
       </c>
       <c r="BA61" s="4">
-        <f t="shared" si="79"/>
-        <v>6636.5982520115213</v>
+        <f t="shared" si="80"/>
+        <v>6516.3929452543998</v>
       </c>
       <c r="BB61" s="4">
-        <f t="shared" ref="BB61:BF61" si="80">BA61*1.04</f>
-        <v>6902.0621820919823</v>
+        <f t="shared" ref="BB61:BF61" si="81">BA61*1.04</f>
+        <v>6777.0486630645764</v>
       </c>
       <c r="BC61" s="4">
-        <f t="shared" si="80"/>
-        <v>7178.1446693756616</v>
+        <f t="shared" si="81"/>
+        <v>7048.1306095871596</v>
       </c>
       <c r="BD61" s="4">
-        <f t="shared" si="80"/>
-        <v>7465.270456150688</v>
+        <f t="shared" si="81"/>
+        <v>7330.0558339706458</v>
       </c>
       <c r="BE61" s="4">
-        <f t="shared" si="80"/>
-        <v>7763.8812743967155</v>
+        <f t="shared" si="81"/>
+        <v>7623.2580673294715</v>
       </c>
       <c r="BF61" s="4">
-        <f t="shared" si="80"/>
-        <v>8074.4365253725846</v>
-      </c>
-    </row>
-    <row r="62" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="81"/>
+        <v>7928.1883900226503</v>
+      </c>
+    </row>
+    <row r="62" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
         <v>48</v>
       </c>
@@ -6031,51 +6084,51 @@
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5">
-        <f t="shared" ref="G62" si="81">G60+G61</f>
+        <f t="shared" ref="G62" si="82">G60+G61</f>
         <v>1044</v>
       </c>
       <c r="H62" s="5">
-        <f t="shared" ref="H62:I62" si="82">H60+H61</f>
+        <f t="shared" ref="H62:I62" si="83">H60+H61</f>
         <v>971</v>
       </c>
       <c r="I62" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>930</v>
       </c>
       <c r="J62" s="5">
-        <f t="shared" ref="J62:L62" si="83">J60+J61</f>
+        <f t="shared" ref="J62:L62" si="84">J60+J61</f>
         <v>1044</v>
       </c>
       <c r="K62" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>951</v>
       </c>
       <c r="L62" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>940</v>
       </c>
       <c r="M62" s="5">
-        <f t="shared" ref="M62:N62" si="84">M60+M61</f>
+        <f t="shared" ref="M62:N62" si="85">M60+M61</f>
         <v>1254</v>
       </c>
       <c r="N62" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1491</v>
       </c>
       <c r="O62" s="5">
-        <f t="shared" ref="O62:R62" si="85">O60+O61</f>
+        <f t="shared" ref="O62:R62" si="86">O60+O61</f>
         <v>1722</v>
       </c>
       <c r="P62" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>1549</v>
       </c>
       <c r="Q62" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>1605</v>
       </c>
       <c r="R62" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2234</v>
       </c>
       <c r="S62" s="5">
@@ -6091,7 +6144,7 @@
         <v>1694</v>
       </c>
       <c r="V62" s="5">
-        <f t="shared" ref="V62:AD62" si="86">V60+V61</f>
+        <f t="shared" ref="V62:AE62" si="87">V60+V61</f>
         <v>2602.8000000000002</v>
       </c>
       <c r="W62" s="5">
@@ -6099,39 +6152,42 @@
         <v>1847</v>
       </c>
       <c r="X62" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>2134</v>
       </c>
       <c r="Y62" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>2414</v>
       </c>
       <c r="Z62" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>2374</v>
       </c>
       <c r="AA62" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>2525</v>
       </c>
       <c r="AB62" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>2351</v>
       </c>
       <c r="AC62" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>2225</v>
       </c>
       <c r="AD62" s="5">
-        <f t="shared" si="86"/>
-        <v>2611.4</v>
-      </c>
-      <c r="AE62" s="5"/>
+        <f t="shared" si="87"/>
+        <v>2589</v>
+      </c>
+      <c r="AE62" s="5">
+        <f t="shared" si="87"/>
+        <v>2660</v>
+      </c>
       <c r="AF62" s="5"/>
       <c r="AG62" s="5"/>
       <c r="AH62" s="5"/>
       <c r="AS62" s="4">
-        <f t="shared" ref="AS62" si="87">+AS60+AS61</f>
+        <f t="shared" ref="AS62" si="88">+AS60+AS61</f>
         <v>7781.8</v>
       </c>
       <c r="AT62" s="4">
@@ -6139,55 +6195,55 @@
         <v>8769</v>
       </c>
       <c r="AU62" s="4">
-        <f t="shared" ref="AU62:AY62" si="88">+AU60+AU61</f>
-        <v>9712.4</v>
+        <f t="shared" ref="AU62:AY62" si="89">+AU60+AU61</f>
+        <v>9690</v>
       </c>
       <c r="AV62" s="4">
         <f>+AV60+AV61</f>
-        <v>10100.896000000001</v>
+        <v>10077.6</v>
       </c>
       <c r="AW62" s="4">
-        <f t="shared" si="88"/>
-        <v>10504.931840000001</v>
+        <f t="shared" si="89"/>
+        <v>10480.704000000002</v>
       </c>
       <c r="AX62" s="4">
-        <f t="shared" si="88"/>
-        <v>10925.1291136</v>
+        <f t="shared" si="89"/>
+        <v>10899.93216</v>
       </c>
       <c r="AY62" s="4">
-        <f t="shared" si="88"/>
-        <v>11362.134278144</v>
+        <f t="shared" si="89"/>
+        <v>11335.929446400001</v>
       </c>
       <c r="AZ62" s="4">
-        <f t="shared" ref="AZ62" si="89">+AZ60+AZ61</f>
-        <v>11816.61964926976</v>
+        <f t="shared" ref="AZ62" si="90">+AZ60+AZ61</f>
+        <v>11789.366624256001</v>
       </c>
       <c r="BA62" s="4">
-        <f t="shared" ref="BA62:BF62" si="90">+BA60+BA61</f>
-        <v>12289.284435240552</v>
+        <f t="shared" ref="BA62:BF62" si="91">+BA60+BA61</f>
+        <v>12260.941289226241</v>
       </c>
       <c r="BB62" s="4">
-        <f t="shared" si="90"/>
-        <v>12780.855812650174</v>
+        <f t="shared" si="91"/>
+        <v>12751.378940795292</v>
       </c>
       <c r="BC62" s="4">
-        <f t="shared" si="90"/>
-        <v>13292.090045156181</v>
+        <f t="shared" si="91"/>
+        <v>13261.434098427104</v>
       </c>
       <c r="BD62" s="4">
-        <f t="shared" si="90"/>
-        <v>13823.773646962429</v>
+        <f t="shared" si="91"/>
+        <v>13791.891462364189</v>
       </c>
       <c r="BE62" s="4">
-        <f t="shared" si="90"/>
-        <v>14376.724592840927</v>
+        <f t="shared" si="91"/>
+        <v>14343.567120858756</v>
       </c>
       <c r="BF62" s="4">
-        <f t="shared" si="90"/>
-        <v>14951.793576554564</v>
-      </c>
-    </row>
-    <row r="63" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="91"/>
+        <v>14917.309805693107</v>
+      </c>
+    </row>
+    <row r="63" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
         <v>49</v>
       </c>
@@ -6196,51 +6252,51 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5">
-        <f t="shared" ref="G63" si="91">G59-G62</f>
+        <f t="shared" ref="G63" si="92">G59-G62</f>
         <v>-478</v>
       </c>
       <c r="H63" s="5">
-        <f t="shared" ref="H63:I63" si="92">H59-H62</f>
+        <f t="shared" ref="H63:I63" si="93">H59-H62</f>
         <v>-50</v>
       </c>
       <c r="I63" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>261</v>
       </c>
       <c r="J63" s="5">
-        <f t="shared" ref="J63:L63" si="93">J59-J62</f>
+        <f t="shared" ref="J63:L63" si="94">J59-J62</f>
         <v>347</v>
       </c>
       <c r="K63" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>283</v>
       </c>
       <c r="L63" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>327</v>
       </c>
       <c r="M63" s="5">
-        <f t="shared" ref="M63:N63" si="94">M59-M62</f>
+        <f t="shared" ref="M63:N63" si="95">M59-M62</f>
         <v>809</v>
       </c>
       <c r="N63" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>575</v>
       </c>
       <c r="O63" s="5">
-        <f t="shared" ref="O63:R63" si="95">O59-O62</f>
+        <f t="shared" ref="O63:R63" si="96">O59-O62</f>
         <v>493</v>
       </c>
       <c r="P63" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1335</v>
       </c>
       <c r="Q63" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>2055</v>
       </c>
       <c r="R63" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>2613</v>
       </c>
       <c r="S63" s="5">
@@ -6256,7 +6312,7 @@
         <v>3688</v>
       </c>
       <c r="V63" s="5">
-        <f t="shared" ref="V63:AD63" si="96">V59-V62</f>
+        <f t="shared" ref="V63:AE63" si="97">V59-V62</f>
         <v>3662.7999999999984</v>
       </c>
       <c r="W63" s="5">
@@ -6264,95 +6320,98 @@
         <v>2664</v>
       </c>
       <c r="X63" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>2399</v>
       </c>
       <c r="Y63" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1764</v>
       </c>
       <c r="Z63" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>2064</v>
       </c>
       <c r="AA63" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1171</v>
       </c>
       <c r="AB63" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>2227</v>
       </c>
       <c r="AC63" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>2772</v>
       </c>
       <c r="AD63" s="5">
-        <f t="shared" si="96"/>
-        <v>1538.8162421801958</v>
-      </c>
-      <c r="AE63" s="5"/>
+        <f t="shared" si="97"/>
+        <v>1590</v>
+      </c>
+      <c r="AE63" s="5">
+        <f t="shared" si="97"/>
+        <v>493</v>
+      </c>
       <c r="AF63" s="5"/>
       <c r="AG63" s="5"/>
       <c r="AH63" s="5"/>
       <c r="AS63" s="5">
-        <f t="shared" ref="AS63:AT63" si="97">AS59-AS62</f>
+        <f t="shared" ref="AS63:AT63" si="98">AS59-AS62</f>
         <v>12705.850000000002</v>
       </c>
       <c r="AT63" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>8891</v>
       </c>
       <c r="AU63" s="5">
-        <f t="shared" ref="AU63:BA63" si="98">AU59-AU62</f>
-        <v>7708.8162421801953</v>
+        <f t="shared" ref="AU63:BA63" si="99">AU59-AU62</f>
+        <v>7760</v>
       </c>
       <c r="AV63" s="5">
         <f>AV59-AV62</f>
-        <v>13566.311228911662</v>
+        <v>12661.34284779267</v>
       </c>
       <c r="AW63" s="5">
-        <f t="shared" si="98"/>
-        <v>23578.49028786497</v>
+        <f t="shared" si="99"/>
+        <v>22347.820717639715</v>
       </c>
       <c r="AX63" s="5">
-        <f t="shared" si="98"/>
-        <v>31012.532713864006</v>
+        <f t="shared" si="99"/>
+        <v>29412.816792280919</v>
       </c>
       <c r="AY63" s="5">
-        <f t="shared" si="98"/>
-        <v>44211.390615648546</v>
+        <f t="shared" si="99"/>
+        <v>42137.912573951427</v>
       </c>
       <c r="AZ63" s="5">
-        <f t="shared" si="98"/>
-        <v>58226.13937231696</v>
+        <f t="shared" si="99"/>
+        <v>55658.184365757508</v>
       </c>
       <c r="BA63" s="5">
-        <f t="shared" si="98"/>
-        <v>71651.243165625405</v>
+        <f t="shared" si="99"/>
+        <v>68616.700166043389</v>
       </c>
       <c r="BB63" s="5">
-        <f t="shared" ref="BB63:BF63" si="99">BB59-BB62</f>
-        <v>78079.080286242228</v>
+        <f t="shared" ref="BB63:BF63" si="100">BB59-BB62</f>
+        <v>74796.045791634693</v>
       </c>
       <c r="BC63" s="5">
-        <f t="shared" si="99"/>
-        <v>85031.618577304776</v>
+        <f t="shared" si="100"/>
+        <v>81479.793481204746</v>
       </c>
       <c r="BD63" s="5">
-        <f t="shared" si="99"/>
-        <v>92550.590656927234</v>
+        <f t="shared" si="100"/>
+        <v>88708.019593705787</v>
       </c>
       <c r="BE63" s="5">
-        <f t="shared" si="99"/>
-        <v>100681.02725778088</v>
+        <f t="shared" si="100"/>
+        <v>96523.963542246056</v>
       </c>
       <c r="BF63" s="5">
-        <f t="shared" si="99"/>
-        <v>109471.51837196741</v>
-      </c>
-    </row>
-    <row r="64" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="100"/>
+        <v>104974.27792852929</v>
+      </c>
+    </row>
+    <row r="64" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
         <v>50</v>
       </c>
@@ -6452,8 +6511,14 @@
         <f>429-92-270</f>
         <v>67</v>
       </c>
-      <c r="AD64" s="5"/>
-      <c r="AE64" s="5"/>
+      <c r="AD64" s="5">
+        <f>442-96+595</f>
+        <v>941</v>
+      </c>
+      <c r="AE64" s="5">
+        <f>400-91-119</f>
+        <v>190</v>
+      </c>
       <c r="AF64" s="5"/>
       <c r="AG64" s="5"/>
       <c r="AH64" s="5"/>
@@ -6462,55 +6527,55 @@
         <v>1082</v>
       </c>
       <c r="AU64" s="4">
-        <f t="shared" ref="AU64" si="100">SUM(AA64:AD64)</f>
-        <v>731</v>
+        <f t="shared" ref="AU64" si="101">SUM(AA64:AD64)</f>
+        <v>1672</v>
       </c>
       <c r="AV64" s="4">
-        <f t="shared" ref="AV64:BF64" si="101">AU94*$BH$81</f>
-        <v>3054.6052993744161</v>
+        <f t="shared" ref="AV64:BF64" si="102">AU103*$BH$81</f>
+        <v>3145</v>
       </c>
       <c r="AW64" s="4">
-        <f t="shared" si="101"/>
-        <v>4467.3832042787326</v>
+        <f t="shared" si="102"/>
+        <v>4488.5391420623773</v>
       </c>
       <c r="AX64" s="4">
-        <f t="shared" si="101"/>
-        <v>6851.2824511109475</v>
+        <f t="shared" si="102"/>
+        <v>6769.629730137055</v>
       </c>
       <c r="AY64" s="4">
-        <f t="shared" si="101"/>
-        <v>10069.706740133821</v>
+        <f t="shared" si="102"/>
+        <v>9845.1376845425839</v>
       </c>
       <c r="AZ64" s="4">
-        <f t="shared" si="101"/>
-        <v>14683.600015375321</v>
+        <f t="shared" si="102"/>
+        <v>14263.696956514574</v>
       </c>
       <c r="BA64" s="4">
-        <f t="shared" si="101"/>
-        <v>20880.927863329169</v>
+        <f t="shared" si="102"/>
+        <v>20207.056868907701</v>
       </c>
       <c r="BB64" s="4">
-        <f t="shared" si="101"/>
-        <v>28746.162400790305</v>
+        <f t="shared" si="102"/>
+        <v>27757.076216878544</v>
       </c>
       <c r="BC64" s="4">
-        <f t="shared" si="101"/>
-        <v>37826.308029188069</v>
+        <f t="shared" si="102"/>
+        <v>36474.091587602175</v>
       </c>
       <c r="BD64" s="4">
-        <f t="shared" si="101"/>
-        <v>48269.231790739963</v>
+        <f t="shared" si="102"/>
+        <v>46500.171818450763</v>
       </c>
       <c r="BE64" s="4">
-        <f t="shared" si="101"/>
-        <v>60238.916698791669</v>
+        <f t="shared" si="102"/>
+        <v>57992.868088484072</v>
       </c>
       <c r="BF64" s="4">
-        <f t="shared" si="101"/>
-        <v>73917.111935100329</v>
-      </c>
-    </row>
-    <row r="65" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="102"/>
+        <v>71126.798777096134</v>
+      </c>
+    </row>
+    <row r="65" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
         <v>51</v>
       </c>
@@ -6519,51 +6584,51 @@
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5">
-        <f t="shared" ref="G65:N65" si="102">G63+G64</f>
+        <f t="shared" ref="G65:N65" si="103">G63+G64</f>
         <v>-601</v>
       </c>
       <c r="H65" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>-253</v>
       </c>
       <c r="I65" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>176</v>
       </c>
       <c r="J65" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>160</v>
       </c>
       <c r="K65" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>70</v>
       </c>
       <c r="L65" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>150</v>
       </c>
       <c r="M65" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>555</v>
       </c>
       <c r="N65" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>379</v>
       </c>
       <c r="O65" s="5">
-        <f t="shared" ref="O65:R65" si="103">O63+O64</f>
+        <f t="shared" ref="O65:R65" si="104">O63+O64</f>
         <v>432</v>
       </c>
       <c r="P65" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>1316</v>
       </c>
       <c r="Q65" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>1933</v>
       </c>
       <c r="R65" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>2635</v>
       </c>
       <c r="S65" s="5">
@@ -6579,42 +6644,45 @@
         <v>3636</v>
       </c>
       <c r="V65" s="5">
-        <f t="shared" ref="V65:AD65" si="104">V63+V64</f>
+        <f t="shared" ref="V65:AE65" si="105">V63+V64</f>
         <v>3744.7999999999984</v>
       </c>
       <c r="W65" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>2800</v>
       </c>
       <c r="X65" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>2937</v>
       </c>
       <c r="Y65" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>2045</v>
       </c>
       <c r="Z65" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>2191</v>
       </c>
       <c r="AA65" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>1553</v>
       </c>
       <c r="AB65" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>2509</v>
       </c>
       <c r="AC65" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>2839</v>
       </c>
       <c r="AD65" s="5">
-        <f t="shared" si="104"/>
-        <v>1538.8162421801958</v>
-      </c>
-      <c r="AE65" s="5"/>
+        <f t="shared" si="105"/>
+        <v>2531</v>
+      </c>
+      <c r="AE65" s="5">
+        <f t="shared" si="105"/>
+        <v>683</v>
+      </c>
       <c r="AF65" s="5"/>
       <c r="AG65" s="5"/>
       <c r="AH65" s="5"/>
@@ -6623,55 +6691,55 @@
         <v>9973</v>
       </c>
       <c r="AU65" s="4">
-        <f t="shared" ref="AU65:BF65" si="105">+AU63+AU64</f>
-        <v>8439.8162421801953</v>
+        <f t="shared" ref="AU65:BF65" si="106">+AU63+AU64</f>
+        <v>9432</v>
       </c>
       <c r="AV65" s="4">
-        <f t="shared" si="105"/>
-        <v>16620.916528286078</v>
+        <f t="shared" si="106"/>
+        <v>15806.34284779267</v>
       </c>
       <c r="AW65" s="4">
-        <f t="shared" si="105"/>
-        <v>28045.873492143703</v>
+        <f t="shared" si="106"/>
+        <v>26836.359859702094</v>
       </c>
       <c r="AX65" s="4">
-        <f t="shared" si="105"/>
-        <v>37863.815164974956</v>
+        <f t="shared" si="106"/>
+        <v>36182.446522417973</v>
       </c>
       <c r="AY65" s="4">
-        <f t="shared" si="105"/>
-        <v>54281.097355782367</v>
+        <f t="shared" si="106"/>
+        <v>51983.050258494011</v>
       </c>
       <c r="AZ65" s="4">
-        <f t="shared" si="105"/>
-        <v>72909.739387692287</v>
+        <f t="shared" si="106"/>
+        <v>69921.881322272078</v>
       </c>
       <c r="BA65" s="4">
-        <f t="shared" si="105"/>
-        <v>92532.171028954574</v>
+        <f t="shared" si="106"/>
+        <v>88823.757034951093</v>
       </c>
       <c r="BB65" s="4">
-        <f t="shared" si="105"/>
-        <v>106825.24268703253</v>
+        <f t="shared" si="106"/>
+        <v>102553.12200851324</v>
       </c>
       <c r="BC65" s="4">
-        <f t="shared" si="105"/>
-        <v>122857.92660649284</v>
+        <f t="shared" si="106"/>
+        <v>117953.88506880692</v>
       </c>
       <c r="BD65" s="4">
-        <f t="shared" si="105"/>
-        <v>140819.82244766719</v>
+        <f t="shared" si="106"/>
+        <v>135208.19141215656</v>
       </c>
       <c r="BE65" s="4">
-        <f t="shared" si="105"/>
-        <v>160919.94395657256</v>
+        <f t="shared" si="106"/>
+        <v>154516.83163073013</v>
       </c>
       <c r="BF65" s="4">
-        <f t="shared" si="105"/>
-        <v>183388.63030706774</v>
-      </c>
-    </row>
-    <row r="66" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v>176101.07670562543</v>
+      </c>
+    </row>
+    <row r="66" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="4" t="s">
         <v>52</v>
       </c>
@@ -6769,10 +6837,13 @@
         <v>617</v>
       </c>
       <c r="AD66" s="5">
-        <f>+AD65*0.2</f>
-        <v>307.76324843603919</v>
-      </c>
-      <c r="AE66" s="5"/>
+        <f>381+15</f>
+        <v>396</v>
+      </c>
+      <c r="AE66" s="5">
+        <f>169+11</f>
+        <v>180</v>
+      </c>
       <c r="AF66" s="5"/>
       <c r="AG66" s="5"/>
       <c r="AH66" s="5"/>
@@ -6781,55 +6852,55 @@
         <v>728</v>
       </c>
       <c r="AU66" s="4">
-        <f t="shared" ref="AU66" si="106">SUM(AA66:AD66)</f>
-        <v>1757.7632484360392</v>
+        <f t="shared" ref="AU66" si="107">SUM(AA66:AD66)</f>
+        <v>1846</v>
       </c>
       <c r="AV66" s="4">
-        <f t="shared" ref="AV66:BA66" si="107">+AV65*0.15</f>
-        <v>2493.1374792429115</v>
+        <f t="shared" ref="AV66:BA66" si="108">+AV65*0.15</f>
+        <v>2370.9514271689004</v>
       </c>
       <c r="AW66" s="4">
-        <f t="shared" si="107"/>
-        <v>4206.8810238215556</v>
+        <f t="shared" si="108"/>
+        <v>4025.4539789553137</v>
       </c>
       <c r="AX66" s="4">
-        <f t="shared" si="107"/>
-        <v>5679.5722747462432</v>
+        <f t="shared" si="108"/>
+        <v>5427.3669783626956</v>
       </c>
       <c r="AY66" s="4">
-        <f t="shared" si="107"/>
-        <v>8142.1646033673551</v>
+        <f t="shared" si="108"/>
+        <v>7797.4575387741015</v>
       </c>
       <c r="AZ66" s="4">
-        <f t="shared" si="107"/>
-        <v>10936.460908153842</v>
+        <f t="shared" si="108"/>
+        <v>10488.282198340812</v>
       </c>
       <c r="BA66" s="4">
-        <f t="shared" si="107"/>
-        <v>13879.825654343185</v>
+        <f t="shared" si="108"/>
+        <v>13323.563555242663</v>
       </c>
       <c r="BB66" s="4">
-        <f t="shared" ref="BB66:BF66" si="108">+BB65*0.15</f>
-        <v>16023.786403054879</v>
+        <f t="shared" ref="BB66:BF66" si="109">+BB65*0.15</f>
+        <v>15382.968301276986</v>
       </c>
       <c r="BC66" s="4">
-        <f t="shared" si="108"/>
-        <v>18428.688990973926</v>
+        <f t="shared" si="109"/>
+        <v>17693.082760321038</v>
       </c>
       <c r="BD66" s="4">
-        <f t="shared" si="108"/>
-        <v>21122.973367150076</v>
+        <f t="shared" si="109"/>
+        <v>20281.228711823485</v>
       </c>
       <c r="BE66" s="4">
-        <f t="shared" si="108"/>
-        <v>24137.991593485884</v>
+        <f t="shared" si="109"/>
+        <v>23177.52474460952</v>
       </c>
       <c r="BF66" s="4">
-        <f t="shared" si="108"/>
-        <v>27508.294546060159</v>
-      </c>
-    </row>
-    <row r="67" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="109"/>
+        <v>26415.161505843815</v>
+      </c>
+    </row>
+    <row r="67" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="4" t="s">
         <v>53</v>
       </c>
@@ -6838,51 +6909,51 @@
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5">
-        <f t="shared" ref="G67:N67" si="109">G65-G66</f>
+        <f t="shared" ref="G67:N67" si="110">G65-G66</f>
         <v>-658</v>
       </c>
       <c r="H67" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>-291</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>143</v>
       </c>
       <c r="J67" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>91</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>16</v>
       </c>
       <c r="L67" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>104</v>
       </c>
       <c r="M67" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>300</v>
       </c>
       <c r="N67" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>270</v>
       </c>
       <c r="O67" s="5">
-        <f t="shared" ref="O67:R67" si="110">O65-O66</f>
+        <f t="shared" ref="O67:R67" si="111">O65-O66</f>
         <v>337</v>
       </c>
       <c r="P67" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1165</v>
       </c>
       <c r="Q67" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1669</v>
       </c>
       <c r="R67" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>2321</v>
       </c>
       <c r="S67" s="5">
@@ -6898,42 +6969,45 @@
         <v>3331</v>
       </c>
       <c r="V67" s="5">
-        <f t="shared" ref="V67:AD67" si="111">V65-V66</f>
+        <f t="shared" ref="V67:AE67" si="112">V65-V66</f>
         <v>3468.7999999999984</v>
       </c>
       <c r="W67" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>2513</v>
       </c>
       <c r="X67" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>2703</v>
       </c>
       <c r="Y67" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>1853</v>
       </c>
       <c r="Z67" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>2176</v>
       </c>
       <c r="AA67" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>1129</v>
       </c>
       <c r="AB67" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>2100</v>
       </c>
       <c r="AC67" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>2222</v>
       </c>
       <c r="AD67" s="5">
-        <f t="shared" si="111"/>
-        <v>1231.0529937441565</v>
-      </c>
-      <c r="AE67" s="5"/>
+        <f t="shared" si="112"/>
+        <v>2135</v>
+      </c>
+      <c r="AE67" s="5">
+        <f t="shared" si="112"/>
+        <v>503</v>
+      </c>
       <c r="AF67" s="5"/>
       <c r="AG67" s="5"/>
       <c r="AH67" s="5"/>
@@ -6942,259 +7016,259 @@
         <v>9245</v>
       </c>
       <c r="AU67" s="4">
-        <f t="shared" ref="AU67" si="112">+AU65-AU66</f>
-        <v>6682.0529937441561</v>
+        <f t="shared" ref="AU67" si="113">+AU65-AU66</f>
+        <v>7586</v>
       </c>
       <c r="AV67" s="4">
-        <f t="shared" ref="AV67:BA67" si="113">+AV65-AV66</f>
-        <v>14127.779049043165</v>
+        <f t="shared" ref="AV67:BA67" si="114">+AV65-AV66</f>
+        <v>13435.39142062377</v>
       </c>
       <c r="AW67" s="4">
-        <f t="shared" si="113"/>
-        <v>23838.992468322147</v>
+        <f t="shared" si="114"/>
+        <v>22810.905880746781</v>
       </c>
       <c r="AX67" s="4">
-        <f t="shared" si="113"/>
-        <v>32184.242890228714</v>
+        <f t="shared" si="114"/>
+        <v>30755.079544055276</v>
       </c>
       <c r="AY67" s="4">
-        <f t="shared" si="113"/>
-        <v>46138.932752415014</v>
+        <f t="shared" si="114"/>
+        <v>44185.592719719913</v>
       </c>
       <c r="AZ67" s="4">
-        <f t="shared" si="113"/>
-        <v>61973.278479538443</v>
+        <f t="shared" si="114"/>
+        <v>59433.599123931264</v>
       </c>
       <c r="BA67" s="4">
-        <f t="shared" si="113"/>
-        <v>78652.345374611381</v>
+        <f t="shared" si="114"/>
+        <v>75500.193479708425</v>
       </c>
       <c r="BB67" s="4">
-        <f t="shared" ref="BB67:BF67" si="114">+BB65-BB66</f>
-        <v>90801.456283977648</v>
+        <f t="shared" ref="BB67:BF67" si="115">+BB65-BB66</f>
+        <v>87170.153707236255</v>
       </c>
       <c r="BC67" s="4">
-        <f t="shared" si="114"/>
-        <v>104429.23761551891</v>
+        <f t="shared" si="115"/>
+        <v>100260.80230848589</v>
       </c>
       <c r="BD67" s="4">
-        <f t="shared" si="114"/>
-        <v>119696.84908051712</v>
+        <f t="shared" si="115"/>
+        <v>114926.96270033308</v>
       </c>
       <c r="BE67" s="4">
-        <f t="shared" si="114"/>
-        <v>136781.95236308669</v>
+        <f t="shared" si="115"/>
+        <v>131339.30688612061</v>
       </c>
       <c r="BF67" s="4">
-        <f t="shared" si="114"/>
-        <v>155880.33576100759</v>
+        <f t="shared" si="115"/>
+        <v>149685.91519978162</v>
       </c>
       <c r="BG67" s="4">
-        <f t="shared" ref="BG67:CL67" si="115">BF67*(1+$BH$78)</f>
-        <v>154321.53240339752</v>
+        <f t="shared" ref="BG67:CL67" si="116">BF67*(1+$BH$78)</f>
+        <v>148189.05604778382</v>
       </c>
       <c r="BH67" s="4">
-        <f t="shared" si="115"/>
-        <v>152778.31707936354</v>
+        <f t="shared" si="116"/>
+        <v>146707.16548730599</v>
       </c>
       <c r="BI67" s="4">
-        <f t="shared" si="115"/>
-        <v>151250.53390856989</v>
+        <f t="shared" si="116"/>
+        <v>145240.09383243293</v>
       </c>
       <c r="BJ67" s="4">
-        <f t="shared" si="115"/>
-        <v>149738.02856948419</v>
+        <f t="shared" si="116"/>
+        <v>143787.69289410859</v>
       </c>
       <c r="BK67" s="4">
-        <f t="shared" si="115"/>
-        <v>148240.64828378934</v>
+        <f t="shared" si="116"/>
+        <v>142349.81596516751</v>
       </c>
       <c r="BL67" s="4">
-        <f t="shared" si="115"/>
-        <v>146758.24180095145</v>
+        <f t="shared" si="116"/>
+        <v>140926.31780551584</v>
       </c>
       <c r="BM67" s="4">
-        <f t="shared" si="115"/>
-        <v>145290.65938294193</v>
+        <f t="shared" si="116"/>
+        <v>139517.05462746069</v>
       </c>
       <c r="BN67" s="4">
-        <f t="shared" si="115"/>
-        <v>143837.75278911251</v>
+        <f t="shared" si="116"/>
+        <v>138121.88408118609</v>
       </c>
       <c r="BO67" s="4">
-        <f t="shared" si="115"/>
-        <v>142399.37526122137</v>
+        <f t="shared" si="116"/>
+        <v>136740.66524037422</v>
       </c>
       <c r="BP67" s="4">
-        <f t="shared" si="115"/>
-        <v>140975.38150860916</v>
+        <f t="shared" si="116"/>
+        <v>135373.25858797049</v>
       </c>
       <c r="BQ67" s="4">
-        <f t="shared" si="115"/>
-        <v>139565.62769352307</v>
+        <f t="shared" si="116"/>
+        <v>134019.52600209077</v>
       </c>
       <c r="BR67" s="4">
-        <f t="shared" si="115"/>
-        <v>138169.97141658782</v>
+        <f t="shared" si="116"/>
+        <v>132679.33074206987</v>
       </c>
       <c r="BS67" s="4">
-        <f t="shared" si="115"/>
-        <v>136788.27170242195</v>
+        <f t="shared" si="116"/>
+        <v>131352.53743464916</v>
       </c>
       <c r="BT67" s="4">
-        <f t="shared" si="115"/>
-        <v>135420.38898539773</v>
+        <f t="shared" si="116"/>
+        <v>130039.01206030266</v>
       </c>
       <c r="BU67" s="4">
-        <f t="shared" si="115"/>
-        <v>134066.18509554374</v>
+        <f t="shared" si="116"/>
+        <v>128738.62193969963</v>
       </c>
       <c r="BV67" s="4">
-        <f t="shared" si="115"/>
-        <v>132725.52324458832</v>
+        <f t="shared" si="116"/>
+        <v>127451.23572030263</v>
       </c>
       <c r="BW67" s="4">
-        <f t="shared" si="115"/>
-        <v>131398.26801214242</v>
+        <f t="shared" si="116"/>
+        <v>126176.72336309961</v>
       </c>
       <c r="BX67" s="4">
-        <f t="shared" si="115"/>
-        <v>130084.285332021</v>
+        <f t="shared" si="116"/>
+        <v>124914.95612946861</v>
       </c>
       <c r="BY67" s="4">
-        <f t="shared" si="115"/>
-        <v>128783.44247870079</v>
+        <f t="shared" si="116"/>
+        <v>123665.80656817392</v>
       </c>
       <c r="BZ67" s="4">
-        <f t="shared" si="115"/>
-        <v>127495.60805391378</v>
+        <f t="shared" si="116"/>
+        <v>122429.14850249219</v>
       </c>
       <c r="CA67" s="4">
-        <f t="shared" si="115"/>
-        <v>126220.65197337464</v>
+        <f t="shared" si="116"/>
+        <v>121204.85701746726</v>
       </c>
       <c r="CB67" s="4">
-        <f t="shared" si="115"/>
-        <v>124958.44545364089</v>
+        <f t="shared" si="116"/>
+        <v>119992.80844729258</v>
       </c>
       <c r="CC67" s="4">
-        <f t="shared" si="115"/>
-        <v>123708.86099910448</v>
+        <f t="shared" si="116"/>
+        <v>118792.88036281966</v>
       </c>
       <c r="CD67" s="4">
-        <f t="shared" si="115"/>
-        <v>122471.77238911344</v>
+        <f t="shared" si="116"/>
+        <v>117604.95155919147</v>
       </c>
       <c r="CE67" s="4">
-        <f t="shared" si="115"/>
-        <v>121247.0546652223</v>
+        <f t="shared" si="116"/>
+        <v>116428.90204359955</v>
       </c>
       <c r="CF67" s="4">
-        <f t="shared" si="115"/>
-        <v>120034.58411857007</v>
+        <f t="shared" si="116"/>
+        <v>115264.61302316355</v>
       </c>
       <c r="CG67" s="4">
-        <f t="shared" si="115"/>
-        <v>118834.23827738437</v>
+        <f t="shared" si="116"/>
+        <v>114111.96689293192</v>
       </c>
       <c r="CH67" s="4">
-        <f t="shared" si="115"/>
-        <v>117645.89589461053</v>
+        <f t="shared" si="116"/>
+        <v>112970.8472240026</v>
       </c>
       <c r="CI67" s="4">
-        <f t="shared" si="115"/>
-        <v>116469.43693566442</v>
+        <f t="shared" si="116"/>
+        <v>111841.13875176257</v>
       </c>
       <c r="CJ67" s="4">
-        <f t="shared" si="115"/>
-        <v>115304.74256630777</v>
+        <f t="shared" si="116"/>
+        <v>110722.72736424494</v>
       </c>
       <c r="CK67" s="4">
-        <f t="shared" si="115"/>
-        <v>114151.69514064469</v>
+        <f t="shared" si="116"/>
+        <v>109615.50009060249</v>
       </c>
       <c r="CL67" s="4">
-        <f t="shared" si="115"/>
-        <v>113010.17818923824</v>
+        <f t="shared" si="116"/>
+        <v>108519.34508969646</v>
       </c>
       <c r="CM67" s="4">
-        <f t="shared" ref="CM67:DE67" si="116">CL67*(1+$BH$78)</f>
-        <v>111880.07640734586</v>
+        <f t="shared" ref="CM67:DE67" si="117">CL67*(1+$BH$78)</f>
+        <v>107434.15163879949</v>
       </c>
       <c r="CN67" s="4">
-        <f t="shared" si="116"/>
-        <v>110761.2756432724</v>
+        <f t="shared" si="117"/>
+        <v>106359.81012241149</v>
       </c>
       <c r="CO67" s="4">
-        <f t="shared" si="116"/>
-        <v>109653.66288683968</v>
+        <f t="shared" si="117"/>
+        <v>105296.21202118738</v>
       </c>
       <c r="CP67" s="4">
-        <f t="shared" si="116"/>
-        <v>108557.12625797128</v>
+        <f t="shared" si="117"/>
+        <v>104243.24990097551</v>
       </c>
       <c r="CQ67" s="4">
-        <f t="shared" si="116"/>
-        <v>107471.55499539156</v>
+        <f t="shared" si="117"/>
+        <v>103200.81740196576</v>
       </c>
       <c r="CR67" s="4">
-        <f t="shared" si="116"/>
-        <v>106396.83944543764</v>
+        <f t="shared" si="117"/>
+        <v>102168.8092279461</v>
       </c>
       <c r="CS67" s="4">
-        <f t="shared" si="116"/>
-        <v>105332.87105098326</v>
+        <f t="shared" si="117"/>
+        <v>101147.12113566663</v>
       </c>
       <c r="CT67" s="4">
-        <f t="shared" si="116"/>
-        <v>104279.54234047343</v>
+        <f t="shared" si="117"/>
+        <v>100135.64992430997</v>
       </c>
       <c r="CU67" s="4">
-        <f t="shared" si="116"/>
-        <v>103236.7469170687</v>
+        <f t="shared" si="117"/>
+        <v>99134.293425066862</v>
       </c>
       <c r="CV67" s="4">
-        <f t="shared" si="116"/>
-        <v>102204.37944789801</v>
+        <f t="shared" si="117"/>
+        <v>98142.950490816191</v>
       </c>
       <c r="CW67" s="4">
-        <f t="shared" si="116"/>
-        <v>101182.33565341902</v>
+        <f t="shared" si="117"/>
+        <v>97161.520985908035</v>
       </c>
       <c r="CX67" s="4">
-        <f t="shared" si="116"/>
-        <v>100170.51229688483</v>
+        <f t="shared" si="117"/>
+        <v>96189.905776048952</v>
       </c>
       <c r="CY67" s="4">
-        <f t="shared" si="116"/>
-        <v>99168.807173915979</v>
+        <f t="shared" si="117"/>
+        <v>95228.006718288467</v>
       </c>
       <c r="CZ67" s="4">
-        <f t="shared" si="116"/>
-        <v>98177.119102176817</v>
+        <f t="shared" si="117"/>
+        <v>94275.726651105579</v>
       </c>
       <c r="DA67" s="4">
-        <f t="shared" si="116"/>
-        <v>97195.347911155055</v>
+        <f t="shared" si="117"/>
+        <v>93332.969384594515</v>
       </c>
       <c r="DB67" s="4">
-        <f t="shared" si="116"/>
-        <v>96223.394432043497</v>
+        <f t="shared" si="117"/>
+        <v>92399.639690748576</v>
       </c>
       <c r="DC67" s="4">
-        <f t="shared" si="116"/>
-        <v>95261.160487723057</v>
+        <f t="shared" si="117"/>
+        <v>91475.643293841087</v>
       </c>
       <c r="DD67" s="4">
-        <f t="shared" si="116"/>
-        <v>94308.548882845818</v>
+        <f t="shared" si="117"/>
+        <v>90560.886860902669</v>
       </c>
       <c r="DE67" s="4">
-        <f t="shared" si="116"/>
-        <v>93365.463394017366</v>
-      </c>
-    </row>
-    <row r="68" spans="2:109" x14ac:dyDescent="0.25">
+        <f t="shared" si="117"/>
+        <v>89655.277992293646</v>
+      </c>
+    </row>
+    <row r="68" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>54</v>
       </c>
@@ -7203,102 +7277,105 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3">
-        <f t="shared" ref="G68:K68" si="117">G67/G69</f>
+        <f t="shared" ref="G68:K68" si="118">G67/G69</f>
         <v>-0.76069364161849706</v>
       </c>
       <c r="H68" s="3">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>-0.32881355932203388</v>
       </c>
       <c r="I68" s="3">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>0.15509761388286333</v>
       </c>
       <c r="J68" s="3">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>9.8913043478260868E-2</v>
       </c>
       <c r="K68" s="3">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>1.7112299465240642E-2</v>
       </c>
       <c r="L68" s="3">
-        <f t="shared" ref="L68" si="118">L67/L69</f>
+        <f t="shared" ref="L68" si="119">L67/L69</f>
         <v>0.10048309178743961</v>
       </c>
       <c r="M68" s="3">
-        <f t="shared" ref="M68:O68" si="119">M67/M69</f>
+        <f t="shared" ref="M68:O68" si="120">M67/M69</f>
         <v>0.27149321266968324</v>
       </c>
       <c r="N68" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0.2402135231316726</v>
       </c>
       <c r="O68" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0.29744042365401591</v>
       </c>
       <c r="P68" s="3">
-        <f t="shared" ref="P68" si="120">P67/P69</f>
+        <f t="shared" ref="P68" si="121">P67/P69</f>
         <v>1.0411081322609472</v>
       </c>
       <c r="Q68" s="3">
-        <f t="shared" ref="Q68" si="121">Q67/Q69</f>
+        <f t="shared" ref="Q68" si="122">Q67/Q69</f>
         <v>1.4861976847729297</v>
       </c>
       <c r="R68" s="3">
-        <f t="shared" ref="R68" si="122">R67/R69</f>
+        <f t="shared" ref="R68" si="123">R67/R69</f>
         <v>2.044933920704846</v>
       </c>
       <c r="S68" s="3">
-        <f t="shared" ref="S68:U68" si="123">S67/S69</f>
+        <f t="shared" ref="S68:U68" si="124">S67/S69</f>
         <v>2.867761452031115</v>
       </c>
       <c r="T68" s="3">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>2.032900432900433</v>
       </c>
       <c r="U68" s="3">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.96049596309111884</v>
       </c>
       <c r="V68" s="3">
-        <f t="shared" ref="V68:AD68" si="124">V67/V69</f>
+        <f t="shared" ref="V68:AE68" si="125">V67/V69</f>
         <v>0.99936617689426632</v>
       </c>
       <c r="W68" s="3">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.7246251441753172</v>
       </c>
       <c r="X68" s="3">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.77717078780908566</v>
       </c>
       <c r="Y68" s="3">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.53048955052963065</v>
       </c>
       <c r="Z68" s="3">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.62313860252004583</v>
       </c>
       <c r="AA68" s="3">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.32405281285878301</v>
       </c>
       <c r="AB68" s="3">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.60327492099971269</v>
       </c>
       <c r="AC68" s="3">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.63540177294824129</v>
       </c>
       <c r="AD68" s="3">
-        <f t="shared" si="124"/>
-        <v>0.35203116778500332</v>
-      </c>
-      <c r="AE68" s="3"/>
+        <f t="shared" si="125"/>
+        <v>0.60705146431617851</v>
+      </c>
+      <c r="AE68" s="3">
+        <f t="shared" si="125"/>
+        <v>0.14285714285714285</v>
+      </c>
       <c r="AF68" s="3"/>
       <c r="AG68" s="3"/>
       <c r="AH68" s="3"/>
@@ -7307,55 +7384,55 @@
         <v>2.6545115210681214</v>
       </c>
       <c r="AU68" s="20">
-        <f t="shared" ref="AU68:BA68" si="125">+AU67/AU69</f>
-        <v>1.9147655258239575</v>
+        <f t="shared" ref="AU68:BA68" si="126">+AU67/AU69</f>
+        <v>2.1706845983260603</v>
       </c>
       <c r="AV68" s="20">
-        <f t="shared" si="125"/>
-        <v>4.0483642235240822</v>
+        <f t="shared" si="126"/>
+        <v>3.8444499379422763</v>
       </c>
       <c r="AW68" s="20">
-        <f t="shared" si="125"/>
-        <v>6.8311462048347726</v>
+        <f t="shared" si="126"/>
+        <v>6.5271924689167413</v>
       </c>
       <c r="AX68" s="20">
-        <f t="shared" si="125"/>
-        <v>9.2225067383705746</v>
+        <f t="shared" si="126"/>
+        <v>8.8003661332156167</v>
       </c>
       <c r="AY68" s="20">
-        <f t="shared" si="125"/>
-        <v>13.221271653389215</v>
+        <f t="shared" si="126"/>
+        <v>12.643420193066717</v>
       </c>
       <c r="AZ68" s="20">
-        <f t="shared" si="125"/>
-        <v>17.758658494029213</v>
+        <f t="shared" si="126"/>
+        <v>17.006538128315693</v>
       </c>
       <c r="BA68" s="20">
-        <f t="shared" si="125"/>
-        <v>22.538103123321552</v>
+        <f t="shared" si="126"/>
+        <v>21.603889685874076</v>
       </c>
       <c r="BB68" s="20">
-        <f t="shared" ref="BB68:BF68" si="126">+BB67/BB69</f>
-        <v>26.019473109528661</v>
+        <f t="shared" ref="BB68:BF68" si="127">+BB67/BB69</f>
+        <v>24.943172961509767</v>
       </c>
       <c r="BC68" s="20">
-        <f t="shared" si="126"/>
-        <v>29.924561248089091</v>
+        <f t="shared" si="127"/>
+        <v>28.688976982183529</v>
       </c>
       <c r="BD68" s="20">
-        <f t="shared" si="126"/>
-        <v>34.299548414791062</v>
+        <f t="shared" si="127"/>
+        <v>32.885603462431668</v>
       </c>
       <c r="BE68" s="20">
-        <f t="shared" si="126"/>
-        <v>39.195344183132512</v>
+        <f t="shared" si="127"/>
+        <v>37.581889086807529</v>
       </c>
       <c r="BF68" s="20">
-        <f t="shared" si="126"/>
-        <v>44.668052370802378</v>
-      </c>
-    </row>
-    <row r="69" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="127"/>
+        <v>42.831651820525536</v>
+      </c>
+    </row>
+    <row r="69" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="4" t="s">
         <v>1</v>
       </c>
@@ -7438,10 +7515,11 @@
         <v>3497</v>
       </c>
       <c r="AD69" s="5">
-        <f>+AC69</f>
-        <v>3497</v>
-      </c>
-      <c r="AE69" s="5"/>
+        <v>3517</v>
+      </c>
+      <c r="AE69" s="5">
+        <v>3521</v>
+      </c>
       <c r="AF69" s="5"/>
       <c r="AG69" s="5"/>
       <c r="AH69" s="5"/>
@@ -7451,54 +7529,54 @@
       </c>
       <c r="AU69" s="4">
         <f>AVERAGE(AA69:AD69)</f>
-        <v>3489.75</v>
+        <v>3494.75</v>
       </c>
       <c r="AV69" s="4">
-        <f t="shared" ref="AV69:AY69" si="127">AU69</f>
-        <v>3489.75</v>
+        <f t="shared" ref="AV69:AY69" si="128">AU69</f>
+        <v>3494.75</v>
       </c>
       <c r="AW69" s="4">
-        <f t="shared" si="127"/>
-        <v>3489.75</v>
+        <f t="shared" si="128"/>
+        <v>3494.75</v>
       </c>
       <c r="AX69" s="4">
-        <f t="shared" si="127"/>
-        <v>3489.75</v>
+        <f t="shared" si="128"/>
+        <v>3494.75</v>
       </c>
       <c r="AY69" s="4">
-        <f t="shared" si="127"/>
-        <v>3489.75</v>
+        <f t="shared" si="128"/>
+        <v>3494.75</v>
       </c>
       <c r="AZ69" s="4">
-        <f t="shared" ref="AZ69:BA69" si="128">AY69</f>
-        <v>3489.75</v>
+        <f t="shared" ref="AZ69:BA69" si="129">AY69</f>
+        <v>3494.75</v>
       </c>
       <c r="BA69" s="4">
-        <f t="shared" si="128"/>
-        <v>3489.75</v>
+        <f t="shared" si="129"/>
+        <v>3494.75</v>
       </c>
       <c r="BB69" s="4">
-        <f t="shared" ref="BB69" si="129">BA69</f>
-        <v>3489.75</v>
+        <f t="shared" ref="BB69" si="130">BA69</f>
+        <v>3494.75</v>
       </c>
       <c r="BC69" s="4">
-        <f t="shared" ref="BC69" si="130">BB69</f>
-        <v>3489.75</v>
+        <f t="shared" ref="BC69" si="131">BB69</f>
+        <v>3494.75</v>
       </c>
       <c r="BD69" s="4">
-        <f t="shared" ref="BD69" si="131">BC69</f>
-        <v>3489.75</v>
+        <f t="shared" ref="BD69" si="132">BC69</f>
+        <v>3494.75</v>
       </c>
       <c r="BE69" s="4">
-        <f t="shared" ref="BE69" si="132">BD69</f>
-        <v>3489.75</v>
+        <f t="shared" ref="BE69" si="133">BD69</f>
+        <v>3494.75</v>
       </c>
       <c r="BF69" s="4">
-        <f t="shared" ref="BF69" si="133">BE69</f>
-        <v>3489.75</v>
-      </c>
-    </row>
-    <row r="71" spans="2:109" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+        <f t="shared" ref="BF69" si="134">BE69</f>
+        <v>3494.75</v>
+      </c>
+    </row>
+    <row r="71" spans="2:109" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="23" t="s">
         <v>89</v>
       </c>
@@ -7515,35 +7593,35 @@
         <v>0.31799163179916312</v>
       </c>
       <c r="L71" s="22">
-        <f t="shared" ref="L71" si="134">L51/H51-1</f>
+        <f t="shared" ref="L71" si="135">L51/H51-1</f>
         <v>-4.9448818897637747E-2</v>
       </c>
       <c r="M71" s="22">
-        <f t="shared" ref="M71" si="135">M51/I51-1</f>
+        <f t="shared" ref="M71" si="136">M51/I51-1</f>
         <v>0.39155957480564818</v>
       </c>
       <c r="N71" s="22">
-        <f t="shared" ref="N71" si="136">N51/J51-1</f>
+        <f t="shared" ref="N71" si="137">N51/J51-1</f>
         <v>0.45503791982665232</v>
       </c>
       <c r="O71" s="22">
-        <f t="shared" ref="O71" si="137">O51/K51-1</f>
+        <f t="shared" ref="O71" si="138">O51/K51-1</f>
         <v>0.73583959899749374</v>
       </c>
       <c r="P71" s="22">
-        <f t="shared" ref="P71:Q71" si="138">P51/L51-1</f>
+        <f t="shared" ref="P71:Q71" si="139">P51/L51-1</f>
         <v>0.98111332007952279</v>
       </c>
       <c r="Q71" s="22">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>0.56846425721126437</v>
       </c>
       <c r="R71" s="22">
-        <f t="shared" ref="R71:S71" si="139">R51/N51-1</f>
+        <f t="shared" ref="R71:S71" si="140">R51/N51-1</f>
         <v>0.64919955323901712</v>
       </c>
       <c r="S71" s="22">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0.80537106555010096</v>
       </c>
       <c r="T71" s="22">
@@ -7559,15 +7637,15 @@
         <v>0.39999999999999991</v>
       </c>
       <c r="W71" s="22">
-        <f t="shared" ref="W71:AE71" si="140">W51/S51-1</f>
+        <f t="shared" ref="W71:AE71" si="141">W51/S51-1</f>
         <v>0.24381531243335464</v>
       </c>
       <c r="X71" s="22">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>0.47200897602456604</v>
       </c>
       <c r="Y71" s="22">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>8.8375128181224838E-2</v>
       </c>
       <c r="Z71" s="22">
@@ -7579,34 +7657,34 @@
         <v>-8.6930429936988296E-2</v>
       </c>
       <c r="AB71" s="22">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>2.2987122397400306E-2</v>
       </c>
       <c r="AC71" s="22">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>7.8458244111349051E-2</v>
       </c>
       <c r="AD71" s="22">
-        <f t="shared" si="140"/>
-        <v>6.0639260984674648E-2</v>
+        <f t="shared" si="141"/>
+        <v>2.1456669448086885E-2</v>
       </c>
       <c r="AE71" s="22">
-        <f t="shared" si="140"/>
-        <v>-1</v>
+        <f t="shared" si="141"/>
+        <v>-9.2296136331627587E-2</v>
       </c>
       <c r="AF71" s="22"/>
       <c r="AG71" s="22"/>
       <c r="AH71" s="22"/>
       <c r="AK71" s="25">
-        <f t="shared" ref="AK71:AM71" si="141">AK51/AJ51-1</f>
+        <f t="shared" ref="AK71:AM71" si="142">AK51/AJ51-1</f>
         <v>0.58845907814070664</v>
       </c>
       <c r="AL71" s="25">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0.26503272306147285</v>
       </c>
       <c r="AM71" s="25">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0.73012574069611524</v>
       </c>
       <c r="AN71" s="25">
@@ -7638,120 +7716,120 @@
         <v>0.18086993871917945</v>
       </c>
       <c r="AU71" s="25">
-        <f t="shared" ref="AU71:AY71" si="142">+AU51/AT51-1</f>
-        <v>2.5004549215187133E-2</v>
+        <f t="shared" ref="AU71:AY71" si="143">+AU51/AT51-1</f>
+        <v>1.4814637967201616E-2</v>
       </c>
       <c r="AV71" s="25">
-        <f t="shared" si="142"/>
-        <v>3.420802441696269E-2</v>
+        <f t="shared" si="143"/>
+        <v>-2.6680990591435583E-3</v>
       </c>
       <c r="AW71" s="25">
-        <f t="shared" si="142"/>
-        <v>0.29877654395376263</v>
+        <f t="shared" si="143"/>
+        <v>0.29931090780272718</v>
       </c>
       <c r="AX71" s="25">
-        <f t="shared" si="142"/>
-        <v>0.24518721703975355</v>
+        <f t="shared" si="143"/>
+        <v>0.24561861608733349</v>
       </c>
       <c r="AY71" s="25">
-        <f t="shared" si="142"/>
-        <v>0.24427200040164521</v>
+        <f t="shared" si="143"/>
+        <v>0.24465742473773022</v>
       </c>
       <c r="AZ71" s="25">
-        <f t="shared" ref="AZ71:BA71" si="143">+AZ51/AY51-1</f>
-        <v>0.19141775632795843</v>
+        <f t="shared" ref="AZ71:BA71" si="144">+AZ51/AY51-1</f>
+        <v>0.19173783923524201</v>
       </c>
       <c r="BA71" s="25">
-        <f t="shared" si="143"/>
-        <v>0.13884046602140865</v>
+        <f t="shared" si="144"/>
+        <v>0.13910906172436666</v>
       </c>
       <c r="BB71" s="25">
-        <f t="shared" ref="BB71" si="144">+BB51/BA51-1</f>
-        <v>8.1723514432797684E-2</v>
+        <f t="shared" ref="BB71" si="145">+BB51/BA51-1</f>
+        <v>8.1733738453816374E-2</v>
       </c>
       <c r="BC71" s="25">
-        <f t="shared" ref="BC71" si="145">+BC51/BB51-1</f>
-        <v>8.1654960768451801E-2</v>
+        <f t="shared" ref="BC71" si="146">+BC51/BB51-1</f>
+        <v>8.1662047468837651E-2</v>
       </c>
       <c r="BD71" s="25">
-        <f t="shared" ref="BD71" si="146">+BD51/BC51-1</f>
-        <v>8.1590988192240976E-2</v>
+        <f t="shared" ref="BD71" si="147">+BD51/BC51-1</f>
+        <v>8.1595148661132155E-2</v>
       </c>
       <c r="BE71" s="25">
-        <f t="shared" ref="BE71" si="147">+BE51/BD51-1</f>
-        <v>8.153131942013192E-2</v>
+        <f t="shared" ref="BE71" si="148">+BE51/BD51-1</f>
+        <v>8.153275138627003E-2</v>
       </c>
       <c r="BF71" s="25">
-        <f t="shared" ref="BF71" si="148">+BF51/BE51-1</f>
-        <v>8.1475695561203043E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="2:109" x14ac:dyDescent="0.25">
+        <f t="shared" ref="BF71" si="149">+BF51/BE51-1</f>
+        <v>8.1474584363125713E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B72" s="21" t="s">
         <v>92</v>
       </c>
       <c r="K72" s="17">
-        <f t="shared" ref="K72:Z72" si="149">+K37/G37-1</f>
+        <f t="shared" ref="K72:Z72" si="150">+K37/G37-1</f>
         <v>0.40427490122026688</v>
       </c>
       <c r="L72" s="17">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>-4.9351902344897058E-2</v>
       </c>
       <c r="M72" s="17">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.43333401930319182</v>
       </c>
       <c r="N72" s="17">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.61086578348722065</v>
       </c>
       <c r="O72" s="17">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>1.088229976496113</v>
       </c>
       <c r="P72" s="17">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>1.2200772200772199</v>
       </c>
       <c r="Q72" s="17">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.73223259152907394</v>
       </c>
       <c r="R72" s="17">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.70903250816857732</v>
       </c>
       <c r="S72" s="17">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.67774891774891777</v>
       </c>
       <c r="T72" s="17">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.26556521739130434</v>
       </c>
       <c r="U72" s="17">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.42490675507666809</v>
       </c>
       <c r="V72" s="17">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.31327932598833441</v>
       </c>
       <c r="W72" s="17">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.36390171844359576</v>
       </c>
       <c r="X72" s="17">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.83018904964761764</v>
       </c>
       <c r="Y72" s="17">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.26533170462146982</v>
       </c>
       <c r="Z72" s="17">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.19549297025745282</v>
       </c>
       <c r="AA72" s="17">
@@ -7771,255 +7849,255 @@
         <v>2.2833519433155702E-2</v>
       </c>
       <c r="AE72" s="17">
-        <f t="shared" ref="AE72" si="150">+AE37/AA37-1</f>
+        <f t="shared" ref="AE72" si="151">+AE37/AA37-1</f>
         <v>-0.12959592564825106</v>
       </c>
       <c r="AF72" s="17"/>
       <c r="AG72" s="17"/>
       <c r="AH72" s="17"/>
       <c r="AQ72" s="26">
-        <f t="shared" ref="AQ72:BA72" si="151">+AQ37/AP37-1</f>
+        <f t="shared" ref="AQ72:BA72" si="152">+AQ37/AP37-1</f>
         <v>0.35729051069477991</v>
       </c>
       <c r="AR72" s="26">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.87559116340959009</v>
       </c>
       <c r="AS72" s="26">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.403761953095785</v>
       </c>
       <c r="AT72" s="26">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.37654954785588313</v>
       </c>
       <c r="AU72" s="26">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>-1.0701760109168457E-2</v>
       </c>
       <c r="AV72" s="26">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.28853252747277303</v>
       </c>
       <c r="AW72" s="26">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.25</v>
       </c>
       <c r="AX72" s="26">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AY72" s="26">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AZ72" s="26">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="BA72" s="26">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BB72" s="26">
-        <f t="shared" ref="BB72:BF72" si="152">+BB37/BA37-1</f>
+        <f t="shared" ref="BB72:BF72" si="153">+BB37/BA37-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BC72" s="26">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BD72" s="26">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BE72" s="26">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BF72" s="26">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="73" spans="2:109" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B73" s="21" t="s">
         <v>93</v>
       </c>
       <c r="K73" s="17">
-        <f t="shared" ref="K73:AD73" si="153">+K42/G42-1</f>
+        <f t="shared" ref="K73:AD73" si="154">+K42/G42-1</f>
         <v>0.33101713811610356</v>
       </c>
       <c r="L73" s="17">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>-5.4866280672732248E-2</v>
       </c>
       <c r="M73" s="17">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.50835629972440333</v>
       </c>
       <c r="N73" s="17">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.71375046476818782</v>
       </c>
       <c r="O73" s="17">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.75644771700171409</v>
       </c>
       <c r="P73" s="17">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>1.5090067094515751</v>
       </c>
       <c r="Q73" s="17">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.63975150996993846</v>
       </c>
       <c r="R73" s="17">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.7014080119272128</v>
       </c>
       <c r="S73" s="17">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.69352549102241356</v>
       </c>
       <c r="T73" s="17">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.25268262434539124</v>
       </c>
       <c r="U73" s="17">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.53863587626091669</v>
       </c>
       <c r="V73" s="17">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.43768310227569973</v>
       </c>
       <c r="W73" s="17">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.44334609226376598</v>
       </c>
       <c r="X73" s="17">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.85513187408152214</v>
       </c>
       <c r="Y73" s="17">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.17644422460462983</v>
       </c>
       <c r="Z73" s="17">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.12573999149421988</v>
       </c>
       <c r="AA73" s="17">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>-1.687129090216144E-2</v>
       </c>
       <c r="AB73" s="17">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>-0.14356681259120285</v>
       </c>
       <c r="AC73" s="17">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>9.1310326884837645E-2</v>
       </c>
       <c r="AD73" s="17">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>-7.1807656331756897E-2</v>
       </c>
       <c r="AE73" s="17">
-        <f t="shared" ref="AE73" si="154">+AE42/AA42-1</f>
+        <f t="shared" ref="AE73" si="155">+AE42/AA42-1</f>
         <v>-0.16326888508921922</v>
       </c>
       <c r="AF73" s="17"/>
       <c r="AG73" s="17"/>
       <c r="AH73" s="17"/>
       <c r="AQ73" s="26">
-        <f t="shared" ref="AQ73:BA73" si="155">+AQ42/AP42-1</f>
+        <f t="shared" ref="AQ73:BA73" si="156">+AQ42/AP42-1</f>
         <v>0.39565262627590125</v>
       </c>
       <c r="AR73" s="26">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.8252981439448186</v>
       </c>
       <c r="AS73" s="26">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.47203204567389845</v>
       </c>
       <c r="AT73" s="26">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.34781700789494252</v>
       </c>
       <c r="AU73" s="26">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>-3.9297177387681903E-2</v>
       </c>
       <c r="AV73" s="26">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AW73" s="26">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.25</v>
       </c>
       <c r="AX73" s="26">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AY73" s="26">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AZ73" s="26">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="BA73" s="26">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BB73" s="26">
-        <f t="shared" ref="BB73:BF73" si="156">+BB42/BA42-1</f>
+        <f t="shared" ref="BB73:BF73" si="157">+BB42/BA42-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BC73" s="26">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BD73" s="26">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BE73" s="26">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BF73" s="26">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="74" spans="2:109" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B74" s="19" t="s">
         <v>91</v>
       </c>
       <c r="K74" s="17">
-        <f t="shared" ref="K74:O74" si="157">K45/G45-1</f>
+        <f t="shared" ref="K74:O74" si="158">K45/G45-1</f>
         <v>0.39441436306640076</v>
       </c>
       <c r="L74" s="17">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>-4.9729102167182626E-2</v>
       </c>
       <c r="M74" s="17">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.43141075604053003</v>
       </c>
       <c r="N74" s="17">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.4053394107113788</v>
       </c>
       <c r="O74" s="17">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.67320662170447587</v>
       </c>
       <c r="P74" s="17">
@@ -8027,7 +8105,7 @@
         <v>0.9385053960496843</v>
       </c>
       <c r="Q74" s="17">
-        <f t="shared" ref="Q74" si="158">Q45/M45-1</f>
+        <f t="shared" ref="Q74" si="159">Q45/M45-1</f>
         <v>0.55091206098557044</v>
       </c>
       <c r="R74" s="17">
@@ -8035,19 +8113,19 @@
         <v>0.74041468782578468</v>
       </c>
       <c r="S74" s="17">
-        <f t="shared" ref="S74:U74" si="159">S45/O45-1</f>
+        <f t="shared" ref="S74:U74" si="160">S45/O45-1</f>
         <v>0.89495541712470983</v>
       </c>
       <c r="T74" s="17">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.43592436974789917</v>
       </c>
       <c r="U74" s="17">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.561046256473273</v>
       </c>
       <c r="V74" s="17">
-        <f t="shared" ref="V74" si="160">V45/R45-1</f>
+        <f t="shared" ref="V74" si="161">V45/R45-1</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="W74" s="17">
@@ -8055,19 +8133,19 @@
         <v>0.21683640582699493</v>
       </c>
       <c r="X74" s="17">
-        <f t="shared" ref="X74" si="161">X45/T45-1</f>
+        <f t="shared" ref="X74" si="162">X45/T45-1</f>
         <v>0.49370885149963417</v>
       </c>
       <c r="Y74" s="17">
-        <f t="shared" ref="Y74" si="162">Y45/U45-1</f>
+        <f t="shared" ref="Y74" si="163">Y45/U45-1</f>
         <v>4.4813044700590332E-2</v>
       </c>
       <c r="Z74" s="17">
-        <f t="shared" ref="Z74:AD74" si="163">Z45/V45-1</f>
+        <f t="shared" ref="Z74:AE74" si="164">Z45/V45-1</f>
         <v>-1.9253624910862799E-2</v>
       </c>
       <c r="AA74" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>-0.12808560228837795</v>
       </c>
       <c r="AB74" s="17">
@@ -8075,19 +8153,22 @@
         <v>-9.2511876193741127E-2</v>
       </c>
       <c r="AC74" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>1.3400064578624526E-2</v>
       </c>
       <c r="AD74" s="17">
-        <f t="shared" si="163"/>
-        <v>7.3975195404813565E-2</v>
-      </c>
-      <c r="AE74" s="17"/>
+        <f t="shared" si="164"/>
+        <v>-9.5540475036354877E-2</v>
+      </c>
+      <c r="AE74" s="17">
+        <f t="shared" si="164"/>
+        <v>-0.21476306196840822</v>
+      </c>
       <c r="AF74" s="17"/>
       <c r="AG74" s="17"/>
       <c r="AH74" s="17"/>
     </row>
-    <row r="75" spans="2:109" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B75" s="19" t="s">
         <v>90</v>
       </c>
@@ -8096,67 +8177,67 @@
       <c r="E75" s="17"/>
       <c r="F75" s="17"/>
       <c r="G75" s="17">
-        <f t="shared" ref="G75:K75" si="164">G53/G45</f>
+        <f t="shared" ref="G75:K75" si="165">G53/G45</f>
         <v>0.18609290396124251</v>
       </c>
       <c r="H75" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.17685758513931887</v>
       </c>
       <c r="I75" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.21784879189399844</v>
       </c>
       <c r="J75" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.21618101904606871</v>
       </c>
       <c r="K75" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.2440220723482526</v>
       </c>
       <c r="L75" s="17">
-        <f t="shared" ref="L75" si="165">L53/L45</f>
+        <f t="shared" ref="L75" si="166">L53/L45</f>
         <v>0.24373854612095297</v>
       </c>
       <c r="M75" s="17">
-        <f t="shared" ref="M75" si="166">M53/M45</f>
+        <f t="shared" ref="M75" si="167">M53/M45</f>
         <v>0.27021508303838826</v>
       </c>
       <c r="N75" s="17">
-        <f t="shared" ref="N75:U75" si="167">N53/N45</f>
+        <f t="shared" ref="N75:U75" si="168">N53/N45</f>
         <v>0.19819298042395458</v>
       </c>
       <c r="O75" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0.21131061438866497</v>
       </c>
       <c r="P75" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0.25220588235294117</v>
       </c>
       <c r="Q75" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0.28464846835776353</v>
       </c>
       <c r="R75" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0.28858569051580701</v>
       </c>
       <c r="S75" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0.29650638133298957</v>
       </c>
       <c r="T75" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0.25727871250914414</v>
       </c>
       <c r="U75" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0.26348046106269329</v>
       </c>
       <c r="V75" s="17">
-        <f t="shared" ref="V75:AD75" si="168">V53/V45</f>
+        <f t="shared" ref="V75:AE75" si="169">V53/V45</f>
         <v>0.26631804135963871</v>
       </c>
       <c r="W75" s="17">
@@ -8164,62 +8245,65 @@
         <v>0.1830702404915775</v>
       </c>
       <c r="X75" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.17522895342573094</v>
       </c>
       <c r="Y75" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.15746421267893659</v>
       </c>
       <c r="Z75" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.16616577799321378</v>
       </c>
       <c r="AA75" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.15571081409477522</v>
       </c>
       <c r="AB75" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.13858607663248787</v>
       </c>
       <c r="AC75" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.16398491848547608</v>
       </c>
       <c r="AD75" s="17">
-        <f t="shared" si="168"/>
-        <v>0.15</v>
-      </c>
-      <c r="AE75" s="17"/>
+        <f t="shared" si="169"/>
+        <v>0.12814191542955142</v>
+      </c>
+      <c r="AE75" s="17">
+        <f t="shared" si="169"/>
+        <v>0.1132688588007737</v>
+      </c>
       <c r="AF75" s="17"/>
       <c r="AG75" s="17"/>
       <c r="AH75" s="17"/>
       <c r="AQ75" s="17">
-        <f t="shared" ref="AQ75:AU75" si="169">AQ53/AQ45</f>
+        <f t="shared" ref="AQ75:AU75" si="170">AQ53/AQ45</f>
         <v>0</v>
       </c>
       <c r="AR75" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.38841926345609062</v>
       </c>
       <c r="AS75" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.27064584436209632</v>
       </c>
       <c r="AT75" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.17052821969455731</v>
       </c>
       <c r="AU75" s="17">
-        <f t="shared" si="169"/>
-        <v>0.15191965716120953</v>
+        <f t="shared" si="170"/>
+        <v>0.14638520971302429</v>
       </c>
       <c r="AV75" s="17"/>
       <c r="AW75" s="17"/>
       <c r="AX75" s="17"/>
     </row>
-    <row r="76" spans="2:109" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B76" s="19" t="s">
         <v>45</v>
       </c>
@@ -8228,31 +8312,31 @@
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
       <c r="G76" s="17">
-        <f t="shared" ref="G76:K76" si="170">+G59/G51</f>
+        <f t="shared" ref="G76:K76" si="171">+G59/G51</f>
         <v>0.1246421493063202</v>
       </c>
       <c r="H76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0.14503937007874015</v>
       </c>
       <c r="I76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0.18895763921941933</v>
       </c>
       <c r="J76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0.18838028169014084</v>
       </c>
       <c r="K76" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0.20618212197159566</v>
       </c>
       <c r="L76" s="17">
-        <f t="shared" ref="L76" si="171">+L59/L51</f>
+        <f t="shared" ref="L76" si="172">+L59/L51</f>
         <v>0.20990722332670642</v>
       </c>
       <c r="M76" s="17">
-        <f t="shared" ref="M76" si="172">+M59/M51</f>
+        <f t="shared" ref="M76" si="173">+M59/M51</f>
         <v>0.23520693193478509</v>
       </c>
       <c r="N76" s="17">
@@ -8260,139 +8344,142 @@
         <v>0.19229337304542071</v>
       </c>
       <c r="O76" s="17">
-        <f t="shared" ref="O76:AD76" si="173">+O59/O51</f>
+        <f t="shared" ref="O76:AE76" si="174">+O59/O51</f>
         <v>0.21320627586870727</v>
       </c>
       <c r="P76" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.24117745442381669</v>
       </c>
       <c r="Q76" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.26604637639020134</v>
       </c>
       <c r="R76" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.27354816863254133</v>
       </c>
       <c r="S76" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.29110684580934099</v>
       </c>
       <c r="T76" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.24997047360340144</v>
       </c>
       <c r="U76" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.25086231005873033</v>
       </c>
       <c r="V76" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.25257794296679104</v>
       </c>
       <c r="W76" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.19336448197522396</v>
       </c>
       <c r="X76" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.18185100493440848</v>
       </c>
       <c r="Y76" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.17892933618843684</v>
       </c>
       <c r="Z76" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.17634203520483172</v>
       </c>
       <c r="AA76" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.1735129806112389</v>
       </c>
       <c r="AB76" s="41">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.17952941176470588</v>
       </c>
       <c r="AC76" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.19843539035819235</v>
       </c>
       <c r="AD76" s="17">
-        <f t="shared" si="173"/>
-        <v>0.15547894229698972</v>
-      </c>
-      <c r="AE76" s="17"/>
+        <f t="shared" si="174"/>
+        <v>0.16256272610572994</v>
+      </c>
+      <c r="AE76" s="17">
+        <f t="shared" si="174"/>
+        <v>0.16307214895267649</v>
+      </c>
       <c r="AF76" s="17"/>
       <c r="AG76" s="17"/>
       <c r="AH76" s="17"/>
       <c r="AQ76" s="17">
-        <f t="shared" ref="AQ76:BF76" si="174">+AQ59/AQ51</f>
+        <f t="shared" ref="AQ76:BF76" si="175">+AQ59/AQ51</f>
         <v>0</v>
       </c>
       <c r="AR76" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>0</v>
       </c>
       <c r="AS76" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>0.25</v>
       </c>
       <c r="AT76" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>0.18248891736331416</v>
       </c>
       <c r="AU76" s="17">
-        <f t="shared" si="174"/>
-        <v>0.17562990808672421</v>
+        <f t="shared" si="175"/>
+        <v>0.17768652900085441</v>
       </c>
       <c r="AV76" s="17">
-        <f t="shared" si="174"/>
-        <v>0.23070611869984675</v>
+        <f t="shared" si="175"/>
+        <v>0.23216119570238383</v>
       </c>
       <c r="AW76" s="17">
-        <f t="shared" si="174"/>
-        <v>0.25581196645165755</v>
+        <f t="shared" si="175"/>
+        <v>0.25796313351448891</v>
       </c>
       <c r="AX76" s="17">
-        <f t="shared" si="174"/>
-        <v>0.2527826268069589</v>
+        <f t="shared" si="175"/>
+        <v>0.25431009556405426</v>
       </c>
       <c r="AY76" s="17">
-        <f t="shared" si="174"/>
-        <v>0.26921275020196284</v>
+        <f t="shared" si="175"/>
+        <v>0.27102711464213647</v>
       </c>
       <c r="AZ76" s="17">
-        <f t="shared" si="174"/>
-        <v>0.28479139131404202</v>
+        <f t="shared" si="175"/>
+        <v>0.28685129119058844</v>
       </c>
       <c r="BA76" s="17">
-        <f t="shared" si="174"/>
-        <v>0.29969011382069577</v>
+        <f t="shared" si="175"/>
+        <v>0.30196304430560833</v>
       </c>
       <c r="BB76" s="17">
-        <f t="shared" si="174"/>
-        <v>0.29988647451024109</v>
+        <f t="shared" si="175"/>
+        <v>0.30216789387654019</v>
       </c>
       <c r="BC76" s="17">
-        <f t="shared" si="174"/>
-        <v>0.30002259030258344</v>
+        <f t="shared" si="175"/>
+        <v>0.3023098918268608</v>
       </c>
       <c r="BD76" s="17">
-        <f t="shared" si="174"/>
-        <v>0.3001025065815851</v>
+        <f t="shared" si="175"/>
+        <v>0.30239326077047363</v>
       </c>
       <c r="BE76" s="17">
-        <f t="shared" si="174"/>
-        <v>0.30013001409629531</v>
+        <f t="shared" si="175"/>
+        <v>0.30242195655828835</v>
       </c>
       <c r="BF76" s="17">
-        <f t="shared" si="174"/>
-        <v>0.30010866728560676</v>
-      </c>
-    </row>
-    <row r="77" spans="2:109" x14ac:dyDescent="0.25">
+        <f t="shared" si="175"/>
+        <v>0.30239968761197145</v>
+      </c>
+    </row>
+    <row r="77" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B77" s="15"/>
       <c r="R77" s="17"/>
       <c r="S77" s="17"/>
@@ -8412,7 +8499,7 @@
       <c r="AG77" s="17"/>
       <c r="AH77" s="17"/>
     </row>
-    <row r="78" spans="2:109" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:109" x14ac:dyDescent="0.2">
       <c r="BG78" s="28" t="s">
         <v>110</v>
       </c>
@@ -8420,7 +8507,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="79" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="4" t="s">
         <v>55</v>
       </c>
@@ -8435,27 +8522,27 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5">
-        <f t="shared" ref="M79:R79" si="175">M67</f>
+        <f t="shared" ref="M79:R79" si="176">M67</f>
         <v>300</v>
       </c>
       <c r="N79" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>270</v>
       </c>
       <c r="O79" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>337</v>
       </c>
       <c r="P79" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>1165</v>
       </c>
       <c r="Q79" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>1669</v>
       </c>
       <c r="R79" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>2321</v>
       </c>
       <c r="S79" s="5">
@@ -8471,31 +8558,31 @@
         <v>3331</v>
       </c>
       <c r="V79" s="5">
-        <f t="shared" ref="V79:AD79" si="176">V67</f>
+        <f t="shared" ref="V79:AE79" si="177">V67</f>
         <v>3468.7999999999984</v>
       </c>
       <c r="W79" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>2513</v>
       </c>
       <c r="X79" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>2703</v>
       </c>
       <c r="Y79" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>1853</v>
       </c>
       <c r="Z79" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>2176</v>
       </c>
       <c r="AA79" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>1129</v>
       </c>
       <c r="AB79" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>2100</v>
       </c>
       <c r="AC79" s="5">
@@ -8503,10 +8590,13 @@
         <v>2222</v>
       </c>
       <c r="AD79" s="5">
-        <f t="shared" si="176"/>
-        <v>1231.0529937441565</v>
-      </c>
-      <c r="AE79" s="5"/>
+        <f t="shared" si="177"/>
+        <v>2135</v>
+      </c>
+      <c r="AE79" s="5">
+        <f t="shared" si="177"/>
+        <v>503</v>
+      </c>
       <c r="AF79" s="5"/>
       <c r="AG79" s="5"/>
       <c r="AH79" s="5"/>
@@ -8517,7 +8607,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="80" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="4" t="s">
         <v>56</v>
       </c>
@@ -8573,12 +8663,20 @@
         <v>7943</v>
       </c>
       <c r="AA80" s="5">
-        <v>1144</v>
-      </c>
-      <c r="AB80" s="5"/>
-      <c r="AC80" s="5"/>
-      <c r="AD80" s="5"/>
-      <c r="AE80" s="5"/>
+        <v>1405</v>
+      </c>
+      <c r="AB80" s="5">
+        <v>1416</v>
+      </c>
+      <c r="AC80" s="5">
+        <v>2189</v>
+      </c>
+      <c r="AD80" s="5">
+        <v>2143</v>
+      </c>
+      <c r="AE80" s="5">
+        <v>420</v>
+      </c>
       <c r="AF80" s="5"/>
       <c r="AG80" s="5"/>
       <c r="AH80" s="5"/>
@@ -8587,10 +8685,10 @@
       </c>
       <c r="BH80" s="4">
         <f>NPV(BH79,AV67:DF67)+Main!K5-Main!K6</f>
-        <v>1233892.5426769429</v>
-      </c>
-    </row>
-    <row r="81" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1191764.2410756461</v>
+      </c>
+    </row>
+    <row r="81" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="4" t="s">
         <v>57</v>
       </c>
@@ -8648,10 +8746,18 @@
       <c r="AA81" s="5">
         <v>1246</v>
       </c>
-      <c r="AB81" s="5"/>
-      <c r="AC81" s="5"/>
-      <c r="AD81" s="5"/>
-      <c r="AE81" s="5"/>
+      <c r="AB81" s="5">
+        <v>1278</v>
+      </c>
+      <c r="AC81" s="5">
+        <v>1348</v>
+      </c>
+      <c r="AD81" s="5">
+        <v>1496</v>
+      </c>
+      <c r="AE81" s="5">
+        <v>1447</v>
+      </c>
       <c r="AF81" s="5"/>
       <c r="AG81" s="5"/>
       <c r="AH81" s="5"/>
@@ -8662,7 +8768,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="82" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="4" t="s">
         <v>58</v>
       </c>
@@ -8720,10 +8826,18 @@
       <c r="AA82" s="5">
         <v>524</v>
       </c>
-      <c r="AB82" s="5"/>
-      <c r="AC82" s="5"/>
-      <c r="AD82" s="5"/>
-      <c r="AE82" s="5"/>
+      <c r="AB82" s="5">
+        <v>439</v>
+      </c>
+      <c r="AC82" s="5">
+        <v>457</v>
+      </c>
+      <c r="AD82" s="5">
+        <v>579</v>
+      </c>
+      <c r="AE82" s="5">
+        <v>573</v>
+      </c>
       <c r="AF82" s="5"/>
       <c r="AG82" s="5"/>
       <c r="AH82" s="5"/>
@@ -8732,10 +8846,10 @@
       </c>
       <c r="BH82" s="20">
         <f>BH80/Main!K3</f>
-        <v>386.2383186800518</v>
-      </c>
-    </row>
-    <row r="83" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>338.47322950174555</v>
+      </c>
+    </row>
+    <row r="83" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="4" t="s">
         <v>59</v>
       </c>
@@ -8771,15 +8885,23 @@
       <c r="AA83" s="5">
         <v>0</v>
       </c>
-      <c r="AB83" s="5"/>
-      <c r="AC83" s="5"/>
-      <c r="AD83" s="5"/>
-      <c r="AE83" s="5"/>
+      <c r="AB83" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="5">
+        <v>0</v>
+      </c>
       <c r="AF83" s="5"/>
       <c r="AG83" s="5"/>
       <c r="AH83" s="5"/>
     </row>
-    <row r="84" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="10" t="s">
         <v>80</v>
       </c>
@@ -8838,17 +8960,29 @@
         <v>-5771</v>
       </c>
       <c r="AA84" s="5">
-        <v>-11</v>
-      </c>
-      <c r="AB84" s="5"/>
-      <c r="AC84" s="5"/>
-      <c r="AD84" s="5"/>
-      <c r="AE84" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="AB84" s="5">
+        <f>122+119</f>
+        <v>241</v>
+      </c>
+      <c r="AC84" s="5">
+        <f>286+408</f>
+        <v>694</v>
+      </c>
+      <c r="AD84" s="5">
+        <f>6-93</f>
+        <v>-87</v>
+      </c>
+      <c r="AE84" s="5">
+        <f>-43+188</f>
+        <v>145</v>
+      </c>
       <c r="AF84" s="5"/>
       <c r="AG84" s="5"/>
       <c r="AH84" s="5"/>
     </row>
-    <row r="85" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="4" t="s">
         <v>60</v>
       </c>
@@ -8884,15 +9018,23 @@
       <c r="AA85" s="5">
         <v>0</v>
       </c>
-      <c r="AB85" s="5"/>
-      <c r="AC85" s="5"/>
-      <c r="AD85" s="5"/>
-      <c r="AE85" s="5"/>
+      <c r="AB85" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="5">
+        <v>0</v>
+      </c>
       <c r="AF85" s="5"/>
       <c r="AG85" s="5"/>
       <c r="AH85" s="5"/>
     </row>
-    <row r="86" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="18" t="s">
         <v>69</v>
       </c>
@@ -8924,17 +9066,25 @@
       <c r="Y86" s="5"/>
       <c r="Z86" s="5"/>
       <c r="AA86" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB86" s="5"/>
-      <c r="AC86" s="5"/>
-      <c r="AD86" s="5"/>
-      <c r="AE86" s="5"/>
+        <v>-335</v>
+      </c>
+      <c r="AB86" s="5">
+        <v>100</v>
+      </c>
+      <c r="AC86" s="5">
+        <v>-7</v>
+      </c>
+      <c r="AD86" s="5">
+        <v>-347</v>
+      </c>
+      <c r="AE86" s="5">
+        <v>125</v>
+      </c>
       <c r="AF86" s="5"/>
       <c r="AG86" s="5"/>
       <c r="AH86" s="5"/>
     </row>
-    <row r="87" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="4" t="s">
         <v>61</v>
       </c>
@@ -8993,110 +9143,126 @@
       <c r="AA87" s="5">
         <v>-2661</v>
       </c>
-      <c r="AB87" s="5"/>
-      <c r="AC87" s="5"/>
-      <c r="AD87" s="5"/>
-      <c r="AE87" s="5"/>
+      <c r="AB87" s="5">
+        <v>138</v>
+      </c>
+      <c r="AC87" s="5">
+        <v>1574</v>
+      </c>
+      <c r="AD87" s="5">
+        <v>1030</v>
+      </c>
+      <c r="AE87" s="5">
+        <v>-554</v>
+      </c>
       <c r="AF87" s="5"/>
       <c r="AG87" s="5"/>
       <c r="AH87" s="5"/>
     </row>
-    <row r="88" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="4" t="s">
+    <row r="88" spans="2:60" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="5">
-        <f t="shared" ref="N88:R88" si="177">SUM(N80:N87)</f>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7">
+        <f t="shared" ref="N88:R88" si="178">SUM(N80:N87)</f>
         <v>3019</v>
       </c>
-      <c r="O88" s="5">
-        <f t="shared" si="177"/>
+      <c r="O88" s="7">
+        <f t="shared" si="178"/>
         <v>1641</v>
       </c>
-      <c r="P88" s="5">
-        <f t="shared" si="177"/>
+      <c r="P88" s="7">
+        <f t="shared" si="178"/>
         <v>2124</v>
       </c>
-      <c r="Q88" s="5">
-        <f t="shared" si="177"/>
+      <c r="Q88" s="7">
+        <f t="shared" si="178"/>
         <v>3147</v>
       </c>
-      <c r="R88" s="5">
-        <f t="shared" si="177"/>
+      <c r="R88" s="7">
+        <f t="shared" si="178"/>
         <v>4585</v>
       </c>
-      <c r="S88" s="5">
-        <f t="shared" ref="S88:AA88" si="178">SUM(S80:S87)</f>
+      <c r="S88" s="7">
+        <f t="shared" ref="S88:AE88" si="179">SUM(S80:S87)</f>
         <v>3995</v>
       </c>
-      <c r="T88" s="5">
-        <f t="shared" si="178"/>
+      <c r="T88" s="7">
+        <f t="shared" si="179"/>
         <v>2351</v>
       </c>
-      <c r="U88" s="5">
-        <f t="shared" si="178"/>
+      <c r="U88" s="7">
+        <f t="shared" si="179"/>
         <v>5100</v>
       </c>
-      <c r="V88" s="5">
-        <f t="shared" si="178"/>
+      <c r="V88" s="7">
+        <f t="shared" si="179"/>
         <v>3278</v>
       </c>
-      <c r="W88" s="5">
-        <f t="shared" si="178"/>
+      <c r="W88" s="7">
+        <f t="shared" si="179"/>
         <v>2513</v>
       </c>
-      <c r="X88" s="5">
-        <f t="shared" si="178"/>
+      <c r="X88" s="7">
+        <f t="shared" si="179"/>
         <v>3065</v>
       </c>
-      <c r="Y88" s="5">
-        <f t="shared" si="178"/>
+      <c r="Y88" s="7">
+        <f t="shared" si="179"/>
         <v>3308</v>
       </c>
-      <c r="Z88" s="5">
-        <f t="shared" si="178"/>
+      <c r="Z88" s="7">
+        <f t="shared" si="179"/>
         <v>4370</v>
       </c>
-      <c r="AA88" s="5">
-        <f t="shared" si="178"/>
+      <c r="AA88" s="7">
+        <f t="shared" si="179"/>
         <v>242</v>
       </c>
-      <c r="AB88" s="5">
+      <c r="AB88" s="7">
+        <f t="shared" si="179"/>
         <v>3612</v>
       </c>
-      <c r="AC88" s="5">
+      <c r="AC88" s="7">
+        <f t="shared" si="179"/>
         <v>6255</v>
       </c>
-      <c r="AD88" s="5"/>
-      <c r="AE88" s="5"/>
-      <c r="AF88" s="5"/>
-      <c r="AG88" s="5"/>
-      <c r="AH88" s="5"/>
-      <c r="AR88" s="4">
+      <c r="AD88" s="7">
+        <f t="shared" si="179"/>
+        <v>4814</v>
+      </c>
+      <c r="AE88" s="7">
+        <f t="shared" si="179"/>
+        <v>2156</v>
+      </c>
+      <c r="AF88" s="7"/>
+      <c r="AG88" s="7"/>
+      <c r="AH88" s="7"/>
+      <c r="AR88" s="6">
         <f>SUM(O88:R88)</f>
         <v>11497</v>
       </c>
-      <c r="AS88" s="4">
+      <c r="AS88" s="6">
         <f>SUM(S88:V88)</f>
         <v>14724</v>
       </c>
-      <c r="AT88" s="4">
+      <c r="AT88" s="6">
         <f>SUM(W88:Z88)</f>
         <v>13256</v>
       </c>
     </row>
-    <row r="89" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -9130,7 +9296,7 @@
       <c r="AG89" s="5"/>
       <c r="AH89" s="5"/>
     </row>
-    <row r="90" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="10" t="s">
         <v>81</v>
       </c>
@@ -9187,16 +9353,20 @@
         <v>2306</v>
       </c>
       <c r="AA90" s="5">
-        <v>2773</v>
+        <v>-2777</v>
       </c>
       <c r="AB90" s="5">
-        <v>2270</v>
+        <v>-2272</v>
       </c>
       <c r="AC90" s="5">
-        <v>3513</v>
-      </c>
-      <c r="AD90" s="5"/>
-      <c r="AE90" s="5"/>
+        <v>-3513</v>
+      </c>
+      <c r="AD90" s="5">
+        <v>-2780</v>
+      </c>
+      <c r="AE90" s="5">
+        <v>-1492</v>
+      </c>
       <c r="AF90" s="5"/>
       <c r="AG90" s="5"/>
       <c r="AH90" s="5"/>
@@ -9213,9 +9383,9 @@
         <v>8898</v>
       </c>
     </row>
-    <row r="91" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="10" t="s">
-        <v>82</v>
+    <row r="91" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="45" t="s">
+        <v>177</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -9228,165 +9398,97 @@
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
-      <c r="N91" s="5">
-        <f>N88-N90</f>
-        <v>1868</v>
-      </c>
-      <c r="O91" s="5">
-        <f t="shared" ref="O91:R91" si="179">O88-O90</f>
-        <v>293</v>
-      </c>
-      <c r="P91" s="5">
-        <f t="shared" si="179"/>
-        <v>619</v>
-      </c>
-      <c r="Q91" s="5">
-        <f t="shared" si="179"/>
-        <v>1328</v>
-      </c>
-      <c r="R91" s="5">
-        <f t="shared" si="179"/>
-        <v>2775</v>
-      </c>
-      <c r="S91" s="5">
-        <f t="shared" ref="S91" si="180">S88-S90</f>
-        <v>2228</v>
-      </c>
-      <c r="T91" s="5">
-        <f t="shared" ref="T91:AC91" si="181">T88-T90</f>
-        <v>621</v>
-      </c>
-      <c r="U91" s="5">
-        <f t="shared" si="181"/>
-        <v>3297</v>
-      </c>
-      <c r="V91" s="5">
-        <f t="shared" si="181"/>
-        <v>1420</v>
-      </c>
-      <c r="W91" s="5">
-        <f t="shared" si="181"/>
-        <v>441</v>
-      </c>
-      <c r="X91" s="5">
-        <f t="shared" si="181"/>
-        <v>1005</v>
-      </c>
-      <c r="Y91" s="5">
-        <f t="shared" si="181"/>
-        <v>848</v>
-      </c>
-      <c r="Z91" s="5">
-        <f t="shared" si="181"/>
-        <v>2064</v>
-      </c>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="5"/>
+      <c r="V91" s="5"/>
+      <c r="W91" s="5"/>
+      <c r="X91" s="5"/>
+      <c r="Y91" s="5"/>
+      <c r="Z91" s="5"/>
       <c r="AA91" s="5">
-        <f t="shared" si="181"/>
-        <v>-2531</v>
+        <f>-6622+4315</f>
+        <v>-2307</v>
       </c>
       <c r="AB91" s="5">
-        <f t="shared" si="181"/>
-        <v>1342</v>
+        <f>-8143+6690+200</f>
+        <v>-1253</v>
       </c>
       <c r="AC91" s="5">
-        <f t="shared" si="181"/>
-        <v>2742</v>
-      </c>
-      <c r="AD91" s="5"/>
-      <c r="AE91" s="5"/>
+        <f>-6032+6670</f>
+        <v>638</v>
+      </c>
+      <c r="AD91" s="5">
+        <f>-15158+10335</f>
+        <v>-4823</v>
+      </c>
+      <c r="AE91" s="5">
+        <f>-6015+5856</f>
+        <v>-159</v>
+      </c>
       <c r="AF91" s="5"/>
       <c r="AG91" s="5"/>
       <c r="AH91" s="5"/>
-      <c r="AR91" s="4">
-        <f>+AR88-AR90</f>
-        <v>5015</v>
-      </c>
-      <c r="AS91" s="4">
-        <f>+AS88-AS90</f>
-        <v>7566</v>
-      </c>
-      <c r="AT91" s="4">
-        <f>+AT88-AT90</f>
-        <v>4358</v>
-      </c>
-    </row>
-    <row r="92" spans="2:60" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B92" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5"/>
-      <c r="P92" s="5"/>
-      <c r="Q92" s="7">
-        <f t="shared" ref="Q92:V92" si="182">SUM(N91:Q91)</f>
-        <v>4108</v>
-      </c>
-      <c r="R92" s="7">
-        <f t="shared" si="182"/>
-        <v>5015</v>
-      </c>
-      <c r="S92" s="7">
-        <f t="shared" si="182"/>
-        <v>6950</v>
-      </c>
-      <c r="T92" s="7">
-        <f t="shared" si="182"/>
-        <v>6952</v>
-      </c>
-      <c r="U92" s="7">
-        <f t="shared" si="182"/>
-        <v>8921</v>
-      </c>
-      <c r="V92" s="7">
-        <f t="shared" si="182"/>
-        <v>7566</v>
-      </c>
-      <c r="W92" s="7">
-        <f t="shared" ref="W92:AC92" si="183">SUM(T91:W91)</f>
-        <v>5779</v>
-      </c>
-      <c r="X92" s="7">
-        <f t="shared" si="183"/>
-        <v>6163</v>
-      </c>
-      <c r="Y92" s="7">
-        <f t="shared" si="183"/>
-        <v>3714</v>
-      </c>
-      <c r="Z92" s="7">
-        <f t="shared" si="183"/>
-        <v>4358</v>
-      </c>
+    </row>
+    <row r="92" spans="2:60" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7"/>
+      <c r="V92" s="7"/>
+      <c r="W92" s="7"/>
+      <c r="X92" s="7"/>
+      <c r="Y92" s="7"/>
+      <c r="Z92" s="7"/>
       <c r="AA92" s="7">
-        <f t="shared" si="183"/>
-        <v>1386</v>
+        <f t="shared" ref="AA92:AD92" si="180">+AA91+AA90</f>
+        <v>-5084</v>
       </c>
       <c r="AB92" s="7">
-        <f t="shared" si="183"/>
-        <v>1723</v>
+        <f t="shared" si="180"/>
+        <v>-3525</v>
       </c>
       <c r="AC92" s="7">
-        <f t="shared" si="183"/>
-        <v>3617</v>
-      </c>
-      <c r="AD92" s="5"/>
-      <c r="AE92" s="5"/>
-      <c r="AF92" s="5"/>
-      <c r="AG92" s="5"/>
-      <c r="AH92" s="5"/>
-    </row>
-    <row r="93" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="180"/>
+        <v>-2875</v>
+      </c>
+      <c r="AD92" s="7">
+        <f t="shared" si="180"/>
+        <v>-7603</v>
+      </c>
+      <c r="AE92" s="7">
+        <f>+AE91+AE90</f>
+        <v>-1651</v>
+      </c>
+      <c r="AF92" s="7"/>
+      <c r="AG92" s="7"/>
+      <c r="AH92" s="7"/>
+    </row>
+    <row r="93" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="10"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -9420,9 +9522,9 @@
       <c r="AG93" s="5"/>
       <c r="AH93" s="5"/>
     </row>
-    <row r="94" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="29" t="s">
-        <v>115</v>
+    <row r="94" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="45" t="s">
+        <v>4</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -9444,95 +9546,32 @@
       <c r="T94" s="5"/>
       <c r="U94" s="5"/>
       <c r="V94" s="5"/>
-      <c r="W94" s="5">
-        <f>W95-W112</f>
-        <v>19726</v>
-      </c>
-      <c r="X94" s="5">
-        <f t="shared" ref="X94:AC94" si="184">X95-X112</f>
-        <v>25105</v>
-      </c>
-      <c r="Y94" s="5">
-        <f t="shared" si="184"/>
-        <v>26958</v>
-      </c>
-      <c r="Z94" s="5">
-        <f t="shared" si="184"/>
-        <v>23864</v>
-      </c>
+      <c r="W94" s="5"/>
+      <c r="X94" s="5"/>
+      <c r="Y94" s="5"/>
+      <c r="Z94" s="5"/>
       <c r="AA94" s="5">
-        <f t="shared" si="184"/>
-        <v>21503</v>
+        <v>-140</v>
       </c>
       <c r="AB94" s="5">
-        <f t="shared" si="184"/>
-        <v>22975</v>
+        <v>2598</v>
       </c>
       <c r="AC94" s="5">
-        <f t="shared" si="184"/>
-        <v>0</v>
-      </c>
-      <c r="AD94" s="5"/>
-      <c r="AE94" s="5"/>
+        <v>-75</v>
+      </c>
+      <c r="AD94" s="5">
+        <v>-108</v>
+      </c>
+      <c r="AE94" s="5">
+        <v>-50</v>
+      </c>
       <c r="AF94" s="5"/>
       <c r="AG94" s="5"/>
       <c r="AH94" s="5"/>
-      <c r="AT94" s="4">
-        <f>Z94</f>
-        <v>23864</v>
-      </c>
-      <c r="AU94" s="4">
-        <f>AT94+AU67</f>
-        <v>30546.052993744157</v>
-      </c>
-      <c r="AV94" s="4">
-        <f t="shared" ref="AV94:BA94" si="185">AU94+AV67</f>
-        <v>44673.832042787326</v>
-      </c>
-      <c r="AW94" s="4">
-        <f t="shared" si="185"/>
-        <v>68512.824511109473</v>
-      </c>
-      <c r="AX94" s="4">
-        <f t="shared" si="185"/>
-        <v>100697.06740133819</v>
-      </c>
-      <c r="AY94" s="4">
-        <f t="shared" si="185"/>
-        <v>146836.00015375321</v>
-      </c>
-      <c r="AZ94" s="4">
-        <f t="shared" si="185"/>
-        <v>208809.27863329166</v>
-      </c>
-      <c r="BA94" s="4">
-        <f t="shared" si="185"/>
-        <v>287461.62400790304</v>
-      </c>
-      <c r="BB94" s="4">
-        <f t="shared" ref="BB94" si="186">BA94+BB67</f>
-        <v>378263.0802918807</v>
-      </c>
-      <c r="BC94" s="4">
-        <f t="shared" ref="BC94" si="187">BB94+BC67</f>
-        <v>482692.31790739961</v>
-      </c>
-      <c r="BD94" s="4">
-        <f t="shared" ref="BD94" si="188">BC94+BD67</f>
-        <v>602389.16698791669</v>
-      </c>
-      <c r="BE94" s="4">
-        <f t="shared" ref="BE94" si="189">BD94+BE67</f>
-        <v>739171.11935100332</v>
-      </c>
-      <c r="BF94" s="4">
-        <f t="shared" ref="BF94" si="190">BE94+BF67</f>
-        <v>895051.45511201094</v>
-      </c>
-    </row>
-    <row r="95" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="10" t="s">
-        <v>3</v>
+    </row>
+    <row r="95" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="45" t="s">
+        <v>179</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -9549,53 +9588,37 @@
       <c r="O95" s="5"/>
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
-      <c r="R95" s="8"/>
-      <c r="S95" s="8">
-        <f>17576+131</f>
-        <v>17707</v>
-      </c>
-      <c r="T95" s="8">
-        <f>18324+591</f>
-        <v>18915</v>
-      </c>
-      <c r="U95" s="5">
-        <f>19532+1575</f>
-        <v>21107</v>
-      </c>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="5"/>
       <c r="V95" s="5"/>
-      <c r="W95" s="5">
-        <f>22402</f>
-        <v>22402</v>
-      </c>
-      <c r="X95" s="5">
-        <f>W95+X67</f>
-        <v>25105</v>
-      </c>
-      <c r="Y95" s="5">
-        <f t="shared" ref="Y95" si="191">X95+Y67</f>
-        <v>26958</v>
-      </c>
-      <c r="Z95" s="36">
-        <f>16398+12696</f>
-        <v>29094</v>
-      </c>
+      <c r="W95" s="5"/>
+      <c r="X95" s="5"/>
+      <c r="Y95" s="5"/>
+      <c r="Z95" s="5"/>
       <c r="AA95" s="5">
-        <v>26863</v>
+        <v>216</v>
       </c>
       <c r="AB95" s="5">
-        <f>14635+16085</f>
-        <v>30720</v>
-      </c>
-      <c r="AC95" s="5"/>
-      <c r="AD95" s="5"/>
-      <c r="AE95" s="5"/>
+        <v>-212</v>
+      </c>
+      <c r="AC95" s="5">
+        <v>-107</v>
+      </c>
+      <c r="AD95" s="5">
+        <v>677</v>
+      </c>
+      <c r="AE95" s="5">
+        <v>-674</v>
+      </c>
       <c r="AF95" s="5"/>
       <c r="AG95" s="5"/>
       <c r="AH95" s="5"/>
     </row>
-    <row r="96" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="10" t="s">
-        <v>63</v>
+    <row r="96" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="45" t="s">
+        <v>180</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -9613,40 +9636,36 @@
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
-      <c r="S96" s="5">
-        <v>1913</v>
-      </c>
-      <c r="T96" s="5">
-        <v>2081</v>
-      </c>
-      <c r="U96" s="5">
-        <v>2192</v>
-      </c>
+      <c r="S96" s="5"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="5"/>
       <c r="V96" s="5"/>
-      <c r="W96" s="5">
-        <v>2993</v>
-      </c>
+      <c r="W96" s="5"/>
       <c r="X96" s="5"/>
       <c r="Y96" s="5"/>
-      <c r="Z96" s="5">
-        <v>3508</v>
-      </c>
+      <c r="Z96" s="5"/>
       <c r="AA96" s="5">
-        <v>3887</v>
+        <v>-131</v>
       </c>
       <c r="AB96" s="5">
-        <v>3737</v>
-      </c>
-      <c r="AC96" s="5"/>
-      <c r="AD96" s="5"/>
-      <c r="AE96" s="5"/>
+        <v>-43</v>
+      </c>
+      <c r="AC96" s="5">
+        <v>-26</v>
+      </c>
+      <c r="AD96" s="5">
+        <v>-37</v>
+      </c>
+      <c r="AE96" s="5">
+        <v>-22</v>
+      </c>
       <c r="AF96" s="5"/>
       <c r="AG96" s="5"/>
       <c r="AH96" s="5"/>
     </row>
-    <row r="97" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="10" t="s">
-        <v>59</v>
+    <row r="97" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="45" t="s">
+        <v>181</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -9664,92 +9683,87 @@
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
       <c r="R97" s="5"/>
-      <c r="S97" s="5">
-        <v>5757</v>
-      </c>
-      <c r="T97" s="5">
-        <v>8108</v>
-      </c>
-      <c r="U97" s="5">
-        <v>10327</v>
-      </c>
+      <c r="S97" s="5"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="5"/>
       <c r="V97" s="5"/>
-      <c r="W97" s="5">
-        <v>14375</v>
-      </c>
+      <c r="W97" s="5"/>
       <c r="X97" s="5"/>
       <c r="Y97" s="5"/>
-      <c r="Z97" s="5">
-        <v>13626</v>
-      </c>
+      <c r="Z97" s="5"/>
       <c r="AA97" s="5">
-        <v>16033</v>
+        <v>251</v>
       </c>
       <c r="AB97" s="5">
-        <v>14195</v>
-      </c>
-      <c r="AC97" s="5"/>
-      <c r="AD97" s="5"/>
-      <c r="AE97" s="5"/>
+        <v>197</v>
+      </c>
+      <c r="AC97" s="5">
+        <v>340</v>
+      </c>
+      <c r="AD97" s="5">
+        <v>453</v>
+      </c>
+      <c r="AE97" s="5">
+        <v>414</v>
+      </c>
       <c r="AF97" s="5"/>
       <c r="AG97" s="5"/>
       <c r="AH97" s="5"/>
     </row>
-    <row r="98" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
-      <c r="M98" s="5"/>
-      <c r="N98" s="5"/>
-      <c r="O98" s="5"/>
-      <c r="P98" s="5"/>
-      <c r="Q98" s="5"/>
-      <c r="R98" s="5"/>
-      <c r="S98" s="5">
-        <v>1723</v>
-      </c>
-      <c r="T98" s="5">
-        <v>2118</v>
-      </c>
-      <c r="U98" s="5">
-        <v>2364</v>
-      </c>
-      <c r="V98" s="5"/>
-      <c r="W98" s="5">
-        <v>3227</v>
-      </c>
-      <c r="X98" s="5"/>
-      <c r="Y98" s="5"/>
-      <c r="Z98" s="5">
-        <v>3388</v>
-      </c>
-      <c r="AA98" s="5">
-        <v>3752</v>
-      </c>
-      <c r="AB98" s="5">
-        <v>4325</v>
-      </c>
-      <c r="AC98" s="5"/>
-      <c r="AD98" s="5"/>
-      <c r="AE98" s="5"/>
-      <c r="AF98" s="5"/>
-      <c r="AG98" s="5"/>
-      <c r="AH98" s="5"/>
-    </row>
-    <row r="99" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="10" t="s">
-        <v>65</v>
-      </c>
+    <row r="98" spans="2:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7"/>
+      <c r="R98" s="7"/>
+      <c r="S98" s="7"/>
+      <c r="T98" s="7"/>
+      <c r="U98" s="7"/>
+      <c r="V98" s="7"/>
+      <c r="W98" s="7"/>
+      <c r="X98" s="7"/>
+      <c r="Y98" s="7"/>
+      <c r="Z98" s="7"/>
+      <c r="AA98" s="7">
+        <f t="shared" ref="AA98:AD98" si="181">SUM(AA94:AA97)</f>
+        <v>196</v>
+      </c>
+      <c r="AB98" s="7">
+        <f t="shared" si="181"/>
+        <v>2540</v>
+      </c>
+      <c r="AC98" s="7">
+        <f t="shared" si="181"/>
+        <v>132</v>
+      </c>
+      <c r="AD98" s="7">
+        <f t="shared" si="181"/>
+        <v>985</v>
+      </c>
+      <c r="AE98" s="7">
+        <f>SUM(AE94:AE97)</f>
+        <v>-332</v>
+      </c>
+      <c r="AF98" s="7"/>
+      <c r="AG98" s="7"/>
+      <c r="AH98" s="7"/>
+    </row>
+    <row r="99" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="10"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -9766,30 +9780,16 @@
       <c r="P99" s="5"/>
       <c r="Q99" s="5"/>
       <c r="R99" s="5"/>
-      <c r="S99" s="5">
-        <v>4511</v>
-      </c>
-      <c r="T99" s="5">
-        <v>4782</v>
-      </c>
-      <c r="U99" s="5">
-        <v>4824</v>
-      </c>
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="5"/>
       <c r="V99" s="5"/>
-      <c r="W99" s="5">
-        <v>5473</v>
-      </c>
+      <c r="W99" s="5"/>
       <c r="X99" s="5"/>
       <c r="Y99" s="5"/>
-      <c r="Z99" s="5">
-        <v>5989</v>
-      </c>
-      <c r="AA99" s="5">
-        <v>5736</v>
-      </c>
-      <c r="AB99" s="5">
-        <v>5541</v>
-      </c>
+      <c r="Z99" s="5"/>
+      <c r="AA99" s="5"/>
+      <c r="AB99" s="5"/>
       <c r="AC99" s="5"/>
       <c r="AD99" s="5"/>
       <c r="AE99" s="5"/>
@@ -9797,9 +9797,9 @@
       <c r="AG99" s="5"/>
       <c r="AH99" s="5"/>
     </row>
-    <row r="100" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="10" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -9817,40 +9817,53 @@
       <c r="P100" s="5"/>
       <c r="Q100" s="5"/>
       <c r="R100" s="5"/>
-      <c r="S100" s="5">
-        <v>5765</v>
-      </c>
-      <c r="T100" s="5">
-        <v>5624</v>
-      </c>
-      <c r="U100" s="5">
-        <v>5562</v>
-      </c>
+      <c r="S100" s="5"/>
+      <c r="T100" s="5"/>
+      <c r="U100" s="5"/>
       <c r="V100" s="5"/>
-      <c r="W100" s="5">
-        <v>5427</v>
-      </c>
+      <c r="W100" s="5"/>
       <c r="X100" s="5"/>
       <c r="Y100" s="5"/>
-      <c r="Z100" s="5">
-        <v>5229</v>
-      </c>
+      <c r="Z100" s="5"/>
       <c r="AA100" s="5">
-        <v>5162</v>
+        <f>+AA88+AA90</f>
+        <v>-2535</v>
       </c>
       <c r="AB100" s="5">
-        <v>5102</v>
-      </c>
-      <c r="AC100" s="5"/>
-      <c r="AD100" s="5"/>
-      <c r="AE100" s="5"/>
+        <f>+AB88+AB90</f>
+        <v>1340</v>
+      </c>
+      <c r="AC100" s="5">
+        <f>+AC88+AC90</f>
+        <v>2742</v>
+      </c>
+      <c r="AD100" s="5">
+        <f>+AD88+AD90</f>
+        <v>2034</v>
+      </c>
+      <c r="AE100" s="5">
+        <f>+AE88+AE90</f>
+        <v>664</v>
+      </c>
       <c r="AF100" s="5"/>
       <c r="AG100" s="5"/>
       <c r="AH100" s="5"/>
-    </row>
-    <row r="101" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AR100" s="4">
+        <f>+AR88-AR90</f>
+        <v>5015</v>
+      </c>
+      <c r="AS100" s="4">
+        <f>+AS88-AS90</f>
+        <v>7566</v>
+      </c>
+      <c r="AT100" s="4">
+        <f>+AT88-AT90</f>
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="101" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="10" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -9866,43 +9879,71 @@
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
       <c r="P101" s="5"/>
-      <c r="Q101" s="5"/>
-      <c r="R101" s="5"/>
-      <c r="S101" s="5">
-        <v>18884</v>
-      </c>
-      <c r="T101" s="5">
-        <v>21093</v>
-      </c>
-      <c r="U101" s="5">
-        <v>21926</v>
-      </c>
-      <c r="V101" s="5"/>
-      <c r="W101" s="5">
-        <v>24969</v>
-      </c>
-      <c r="X101" s="5"/>
-      <c r="Y101" s="5"/>
-      <c r="Z101" s="5">
-        <v>29725</v>
-      </c>
-      <c r="AA101" s="5">
-        <v>31436</v>
-      </c>
-      <c r="AB101" s="42">
-        <v>32902</v>
-      </c>
-      <c r="AC101" s="5"/>
-      <c r="AD101" s="5"/>
-      <c r="AE101" s="5"/>
+      <c r="Q101" s="7">
+        <f t="shared" ref="Q101:V101" si="182">SUM(N100:Q100)</f>
+        <v>0</v>
+      </c>
+      <c r="R101" s="7">
+        <f t="shared" si="182"/>
+        <v>0</v>
+      </c>
+      <c r="S101" s="7">
+        <f t="shared" si="182"/>
+        <v>0</v>
+      </c>
+      <c r="T101" s="7">
+        <f t="shared" si="182"/>
+        <v>0</v>
+      </c>
+      <c r="U101" s="7">
+        <f t="shared" si="182"/>
+        <v>0</v>
+      </c>
+      <c r="V101" s="7">
+        <f t="shared" si="182"/>
+        <v>0</v>
+      </c>
+      <c r="W101" s="7">
+        <f t="shared" ref="W101:AE101" si="183">SUM(T100:W100)</f>
+        <v>0</v>
+      </c>
+      <c r="X101" s="7">
+        <f t="shared" si="183"/>
+        <v>0</v>
+      </c>
+      <c r="Y101" s="7">
+        <f t="shared" si="183"/>
+        <v>0</v>
+      </c>
+      <c r="Z101" s="7">
+        <f t="shared" si="183"/>
+        <v>0</v>
+      </c>
+      <c r="AA101" s="7">
+        <f t="shared" si="183"/>
+        <v>-2535</v>
+      </c>
+      <c r="AB101" s="7">
+        <f t="shared" si="183"/>
+        <v>-1195</v>
+      </c>
+      <c r="AC101" s="7">
+        <f t="shared" si="183"/>
+        <v>1547</v>
+      </c>
+      <c r="AD101" s="7">
+        <f t="shared" si="183"/>
+        <v>3581</v>
+      </c>
+      <c r="AE101" s="7">
+        <f t="shared" si="183"/>
+        <v>6780</v>
+      </c>
       <c r="AF101" s="5"/>
       <c r="AG101" s="5"/>
       <c r="AH101" s="5"/>
     </row>
-    <row r="102" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="10" t="s">
-        <v>68</v>
-      </c>
+    <row r="102" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -9919,30 +9960,16 @@
       <c r="P102" s="5"/>
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
-      <c r="S102" s="5">
-        <v>2016</v>
-      </c>
-      <c r="T102" s="5">
-        <v>2185</v>
-      </c>
-      <c r="U102" s="5">
-        <v>2251</v>
-      </c>
+      <c r="S102" s="5"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="5"/>
       <c r="V102" s="5"/>
-      <c r="W102" s="5">
-        <v>2800</v>
-      </c>
+      <c r="W102" s="5"/>
       <c r="X102" s="5"/>
       <c r="Y102" s="5"/>
-      <c r="Z102" s="5">
-        <v>4180</v>
-      </c>
-      <c r="AA102" s="5">
-        <v>4367</v>
-      </c>
-      <c r="AB102" s="5">
-        <v>4563</v>
-      </c>
+      <c r="Z102" s="5"/>
+      <c r="AA102" s="5"/>
+      <c r="AB102" s="5"/>
       <c r="AC102" s="5"/>
       <c r="AD102" s="5"/>
       <c r="AE102" s="5"/>
@@ -9950,9 +9977,9 @@
       <c r="AG102" s="5"/>
       <c r="AH102" s="5"/>
     </row>
-    <row r="103" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="10" t="s">
-        <v>69</v>
+    <row r="103" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="29" t="s">
+        <v>115</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -9970,40 +9997,105 @@
       <c r="P103" s="5"/>
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
-      <c r="S103" s="5">
-        <v>1260</v>
-      </c>
-      <c r="T103" s="5">
-        <v>218</v>
-      </c>
-      <c r="U103" s="5">
-        <v>218</v>
-      </c>
+      <c r="S103" s="5"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="5"/>
       <c r="V103" s="5"/>
       <c r="W103" s="5">
-        <v>184</v>
-      </c>
-      <c r="X103" s="5"/>
-      <c r="Y103" s="5"/>
+        <f>W104-W121</f>
+        <v>19726</v>
+      </c>
+      <c r="X103" s="5">
+        <f t="shared" ref="X103:AE103" si="184">X104-X121</f>
+        <v>25105</v>
+      </c>
+      <c r="Y103" s="5">
+        <f t="shared" si="184"/>
+        <v>26958</v>
+      </c>
       <c r="Z103" s="5">
-        <v>184</v>
+        <f t="shared" si="184"/>
+        <v>23864</v>
       </c>
       <c r="AA103" s="5">
-        <v>184</v>
+        <f t="shared" si="184"/>
+        <v>21503</v>
       </c>
       <c r="AB103" s="5">
-        <v>184</v>
-      </c>
-      <c r="AC103" s="5"/>
-      <c r="AD103" s="5"/>
-      <c r="AE103" s="5"/>
+        <f t="shared" si="184"/>
+        <v>22975</v>
+      </c>
+      <c r="AC103" s="5">
+        <f t="shared" si="184"/>
+        <v>25952</v>
+      </c>
+      <c r="AD103" s="5">
+        <f t="shared" si="184"/>
+        <v>28350</v>
+      </c>
+      <c r="AE103" s="5">
+        <f t="shared" si="184"/>
+        <v>29467</v>
+      </c>
       <c r="AF103" s="5"/>
       <c r="AG103" s="5"/>
       <c r="AH103" s="5"/>
-    </row>
-    <row r="104" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AT103" s="4">
+        <f>Z103</f>
+        <v>23864</v>
+      </c>
+      <c r="AU103" s="4">
+        <f>AT103+AU67</f>
+        <v>31450</v>
+      </c>
+      <c r="AV103" s="4">
+        <f t="shared" ref="AV103:BA103" si="185">AU103+AV67</f>
+        <v>44885.391420623768</v>
+      </c>
+      <c r="AW103" s="4">
+        <f t="shared" si="185"/>
+        <v>67696.297301370549</v>
+      </c>
+      <c r="AX103" s="4">
+        <f t="shared" si="185"/>
+        <v>98451.376845425824</v>
+      </c>
+      <c r="AY103" s="4">
+        <f t="shared" si="185"/>
+        <v>142636.96956514573</v>
+      </c>
+      <c r="AZ103" s="4">
+        <f t="shared" si="185"/>
+        <v>202070.56868907699</v>
+      </c>
+      <c r="BA103" s="4">
+        <f t="shared" si="185"/>
+        <v>277570.76216878544</v>
+      </c>
+      <c r="BB103" s="4">
+        <f t="shared" ref="BB103" si="186">BA103+BB67</f>
+        <v>364740.91587602173</v>
+      </c>
+      <c r="BC103" s="4">
+        <f t="shared" ref="BC103" si="187">BB103+BC67</f>
+        <v>465001.71818450763</v>
+      </c>
+      <c r="BD103" s="4">
+        <f t="shared" ref="BD103" si="188">BC103+BD67</f>
+        <v>579928.68088484067</v>
+      </c>
+      <c r="BE103" s="4">
+        <f t="shared" ref="BE103" si="189">BD103+BE67</f>
+        <v>711267.98777096125</v>
+      </c>
+      <c r="BF103" s="4">
+        <f t="shared" ref="BF103" si="190">BE103+BF67</f>
+        <v>860953.9029707429</v>
+      </c>
+    </row>
+    <row r="104" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B104" s="10" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -10020,45 +10112,59 @@
       <c r="O104" s="5"/>
       <c r="P104" s="5"/>
       <c r="Q104" s="5"/>
-      <c r="R104" s="5"/>
-      <c r="S104" s="5">
-        <v>457</v>
-      </c>
-      <c r="T104" s="5">
-        <f>241+196</f>
-        <v>437</v>
+      <c r="R104" s="8"/>
+      <c r="S104" s="8">
+        <f>17576+131</f>
+        <v>17707</v>
+      </c>
+      <c r="T104" s="8">
+        <f>18324+591</f>
+        <v>18915</v>
       </c>
       <c r="U104" s="5">
-        <f>228+191</f>
-        <v>419</v>
+        <f>19532+1575</f>
+        <v>21107</v>
       </c>
       <c r="V104" s="5"/>
       <c r="W104" s="5">
-        <v>399</v>
-      </c>
-      <c r="X104" s="5"/>
-      <c r="Y104" s="5"/>
-      <c r="Z104" s="5">
-        <f>178+253</f>
-        <v>431</v>
+        <f>22402</f>
+        <v>22402</v>
+      </c>
+      <c r="X104" s="5">
+        <f>W104+X67</f>
+        <v>25105</v>
+      </c>
+      <c r="Y104" s="5">
+        <f t="shared" ref="Y104" si="191">X104+Y67</f>
+        <v>26958</v>
+      </c>
+      <c r="Z104" s="36">
+        <f>16398+12696</f>
+        <v>29094</v>
       </c>
       <c r="AA104" s="5">
-        <v>421</v>
+        <v>26863</v>
       </c>
       <c r="AB104" s="5">
-        <f>164+249</f>
-        <v>413</v>
-      </c>
-      <c r="AC104" s="5"/>
-      <c r="AD104" s="5"/>
-      <c r="AE104" s="5"/>
+        <f>14635+16085</f>
+        <v>30720</v>
+      </c>
+      <c r="AC104" s="5">
+        <v>33648</v>
+      </c>
+      <c r="AD104" s="5">
+        <v>36563</v>
+      </c>
+      <c r="AE104" s="5">
+        <v>36996</v>
+      </c>
       <c r="AF104" s="5"/>
       <c r="AG104" s="5"/>
       <c r="AH104" s="5"/>
     </row>
-    <row r="105" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -10077,42 +10183,45 @@
       <c r="Q105" s="5"/>
       <c r="R105" s="5"/>
       <c r="S105" s="5">
-        <v>2138</v>
+        <v>1913</v>
       </c>
       <c r="T105" s="5">
-        <v>2952</v>
+        <v>2081</v>
       </c>
       <c r="U105" s="5">
-        <v>3236</v>
+        <v>2192</v>
       </c>
       <c r="V105" s="5"/>
       <c r="W105" s="5">
-        <v>4584</v>
+        <v>2993</v>
       </c>
       <c r="X105" s="5"/>
       <c r="Y105" s="5"/>
       <c r="Z105" s="5">
-        <f>6733+4531</f>
-        <v>11264</v>
+        <v>3508</v>
       </c>
       <c r="AA105" s="5">
-        <f>4616+6769</f>
-        <v>11385</v>
+        <v>3887</v>
       </c>
       <c r="AB105" s="5">
-        <f>4458+6692</f>
-        <v>11150</v>
-      </c>
-      <c r="AC105" s="5"/>
-      <c r="AD105" s="5"/>
-      <c r="AE105" s="5"/>
+        <v>3737</v>
+      </c>
+      <c r="AC105" s="5">
+        <v>3313</v>
+      </c>
+      <c r="AD105" s="5">
+        <v>4418</v>
+      </c>
+      <c r="AE105" s="5">
+        <v>3782</v>
+      </c>
       <c r="AF105" s="5"/>
       <c r="AG105" s="5"/>
       <c r="AH105" s="5"/>
     </row>
-    <row r="106" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="10" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -10131,531 +10240,1144 @@
       <c r="Q106" s="5"/>
       <c r="R106" s="5"/>
       <c r="S106" s="5">
-        <f>SUM(S95:S105)</f>
-        <v>62131</v>
+        <v>5757</v>
       </c>
       <c r="T106" s="5">
-        <f t="shared" ref="T106:AB106" si="192">SUM(T95:T105)</f>
-        <v>68513</v>
+        <v>8108</v>
       </c>
       <c r="U106" s="5">
-        <f t="shared" si="192"/>
-        <v>74426</v>
-      </c>
-      <c r="V106" s="5">
-        <f t="shared" si="192"/>
-        <v>0</v>
-      </c>
+        <v>10327</v>
+      </c>
+      <c r="V106" s="5"/>
       <c r="W106" s="5">
-        <f t="shared" si="192"/>
-        <v>86833</v>
-      </c>
-      <c r="X106" s="5">
-        <f t="shared" si="192"/>
-        <v>25105</v>
-      </c>
-      <c r="Y106" s="5">
-        <f t="shared" si="192"/>
-        <v>26958</v>
-      </c>
+        <v>14375</v>
+      </c>
+      <c r="X106" s="5"/>
+      <c r="Y106" s="5"/>
       <c r="Z106" s="5">
-        <f t="shared" si="192"/>
-        <v>106618</v>
+        <v>13626</v>
       </c>
       <c r="AA106" s="5">
-        <f t="shared" si="192"/>
-        <v>109226</v>
+        <v>16033</v>
       </c>
       <c r="AB106" s="5">
-        <f t="shared" si="192"/>
-        <v>112832</v>
-      </c>
-      <c r="AC106" s="5"/>
-      <c r="AD106" s="5"/>
-      <c r="AE106" s="5"/>
+        <v>14195</v>
+      </c>
+      <c r="AC106" s="5">
+        <v>14530</v>
+      </c>
+      <c r="AD106" s="5">
+        <v>12017</v>
+      </c>
+      <c r="AE106" s="5">
+        <v>13706</v>
+      </c>
       <c r="AF106" s="5"/>
       <c r="AG106" s="5"/>
       <c r="AH106" s="5"/>
     </row>
-    <row r="107" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="S107" s="5"/>
-      <c r="T107" s="5"/>
-      <c r="U107" s="5"/>
-      <c r="AA107" s="5"/>
-      <c r="AB107" s="5"/>
-    </row>
-    <row r="108" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B108" s="9" t="s">
-        <v>73</v>
-      </c>
+    <row r="107" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="5"/>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="5"/>
+      <c r="R107" s="5"/>
+      <c r="S107" s="5">
+        <v>1723</v>
+      </c>
+      <c r="T107" s="5">
+        <v>2118</v>
+      </c>
+      <c r="U107" s="5">
+        <v>2364</v>
+      </c>
+      <c r="V107" s="5"/>
+      <c r="W107" s="5">
+        <v>3227</v>
+      </c>
+      <c r="X107" s="5"/>
+      <c r="Y107" s="5"/>
+      <c r="Z107" s="5">
+        <v>3388</v>
+      </c>
+      <c r="AA107" s="5">
+        <v>3752</v>
+      </c>
+      <c r="AB107" s="5">
+        <v>4325</v>
+      </c>
+      <c r="AC107" s="5">
+        <v>4888</v>
+      </c>
+      <c r="AD107" s="5">
+        <v>5362</v>
+      </c>
+      <c r="AE107" s="5">
+        <v>4905</v>
+      </c>
+      <c r="AF107" s="5"/>
+      <c r="AG107" s="5"/>
+      <c r="AH107" s="5"/>
+    </row>
+    <row r="108" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="5"/>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="5"/>
       <c r="S108" s="5">
-        <v>10025</v>
+        <v>4511</v>
       </c>
       <c r="T108" s="5">
-        <v>11212</v>
+        <v>4782</v>
       </c>
       <c r="U108" s="5">
-        <v>13897</v>
-      </c>
+        <v>4824</v>
+      </c>
+      <c r="V108" s="5"/>
       <c r="W108" s="5">
-        <v>15904</v>
-      </c>
+        <v>5473</v>
+      </c>
+      <c r="X108" s="5"/>
+      <c r="Y108" s="5"/>
       <c r="Z108" s="5">
-        <v>14431</v>
+        <v>5989</v>
       </c>
       <c r="AA108" s="5">
-        <v>14725</v>
+        <v>5736</v>
       </c>
       <c r="AB108" s="5">
-        <v>13056</v>
-      </c>
-    </row>
-    <row r="109" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B109" s="9" t="s">
-        <v>74</v>
-      </c>
+        <v>5541</v>
+      </c>
+      <c r="AC108" s="5">
+        <v>5380</v>
+      </c>
+      <c r="AD108" s="5">
+        <v>5581</v>
+      </c>
+      <c r="AE108" s="5">
+        <v>5477</v>
+      </c>
+      <c r="AF108" s="5"/>
+      <c r="AG108" s="5"/>
+      <c r="AH108" s="5"/>
+    </row>
+    <row r="109" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="5"/>
+      <c r="P109" s="5"/>
+      <c r="Q109" s="5"/>
+      <c r="R109" s="5"/>
       <c r="S109" s="5">
-        <v>5719</v>
+        <v>5765</v>
       </c>
       <c r="T109" s="5">
-        <v>6037</v>
+        <v>5624</v>
       </c>
       <c r="U109" s="5">
-        <v>6246</v>
-      </c>
+        <v>5562</v>
+      </c>
+      <c r="V109" s="5"/>
       <c r="W109" s="5">
-        <v>7321</v>
-      </c>
+        <v>5427</v>
+      </c>
+      <c r="X109" s="5"/>
+      <c r="Y109" s="5"/>
       <c r="Z109" s="5">
-        <v>9080</v>
+        <v>5229</v>
       </c>
       <c r="AA109" s="5">
-        <v>9243</v>
+        <v>5162</v>
       </c>
       <c r="AB109" s="5">
-        <v>9616</v>
-      </c>
-    </row>
-    <row r="110" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B110" s="9" t="s">
-        <v>75</v>
-      </c>
+        <v>5102</v>
+      </c>
+      <c r="AC109" s="5">
+        <v>5040</v>
+      </c>
+      <c r="AD109" s="5">
+        <v>4924</v>
+      </c>
+      <c r="AE109" s="5">
+        <v>4855</v>
+      </c>
+      <c r="AF109" s="5"/>
+      <c r="AG109" s="5"/>
+      <c r="AH109" s="5"/>
+    </row>
+    <row r="110" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="5"/>
+      <c r="P110" s="5"/>
+      <c r="Q110" s="5"/>
+      <c r="R110" s="5"/>
       <c r="S110" s="5">
-        <f>1447+2052</f>
-        <v>3499</v>
+        <v>18884</v>
       </c>
       <c r="T110" s="5">
-        <f>1858+2210</f>
-        <v>4068</v>
+        <v>21093</v>
       </c>
       <c r="U110" s="5">
-        <f>1928+2265</f>
-        <v>4193</v>
-      </c>
+        <v>21926</v>
+      </c>
+      <c r="V110" s="5"/>
       <c r="W110" s="5">
-        <f>1750+2911</f>
-        <v>4661</v>
-      </c>
+        <v>24969</v>
+      </c>
+      <c r="X110" s="5"/>
+      <c r="Y110" s="5"/>
       <c r="Z110" s="5">
-        <f>2864+3251</f>
-        <v>6115</v>
+        <v>29725</v>
       </c>
       <c r="AA110" s="5">
-        <f>3024+3214</f>
-        <v>6238</v>
-      </c>
-      <c r="AB110" s="5">
-        <f>2793+3357</f>
-        <v>6150</v>
-      </c>
-    </row>
-    <row r="111" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B111" s="9" t="s">
-        <v>76</v>
-      </c>
+        <v>31436</v>
+      </c>
+      <c r="AB110" s="42">
+        <v>32902</v>
+      </c>
+      <c r="AC110" s="5">
+        <v>36116</v>
+      </c>
+      <c r="AD110" s="5">
+        <v>35836</v>
+      </c>
+      <c r="AE110" s="5">
+        <v>37088</v>
+      </c>
+      <c r="AF110" s="5"/>
+      <c r="AG110" s="5"/>
+      <c r="AH110" s="5"/>
+    </row>
+    <row r="111" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
+      <c r="N111" s="5"/>
+      <c r="O111" s="5"/>
+      <c r="P111" s="5"/>
+      <c r="Q111" s="5"/>
+      <c r="R111" s="5"/>
       <c r="S111" s="5">
-        <v>925</v>
+        <v>2016</v>
       </c>
       <c r="T111" s="5">
-        <v>1182</v>
+        <v>2185</v>
       </c>
       <c r="U111" s="5">
-        <v>1083</v>
-      </c>
+        <v>2251</v>
+      </c>
+      <c r="V111" s="5"/>
       <c r="W111" s="5">
-        <v>1057</v>
-      </c>
+        <v>2800</v>
+      </c>
+      <c r="X111" s="5"/>
+      <c r="Y111" s="5"/>
       <c r="Z111" s="5">
-        <v>0</v>
+        <v>4180</v>
       </c>
       <c r="AA111" s="5">
-        <v>0</v>
+        <v>4367</v>
       </c>
       <c r="AB111" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B112" s="9" t="s">
-        <v>4</v>
-      </c>
+        <v>4563</v>
+      </c>
+      <c r="AC111" s="5">
+        <v>4867</v>
+      </c>
+      <c r="AD111" s="5">
+        <v>5160</v>
+      </c>
+      <c r="AE111" s="5">
+        <v>5330</v>
+      </c>
+      <c r="AF111" s="5"/>
+      <c r="AG111" s="5"/>
+      <c r="AH111" s="5"/>
+    </row>
+    <row r="112" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
+      <c r="O112" s="5"/>
+      <c r="P112" s="5"/>
+      <c r="Q112" s="5"/>
+      <c r="R112" s="5"/>
       <c r="S112" s="5">
-        <f>1589+5245</f>
-        <v>6834</v>
+        <v>1260</v>
       </c>
       <c r="T112" s="5">
-        <f>2898+1532</f>
-        <v>4430</v>
+        <v>218</v>
       </c>
       <c r="U112" s="5">
-        <f>2096+1457</f>
-        <v>3553</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="V112" s="5"/>
       <c r="W112" s="5">
-        <f>1404+1272</f>
-        <v>2676</v>
+        <v>184</v>
       </c>
       <c r="X112" s="5"/>
       <c r="Y112" s="5"/>
       <c r="Z112" s="5">
-        <f>2373+2857</f>
-        <v>5230</v>
+        <v>184</v>
       </c>
       <c r="AA112" s="5">
-        <f>2461+2899</f>
-        <v>5360</v>
+        <v>822</v>
       </c>
       <c r="AB112" s="5">
-        <f>2264+5481</f>
-        <v>7745</v>
-      </c>
-      <c r="AC112" s="5"/>
-      <c r="AD112" s="5"/>
-      <c r="AE112" s="5"/>
+        <v>722</v>
+      </c>
+      <c r="AC112" s="5">
+        <v>729</v>
+      </c>
+      <c r="AD112" s="5">
+        <v>1076</v>
+      </c>
+      <c r="AE112" s="5">
+        <v>951</v>
+      </c>
       <c r="AF112" s="5"/>
       <c r="AG112" s="5"/>
       <c r="AH112" s="5"/>
     </row>
-    <row r="113" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B113" s="9" t="s">
+    <row r="113" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
+      <c r="R113" s="5"/>
+      <c r="S113" s="5">
+        <v>457</v>
+      </c>
+      <c r="T113" s="5">
+        <f>241+196</f>
+        <v>437</v>
+      </c>
+      <c r="U113" s="5">
+        <f>228+191</f>
+        <v>419</v>
+      </c>
+      <c r="V113" s="5"/>
+      <c r="W113" s="5">
+        <v>399</v>
+      </c>
+      <c r="X113" s="5"/>
+      <c r="Y113" s="5"/>
+      <c r="Z113" s="5">
+        <f>178+253</f>
+        <v>431</v>
+      </c>
+      <c r="AA113" s="5">
+        <v>421</v>
+      </c>
+      <c r="AB113" s="5">
+        <f>164+249</f>
+        <v>413</v>
+      </c>
+      <c r="AC113" s="5">
+        <v>411</v>
+      </c>
+      <c r="AD113" s="5">
+        <v>394</v>
+      </c>
+      <c r="AE113" s="5">
+        <v>392</v>
+      </c>
+      <c r="AF113" s="5"/>
+      <c r="AG113" s="5"/>
+      <c r="AH113" s="5"/>
+    </row>
+    <row r="114" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
+      <c r="R114" s="5"/>
+      <c r="S114" s="5">
+        <v>2138</v>
+      </c>
+      <c r="T114" s="5">
+        <v>2952</v>
+      </c>
+      <c r="U114" s="5">
+        <v>3236</v>
+      </c>
+      <c r="V114" s="5"/>
+      <c r="W114" s="5">
+        <v>4584</v>
+      </c>
+      <c r="X114" s="5"/>
+      <c r="Y114" s="5"/>
+      <c r="Z114" s="5">
+        <f>6733+4531</f>
+        <v>11264</v>
+      </c>
+      <c r="AA114" s="5">
+        <f>4616+6628</f>
+        <v>11244</v>
+      </c>
+      <c r="AB114" s="5">
+        <f>6573+4458</f>
+        <v>11031</v>
+      </c>
+      <c r="AC114" s="5">
+        <f>6366+4989</f>
+        <v>11355</v>
+      </c>
+      <c r="AD114" s="5">
+        <f>6524+4215</f>
+        <v>10739</v>
+      </c>
+      <c r="AE114" s="5">
+        <f>4942+6687</f>
+        <v>11629</v>
+      </c>
+      <c r="AF114" s="5"/>
+      <c r="AG114" s="5"/>
+      <c r="AH114" s="5"/>
+    </row>
+    <row r="115" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="5"/>
+      <c r="M115" s="5"/>
+      <c r="N115" s="5"/>
+      <c r="O115" s="5"/>
+      <c r="P115" s="5"/>
+      <c r="Q115" s="5"/>
+      <c r="R115" s="5"/>
+      <c r="S115" s="5">
+        <f>SUM(S104:S114)</f>
+        <v>62131</v>
+      </c>
+      <c r="T115" s="5">
+        <f t="shared" ref="T115:AE115" si="192">SUM(T104:T114)</f>
+        <v>68513</v>
+      </c>
+      <c r="U115" s="5">
+        <f t="shared" si="192"/>
+        <v>74426</v>
+      </c>
+      <c r="V115" s="5">
+        <f t="shared" si="192"/>
+        <v>0</v>
+      </c>
+      <c r="W115" s="5">
+        <f t="shared" si="192"/>
+        <v>86833</v>
+      </c>
+      <c r="X115" s="5">
+        <f t="shared" si="192"/>
+        <v>25105</v>
+      </c>
+      <c r="Y115" s="5">
+        <f t="shared" si="192"/>
+        <v>26958</v>
+      </c>
+      <c r="Z115" s="5">
+        <f t="shared" si="192"/>
+        <v>106618</v>
+      </c>
+      <c r="AA115" s="5">
+        <f t="shared" si="192"/>
+        <v>109723</v>
+      </c>
+      <c r="AB115" s="5">
+        <f t="shared" si="192"/>
+        <v>113251</v>
+      </c>
+      <c r="AC115" s="5">
+        <f t="shared" si="192"/>
+        <v>120277</v>
+      </c>
+      <c r="AD115" s="5">
+        <f t="shared" si="192"/>
+        <v>122070</v>
+      </c>
+      <c r="AE115" s="5">
+        <f t="shared" si="192"/>
+        <v>125111</v>
+      </c>
+      <c r="AF115" s="5"/>
+      <c r="AG115" s="5"/>
+      <c r="AH115" s="5"/>
+    </row>
+    <row r="116" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="S116" s="5"/>
+      <c r="T116" s="5"/>
+      <c r="U116" s="5"/>
+      <c r="AA116" s="5"/>
+      <c r="AB116" s="5"/>
+    </row>
+    <row r="117" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="B117" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="S117" s="5">
+        <v>10025</v>
+      </c>
+      <c r="T117" s="5">
+        <v>11212</v>
+      </c>
+      <c r="U117" s="5">
+        <v>13897</v>
+      </c>
+      <c r="W117" s="5">
+        <v>15904</v>
+      </c>
+      <c r="Z117" s="5">
+        <v>14431</v>
+      </c>
+      <c r="AA117" s="5">
+        <v>14725</v>
+      </c>
+      <c r="AB117" s="5">
+        <v>13056</v>
+      </c>
+      <c r="AC117" s="5">
+        <v>14654</v>
+      </c>
+      <c r="AD117" s="5">
+        <v>12474</v>
+      </c>
+      <c r="AE117" s="5">
+        <v>13471</v>
+      </c>
+    </row>
+    <row r="118" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="B118" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="S118" s="5">
+        <v>5719</v>
+      </c>
+      <c r="T118" s="5">
+        <v>6037</v>
+      </c>
+      <c r="U118" s="5">
+        <v>6246</v>
+      </c>
+      <c r="W118" s="5">
+        <v>7321</v>
+      </c>
+      <c r="Z118" s="5">
+        <v>9080</v>
+      </c>
+      <c r="AA118" s="5">
+        <v>9243</v>
+      </c>
+      <c r="AB118" s="5">
+        <v>9616</v>
+      </c>
+      <c r="AC118" s="5">
+        <v>10601</v>
+      </c>
+      <c r="AD118" s="5">
+        <v>10723</v>
+      </c>
+      <c r="AE118" s="5">
+        <v>10802</v>
+      </c>
+    </row>
+    <row r="119" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="B119" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="S119" s="5">
+        <f>1447+2052</f>
+        <v>3499</v>
+      </c>
+      <c r="T119" s="5">
+        <f>1858+2210</f>
+        <v>4068</v>
+      </c>
+      <c r="U119" s="5">
+        <f>1928+2265</f>
+        <v>4193</v>
+      </c>
+      <c r="W119" s="5">
+        <f>1750+2911</f>
+        <v>4661</v>
+      </c>
+      <c r="Z119" s="5">
+        <f>2864+3251</f>
+        <v>6115</v>
+      </c>
+      <c r="AA119" s="5">
+        <f>3024+3214</f>
+        <v>6238</v>
+      </c>
+      <c r="AB119" s="5">
+        <f>2793+3357</f>
+        <v>6150</v>
+      </c>
+      <c r="AC119" s="5">
+        <f>3031+3350</f>
+        <v>6381</v>
+      </c>
+      <c r="AD119" s="5">
+        <f>3168+3317</f>
+        <v>6485</v>
+      </c>
+      <c r="AE119" s="5">
+        <f>3243+3610</f>
+        <v>6853</v>
+      </c>
+    </row>
+    <row r="120" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="B120" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="S120" s="5">
+        <v>925</v>
+      </c>
+      <c r="T120" s="5">
+        <v>1182</v>
+      </c>
+      <c r="U120" s="5">
+        <v>1083</v>
+      </c>
+      <c r="W120" s="5">
+        <v>1057</v>
+      </c>
+      <c r="Z120" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA120" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB120" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC120" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD120" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE120" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="B121" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S121" s="5">
+        <f>1589+5245</f>
+        <v>6834</v>
+      </c>
+      <c r="T121" s="5">
+        <f>2898+1532</f>
+        <v>4430</v>
+      </c>
+      <c r="U121" s="5">
+        <f>2096+1457</f>
+        <v>3553</v>
+      </c>
+      <c r="W121" s="5">
+        <f>1404+1272</f>
+        <v>2676</v>
+      </c>
+      <c r="X121" s="5"/>
+      <c r="Y121" s="5"/>
+      <c r="Z121" s="5">
+        <f>2373+2857</f>
+        <v>5230</v>
+      </c>
+      <c r="AA121" s="5">
+        <f>2461+2899</f>
+        <v>5360</v>
+      </c>
+      <c r="AB121" s="5">
+        <f>2264+5481</f>
+        <v>7745</v>
+      </c>
+      <c r="AC121" s="5">
+        <f>5405+2291</f>
+        <v>7696</v>
+      </c>
+      <c r="AD121" s="5">
+        <f>2456+5757</f>
+        <v>8213</v>
+      </c>
+      <c r="AE121" s="5">
+        <f>2237+5292</f>
+        <v>7529</v>
+      </c>
+      <c r="AF121" s="5"/>
+      <c r="AG121" s="5"/>
+      <c r="AH121" s="5"/>
+    </row>
+    <row r="122" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="B122" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="S113" s="5">
+      <c r="S122" s="5">
         <v>3546</v>
       </c>
-      <c r="T113" s="5">
+      <c r="T122" s="5">
         <v>3926</v>
       </c>
-      <c r="U113" s="5">
+      <c r="U122" s="5">
         <v>4330</v>
       </c>
-      <c r="W113" s="5">
+      <c r="W122" s="5">
         <v>5979</v>
       </c>
-      <c r="Z113" s="5">
+      <c r="Z122" s="5">
         <v>8153</v>
       </c>
-      <c r="AA113" s="5">
+      <c r="AA122" s="5">
         <v>8480</v>
       </c>
-      <c r="AB113" s="5">
+      <c r="AB122" s="5">
         <v>9002</v>
       </c>
-    </row>
-    <row r="114" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B114" s="9" t="s">
+      <c r="AC122" s="5">
+        <v>9810</v>
+      </c>
+      <c r="AD122" s="5">
+        <v>10495</v>
+      </c>
+      <c r="AE122" s="5">
+        <v>11038</v>
+      </c>
+    </row>
+    <row r="123" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="B123" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="S114" s="5">
+      <c r="S123" s="5">
         <f>30189+826+568</f>
         <v>31583</v>
       </c>
-      <c r="T114" s="5">
+      <c r="T123" s="5">
         <f>36376+421+861</f>
         <v>37658</v>
       </c>
-      <c r="U114" s="5">
+      <c r="U123" s="5">
         <f>39851+852+421</f>
         <v>41124</v>
       </c>
-      <c r="W114" s="5">
+      <c r="W123" s="5">
         <f>48054+407+774</f>
         <v>49235</v>
       </c>
-      <c r="Z114" s="5">
+      <c r="Z123" s="5">
         <f>62634+733+242</f>
         <v>63609</v>
       </c>
-      <c r="AA114" s="5">
-        <f>73+64378+729</f>
-        <v>65180</v>
-      </c>
-      <c r="AB114" s="5">
-        <f>66468+723</f>
-        <v>67191</v>
-      </c>
-    </row>
-    <row r="115" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B115" s="9" t="s">
+      <c r="AA123" s="5">
+        <f>73+64875+729</f>
+        <v>65677</v>
+      </c>
+      <c r="AB123" s="5">
+        <f>66887+72+723</f>
+        <v>67682</v>
+      </c>
+      <c r="AC123" s="5">
+        <f>70356+709+70</f>
+        <v>71135</v>
+      </c>
+      <c r="AD123" s="5">
+        <f>72913+704+63</f>
+        <v>73680</v>
+      </c>
+      <c r="AE123" s="5">
+        <f>74653+703+62</f>
+        <v>75418</v>
+      </c>
+    </row>
+    <row r="124" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="B124" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="S115" s="5">
-        <f>SUM(S108:S114)</f>
+      <c r="S124" s="5">
+        <f>SUM(S117:S123)</f>
         <v>62131</v>
       </c>
-      <c r="T115" s="5">
-        <f>SUM(T108:T114)</f>
+      <c r="T124" s="5">
+        <f>SUM(T117:T123)</f>
         <v>68513</v>
       </c>
-      <c r="U115" s="5">
-        <f>SUM(U108:U114)</f>
+      <c r="U124" s="5">
+        <f>SUM(U117:U123)</f>
         <v>74426</v>
       </c>
-      <c r="V115" s="5">
-        <f>SUM(V108:V114)</f>
+      <c r="V124" s="5">
+        <f>SUM(V117:V123)</f>
         <v>0</v>
       </c>
-      <c r="W115" s="5">
-        <f>SUM(W108:W114)</f>
+      <c r="W124" s="5">
+        <f>SUM(W117:W123)</f>
         <v>86833</v>
       </c>
-      <c r="Z115" s="5">
-        <f>SUM(Z108:Z114)</f>
+      <c r="Z124" s="5">
+        <f>SUM(Z117:Z123)</f>
         <v>106618</v>
       </c>
-      <c r="AA115" s="5">
-        <f>SUM(AA108:AA114)</f>
-        <v>109226</v>
-      </c>
-      <c r="AB115" s="5">
-        <f>SUM(AB108:AB114)</f>
-        <v>112760</v>
-      </c>
-    </row>
-    <row r="116" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="S116" s="5"/>
-    </row>
-    <row r="117" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B117" s="33" t="s">
+      <c r="AA124" s="5">
+        <f>SUM(AA117:AA123)</f>
+        <v>109723</v>
+      </c>
+      <c r="AB124" s="5">
+        <f>SUM(AB117:AB123)</f>
+        <v>113251</v>
+      </c>
+      <c r="AC124" s="5">
+        <f>SUM(AC117:AC123)</f>
+        <v>120277</v>
+      </c>
+      <c r="AD124" s="5">
+        <f>SUM(AD117:AD123)</f>
+        <v>122070</v>
+      </c>
+      <c r="AE124" s="5">
+        <f>SUM(AE117:AE123)</f>
+        <v>125111</v>
+      </c>
+    </row>
+    <row r="125" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="S125" s="5"/>
+    </row>
+    <row r="126" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="B126" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="S117" s="5"/>
-      <c r="Z117" s="5">
+      <c r="S126" s="5"/>
+      <c r="Z126" s="5">
         <v>3540</v>
       </c>
-      <c r="AA117" s="5"/>
-      <c r="AB117" s="5">
+      <c r="AA126" s="5"/>
+      <c r="AB126" s="5">
         <v>3660</v>
       </c>
-      <c r="AS117" s="4">
+      <c r="AS126" s="4">
         <v>2913</v>
       </c>
-      <c r="AT117" s="4">
+      <c r="AT126" s="4">
         <v>3536</v>
       </c>
     </row>
-    <row r="118" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B118" s="33" t="s">
+    <row r="127" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="B127" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="S118" s="5"/>
-      <c r="Z118" s="5"/>
-      <c r="AA118" s="5"/>
-      <c r="AB118" s="5"/>
-      <c r="AS118" s="4">
+      <c r="S127" s="5"/>
+      <c r="Z127" s="5"/>
+      <c r="AA127" s="5"/>
+      <c r="AB127" s="5"/>
+      <c r="AS127" s="4">
         <v>1178</v>
       </c>
-      <c r="AT118" s="4">
+      <c r="AT127" s="4">
         <v>1201</v>
       </c>
-      <c r="AU118" s="4">
-        <f t="shared" ref="AU118:BA118" si="193">+AU37*AU123*8/1000</f>
+      <c r="AU127" s="4">
+        <f t="shared" ref="AU127:BA127" si="193">+AU37*AU132*8/1000</f>
         <v>1717.65696</v>
       </c>
-      <c r="AV118" s="4">
+      <c r="AV127" s="4">
         <f t="shared" si="193"/>
         <v>2951.0091519999996</v>
       </c>
-      <c r="AW118" s="4">
+      <c r="AW127" s="4">
         <f t="shared" si="193"/>
         <v>4610.9517999999998</v>
       </c>
-      <c r="AX118" s="4">
+      <c r="AX127" s="4">
         <f t="shared" si="193"/>
         <v>6639.7705919999999</v>
       </c>
-      <c r="AY118" s="4">
+      <c r="AY127" s="4">
         <f t="shared" si="193"/>
         <v>9295.6788288000007</v>
       </c>
-      <c r="AZ118" s="4">
+      <c r="AZ127" s="4">
         <f t="shared" si="193"/>
         <v>12217.177889280001</v>
       </c>
-      <c r="BA118" s="4">
+      <c r="BA127" s="4">
         <f t="shared" si="193"/>
         <v>15118.757637983999</v>
       </c>
-      <c r="BB118" s="4">
-        <f t="shared" ref="BB118:BF118" si="194">+BB37*BB123*8/1000</f>
+      <c r="BB127" s="4">
+        <f t="shared" ref="BB127:BF127" si="194">+BB37*BB132*8/1000</f>
         <v>16315.659284324402</v>
       </c>
-      <c r="BC118" s="4">
+      <c r="BC127" s="4">
         <f t="shared" si="194"/>
         <v>17594.454201203884</v>
       </c>
-      <c r="BD118" s="4">
+      <c r="BD127" s="4">
         <f t="shared" si="194"/>
         <v>18960.339461560503</v>
       </c>
-      <c r="BE118" s="4">
+      <c r="BE127" s="4">
         <f t="shared" si="194"/>
         <v>20418.827112449773</v>
       </c>
-      <c r="BF118" s="4">
+      <c r="BF127" s="4">
         <f t="shared" si="194"/>
         <v>21975.762679774063</v>
       </c>
     </row>
-    <row r="119" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B119" s="33" t="s">
+    <row r="128" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="B128" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="S119" s="5"/>
-      <c r="Z119" s="5"/>
-      <c r="AA119" s="5"/>
-      <c r="AB119" s="5"/>
-      <c r="AS119" s="4">
+      <c r="S128" s="5"/>
+      <c r="Z128" s="5"/>
+      <c r="AA128" s="5"/>
+      <c r="AB128" s="5"/>
+      <c r="AS128" s="4">
         <v>580</v>
       </c>
-      <c r="AT119" s="4">
+      <c r="AT128" s="4">
         <v>595</v>
       </c>
     </row>
-    <row r="120" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B120" s="33"/>
-      <c r="S120" s="5"/>
-      <c r="Z120" s="5"/>
-      <c r="AA120" s="5"/>
-      <c r="AB120" s="5"/>
-      <c r="AS120" s="4"/>
-      <c r="AT120" s="4"/>
-    </row>
-    <row r="121" spans="2:58" ht="13" x14ac:dyDescent="0.3">
-      <c r="B121" s="33" t="s">
+    <row r="129" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="B129" s="33"/>
+      <c r="S129" s="5"/>
+      <c r="Z129" s="5"/>
+      <c r="AA129" s="5"/>
+      <c r="AB129" s="5"/>
+      <c r="AS129" s="4"/>
+      <c r="AT129" s="4"/>
+    </row>
+    <row r="130" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="B130" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="S121" s="5"/>
-      <c r="Z121" s="5"/>
-      <c r="AA121" s="5"/>
-      <c r="AB121" s="5"/>
-      <c r="AS121" s="4"/>
-      <c r="AT121" s="6">
-        <f>+AT118/8</f>
+      <c r="S130" s="5"/>
+      <c r="Z130" s="5"/>
+      <c r="AA130" s="5"/>
+      <c r="AB130" s="5"/>
+      <c r="AS130" s="4"/>
+      <c r="AT130" s="6">
+        <f>+AT127/8</f>
         <v>150.125</v>
       </c>
-      <c r="AU121" s="4">
-        <f>+AU118/8</f>
+      <c r="AU130" s="4">
+        <f>+AU127/8</f>
         <v>214.70712</v>
       </c>
-      <c r="AV121" s="4">
-        <f t="shared" ref="AV121:BA121" si="195">+AV118/8</f>
+      <c r="AV130" s="4">
+        <f t="shared" ref="AV130:BA130" si="195">+AV127/8</f>
         <v>368.87614399999995</v>
       </c>
-      <c r="AW121" s="4">
+      <c r="AW130" s="4">
         <f t="shared" si="195"/>
         <v>576.36897499999998</v>
       </c>
-      <c r="AX121" s="4">
+      <c r="AX130" s="4">
         <f t="shared" si="195"/>
         <v>829.97132399999998</v>
       </c>
-      <c r="AY121" s="4">
+      <c r="AY130" s="4">
         <f t="shared" si="195"/>
         <v>1161.9598536000001</v>
       </c>
-      <c r="AZ121" s="4">
+      <c r="AZ130" s="4">
         <f t="shared" si="195"/>
         <v>1527.1472361600001</v>
       </c>
-      <c r="BA121" s="4">
+      <c r="BA130" s="4">
         <f t="shared" si="195"/>
         <v>1889.8447047479999</v>
       </c>
-      <c r="BB121" s="4">
-        <f t="shared" ref="BB121:BF121" si="196">+BB118/8</f>
+      <c r="BB130" s="4">
+        <f t="shared" ref="BB130:BF130" si="196">+BB127/8</f>
         <v>2039.4574105405502</v>
       </c>
-      <c r="BC121" s="4">
+      <c r="BC130" s="4">
         <f t="shared" si="196"/>
         <v>2199.3067751504855</v>
       </c>
-      <c r="BD121" s="4">
+      <c r="BD130" s="4">
         <f t="shared" si="196"/>
         <v>2370.0424326950629</v>
       </c>
-      <c r="BE121" s="4">
+      <c r="BE130" s="4">
         <f t="shared" si="196"/>
         <v>2552.3533890562217</v>
       </c>
-      <c r="BF121" s="4">
+      <c r="BF130" s="4">
         <f t="shared" si="196"/>
         <v>2746.9703349717579</v>
       </c>
     </row>
-    <row r="122" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B122" s="33" t="s">
+    <row r="131" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="B131" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="S122" s="5"/>
-      <c r="AT122" s="26">
-        <f>+AT117/AS117-1</f>
+      <c r="S131" s="5"/>
+      <c r="AT131" s="26">
+        <f>+AT126/AS126-1</f>
         <v>0.21386886371438374</v>
       </c>
     </row>
-    <row r="123" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B123" s="33" t="s">
+    <row r="132" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="B132" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="S123" s="5"/>
-      <c r="AT123" s="26">
-        <f>+AT121*1000/AT37</f>
+      <c r="S132" s="5"/>
+      <c r="AT132" s="26">
+        <f>+AT130*1000/AT37</f>
         <v>8.3007064654555152E-2</v>
       </c>
-      <c r="AU123" s="26">
+      <c r="AU132" s="26">
         <v>0.12</v>
       </c>
-      <c r="AV123" s="26">
+      <c r="AV132" s="26">
         <v>0.16</v>
       </c>
-      <c r="AW123" s="26">
+      <c r="AW132" s="26">
         <v>0.2</v>
       </c>
-      <c r="AX123" s="26">
+      <c r="AX132" s="26">
         <v>0.24</v>
       </c>
-      <c r="AY123" s="26">
+      <c r="AY132" s="26">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AZ123" s="26">
+      <c r="AZ132" s="26">
         <v>0.32</v>
       </c>
-      <c r="BA123" s="26">
+      <c r="BA132" s="26">
         <v>0.36</v>
       </c>
-      <c r="BB123" s="26">
+      <c r="BB132" s="26">
         <v>0.37</v>
       </c>
-      <c r="BC123" s="26">
+      <c r="BC132" s="26">
         <v>0.38</v>
       </c>
-      <c r="BD123" s="26">
+      <c r="BD132" s="26">
         <v>0.39</v>
       </c>
-      <c r="BE123" s="26">
+      <c r="BE132" s="26">
         <v>0.4</v>
       </c>
-      <c r="BF123" s="26">
+      <c r="BF132" s="26">
         <v>0.41</v>
       </c>
     </row>
@@ -10678,20 +11400,20 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="28"/>
-    <col min="3" max="3" width="11.7265625" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="28"/>
+    <col min="2" max="2" width="9.140625" style="28"/>
+    <col min="3" max="3" width="11.7109375" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="28" t="s">
         <v>98</v>
       </c>
@@ -10702,7 +11424,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" s="28" t="s">
         <v>100</v>
       </c>
@@ -10710,7 +11432,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="28" t="s">
         <v>101</v>
       </c>
@@ -10724,7 +11446,7 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="28" t="s">
         <v>102</v>
       </c>
@@ -10738,7 +11460,7 @@
         <v>375000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="28" t="s">
         <v>104</v>
       </c>
@@ -10749,7 +11471,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" s="28" t="s">
         <v>105</v>
       </c>
@@ -10760,7 +11482,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="28" t="s">
         <v>106</v>
       </c>
@@ -10771,7 +11493,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="28" t="s">
         <v>108</v>
       </c>
@@ -10779,7 +11501,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" s="28" t="s">
         <v>109</v>
       </c>
@@ -10787,12 +11509,12 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="33" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="33" t="s">
         <v>157</v>
       </c>
@@ -10813,13 +11535,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="33"/>
+    <col min="2" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>8</v>
       </c>

--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E61CE18-889C-4F73-BB54-F55B7D6CA998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54794B55-B61F-460C-ADA2-8A7C55F4C7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23400" yWindow="4710" windowWidth="23430" windowHeight="15690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-48750" yWindow="1950" windowWidth="25965" windowHeight="16125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1317,12 +1317,12 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>125</v>
       </c>
@@ -1330,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="K2" s="11">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="43" t="s">
         <v>169</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="33" t="s">
         <v>155</v>
       </c>
@@ -1357,10 +1357,10 @@
       </c>
       <c r="K4" s="10">
         <f>K2*K3</f>
-        <v>883771</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1281644</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="43" t="s">
         <v>168</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="43" t="s">
         <v>170</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="33" t="s">
         <v>107</v>
       </c>
@@ -1397,25 +1397,25 @@
       </c>
       <c r="K7" s="10">
         <f>K4-K5+K6</f>
-        <v>854304</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1252177</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="33" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="43" t="s">
         <v>171</v>
       </c>
@@ -1423,37 +1423,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="43" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="43" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="44" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="43" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="43" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J19" s="43" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>6</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J21" s="43" t="s">
         <v>176</v>
       </c>
@@ -1482,33 +1482,33 @@
       <selection pane="bottomRight" activeCell="AE81" sqref="AE81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="18" width="9.140625" style="2"/>
-    <col min="19" max="19" width="8.7109375" style="2" customWidth="1"/>
-    <col min="20" max="23" width="9.140625" style="2"/>
-    <col min="24" max="24" width="9.7109375" style="2" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="2"/>
-    <col min="26" max="26" width="8.28515625" style="2" customWidth="1"/>
-    <col min="27" max="31" width="9.5703125" style="2" customWidth="1"/>
-    <col min="32" max="34" width="8.42578125" style="2" customWidth="1"/>
-    <col min="35" max="43" width="9.140625" style="1"/>
-    <col min="44" max="46" width="9.7109375" style="1" customWidth="1"/>
-    <col min="47" max="47" width="10.7109375" style="1" customWidth="1"/>
-    <col min="48" max="58" width="9.7109375" style="1" customWidth="1"/>
-    <col min="59" max="59" width="9.140625" style="1"/>
-    <col min="60" max="60" width="9.5703125" style="1" customWidth="1"/>
-    <col min="61" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="18" width="9.1796875" style="2"/>
+    <col min="19" max="19" width="8.7265625" style="2" customWidth="1"/>
+    <col min="20" max="23" width="9.1796875" style="2"/>
+    <col min="24" max="24" width="9.7265625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="9.1796875" style="2"/>
+    <col min="26" max="26" width="8.26953125" style="2" customWidth="1"/>
+    <col min="27" max="31" width="9.54296875" style="2" customWidth="1"/>
+    <col min="32" max="34" width="8.453125" style="2" customWidth="1"/>
+    <col min="35" max="43" width="9.1796875" style="1"/>
+    <col min="44" max="46" width="9.7265625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="10.7265625" style="1" customWidth="1"/>
+    <col min="48" max="58" width="9.7265625" style="1" customWidth="1"/>
+    <col min="59" max="59" width="9.1796875" style="1"/>
+    <col min="60" max="60" width="9.54296875" style="1" customWidth="1"/>
+    <col min="61" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="C2" s="27" t="s">
         <v>94</v>
@@ -1691,7 +1691,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="33" t="s">
         <v>135</v>
@@ -1719,7 +1719,7 @@
       <c r="AG3" s="31"/>
       <c r="AH3" s="31"/>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="33" t="s">
         <v>127</v>
@@ -1744,7 +1744,7 @@
       <c r="AG4" s="31"/>
       <c r="AH4" s="31"/>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="33" t="s">
         <v>141</v>
@@ -1770,7 +1770,7 @@
       <c r="AG5" s="31"/>
       <c r="AH5" s="31"/>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="33" t="s">
         <v>150</v>
@@ -1796,7 +1796,7 @@
       <c r="AG6" s="31"/>
       <c r="AH6" s="31"/>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="33" t="s">
         <v>151</v>
@@ -1823,7 +1823,7 @@
       <c r="AG7" s="31"/>
       <c r="AH7" s="31"/>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="33" t="s">
         <v>137</v>
@@ -1851,7 +1851,7 @@
       <c r="AG8" s="31"/>
       <c r="AH8" s="31"/>
     </row>
-    <row r="9" spans="1:58" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:58" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="38"/>
       <c r="B9" s="23" t="s">
         <v>132</v>
@@ -1995,7 +1995,7 @@
         <v>72480</v>
       </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="33" t="s">
         <v>128</v>
@@ -2022,7 +2022,7 @@
       <c r="AG10" s="31"/>
       <c r="AH10" s="31"/>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="33" t="s">
         <v>131</v>
@@ -2050,7 +2050,7 @@
       <c r="AG11" s="31"/>
       <c r="AH11" s="31"/>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="33"/>
       <c r="C12" s="27"/>
@@ -2070,7 +2070,7 @@
       <c r="AG12" s="31"/>
       <c r="AH12" s="31"/>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="33" t="s">
         <v>130</v>
@@ -2094,7 +2094,7 @@
       <c r="AG13" s="31"/>
       <c r="AH13" s="31"/>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="33" t="s">
         <v>136</v>
@@ -2126,7 +2126,7 @@
       <c r="AG14" s="31"/>
       <c r="AH14" s="31"/>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="33" t="s">
         <v>152</v>
@@ -2151,7 +2151,7 @@
       <c r="AG15" s="31"/>
       <c r="AH15" s="31"/>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="33" t="s">
         <v>139</v>
@@ -2183,7 +2183,7 @@
       <c r="AG16" s="31"/>
       <c r="AH16" s="31"/>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="33" t="s">
         <v>129</v>
@@ -2211,7 +2211,7 @@
       <c r="AG17" s="31"/>
       <c r="AH17" s="31"/>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="33" t="s">
         <v>140</v>
@@ -2243,7 +2243,7 @@
       <c r="AG18" s="31"/>
       <c r="AH18" s="31"/>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="33" t="s">
         <v>138</v>
@@ -2269,7 +2269,7 @@
       <c r="AG19" s="31"/>
       <c r="AH19" s="31"/>
     </row>
-    <row r="20" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:47" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="B20" s="23" t="s">
         <v>134</v>
@@ -2336,7 +2336,7 @@
         <v>1789226</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="33" t="s">
         <v>133</v>
@@ -2364,7 +2364,7 @@
       <c r="AG21" s="31"/>
       <c r="AH21" s="31"/>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="33"/>
       <c r="C22" s="27"/>
@@ -2384,7 +2384,7 @@
       <c r="AG22" s="31"/>
       <c r="AH22" s="31"/>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="33" t="s">
         <v>142</v>
@@ -2409,7 +2409,7 @@
       <c r="AG23" s="31"/>
       <c r="AH23" s="31"/>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="33" t="s">
         <v>143</v>
@@ -2434,7 +2434,7 @@
       <c r="AG24" s="31"/>
       <c r="AH24" s="31"/>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="33" t="s">
         <v>144</v>
@@ -2459,7 +2459,7 @@
       <c r="AG25" s="31"/>
       <c r="AH25" s="31"/>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="33" t="s">
         <v>153</v>
@@ -2484,7 +2484,7 @@
       <c r="AG26" s="31"/>
       <c r="AH26" s="31"/>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="33" t="s">
         <v>145</v>
@@ -2509,7 +2509,7 @@
       <c r="AG27" s="31"/>
       <c r="AH27" s="31"/>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="33" t="s">
         <v>146</v>
@@ -2534,7 +2534,7 @@
       <c r="AG28" s="31"/>
       <c r="AH28" s="31"/>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="33" t="s">
         <v>147</v>
@@ -2559,7 +2559,7 @@
       <c r="AG29" s="31"/>
       <c r="AH29" s="31"/>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="33" t="s">
         <v>148</v>
@@ -2584,7 +2584,7 @@
       <c r="AG30" s="31"/>
       <c r="AH30" s="31"/>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="33" t="s">
         <v>149</v>
@@ -2609,7 +2609,7 @@
       <c r="AG31" s="31"/>
       <c r="AH31" s="31"/>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="33"/>
       <c r="C32" s="27"/>
@@ -2629,7 +2629,7 @@
       <c r="AG32" s="31"/>
       <c r="AH32" s="31"/>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
@@ -2651,7 +2651,7 @@
         <v>14313.808000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
         <v>84</v>
       </c>
@@ -2690,7 +2690,7 @@
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
     </row>
-    <row r="35" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>9</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>85133</v>
       </c>
     </row>
-    <row r="36" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>10</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>1704093</v>
       </c>
     </row>
-    <row r="37" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:58" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
         <v>11</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>6699927.6462725811</v>
       </c>
     </row>
-    <row r="38" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>12</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>56074.118613360093</v>
       </c>
     </row>
-    <row r="39" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -3306,7 +3306,7 @@
       <c r="AG39" s="5"/>
       <c r="AH39" s="5"/>
     </row>
-    <row r="40" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>94105</v>
       </c>
     </row>
-    <row r="41" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>1679338</v>
       </c>
     </row>
-    <row r="42" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:58" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
         <v>15</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>6699927.6462725811</v>
       </c>
     </row>
-    <row r="43" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -3743,7 +3743,7 @@
       <c r="AH43" s="5"/>
       <c r="AT43" s="26"/>
     </row>
-    <row r="44" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="40" t="s">
         <v>164</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>20774.762679774063</v>
       </c>
     </row>
-    <row r="45" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>32</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>375692.53753801924</v>
       </c>
     </row>
-    <row r="46" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>33</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>2763</v>
       </c>
     </row>
-    <row r="47" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>34</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="48" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:58" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
         <v>35</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>375692.53753801924</v>
       </c>
     </row>
-    <row r="49" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>36</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>10086</v>
       </c>
     </row>
-    <row r="50" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
         <v>37</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>10534</v>
       </c>
     </row>
-    <row r="51" spans="2:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:58" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B51" s="6" t="s">
         <v>38</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>396467.30021779332</v>
       </c>
     </row>
-    <row r="52" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>39</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>297350.47516334499</v>
       </c>
     </row>
-    <row r="53" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>40</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>10610</v>
       </c>
     </row>
-    <row r="54" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="29" t="s">
         <v>116</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
         <v>41</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="56" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>42</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>99116.825054448331</v>
       </c>
     </row>
-    <row r="57" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
         <v>43</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>7446</v>
       </c>
     </row>
-    <row r="58" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>44</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>9921</v>
       </c>
     </row>
-    <row r="59" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
         <v>45</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>119891.5877342224</v>
       </c>
     </row>
-    <row r="60" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
         <v>46</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>6989.1214156704564</v>
       </c>
     </row>
-    <row r="61" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>47</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>7928.1883900226503</v>
       </c>
     </row>
-    <row r="62" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>48</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>14917.309805693107</v>
       </c>
     </row>
-    <row r="63" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>49</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>104974.27792852929</v>
       </c>
     </row>
-    <row r="64" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
         <v>50</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>71126.798777096134</v>
       </c>
     </row>
-    <row r="65" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
         <v>51</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>176101.07670562543</v>
       </c>
     </row>
-    <row r="66" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
         <v>52</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>26415.161505843815</v>
       </c>
     </row>
-    <row r="67" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
         <v>53</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>89655.277992293646</v>
       </c>
     </row>
-    <row r="68" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:109" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>54</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>42.831651820525536</v>
       </c>
     </row>
-    <row r="69" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
         <v>1</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>3494.75</v>
       </c>
     </row>
-    <row r="71" spans="2:109" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:109" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B71" s="23" t="s">
         <v>89</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>8.1474584363125713E-2</v>
       </c>
     </row>
-    <row r="72" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:109" x14ac:dyDescent="0.25">
       <c r="B72" s="21" t="s">
         <v>92</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="73" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:109" x14ac:dyDescent="0.25">
       <c r="B73" s="21" t="s">
         <v>93</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="74" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:109" x14ac:dyDescent="0.25">
       <c r="B74" s="19" t="s">
         <v>91</v>
       </c>
@@ -8168,7 +8168,7 @@
       <c r="AG74" s="17"/>
       <c r="AH74" s="17"/>
     </row>
-    <row r="75" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:109" x14ac:dyDescent="0.25">
       <c r="B75" s="19" t="s">
         <v>90</v>
       </c>
@@ -8303,7 +8303,7 @@
       <c r="AW75" s="17"/>
       <c r="AX75" s="17"/>
     </row>
-    <row r="76" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:109" x14ac:dyDescent="0.25">
       <c r="B76" s="19" t="s">
         <v>45</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>0.30239968761197145</v>
       </c>
     </row>
-    <row r="77" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:109" x14ac:dyDescent="0.25">
       <c r="B77" s="15"/>
       <c r="R77" s="17"/>
       <c r="S77" s="17"/>
@@ -8499,7 +8499,7 @@
       <c r="AG77" s="17"/>
       <c r="AH77" s="17"/>
     </row>
-    <row r="78" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:109" x14ac:dyDescent="0.25">
       <c r="BG78" s="28" t="s">
         <v>110</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="79" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
         <v>55</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="80" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
         <v>56</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>1191764.2410756461</v>
       </c>
     </row>
-    <row r="81" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="s">
         <v>57</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="82" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
         <v>58</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>338.47322950174555</v>
       </c>
     </row>
-    <row r="83" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
         <v>59</v>
       </c>
@@ -8901,7 +8901,7 @@
       <c r="AG83" s="5"/>
       <c r="AH83" s="5"/>
     </row>
-    <row r="84" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>80</v>
       </c>
@@ -8982,7 +8982,7 @@
       <c r="AG84" s="5"/>
       <c r="AH84" s="5"/>
     </row>
-    <row r="85" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="4" t="s">
         <v>60</v>
       </c>
@@ -9034,7 +9034,7 @@
       <c r="AG85" s="5"/>
       <c r="AH85" s="5"/>
     </row>
-    <row r="86" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="18" t="s">
         <v>69</v>
       </c>
@@ -9084,7 +9084,7 @@
       <c r="AG86" s="5"/>
       <c r="AH86" s="5"/>
     </row>
-    <row r="87" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="4" t="s">
         <v>61</v>
       </c>
@@ -9159,7 +9159,7 @@
       <c r="AG87" s="5"/>
       <c r="AH87" s="5"/>
     </row>
-    <row r="88" spans="2:60" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:60" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B88" s="6" t="s">
         <v>62</v>
       </c>
@@ -9262,7 +9262,7 @@
         <v>13256</v>
       </c>
     </row>
-    <row r="89" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -9296,7 +9296,7 @@
       <c r="AG89" s="5"/>
       <c r="AH89" s="5"/>
     </row>
-    <row r="90" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
         <v>81</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>8898</v>
       </c>
     </row>
-    <row r="91" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="45" t="s">
         <v>177</v>
       </c>
@@ -9435,7 +9435,7 @@
       <c r="AG91" s="5"/>
       <c r="AH91" s="5"/>
     </row>
-    <row r="92" spans="2:60" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:60" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B92" s="6" t="s">
         <v>178</v>
       </c>
@@ -9487,7 +9487,7 @@
       <c r="AG92" s="7"/>
       <c r="AH92" s="7"/>
     </row>
-    <row r="93" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="10"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -9522,7 +9522,7 @@
       <c r="AG93" s="5"/>
       <c r="AH93" s="5"/>
     </row>
-    <row r="94" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="45" t="s">
         <v>4</v>
       </c>
@@ -9569,7 +9569,7 @@
       <c r="AG94" s="5"/>
       <c r="AH94" s="5"/>
     </row>
-    <row r="95" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="45" t="s">
         <v>179</v>
       </c>
@@ -9616,7 +9616,7 @@
       <c r="AG95" s="5"/>
       <c r="AH95" s="5"/>
     </row>
-    <row r="96" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="45" t="s">
         <v>180</v>
       </c>
@@ -9663,7 +9663,7 @@
       <c r="AG96" s="5"/>
       <c r="AH96" s="5"/>
     </row>
-    <row r="97" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="45" t="s">
         <v>181</v>
       </c>
@@ -9710,7 +9710,7 @@
       <c r="AG97" s="5"/>
       <c r="AH97" s="5"/>
     </row>
-    <row r="98" spans="2:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:58" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B98" s="6" t="s">
         <v>182</v>
       </c>
@@ -9762,7 +9762,7 @@
       <c r="AG98" s="7"/>
       <c r="AH98" s="7"/>
     </row>
-    <row r="99" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="10"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -9797,7 +9797,7 @@
       <c r="AG99" s="5"/>
       <c r="AH99" s="5"/>
     </row>
-    <row r="100" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
         <v>82</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>4358</v>
       </c>
     </row>
-    <row r="101" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:58" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>83</v>
       </c>
@@ -9943,7 +9943,7 @@
       <c r="AG101" s="5"/>
       <c r="AH101" s="5"/>
     </row>
-    <row r="102" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -9977,7 +9977,7 @@
       <c r="AG102" s="5"/>
       <c r="AH102" s="5"/>
     </row>
-    <row r="103" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="29" t="s">
         <v>115</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>860953.9029707429</v>
       </c>
     </row>
-    <row r="104" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
         <v>3</v>
       </c>
@@ -10162,7 +10162,7 @@
       <c r="AG104" s="5"/>
       <c r="AH104" s="5"/>
     </row>
-    <row r="105" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
         <v>63</v>
       </c>
@@ -10219,7 +10219,7 @@
       <c r="AG105" s="5"/>
       <c r="AH105" s="5"/>
     </row>
-    <row r="106" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
         <v>59</v>
       </c>
@@ -10276,7 +10276,7 @@
       <c r="AG106" s="5"/>
       <c r="AH106" s="5"/>
     </row>
-    <row r="107" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
         <v>64</v>
       </c>
@@ -10333,7 +10333,7 @@
       <c r="AG107" s="5"/>
       <c r="AH107" s="5"/>
     </row>
-    <row r="108" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
         <v>65</v>
       </c>
@@ -10390,7 +10390,7 @@
       <c r="AG108" s="5"/>
       <c r="AH108" s="5"/>
     </row>
-    <row r="109" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
         <v>66</v>
       </c>
@@ -10447,7 +10447,7 @@
       <c r="AG109" s="5"/>
       <c r="AH109" s="5"/>
     </row>
-    <row r="110" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
         <v>67</v>
       </c>
@@ -10504,7 +10504,7 @@
       <c r="AG110" s="5"/>
       <c r="AH110" s="5"/>
     </row>
-    <row r="111" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
         <v>68</v>
       </c>
@@ -10561,7 +10561,7 @@
       <c r="AG111" s="5"/>
       <c r="AH111" s="5"/>
     </row>
-    <row r="112" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
         <v>69</v>
       </c>
@@ -10618,7 +10618,7 @@
       <c r="AG112" s="5"/>
       <c r="AH112" s="5"/>
     </row>
-    <row r="113" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
         <v>70</v>
       </c>
@@ -10679,7 +10679,7 @@
       <c r="AG113" s="5"/>
       <c r="AH113" s="5"/>
     </row>
-    <row r="114" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
         <v>71</v>
       </c>
@@ -10742,7 +10742,7 @@
       <c r="AG114" s="5"/>
       <c r="AH114" s="5"/>
     </row>
-    <row r="115" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
         <v>72</v>
       </c>
@@ -10818,14 +10818,14 @@
       <c r="AG115" s="5"/>
       <c r="AH115" s="5"/>
     </row>
-    <row r="116" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:58" x14ac:dyDescent="0.25">
       <c r="S116" s="5"/>
       <c r="T116" s="5"/>
       <c r="U116" s="5"/>
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B117" s="9" t="s">
         <v>73</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>13471</v>
       </c>
     </row>
-    <row r="118" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B118" s="9" t="s">
         <v>74</v>
       </c>
@@ -10895,7 +10895,7 @@
         <v>10802</v>
       </c>
     </row>
-    <row r="119" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B119" s="9" t="s">
         <v>75</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>6853</v>
       </c>
     </row>
-    <row r="120" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B120" s="9" t="s">
         <v>76</v>
       </c>
@@ -10975,7 +10975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B121" s="9" t="s">
         <v>4</v>
       </c>
@@ -11025,7 +11025,7 @@
       <c r="AG121" s="5"/>
       <c r="AH121" s="5"/>
     </row>
-    <row r="122" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B122" s="9" t="s">
         <v>77</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>11038</v>
       </c>
     </row>
-    <row r="123" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B123" s="9" t="s">
         <v>78</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>75418</v>
       </c>
     </row>
-    <row r="124" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B124" s="9" t="s">
         <v>79</v>
       </c>
@@ -11130,34 +11130,34 @@
         <v>86833</v>
       </c>
       <c r="Z124" s="5">
-        <f>SUM(Z117:Z123)</f>
+        <f t="shared" ref="Z124:AE124" si="193">SUM(Z117:Z123)</f>
         <v>106618</v>
       </c>
       <c r="AA124" s="5">
-        <f>SUM(AA117:AA123)</f>
+        <f t="shared" si="193"/>
         <v>109723</v>
       </c>
       <c r="AB124" s="5">
-        <f>SUM(AB117:AB123)</f>
+        <f t="shared" si="193"/>
         <v>113251</v>
       </c>
       <c r="AC124" s="5">
-        <f>SUM(AC117:AC123)</f>
+        <f t="shared" si="193"/>
         <v>120277</v>
       </c>
       <c r="AD124" s="5">
-        <f>SUM(AD117:AD123)</f>
+        <f t="shared" si="193"/>
         <v>122070</v>
       </c>
       <c r="AE124" s="5">
-        <f>SUM(AE117:AE123)</f>
+        <f t="shared" si="193"/>
         <v>125111</v>
       </c>
     </row>
-    <row r="125" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:58" x14ac:dyDescent="0.25">
       <c r="S125" s="5"/>
     </row>
-    <row r="126" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B126" s="33" t="s">
         <v>154</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>3536</v>
       </c>
     </row>
-    <row r="127" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B127" s="33" t="s">
         <v>159</v>
       </c>
@@ -11191,55 +11191,55 @@
         <v>1201</v>
       </c>
       <c r="AU127" s="4">
-        <f t="shared" ref="AU127:BA127" si="193">+AU37*AU132*8/1000</f>
+        <f t="shared" ref="AU127:BA127" si="194">+AU37*AU132*8/1000</f>
         <v>1717.65696</v>
       </c>
       <c r="AV127" s="4">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>2951.0091519999996</v>
       </c>
       <c r="AW127" s="4">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>4610.9517999999998</v>
       </c>
       <c r="AX127" s="4">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>6639.7705919999999</v>
       </c>
       <c r="AY127" s="4">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>9295.6788288000007</v>
       </c>
       <c r="AZ127" s="4">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>12217.177889280001</v>
       </c>
       <c r="BA127" s="4">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>15118.757637983999</v>
       </c>
       <c r="BB127" s="4">
-        <f t="shared" ref="BB127:BF127" si="194">+BB37*BB132*8/1000</f>
+        <f t="shared" ref="BB127:BF127" si="195">+BB37*BB132*8/1000</f>
         <v>16315.659284324402</v>
       </c>
       <c r="BC127" s="4">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>17594.454201203884</v>
       </c>
       <c r="BD127" s="4">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>18960.339461560503</v>
       </c>
       <c r="BE127" s="4">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>20418.827112449773</v>
       </c>
       <c r="BF127" s="4">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>21975.762679774063</v>
       </c>
     </row>
-    <row r="128" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B128" s="33" t="s">
         <v>160</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="129" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B129" s="33"/>
       <c r="S129" s="5"/>
       <c r="Z129" s="5"/>
@@ -11263,7 +11263,7 @@
       <c r="AS129" s="4"/>
       <c r="AT129" s="4"/>
     </row>
-    <row r="130" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:58" ht="13" x14ac:dyDescent="0.3">
       <c r="B130" s="33" t="s">
         <v>161</v>
       </c>
@@ -11281,51 +11281,51 @@
         <v>214.70712</v>
       </c>
       <c r="AV130" s="4">
-        <f t="shared" ref="AV130:BA130" si="195">+AV127/8</f>
+        <f t="shared" ref="AV130:BA130" si="196">+AV127/8</f>
         <v>368.87614399999995</v>
       </c>
       <c r="AW130" s="4">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>576.36897499999998</v>
       </c>
       <c r="AX130" s="4">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>829.97132399999998</v>
       </c>
       <c r="AY130" s="4">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>1161.9598536000001</v>
       </c>
       <c r="AZ130" s="4">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>1527.1472361600001</v>
       </c>
       <c r="BA130" s="4">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>1889.8447047479999</v>
       </c>
       <c r="BB130" s="4">
-        <f t="shared" ref="BB130:BF130" si="196">+BB127/8</f>
+        <f t="shared" ref="BB130:BF130" si="197">+BB127/8</f>
         <v>2039.4574105405502</v>
       </c>
       <c r="BC130" s="4">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>2199.3067751504855</v>
       </c>
       <c r="BD130" s="4">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>2370.0424326950629</v>
       </c>
       <c r="BE130" s="4">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>2552.3533890562217</v>
       </c>
       <c r="BF130" s="4">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>2746.9703349717579</v>
       </c>
     </row>
-    <row r="131" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B131" s="33" t="s">
         <v>162</v>
       </c>
@@ -11335,7 +11335,7 @@
         <v>0.21386886371438374</v>
       </c>
     </row>
-    <row r="132" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B132" s="33" t="s">
         <v>163</v>
       </c>
@@ -11400,20 +11400,20 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="28"/>
-    <col min="3" max="3" width="11.7109375" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="28"/>
+    <col min="2" max="2" width="9.1796875" style="28"/>
+    <col min="3" max="3" width="11.7265625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
         <v>98</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="28" t="s">
         <v>100</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="28" t="s">
         <v>101</v>
       </c>
@@ -11446,7 +11446,7 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="28" t="s">
         <v>102</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>375000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="28" t="s">
         <v>104</v>
       </c>
@@ -11471,7 +11471,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="28" t="s">
         <v>105</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="28" t="s">
         <v>106</v>
       </c>
@@ -11493,7 +11493,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="28" t="s">
         <v>108</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="28" t="s">
         <v>109</v>
       </c>
@@ -11509,12 +11509,12 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="33" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="33" t="s">
         <v>157</v>
       </c>
@@ -11535,13 +11535,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="33"/>
+    <col min="2" max="16384" width="9.1796875" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>8</v>
       </c>

--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54794B55-B61F-460C-ADA2-8A7C55F4C7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C189224B-C30F-4A7F-B628-BB679DB16B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48750" yWindow="1950" windowWidth="25965" windowHeight="16125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57090" yWindow="3550" windowWidth="14890" windowHeight="15860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1313,16 +1313,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1796875" style="9"/>
+    <col min="1" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
         <v>125</v>
       </c>
@@ -1330,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="K2" s="11">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
         <v>169</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="33" t="s">
         <v>155</v>
       </c>
@@ -1357,10 +1357,10 @@
       </c>
       <c r="K4" s="10">
         <f>K2*K3</f>
-        <v>1281644</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+        <v>1080947</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
         <v>168</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="43" t="s">
         <v>170</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
         <v>107</v>
       </c>
@@ -1397,25 +1397,25 @@
       </c>
       <c r="K7" s="10">
         <f>K4-K5+K6</f>
-        <v>1252177</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+        <v>1051480</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="33" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="33" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="43" t="s">
         <v>171</v>
       </c>
@@ -1423,37 +1423,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="43" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="43" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="44" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="43" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="43" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J19" s="43" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>6</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J21" s="43" t="s">
         <v>176</v>
       </c>
@@ -1475,40 +1475,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E310252-7C49-48D8-9A64-7380C8DB275B}">
   <dimension ref="A1:DE132"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Y62" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AB38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE81" sqref="AE81"/>
+      <selection pane="bottomRight" activeCell="AF59" sqref="AF59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="18" width="9.1796875" style="2"/>
-    <col min="19" max="19" width="8.7265625" style="2" customWidth="1"/>
-    <col min="20" max="23" width="9.1796875" style="2"/>
-    <col min="24" max="24" width="9.7265625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="9.1796875" style="2"/>
-    <col min="26" max="26" width="8.26953125" style="2" customWidth="1"/>
-    <col min="27" max="31" width="9.54296875" style="2" customWidth="1"/>
-    <col min="32" max="34" width="8.453125" style="2" customWidth="1"/>
-    <col min="35" max="43" width="9.1796875" style="1"/>
-    <col min="44" max="46" width="9.7265625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="10.7265625" style="1" customWidth="1"/>
-    <col min="48" max="58" width="9.7265625" style="1" customWidth="1"/>
-    <col min="59" max="59" width="9.1796875" style="1"/>
-    <col min="60" max="60" width="9.54296875" style="1" customWidth="1"/>
-    <col min="61" max="16384" width="9.1796875" style="1"/>
+    <col min="3" max="18" width="9.140625" style="2"/>
+    <col min="19" max="19" width="8.7109375" style="2" customWidth="1"/>
+    <col min="20" max="23" width="9.140625" style="2"/>
+    <col min="24" max="24" width="9.7109375" style="2" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="2"/>
+    <col min="26" max="26" width="8.28515625" style="2" customWidth="1"/>
+    <col min="27" max="31" width="9.5703125" style="2" customWidth="1"/>
+    <col min="32" max="34" width="8.42578125" style="2" customWidth="1"/>
+    <col min="35" max="43" width="9.140625" style="1"/>
+    <col min="44" max="46" width="9.7109375" style="1" customWidth="1"/>
+    <col min="47" max="47" width="10.7109375" style="1" customWidth="1"/>
+    <col min="48" max="58" width="9.7109375" style="1" customWidth="1"/>
+    <col min="59" max="59" width="9.140625" style="1"/>
+    <col min="60" max="60" width="9.5703125" style="1" customWidth="1"/>
+    <col min="61" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="C2" s="27" t="s">
         <v>94</v>
@@ -1691,7 +1691,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="33" t="s">
         <v>135</v>
@@ -1719,7 +1719,7 @@
       <c r="AG3" s="31"/>
       <c r="AH3" s="31"/>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="33" t="s">
         <v>127</v>
@@ -1744,7 +1744,7 @@
       <c r="AG4" s="31"/>
       <c r="AH4" s="31"/>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="33" t="s">
         <v>141</v>
@@ -1770,7 +1770,7 @@
       <c r="AG5" s="31"/>
       <c r="AH5" s="31"/>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="33" t="s">
         <v>150</v>
@@ -1796,7 +1796,7 @@
       <c r="AG6" s="31"/>
       <c r="AH6" s="31"/>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="33" t="s">
         <v>151</v>
@@ -1823,7 +1823,7 @@
       <c r="AG7" s="31"/>
       <c r="AH7" s="31"/>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="33" t="s">
         <v>137</v>
@@ -1851,7 +1851,7 @@
       <c r="AG8" s="31"/>
       <c r="AH8" s="31"/>
     </row>
-    <row r="9" spans="1:58" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:58" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="23" t="s">
         <v>132</v>
@@ -1995,7 +1995,7 @@
         <v>72480</v>
       </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="33" t="s">
         <v>128</v>
@@ -2022,7 +2022,7 @@
       <c r="AG10" s="31"/>
       <c r="AH10" s="31"/>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="33" t="s">
         <v>131</v>
@@ -2050,7 +2050,7 @@
       <c r="AG11" s="31"/>
       <c r="AH11" s="31"/>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="33"/>
       <c r="C12" s="27"/>
@@ -2070,7 +2070,7 @@
       <c r="AG12" s="31"/>
       <c r="AH12" s="31"/>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="33" t="s">
         <v>130</v>
@@ -2094,7 +2094,7 @@
       <c r="AG13" s="31"/>
       <c r="AH13" s="31"/>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="33" t="s">
         <v>136</v>
@@ -2126,7 +2126,7 @@
       <c r="AG14" s="31"/>
       <c r="AH14" s="31"/>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="33" t="s">
         <v>152</v>
@@ -2151,7 +2151,7 @@
       <c r="AG15" s="31"/>
       <c r="AH15" s="31"/>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="33" t="s">
         <v>139</v>
@@ -2183,7 +2183,7 @@
       <c r="AG16" s="31"/>
       <c r="AH16" s="31"/>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="33" t="s">
         <v>129</v>
@@ -2211,7 +2211,7 @@
       <c r="AG17" s="31"/>
       <c r="AH17" s="31"/>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="33" t="s">
         <v>140</v>
@@ -2243,7 +2243,7 @@
       <c r="AG18" s="31"/>
       <c r="AH18" s="31"/>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="33" t="s">
         <v>138</v>
@@ -2269,7 +2269,7 @@
       <c r="AG19" s="31"/>
       <c r="AH19" s="31"/>
     </row>
-    <row r="20" spans="1:47" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
       <c r="B20" s="23" t="s">
         <v>134</v>
@@ -2336,7 +2336,7 @@
         <v>1789226</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="33" t="s">
         <v>133</v>
@@ -2364,7 +2364,7 @@
       <c r="AG21" s="31"/>
       <c r="AH21" s="31"/>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="33"/>
       <c r="C22" s="27"/>
@@ -2384,7 +2384,7 @@
       <c r="AG22" s="31"/>
       <c r="AH22" s="31"/>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="33" t="s">
         <v>142</v>
@@ -2409,7 +2409,7 @@
       <c r="AG23" s="31"/>
       <c r="AH23" s="31"/>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="33" t="s">
         <v>143</v>
@@ -2434,7 +2434,7 @@
       <c r="AG24" s="31"/>
       <c r="AH24" s="31"/>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="33" t="s">
         <v>144</v>
@@ -2459,7 +2459,7 @@
       <c r="AG25" s="31"/>
       <c r="AH25" s="31"/>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="33" t="s">
         <v>153</v>
@@ -2484,7 +2484,7 @@
       <c r="AG26" s="31"/>
       <c r="AH26" s="31"/>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="33" t="s">
         <v>145</v>
@@ -2509,7 +2509,7 @@
       <c r="AG27" s="31"/>
       <c r="AH27" s="31"/>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="33" t="s">
         <v>146</v>
@@ -2534,7 +2534,7 @@
       <c r="AG28" s="31"/>
       <c r="AH28" s="31"/>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="33" t="s">
         <v>147</v>
@@ -2559,7 +2559,7 @@
       <c r="AG29" s="31"/>
       <c r="AH29" s="31"/>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="33" t="s">
         <v>148</v>
@@ -2584,7 +2584,7 @@
       <c r="AG30" s="31"/>
       <c r="AH30" s="31"/>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="33" t="s">
         <v>149</v>
@@ -2609,7 +2609,7 @@
       <c r="AG31" s="31"/>
       <c r="AH31" s="31"/>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="33"/>
       <c r="C32" s="27"/>
@@ -2629,7 +2629,7 @@
       <c r="AG32" s="31"/>
       <c r="AH32" s="31"/>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
@@ -2651,7 +2651,7 @@
         <v>14313.808000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="13" t="s">
         <v>84</v>
       </c>
@@ -2690,7 +2690,7 @@
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
     </row>
-    <row r="35" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
         <v>9</v>
       </c>
@@ -2773,7 +2773,9 @@
       <c r="AE35" s="5">
         <v>12881</v>
       </c>
-      <c r="AF35" s="5"/>
+      <c r="AF35" s="5">
+        <v>10394</v>
+      </c>
       <c r="AG35" s="5"/>
       <c r="AH35" s="5"/>
       <c r="AP35" s="4">
@@ -2801,7 +2803,7 @@
         <v>85133</v>
       </c>
     </row>
-    <row r="36" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>10</v>
       </c>
@@ -2884,7 +2886,9 @@
       <c r="AE36" s="5">
         <v>323800</v>
       </c>
-      <c r="AF36" s="5"/>
+      <c r="AF36" s="5">
+        <v>373728</v>
+      </c>
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
       <c r="AP36" s="4">
@@ -2912,7 +2916,7 @@
         <v>1704093</v>
       </c>
     </row>
-    <row r="37" spans="1:58" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
         <v>11</v>
       </c>
@@ -3017,10 +3021,13 @@
         <v>495570</v>
       </c>
       <c r="AE37" s="7">
-        <f t="shared" ref="AE37" si="13">AE36+AE35</f>
+        <f t="shared" ref="AE37:AF37" si="13">AE36+AE35</f>
         <v>336681</v>
       </c>
-      <c r="AF37" s="7"/>
+      <c r="AF37" s="7">
+        <f t="shared" si="13"/>
+        <v>384122</v>
+      </c>
       <c r="AG37" s="7"/>
       <c r="AH37" s="7"/>
       <c r="AP37" s="6">
@@ -3092,7 +3099,7 @@
         <v>6699927.6462725811</v>
       </c>
     </row>
-    <row r="38" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
         <v>12</v>
       </c>
@@ -3101,7 +3108,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5">
-        <f t="shared" ref="G38:AE38" si="18">G45*1000000/G37</f>
+        <f t="shared" ref="G38:AF38" si="18">G45*1000000/G37</f>
         <v>55681.619828940478</v>
       </c>
       <c r="H38" s="5">
@@ -3200,7 +3207,10 @@
         <f t="shared" si="18"/>
         <v>38389.454706383789</v>
       </c>
-      <c r="AF38" s="5"/>
+      <c r="AF38" s="5">
+        <f t="shared" si="18"/>
+        <v>41098.921696752594</v>
+      </c>
       <c r="AG38" s="5"/>
       <c r="AH38" s="5"/>
       <c r="AP38" s="5">
@@ -3272,7 +3282,7 @@
         <v>56074.118613360093</v>
       </c>
     </row>
-    <row r="39" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -3306,7 +3316,7 @@
       <c r="AG39" s="5"/>
       <c r="AH39" s="5"/>
     </row>
-    <row r="40" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
@@ -3389,7 +3399,9 @@
       <c r="AE40" s="5">
         <v>17161</v>
       </c>
-      <c r="AF40" s="5"/>
+      <c r="AF40" s="5">
+        <v>13409</v>
+      </c>
       <c r="AG40" s="5"/>
       <c r="AH40" s="5"/>
       <c r="AP40" s="4">
@@ -3417,7 +3429,7 @@
         <v>94105</v>
       </c>
     </row>
-    <row r="41" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
@@ -3500,7 +3512,9 @@
       <c r="AE41" s="5">
         <v>345454</v>
       </c>
-      <c r="AF41" s="5"/>
+      <c r="AF41" s="5">
+        <v>396835</v>
+      </c>
       <c r="AG41" s="5"/>
       <c r="AH41" s="5"/>
       <c r="AP41" s="4">
@@ -3528,7 +3542,7 @@
         <v>1679338</v>
       </c>
     </row>
-    <row r="42" spans="1:58" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
         <v>15</v>
       </c>
@@ -3636,7 +3650,10 @@
         <f>+AE41+AE40</f>
         <v>362615</v>
       </c>
-      <c r="AF42" s="7"/>
+      <c r="AF42" s="7">
+        <f>+AF41+AF40</f>
+        <v>410244</v>
+      </c>
       <c r="AG42" s="7"/>
       <c r="AH42" s="7"/>
       <c r="AP42" s="6">
@@ -3708,7 +3725,7 @@
         <v>6699927.6462725811</v>
       </c>
     </row>
-    <row r="43" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -3743,7 +3760,7 @@
       <c r="AH43" s="5"/>
       <c r="AT43" s="26"/>
     </row>
-    <row r="44" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="40" t="s">
         <v>164</v>
       </c>
@@ -3829,7 +3846,7 @@
         <v>20774.762679774063</v>
       </c>
     </row>
-    <row r="45" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
         <v>32</v>
       </c>
@@ -3917,7 +3934,9 @@
       <c r="AE45" s="5">
         <v>12925</v>
       </c>
-      <c r="AF45" s="5"/>
+      <c r="AF45" s="5">
+        <v>15787</v>
+      </c>
       <c r="AG45" s="5"/>
       <c r="AH45" s="5"/>
       <c r="AP45" s="4">
@@ -3989,7 +4008,7 @@
         <v>375692.53753801924</v>
       </c>
     </row>
-    <row r="46" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
         <v>33</v>
       </c>
@@ -4073,7 +4092,9 @@
       <c r="AE46" s="5">
         <v>595</v>
       </c>
-      <c r="AF46" s="5"/>
+      <c r="AF46" s="5">
+        <v>439</v>
+      </c>
       <c r="AG46" s="5"/>
       <c r="AH46" s="5"/>
       <c r="AP46" s="4">
@@ -4101,7 +4122,7 @@
         <v>2763</v>
       </c>
     </row>
-    <row r="47" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
         <v>34</v>
       </c>
@@ -4185,7 +4206,9 @@
       <c r="AE47" s="5">
         <v>447</v>
       </c>
-      <c r="AF47" s="5"/>
+      <c r="AF47" s="5">
+        <v>435</v>
+      </c>
       <c r="AG47" s="5"/>
       <c r="AH47" s="5"/>
       <c r="AP47" s="4">
@@ -4213,7 +4236,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="48" spans="1:58" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
         <v>35</v>
       </c>
@@ -4318,10 +4341,13 @@
         <v>19798</v>
       </c>
       <c r="AE48" s="7">
-        <f t="shared" ref="AE48" si="42">SUM(AE45:AE47)</f>
+        <f t="shared" ref="AE48:AF48" si="42">SUM(AE45:AE47)</f>
         <v>13967</v>
       </c>
-      <c r="AF48" s="7"/>
+      <c r="AF48" s="7">
+        <f t="shared" si="42"/>
+        <v>16661</v>
+      </c>
       <c r="AG48" s="7"/>
       <c r="AH48" s="7"/>
       <c r="AP48" s="6">
@@ -4393,7 +4419,7 @@
         <v>375692.53753801924</v>
       </c>
     </row>
-    <row r="49" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
         <v>36</v>
       </c>
@@ -4477,7 +4503,9 @@
       <c r="AE49" s="5">
         <v>2730</v>
       </c>
-      <c r="AF49" s="5"/>
+      <c r="AF49" s="5">
+        <v>2789</v>
+      </c>
       <c r="AG49" s="5"/>
       <c r="AH49" s="5"/>
       <c r="AJ49" s="4">
@@ -4514,7 +4542,7 @@
         <v>10086</v>
       </c>
     </row>
-    <row r="50" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>37</v>
       </c>
@@ -4598,7 +4626,9 @@
       <c r="AE50" s="5">
         <v>2638</v>
       </c>
-      <c r="AF50" s="5"/>
+      <c r="AF50" s="5">
+        <v>3046</v>
+      </c>
       <c r="AG50" s="5"/>
       <c r="AH50" s="5"/>
       <c r="AJ50" s="4">
@@ -4635,7 +4665,7 @@
         <v>10534</v>
       </c>
     </row>
-    <row r="51" spans="2:58" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
         <v>38</v>
       </c>
@@ -4740,10 +4770,13 @@
         <v>25707</v>
       </c>
       <c r="AE51" s="7">
-        <f t="shared" ref="AE51" si="49">SUM(AE48:AE50)</f>
+        <f t="shared" ref="AE51:AF51" si="49">SUM(AE48:AE50)</f>
         <v>19335</v>
       </c>
-      <c r="AF51" s="7"/>
+      <c r="AF51" s="7">
+        <f t="shared" si="49"/>
+        <v>22496</v>
+      </c>
       <c r="AG51" s="7"/>
       <c r="AH51" s="7"/>
       <c r="AJ51" s="6">
@@ -4836,7 +4869,7 @@
         <v>396467.30021779332</v>
       </c>
     </row>
-    <row r="52" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>39</v>
       </c>
@@ -4919,7 +4952,9 @@
       <c r="AE52" s="5">
         <v>11461</v>
       </c>
-      <c r="AF52" s="5"/>
+      <c r="AF52" s="5">
+        <v>13567</v>
+      </c>
       <c r="AG52" s="5"/>
       <c r="AH52" s="5"/>
       <c r="AJ52" s="4">
@@ -4986,7 +5021,7 @@
         <v>297350.47516334499</v>
       </c>
     </row>
-    <row r="53" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
         <v>40</v>
       </c>
@@ -5094,7 +5129,10 @@
         <f>AE45-AE52</f>
         <v>1464</v>
       </c>
-      <c r="AF53" s="5"/>
+      <c r="AF53" s="5">
+        <f>AF45-AF52</f>
+        <v>2220</v>
+      </c>
       <c r="AG53" s="5"/>
       <c r="AH53" s="5"/>
       <c r="AR53" s="4">
@@ -5114,7 +5152,7 @@
         <v>10610</v>
       </c>
     </row>
-    <row r="54" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="29" t="s">
         <v>116</v>
       </c>
@@ -5155,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
         <v>41</v>
       </c>
@@ -5238,7 +5276,9 @@
       <c r="AE55" s="5">
         <v>239</v>
       </c>
-      <c r="AF55" s="5"/>
+      <c r="AF55" s="5">
+        <v>228</v>
+      </c>
       <c r="AG55" s="5"/>
       <c r="AH55" s="5"/>
       <c r="AS55" s="4">
@@ -5254,7 +5294,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="56" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
         <v>42</v>
       </c>
@@ -5359,10 +5399,13 @@
         <v>3288</v>
       </c>
       <c r="AE56" s="5">
-        <f t="shared" ref="AE56" si="68">AE48-AE55-AE52</f>
+        <f t="shared" ref="AE56:AF56" si="68">AE48-AE55-AE52</f>
         <v>2267</v>
       </c>
-      <c r="AF56" s="5"/>
+      <c r="AF56" s="5">
+        <f t="shared" si="68"/>
+        <v>2866</v>
+      </c>
       <c r="AG56" s="5"/>
       <c r="AH56" s="5"/>
       <c r="AS56" s="4">
@@ -5422,7 +5465,7 @@
         <v>99116.825054448331</v>
       </c>
     </row>
-    <row r="57" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
         <v>43</v>
       </c>
@@ -5505,7 +5548,9 @@
       <c r="AE57" s="5">
         <v>1945</v>
       </c>
-      <c r="AF57" s="5"/>
+      <c r="AF57" s="5">
+        <v>1943</v>
+      </c>
       <c r="AG57" s="5"/>
       <c r="AH57" s="5"/>
       <c r="AS57" s="4">
@@ -5521,7 +5566,7 @@
         <v>7446</v>
       </c>
     </row>
-    <row r="58" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
         <v>44</v>
       </c>
@@ -5604,7 +5649,9 @@
       <c r="AE58" s="5">
         <v>2537</v>
       </c>
-      <c r="AF58" s="5"/>
+      <c r="AF58" s="5">
+        <v>2880</v>
+      </c>
       <c r="AG58" s="5"/>
       <c r="AH58" s="5"/>
       <c r="AS58" s="4">
@@ -5620,7 +5667,7 @@
         <v>9921</v>
       </c>
     </row>
-    <row r="59" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
         <v>45</v>
       </c>
@@ -5725,10 +5772,13 @@
         <v>4179</v>
       </c>
       <c r="AE59" s="5">
-        <f t="shared" ref="AE59" si="74">AE56+AE49+AE50-AE57-AE58</f>
+        <f t="shared" ref="AE59:AF59" si="74">AE56+AE49+AE50-AE57-AE58</f>
         <v>3153</v>
       </c>
-      <c r="AF59" s="5"/>
+      <c r="AF59" s="5">
+        <f t="shared" si="74"/>
+        <v>3878</v>
+      </c>
       <c r="AG59" s="5"/>
       <c r="AH59" s="5"/>
       <c r="AS59" s="5">
@@ -5788,7 +5838,7 @@
         <v>119891.5877342224</v>
       </c>
     </row>
-    <row r="60" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
         <v>46</v>
       </c>
@@ -5931,7 +5981,7 @@
         <v>6989.1214156704564</v>
       </c>
     </row>
-    <row r="61" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
         <v>47</v>
       </c>
@@ -6075,7 +6125,7 @@
         <v>7928.1883900226503</v>
       </c>
     </row>
-    <row r="62" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
         <v>48</v>
       </c>
@@ -6243,7 +6293,7 @@
         <v>14917.309805693107</v>
       </c>
     </row>
-    <row r="63" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
         <v>49</v>
       </c>
@@ -6411,7 +6461,7 @@
         <v>104974.27792852929</v>
       </c>
     </row>
-    <row r="64" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
         <v>50</v>
       </c>
@@ -6575,7 +6625,7 @@
         <v>71126.798777096134</v>
       </c>
     </row>
-    <row r="65" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
         <v>51</v>
       </c>
@@ -6739,7 +6789,7 @@
         <v>176101.07670562543</v>
       </c>
     </row>
-    <row r="66" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="4" t="s">
         <v>52</v>
       </c>
@@ -6900,7 +6950,7 @@
         <v>26415.161505843815</v>
       </c>
     </row>
-    <row r="67" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="4" t="s">
         <v>53</v>
       </c>
@@ -7268,7 +7318,7 @@
         <v>89655.277992293646</v>
       </c>
     </row>
-    <row r="68" spans="2:109" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>54</v>
       </c>
@@ -7432,7 +7482,7 @@
         <v>42.831651820525536</v>
       </c>
     </row>
-    <row r="69" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="4" t="s">
         <v>1</v>
       </c>
@@ -7576,7 +7626,7 @@
         <v>3494.75</v>
       </c>
     </row>
-    <row r="71" spans="2:109" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:109" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="23" t="s">
         <v>89</v>
       </c>
@@ -7764,7 +7814,7 @@
         <v>8.1474584363125713E-2</v>
       </c>
     </row>
-    <row r="72" spans="2:109" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B72" s="21" t="s">
         <v>92</v>
       </c>
@@ -7920,7 +7970,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="73" spans="2:109" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B73" s="21" t="s">
         <v>93</v>
       </c>
@@ -8076,7 +8126,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="74" spans="2:109" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B74" s="19" t="s">
         <v>91</v>
       </c>
@@ -8168,7 +8218,7 @@
       <c r="AG74" s="17"/>
       <c r="AH74" s="17"/>
     </row>
-    <row r="75" spans="2:109" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B75" s="19" t="s">
         <v>90</v>
       </c>
@@ -8303,7 +8353,7 @@
       <c r="AW75" s="17"/>
       <c r="AX75" s="17"/>
     </row>
-    <row r="76" spans="2:109" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B76" s="19" t="s">
         <v>45</v>
       </c>
@@ -8479,7 +8529,7 @@
         <v>0.30239968761197145</v>
       </c>
     </row>
-    <row r="77" spans="2:109" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B77" s="15"/>
       <c r="R77" s="17"/>
       <c r="S77" s="17"/>
@@ -8499,7 +8549,7 @@
       <c r="AG77" s="17"/>
       <c r="AH77" s="17"/>
     </row>
-    <row r="78" spans="2:109" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:109" x14ac:dyDescent="0.2">
       <c r="BG78" s="28" t="s">
         <v>110</v>
       </c>
@@ -8507,7 +8557,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="79" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="4" t="s">
         <v>55</v>
       </c>
@@ -8607,7 +8657,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="80" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="4" t="s">
         <v>56</v>
       </c>
@@ -8688,7 +8738,7 @@
         <v>1191764.2410756461</v>
       </c>
     </row>
-    <row r="81" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="4" t="s">
         <v>57</v>
       </c>
@@ -8768,7 +8818,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="82" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="4" t="s">
         <v>58</v>
       </c>
@@ -8849,7 +8899,7 @@
         <v>338.47322950174555</v>
       </c>
     </row>
-    <row r="83" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="4" t="s">
         <v>59</v>
       </c>
@@ -8901,7 +8951,7 @@
       <c r="AG83" s="5"/>
       <c r="AH83" s="5"/>
     </row>
-    <row r="84" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="10" t="s">
         <v>80</v>
       </c>
@@ -8982,7 +9032,7 @@
       <c r="AG84" s="5"/>
       <c r="AH84" s="5"/>
     </row>
-    <row r="85" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="4" t="s">
         <v>60</v>
       </c>
@@ -9034,7 +9084,7 @@
       <c r="AG85" s="5"/>
       <c r="AH85" s="5"/>
     </row>
-    <row r="86" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="18" t="s">
         <v>69</v>
       </c>
@@ -9084,7 +9134,7 @@
       <c r="AG86" s="5"/>
       <c r="AH86" s="5"/>
     </row>
-    <row r="87" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="4" t="s">
         <v>61</v>
       </c>
@@ -9159,7 +9209,7 @@
       <c r="AG87" s="5"/>
       <c r="AH87" s="5"/>
     </row>
-    <row r="88" spans="2:60" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:60" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="6" t="s">
         <v>62</v>
       </c>
@@ -9262,7 +9312,7 @@
         <v>13256</v>
       </c>
     </row>
-    <row r="89" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -9296,7 +9346,7 @@
       <c r="AG89" s="5"/>
       <c r="AH89" s="5"/>
     </row>
-    <row r="90" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="10" t="s">
         <v>81</v>
       </c>
@@ -9383,7 +9433,7 @@
         <v>8898</v>
       </c>
     </row>
-    <row r="91" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="45" t="s">
         <v>177</v>
       </c>
@@ -9435,7 +9485,7 @@
       <c r="AG91" s="5"/>
       <c r="AH91" s="5"/>
     </row>
-    <row r="92" spans="2:60" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:60" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="6" t="s">
         <v>178</v>
       </c>
@@ -9487,7 +9537,7 @@
       <c r="AG92" s="7"/>
       <c r="AH92" s="7"/>
     </row>
-    <row r="93" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="10"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -9522,7 +9572,7 @@
       <c r="AG93" s="5"/>
       <c r="AH93" s="5"/>
     </row>
-    <row r="94" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="45" t="s">
         <v>4</v>
       </c>
@@ -9569,7 +9619,7 @@
       <c r="AG94" s="5"/>
       <c r="AH94" s="5"/>
     </row>
-    <row r="95" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="45" t="s">
         <v>179</v>
       </c>
@@ -9616,7 +9666,7 @@
       <c r="AG95" s="5"/>
       <c r="AH95" s="5"/>
     </row>
-    <row r="96" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="45" t="s">
         <v>180</v>
       </c>
@@ -9663,7 +9713,7 @@
       <c r="AG96" s="5"/>
       <c r="AH96" s="5"/>
     </row>
-    <row r="97" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="45" t="s">
         <v>181</v>
       </c>
@@ -9710,7 +9760,7 @@
       <c r="AG97" s="5"/>
       <c r="AH97" s="5"/>
     </row>
-    <row r="98" spans="2:58" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="6" t="s">
         <v>182</v>
       </c>
@@ -9762,7 +9812,7 @@
       <c r="AG98" s="7"/>
       <c r="AH98" s="7"/>
     </row>
-    <row r="99" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="10"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -9797,7 +9847,7 @@
       <c r="AG99" s="5"/>
       <c r="AH99" s="5"/>
     </row>
-    <row r="100" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="10" t="s">
         <v>82</v>
       </c>
@@ -9861,7 +9911,7 @@
         <v>4358</v>
       </c>
     </row>
-    <row r="101" spans="2:58" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="10" t="s">
         <v>83</v>
       </c>
@@ -9943,7 +9993,7 @@
       <c r="AG101" s="5"/>
       <c r="AH101" s="5"/>
     </row>
-    <row r="102" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -9977,7 +10027,7 @@
       <c r="AG102" s="5"/>
       <c r="AH102" s="5"/>
     </row>
-    <row r="103" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="29" t="s">
         <v>115</v>
       </c>
@@ -10093,7 +10143,7 @@
         <v>860953.9029707429</v>
       </c>
     </row>
-    <row r="104" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B104" s="10" t="s">
         <v>3</v>
       </c>
@@ -10162,7 +10212,7 @@
       <c r="AG104" s="5"/>
       <c r="AH104" s="5"/>
     </row>
-    <row r="105" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="10" t="s">
         <v>63</v>
       </c>
@@ -10219,7 +10269,7 @@
       <c r="AG105" s="5"/>
       <c r="AH105" s="5"/>
     </row>
-    <row r="106" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="10" t="s">
         <v>59</v>
       </c>
@@ -10276,7 +10326,7 @@
       <c r="AG106" s="5"/>
       <c r="AH106" s="5"/>
     </row>
-    <row r="107" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107" s="10" t="s">
         <v>64</v>
       </c>
@@ -10333,7 +10383,7 @@
       <c r="AG107" s="5"/>
       <c r="AH107" s="5"/>
     </row>
-    <row r="108" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108" s="10" t="s">
         <v>65</v>
       </c>
@@ -10390,7 +10440,7 @@
       <c r="AG108" s="5"/>
       <c r="AH108" s="5"/>
     </row>
-    <row r="109" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B109" s="10" t="s">
         <v>66</v>
       </c>
@@ -10447,7 +10497,7 @@
       <c r="AG109" s="5"/>
       <c r="AH109" s="5"/>
     </row>
-    <row r="110" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B110" s="10" t="s">
         <v>67</v>
       </c>
@@ -10504,7 +10554,7 @@
       <c r="AG110" s="5"/>
       <c r="AH110" s="5"/>
     </row>
-    <row r="111" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B111" s="10" t="s">
         <v>68</v>
       </c>
@@ -10561,7 +10611,7 @@
       <c r="AG111" s="5"/>
       <c r="AH111" s="5"/>
     </row>
-    <row r="112" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112" s="10" t="s">
         <v>69</v>
       </c>
@@ -10618,7 +10668,7 @@
       <c r="AG112" s="5"/>
       <c r="AH112" s="5"/>
     </row>
-    <row r="113" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B113" s="10" t="s">
         <v>70</v>
       </c>
@@ -10679,7 +10729,7 @@
       <c r="AG113" s="5"/>
       <c r="AH113" s="5"/>
     </row>
-    <row r="114" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="10" t="s">
         <v>71</v>
       </c>
@@ -10742,7 +10792,7 @@
       <c r="AG114" s="5"/>
       <c r="AH114" s="5"/>
     </row>
-    <row r="115" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B115" s="10" t="s">
         <v>72</v>
       </c>
@@ -10818,14 +10868,14 @@
       <c r="AG115" s="5"/>
       <c r="AH115" s="5"/>
     </row>
-    <row r="116" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:58" x14ac:dyDescent="0.2">
       <c r="S116" s="5"/>
       <c r="T116" s="5"/>
       <c r="U116" s="5"/>
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B117" s="9" t="s">
         <v>73</v>
       </c>
@@ -10860,7 +10910,7 @@
         <v>13471</v>
       </c>
     </row>
-    <row r="118" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B118" s="9" t="s">
         <v>74</v>
       </c>
@@ -10895,7 +10945,7 @@
         <v>10802</v>
       </c>
     </row>
-    <row r="119" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B119" s="9" t="s">
         <v>75</v>
       </c>
@@ -10940,7 +10990,7 @@
         <v>6853</v>
       </c>
     </row>
-    <row r="120" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B120" s="9" t="s">
         <v>76</v>
       </c>
@@ -10975,7 +11025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B121" s="9" t="s">
         <v>4</v>
       </c>
@@ -11025,7 +11075,7 @@
       <c r="AG121" s="5"/>
       <c r="AH121" s="5"/>
     </row>
-    <row r="122" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B122" s="9" t="s">
         <v>77</v>
       </c>
@@ -11060,7 +11110,7 @@
         <v>11038</v>
       </c>
     </row>
-    <row r="123" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B123" s="9" t="s">
         <v>78</v>
       </c>
@@ -11105,7 +11155,7 @@
         <v>75418</v>
       </c>
     </row>
-    <row r="124" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B124" s="9" t="s">
         <v>79</v>
       </c>
@@ -11154,10 +11204,10 @@
         <v>125111</v>
       </c>
     </row>
-    <row r="125" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:58" x14ac:dyDescent="0.2">
       <c r="S125" s="5"/>
     </row>
-    <row r="126" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B126" s="33" t="s">
         <v>154</v>
       </c>
@@ -11176,7 +11226,7 @@
         <v>3536</v>
       </c>
     </row>
-    <row r="127" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B127" s="33" t="s">
         <v>159</v>
       </c>
@@ -11239,7 +11289,7 @@
         <v>21975.762679774063</v>
       </c>
     </row>
-    <row r="128" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B128" s="33" t="s">
         <v>160</v>
       </c>
@@ -11254,7 +11304,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="129" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B129" s="33"/>
       <c r="S129" s="5"/>
       <c r="Z129" s="5"/>
@@ -11263,7 +11313,7 @@
       <c r="AS129" s="4"/>
       <c r="AT129" s="4"/>
     </row>
-    <row r="130" spans="2:58" ht="13" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B130" s="33" t="s">
         <v>161</v>
       </c>
@@ -11325,7 +11375,7 @@
         <v>2746.9703349717579</v>
       </c>
     </row>
-    <row r="131" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B131" s="33" t="s">
         <v>162</v>
       </c>
@@ -11335,7 +11385,7 @@
         <v>0.21386886371438374</v>
       </c>
     </row>
-    <row r="132" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B132" s="33" t="s">
         <v>163</v>
       </c>
@@ -11400,20 +11450,20 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="28"/>
-    <col min="3" max="3" width="11.7265625" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="28"/>
+    <col min="2" max="2" width="9.140625" style="28"/>
+    <col min="3" max="3" width="11.7109375" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="28" t="s">
         <v>98</v>
       </c>
@@ -11424,7 +11474,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" s="28" t="s">
         <v>100</v>
       </c>
@@ -11432,7 +11482,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="28" t="s">
         <v>101</v>
       </c>
@@ -11446,7 +11496,7 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="28" t="s">
         <v>102</v>
       </c>
@@ -11460,7 +11510,7 @@
         <v>375000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="28" t="s">
         <v>104</v>
       </c>
@@ -11471,7 +11521,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" s="28" t="s">
         <v>105</v>
       </c>
@@ -11482,7 +11532,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="28" t="s">
         <v>106</v>
       </c>
@@ -11493,7 +11543,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="28" t="s">
         <v>108</v>
       </c>
@@ -11501,7 +11551,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" s="28" t="s">
         <v>109</v>
       </c>
@@ -11509,12 +11559,12 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="33" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="33" t="s">
         <v>157</v>
       </c>
@@ -11535,13 +11585,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="33"/>
+    <col min="2" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>8</v>
       </c>
